--- a/src/main/resources/script/meta/micro-service-init-data.xlsx
+++ b/src/main/resources/script/meta/micro-service-init-data.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\spilledyear\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\RD\SVN\45 脚本管理\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22054" windowHeight="10015" tabRatio="845" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22054" windowHeight="10015" tabRatio="845" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="419">
   <si>
     <t>IAM_PERMISSION</t>
   </si>
@@ -226,9 +226,6 @@
     <t>choerodon.code.organization.security-password</t>
   </si>
   <si>
-    <t>choerodon.code.organization.security-client</t>
-  </si>
-  <si>
     <t>choerodon.code.organization.client</t>
   </si>
   <si>
@@ -772,19 +769,10 @@
     <t>GENERAL</t>
   </si>
   <si>
-    <t>PROGRAM</t>
-  </si>
-  <si>
     <t>DEFAULT</t>
   </si>
   <si>
-    <t>organization_project</t>
-  </si>
-  <si>
     <t>OFFICIAL</t>
-  </si>
-  <si>
-    <t>choerodon.code.organization.security-token</t>
   </si>
   <si>
     <t>FD_LOV</t>
@@ -1176,10 +1164,6 @@
     <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
-    <t>choerodon.code.organization.ps-view</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
     <t>choerodon.code.organization.doc-management</t>
     <phoneticPr fontId="22" type="noConversion"/>
   </si>
@@ -1232,10 +1216,6 @@
   </si>
   <si>
     <t>SVN权限操作审计路由</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>choerodon.code.organization.operation-logs</t>
     <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
@@ -1453,6 +1433,134 @@
     <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
+    <t>choerodon.route.infra.doc-lib.ps-management</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.code.infra.personal-setting</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.code.infra.personal-setting-gitlab</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.code.infra.personal-setting-svn</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.code.infra.doc-lib.ps-management</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.code.infra.doc-lib.ps-view</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>choerodon.code.infra.code</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Fallback"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-lib.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Fallback"/>
+        <charset val="134"/>
+      </rPr>
+      <t>code</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Fallback"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-management</t>
+    </r>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEFAULT</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.code.infra.personal-setting</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>organization_project</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEFAULT</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>organization_project</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>choerodon.code.infra.code</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Fallback"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-lib.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Fallback"/>
+        <charset val="134"/>
+      </rPr>
+      <t>code</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Fallback"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-management</t>
+    </r>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>OFFICIAL</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.code.infra.personal-setting-svn</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>OFFICIAL</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.code.infra.doc-lib.ps-management</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.code.infra.doc-lib.ps-view</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.route.project.operation-logs</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
     <t>choerodon.code.project.operation-logs</t>
     <phoneticPr fontId="22" type="noConversion"/>
   </si>
@@ -1461,7 +1569,31 @@
     <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
-    <t>choerodon.route.infra.doc-lib.ps-management</t>
+    <t>choerodon.code.project.security-audit</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.code.organization.ps-view</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.code.organization.operation-logs</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.code.organization.ps-view</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.code.organization.ps-view</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.code.organization.operation-logs</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>organization</t>
     <phoneticPr fontId="22" type="noConversion"/>
   </si>
 </sst>
@@ -1469,7 +1601,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="41">
+  <fonts count="42">
     <font>
       <sz val="10"/>
       <name val="Droid Sans Fallback"/>
@@ -1512,6 +1644,7 @@
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="DengXian"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1719,6 +1852,12 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF494949"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1755,7 +1894,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
@@ -1805,6 +1944,7 @@
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2082,8 +2222,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:O57"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView topLeftCell="C1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.7"/>
@@ -2146,22 +2286,22 @@
     </row>
     <row r="8" spans="4:15" s="29" customFormat="1">
       <c r="F8" s="29" t="s">
+        <v>285</v>
+      </c>
+      <c r="G8" s="29" t="s">
+        <v>286</v>
+      </c>
+      <c r="H8" s="29" t="s">
+        <v>287</v>
+      </c>
+      <c r="I8" s="29" t="s">
+        <v>364</v>
+      </c>
+      <c r="J8" s="30" t="s">
+        <v>288</v>
+      </c>
+      <c r="K8" s="29" t="s">
         <v>289</v>
-      </c>
-      <c r="G8" s="29" t="s">
-        <v>290</v>
-      </c>
-      <c r="H8" s="29" t="s">
-        <v>291</v>
-      </c>
-      <c r="I8" s="29" t="s">
-        <v>370</v>
-      </c>
-      <c r="J8" s="30" t="s">
-        <v>292</v>
-      </c>
-      <c r="K8" s="29" t="s">
-        <v>293</v>
       </c>
       <c r="L8" s="29">
         <v>0</v>
@@ -2175,22 +2315,22 @@
     </row>
     <row r="9" spans="4:15" s="29" customFormat="1">
       <c r="F9" s="29" t="s">
+        <v>290</v>
+      </c>
+      <c r="G9" s="29" t="s">
+        <v>291</v>
+      </c>
+      <c r="H9" s="29" t="s">
+        <v>292</v>
+      </c>
+      <c r="I9" s="29" t="s">
+        <v>364</v>
+      </c>
+      <c r="J9" s="30" t="s">
+        <v>293</v>
+      </c>
+      <c r="K9" s="29" t="s">
         <v>294</v>
-      </c>
-      <c r="G9" s="29" t="s">
-        <v>295</v>
-      </c>
-      <c r="H9" s="29" t="s">
-        <v>296</v>
-      </c>
-      <c r="I9" s="29" t="s">
-        <v>370</v>
-      </c>
-      <c r="J9" s="30" t="s">
-        <v>297</v>
-      </c>
-      <c r="K9" s="29" t="s">
-        <v>298</v>
       </c>
       <c r="L9" s="29">
         <v>0</v>
@@ -2204,19 +2344,19 @@
     </row>
     <row r="10" spans="4:15" s="29" customFormat="1">
       <c r="F10" s="29" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="G10" s="29" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="H10" s="29" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="I10" s="29" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="J10" s="30" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="K10" s="29" t="s">
         <v>14</v>
@@ -2233,19 +2373,19 @@
     </row>
     <row r="11" spans="4:15" s="29" customFormat="1">
       <c r="F11" s="29" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="G11" s="29" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H11" s="29" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="I11" s="29" t="s">
         <v>39</v>
       </c>
       <c r="J11" s="30" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="K11" s="29" t="s">
         <v>14</v>
@@ -2262,19 +2402,19 @@
     </row>
     <row r="12" spans="4:15" s="29" customFormat="1">
       <c r="F12" s="29" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="G12" s="29" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="H12" s="29" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="I12" s="29" t="s">
         <v>39</v>
       </c>
       <c r="J12" s="30" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="K12" s="29" t="s">
         <v>14</v>
@@ -2291,19 +2431,19 @@
     </row>
     <row r="13" spans="4:15" s="29" customFormat="1">
       <c r="F13" s="29" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="G13" s="29" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="H13" s="29" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="I13" s="29" t="s">
         <v>39</v>
       </c>
       <c r="J13" s="29" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="K13" s="29" t="s">
         <v>14</v>
@@ -2320,19 +2460,19 @@
     </row>
     <row r="14" spans="4:15" s="29" customFormat="1">
       <c r="F14" s="29" t="s">
-        <v>375</v>
+        <v>409</v>
       </c>
       <c r="G14" s="29" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="H14" s="29" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="I14" s="29" t="s">
         <v>39</v>
       </c>
       <c r="J14" s="30" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="K14" s="29" t="s">
         <v>14</v>
@@ -2349,19 +2489,19 @@
     </row>
     <row r="15" spans="4:15" s="29" customFormat="1">
       <c r="F15" s="29" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="G15" s="29" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="H15" s="29" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="I15" s="29" t="s">
         <v>39</v>
       </c>
       <c r="J15" s="30" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="K15" s="29" t="s">
         <v>14</v>
@@ -2378,19 +2518,19 @@
     </row>
     <row r="16" spans="4:15" s="36" customFormat="1" ht="13">
       <c r="F16" s="39" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="G16" s="40" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="H16" s="40" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="I16" s="40" t="s">
         <v>13</v>
       </c>
       <c r="J16" s="36" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="K16" s="40" t="s">
         <v>14</v>
@@ -2407,19 +2547,19 @@
     </row>
     <row r="17" spans="4:14" s="36" customFormat="1" ht="13">
       <c r="F17" s="39" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="G17" s="40" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="H17" s="40" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="I17" s="40" t="s">
         <v>13</v>
       </c>
       <c r="J17" s="36" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="K17" s="40" t="s">
         <v>14</v>
@@ -2866,8 +3006,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:Q81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView topLeftCell="E1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.7"/>
@@ -2927,7 +3067,7 @@
         <v>54</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="P7" s="4" t="s">
         <v>55</v>
@@ -2938,31 +3078,31 @@
     </row>
     <row r="8" spans="4:17" s="22" customFormat="1" ht="13.95" customHeight="1">
       <c r="F8" s="23" t="s">
+        <v>305</v>
+      </c>
+      <c r="G8" s="23" t="s">
+        <v>306</v>
+      </c>
+      <c r="H8" s="23" t="s">
+        <v>307</v>
+      </c>
+      <c r="I8" s="23" t="s">
+        <v>285</v>
+      </c>
+      <c r="J8" s="23" t="s">
+        <v>287</v>
+      </c>
+      <c r="K8" s="23" t="s">
+        <v>308</v>
+      </c>
+      <c r="L8" s="23" t="s">
         <v>309</v>
       </c>
-      <c r="G8" s="23" t="s">
+      <c r="M8" s="23" t="s">
         <v>310</v>
       </c>
-      <c r="H8" s="23" t="s">
+      <c r="N8" s="22" t="s">
         <v>311</v>
-      </c>
-      <c r="I8" s="23" t="s">
-        <v>289</v>
-      </c>
-      <c r="J8" s="23" t="s">
-        <v>291</v>
-      </c>
-      <c r="K8" s="23" t="s">
-        <v>312</v>
-      </c>
-      <c r="L8" s="23" t="s">
-        <v>313</v>
-      </c>
-      <c r="M8" s="23" t="s">
-        <v>314</v>
-      </c>
-      <c r="N8" s="22" t="s">
-        <v>315</v>
       </c>
       <c r="O8" s="22">
         <v>20</v>
@@ -2970,31 +3110,31 @@
     </row>
     <row r="9" spans="4:17" s="22" customFormat="1" ht="13.95" customHeight="1">
       <c r="F9" s="23" t="s">
+        <v>312</v>
+      </c>
+      <c r="G9" s="23" t="s">
+        <v>313</v>
+      </c>
+      <c r="H9" s="23" t="s">
+        <v>314</v>
+      </c>
+      <c r="I9" s="23" t="s">
+        <v>315</v>
+      </c>
+      <c r="J9" s="23" t="s">
+        <v>287</v>
+      </c>
+      <c r="K9" s="23" t="s">
         <v>316</v>
       </c>
-      <c r="G9" s="23" t="s">
+      <c r="L9" s="23" t="s">
         <v>317</v>
       </c>
-      <c r="H9" s="23" t="s">
+      <c r="M9" s="23" t="s">
         <v>318</v>
       </c>
-      <c r="I9" s="23" t="s">
-        <v>319</v>
-      </c>
-      <c r="J9" s="23" t="s">
-        <v>291</v>
-      </c>
-      <c r="K9" s="23" t="s">
-        <v>320</v>
-      </c>
-      <c r="L9" s="23" t="s">
-        <v>321</v>
-      </c>
-      <c r="M9" s="23" t="s">
-        <v>322</v>
-      </c>
       <c r="N9" s="22" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="O9" s="22">
         <v>20</v>
@@ -3002,31 +3142,31 @@
     </row>
     <row r="10" spans="4:17" s="22" customFormat="1">
       <c r="F10" s="23" t="s">
+        <v>319</v>
+      </c>
+      <c r="G10" s="23" t="s">
+        <v>320</v>
+      </c>
+      <c r="H10" s="23" t="s">
+        <v>321</v>
+      </c>
+      <c r="I10" s="23" t="s">
+        <v>295</v>
+      </c>
+      <c r="J10" s="23" t="s">
+        <v>287</v>
+      </c>
+      <c r="K10" s="23" t="s">
+        <v>305</v>
+      </c>
+      <c r="L10" s="23" t="s">
+        <v>322</v>
+      </c>
+      <c r="M10" s="23" t="s">
         <v>323</v>
       </c>
-      <c r="G10" s="23" t="s">
+      <c r="N10" s="22" t="s">
         <v>324</v>
-      </c>
-      <c r="H10" s="23" t="s">
-        <v>325</v>
-      </c>
-      <c r="I10" s="23" t="s">
-        <v>299</v>
-      </c>
-      <c r="J10" s="23" t="s">
-        <v>291</v>
-      </c>
-      <c r="K10" s="23" t="s">
-        <v>309</v>
-      </c>
-      <c r="L10" s="23" t="s">
-        <v>326</v>
-      </c>
-      <c r="M10" s="23" t="s">
-        <v>327</v>
-      </c>
-      <c r="N10" s="22" t="s">
-        <v>328</v>
       </c>
       <c r="O10" s="22">
         <v>20</v>
@@ -3034,19 +3174,19 @@
     </row>
     <row r="11" spans="4:17" s="42" customFormat="1">
       <c r="F11" s="42" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="G11" s="42" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="H11" s="42" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="J11" s="42" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="K11" s="42" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="L11" s="42" t="s">
         <v>39</v>
@@ -3055,7 +3195,7 @@
         <v>56</v>
       </c>
       <c r="N11" s="42" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="O11" s="42">
         <v>60</v>
@@ -3063,31 +3203,31 @@
     </row>
     <row r="12" spans="4:17" s="41" customFormat="1">
       <c r="F12" s="41" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="G12" s="41" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="H12" s="41" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="I12" s="41" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="J12" s="41" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="K12" s="41" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="L12" s="41" t="s">
         <v>39</v>
       </c>
       <c r="M12" s="41" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="N12" s="41" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="O12" s="41">
         <v>10</v>
@@ -3095,31 +3235,31 @@
     </row>
     <row r="13" spans="4:17" s="41" customFormat="1">
       <c r="F13" s="41" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="G13" s="41" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="H13" s="41" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="I13" s="41" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="J13" s="41" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="K13" s="41" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="L13" s="41" t="s">
         <v>39</v>
       </c>
       <c r="M13" s="41" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="N13" s="41" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="O13" s="41">
         <v>20</v>
@@ -3127,31 +3267,31 @@
     </row>
     <row r="14" spans="4:17" s="41" customFormat="1">
       <c r="F14" s="41" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="G14" s="41" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="H14" s="41" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="I14" s="41" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="J14" s="41" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="K14" s="41" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="L14" s="41" t="s">
         <v>39</v>
       </c>
       <c r="M14" s="41" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="N14" s="41" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="O14" s="41">
         <v>30</v>
@@ -3159,31 +3299,31 @@
     </row>
     <row r="15" spans="4:17" s="41" customFormat="1">
       <c r="F15" s="41" t="s">
-        <v>398</v>
+        <v>411</v>
       </c>
       <c r="G15" s="41" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="H15" s="41" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="I15" s="41" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="J15" s="41" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="K15" s="41" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="L15" s="41" t="s">
         <v>39</v>
       </c>
       <c r="M15" s="41" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="N15" s="41" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="O15" s="41">
         <v>40</v>
@@ -3191,31 +3331,31 @@
     </row>
     <row r="16" spans="4:17" s="22" customFormat="1">
       <c r="F16" s="23" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="G16" s="24" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="H16" s="23" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="I16" s="23" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="J16" s="23" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="K16" s="23" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="L16" s="22" t="s">
         <v>39</v>
       </c>
       <c r="M16" s="23" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="N16" s="22" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="O16" s="22">
         <v>50</v>
@@ -3223,28 +3363,28 @@
     </row>
     <row r="17" spans="6:15" s="43" customFormat="1">
       <c r="F17" s="43" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="G17" s="44" t="s">
+        <v>347</v>
+      </c>
+      <c r="H17" s="43" t="s">
+        <v>348</v>
+      </c>
+      <c r="J17" s="43" t="s">
+        <v>287</v>
+      </c>
+      <c r="K17" s="43" t="s">
+        <v>351</v>
+      </c>
+      <c r="L17" s="43" t="s">
         <v>352</v>
-      </c>
-      <c r="H17" s="43" t="s">
-        <v>353</v>
-      </c>
-      <c r="J17" s="43" t="s">
-        <v>291</v>
-      </c>
-      <c r="K17" s="43" t="s">
-        <v>356</v>
-      </c>
-      <c r="L17" s="43" t="s">
-        <v>357</v>
       </c>
       <c r="M17" s="43" t="s">
         <v>56</v>
       </c>
       <c r="N17" s="43" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="O17" s="43">
         <v>80</v>
@@ -3252,31 +3392,31 @@
     </row>
     <row r="18" spans="6:15" s="31" customFormat="1" ht="13">
       <c r="F18" s="32" t="s">
-        <v>348</v>
+        <v>413</v>
       </c>
       <c r="G18" s="30" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="H18" s="32" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="I18" s="33" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="J18" s="29" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="K18" s="32" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="L18" s="32" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="M18" s="32" t="s">
         <v>58</v>
       </c>
       <c r="N18" s="32" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="O18" s="29">
         <v>10</v>
@@ -3284,28 +3424,28 @@
     </row>
     <row r="19" spans="6:15" s="45" customFormat="1">
       <c r="F19" s="45" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="G19" s="46" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="H19" s="45" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="J19" s="45" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="K19" s="45" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="L19" s="45" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="M19" s="45" t="s">
         <v>56</v>
       </c>
       <c r="N19" s="45" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="O19" s="45">
         <v>90</v>
@@ -3313,31 +3453,31 @@
     </row>
     <row r="20" spans="6:15" s="36" customFormat="1" ht="13">
       <c r="F20" s="37" t="s">
-        <v>363</v>
+        <v>414</v>
       </c>
       <c r="G20" s="35" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="H20" s="37" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="I20" s="38" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="J20" s="34" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="K20" s="37" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="L20" s="37" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="M20" s="37" t="s">
         <v>58</v>
       </c>
       <c r="N20" s="37" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="O20" s="34">
         <v>10</v>
@@ -4058,8 +4198,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A7:I186"/>
   <sheetViews>
-    <sheetView topLeftCell="A147" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D170" sqref="D170"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:XFD25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.7"/>
@@ -4074,22 +4214,22 @@
   <sheetData>
     <row r="7" spans="4:9" ht="12.85" customHeight="1">
       <c r="D7" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F7" s="4" t="s">
+      <c r="G7" s="4" t="s">
         <v>92</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>93</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="4:9" ht="16.25">
@@ -4109,7 +4249,7 @@
         <v>57</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -4120,7 +4260,7 @@
         <v>57</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -4131,7 +4271,7 @@
         <v>57</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -4142,7 +4282,7 @@
         <v>57</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -4164,7 +4304,7 @@
         <v>59</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -4175,7 +4315,7 @@
         <v>59</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -4186,7 +4326,7 @@
         <v>59</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -4197,7 +4337,7 @@
         <v>59</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -4208,7 +4348,7 @@
         <v>59</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -4219,7 +4359,7 @@
         <v>59</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -4230,7 +4370,7 @@
         <v>59</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -4241,7 +4381,7 @@
         <v>59</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -4252,7 +4392,7 @@
         <v>59</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I22">
         <v>1</v>
@@ -4263,7 +4403,7 @@
         <v>59</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I23">
         <v>1</v>
@@ -4274,7 +4414,7 @@
         <v>59</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I24">
         <v>1</v>
@@ -4285,7 +4425,7 @@
         <v>59</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -4296,7 +4436,7 @@
         <v>59</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -4307,7 +4447,7 @@
         <v>59</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -4318,7 +4458,7 @@
         <v>59</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -4329,7 +4469,7 @@
         <v>59</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -4340,7 +4480,7 @@
         <v>59</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I30">
         <v>0</v>
@@ -4351,7 +4491,7 @@
         <v>59</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -4384,7 +4524,7 @@
         <v>62</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I34">
         <v>0</v>
@@ -4395,7 +4535,7 @@
         <v>62</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I35">
         <v>1</v>
@@ -4417,7 +4557,7 @@
         <v>63</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I37">
         <v>1</v>
@@ -4428,7 +4568,7 @@
         <v>63</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I38">
         <v>0</v>
@@ -4439,7 +4579,7 @@
         <v>63</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I39">
         <v>0</v>
@@ -4450,7 +4590,7 @@
         <v>63</v>
       </c>
       <c r="G40" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I40">
         <v>0</v>
@@ -4461,7 +4601,7 @@
         <v>63</v>
       </c>
       <c r="G41" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I41">
         <v>0</v>
@@ -4472,7 +4612,7 @@
         <v>63</v>
       </c>
       <c r="G42" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I42">
         <v>0</v>
@@ -4483,7 +4623,7 @@
         <v>63</v>
       </c>
       <c r="G43" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I43">
         <v>0</v>
@@ -4494,7 +4634,7 @@
         <v>63</v>
       </c>
       <c r="G44" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I44">
         <v>1</v>
@@ -4516,7 +4656,7 @@
         <v>64</v>
       </c>
       <c r="G46" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I46">
         <v>1</v>
@@ -4527,7 +4667,7 @@
         <v>64</v>
       </c>
       <c r="G47" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I47">
         <v>1</v>
@@ -4538,7 +4678,7 @@
         <v>64</v>
       </c>
       <c r="G48" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I48">
         <v>1</v>
@@ -4549,7 +4689,7 @@
         <v>64</v>
       </c>
       <c r="G49" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I49">
         <v>0</v>
@@ -4560,7 +4700,7 @@
         <v>64</v>
       </c>
       <c r="G50" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I50">
         <v>0</v>
@@ -4593,7 +4733,7 @@
         <v>65</v>
       </c>
       <c r="G53" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I53">
         <v>1</v>
@@ -4604,7 +4744,7 @@
         <v>65</v>
       </c>
       <c r="G54" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I54">
         <v>0</v>
@@ -4612,7 +4752,7 @@
     </row>
     <row r="55" spans="6:9" ht="16.25">
       <c r="F55" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G55" s="8" t="s">
         <v>22</v>
@@ -4623,10 +4763,10 @@
     </row>
     <row r="56" spans="6:9" ht="16.25">
       <c r="F56" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G56" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I56">
         <v>0</v>
@@ -4634,10 +4774,10 @@
     </row>
     <row r="57" spans="6:9" ht="16.25">
       <c r="F57" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G57" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I57">
         <v>0</v>
@@ -4645,10 +4785,10 @@
     </row>
     <row r="58" spans="6:9" ht="16.25">
       <c r="F58" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G58" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I58">
         <v>0</v>
@@ -4656,10 +4796,10 @@
     </row>
     <row r="59" spans="6:9" ht="16.25">
       <c r="F59" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G59" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I59">
         <v>0</v>
@@ -4667,10 +4807,10 @@
     </row>
     <row r="60" spans="6:9" ht="16.25">
       <c r="F60" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G60" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I60">
         <v>1</v>
@@ -4678,10 +4818,10 @@
     </row>
     <row r="61" spans="6:9" ht="16.25">
       <c r="F61" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G61" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I61">
         <v>1</v>
@@ -4689,10 +4829,10 @@
     </row>
     <row r="62" spans="6:9" ht="16.25">
       <c r="F62" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G62" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I62">
         <v>0</v>
@@ -4700,10 +4840,10 @@
     </row>
     <row r="63" spans="6:9" ht="16.25">
       <c r="F63" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G63" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I63">
         <v>0</v>
@@ -4711,7 +4851,7 @@
     </row>
     <row r="64" spans="6:9" ht="16.25">
       <c r="F64" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G64" s="8" t="s">
         <v>24</v>
@@ -4722,10 +4862,10 @@
     </row>
     <row r="65" spans="6:9" ht="16.25">
       <c r="F65" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G65" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I65">
         <v>1</v>
@@ -4733,10 +4873,10 @@
     </row>
     <row r="66" spans="6:9" ht="16.25">
       <c r="F66" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G66" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I66">
         <v>0</v>
@@ -4744,10 +4884,10 @@
     </row>
     <row r="67" spans="6:9" ht="16.25">
       <c r="F67" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G67" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I67">
         <v>0</v>
@@ -4755,7 +4895,7 @@
     </row>
     <row r="68" spans="6:9" ht="16.25">
       <c r="F68" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G68" s="8" t="s">
         <v>25</v>
@@ -4766,10 +4906,10 @@
     </row>
     <row r="69" spans="6:9" ht="16.25">
       <c r="F69" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G69" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I69">
         <v>0</v>
@@ -4777,10 +4917,10 @@
     </row>
     <row r="70" spans="6:9" ht="16.25">
       <c r="F70" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G70" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I70">
         <v>0</v>
@@ -4788,10 +4928,10 @@
     </row>
     <row r="71" spans="6:9" ht="16.25">
       <c r="F71" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G71" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I71">
         <v>0</v>
@@ -4799,10 +4939,10 @@
     </row>
     <row r="72" spans="6:9" ht="16.25">
       <c r="F72" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G72" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I72">
         <v>0</v>
@@ -4810,10 +4950,10 @@
     </row>
     <row r="73" spans="6:9" ht="16.25">
       <c r="F73" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G73" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I73">
         <v>1</v>
@@ -4821,10 +4961,10 @@
     </row>
     <row r="74" spans="6:9" ht="16.25">
       <c r="F74" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G74" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I74">
         <v>0</v>
@@ -4832,10 +4972,10 @@
     </row>
     <row r="75" spans="6:9" ht="16.25">
       <c r="F75" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G75" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I75">
         <v>1</v>
@@ -4843,10 +4983,10 @@
     </row>
     <row r="76" spans="6:9" ht="16.25">
       <c r="F76" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G76" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I76">
         <v>0</v>
@@ -4854,10 +4994,10 @@
     </row>
     <row r="77" spans="6:9" ht="16.25">
       <c r="F77" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G77" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I77">
         <v>0</v>
@@ -4865,10 +5005,10 @@
     </row>
     <row r="78" spans="6:9" ht="16.25">
       <c r="F78" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G78" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I78">
         <v>0</v>
@@ -4876,10 +5016,10 @@
     </row>
     <row r="79" spans="6:9" ht="16.25">
       <c r="F79" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G79" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I79">
         <v>0</v>
@@ -4887,10 +5027,10 @@
     </row>
     <row r="80" spans="6:9" ht="16.25">
       <c r="F80" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G80" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I80">
         <v>0</v>
@@ -4898,10 +5038,10 @@
     </row>
     <row r="81" spans="6:9" ht="16.25">
       <c r="F81" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G81" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I81">
         <v>0</v>
@@ -4909,7 +5049,7 @@
     </row>
     <row r="82" spans="6:9" ht="16.25">
       <c r="F82" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G82" s="8" t="s">
         <v>26</v>
@@ -4920,10 +5060,10 @@
     </row>
     <row r="83" spans="6:9" ht="16.25">
       <c r="F83" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G83" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I83">
         <v>1</v>
@@ -4931,10 +5071,10 @@
     </row>
     <row r="84" spans="6:9" ht="16.25">
       <c r="F84" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G84" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I84">
         <v>0</v>
@@ -4942,10 +5082,10 @@
     </row>
     <row r="85" spans="6:9" ht="16.25">
       <c r="F85" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G85" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I85">
         <v>0</v>
@@ -4953,10 +5093,10 @@
     </row>
     <row r="86" spans="6:9" ht="16.25">
       <c r="F86" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G86" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I86">
         <v>0</v>
@@ -4964,10 +5104,10 @@
     </row>
     <row r="87" spans="6:9" ht="16.25">
       <c r="F87" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G87" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I87">
         <v>0</v>
@@ -4975,10 +5115,10 @@
     </row>
     <row r="88" spans="6:9" ht="16.25">
       <c r="F88" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G88" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I88">
         <v>0</v>
@@ -4986,10 +5126,10 @@
     </row>
     <row r="89" spans="6:9" ht="16.25">
       <c r="F89" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G89" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I89">
         <v>1</v>
@@ -4997,10 +5137,10 @@
     </row>
     <row r="90" spans="6:9" ht="16.25">
       <c r="F90" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G90" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I90">
         <v>0</v>
@@ -5008,10 +5148,10 @@
     </row>
     <row r="91" spans="6:9" ht="16.25">
       <c r="F91" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G91" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I91">
         <v>0</v>
@@ -5019,10 +5159,10 @@
     </row>
     <row r="92" spans="6:9" ht="16.25">
       <c r="F92" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G92" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I92">
         <v>0</v>
@@ -5030,7 +5170,7 @@
     </row>
     <row r="93" spans="6:9" ht="16.25">
       <c r="F93" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G93" s="8" t="s">
         <v>27</v>
@@ -5041,10 +5181,10 @@
     </row>
     <row r="94" spans="6:9" ht="16.25">
       <c r="F94" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G94" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I94">
         <v>1</v>
@@ -5052,10 +5192,10 @@
     </row>
     <row r="95" spans="6:9" ht="16.25">
       <c r="F95" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G95" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I95">
         <v>1</v>
@@ -5063,10 +5203,10 @@
     </row>
     <row r="96" spans="6:9" ht="16.25">
       <c r="F96" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G96" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I96">
         <v>1</v>
@@ -5074,7 +5214,7 @@
     </row>
     <row r="97" spans="6:9" ht="16.25">
       <c r="F97" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G97" s="8" t="s">
         <v>28</v>
@@ -5085,10 +5225,10 @@
     </row>
     <row r="98" spans="6:9" ht="16.25">
       <c r="F98" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G98" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I98">
         <v>1</v>
@@ -5096,10 +5236,10 @@
     </row>
     <row r="99" spans="6:9" ht="16.25">
       <c r="F99" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G99" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I99">
         <v>1</v>
@@ -5107,7 +5247,7 @@
     </row>
     <row r="100" spans="6:9" ht="16.25">
       <c r="F100" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G100" s="8" t="s">
         <v>29</v>
@@ -5118,7 +5258,7 @@
     </row>
     <row r="101" spans="6:9" ht="16.25">
       <c r="F101" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G101" s="8" t="s">
         <v>30</v>
@@ -5129,10 +5269,10 @@
     </row>
     <row r="102" spans="6:9" ht="16.25">
       <c r="F102" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G102" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I102">
         <v>1</v>
@@ -5140,7 +5280,7 @@
     </row>
     <row r="103" spans="6:9" ht="16.25">
       <c r="F103" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G103" s="8" t="s">
         <v>31</v>
@@ -5151,10 +5291,10 @@
     </row>
     <row r="104" spans="6:9" ht="16.25">
       <c r="F104" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G104" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I104">
         <v>1</v>
@@ -5162,10 +5302,10 @@
     </row>
     <row r="105" spans="6:9" ht="16.25">
       <c r="F105" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G105" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I105">
         <v>0</v>
@@ -5173,10 +5313,10 @@
     </row>
     <row r="106" spans="6:9" ht="16.25">
       <c r="F106" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G106" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I106">
         <v>0</v>
@@ -5184,10 +5324,10 @@
     </row>
     <row r="107" spans="6:9" ht="16.25">
       <c r="F107" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G107" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I107">
         <v>0</v>
@@ -5195,7 +5335,7 @@
     </row>
     <row r="108" spans="6:9" ht="16.25">
       <c r="F108" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G108" s="8" t="s">
         <v>32</v>
@@ -5206,10 +5346,10 @@
     </row>
     <row r="109" spans="6:9" ht="16.25">
       <c r="F109" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G109" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I109">
         <v>1</v>
@@ -5217,7 +5357,7 @@
     </row>
     <row r="110" spans="6:9" ht="16.25">
       <c r="F110" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G110" s="8" t="s">
         <v>33</v>
@@ -5228,10 +5368,10 @@
     </row>
     <row r="111" spans="6:9" ht="16.25">
       <c r="F111" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G111" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I111">
         <v>1</v>
@@ -5239,10 +5379,10 @@
     </row>
     <row r="112" spans="6:9" ht="16.25">
       <c r="F112" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G112" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I112">
         <v>0</v>
@@ -5250,7 +5390,7 @@
     </row>
     <row r="113" spans="1:9" ht="16.25">
       <c r="F113" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G113" s="8" t="s">
         <v>38</v>
@@ -5261,10 +5401,10 @@
     </row>
     <row r="114" spans="1:9" ht="16.25">
       <c r="F114" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G114" s="8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I114">
         <v>1</v>
@@ -5272,10 +5412,10 @@
     </row>
     <row r="115" spans="1:9" ht="16.25">
       <c r="F115" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G115" s="8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I115">
         <v>1</v>
@@ -5283,10 +5423,10 @@
     </row>
     <row r="116" spans="1:9" ht="16.25">
       <c r="F116" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G116" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I116">
         <v>1</v>
@@ -5294,10 +5434,10 @@
     </row>
     <row r="117" spans="1:9" ht="16.25">
       <c r="F117" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G117" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I117">
         <v>0</v>
@@ -5305,10 +5445,10 @@
     </row>
     <row r="118" spans="1:9" ht="16.25">
       <c r="F118" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G118" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I118">
         <v>0</v>
@@ -5316,10 +5456,10 @@
     </row>
     <row r="119" spans="1:9" ht="16.25">
       <c r="F119" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G119" s="8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I119">
         <v>0</v>
@@ -5327,10 +5467,10 @@
     </row>
     <row r="120" spans="1:9" ht="16.25">
       <c r="F120" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G120" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I120">
         <v>0</v>
@@ -5338,10 +5478,10 @@
     </row>
     <row r="121" spans="1:9" ht="16.25">
       <c r="F121" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G121" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I121">
         <v>0</v>
@@ -5354,10 +5494,10 @@
       <c r="D122" s="9"/>
       <c r="E122" s="9"/>
       <c r="F122" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G122" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H122" s="9"/>
       <c r="I122" s="9">
@@ -5371,10 +5511,10 @@
       <c r="D123" s="9"/>
       <c r="E123" s="9"/>
       <c r="F123" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G123" s="10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H123" s="9"/>
       <c r="I123" s="9">
@@ -5388,10 +5528,10 @@
       <c r="D124" s="9"/>
       <c r="E124" s="9"/>
       <c r="F124" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G124" s="10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H124" s="9"/>
       <c r="I124" s="9">
@@ -5400,7 +5540,7 @@
     </row>
     <row r="125" spans="1:9" ht="16.25">
       <c r="F125" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G125" s="8" t="s">
         <v>40</v>
@@ -5411,7 +5551,7 @@
     </row>
     <row r="126" spans="1:9" ht="16.25">
       <c r="F126" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G126" s="8" t="s">
         <v>41</v>
@@ -5422,10 +5562,10 @@
     </row>
     <row r="127" spans="1:9" ht="16.25">
       <c r="F127" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G127" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I127">
         <v>0</v>
@@ -5433,10 +5573,10 @@
     </row>
     <row r="128" spans="1:9" ht="16.25">
       <c r="F128" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G128" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I128">
         <v>1</v>
@@ -5444,10 +5584,10 @@
     </row>
     <row r="129" spans="6:9" ht="16.25">
       <c r="F129" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G129" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I129">
         <v>0</v>
@@ -5455,7 +5595,7 @@
     </row>
     <row r="130" spans="6:9" ht="16.25">
       <c r="F130" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G130" s="8" t="s">
         <v>42</v>
@@ -5466,10 +5606,10 @@
     </row>
     <row r="131" spans="6:9" ht="16.25">
       <c r="F131" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G131" s="8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I131">
         <v>1</v>
@@ -5477,10 +5617,10 @@
     </row>
     <row r="132" spans="6:9" ht="16.25">
       <c r="F132" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G132" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I132">
         <v>1</v>
@@ -5488,10 +5628,10 @@
     </row>
     <row r="133" spans="6:9" ht="16.25">
       <c r="F133" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G133" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I133">
         <v>1</v>
@@ -5499,7 +5639,7 @@
     </row>
     <row r="134" spans="6:9" ht="16.25">
       <c r="F134" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G134" s="8" t="s">
         <v>34</v>
@@ -5510,10 +5650,10 @@
     </row>
     <row r="135" spans="6:9" ht="16.25">
       <c r="F135" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G135" s="8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I135">
         <v>1</v>
@@ -5521,10 +5661,10 @@
     </row>
     <row r="136" spans="6:9" ht="16.25">
       <c r="F136" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G136" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I136">
         <v>0</v>
@@ -5532,10 +5672,10 @@
     </row>
     <row r="137" spans="6:9" ht="16.25">
       <c r="F137" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G137" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I137">
         <v>0</v>
@@ -5543,10 +5683,10 @@
     </row>
     <row r="138" spans="6:9" ht="16.25">
       <c r="F138" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G138" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I138">
         <v>0</v>
@@ -5554,10 +5694,10 @@
     </row>
     <row r="139" spans="6:9" ht="16.25">
       <c r="F139" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G139" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I139">
         <v>0</v>
@@ -5565,7 +5705,7 @@
     </row>
     <row r="140" spans="6:9" ht="16.25">
       <c r="F140" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G140" s="8" t="s">
         <v>35</v>
@@ -5576,10 +5716,10 @@
     </row>
     <row r="141" spans="6:9" ht="16.25">
       <c r="F141" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G141" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I141">
         <v>0</v>
@@ -5587,10 +5727,10 @@
     </row>
     <row r="142" spans="6:9" ht="16.25">
       <c r="F142" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G142" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I142">
         <v>0</v>
@@ -5598,10 +5738,10 @@
     </row>
     <row r="143" spans="6:9" ht="16.25">
       <c r="F143" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G143" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I143">
         <v>1</v>
@@ -5609,10 +5749,10 @@
     </row>
     <row r="144" spans="6:9" ht="16.25">
       <c r="F144" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G144" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I144">
         <v>1</v>
@@ -5620,10 +5760,10 @@
     </row>
     <row r="145" spans="6:9" ht="16.25">
       <c r="F145" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G145" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I145">
         <v>0</v>
@@ -5631,10 +5771,10 @@
     </row>
     <row r="146" spans="6:9" ht="16.25">
       <c r="F146" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G146" s="8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I146">
         <v>0</v>
@@ -5642,7 +5782,7 @@
     </row>
     <row r="147" spans="6:9" ht="16.25">
       <c r="F147" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G147" s="8" t="s">
         <v>36</v>
@@ -5653,10 +5793,10 @@
     </row>
     <row r="148" spans="6:9" ht="16.25">
       <c r="F148" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G148" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I148">
         <v>1</v>
@@ -5664,10 +5804,10 @@
     </row>
     <row r="149" spans="6:9" ht="16.25">
       <c r="F149" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G149" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I149">
         <v>0</v>
@@ -5675,10 +5815,10 @@
     </row>
     <row r="150" spans="6:9" ht="16.25">
       <c r="F150" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G150" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I150">
         <v>0</v>
@@ -5686,10 +5826,10 @@
     </row>
     <row r="151" spans="6:9" ht="16.25">
       <c r="F151" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G151" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I151">
         <v>0</v>
@@ -5697,10 +5837,10 @@
     </row>
     <row r="152" spans="6:9" ht="16.25">
       <c r="F152" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G152" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I152">
         <v>0</v>
@@ -5708,10 +5848,10 @@
     </row>
     <row r="153" spans="6:9" ht="16.25">
       <c r="F153" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G153" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I153">
         <v>0</v>
@@ -5719,10 +5859,10 @@
     </row>
     <row r="154" spans="6:9" ht="16.25">
       <c r="F154" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G154" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I154">
         <v>1</v>
@@ -5730,7 +5870,7 @@
     </row>
     <row r="155" spans="6:9" s="5" customFormat="1" ht="16.25">
       <c r="F155" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G155" s="10" t="s">
         <v>43</v>
@@ -5741,7 +5881,7 @@
     </row>
     <row r="156" spans="6:9" s="5" customFormat="1" ht="16.25">
       <c r="F156" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G156" s="10" t="s">
         <v>44</v>
@@ -5752,10 +5892,10 @@
     </row>
     <row r="157" spans="6:9" s="5" customFormat="1" ht="16.25">
       <c r="F157" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G157" s="10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I157" s="5">
         <v>1</v>
@@ -5763,10 +5903,10 @@
     </row>
     <row r="158" spans="6:9" s="5" customFormat="1" ht="16.25">
       <c r="F158" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G158" s="10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I158" s="5">
         <v>0</v>
@@ -5774,10 +5914,10 @@
     </row>
     <row r="159" spans="6:9" s="5" customFormat="1" ht="16.25">
       <c r="F159" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G159" s="10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I159" s="5">
         <v>0</v>
@@ -5785,10 +5925,10 @@
     </row>
     <row r="160" spans="6:9" s="5" customFormat="1" ht="16.25">
       <c r="F160" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G160" s="10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I160" s="5">
         <v>0</v>
@@ -5796,10 +5936,10 @@
     </row>
     <row r="161" spans="6:9" s="5" customFormat="1" ht="16.25">
       <c r="F161" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G161" s="10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I161" s="5">
         <v>0</v>
@@ -5807,10 +5947,10 @@
     </row>
     <row r="162" spans="6:9" s="5" customFormat="1" ht="16.25">
       <c r="F162" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G162" s="10" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I162" s="5">
         <v>0</v>
@@ -5818,10 +5958,10 @@
     </row>
     <row r="163" spans="6:9" s="5" customFormat="1" ht="16.25">
       <c r="F163" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G163" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I163" s="5">
         <v>0</v>
@@ -5829,7 +5969,7 @@
     </row>
     <row r="164" spans="6:9" s="5" customFormat="1" ht="16.25">
       <c r="F164" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G164" s="10" t="s">
         <v>45</v>
@@ -5840,10 +5980,10 @@
     </row>
     <row r="165" spans="6:9" s="5" customFormat="1" ht="16.25">
       <c r="F165" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G165" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I165" s="5">
         <v>1</v>
@@ -5851,10 +5991,10 @@
     </row>
     <row r="166" spans="6:9" s="5" customFormat="1" ht="16.25">
       <c r="F166" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G166" s="10" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I166" s="5">
         <v>0</v>
@@ -5862,7 +6002,7 @@
     </row>
     <row r="167" spans="6:9" s="5" customFormat="1" ht="16.25">
       <c r="F167" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G167" s="10" t="s">
         <v>46</v>
@@ -5873,10 +6013,10 @@
     </row>
     <row r="168" spans="6:9" s="5" customFormat="1" ht="16.25">
       <c r="F168" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G168" s="10" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I168" s="5">
         <v>1</v>
@@ -5884,10 +6024,10 @@
     </row>
     <row r="169" spans="6:9" s="5" customFormat="1" ht="16.25">
       <c r="F169" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G169" s="10" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I169" s="5">
         <v>1</v>
@@ -5895,7 +6035,7 @@
     </row>
     <row r="170" spans="6:9">
       <c r="F170" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G170" t="s">
         <v>37</v>
@@ -5906,10 +6046,10 @@
     </row>
     <row r="171" spans="6:9">
       <c r="F171" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G171" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I171">
         <v>1</v>
@@ -5917,10 +6057,10 @@
     </row>
     <row r="172" spans="6:9">
       <c r="F172" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G172" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I172">
         <v>1</v>
@@ -5928,10 +6068,10 @@
     </row>
     <row r="173" spans="6:9">
       <c r="F173" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G173" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I173">
         <v>1</v>
@@ -5939,10 +6079,10 @@
     </row>
     <row r="174" spans="6:9">
       <c r="F174" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G174" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I174">
         <v>1</v>
@@ -5950,10 +6090,10 @@
     </row>
     <row r="175" spans="6:9">
       <c r="F175" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G175" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I175">
         <v>1</v>
@@ -5961,10 +6101,10 @@
     </row>
     <row r="176" spans="6:9">
       <c r="F176" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G176" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I176">
         <v>1</v>
@@ -5972,7 +6112,7 @@
     </row>
     <row r="177" spans="6:9">
       <c r="F177" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G177" t="s">
         <v>23</v>
@@ -5983,10 +6123,10 @@
     </row>
     <row r="178" spans="6:9">
       <c r="F178" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G178" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I178">
         <v>1</v>
@@ -5994,10 +6134,10 @@
     </row>
     <row r="179" spans="6:9">
       <c r="F179" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G179" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I179">
         <v>1</v>
@@ -6005,10 +6145,10 @@
     </row>
     <row r="180" spans="6:9">
       <c r="F180" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G180" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I180">
         <v>1</v>
@@ -6016,10 +6156,10 @@
     </row>
     <row r="181" spans="6:9">
       <c r="F181" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G181" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I181">
         <v>1</v>
@@ -6027,10 +6167,10 @@
     </row>
     <row r="182" spans="6:9">
       <c r="F182" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G182" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I182">
         <v>1</v>
@@ -6038,10 +6178,10 @@
     </row>
     <row r="183" spans="6:9">
       <c r="F183" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G183" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I183">
         <v>1</v>
@@ -6049,10 +6189,10 @@
     </row>
     <row r="184" spans="6:9">
       <c r="F184" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G184" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I184">
         <v>1</v>
@@ -6060,10 +6200,10 @@
     </row>
     <row r="185" spans="6:9">
       <c r="F185" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G185" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I185">
         <v>1</v>
@@ -6071,10 +6211,10 @@
     </row>
     <row r="186" spans="6:9">
       <c r="F186" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G186" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I186">
         <v>1</v>
@@ -6112,21 +6252,21 @@
   <sheetData>
     <row r="7" spans="4:7" ht="13">
       <c r="D7" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>239</v>
-      </c>
       <c r="G7" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="4:7" ht="15.6">
       <c r="F8" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>12</v>
@@ -6134,7 +6274,7 @@
     </row>
     <row r="9" spans="4:7" ht="15.6">
       <c r="F9" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>15</v>
@@ -6142,7 +6282,7 @@
     </row>
     <row r="10" spans="4:7" ht="15.6">
       <c r="F10" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>16</v>
@@ -6150,7 +6290,7 @@
     </row>
     <row r="11" spans="4:7" ht="15.6">
       <c r="F11" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>17</v>
@@ -6158,7 +6298,7 @@
     </row>
     <row r="12" spans="4:7" ht="15.6">
       <c r="F12" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>18</v>
@@ -6166,7 +6306,7 @@
     </row>
     <row r="13" spans="4:7" ht="15.6">
       <c r="F13" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G13" s="6" t="s">
         <v>19</v>
@@ -6174,7 +6314,7 @@
     </row>
     <row r="14" spans="4:7" ht="15.6">
       <c r="F14" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G14" s="6" t="s">
         <v>20</v>
@@ -6182,7 +6322,7 @@
     </row>
     <row r="15" spans="4:7" ht="15.6">
       <c r="F15" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>21</v>
@@ -6190,7 +6330,7 @@
     </row>
     <row r="16" spans="4:7" ht="15.6">
       <c r="F16" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G16" s="6" t="s">
         <v>22</v>
@@ -6198,7 +6338,7 @@
     </row>
     <row r="17" spans="6:7" ht="15.6">
       <c r="F17" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G17" s="6" t="s">
         <v>23</v>
@@ -6206,7 +6346,7 @@
     </row>
     <row r="18" spans="6:7" ht="15.6">
       <c r="F18" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G18" s="6" t="s">
         <v>24</v>
@@ -6214,7 +6354,7 @@
     </row>
     <row r="19" spans="6:7" ht="15.6">
       <c r="F19" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G19" s="6" t="s">
         <v>25</v>
@@ -6222,7 +6362,7 @@
     </row>
     <row r="20" spans="6:7" ht="15.6">
       <c r="F20" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G20" s="6" t="s">
         <v>26</v>
@@ -6230,7 +6370,7 @@
     </row>
     <row r="21" spans="6:7" ht="15.6">
       <c r="F21" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G21" s="6" t="s">
         <v>27</v>
@@ -6238,7 +6378,7 @@
     </row>
     <row r="22" spans="6:7" ht="15.6">
       <c r="F22" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G22" s="6" t="s">
         <v>28</v>
@@ -6246,7 +6386,7 @@
     </row>
     <row r="23" spans="6:7" ht="15.6">
       <c r="F23" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G23" s="6" t="s">
         <v>29</v>
@@ -6254,7 +6394,7 @@
     </row>
     <row r="24" spans="6:7" ht="15.6">
       <c r="F24" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G24" s="6" t="s">
         <v>30</v>
@@ -6262,7 +6402,7 @@
     </row>
     <row r="25" spans="6:7" ht="15.6">
       <c r="F25" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G25" s="6" t="s">
         <v>34</v>
@@ -6270,7 +6410,7 @@
     </row>
     <row r="26" spans="6:7" ht="15.6">
       <c r="F26" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G26" s="6" t="s">
         <v>35</v>
@@ -6278,7 +6418,7 @@
     </row>
     <row r="27" spans="6:7" ht="15.6">
       <c r="F27" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G27" s="6" t="s">
         <v>36</v>
@@ -6286,7 +6426,7 @@
     </row>
     <row r="28" spans="6:7" ht="15.6">
       <c r="F28" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G28" s="6" t="s">
         <v>37</v>
@@ -6294,7 +6434,7 @@
     </row>
     <row r="29" spans="6:7" ht="15.6">
       <c r="F29" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G29" s="6" t="s">
         <v>38</v>
@@ -6302,7 +6442,7 @@
     </row>
     <row r="30" spans="6:7" ht="15.6">
       <c r="F30" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G30" s="6" t="s">
         <v>40</v>
@@ -6310,7 +6450,7 @@
     </row>
     <row r="31" spans="6:7" ht="15.6">
       <c r="F31" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G31" s="6" t="s">
         <v>41</v>
@@ -6318,7 +6458,7 @@
     </row>
     <row r="32" spans="6:7" ht="15.6">
       <c r="F32" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G32" s="6" t="s">
         <v>42</v>
@@ -6326,7 +6466,7 @@
     </row>
     <row r="33" spans="6:7" ht="15.6">
       <c r="F33" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G33" s="6" t="s">
         <v>42</v>
@@ -6334,7 +6474,7 @@
     </row>
     <row r="34" spans="6:7" s="5" customFormat="1" ht="15.6">
       <c r="F34" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>43</v>
@@ -6342,7 +6482,7 @@
     </row>
     <row r="35" spans="6:7" s="5" customFormat="1" ht="15.6">
       <c r="F35" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G35" s="7" t="s">
         <v>44</v>
@@ -6350,7 +6490,7 @@
     </row>
     <row r="36" spans="6:7" s="5" customFormat="1" ht="15.6">
       <c r="F36" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G36" s="7" t="s">
         <v>45</v>
@@ -6358,7 +6498,7 @@
     </row>
     <row r="37" spans="6:7" s="5" customFormat="1" ht="15.6">
       <c r="F37" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G37" s="7" t="s">
         <v>46</v>
@@ -6377,10 +6517,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D7:I46"/>
+  <dimension ref="D7:I75"/>
   <sheetViews>
-    <sheetView topLeftCell="E31" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H46" sqref="H46"/>
+    <sheetView topLeftCell="E10" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E8" sqref="A8:XFD35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.7"/>
@@ -6396,459 +6536,530 @@
   <sheetData>
     <row r="7" spans="4:9" ht="19" customHeight="1">
       <c r="D7" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>245</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>246</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="4:9" ht="12.35">
-      <c r="F8" s="2" t="s">
+    <row r="8" spans="4:9" s="22" customFormat="1">
+      <c r="F8" s="22" t="s">
+        <v>246</v>
+      </c>
+      <c r="G8" s="23" t="s">
+        <v>399</v>
+      </c>
+      <c r="H8" s="22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="4:9" s="22" customFormat="1">
+      <c r="F9" s="22" t="s">
+        <v>246</v>
+      </c>
+      <c r="G9" s="23" t="s">
+        <v>393</v>
+      </c>
+      <c r="H9" s="22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="4:9" s="22" customFormat="1">
+      <c r="F10" s="22" t="s">
+        <v>246</v>
+      </c>
+      <c r="G10" s="23" t="s">
+        <v>394</v>
+      </c>
+      <c r="H10" s="22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="4:9" s="22" customFormat="1">
+      <c r="F11" s="22" t="s">
+        <v>246</v>
+      </c>
+      <c r="G11" s="23" t="s">
+        <v>395</v>
+      </c>
+      <c r="H11" s="22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="4:9" s="22" customFormat="1">
+      <c r="F12" s="22" t="s">
+        <v>246</v>
+      </c>
+      <c r="G12" s="23" t="s">
+        <v>396</v>
+      </c>
+      <c r="H12" s="22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="4:9" s="22" customFormat="1">
+      <c r="F13" s="22" t="s">
+        <v>246</v>
+      </c>
+      <c r="G13" s="23" t="s">
+        <v>403</v>
+      </c>
+      <c r="H13" s="22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="4:9" s="22" customFormat="1">
+      <c r="F14" s="22" t="s">
+        <v>246</v>
+      </c>
+      <c r="G14" s="23" t="s">
+        <v>410</v>
+      </c>
+      <c r="H14" s="22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="4:9" s="22" customFormat="1">
+      <c r="F15" s="22" t="s">
+        <v>246</v>
+      </c>
+      <c r="G15" s="23" t="s">
+        <v>412</v>
+      </c>
+      <c r="H15" s="22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="4:9" s="22" customFormat="1">
+      <c r="F16" s="23" t="s">
+        <v>401</v>
+      </c>
+      <c r="G16" s="23" t="s">
+        <v>392</v>
+      </c>
+      <c r="H16" s="23" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="17" spans="4:9" s="22" customFormat="1">
+      <c r="F17" s="23" t="s">
+        <v>401</v>
+      </c>
+      <c r="G17" s="23" t="s">
+        <v>393</v>
+      </c>
+      <c r="H17" s="23" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="18" spans="4:9" s="22" customFormat="1">
+      <c r="F18" s="23" t="s">
+        <v>398</v>
+      </c>
+      <c r="G18" s="23" t="s">
+        <v>405</v>
+      </c>
+      <c r="H18" s="23" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="19" spans="4:9" s="22" customFormat="1">
+      <c r="F19" s="23" t="s">
+        <v>398</v>
+      </c>
+      <c r="G19" s="23" t="s">
+        <v>395</v>
+      </c>
+      <c r="H19" s="23" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="20" spans="4:9" s="22" customFormat="1">
+      <c r="F20" s="23" t="s">
+        <v>398</v>
+      </c>
+      <c r="G20" s="23" t="s">
+        <v>396</v>
+      </c>
+      <c r="H20" s="23" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="21" spans="4:9" s="22" customFormat="1">
+      <c r="F21" s="23" t="s">
+        <v>398</v>
+      </c>
+      <c r="G21" s="23" t="s">
+        <v>397</v>
+      </c>
+      <c r="H21" s="23" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="22" spans="4:9" s="22" customFormat="1">
+      <c r="F22" s="23" t="s">
+        <v>398</v>
+      </c>
+      <c r="G22" s="23" t="s">
+        <v>410</v>
+      </c>
+      <c r="H22" s="23" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="23" spans="4:9" s="22" customFormat="1">
+      <c r="F23" s="23" t="s">
+        <v>398</v>
+      </c>
+      <c r="G23" s="23" t="s">
+        <v>412</v>
+      </c>
+      <c r="H23" s="23" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="24" spans="4:9" s="22" customFormat="1">
+      <c r="F24" s="23" t="s">
+        <v>404</v>
+      </c>
+      <c r="G24" s="23" t="s">
+        <v>392</v>
+      </c>
+      <c r="H24" s="23" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="25" spans="4:9" s="22" customFormat="1">
+      <c r="F25" s="23" t="s">
+        <v>406</v>
+      </c>
+      <c r="G25" s="23" t="s">
+        <v>393</v>
+      </c>
+      <c r="H25" s="23" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="26" spans="4:9" s="22" customFormat="1">
+      <c r="F26" s="23" t="s">
+        <v>404</v>
+      </c>
+      <c r="G26" s="23" t="s">
+        <v>405</v>
+      </c>
+      <c r="H26" s="23" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="27" spans="4:9" s="22" customFormat="1">
+      <c r="F27" s="23" t="s">
+        <v>404</v>
+      </c>
+      <c r="G27" s="23" t="s">
+        <v>407</v>
+      </c>
+      <c r="H27" s="23" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="28" spans="4:9" s="22" customFormat="1">
+      <c r="F28" s="23" t="s">
+        <v>404</v>
+      </c>
+      <c r="G28" s="23" t="s">
+        <v>408</v>
+      </c>
+      <c r="H28" s="23" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="29" spans="4:9" s="22" customFormat="1">
+      <c r="F29" s="23" t="s">
+        <v>404</v>
+      </c>
+      <c r="G29" s="23" t="s">
+        <v>403</v>
+      </c>
+      <c r="H29" s="23" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="30" spans="4:9" s="22" customFormat="1">
+      <c r="F30" s="23" t="s">
+        <v>404</v>
+      </c>
+      <c r="G30" s="23" t="s">
+        <v>410</v>
+      </c>
+      <c r="H30" s="23" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="31" spans="4:9" s="22" customFormat="1">
+      <c r="F31" s="23" t="s">
+        <v>404</v>
+      </c>
+      <c r="G31" s="23" t="s">
+        <v>412</v>
+      </c>
+      <c r="H31" s="23" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="32" spans="4:9" s="22" customFormat="1" ht="12.85" customHeight="1">
+      <c r="D32" s="47"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="47" t="s">
         <v>247</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="4:9" ht="12.35">
-      <c r="F9" s="2" t="s">
+      <c r="G32" s="28" t="s">
+        <v>415</v>
+      </c>
+      <c r="H32" s="23" t="s">
+        <v>418</v>
+      </c>
+      <c r="I32" s="26"/>
+    </row>
+    <row r="33" spans="4:9" s="22" customFormat="1" ht="12.85" customHeight="1">
+      <c r="D33" s="47"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="47" t="s">
         <v>247</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="4:9" ht="12.35">
-      <c r="F10" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="4:9" ht="12.35">
-      <c r="F11" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="4:9" ht="12.35">
-      <c r="F12" s="2" t="s">
+      <c r="G33" s="28" t="s">
+        <v>417</v>
+      </c>
+      <c r="H33" s="23" t="s">
+        <v>418</v>
+      </c>
+      <c r="I33" s="26"/>
+    </row>
+    <row r="34" spans="4:9" s="22" customFormat="1" ht="12.85" customHeight="1">
+      <c r="D34" s="47"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="47" t="s">
         <v>248</v>
       </c>
-      <c r="G12" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="4:9" ht="12.35">
-      <c r="F13" s="2" t="s">
+      <c r="G34" s="28" t="s">
+        <v>416</v>
+      </c>
+      <c r="H34" s="23" t="s">
+        <v>418</v>
+      </c>
+      <c r="I34" s="26"/>
+    </row>
+    <row r="35" spans="4:9" s="22" customFormat="1" ht="12.85" customHeight="1">
+      <c r="D35" s="47"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="47" t="s">
         <v>248</v>
       </c>
-      <c r="G13" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="4:9" ht="12.35">
-      <c r="F14" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="4:9" ht="12.35">
-      <c r="F15" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="16" spans="4:9" ht="12.35">
-      <c r="F16" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="17" spans="4:9" ht="12.35">
-      <c r="F17" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="18" spans="4:9" ht="12.35">
-      <c r="F18" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="19" spans="4:9" ht="12.35">
-      <c r="F19" t="s">
-        <v>251</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="20" spans="4:9" ht="12.35">
-      <c r="F20" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="21" spans="4:9" ht="12.35">
-      <c r="F21" t="s">
-        <v>251</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="22" spans="4:9" ht="12.35">
-      <c r="F22" t="s">
-        <v>251</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="23" spans="4:9" ht="12.35">
-      <c r="D23" s="2"/>
-      <c r="F23" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="4:9" ht="12.35">
-      <c r="F24" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="4:9" ht="12.35">
-      <c r="F25" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="4:9" ht="12.35">
-      <c r="F26" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27" spans="4:9" ht="12.35">
-      <c r="F27" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="4:9" ht="12.35">
-      <c r="F28" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="4:9" ht="12.35">
-      <c r="F29" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="30" spans="4:9" ht="12.35">
-      <c r="F30" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" spans="4:9" ht="12.35">
-      <c r="F31" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" spans="4:9" ht="12.35">
-      <c r="F32" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="6:9" ht="12.35">
-      <c r="F33" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="34" spans="6:9" ht="12.35">
-      <c r="F34" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="35" spans="6:9" ht="12.35">
-      <c r="F35" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="36" spans="6:9" ht="12.35">
-      <c r="F36" t="s">
-        <v>251</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="37" spans="6:9" ht="12.35">
-      <c r="F37" t="s">
-        <v>251</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="38" spans="6:9" ht="12.35">
-      <c r="F38" t="s">
-        <v>251</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="39" spans="6:9" ht="12.35">
-      <c r="F39" t="s">
-        <v>251</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="40" spans="6:9" ht="12.35">
-      <c r="F40" t="s">
-        <v>251</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="41" spans="6:9" ht="12.35">
-      <c r="F41" t="s">
-        <v>251</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="H41" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="42" spans="6:9" ht="12.35">
-      <c r="F42" t="s">
-        <v>251</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="H42" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="43" spans="6:9" ht="12.35">
-      <c r="F43" t="s">
-        <v>251</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="H43" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="6:9" ht="12.35">
-      <c r="F44" t="s">
-        <v>251</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H44" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="45" spans="6:9" ht="12.35">
-      <c r="F45" t="s">
-        <v>251</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="H45" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="46" spans="6:9" ht="12.35">
-      <c r="F46" t="s">
-        <v>251</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="H46" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="G35" s="28" t="s">
+        <v>414</v>
+      </c>
+      <c r="H35" s="23" t="s">
+        <v>418</v>
+      </c>
+      <c r="I35" s="26"/>
+    </row>
+    <row r="36" spans="4:9" s="22" customFormat="1">
+      <c r="F36" s="23"/>
+      <c r="G36" s="23"/>
+      <c r="H36" s="23"/>
+    </row>
+    <row r="37" spans="4:9" ht="12.35">
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+    </row>
+    <row r="38" spans="4:9" ht="12.35">
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+    </row>
+    <row r="39" spans="4:9" ht="12.35">
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+    </row>
+    <row r="40" spans="4:9" ht="12.35">
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+    </row>
+    <row r="41" spans="4:9" ht="12.35">
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+    </row>
+    <row r="42" spans="4:9" ht="12.35">
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+    </row>
+    <row r="43" spans="4:9" ht="12.35">
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+    </row>
+    <row r="44" spans="4:9" ht="12.35">
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+    </row>
+    <row r="45" spans="4:9" ht="12.35">
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+    </row>
+    <row r="46" spans="4:9" ht="12.35">
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+    </row>
+    <row r="47" spans="4:9" ht="12.35">
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+    </row>
+    <row r="48" spans="4:9" ht="12.35">
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+    </row>
+    <row r="49" spans="4:8" ht="12.35">
+      <c r="F49" s="3"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+    </row>
+    <row r="50" spans="4:8" ht="12.35">
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+    </row>
+    <row r="51" spans="4:8" ht="12.35">
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+    </row>
+    <row r="52" spans="4:8" ht="12.35">
+      <c r="D52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+    </row>
+    <row r="53" spans="4:8" ht="12.35">
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+    </row>
+    <row r="54" spans="4:8" ht="12.35">
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+    </row>
+    <row r="55" spans="4:8" ht="12.35">
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+    </row>
+    <row r="56" spans="4:8" ht="12.35">
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+    </row>
+    <row r="57" spans="4:8" ht="12.35">
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+    </row>
+    <row r="58" spans="4:8" ht="12.35">
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+    </row>
+    <row r="59" spans="4:8" ht="12.35">
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+    </row>
+    <row r="60" spans="4:8" ht="12.35">
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+    </row>
+    <row r="61" spans="4:8" ht="12.35">
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
+    </row>
+    <row r="62" spans="4:8" ht="12.35">
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
+    </row>
+    <row r="63" spans="4:8" ht="12.35">
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
+    </row>
+    <row r="64" spans="4:8" ht="12.35">
+      <c r="F64" s="3"/>
+      <c r="G64" s="2"/>
+      <c r="H64" s="2"/>
+    </row>
+    <row r="65" spans="7:8" ht="12.35">
+      <c r="G65" s="2"/>
+      <c r="H65" s="2"/>
+    </row>
+    <row r="66" spans="7:8" ht="12.35">
+      <c r="G66" s="2"/>
+      <c r="H66" s="2"/>
+    </row>
+    <row r="67" spans="7:8" ht="12.35">
+      <c r="G67" s="2"/>
+      <c r="H67" s="2"/>
+    </row>
+    <row r="68" spans="7:8" ht="12.35">
+      <c r="G68" s="2"/>
+      <c r="H68" s="2"/>
+    </row>
+    <row r="69" spans="7:8" ht="12.35">
+      <c r="G69" s="2"/>
+      <c r="H69" s="2"/>
+    </row>
+    <row r="70" spans="7:8" ht="12.35">
+      <c r="G70" s="2"/>
+      <c r="H70" s="2"/>
+    </row>
+    <row r="71" spans="7:8" ht="12.35">
+      <c r="G71" s="2"/>
+      <c r="H71" s="2"/>
+    </row>
+    <row r="72" spans="7:8" ht="12.35">
+      <c r="G72" s="2"/>
+      <c r="H72" s="2"/>
+    </row>
+    <row r="73" spans="7:8" ht="12.35">
+      <c r="G73" s="2"/>
+      <c r="H73" s="2"/>
+    </row>
+    <row r="74" spans="7:8" ht="12.35">
+      <c r="G74" s="2"/>
+      <c r="H74" s="2"/>
+    </row>
+    <row r="75" spans="7:8" ht="12.35">
+      <c r="G75" s="2"/>
+      <c r="H75" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="22" type="noConversion"/>
@@ -6861,8 +7072,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:K8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="11.7"/>
@@ -6877,7 +7088,7 @@
   <sheetData>
     <row r="7" spans="4:11">
       <c r="D7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="E7" t="s">
         <v>1</v>
@@ -6892,33 +7103,33 @@
         <v>5</v>
       </c>
       <c r="I7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="J7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="K7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="8" spans="4:11">
       <c r="F8" t="s">
+        <v>253</v>
+      </c>
+      <c r="G8" t="s">
+        <v>254</v>
+      </c>
+      <c r="H8" t="s">
+        <v>255</v>
+      </c>
+      <c r="I8" t="s">
+        <v>256</v>
+      </c>
+      <c r="J8" t="s">
         <v>257</v>
       </c>
-      <c r="G8" t="s">
+      <c r="K8" t="s">
         <v>258</v>
-      </c>
-      <c r="H8" t="s">
-        <v>259</v>
-      </c>
-      <c r="I8" t="s">
-        <v>260</v>
-      </c>
-      <c r="J8" t="s">
-        <v>261</v>
-      </c>
-      <c r="K8" t="s">
-        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -6946,78 +7157,78 @@
   <sheetData>
     <row r="7" spans="4:9">
       <c r="D7" t="s">
+        <v>259</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>260</v>
+      </c>
+      <c r="G7" t="s">
+        <v>261</v>
+      </c>
+      <c r="H7" t="s">
+        <v>262</v>
+      </c>
+      <c r="I7" t="s">
         <v>263</v>
-      </c>
-      <c r="E7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F7" t="s">
-        <v>264</v>
-      </c>
-      <c r="G7" t="s">
-        <v>265</v>
-      </c>
-      <c r="H7" t="s">
-        <v>266</v>
-      </c>
-      <c r="I7" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="8" spans="4:9">
       <c r="F8" t="s">
+        <v>253</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8" t="s">
+        <v>264</v>
+      </c>
+      <c r="I8" t="s">
         <v>257</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8" t="s">
-        <v>268</v>
-      </c>
-      <c r="I8" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="9" spans="4:9">
       <c r="F9" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="H9" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="I9" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="10" spans="4:9">
       <c r="F10" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="H10" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="I10" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="11" spans="4:9">
       <c r="F11" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="H11" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="I11" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -7048,71 +7259,71 @@
   <sheetData>
     <row r="7" spans="4:12">
       <c r="D7" t="s">
+        <v>270</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>260</v>
+      </c>
+      <c r="G7" t="s">
+        <v>271</v>
+      </c>
+      <c r="H7" t="s">
+        <v>272</v>
+      </c>
+      <c r="I7" t="s">
+        <v>273</v>
+      </c>
+      <c r="J7" t="s">
         <v>274</v>
       </c>
-      <c r="E7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F7" t="s">
-        <v>264</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="K7" t="s">
         <v>275</v>
       </c>
-      <c r="H7" t="s">
+      <c r="L7" t="s">
         <v>276</v>
-      </c>
-      <c r="I7" t="s">
-        <v>277</v>
-      </c>
-      <c r="J7" t="s">
-        <v>278</v>
-      </c>
-      <c r="K7" t="s">
-        <v>279</v>
-      </c>
-      <c r="L7" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="8" spans="4:12">
       <c r="F8" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="H8" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="I8" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="J8" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="K8" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="9" spans="4:12">
       <c r="F9" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="I9" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="J9" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="K9" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="L9">
         <v>0</v>

--- a/src/main/resources/script/meta/micro-service-init-data.xlsx
+++ b/src/main/resources/script/meta/micro-service-init-data.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193">
   <si>
     <t>IAM_PERMISSION</t>
   </si>
@@ -615,6 +615,36 @@
     <t>DESCRIPTION:en_US</t>
   </si>
   <si>
+    <t>RDUCM.ACCESS_LEVEL</t>
+  </si>
+  <si>
+    <t>成员访问权限级别</t>
+  </si>
+  <si>
+    <t>RDUCM.PROJECT_MEMBER</t>
+  </si>
+  <si>
+    <t>项目成员（临时使用，代替项目成员列表，后续删除）</t>
+  </si>
+  <si>
+    <t>RDUCM.PT_BRANCH_ACCESS_LEVEL</t>
+  </si>
+  <si>
+    <t>保护分支权限访问级别</t>
+  </si>
+  <si>
+    <t>RDUCM.PT_TAG_ACCESS_LEVEL</t>
+  </si>
+  <si>
+    <t>保护标记权限访问级别</t>
+  </si>
+  <si>
+    <t>RDUCM.OPERATION_OP_TYPE</t>
+  </si>
+  <si>
+    <t>操作类型</t>
+  </si>
+  <si>
     <t>RDUCM.OP_MM_EVENT_TYPE</t>
   </si>
   <si>
@@ -627,6 +657,78 @@
     <t>&amp;LOOKUP_ID=FD_LOOKUP:CODE</t>
   </si>
   <si>
+    <t>L10</t>
+  </si>
+  <si>
+    <t>Guest</t>
+  </si>
+  <si>
+    <t>L20</t>
+  </si>
+  <si>
+    <t>Reporter</t>
+  </si>
+  <si>
+    <t>L30</t>
+  </si>
+  <si>
+    <t>Developer</t>
+  </si>
+  <si>
+    <t>L40</t>
+  </si>
+  <si>
+    <t>Maintainer</t>
+  </si>
+  <si>
+    <t>L50</t>
+  </si>
+  <si>
+    <t>Owner</t>
+  </si>
+  <si>
+    <t>M10001</t>
+  </si>
+  <si>
+    <t>陈秀红</t>
+  </si>
+  <si>
+    <t>M10002</t>
+  </si>
+  <si>
+    <t>罗珠艳</t>
+  </si>
+  <si>
+    <t>M10003</t>
+  </si>
+  <si>
+    <t>谢颖</t>
+  </si>
+  <si>
+    <t>M10004</t>
+  </si>
+  <si>
+    <t>杨维森</t>
+  </si>
+  <si>
+    <t>L0</t>
+  </si>
+  <si>
+    <t>任何人均不允许</t>
+  </si>
+  <si>
+    <t>Developers + Maintainers</t>
+  </si>
+  <si>
+    <t>Maintainers</t>
+  </si>
+  <si>
+    <t>MEMBER_MANAGEMENT</t>
+  </si>
+  <si>
+    <t>成员管理</t>
+  </si>
+  <si>
     <t>ADD_MEMBER</t>
   </si>
   <si>
@@ -649,12 +751,6 @@
   </si>
   <si>
     <t>移除过期成员</t>
-  </si>
-  <si>
-    <t>TEST</t>
-  </si>
-  <si>
-    <t>测试</t>
   </si>
 </sst>
 </file>
@@ -662,12 +758,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="61">
+  <fonts count="58">
     <font>
       <sz val="10"/>
       <name val="Droid Sans Fallback"/>
@@ -681,27 +777,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="华文宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Droid Sans Fallback"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="华文宋体"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Droid Sans Fallback"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="DejaVu Sans"/>
       <charset val="134"/>
@@ -715,6 +790,11 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Droid Sans Fallback"/>
       <charset val="134"/>
     </font>
     <font>
@@ -910,21 +990,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -939,6 +1005,34 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -947,17 +1041,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -970,14 +1057,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -992,33 +1079,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1045,16 +1125,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1069,13 +1149,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1087,79 +1269,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1177,13 +1287,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1195,61 +1323,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1281,32 +1361,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1316,21 +1372,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1352,11 +1393,39 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1375,208 +1444,216 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="42" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="54" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="54" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="52" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="49" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="54" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="54" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="54" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1923,749 +2000,749 @@
   </cols>
   <sheetData>
     <row r="7" ht="12.85" customHeight="1" spans="4:15">
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="H7" s="14" t="s">
+      <c r="H7" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="I7" s="14" t="s">
+      <c r="I7" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="J7" s="14" t="s">
+      <c r="J7" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="K7" s="14" t="s">
+      <c r="K7" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="L7" s="14" t="s">
+      <c r="L7" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="M7" s="14" t="s">
+      <c r="M7" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="N7" s="14" t="s">
+      <c r="N7" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="O7" s="14" t="s">
+      <c r="O7" s="11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" s="36" customFormat="1" ht="14.4" spans="6:14">
-      <c r="F8" s="36" t="s">
+    <row r="8" s="33" customFormat="1" ht="14.4" spans="6:14">
+      <c r="F8" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="36" t="s">
+      <c r="G8" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="36" t="s">
+      <c r="H8" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="36" t="s">
+      <c r="I8" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="J8" s="26" t="s">
+      <c r="J8" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="K8" s="36" t="s">
+      <c r="K8" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="L8" s="36">
+      <c r="L8" s="33">
         <v>0</v>
       </c>
-      <c r="M8" s="36">
+      <c r="M8" s="33">
         <v>0</v>
       </c>
-      <c r="N8" s="36">
+      <c r="N8" s="33">
         <v>0</v>
       </c>
     </row>
-    <row r="9" s="36" customFormat="1" ht="14.4" spans="6:14">
-      <c r="F9" s="36" t="s">
+    <row r="9" s="33" customFormat="1" ht="14.4" spans="6:14">
+      <c r="F9" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="36" t="s">
+      <c r="G9" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="36" t="s">
+      <c r="H9" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="36" t="s">
+      <c r="I9" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="J9" s="26" t="s">
+      <c r="J9" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="K9" s="36" t="s">
+      <c r="K9" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="L9" s="36">
+      <c r="L9" s="33">
         <v>0</v>
       </c>
-      <c r="M9" s="36">
+      <c r="M9" s="33">
         <v>0</v>
       </c>
-      <c r="N9" s="36">
+      <c r="N9" s="33">
         <v>0</v>
       </c>
     </row>
-    <row r="10" s="36" customFormat="1" ht="14.4" spans="6:14">
-      <c r="F10" s="36" t="s">
+    <row r="10" s="33" customFormat="1" ht="14.4" spans="6:14">
+      <c r="F10" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="G10" s="36" t="s">
+      <c r="G10" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="H10" s="36" t="s">
+      <c r="H10" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="I10" s="36" t="s">
+      <c r="I10" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="J10" s="26" t="s">
+      <c r="J10" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="K10" s="36" t="s">
+      <c r="K10" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="L10" s="36">
+      <c r="L10" s="33">
         <v>0</v>
       </c>
-      <c r="M10" s="36">
+      <c r="M10" s="33">
         <v>0</v>
       </c>
-      <c r="N10" s="36">
+      <c r="N10" s="33">
         <v>0</v>
       </c>
     </row>
-    <row r="11" s="36" customFormat="1" ht="14.4" spans="6:14">
-      <c r="F11" s="36" t="s">
+    <row r="11" s="33" customFormat="1" ht="14.4" spans="6:14">
+      <c r="F11" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="36" t="s">
+      <c r="G11" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="H11" s="36" t="s">
+      <c r="H11" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="I11" s="36" t="s">
+      <c r="I11" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="J11" s="26" t="s">
+      <c r="J11" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="K11" s="36" t="s">
+      <c r="K11" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="L11" s="36">
+      <c r="L11" s="33">
         <v>0</v>
       </c>
-      <c r="M11" s="36">
+      <c r="M11" s="33">
         <v>0</v>
       </c>
-      <c r="N11" s="36">
+      <c r="N11" s="33">
         <v>0</v>
       </c>
     </row>
-    <row r="12" s="36" customFormat="1" ht="14.4" spans="6:14">
-      <c r="F12" s="36" t="s">
+    <row r="12" s="33" customFormat="1" ht="14.4" spans="6:14">
+      <c r="F12" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="G12" s="36" t="s">
+      <c r="G12" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="H12" s="36" t="s">
+      <c r="H12" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="I12" s="36" t="s">
+      <c r="I12" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="J12" s="26" t="s">
+      <c r="J12" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="K12" s="36" t="s">
+      <c r="K12" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="L12" s="36">
+      <c r="L12" s="33">
         <v>0</v>
       </c>
-      <c r="M12" s="36">
+      <c r="M12" s="33">
         <v>0</v>
       </c>
-      <c r="N12" s="36">
+      <c r="N12" s="33">
         <v>0</v>
       </c>
     </row>
-    <row r="13" s="36" customFormat="1" spans="6:14">
-      <c r="F13" s="36" t="s">
+    <row r="13" s="33" customFormat="1" spans="6:14">
+      <c r="F13" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="G13" s="36" t="s">
+      <c r="G13" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="H13" s="36" t="s">
+      <c r="H13" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="36" t="s">
+      <c r="I13" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="J13" s="36" t="s">
+      <c r="J13" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="K13" s="36" t="s">
+      <c r="K13" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="L13" s="36">
+      <c r="L13" s="33">
         <v>0</v>
       </c>
-      <c r="M13" s="36">
+      <c r="M13" s="33">
         <v>0</v>
       </c>
-      <c r="N13" s="36">
+      <c r="N13" s="33">
         <v>0</v>
       </c>
     </row>
-    <row r="14" s="36" customFormat="1" ht="14.4" spans="6:14">
-      <c r="F14" s="36" t="s">
+    <row r="14" s="33" customFormat="1" ht="14.4" spans="6:14">
+      <c r="F14" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="G14" s="36" t="s">
+      <c r="G14" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="H14" s="36" t="s">
+      <c r="H14" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="I14" s="36" t="s">
+      <c r="I14" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="J14" s="26" t="s">
+      <c r="J14" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="K14" s="36" t="s">
+      <c r="K14" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="L14" s="36">
+      <c r="L14" s="33">
         <v>0</v>
       </c>
-      <c r="M14" s="36">
+      <c r="M14" s="33">
         <v>0</v>
       </c>
-      <c r="N14" s="36">
+      <c r="N14" s="33">
         <v>0</v>
       </c>
     </row>
-    <row r="15" s="36" customFormat="1" ht="14.4" spans="6:14">
-      <c r="F15" s="36" t="s">
+    <row r="15" s="33" customFormat="1" ht="14.4" spans="6:14">
+      <c r="F15" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="G15" s="36" t="s">
+      <c r="G15" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="H15" s="36" t="s">
+      <c r="H15" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="I15" s="36" t="s">
+      <c r="I15" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="J15" s="26" t="s">
+      <c r="J15" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="K15" s="36" t="s">
+      <c r="K15" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="L15" s="36">
+      <c r="L15" s="33">
         <v>0</v>
       </c>
-      <c r="M15" s="36">
+      <c r="M15" s="33">
         <v>0</v>
       </c>
-      <c r="N15" s="36">
+      <c r="N15" s="33">
         <v>0</v>
       </c>
     </row>
-    <row r="16" s="20" customFormat="1" spans="6:14">
-      <c r="F16" s="43" t="s">
+    <row r="16" s="17" customFormat="1" spans="6:14">
+      <c r="F16" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="G16" s="44" t="s">
+      <c r="G16" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="H16" s="44" t="s">
+      <c r="H16" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="I16" s="44" t="s">
+      <c r="I16" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="J16" s="20" t="s">
+      <c r="J16" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="K16" s="44" t="s">
+      <c r="K16" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="L16" s="43">
+      <c r="L16" s="40">
         <v>0</v>
       </c>
-      <c r="M16" s="43">
+      <c r="M16" s="40">
         <v>0</v>
       </c>
-      <c r="N16" s="43">
+      <c r="N16" s="40">
         <v>0</v>
       </c>
     </row>
-    <row r="17" s="20" customFormat="1" spans="6:14">
-      <c r="F17" s="43" t="s">
+    <row r="17" s="17" customFormat="1" spans="6:14">
+      <c r="F17" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="G17" s="44" t="s">
+      <c r="G17" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="H17" s="44" t="s">
+      <c r="H17" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="I17" s="44" t="s">
+      <c r="I17" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="J17" s="20" t="s">
+      <c r="J17" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="K17" s="44" t="s">
+      <c r="K17" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="L17" s="43">
+      <c r="L17" s="40">
         <v>0</v>
       </c>
-      <c r="M17" s="43">
+      <c r="M17" s="40">
         <v>0</v>
       </c>
-      <c r="N17" s="43">
+      <c r="N17" s="40">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="4:14">
-      <c r="D18" s="3"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="45"/>
-      <c r="M18" s="45"/>
-      <c r="N18" s="45"/>
+      <c r="D18" s="10"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="42"/>
+      <c r="M18" s="42"/>
+      <c r="N18" s="42"/>
     </row>
     <row r="19" spans="4:14">
-      <c r="D19" s="3"/>
-      <c r="F19" s="45"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="45"/>
-      <c r="M19" s="45"/>
-      <c r="N19" s="45"/>
+      <c r="D19" s="10"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="42"/>
+      <c r="M19" s="42"/>
+      <c r="N19" s="42"/>
     </row>
     <row r="20" spans="6:14">
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="10"/>
-    </row>
-    <row r="21" s="7" customFormat="1" spans="6:10">
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="J21" s="11"/>
-    </row>
-    <row r="22" s="7" customFormat="1" spans="6:10">
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="J22" s="11"/>
-    </row>
-    <row r="23" s="7" customFormat="1" spans="6:10">
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="J23" s="11"/>
-    </row>
-    <row r="24" s="7" customFormat="1" spans="6:10">
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="J24" s="11"/>
-    </row>
-    <row r="25" s="7" customFormat="1" spans="6:10">
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="J25" s="11"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+    </row>
+    <row r="21" s="3" customFormat="1" spans="6:10">
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="J21" s="7"/>
+    </row>
+    <row r="22" s="3" customFormat="1" spans="6:10">
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="J22" s="7"/>
+    </row>
+    <row r="23" s="3" customFormat="1" spans="6:10">
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="J23" s="7"/>
+    </row>
+    <row r="24" s="3" customFormat="1" spans="6:10">
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="J24" s="7"/>
+    </row>
+    <row r="25" s="3" customFormat="1" spans="6:10">
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="J25" s="7"/>
     </row>
     <row r="26" spans="4:14">
-      <c r="D26" s="3"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="10"/>
-      <c r="N26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
     </row>
     <row r="27" spans="6:14">
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="10"/>
-      <c r="M27" s="10"/>
-      <c r="N27" s="10"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="6"/>
     </row>
     <row r="28" spans="6:14">
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="10"/>
-      <c r="L28" s="10"/>
-      <c r="M28" s="10"/>
-      <c r="N28" s="10"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="6"/>
+      <c r="N28" s="6"/>
     </row>
     <row r="29" spans="6:14">
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10"/>
-      <c r="K29" s="10"/>
-      <c r="L29" s="10"/>
-      <c r="M29" s="10"/>
-      <c r="N29" s="10"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
+      <c r="N29" s="6"/>
     </row>
     <row r="30" spans="6:14">
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="10"/>
-      <c r="K30" s="10"/>
-      <c r="L30" s="10"/>
-      <c r="M30" s="10"/>
-      <c r="N30" s="10"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="6"/>
+      <c r="N30" s="6"/>
     </row>
     <row r="31" spans="6:14">
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="10"/>
-      <c r="K31" s="10"/>
-      <c r="L31" s="10"/>
-      <c r="M31" s="10"/>
-      <c r="N31" s="10"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="6"/>
+      <c r="N31" s="6"/>
     </row>
     <row r="32" spans="6:14">
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="10"/>
-      <c r="K32" s="10"/>
-      <c r="L32" s="10"/>
-      <c r="M32" s="10"/>
-      <c r="N32" s="10"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="6"/>
+      <c r="M32" s="6"/>
+      <c r="N32" s="6"/>
     </row>
     <row r="33" spans="6:14">
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="10"/>
-      <c r="K33" s="10"/>
-      <c r="L33" s="10"/>
-      <c r="M33" s="10"/>
-      <c r="N33" s="10"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="6"/>
+      <c r="N33" s="6"/>
     </row>
     <row r="34" spans="6:14">
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="10"/>
-      <c r="I34" s="10"/>
-      <c r="J34" s="10"/>
-      <c r="K34" s="10"/>
-      <c r="L34" s="10"/>
-      <c r="M34" s="10"/>
-      <c r="N34" s="10"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="6"/>
+      <c r="M34" s="6"/>
+      <c r="N34" s="6"/>
     </row>
     <row r="35" ht="14.4" spans="6:14">
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="10"/>
-      <c r="I35" s="10"/>
-      <c r="J35" s="47"/>
-      <c r="K35" s="10"/>
-      <c r="L35" s="10"/>
-      <c r="M35" s="10"/>
-      <c r="N35" s="10"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="44"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="6"/>
+      <c r="M35" s="6"/>
+      <c r="N35" s="6"/>
     </row>
     <row r="36" spans="6:14">
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="10"/>
-      <c r="I36" s="10"/>
-      <c r="J36" s="10"/>
-      <c r="K36" s="10"/>
-      <c r="L36" s="10"/>
-      <c r="M36" s="10"/>
-      <c r="N36" s="10"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="6"/>
+      <c r="M36" s="6"/>
+      <c r="N36" s="6"/>
     </row>
     <row r="37" spans="6:14">
-      <c r="F37" s="10"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="10"/>
-      <c r="I37" s="10"/>
-      <c r="J37" s="10"/>
-      <c r="K37" s="10"/>
-      <c r="L37" s="10"/>
-      <c r="M37" s="10"/>
-      <c r="N37" s="10"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="6"/>
+      <c r="M37" s="6"/>
+      <c r="N37" s="6"/>
     </row>
     <row r="38" spans="6:14">
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="10"/>
-      <c r="I38" s="10"/>
-      <c r="J38" s="10"/>
-      <c r="K38" s="10"/>
-      <c r="L38" s="10"/>
-      <c r="M38" s="10"/>
-      <c r="N38" s="10"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="6"/>
+      <c r="M38" s="6"/>
+      <c r="N38" s="6"/>
     </row>
     <row r="39" spans="6:14">
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="10"/>
-      <c r="I39" s="10"/>
-      <c r="J39" s="10"/>
-      <c r="K39" s="10"/>
-      <c r="L39" s="10"/>
-      <c r="M39" s="10"/>
-      <c r="N39" s="10"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="6"/>
+      <c r="L39" s="6"/>
+      <c r="M39" s="6"/>
+      <c r="N39" s="6"/>
     </row>
     <row r="40" spans="6:14">
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="10"/>
-      <c r="I40" s="10"/>
-      <c r="J40" s="10"/>
-      <c r="K40" s="10"/>
-      <c r="L40" s="10"/>
-      <c r="M40" s="10"/>
-      <c r="N40" s="10"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="6"/>
+      <c r="L40" s="6"/>
+      <c r="M40" s="6"/>
+      <c r="N40" s="6"/>
     </row>
     <row r="41" spans="6:14">
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="10"/>
-      <c r="I41" s="10"/>
-      <c r="J41" s="10"/>
-      <c r="K41" s="10"/>
-      <c r="L41" s="10"/>
-      <c r="M41" s="10"/>
-      <c r="N41" s="10"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="6"/>
+      <c r="J41" s="6"/>
+      <c r="K41" s="6"/>
+      <c r="L41" s="6"/>
+      <c r="M41" s="6"/>
+      <c r="N41" s="6"/>
     </row>
     <row r="42" spans="6:14">
-      <c r="F42" s="10"/>
-      <c r="G42" s="10"/>
-      <c r="H42" s="10"/>
-      <c r="I42" s="10"/>
-      <c r="J42" s="10"/>
-      <c r="K42" s="10"/>
-      <c r="L42" s="10"/>
-      <c r="M42" s="10"/>
-      <c r="N42" s="10"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="6"/>
+      <c r="J42" s="6"/>
+      <c r="K42" s="6"/>
+      <c r="L42" s="6"/>
+      <c r="M42" s="6"/>
+      <c r="N42" s="6"/>
     </row>
     <row r="43" spans="6:14">
-      <c r="F43" s="10"/>
-      <c r="G43" s="10"/>
-      <c r="H43" s="10"/>
-      <c r="I43" s="10"/>
-      <c r="J43" s="10"/>
-      <c r="K43" s="10"/>
-      <c r="L43" s="10"/>
-      <c r="M43" s="10"/>
-      <c r="N43" s="10"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="6"/>
+      <c r="J43" s="6"/>
+      <c r="K43" s="6"/>
+      <c r="L43" s="6"/>
+      <c r="M43" s="6"/>
+      <c r="N43" s="6"/>
     </row>
     <row r="44" spans="6:14">
-      <c r="F44" s="10"/>
-      <c r="G44" s="10"/>
-      <c r="H44" s="10"/>
-      <c r="I44" s="10"/>
-      <c r="J44" s="10"/>
-      <c r="K44" s="10"/>
-      <c r="L44" s="10"/>
-      <c r="M44" s="10"/>
-      <c r="N44" s="10"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="6"/>
+      <c r="J44" s="6"/>
+      <c r="K44" s="6"/>
+      <c r="L44" s="6"/>
+      <c r="M44" s="6"/>
+      <c r="N44" s="6"/>
     </row>
     <row r="45" spans="6:14">
-      <c r="F45" s="10"/>
-      <c r="G45" s="10"/>
-      <c r="H45" s="10"/>
-      <c r="I45" s="10"/>
-      <c r="J45" s="10"/>
-      <c r="K45" s="10"/>
-      <c r="L45" s="10"/>
-      <c r="M45" s="10"/>
-      <c r="N45" s="10"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
+      <c r="I45" s="6"/>
+      <c r="J45" s="6"/>
+      <c r="K45" s="6"/>
+      <c r="L45" s="6"/>
+      <c r="M45" s="6"/>
+      <c r="N45" s="6"/>
     </row>
     <row r="46" spans="6:14">
-      <c r="F46" s="10"/>
-      <c r="G46" s="10"/>
-      <c r="H46" s="10"/>
-      <c r="I46" s="10"/>
-      <c r="J46" s="10"/>
-      <c r="K46" s="10"/>
-      <c r="L46" s="10"/>
-      <c r="M46" s="10"/>
-      <c r="N46" s="10"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6"/>
+      <c r="I46" s="6"/>
+      <c r="J46" s="6"/>
+      <c r="K46" s="6"/>
+      <c r="L46" s="6"/>
+      <c r="M46" s="6"/>
+      <c r="N46" s="6"/>
     </row>
     <row r="47" spans="6:14">
-      <c r="F47" s="10"/>
-      <c r="G47" s="10"/>
-      <c r="H47" s="10"/>
-      <c r="I47" s="10"/>
-      <c r="J47" s="10"/>
-      <c r="K47" s="10"/>
-      <c r="L47" s="10"/>
-      <c r="M47" s="10"/>
-      <c r="N47" s="10"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
+      <c r="I47" s="6"/>
+      <c r="J47" s="6"/>
+      <c r="K47" s="6"/>
+      <c r="L47" s="6"/>
+      <c r="M47" s="6"/>
+      <c r="N47" s="6"/>
     </row>
     <row r="48" spans="6:14">
-      <c r="F48" s="10"/>
-      <c r="G48" s="10"/>
-      <c r="H48" s="10"/>
-      <c r="I48" s="10"/>
-      <c r="J48" s="10"/>
-      <c r="K48" s="10"/>
-      <c r="L48" s="10"/>
-      <c r="M48" s="10"/>
-      <c r="N48" s="10"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="6"/>
+      <c r="J48" s="6"/>
+      <c r="K48" s="6"/>
+      <c r="L48" s="6"/>
+      <c r="M48" s="6"/>
+      <c r="N48" s="6"/>
     </row>
     <row r="49" ht="14.4" spans="6:14">
-      <c r="F49" s="10"/>
-      <c r="G49" s="10"/>
-      <c r="H49" s="10"/>
-      <c r="I49" s="10"/>
-      <c r="J49" s="47"/>
-      <c r="K49" s="10"/>
-      <c r="L49" s="10"/>
-      <c r="M49" s="10"/>
-      <c r="N49" s="10"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="6"/>
+      <c r="I49" s="6"/>
+      <c r="J49" s="44"/>
+      <c r="K49" s="6"/>
+      <c r="L49" s="6"/>
+      <c r="M49" s="6"/>
+      <c r="N49" s="6"/>
     </row>
     <row r="50" spans="6:14">
-      <c r="F50" s="10"/>
-      <c r="G50" s="10"/>
-      <c r="H50" s="10"/>
-      <c r="I50" s="10"/>
-      <c r="J50" s="10"/>
-      <c r="K50" s="10"/>
-      <c r="L50" s="10"/>
-      <c r="M50" s="10"/>
-      <c r="N50" s="10"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="6"/>
+      <c r="I50" s="6"/>
+      <c r="J50" s="6"/>
+      <c r="K50" s="6"/>
+      <c r="L50" s="6"/>
+      <c r="M50" s="6"/>
+      <c r="N50" s="6"/>
     </row>
     <row r="51" spans="6:14">
-      <c r="F51" s="10"/>
-      <c r="G51" s="10"/>
-      <c r="H51" s="10"/>
-      <c r="I51" s="10"/>
-      <c r="J51" s="10"/>
-      <c r="K51" s="10"/>
-      <c r="L51" s="10"/>
-      <c r="M51" s="10"/>
-      <c r="N51" s="10"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="6"/>
+      <c r="I51" s="6"/>
+      <c r="J51" s="6"/>
+      <c r="K51" s="6"/>
+      <c r="L51" s="6"/>
+      <c r="M51" s="6"/>
+      <c r="N51" s="6"/>
     </row>
     <row r="52" spans="6:14">
-      <c r="F52" s="10"/>
-      <c r="G52" s="10"/>
-      <c r="H52" s="10"/>
-      <c r="I52" s="10"/>
-      <c r="J52" s="10"/>
-      <c r="K52" s="10"/>
-      <c r="L52" s="10"/>
-      <c r="M52" s="10"/>
-      <c r="N52" s="10"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6"/>
+      <c r="H52" s="6"/>
+      <c r="I52" s="6"/>
+      <c r="J52" s="6"/>
+      <c r="K52" s="6"/>
+      <c r="L52" s="6"/>
+      <c r="M52" s="6"/>
+      <c r="N52" s="6"/>
     </row>
     <row r="53" spans="6:13">
-      <c r="F53" s="10"/>
-      <c r="G53" s="10"/>
-      <c r="H53" s="10"/>
-      <c r="I53" s="10"/>
-      <c r="J53" s="10"/>
-      <c r="K53" s="10"/>
-      <c r="L53" s="10"/>
-      <c r="M53" s="10"/>
-    </row>
-    <row r="54" s="22" customFormat="1" ht="14.4" spans="6:14">
-      <c r="F54" s="46"/>
-      <c r="G54" s="46"/>
-      <c r="H54" s="46"/>
-      <c r="I54" s="46"/>
-      <c r="J54" s="48"/>
-      <c r="K54" s="46"/>
-      <c r="L54" s="46"/>
-      <c r="M54" s="46"/>
-      <c r="N54" s="46"/>
-    </row>
-    <row r="55" s="22" customFormat="1" ht="14.4" spans="6:14">
-      <c r="F55" s="46"/>
-      <c r="G55" s="46"/>
-      <c r="H55" s="46"/>
-      <c r="I55" s="46"/>
-      <c r="J55" s="48"/>
-      <c r="K55" s="46"/>
-      <c r="L55" s="46"/>
-      <c r="M55" s="46"/>
-      <c r="N55" s="46"/>
-    </row>
-    <row r="56" s="22" customFormat="1" ht="14.4" spans="6:14">
-      <c r="F56" s="46"/>
-      <c r="G56" s="46"/>
-      <c r="H56" s="46"/>
-      <c r="I56" s="46"/>
-      <c r="J56" s="48"/>
-      <c r="K56" s="46"/>
-      <c r="L56" s="46"/>
-      <c r="M56" s="46"/>
-      <c r="N56" s="46"/>
-    </row>
-    <row r="57" s="22" customFormat="1" ht="14.4" spans="6:14">
-      <c r="F57" s="46"/>
-      <c r="G57" s="46"/>
-      <c r="H57" s="46"/>
-      <c r="I57" s="46"/>
-      <c r="J57" s="48"/>
-      <c r="K57" s="46"/>
-      <c r="L57" s="46"/>
-      <c r="M57" s="46"/>
-      <c r="N57" s="46"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="6"/>
+      <c r="I53" s="6"/>
+      <c r="J53" s="6"/>
+      <c r="K53" s="6"/>
+      <c r="L53" s="6"/>
+      <c r="M53" s="6"/>
+    </row>
+    <row r="54" s="19" customFormat="1" ht="14.4" spans="6:14">
+      <c r="F54" s="43"/>
+      <c r="G54" s="43"/>
+      <c r="H54" s="43"/>
+      <c r="I54" s="43"/>
+      <c r="J54" s="45"/>
+      <c r="K54" s="43"/>
+      <c r="L54" s="43"/>
+      <c r="M54" s="43"/>
+      <c r="N54" s="43"/>
+    </row>
+    <row r="55" s="19" customFormat="1" ht="14.4" spans="6:14">
+      <c r="F55" s="43"/>
+      <c r="G55" s="43"/>
+      <c r="H55" s="43"/>
+      <c r="I55" s="43"/>
+      <c r="J55" s="45"/>
+      <c r="K55" s="43"/>
+      <c r="L55" s="43"/>
+      <c r="M55" s="43"/>
+      <c r="N55" s="43"/>
+    </row>
+    <row r="56" s="19" customFormat="1" ht="14.4" spans="6:14">
+      <c r="F56" s="43"/>
+      <c r="G56" s="43"/>
+      <c r="H56" s="43"/>
+      <c r="I56" s="43"/>
+      <c r="J56" s="45"/>
+      <c r="K56" s="43"/>
+      <c r="L56" s="43"/>
+      <c r="M56" s="43"/>
+      <c r="N56" s="43"/>
+    </row>
+    <row r="57" s="19" customFormat="1" ht="14.4" spans="6:14">
+      <c r="F57" s="43"/>
+      <c r="G57" s="43"/>
+      <c r="H57" s="43"/>
+      <c r="I57" s="43"/>
+      <c r="J57" s="45"/>
+      <c r="K57" s="43"/>
+      <c r="L57" s="43"/>
+      <c r="M57" s="43"/>
+      <c r="N57" s="43"/>
     </row>
   </sheetData>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -2680,10 +2757,10 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="D7:J12"/>
+  <dimension ref="D7:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.11029411764706" defaultRowHeight="14"/>
@@ -2701,7 +2778,7 @@
   <sheetData>
     <row r="7" spans="4:10">
       <c r="D7" s="1" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>1</v>
@@ -2710,7 +2787,7 @@
         <v>2</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>6</v>
@@ -2722,104 +2799,420 @@
         <v>146</v>
       </c>
     </row>
-    <row r="8" ht="16.4" spans="5:10">
+    <row r="8" spans="4:10">
+      <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>152</v>
+      <c r="H8" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>162</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="9" ht="16.4" spans="5:10">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="9" spans="4:10">
+      <c r="D9" s="1"/>
       <c r="E9" s="1" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>154</v>
+      <c r="H9" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>164</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="10" spans="5:10">
-      <c r="E10" t="s">
-        <v>155</v>
-      </c>
-      <c r="F10" t="s">
-        <v>155</v>
+        <v>164</v>
+      </c>
+    </row>
+    <row r="10" spans="4:10">
+      <c r="D10" s="1"/>
+      <c r="E10" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>165</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="H10" t="s">
-        <v>156</v>
-      </c>
-      <c r="I10" t="s">
-        <v>156</v>
-      </c>
-      <c r="J10" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="11" spans="5:10">
-      <c r="E11" t="s">
-        <v>157</v>
-      </c>
-      <c r="F11" t="s">
-        <v>157</v>
+      <c r="H10" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="11" spans="4:10">
+      <c r="D11" s="1"/>
+      <c r="E11" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>167</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="H11" t="s">
-        <v>158</v>
-      </c>
-      <c r="I11" t="s">
-        <v>158</v>
-      </c>
-      <c r="J11" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="12" spans="5:10">
-      <c r="E12" t="s">
-        <v>159</v>
-      </c>
-      <c r="F12" t="s">
-        <v>159</v>
+      <c r="H11" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="12" spans="4:10">
+      <c r="D12" s="1"/>
+      <c r="E12" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>169</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="H12" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>160</v>
+      <c r="H12" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="13" spans="4:10">
+      <c r="D13" s="1"/>
+      <c r="E13" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="14" spans="4:10">
+      <c r="D14" s="1"/>
+      <c r="E14" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="15" spans="4:10">
+      <c r="D15" s="1"/>
+      <c r="E15" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="16" spans="4:10">
+      <c r="D16" s="1"/>
+      <c r="E16" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="17" spans="4:10">
+      <c r="D17" s="1"/>
+      <c r="E17" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="18" spans="4:10">
+      <c r="D18" s="1"/>
+      <c r="E18" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="19" spans="4:10">
+      <c r="D19" s="1"/>
+      <c r="E19" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="20" spans="4:10">
+      <c r="D20" s="1"/>
+      <c r="E20" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="21" spans="4:10">
+      <c r="D21" s="1"/>
+      <c r="E21" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="22" spans="4:10">
+      <c r="D22" s="1"/>
+      <c r="E22" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="23" spans="4:10">
+      <c r="D23" s="1"/>
+      <c r="E23" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="24" spans="5:10">
+      <c r="E24" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="25" spans="5:10">
+      <c r="E25" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="26" spans="5:10">
+      <c r="E26" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="27" spans="5:10">
+      <c r="E27" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -2861,1155 +3254,1155 @@
   </cols>
   <sheetData>
     <row r="7" ht="12.85" customHeight="1" spans="4:17">
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="H7" s="14" t="s">
+      <c r="H7" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="I7" s="14" t="s">
+      <c r="I7" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="J7" s="14" t="s">
+      <c r="J7" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="K7" s="14" t="s">
+      <c r="K7" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="L7" s="14" t="s">
+      <c r="L7" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="M7" s="14" t="s">
+      <c r="M7" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="N7" s="10" t="s">
+      <c r="N7" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="O7" s="10" t="s">
+      <c r="O7" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="P7" s="14" t="s">
+      <c r="P7" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="Q7" s="14" t="s">
+      <c r="Q7" s="11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" s="7" customFormat="1" ht="13.95" customHeight="1" spans="6:15">
-      <c r="F8" s="11" t="s">
+    <row r="8" s="3" customFormat="1" ht="13.95" customHeight="1" spans="6:15">
+      <c r="F8" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G8" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="H8" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="I8" s="11" t="s">
+      <c r="I8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J8" s="11" t="s">
+      <c r="J8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K8" s="11" t="s">
+      <c r="K8" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="L8" s="11" t="s">
+      <c r="L8" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="M8" s="11" t="s">
+      <c r="M8" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="N8" s="7" t="s">
+      <c r="N8" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="O8" s="7">
+      <c r="O8" s="3">
         <v>20</v>
       </c>
     </row>
-    <row r="9" s="7" customFormat="1" ht="13.95" customHeight="1" spans="6:15">
-      <c r="F9" s="11" t="s">
+    <row r="9" s="3" customFormat="1" ht="13.95" customHeight="1" spans="6:15">
+      <c r="F9" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G9" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="H9" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="I9" s="11" t="s">
+      <c r="I9" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="J9" s="11" t="s">
+      <c r="J9" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K9" s="11" t="s">
+      <c r="K9" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="L9" s="11" t="s">
+      <c r="L9" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="M9" s="11" t="s">
+      <c r="M9" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="N9" s="7" t="s">
+      <c r="N9" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="O9" s="7">
+      <c r="O9" s="3">
         <v>20</v>
       </c>
     </row>
-    <row r="10" s="7" customFormat="1" spans="6:15">
-      <c r="F10" s="11" t="s">
+    <row r="10" s="3" customFormat="1" spans="6:15">
+      <c r="F10" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="G10" s="11" t="s">
+      <c r="G10" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="H10" s="11" t="s">
+      <c r="H10" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="I10" s="11" t="s">
+      <c r="I10" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="J10" s="11" t="s">
+      <c r="J10" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K10" s="11" t="s">
+      <c r="K10" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="L10" s="11" t="s">
+      <c r="L10" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="M10" s="11" t="s">
+      <c r="M10" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="N10" s="7" t="s">
+      <c r="N10" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="O10" s="7">
+      <c r="O10" s="3">
         <v>20</v>
       </c>
     </row>
-    <row r="11" s="15" customFormat="1" spans="6:15">
-      <c r="F11" s="15" t="s">
+    <row r="11" s="12" customFormat="1" spans="6:15">
+      <c r="F11" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="G11" s="15" t="s">
+      <c r="G11" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="H11" s="15" t="s">
+      <c r="H11" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="J11" s="15" t="s">
+      <c r="J11" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="K11" s="15" t="s">
+      <c r="K11" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="L11" s="15" t="s">
+      <c r="L11" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="M11" s="15" t="s">
+      <c r="M11" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="N11" s="15" t="s">
+      <c r="N11" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="O11" s="15">
+      <c r="O11" s="12">
         <v>60</v>
       </c>
     </row>
-    <row r="12" s="16" customFormat="1" spans="6:15">
-      <c r="F12" s="16" t="s">
+    <row r="12" s="13" customFormat="1" spans="6:15">
+      <c r="F12" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="G12" s="16" t="s">
+      <c r="G12" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="H12" s="16" t="s">
+      <c r="H12" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="I12" s="16" t="s">
+      <c r="I12" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="J12" s="16" t="s">
+      <c r="J12" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="K12" s="16" t="s">
+      <c r="K12" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="L12" s="16" t="s">
+      <c r="L12" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="M12" s="16" t="s">
+      <c r="M12" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="N12" s="16" t="s">
+      <c r="N12" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="O12" s="16">
+      <c r="O12" s="13">
         <v>10</v>
       </c>
     </row>
-    <row r="13" s="16" customFormat="1" spans="6:15">
-      <c r="F13" s="16" t="s">
+    <row r="13" s="13" customFormat="1" spans="6:15">
+      <c r="F13" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="G13" s="16" t="s">
+      <c r="G13" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="H13" s="16" t="s">
+      <c r="H13" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="I13" s="16" t="s">
+      <c r="I13" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="J13" s="16" t="s">
+      <c r="J13" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="K13" s="16" t="s">
+      <c r="K13" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="L13" s="16" t="s">
+      <c r="L13" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="M13" s="16" t="s">
+      <c r="M13" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="N13" s="16" t="s">
+      <c r="N13" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="O13" s="16">
+      <c r="O13" s="13">
         <v>20</v>
       </c>
     </row>
-    <row r="14" s="16" customFormat="1" spans="6:15">
-      <c r="F14" s="16" t="s">
+    <row r="14" s="13" customFormat="1" spans="6:15">
+      <c r="F14" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="G14" s="16" t="s">
+      <c r="G14" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="H14" s="16" t="s">
+      <c r="H14" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="I14" s="16" t="s">
+      <c r="I14" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="J14" s="16" t="s">
+      <c r="J14" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="K14" s="16" t="s">
+      <c r="K14" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="L14" s="16" t="s">
+      <c r="L14" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="M14" s="16" t="s">
+      <c r="M14" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="N14" s="16" t="s">
+      <c r="N14" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="O14" s="16">
+      <c r="O14" s="13">
         <v>30</v>
       </c>
     </row>
-    <row r="15" s="16" customFormat="1" spans="6:15">
-      <c r="F15" s="16" t="s">
+    <row r="15" s="13" customFormat="1" spans="6:15">
+      <c r="F15" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="G15" s="16" t="s">
+      <c r="G15" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="H15" s="16" t="s">
+      <c r="H15" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="I15" s="16" t="s">
+      <c r="I15" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="J15" s="16" t="s">
+      <c r="J15" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="K15" s="16" t="s">
+      <c r="K15" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="L15" s="16" t="s">
+      <c r="L15" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="M15" s="16" t="s">
+      <c r="M15" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="N15" s="16" t="s">
+      <c r="N15" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="O15" s="16">
+      <c r="O15" s="13">
         <v>40</v>
       </c>
     </row>
-    <row r="16" s="7" customFormat="1" ht="14.4" spans="6:15">
-      <c r="F16" s="11" t="s">
+    <row r="16" s="3" customFormat="1" ht="14.4" spans="6:15">
+      <c r="F16" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="G16" s="23" t="s">
+      <c r="G16" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="H16" s="11" t="s">
+      <c r="H16" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="I16" s="11" t="s">
+      <c r="I16" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="J16" s="11" t="s">
+      <c r="J16" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K16" s="11" t="s">
+      <c r="K16" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="L16" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="M16" s="11" t="s">
+      <c r="M16" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="N16" s="7" t="s">
+      <c r="N16" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="O16" s="7">
+      <c r="O16" s="3">
         <v>50</v>
       </c>
     </row>
-    <row r="17" s="17" customFormat="1" ht="14.4" spans="6:15">
-      <c r="F17" s="17" t="s">
+    <row r="17" s="14" customFormat="1" ht="14.4" spans="6:15">
+      <c r="F17" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="G17" s="24" t="s">
+      <c r="G17" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="H17" s="17" t="s">
+      <c r="H17" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="J17" s="17" t="s">
+      <c r="J17" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="K17" s="17" t="s">
+      <c r="K17" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="L17" s="17" t="s">
+      <c r="L17" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="M17" s="17" t="s">
+      <c r="M17" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="N17" s="17" t="s">
+      <c r="N17" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="O17" s="17">
+      <c r="O17" s="14">
         <v>80</v>
       </c>
     </row>
-    <row r="18" s="18" customFormat="1" ht="15.2" spans="6:15">
-      <c r="F18" s="25" t="s">
+    <row r="18" s="15" customFormat="1" ht="15.2" spans="6:15">
+      <c r="F18" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="G18" s="26" t="s">
+      <c r="G18" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="H18" s="25" t="s">
+      <c r="H18" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="I18" s="35" t="s">
+      <c r="I18" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="J18" s="36" t="s">
+      <c r="J18" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="K18" s="25" t="s">
+      <c r="K18" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="L18" s="25" t="s">
+      <c r="L18" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="M18" s="25" t="s">
+      <c r="M18" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="N18" s="25" t="s">
+      <c r="N18" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="O18" s="36">
+      <c r="O18" s="33">
         <v>10</v>
       </c>
     </row>
-    <row r="19" s="19" customFormat="1" ht="14.4" spans="6:15">
-      <c r="F19" s="19" t="s">
+    <row r="19" s="16" customFormat="1" ht="14.4" spans="6:15">
+      <c r="F19" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="G19" s="27" t="s">
+      <c r="G19" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="H19" s="19" t="s">
+      <c r="H19" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="J19" s="19" t="s">
+      <c r="J19" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="K19" s="19" t="s">
+      <c r="K19" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="L19" s="19" t="s">
+      <c r="L19" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="M19" s="19" t="s">
+      <c r="M19" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="N19" s="19" t="s">
+      <c r="N19" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="O19" s="19">
+      <c r="O19" s="16">
         <v>90</v>
       </c>
     </row>
-    <row r="20" s="20" customFormat="1" ht="15.2" spans="6:15">
-      <c r="F20" s="28" t="s">
+    <row r="20" s="17" customFormat="1" ht="15.2" spans="6:15">
+      <c r="F20" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="G20" s="29" t="s">
+      <c r="G20" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="H20" s="28" t="s">
+      <c r="H20" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="I20" s="37" t="s">
+      <c r="I20" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="J20" s="21" t="s">
+      <c r="J20" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="K20" s="28" t="s">
+      <c r="K20" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="L20" s="28" t="s">
+      <c r="L20" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="M20" s="28" t="s">
+      <c r="M20" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="N20" s="28" t="s">
+      <c r="N20" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="O20" s="21">
+      <c r="O20" s="18">
         <v>10</v>
       </c>
     </row>
-    <row r="21" s="21" customFormat="1" ht="14.4" spans="7:7">
-      <c r="G21" s="29"/>
-    </row>
-    <row r="22" s="7" customFormat="1" ht="14.4" spans="6:14">
-      <c r="F22" s="11"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="11"/>
-      <c r="M22" s="13"/>
-      <c r="N22" s="11"/>
+    <row r="21" s="18" customFormat="1" ht="14.4" spans="7:7">
+      <c r="G21" s="26"/>
+    </row>
+    <row r="22" s="3" customFormat="1" ht="14.4" spans="6:14">
+      <c r="F22" s="7"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="7"/>
     </row>
     <row r="23" ht="15.2" spans="6:15">
-      <c r="F23" s="12"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="12"/>
-      <c r="N23" s="12"/>
-      <c r="O23" s="7"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="3"/>
     </row>
     <row r="24" ht="15.2" spans="6:15">
-      <c r="F24" s="12"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="38"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="12"/>
-      <c r="M24" s="12"/>
-      <c r="N24" s="12"/>
-      <c r="O24" s="7"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="35"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="3"/>
     </row>
     <row r="25" ht="15.2" spans="6:15">
-      <c r="F25" s="12"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="12"/>
-      <c r="L25" s="12"/>
-      <c r="M25" s="12"/>
-      <c r="N25" s="12"/>
-      <c r="O25" s="7"/>
-    </row>
-    <row r="26" s="7" customFormat="1" ht="14.4" spans="6:13">
-      <c r="F26" s="11"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="11"/>
-      <c r="M26" s="11"/>
-    </row>
-    <row r="27" s="7" customFormat="1" ht="14.4" spans="6:13">
-      <c r="F27" s="11"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="11"/>
-      <c r="M27" s="11"/>
-    </row>
-    <row r="28" s="7" customFormat="1" ht="14.4" spans="6:13">
-      <c r="F28" s="11"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="11"/>
-      <c r="K28" s="11"/>
-      <c r="M28" s="11"/>
-    </row>
-    <row r="29" s="7" customFormat="1" ht="14.4" spans="6:13">
-      <c r="F29" s="11"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="11"/>
-      <c r="K29" s="11"/>
-      <c r="M29" s="11"/>
-    </row>
-    <row r="30" s="7" customFormat="1" ht="14.4" spans="6:13">
-      <c r="F30" s="11"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="11"/>
-      <c r="K30" s="11"/>
-      <c r="M30" s="11"/>
-    </row>
-    <row r="31" s="7" customFormat="1" ht="14.4" spans="6:13">
-      <c r="F31" s="11"/>
-      <c r="G31" s="23"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="11"/>
-      <c r="K31" s="11"/>
-      <c r="M31" s="11"/>
-    </row>
-    <row r="32" s="7" customFormat="1" ht="14.4" spans="6:13">
-      <c r="F32" s="11"/>
-      <c r="G32" s="23"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
-      <c r="J32" s="11"/>
-      <c r="K32" s="11"/>
-      <c r="M32" s="11"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" s="3" customFormat="1" ht="14.4" spans="6:13">
+      <c r="F26" s="7"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="M26" s="7"/>
+    </row>
+    <row r="27" s="3" customFormat="1" ht="14.4" spans="6:13">
+      <c r="F27" s="7"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="M27" s="7"/>
+    </row>
+    <row r="28" s="3" customFormat="1" ht="14.4" spans="6:13">
+      <c r="F28" s="7"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="M28" s="7"/>
+    </row>
+    <row r="29" s="3" customFormat="1" ht="14.4" spans="6:13">
+      <c r="F29" s="7"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="M29" s="7"/>
+    </row>
+    <row r="30" s="3" customFormat="1" ht="14.4" spans="6:13">
+      <c r="F30" s="7"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+      <c r="M30" s="7"/>
+    </row>
+    <row r="31" s="3" customFormat="1" ht="14.4" spans="6:13">
+      <c r="F31" s="7"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+      <c r="M31" s="7"/>
+    </row>
+    <row r="32" s="3" customFormat="1" ht="14.4" spans="6:13">
+      <c r="F32" s="7"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
+      <c r="M32" s="7"/>
     </row>
     <row r="33" ht="17.6" spans="4:15">
-      <c r="D33" s="3"/>
-      <c r="F33" s="30"/>
-      <c r="G33" s="30"/>
-      <c r="H33" s="30"/>
-      <c r="I33" s="30"/>
-      <c r="J33" s="30"/>
-      <c r="K33" s="30"/>
-      <c r="L33" s="30"/>
-      <c r="M33" s="30"/>
-      <c r="N33" s="30"/>
-      <c r="O33" s="30"/>
+      <c r="D33" s="10"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="27"/>
+      <c r="I33" s="27"/>
+      <c r="J33" s="27"/>
+      <c r="K33" s="27"/>
+      <c r="L33" s="27"/>
+      <c r="M33" s="27"/>
+      <c r="N33" s="27"/>
+      <c r="O33" s="27"/>
     </row>
     <row r="34" ht="17.6" spans="6:15">
-      <c r="F34" s="30"/>
-      <c r="G34" s="30"/>
-      <c r="H34" s="30"/>
-      <c r="I34" s="30"/>
-      <c r="J34" s="30"/>
-      <c r="K34" s="30"/>
-      <c r="L34" s="30"/>
-      <c r="M34" s="30"/>
-      <c r="N34" s="30"/>
-      <c r="O34" s="30"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="27"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="27"/>
+      <c r="K34" s="27"/>
+      <c r="L34" s="27"/>
+      <c r="M34" s="27"/>
+      <c r="N34" s="27"/>
+      <c r="O34" s="27"/>
     </row>
     <row r="35" ht="17.6" spans="6:15">
-      <c r="F35" s="30"/>
-      <c r="G35" s="30"/>
-      <c r="H35" s="30"/>
-      <c r="I35" s="30"/>
-      <c r="J35" s="30"/>
-      <c r="K35" s="30"/>
-      <c r="L35" s="30"/>
-      <c r="M35" s="30"/>
-      <c r="N35" s="30"/>
-      <c r="O35" s="30"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="27"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="27"/>
+      <c r="K35" s="27"/>
+      <c r="L35" s="27"/>
+      <c r="M35" s="27"/>
+      <c r="N35" s="27"/>
+      <c r="O35" s="27"/>
     </row>
     <row r="36" ht="17.6" spans="6:15">
-      <c r="F36" s="30"/>
-      <c r="G36" s="30"/>
-      <c r="H36" s="30"/>
-      <c r="I36" s="30"/>
-      <c r="J36" s="30"/>
-      <c r="K36" s="30"/>
-      <c r="L36" s="30"/>
-      <c r="M36" s="30"/>
-      <c r="N36" s="30"/>
-      <c r="O36" s="30"/>
+      <c r="F36" s="27"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="27"/>
+      <c r="I36" s="27"/>
+      <c r="J36" s="27"/>
+      <c r="K36" s="27"/>
+      <c r="L36" s="27"/>
+      <c r="M36" s="27"/>
+      <c r="N36" s="27"/>
+      <c r="O36" s="27"/>
     </row>
     <row r="37" ht="17.6" spans="6:15">
-      <c r="F37" s="30"/>
-      <c r="G37" s="30"/>
-      <c r="H37" s="30"/>
-      <c r="I37" s="30"/>
-      <c r="J37" s="30"/>
-      <c r="K37" s="30"/>
-      <c r="L37" s="30"/>
-      <c r="M37" s="30"/>
-      <c r="N37" s="30"/>
-      <c r="O37" s="30"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="27"/>
+      <c r="H37" s="27"/>
+      <c r="I37" s="27"/>
+      <c r="J37" s="27"/>
+      <c r="K37" s="27"/>
+      <c r="L37" s="27"/>
+      <c r="M37" s="27"/>
+      <c r="N37" s="27"/>
+      <c r="O37" s="27"/>
     </row>
     <row r="38" ht="17.6" spans="6:15">
-      <c r="F38" s="30"/>
-      <c r="G38" s="30"/>
-      <c r="H38" s="30"/>
-      <c r="I38" s="30"/>
-      <c r="J38" s="30"/>
-      <c r="K38" s="30"/>
-      <c r="L38" s="30"/>
-      <c r="M38" s="30"/>
-      <c r="N38" s="30"/>
-      <c r="O38" s="30"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="27"/>
+      <c r="I38" s="27"/>
+      <c r="J38" s="27"/>
+      <c r="K38" s="27"/>
+      <c r="L38" s="27"/>
+      <c r="M38" s="27"/>
+      <c r="N38" s="27"/>
+      <c r="O38" s="27"/>
     </row>
     <row r="39" ht="17.6" spans="6:15">
-      <c r="F39" s="30"/>
-      <c r="G39" s="30"/>
-      <c r="H39" s="30"/>
-      <c r="I39" s="30"/>
-      <c r="J39" s="30"/>
-      <c r="K39" s="30"/>
-      <c r="L39" s="30"/>
-      <c r="M39" s="30"/>
-      <c r="N39" s="30"/>
-      <c r="O39" s="30"/>
+      <c r="F39" s="27"/>
+      <c r="G39" s="27"/>
+      <c r="H39" s="27"/>
+      <c r="I39" s="27"/>
+      <c r="J39" s="27"/>
+      <c r="K39" s="27"/>
+      <c r="L39" s="27"/>
+      <c r="M39" s="27"/>
+      <c r="N39" s="27"/>
+      <c r="O39" s="27"/>
     </row>
     <row r="40" ht="17.6" spans="6:15">
-      <c r="F40" s="30"/>
-      <c r="G40" s="30"/>
-      <c r="H40" s="30"/>
-      <c r="I40" s="30"/>
-      <c r="J40" s="30"/>
-      <c r="K40" s="30"/>
-      <c r="L40" s="30"/>
-      <c r="M40" s="30"/>
-      <c r="N40" s="30"/>
-      <c r="O40" s="30"/>
+      <c r="F40" s="27"/>
+      <c r="G40" s="27"/>
+      <c r="H40" s="27"/>
+      <c r="I40" s="27"/>
+      <c r="J40" s="27"/>
+      <c r="K40" s="27"/>
+      <c r="L40" s="27"/>
+      <c r="M40" s="27"/>
+      <c r="N40" s="27"/>
+      <c r="O40" s="27"/>
     </row>
     <row r="41" ht="17.6" spans="6:15">
-      <c r="F41" s="30"/>
-      <c r="G41" s="30"/>
-      <c r="H41" s="30"/>
-      <c r="I41" s="30"/>
-      <c r="J41" s="30"/>
-      <c r="K41" s="30"/>
-      <c r="L41" s="30"/>
-      <c r="M41" s="30"/>
-      <c r="N41" s="30"/>
-      <c r="O41" s="30"/>
+      <c r="F41" s="27"/>
+      <c r="G41" s="27"/>
+      <c r="H41" s="27"/>
+      <c r="I41" s="27"/>
+      <c r="J41" s="27"/>
+      <c r="K41" s="27"/>
+      <c r="L41" s="27"/>
+      <c r="M41" s="27"/>
+      <c r="N41" s="27"/>
+      <c r="O41" s="27"/>
     </row>
     <row r="42" ht="17.6" spans="6:15">
-      <c r="F42" s="30"/>
-      <c r="G42" s="30"/>
-      <c r="H42" s="30"/>
-      <c r="I42" s="30"/>
-      <c r="J42" s="30"/>
-      <c r="K42" s="30"/>
-      <c r="L42" s="30"/>
-      <c r="M42" s="30"/>
-      <c r="N42" s="30"/>
-      <c r="O42" s="30"/>
+      <c r="F42" s="27"/>
+      <c r="G42" s="27"/>
+      <c r="H42" s="27"/>
+      <c r="I42" s="27"/>
+      <c r="J42" s="27"/>
+      <c r="K42" s="27"/>
+      <c r="L42" s="27"/>
+      <c r="M42" s="27"/>
+      <c r="N42" s="27"/>
+      <c r="O42" s="27"/>
     </row>
     <row r="43" ht="17.6" spans="6:15">
-      <c r="F43" s="30"/>
-      <c r="G43" s="30"/>
-      <c r="H43" s="30"/>
-      <c r="I43" s="30"/>
-      <c r="J43" s="30"/>
-      <c r="K43" s="30"/>
-      <c r="L43" s="30"/>
-      <c r="M43" s="30"/>
-      <c r="N43" s="30"/>
-      <c r="O43" s="30"/>
+      <c r="F43" s="27"/>
+      <c r="G43" s="27"/>
+      <c r="H43" s="27"/>
+      <c r="I43" s="27"/>
+      <c r="J43" s="27"/>
+      <c r="K43" s="27"/>
+      <c r="L43" s="27"/>
+      <c r="M43" s="27"/>
+      <c r="N43" s="27"/>
+      <c r="O43" s="27"/>
     </row>
     <row r="44" ht="17.6" spans="6:15">
-      <c r="F44" s="30"/>
-      <c r="G44" s="30"/>
-      <c r="H44" s="30"/>
-      <c r="I44" s="30"/>
-      <c r="J44" s="30"/>
-      <c r="K44" s="30"/>
-      <c r="L44" s="30"/>
-      <c r="M44" s="30"/>
-      <c r="N44" s="30"/>
-      <c r="O44" s="30"/>
+      <c r="F44" s="27"/>
+      <c r="G44" s="27"/>
+      <c r="H44" s="27"/>
+      <c r="I44" s="27"/>
+      <c r="J44" s="27"/>
+      <c r="K44" s="27"/>
+      <c r="L44" s="27"/>
+      <c r="M44" s="27"/>
+      <c r="N44" s="27"/>
+      <c r="O44" s="27"/>
     </row>
     <row r="45" ht="17.6" spans="6:15">
-      <c r="F45" s="30"/>
-      <c r="G45" s="30"/>
-      <c r="H45" s="30"/>
-      <c r="I45" s="30"/>
-      <c r="J45" s="30"/>
-      <c r="K45" s="30"/>
-      <c r="L45" s="30"/>
-      <c r="M45" s="30"/>
-      <c r="N45" s="30"/>
-      <c r="O45" s="30"/>
+      <c r="F45" s="27"/>
+      <c r="G45" s="27"/>
+      <c r="H45" s="27"/>
+      <c r="I45" s="27"/>
+      <c r="J45" s="27"/>
+      <c r="K45" s="27"/>
+      <c r="L45" s="27"/>
+      <c r="M45" s="27"/>
+      <c r="N45" s="27"/>
+      <c r="O45" s="27"/>
     </row>
     <row r="46" ht="17.6" spans="6:15">
-      <c r="F46" s="30"/>
-      <c r="G46" s="30"/>
-      <c r="H46" s="30"/>
-      <c r="I46" s="30"/>
-      <c r="J46" s="30"/>
-      <c r="K46" s="30"/>
-      <c r="L46" s="30"/>
-      <c r="M46" s="30"/>
-      <c r="N46" s="30"/>
-      <c r="O46" s="30"/>
+      <c r="F46" s="27"/>
+      <c r="G46" s="27"/>
+      <c r="H46" s="27"/>
+      <c r="I46" s="27"/>
+      <c r="J46" s="27"/>
+      <c r="K46" s="27"/>
+      <c r="L46" s="27"/>
+      <c r="M46" s="27"/>
+      <c r="N46" s="27"/>
+      <c r="O46" s="27"/>
     </row>
     <row r="47" ht="17.6" spans="6:15">
-      <c r="F47" s="30"/>
-      <c r="G47" s="31"/>
-      <c r="H47" s="30"/>
-      <c r="I47" s="30"/>
-      <c r="J47" s="30"/>
-      <c r="K47" s="30"/>
-      <c r="L47" s="30"/>
-      <c r="M47" s="30"/>
-      <c r="N47" s="30"/>
-      <c r="O47" s="30"/>
+      <c r="F47" s="27"/>
+      <c r="G47" s="28"/>
+      <c r="H47" s="27"/>
+      <c r="I47" s="27"/>
+      <c r="J47" s="27"/>
+      <c r="K47" s="27"/>
+      <c r="L47" s="27"/>
+      <c r="M47" s="27"/>
+      <c r="N47" s="27"/>
+      <c r="O47" s="27"/>
     </row>
     <row r="48" ht="17.6" spans="6:15">
-      <c r="F48" s="32"/>
-      <c r="G48" s="32"/>
-      <c r="H48" s="32"/>
-      <c r="I48" s="32"/>
-      <c r="J48" s="32"/>
-      <c r="K48" s="32"/>
-      <c r="L48" s="32"/>
-      <c r="M48" s="32"/>
-      <c r="N48" s="32"/>
-      <c r="O48" s="32"/>
+      <c r="F48" s="29"/>
+      <c r="G48" s="29"/>
+      <c r="H48" s="29"/>
+      <c r="I48" s="29"/>
+      <c r="J48" s="29"/>
+      <c r="K48" s="29"/>
+      <c r="L48" s="29"/>
+      <c r="M48" s="29"/>
+      <c r="N48" s="29"/>
+      <c r="O48" s="29"/>
     </row>
     <row r="49" ht="17.6" spans="6:15">
-      <c r="F49" s="32"/>
-      <c r="G49" s="32"/>
-      <c r="H49" s="32"/>
-      <c r="I49" s="32"/>
-      <c r="J49" s="32"/>
-      <c r="K49" s="32"/>
-      <c r="L49" s="32"/>
-      <c r="M49" s="32"/>
-      <c r="N49" s="32"/>
-      <c r="O49" s="32"/>
+      <c r="F49" s="29"/>
+      <c r="G49" s="29"/>
+      <c r="H49" s="29"/>
+      <c r="I49" s="29"/>
+      <c r="J49" s="29"/>
+      <c r="K49" s="29"/>
+      <c r="L49" s="29"/>
+      <c r="M49" s="29"/>
+      <c r="N49" s="29"/>
+      <c r="O49" s="29"/>
     </row>
     <row r="50" ht="17.6" spans="6:15">
-      <c r="F50" s="32"/>
-      <c r="G50" s="32"/>
-      <c r="H50" s="32"/>
-      <c r="I50" s="32"/>
-      <c r="J50" s="32"/>
-      <c r="K50" s="32"/>
-      <c r="L50" s="32"/>
-      <c r="M50" s="32"/>
-      <c r="N50" s="32"/>
-      <c r="O50" s="32"/>
+      <c r="F50" s="29"/>
+      <c r="G50" s="29"/>
+      <c r="H50" s="29"/>
+      <c r="I50" s="29"/>
+      <c r="J50" s="29"/>
+      <c r="K50" s="29"/>
+      <c r="L50" s="29"/>
+      <c r="M50" s="29"/>
+      <c r="N50" s="29"/>
+      <c r="O50" s="29"/>
     </row>
     <row r="51" ht="17.6" spans="6:15">
-      <c r="F51" s="32"/>
-      <c r="G51" s="33"/>
-      <c r="H51" s="32"/>
-      <c r="I51" s="32"/>
-      <c r="J51" s="32"/>
-      <c r="K51" s="32"/>
-      <c r="L51" s="32"/>
-      <c r="M51" s="32"/>
-      <c r="N51" s="32"/>
-      <c r="O51" s="32"/>
+      <c r="F51" s="29"/>
+      <c r="G51" s="30"/>
+      <c r="H51" s="29"/>
+      <c r="I51" s="29"/>
+      <c r="J51" s="29"/>
+      <c r="K51" s="29"/>
+      <c r="L51" s="29"/>
+      <c r="M51" s="29"/>
+      <c r="N51" s="29"/>
+      <c r="O51" s="29"/>
     </row>
     <row r="52" ht="17.6" spans="6:15">
-      <c r="F52" s="32"/>
-      <c r="G52" s="32"/>
-      <c r="H52" s="32"/>
-      <c r="I52" s="32"/>
-      <c r="J52" s="32"/>
-      <c r="K52" s="32"/>
-      <c r="L52" s="32"/>
-      <c r="M52" s="32"/>
-      <c r="N52" s="32"/>
-      <c r="O52" s="32"/>
+      <c r="F52" s="29"/>
+      <c r="G52" s="29"/>
+      <c r="H52" s="29"/>
+      <c r="I52" s="29"/>
+      <c r="J52" s="29"/>
+      <c r="K52" s="29"/>
+      <c r="L52" s="29"/>
+      <c r="M52" s="29"/>
+      <c r="N52" s="29"/>
+      <c r="O52" s="29"/>
     </row>
     <row r="53" ht="17.6" spans="6:15">
-      <c r="F53" s="32"/>
-      <c r="G53" s="33"/>
-      <c r="H53" s="32"/>
-      <c r="I53" s="32"/>
-      <c r="J53" s="32"/>
-      <c r="K53" s="32"/>
-      <c r="L53" s="32"/>
-      <c r="M53" s="32"/>
-      <c r="N53" s="32"/>
-      <c r="O53" s="32"/>
+      <c r="F53" s="29"/>
+      <c r="G53" s="30"/>
+      <c r="H53" s="29"/>
+      <c r="I53" s="29"/>
+      <c r="J53" s="29"/>
+      <c r="K53" s="29"/>
+      <c r="L53" s="29"/>
+      <c r="M53" s="29"/>
+      <c r="N53" s="29"/>
+      <c r="O53" s="29"/>
     </row>
     <row r="54" ht="17.6" spans="6:15">
-      <c r="F54" s="32"/>
-      <c r="G54" s="32"/>
-      <c r="H54" s="32"/>
-      <c r="I54" s="32"/>
-      <c r="J54" s="32"/>
-      <c r="K54" s="32"/>
-      <c r="L54" s="32"/>
-      <c r="M54" s="32"/>
-      <c r="N54" s="32"/>
-      <c r="O54" s="32"/>
+      <c r="F54" s="29"/>
+      <c r="G54" s="29"/>
+      <c r="H54" s="29"/>
+      <c r="I54" s="29"/>
+      <c r="J54" s="29"/>
+      <c r="K54" s="29"/>
+      <c r="L54" s="29"/>
+      <c r="M54" s="29"/>
+      <c r="N54" s="29"/>
+      <c r="O54" s="29"/>
     </row>
     <row r="55" ht="17.6" spans="6:15">
-      <c r="F55" s="32"/>
-      <c r="G55" s="32"/>
-      <c r="H55" s="32"/>
-      <c r="I55" s="32"/>
-      <c r="J55" s="32"/>
-      <c r="K55" s="32"/>
-      <c r="L55" s="32"/>
-      <c r="M55" s="32"/>
-      <c r="N55" s="32"/>
-      <c r="O55" s="32"/>
+      <c r="F55" s="29"/>
+      <c r="G55" s="29"/>
+      <c r="H55" s="29"/>
+      <c r="I55" s="29"/>
+      <c r="J55" s="29"/>
+      <c r="K55" s="29"/>
+      <c r="L55" s="29"/>
+      <c r="M55" s="29"/>
+      <c r="N55" s="29"/>
+      <c r="O55" s="29"/>
     </row>
     <row r="56" ht="17.6" spans="6:15">
-      <c r="F56" s="32"/>
-      <c r="G56" s="33"/>
-      <c r="H56" s="32"/>
-      <c r="I56" s="32"/>
-      <c r="J56" s="32"/>
-      <c r="K56" s="32"/>
-      <c r="L56" s="32"/>
-      <c r="M56" s="32"/>
-      <c r="N56" s="32"/>
-      <c r="O56" s="32"/>
+      <c r="F56" s="29"/>
+      <c r="G56" s="30"/>
+      <c r="H56" s="29"/>
+      <c r="I56" s="29"/>
+      <c r="J56" s="29"/>
+      <c r="K56" s="29"/>
+      <c r="L56" s="29"/>
+      <c r="M56" s="29"/>
+      <c r="N56" s="29"/>
+      <c r="O56" s="29"/>
     </row>
     <row r="57" ht="17.6" spans="6:15">
-      <c r="F57" s="32"/>
-      <c r="G57" s="32"/>
-      <c r="H57" s="32"/>
-      <c r="I57" s="32"/>
-      <c r="J57" s="32"/>
-      <c r="K57" s="32"/>
-      <c r="L57" s="32"/>
-      <c r="M57" s="32"/>
-      <c r="N57" s="32"/>
-      <c r="O57" s="32"/>
+      <c r="F57" s="29"/>
+      <c r="G57" s="29"/>
+      <c r="H57" s="29"/>
+      <c r="I57" s="29"/>
+      <c r="J57" s="29"/>
+      <c r="K57" s="29"/>
+      <c r="L57" s="29"/>
+      <c r="M57" s="29"/>
+      <c r="N57" s="29"/>
+      <c r="O57" s="29"/>
     </row>
     <row r="58" ht="17.6" spans="6:15">
-      <c r="F58" s="32"/>
-      <c r="G58" s="32"/>
-      <c r="H58" s="32"/>
-      <c r="I58" s="32"/>
-      <c r="J58" s="32"/>
-      <c r="K58" s="32"/>
-      <c r="L58" s="32"/>
-      <c r="M58" s="32"/>
-      <c r="N58" s="32"/>
-      <c r="O58" s="32"/>
+      <c r="F58" s="29"/>
+      <c r="G58" s="29"/>
+      <c r="H58" s="29"/>
+      <c r="I58" s="29"/>
+      <c r="J58" s="29"/>
+      <c r="K58" s="29"/>
+      <c r="L58" s="29"/>
+      <c r="M58" s="29"/>
+      <c r="N58" s="29"/>
+      <c r="O58" s="29"/>
     </row>
     <row r="59" ht="17.6" spans="6:15">
-      <c r="F59" s="32"/>
-      <c r="G59" s="32"/>
-      <c r="H59" s="32"/>
-      <c r="I59" s="32"/>
-      <c r="J59" s="32"/>
-      <c r="K59" s="32"/>
-      <c r="L59" s="32"/>
-      <c r="M59" s="32"/>
-      <c r="N59" s="32"/>
-      <c r="O59" s="32"/>
+      <c r="F59" s="29"/>
+      <c r="G59" s="29"/>
+      <c r="H59" s="29"/>
+      <c r="I59" s="29"/>
+      <c r="J59" s="29"/>
+      <c r="K59" s="29"/>
+      <c r="L59" s="29"/>
+      <c r="M59" s="29"/>
+      <c r="N59" s="29"/>
+      <c r="O59" s="29"/>
     </row>
     <row r="60" ht="17.6" spans="6:15">
-      <c r="F60" s="32"/>
-      <c r="G60" s="32"/>
-      <c r="H60" s="32"/>
-      <c r="I60" s="32"/>
-      <c r="J60" s="32"/>
-      <c r="K60" s="32"/>
-      <c r="L60" s="32"/>
-      <c r="M60" s="32"/>
-      <c r="N60" s="32"/>
-      <c r="O60" s="32"/>
+      <c r="F60" s="29"/>
+      <c r="G60" s="29"/>
+      <c r="H60" s="29"/>
+      <c r="I60" s="29"/>
+      <c r="J60" s="29"/>
+      <c r="K60" s="29"/>
+      <c r="L60" s="29"/>
+      <c r="M60" s="29"/>
+      <c r="N60" s="29"/>
+      <c r="O60" s="29"/>
     </row>
     <row r="61" ht="17.6" spans="6:15">
-      <c r="F61" s="32"/>
-      <c r="G61" s="32"/>
-      <c r="H61" s="32"/>
-      <c r="I61" s="32"/>
-      <c r="J61" s="32"/>
-      <c r="K61" s="32"/>
-      <c r="L61" s="32"/>
-      <c r="M61" s="32"/>
-      <c r="N61" s="32"/>
-      <c r="O61" s="32"/>
+      <c r="F61" s="29"/>
+      <c r="G61" s="29"/>
+      <c r="H61" s="29"/>
+      <c r="I61" s="29"/>
+      <c r="J61" s="29"/>
+      <c r="K61" s="29"/>
+      <c r="L61" s="29"/>
+      <c r="M61" s="29"/>
+      <c r="N61" s="29"/>
+      <c r="O61" s="29"/>
     </row>
     <row r="62" ht="17.6" spans="6:15">
-      <c r="F62" s="34"/>
-      <c r="G62" s="34"/>
-      <c r="H62" s="34"/>
-      <c r="I62" s="34"/>
-      <c r="J62" s="34"/>
-      <c r="K62" s="34"/>
-      <c r="L62" s="34"/>
-      <c r="M62" s="34"/>
-      <c r="N62" s="34"/>
-      <c r="O62" s="34"/>
+      <c r="F62" s="31"/>
+      <c r="G62" s="31"/>
+      <c r="H62" s="31"/>
+      <c r="I62" s="31"/>
+      <c r="J62" s="31"/>
+      <c r="K62" s="31"/>
+      <c r="L62" s="31"/>
+      <c r="M62" s="31"/>
+      <c r="N62" s="31"/>
+      <c r="O62" s="31"/>
     </row>
     <row r="63" ht="17.6" spans="6:15">
-      <c r="F63" s="34"/>
-      <c r="G63" s="34"/>
-      <c r="H63" s="34"/>
-      <c r="I63" s="34"/>
-      <c r="J63" s="34"/>
-      <c r="K63" s="34"/>
-      <c r="L63" s="34"/>
-      <c r="M63" s="34"/>
-      <c r="N63" s="34"/>
-      <c r="O63" s="34"/>
+      <c r="F63" s="31"/>
+      <c r="G63" s="31"/>
+      <c r="H63" s="31"/>
+      <c r="I63" s="31"/>
+      <c r="J63" s="31"/>
+      <c r="K63" s="31"/>
+      <c r="L63" s="31"/>
+      <c r="M63" s="31"/>
+      <c r="N63" s="31"/>
+      <c r="O63" s="31"/>
     </row>
     <row r="64" ht="17.6" spans="6:15">
-      <c r="F64" s="34"/>
-      <c r="G64" s="34"/>
-      <c r="H64" s="34"/>
-      <c r="I64" s="34"/>
-      <c r="J64" s="34"/>
-      <c r="K64" s="34"/>
-      <c r="L64" s="34"/>
-      <c r="M64" s="34"/>
-      <c r="N64" s="34"/>
-      <c r="O64" s="34"/>
+      <c r="F64" s="31"/>
+      <c r="G64" s="31"/>
+      <c r="H64" s="31"/>
+      <c r="I64" s="31"/>
+      <c r="J64" s="31"/>
+      <c r="K64" s="31"/>
+      <c r="L64" s="31"/>
+      <c r="M64" s="31"/>
+      <c r="N64" s="31"/>
+      <c r="O64" s="31"/>
     </row>
     <row r="65" ht="17.6" spans="6:15">
-      <c r="F65" s="34"/>
-      <c r="G65" s="34"/>
-      <c r="H65" s="34"/>
-      <c r="I65" s="34"/>
-      <c r="J65" s="34"/>
-      <c r="K65" s="34"/>
-      <c r="L65" s="34"/>
-      <c r="M65" s="34"/>
-      <c r="N65" s="34"/>
-      <c r="O65" s="34"/>
+      <c r="F65" s="31"/>
+      <c r="G65" s="31"/>
+      <c r="H65" s="31"/>
+      <c r="I65" s="31"/>
+      <c r="J65" s="31"/>
+      <c r="K65" s="31"/>
+      <c r="L65" s="31"/>
+      <c r="M65" s="31"/>
+      <c r="N65" s="31"/>
+      <c r="O65" s="31"/>
     </row>
     <row r="66" ht="19.2" spans="6:15">
-      <c r="F66" s="39"/>
-      <c r="G66" s="39"/>
-      <c r="H66" s="39"/>
-      <c r="I66" s="39"/>
-      <c r="J66" s="39"/>
-      <c r="K66" s="39"/>
-      <c r="L66" s="39"/>
-      <c r="M66" s="39"/>
-      <c r="N66" s="42"/>
-      <c r="O66" s="39"/>
+      <c r="F66" s="36"/>
+      <c r="G66" s="36"/>
+      <c r="H66" s="36"/>
+      <c r="I66" s="36"/>
+      <c r="J66" s="36"/>
+      <c r="K66" s="36"/>
+      <c r="L66" s="36"/>
+      <c r="M66" s="36"/>
+      <c r="N66" s="39"/>
+      <c r="O66" s="36"/>
     </row>
     <row r="67" ht="19.2" spans="6:15">
-      <c r="F67" s="39"/>
-      <c r="G67" s="39"/>
-      <c r="H67" s="39"/>
-      <c r="I67" s="39"/>
-      <c r="J67" s="39"/>
-      <c r="K67" s="39"/>
-      <c r="L67" s="39"/>
-      <c r="M67" s="39"/>
-      <c r="N67" s="42"/>
-      <c r="O67" s="39"/>
+      <c r="F67" s="36"/>
+      <c r="G67" s="36"/>
+      <c r="H67" s="36"/>
+      <c r="I67" s="36"/>
+      <c r="J67" s="36"/>
+      <c r="K67" s="36"/>
+      <c r="L67" s="36"/>
+      <c r="M67" s="36"/>
+      <c r="N67" s="39"/>
+      <c r="O67" s="36"/>
     </row>
     <row r="68" ht="19.2" spans="6:15">
-      <c r="F68" s="39"/>
-      <c r="G68" s="39"/>
-      <c r="H68" s="39"/>
-      <c r="I68" s="39"/>
-      <c r="J68" s="39"/>
-      <c r="K68" s="39"/>
-      <c r="L68" s="39"/>
-      <c r="M68" s="39"/>
-      <c r="N68" s="39"/>
-      <c r="O68" s="39"/>
-    </row>
-    <row r="69" s="22" customFormat="1" ht="17.6" spans="6:15">
-      <c r="F69" s="30"/>
-      <c r="G69" s="31"/>
-      <c r="H69" s="30"/>
-      <c r="I69" s="30"/>
-      <c r="J69" s="30"/>
-      <c r="K69" s="30"/>
-      <c r="L69" s="30"/>
-      <c r="M69" s="30"/>
-      <c r="N69" s="30"/>
-      <c r="O69" s="30"/>
-    </row>
-    <row r="70" s="22" customFormat="1" ht="17.6" spans="6:15">
-      <c r="F70" s="30"/>
-      <c r="G70" s="31"/>
-      <c r="H70" s="30"/>
-      <c r="I70" s="30"/>
-      <c r="J70" s="30"/>
-      <c r="K70" s="30"/>
-      <c r="L70" s="30"/>
-      <c r="M70" s="30"/>
-      <c r="N70" s="30"/>
-      <c r="O70" s="30"/>
-    </row>
-    <row r="71" s="22" customFormat="1" ht="17.6" spans="6:15">
-      <c r="F71" s="30"/>
-      <c r="G71" s="31"/>
-      <c r="H71" s="30"/>
-      <c r="I71" s="30"/>
-      <c r="J71" s="30"/>
-      <c r="K71" s="30"/>
-      <c r="L71" s="30"/>
-      <c r="M71" s="30"/>
-      <c r="N71" s="30"/>
-      <c r="O71" s="30"/>
-    </row>
-    <row r="72" s="22" customFormat="1" ht="17.6" spans="6:15">
-      <c r="F72" s="30"/>
-      <c r="G72" s="31"/>
-      <c r="H72" s="30"/>
-      <c r="I72" s="30"/>
-      <c r="J72" s="30"/>
-      <c r="K72" s="30"/>
-      <c r="L72" s="30"/>
-      <c r="M72" s="30"/>
-      <c r="N72" s="30"/>
-      <c r="O72" s="30"/>
-    </row>
-    <row r="73" s="22" customFormat="1" ht="17.6" spans="6:15">
-      <c r="F73" s="30"/>
-      <c r="G73" s="31"/>
-      <c r="H73" s="30"/>
-      <c r="I73" s="30"/>
-      <c r="J73" s="30"/>
-      <c r="K73" s="30"/>
-      <c r="L73" s="30"/>
-      <c r="M73" s="30"/>
-      <c r="N73" s="30"/>
-      <c r="O73" s="30"/>
-    </row>
-    <row r="74" s="22" customFormat="1" ht="17.6" spans="6:15">
-      <c r="F74" s="30"/>
-      <c r="G74" s="31"/>
-      <c r="H74" s="30"/>
-      <c r="I74" s="30"/>
-      <c r="J74" s="30"/>
-      <c r="K74" s="30"/>
-      <c r="L74" s="30"/>
-      <c r="M74" s="30"/>
-      <c r="N74" s="30"/>
-      <c r="O74" s="30"/>
+      <c r="F68" s="36"/>
+      <c r="G68" s="36"/>
+      <c r="H68" s="36"/>
+      <c r="I68" s="36"/>
+      <c r="J68" s="36"/>
+      <c r="K68" s="36"/>
+      <c r="L68" s="36"/>
+      <c r="M68" s="36"/>
+      <c r="N68" s="36"/>
+      <c r="O68" s="36"/>
+    </row>
+    <row r="69" s="19" customFormat="1" ht="17.6" spans="6:15">
+      <c r="F69" s="27"/>
+      <c r="G69" s="28"/>
+      <c r="H69" s="27"/>
+      <c r="I69" s="27"/>
+      <c r="J69" s="27"/>
+      <c r="K69" s="27"/>
+      <c r="L69" s="27"/>
+      <c r="M69" s="27"/>
+      <c r="N69" s="27"/>
+      <c r="O69" s="27"/>
+    </row>
+    <row r="70" s="19" customFormat="1" ht="17.6" spans="6:15">
+      <c r="F70" s="27"/>
+      <c r="G70" s="28"/>
+      <c r="H70" s="27"/>
+      <c r="I70" s="27"/>
+      <c r="J70" s="27"/>
+      <c r="K70" s="27"/>
+      <c r="L70" s="27"/>
+      <c r="M70" s="27"/>
+      <c r="N70" s="27"/>
+      <c r="O70" s="27"/>
+    </row>
+    <row r="71" s="19" customFormat="1" ht="17.6" spans="6:15">
+      <c r="F71" s="27"/>
+      <c r="G71" s="28"/>
+      <c r="H71" s="27"/>
+      <c r="I71" s="27"/>
+      <c r="J71" s="27"/>
+      <c r="K71" s="27"/>
+      <c r="L71" s="27"/>
+      <c r="M71" s="27"/>
+      <c r="N71" s="27"/>
+      <c r="O71" s="27"/>
+    </row>
+    <row r="72" s="19" customFormat="1" ht="17.6" spans="6:15">
+      <c r="F72" s="27"/>
+      <c r="G72" s="28"/>
+      <c r="H72" s="27"/>
+      <c r="I72" s="27"/>
+      <c r="J72" s="27"/>
+      <c r="K72" s="27"/>
+      <c r="L72" s="27"/>
+      <c r="M72" s="27"/>
+      <c r="N72" s="27"/>
+      <c r="O72" s="27"/>
+    </row>
+    <row r="73" s="19" customFormat="1" ht="17.6" spans="6:15">
+      <c r="F73" s="27"/>
+      <c r="G73" s="28"/>
+      <c r="H73" s="27"/>
+      <c r="I73" s="27"/>
+      <c r="J73" s="27"/>
+      <c r="K73" s="27"/>
+      <c r="L73" s="27"/>
+      <c r="M73" s="27"/>
+      <c r="N73" s="27"/>
+      <c r="O73" s="27"/>
+    </row>
+    <row r="74" s="19" customFormat="1" ht="17.6" spans="6:15">
+      <c r="F74" s="27"/>
+      <c r="G74" s="28"/>
+      <c r="H74" s="27"/>
+      <c r="I74" s="27"/>
+      <c r="J74" s="27"/>
+      <c r="K74" s="27"/>
+      <c r="L74" s="27"/>
+      <c r="M74" s="27"/>
+      <c r="N74" s="27"/>
+      <c r="O74" s="27"/>
     </row>
     <row r="75" ht="17.6" spans="6:15">
-      <c r="F75" s="40"/>
-      <c r="G75" s="40"/>
-      <c r="H75" s="40"/>
-      <c r="I75" s="40"/>
-      <c r="J75" s="40"/>
-      <c r="K75" s="40"/>
-      <c r="L75" s="40"/>
-      <c r="M75" s="40"/>
-      <c r="N75" s="40"/>
-      <c r="O75" s="40"/>
+      <c r="F75" s="37"/>
+      <c r="G75" s="37"/>
+      <c r="H75" s="37"/>
+      <c r="I75" s="37"/>
+      <c r="J75" s="37"/>
+      <c r="K75" s="37"/>
+      <c r="L75" s="37"/>
+      <c r="M75" s="37"/>
+      <c r="N75" s="37"/>
+      <c r="O75" s="37"/>
     </row>
     <row r="76" ht="17.6" spans="6:15">
-      <c r="F76" s="40"/>
-      <c r="G76" s="40"/>
-      <c r="H76" s="40"/>
-      <c r="I76" s="40"/>
-      <c r="J76" s="40"/>
-      <c r="K76" s="40"/>
-      <c r="L76" s="40"/>
-      <c r="M76" s="40"/>
-      <c r="N76" s="40"/>
-      <c r="O76" s="40"/>
+      <c r="F76" s="37"/>
+      <c r="G76" s="37"/>
+      <c r="H76" s="37"/>
+      <c r="I76" s="37"/>
+      <c r="J76" s="37"/>
+      <c r="K76" s="37"/>
+      <c r="L76" s="37"/>
+      <c r="M76" s="37"/>
+      <c r="N76" s="37"/>
+      <c r="O76" s="37"/>
     </row>
     <row r="77" ht="17.6" spans="6:15">
-      <c r="F77" s="40"/>
-      <c r="G77" s="40"/>
-      <c r="H77" s="40"/>
-      <c r="I77" s="40"/>
-      <c r="J77" s="40"/>
-      <c r="K77" s="40"/>
-      <c r="L77" s="40"/>
-      <c r="M77" s="40"/>
-      <c r="N77" s="40"/>
-      <c r="O77" s="40"/>
+      <c r="F77" s="37"/>
+      <c r="G77" s="37"/>
+      <c r="H77" s="37"/>
+      <c r="I77" s="37"/>
+      <c r="J77" s="37"/>
+      <c r="K77" s="37"/>
+      <c r="L77" s="37"/>
+      <c r="M77" s="37"/>
+      <c r="N77" s="37"/>
+      <c r="O77" s="37"/>
     </row>
     <row r="78" ht="17.6" spans="6:15">
-      <c r="F78" s="40"/>
-      <c r="G78" s="40"/>
-      <c r="H78" s="40"/>
-      <c r="I78" s="40"/>
-      <c r="J78" s="40"/>
-      <c r="K78" s="40"/>
-      <c r="L78" s="40"/>
-      <c r="M78" s="40"/>
-      <c r="N78" s="40"/>
-      <c r="O78" s="40"/>
+      <c r="F78" s="37"/>
+      <c r="G78" s="37"/>
+      <c r="H78" s="37"/>
+      <c r="I78" s="37"/>
+      <c r="J78" s="37"/>
+      <c r="K78" s="37"/>
+      <c r="L78" s="37"/>
+      <c r="M78" s="37"/>
+      <c r="N78" s="37"/>
+      <c r="O78" s="37"/>
     </row>
     <row r="79" ht="17.6" spans="6:15">
-      <c r="F79" s="40"/>
-      <c r="G79" s="41"/>
-      <c r="H79" s="40"/>
-      <c r="I79" s="40"/>
-      <c r="J79" s="40"/>
-      <c r="K79" s="40"/>
-      <c r="L79" s="40"/>
-      <c r="M79" s="40"/>
-      <c r="N79" s="40"/>
-      <c r="O79" s="40"/>
+      <c r="F79" s="37"/>
+      <c r="G79" s="38"/>
+      <c r="H79" s="37"/>
+      <c r="I79" s="37"/>
+      <c r="J79" s="37"/>
+      <c r="K79" s="37"/>
+      <c r="L79" s="37"/>
+      <c r="M79" s="37"/>
+      <c r="N79" s="37"/>
+      <c r="O79" s="37"/>
     </row>
     <row r="80" ht="17.6" spans="6:15">
-      <c r="F80" s="40"/>
-      <c r="G80" s="40"/>
-      <c r="H80" s="40"/>
-      <c r="J80" s="40"/>
-      <c r="K80" s="40"/>
-      <c r="L80" s="40"/>
-      <c r="M80" s="40"/>
-      <c r="O80" s="40"/>
+      <c r="F80" s="37"/>
+      <c r="G80" s="37"/>
+      <c r="H80" s="37"/>
+      <c r="J80" s="37"/>
+      <c r="K80" s="37"/>
+      <c r="L80" s="37"/>
+      <c r="M80" s="37"/>
+      <c r="O80" s="37"/>
     </row>
     <row r="81" ht="17.6" spans="6:15">
-      <c r="F81" s="40"/>
-      <c r="G81" s="40"/>
-      <c r="H81" s="40"/>
-      <c r="I81" s="40"/>
-      <c r="J81" s="40"/>
-      <c r="K81" s="40"/>
-      <c r="L81" s="40"/>
-      <c r="M81" s="40"/>
-      <c r="N81" s="40"/>
-      <c r="O81" s="40"/>
+      <c r="F81" s="37"/>
+      <c r="G81" s="37"/>
+      <c r="H81" s="37"/>
+      <c r="I81" s="37"/>
+      <c r="J81" s="37"/>
+      <c r="K81" s="37"/>
+      <c r="L81" s="37"/>
+      <c r="M81" s="37"/>
+      <c r="N81" s="37"/>
+      <c r="O81" s="37"/>
     </row>
   </sheetData>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -4041,19 +4434,19 @@
   </cols>
   <sheetData>
     <row r="7" ht="12.85" customHeight="1" spans="4:9">
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="H7" s="14" t="s">
+      <c r="H7" s="11" t="s">
         <v>11</v>
       </c>
       <c r="I7" t="s">
@@ -4091,16 +4484,16 @@
   </cols>
   <sheetData>
     <row r="7" ht="15.2" spans="4:7">
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="11" t="s">
         <v>108</v>
       </c>
     </row>
@@ -4136,531 +4529,531 @@
   <sheetData>
     <row r="6" ht="14.75"/>
     <row r="7" ht="19" customHeight="1" spans="4:9">
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="H7" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="I7" s="14" t="s">
+      <c r="I7" s="11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" s="7" customFormat="1" spans="6:8">
-      <c r="F8" s="7" t="s">
+    <row r="8" s="3" customFormat="1" spans="6:8">
+      <c r="F8" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G8" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="H8" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="9" s="7" customFormat="1" spans="6:8">
-      <c r="F9" s="7" t="s">
+    <row r="9" s="3" customFormat="1" spans="6:8">
+      <c r="F9" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G9" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="H9" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" s="7" customFormat="1" spans="6:8">
-      <c r="F10" s="7" t="s">
+    <row r="10" s="3" customFormat="1" spans="6:8">
+      <c r="F10" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="G10" s="11" t="s">
+      <c r="G10" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="H10" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="11" s="7" customFormat="1" spans="6:8">
-      <c r="F11" s="7" t="s">
+    <row r="11" s="3" customFormat="1" spans="6:8">
+      <c r="F11" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="G11" s="11" t="s">
+      <c r="G11" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="H11" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="12" s="7" customFormat="1" spans="6:8">
-      <c r="F12" s="7" t="s">
+    <row r="12" s="3" customFormat="1" spans="6:8">
+      <c r="F12" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="G12" s="11" t="s">
+      <c r="G12" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="H12" s="7" t="s">
+      <c r="H12" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="13" s="7" customFormat="1" spans="6:8">
-      <c r="F13" s="7" t="s">
+    <row r="13" s="3" customFormat="1" spans="6:8">
+      <c r="F13" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="G13" s="11" t="s">
+      <c r="G13" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="H13" s="7" t="s">
+      <c r="H13" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" s="7" customFormat="1" spans="6:8">
-      <c r="F14" s="7" t="s">
+    <row r="14" s="3" customFormat="1" spans="6:8">
+      <c r="F14" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="G14" s="11" t="s">
+      <c r="G14" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="H14" s="7" t="s">
+      <c r="H14" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="15" s="7" customFormat="1" spans="6:8">
-      <c r="F15" s="7" t="s">
+    <row r="15" s="3" customFormat="1" spans="6:8">
+      <c r="F15" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="G15" s="11" t="s">
+      <c r="G15" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="H15" s="7" t="s">
+      <c r="H15" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="16" s="7" customFormat="1" spans="6:8">
-      <c r="F16" s="11" t="s">
+    <row r="16" s="3" customFormat="1" spans="6:8">
+      <c r="F16" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="G16" s="11" t="s">
+      <c r="G16" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="H16" s="11" t="s">
+      <c r="H16" s="7" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="17" s="7" customFormat="1" spans="6:8">
-      <c r="F17" s="11" t="s">
+    <row r="17" s="3" customFormat="1" spans="6:8">
+      <c r="F17" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="G17" s="11" t="s">
+      <c r="G17" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="H17" s="11" t="s">
+      <c r="H17" s="7" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="18" s="7" customFormat="1" spans="6:8">
-      <c r="F18" s="11" t="s">
+    <row r="18" s="3" customFormat="1" spans="6:8">
+      <c r="F18" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="G18" s="11" t="s">
+      <c r="G18" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="H18" s="11" t="s">
+      <c r="H18" s="7" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="19" s="7" customFormat="1" spans="6:8">
-      <c r="F19" s="11" t="s">
+    <row r="19" s="3" customFormat="1" spans="6:8">
+      <c r="F19" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="G19" s="11" t="s">
+      <c r="G19" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="H19" s="11" t="s">
+      <c r="H19" s="7" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="20" s="7" customFormat="1" spans="6:8">
-      <c r="F20" s="11" t="s">
+    <row r="20" s="3" customFormat="1" spans="6:8">
+      <c r="F20" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="G20" s="11" t="s">
+      <c r="G20" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="H20" s="11" t="s">
+      <c r="H20" s="7" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="21" s="7" customFormat="1" spans="6:8">
-      <c r="F21" s="11" t="s">
+    <row r="21" s="3" customFormat="1" spans="6:8">
+      <c r="F21" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="G21" s="11" t="s">
+      <c r="G21" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="H21" s="11" t="s">
+      <c r="H21" s="7" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="22" s="7" customFormat="1" spans="6:8">
-      <c r="F22" s="11" t="s">
+    <row r="22" s="3" customFormat="1" spans="6:8">
+      <c r="F22" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="G22" s="11" t="s">
+      <c r="G22" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="H22" s="11" t="s">
+      <c r="H22" s="7" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="23" s="7" customFormat="1" spans="6:8">
-      <c r="F23" s="11" t="s">
+    <row r="23" s="3" customFormat="1" spans="6:8">
+      <c r="F23" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="G23" s="11" t="s">
+      <c r="G23" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="H23" s="11" t="s">
+      <c r="H23" s="7" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="24" s="7" customFormat="1" spans="6:8">
-      <c r="F24" s="11" t="s">
+    <row r="24" s="3" customFormat="1" spans="6:8">
+      <c r="F24" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="G24" s="11" t="s">
+      <c r="G24" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="H24" s="11" t="s">
+      <c r="H24" s="7" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="25" s="7" customFormat="1" spans="6:8">
-      <c r="F25" s="11" t="s">
+    <row r="25" s="3" customFormat="1" spans="6:8">
+      <c r="F25" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="G25" s="11" t="s">
+      <c r="G25" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="H25" s="11" t="s">
+      <c r="H25" s="7" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="26" s="7" customFormat="1" spans="6:8">
-      <c r="F26" s="11" t="s">
+    <row r="26" s="3" customFormat="1" spans="6:8">
+      <c r="F26" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="G26" s="11" t="s">
+      <c r="G26" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="H26" s="11" t="s">
+      <c r="H26" s="7" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="27" s="7" customFormat="1" spans="6:8">
-      <c r="F27" s="11" t="s">
+    <row r="27" s="3" customFormat="1" spans="6:8">
+      <c r="F27" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="G27" s="11" t="s">
+      <c r="G27" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="H27" s="11" t="s">
+      <c r="H27" s="7" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="28" s="7" customFormat="1" spans="6:8">
-      <c r="F28" s="11" t="s">
+    <row r="28" s="3" customFormat="1" spans="6:8">
+      <c r="F28" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="G28" s="11" t="s">
+      <c r="G28" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="H28" s="11" t="s">
+      <c r="H28" s="7" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="29" s="7" customFormat="1" spans="6:8">
-      <c r="F29" s="11" t="s">
+    <row r="29" s="3" customFormat="1" spans="6:8">
+      <c r="F29" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="G29" s="11" t="s">
+      <c r="G29" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="H29" s="11" t="s">
+      <c r="H29" s="7" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="30" s="7" customFormat="1" spans="6:8">
-      <c r="F30" s="11" t="s">
+    <row r="30" s="3" customFormat="1" spans="6:8">
+      <c r="F30" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="G30" s="11" t="s">
+      <c r="G30" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="H30" s="11" t="s">
+      <c r="H30" s="7" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="31" s="7" customFormat="1" spans="6:8">
-      <c r="F31" s="11" t="s">
+    <row r="31" s="3" customFormat="1" spans="6:8">
+      <c r="F31" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="G31" s="11" t="s">
+      <c r="G31" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="H31" s="11" t="s">
+      <c r="H31" s="7" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="32" s="7" customFormat="1" ht="12.85" customHeight="1" spans="4:9">
-      <c r="D32" s="9"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="9" t="s">
+    <row r="32" s="3" customFormat="1" ht="12.85" customHeight="1" spans="4:9">
+      <c r="D32" s="5"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="G32" s="13" t="s">
+      <c r="G32" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="H32" s="11" t="s">
+      <c r="H32" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="I32" s="12"/>
-    </row>
-    <row r="33" s="7" customFormat="1" ht="12.85" customHeight="1" spans="4:9">
-      <c r="D33" s="9"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="9" t="s">
+      <c r="I32" s="8"/>
+    </row>
+    <row r="33" s="3" customFormat="1" ht="12.85" customHeight="1" spans="4:9">
+      <c r="D33" s="5"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="G33" s="13" t="s">
+      <c r="G33" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="H33" s="11" t="s">
+      <c r="H33" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="I33" s="12"/>
-    </row>
-    <row r="34" s="7" customFormat="1" ht="12.85" customHeight="1" spans="4:9">
-      <c r="D34" s="9"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="9" t="s">
+      <c r="I33" s="8"/>
+    </row>
+    <row r="34" s="3" customFormat="1" ht="12.85" customHeight="1" spans="4:9">
+      <c r="D34" s="5"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="G34" s="13" t="s">
+      <c r="G34" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="H34" s="11" t="s">
+      <c r="H34" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="I34" s="12"/>
-    </row>
-    <row r="35" s="7" customFormat="1" ht="12.85" customHeight="1" spans="4:9">
-      <c r="D35" s="9"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="9" t="s">
+      <c r="I34" s="8"/>
+    </row>
+    <row r="35" s="3" customFormat="1" ht="12.85" customHeight="1" spans="4:9">
+      <c r="D35" s="5"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="G35" s="13" t="s">
+      <c r="G35" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="H35" s="11" t="s">
+      <c r="H35" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="I35" s="12"/>
-    </row>
-    <row r="36" s="7" customFormat="1" spans="6:8">
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="11"/>
+      <c r="I35" s="8"/>
+    </row>
+    <row r="36" s="3" customFormat="1" spans="6:8">
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
     </row>
     <row r="37" spans="6:8">
-      <c r="F37" s="10"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="10"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
     </row>
     <row r="38" spans="6:8">
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="10"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
     </row>
     <row r="39" spans="6:8">
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="10"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
     </row>
     <row r="40" spans="6:8">
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="10"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
     </row>
     <row r="41" spans="6:8">
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="10"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
     </row>
     <row r="42" spans="6:8">
-      <c r="F42" s="10"/>
-      <c r="G42" s="10"/>
-      <c r="H42" s="10"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
     </row>
     <row r="43" spans="6:8">
-      <c r="F43" s="10"/>
-      <c r="G43" s="10"/>
-      <c r="H43" s="10"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
     </row>
     <row r="44" spans="6:8">
-      <c r="F44" s="10"/>
-      <c r="G44" s="10"/>
-      <c r="H44" s="10"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
     </row>
     <row r="45" spans="6:8">
-      <c r="F45" s="10"/>
-      <c r="G45" s="10"/>
-      <c r="H45" s="10"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
     </row>
     <row r="46" spans="6:8">
-      <c r="F46" s="10"/>
-      <c r="G46" s="10"/>
-      <c r="H46" s="10"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6"/>
     </row>
     <row r="47" spans="6:8">
-      <c r="F47" s="10"/>
-      <c r="G47" s="10"/>
-      <c r="H47" s="10"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
     </row>
     <row r="48" spans="7:8">
-      <c r="G48" s="10"/>
-      <c r="H48" s="10"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
     </row>
     <row r="49" spans="6:8">
-      <c r="F49" s="3"/>
-      <c r="G49" s="10"/>
-      <c r="H49" s="10"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="6"/>
     </row>
     <row r="50" spans="7:8">
-      <c r="G50" s="10"/>
-      <c r="H50" s="10"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="6"/>
     </row>
     <row r="51" spans="7:8">
-      <c r="G51" s="10"/>
-      <c r="H51" s="10"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="6"/>
     </row>
     <row r="52" spans="4:8">
-      <c r="D52" s="10"/>
-      <c r="F52" s="10"/>
-      <c r="G52" s="10"/>
-      <c r="H52" s="10"/>
+      <c r="D52" s="6"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6"/>
+      <c r="H52" s="6"/>
     </row>
     <row r="53" spans="6:8">
-      <c r="F53" s="10"/>
-      <c r="G53" s="10"/>
-      <c r="H53" s="10"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="6"/>
     </row>
     <row r="54" spans="6:8">
-      <c r="F54" s="10"/>
-      <c r="G54" s="10"/>
-      <c r="H54" s="10"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="6"/>
+      <c r="H54" s="6"/>
     </row>
     <row r="55" spans="6:8">
-      <c r="F55" s="10"/>
-      <c r="G55" s="10"/>
-      <c r="H55" s="10"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6"/>
+      <c r="H55" s="6"/>
     </row>
     <row r="56" spans="6:8">
-      <c r="F56" s="10"/>
-      <c r="G56" s="10"/>
-      <c r="H56" s="10"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="6"/>
+      <c r="H56" s="6"/>
     </row>
     <row r="57" spans="6:8">
-      <c r="F57" s="10"/>
-      <c r="G57" s="10"/>
-      <c r="H57" s="10"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="6"/>
+      <c r="H57" s="6"/>
     </row>
     <row r="58" spans="6:8">
-      <c r="F58" s="10"/>
-      <c r="G58" s="10"/>
-      <c r="H58" s="10"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="6"/>
+      <c r="H58" s="6"/>
     </row>
     <row r="59" spans="6:8">
-      <c r="F59" s="10"/>
-      <c r="G59" s="10"/>
-      <c r="H59" s="10"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="6"/>
+      <c r="H59" s="6"/>
     </row>
     <row r="60" spans="6:8">
-      <c r="F60" s="10"/>
-      <c r="G60" s="10"/>
-      <c r="H60" s="10"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="6"/>
+      <c r="H60" s="6"/>
     </row>
     <row r="61" spans="6:8">
-      <c r="F61" s="10"/>
-      <c r="G61" s="10"/>
-      <c r="H61" s="10"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="6"/>
+      <c r="H61" s="6"/>
     </row>
     <row r="62" spans="6:8">
-      <c r="F62" s="10"/>
-      <c r="G62" s="10"/>
-      <c r="H62" s="10"/>
+      <c r="F62" s="6"/>
+      <c r="G62" s="6"/>
+      <c r="H62" s="6"/>
     </row>
     <row r="63" spans="6:8">
-      <c r="F63" s="10"/>
-      <c r="G63" s="10"/>
-      <c r="H63" s="10"/>
+      <c r="F63" s="6"/>
+      <c r="G63" s="6"/>
+      <c r="H63" s="6"/>
     </row>
     <row r="64" spans="6:8">
-      <c r="F64" s="3"/>
-      <c r="G64" s="10"/>
-      <c r="H64" s="10"/>
+      <c r="F64" s="10"/>
+      <c r="G64" s="6"/>
+      <c r="H64" s="6"/>
     </row>
     <row r="65" spans="7:8">
-      <c r="G65" s="10"/>
-      <c r="H65" s="10"/>
+      <c r="G65" s="6"/>
+      <c r="H65" s="6"/>
     </row>
     <row r="66" spans="7:8">
-      <c r="G66" s="10"/>
-      <c r="H66" s="10"/>
+      <c r="G66" s="6"/>
+      <c r="H66" s="6"/>
     </row>
     <row r="67" spans="7:8">
-      <c r="G67" s="10"/>
-      <c r="H67" s="10"/>
+      <c r="G67" s="6"/>
+      <c r="H67" s="6"/>
     </row>
     <row r="68" spans="7:8">
-      <c r="G68" s="10"/>
-      <c r="H68" s="10"/>
+      <c r="G68" s="6"/>
+      <c r="H68" s="6"/>
     </row>
     <row r="69" spans="7:8">
-      <c r="G69" s="10"/>
-      <c r="H69" s="10"/>
+      <c r="G69" s="6"/>
+      <c r="H69" s="6"/>
     </row>
     <row r="70" spans="7:8">
-      <c r="G70" s="10"/>
-      <c r="H70" s="10"/>
+      <c r="G70" s="6"/>
+      <c r="H70" s="6"/>
     </row>
     <row r="71" spans="7:8">
-      <c r="G71" s="10"/>
-      <c r="H71" s="10"/>
+      <c r="G71" s="6"/>
+      <c r="H71" s="6"/>
     </row>
     <row r="72" spans="7:8">
-      <c r="G72" s="10"/>
-      <c r="H72" s="10"/>
+      <c r="G72" s="6"/>
+      <c r="H72" s="6"/>
     </row>
     <row r="73" spans="7:8">
-      <c r="G73" s="10"/>
-      <c r="H73" s="10"/>
+      <c r="G73" s="6"/>
+      <c r="H73" s="6"/>
     </row>
     <row r="74" spans="7:8">
-      <c r="G74" s="10"/>
-      <c r="H74" s="10"/>
+      <c r="G74" s="6"/>
+      <c r="H74" s="6"/>
     </row>
     <row r="75" spans="7:8">
-      <c r="G75" s="10"/>
-      <c r="H75" s="10"/>
+      <c r="G75" s="6"/>
+      <c r="H75" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.510416666666667" footer="0.510416666666667"/>
@@ -4867,13 +5260,13 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="D7:I8"/>
+  <dimension ref="D7:I13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.11029411764706" defaultRowHeight="14" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9.11029411764706" defaultRowHeight="14"/>
   <cols>
     <col min="4" max="4" width="21.4411764705882" customWidth="1"/>
     <col min="5" max="5" width="18.3308823529412" customWidth="1"/>
@@ -4883,7 +5276,7 @@
   </cols>
   <sheetData>
     <row r="7" spans="4:9">
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="2" t="s">
         <v>144</v>
       </c>
       <c r="E7" s="1" t="s">
@@ -4902,7 +5295,8 @@
         <v>146</v>
       </c>
     </row>
-    <row r="8" spans="5:9">
+    <row r="8" spans="4:9">
+      <c r="D8" s="2"/>
       <c r="E8" s="1" t="s">
         <v>147</v>
       </c>
@@ -4912,11 +5306,96 @@
       <c r="G8" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="1" t="s">
         <v>148</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>148</v>
+      </c>
+    </row>
+    <row r="9" spans="5:9">
+      <c r="E9" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="10" spans="5:9">
+      <c r="E10" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="11" spans="5:9">
+      <c r="E11" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="12" spans="5:9">
+      <c r="E12" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="13" spans="5:9">
+      <c r="E13" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>158</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/meta/micro-service-init-data.xlsx
+++ b/src/main/resources/script/meta/micro-service-init-data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12600" tabRatio="845" firstSheet="4" activeTab="9"/>
+    <workbookView windowWidth="28800" windowHeight="12600" tabRatio="845" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244">
   <si>
     <t>IAM_PERMISSION</t>
   </si>
@@ -148,7 +148,7 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color theme="5" tint="0.399975585192419"/>
+        <color theme="2" tint="-0.249977111117893"/>
         <rFont val="Times New Roman"/>
         <charset val="134"/>
       </rPr>
@@ -157,7 +157,7 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color theme="5" tint="0.399975585192419"/>
+        <color theme="2" tint="-0.249977111117893"/>
         <rFont val="Arial"/>
         <charset val="134"/>
       </rPr>
@@ -174,7 +174,7 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color theme="5" tint="0.399975585192419"/>
+        <color theme="2" tint="-0.249977111117893"/>
         <rFont val="Times New Roman"/>
         <charset val="134"/>
       </rPr>
@@ -183,7 +183,7 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color theme="5" tint="0.399975585192419"/>
+        <color theme="2" tint="-0.249977111117893"/>
         <rFont val="Arial"/>
         <charset val="134"/>
       </rPr>
@@ -194,6 +194,75 @@
     <t>/infra/doc-lib/operation-logs-org</t>
   </si>
   <si>
+    <t>choerodon.route.site.personal-setting</t>
+  </si>
+  <si>
+    <t>choerodon.route.site.personal-setting-gitlab</t>
+  </si>
+  <si>
+    <t>代码库设置Tab路由</t>
+  </si>
+  <si>
+    <t>choerodon.route.site.personal-setting-svn</t>
+  </si>
+  <si>
+    <t>SVN设置Tab路由</t>
+  </si>
+  <si>
+    <t>choerodon.route.project.doc-lib-management</t>
+  </si>
+  <si>
+    <t>/infra/doc-lib-management</t>
+  </si>
+  <si>
+    <t>文档库管理路由</t>
+  </si>
+  <si>
+    <t>choerodon.route.project.doc.ps-assign</t>
+  </si>
+  <si>
+    <t>/infra/doc-lib-management/ps-assign</t>
+  </si>
+  <si>
+    <t>权限分配路由</t>
+  </si>
+  <si>
+    <t>choerodon.route.project.doc.operation-log</t>
+  </si>
+  <si>
+    <t>/infra/doc-lib-management/operation-log</t>
+  </si>
+  <si>
+    <t>操作日志路由</t>
+  </si>
+  <si>
+    <t>choerodon.route.project.code-lib-management</t>
+  </si>
+  <si>
+    <t>/infra/code-lib-management</t>
+  </si>
+  <si>
+    <t>代码库管理路由</t>
+  </si>
+  <si>
+    <t>choerodon.route.organization.doc-lib-audit</t>
+  </si>
+  <si>
+    <t>/infra/doc-lib-audit</t>
+  </si>
+  <si>
+    <t>文档库审计路由</t>
+  </si>
+  <si>
+    <t>choerodon.route.organization.code-lib-audit</t>
+  </si>
+  <si>
+    <t>/infra/code-lib-audit</t>
+  </si>
+  <si>
+    <t>代码库审计路由</t>
+  </si>
+  <si>
     <t>IAM_MENU_B</t>
   </si>
   <si>
@@ -236,24 +305,6 @@
     <t>choerodon.code.person.setting</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Droid Sans Fallback"/>
-        <charset val="134"/>
-      </rPr>
-      <t>sit</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Droid Sans Fallback"/>
-        <charset val="134"/>
-      </rPr>
-      <t>e</t>
-    </r>
-  </si>
-  <si>
     <t>menu_item</t>
   </si>
   <si>
@@ -275,45 +326,54 @@
     <t>choerodon.code.infra.personal-setting-svn</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Droid Sans Fallback"/>
-        <charset val="134"/>
-      </rPr>
-      <t>S</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Droid Sans Fallback"/>
-        <charset val="134"/>
-      </rPr>
-      <t>VN设置</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Droid Sans Fallback"/>
-        <charset val="134"/>
-      </rPr>
-      <t>SVN</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Droid Sans Fallback"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> Setting</t>
-    </r>
+    <t>SVN设置</t>
+  </si>
+  <si>
+    <t>SVN Setting</t>
   </si>
   <si>
     <t>widgets</t>
   </si>
   <si>
+    <t>choerodon.code.infra.doc-lib.ps-management</t>
+  </si>
+  <si>
+    <t>SVN权限分配</t>
+  </si>
+  <si>
+    <t>SVN Rights Assign</t>
+  </si>
+  <si>
+    <t>choerodon.code.project.cooperation</t>
+  </si>
+  <si>
+    <t>classname</t>
+  </si>
+  <si>
+    <t>choerodon.code.infra.doc-lib.ps-view</t>
+  </si>
+  <si>
+    <t>SVN权限查看</t>
+  </si>
+  <si>
+    <t>SVN Rights View</t>
+  </si>
+  <si>
+    <t>choerodon.code.infra.code-lib.code-management</t>
+  </si>
+  <si>
+    <t>统一代码库管理</t>
+  </si>
+  <si>
+    <t>Code Base Management</t>
+  </si>
+  <si>
+    <t>choerodon.code.develop</t>
+  </si>
+  <si>
+    <t>cloud_circle</t>
+  </si>
+  <si>
     <t>choerodon.code.project.doc-management</t>
   </si>
   <si>
@@ -323,36 +383,12 @@
     <t>Doc Base Management</t>
   </si>
   <si>
-    <t>choerodon.code.project.cooperation</t>
-  </si>
-  <si>
     <t>menu</t>
   </si>
   <si>
     <t>agile</t>
   </si>
   <si>
-    <t>choerodon.code.infra.doc-lib.ps-management</t>
-  </si>
-  <si>
-    <t>SVN权限分配</t>
-  </si>
-  <si>
-    <t>SVN Rights Assign</t>
-  </si>
-  <si>
-    <t>classname</t>
-  </si>
-  <si>
-    <t>choerodon.code.infra.doc-lib.ps-view</t>
-  </si>
-  <si>
-    <t>SVN权限查看</t>
-  </si>
-  <si>
-    <t>SVN Rights View</t>
-  </si>
-  <si>
     <t>choerodon.code.project.operation-logs</t>
   </si>
   <si>
@@ -371,94 +407,6 @@
     <t>SVN Authority Security Audit</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Droid Sans Fallback"/>
-        <charset val="134"/>
-      </rPr>
-      <t>choerodon.code.infra.code</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Droid Sans Fallback"/>
-        <charset val="134"/>
-      </rPr>
-      <t>-lib.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Droid Sans Fallback"/>
-        <charset val="134"/>
-      </rPr>
-      <t>code</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Droid Sans Fallback"/>
-        <charset val="134"/>
-      </rPr>
-      <t>-management</t>
-    </r>
-  </si>
-  <si>
-    <t>统一代码库管理</t>
-  </si>
-  <si>
-    <t>Code Base Management</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Droid Sans Fallback"/>
-        <charset val="134"/>
-      </rPr>
-      <t>choerodon.route.infra.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Droid Sans Fallback"/>
-        <charset val="134"/>
-      </rPr>
-      <t>code</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Droid Sans Fallback"/>
-        <charset val="134"/>
-      </rPr>
-      <t>-lib.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Droid Sans Fallback"/>
-        <charset val="134"/>
-      </rPr>
-      <t>code</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Droid Sans Fallback"/>
-        <charset val="134"/>
-      </rPr>
-      <t>-management</t>
-    </r>
-  </si>
-  <si>
-    <t>choerodon.code.develop</t>
-  </si>
-  <si>
-    <t>cloud_circle</t>
-  </si>
-  <si>
     <t>choerodon.code.organization.doc-management</t>
   </si>
   <si>
@@ -490,6 +438,96 @@
   </si>
   <si>
     <t>choerodon.route.organization.operation-logs</t>
+  </si>
+  <si>
+    <t>choerodon.code.site.personal-setting</t>
+  </si>
+  <si>
+    <t>account_box</t>
+  </si>
+  <si>
+    <t>choerodon.code.site.personal-setting-gitlab</t>
+  </si>
+  <si>
+    <t>choerodon.code.site.personal-setting-svn</t>
+  </si>
+  <si>
+    <t>choerodon.code.project.infra</t>
+  </si>
+  <si>
+    <t>基础</t>
+  </si>
+  <si>
+    <t>Basis</t>
+  </si>
+  <si>
+    <t>choerodon.code.top.project</t>
+  </si>
+  <si>
+    <t>choerodon.code.project.doc-lib-management</t>
+  </si>
+  <si>
+    <t>文档库管理</t>
+  </si>
+  <si>
+    <t>Document Library Management</t>
+  </si>
+  <si>
+    <t>folder_open2</t>
+  </si>
+  <si>
+    <t>choerodon.code.project.doc.ps-assign</t>
+  </si>
+  <si>
+    <t>权限分配</t>
+  </si>
+  <si>
+    <t>Permission Assignment</t>
+  </si>
+  <si>
+    <t>choerodon.code.project.doc.operation-log</t>
+  </si>
+  <si>
+    <t>操作日志</t>
+  </si>
+  <si>
+    <t>Operation log</t>
+  </si>
+  <si>
+    <t>choerodon.code.project.code-lib-management</t>
+  </si>
+  <si>
+    <t>代码库管理</t>
+  </si>
+  <si>
+    <t>account_balance</t>
+  </si>
+  <si>
+    <t>choerodon.code.organization.infra</t>
+  </si>
+  <si>
+    <t>choerodon.code.top.organization</t>
+  </si>
+  <si>
+    <t>choerodon.code.organization.doc-lib-audit</t>
+  </si>
+  <si>
+    <t>文档库审计</t>
+  </si>
+  <si>
+    <t>Document Library Audit</t>
+  </si>
+  <si>
+    <t>work_log</t>
+  </si>
+  <si>
+    <t>choerodon.code.organization.code-lib-audit</t>
+  </si>
+  <si>
+    <t>代码库审计</t>
+  </si>
+  <si>
+    <t>Code Base Audit</t>
   </si>
   <si>
     <t>IAM_MENU_PERMISSION</t>
@@ -758,12 +796,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="58">
+  <fonts count="68">
     <font>
       <sz val="10"/>
       <name val="Droid Sans Fallback"/>
@@ -794,6 +832,7 @@
     </font>
     <font>
       <sz val="10"/>
+      <color theme="2" tint="-0.249977111117893"/>
       <name val="Droid Sans Fallback"/>
       <charset val="134"/>
     </font>
@@ -803,8 +842,31 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color theme="2" tint="-0.249977111117893"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="10"/>
-      <color theme="8"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="Droid Sans Fallback"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Droid Sans Fallback"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Droid Sans Fallback"/>
       <charset val="134"/>
     </font>
@@ -812,6 +874,12 @@
       <sz val="10"/>
       <name val="DejaVu Sans"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="DejaVu Sans"/>
+      <charset val="1"/>
     </font>
     <font>
       <b/>
@@ -860,11 +928,144 @@
     </font>
     <font>
       <sz val="10"/>
+      <color theme="2" tint="-0.249977111117893"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
+      <color theme="2" tint="-0.249977111117893"/>
+      <name val="Droid Sans Fallback"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="2" tint="-0.249977111117893"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="2" tint="-0.249977111117893"/>
+      <name val="DejaVu Sans"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Droid Sans Fallback"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Droid Sans Fallback"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Droid Sans Fallback"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="PingFang SC"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF5B9BD5"/>
+      <name val="PingFang SC"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF5B9BD5"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFFC000"/>
+      <name val="PingFang SC"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="2" tint="-0.249977111117893"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <name val="PingFang SC"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF8F187C"/>
+      <name val="PingFang SC"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF8F187C"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="2" tint="-0.249977111117893"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color rgb="FF00B0F0"/>
       <name val="宋体"/>
@@ -872,114 +1073,12 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF00B0F0"/>
-      <name val="DejaVu Sans"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF00B0F0"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="10"/>
-      <color theme="5" tint="0.399975585192419"/>
       <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="5" tint="0.399975585192419"/>
-      <name val="DejaVu Sans"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="5" tint="0.399975585192419"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="PingFang SC"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF5B9BD5"/>
-      <name val="PingFang SC"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF5B9BD5"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFFC000"/>
-      <name val="PingFang SC"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF00B0F0"/>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="5" tint="0.399975585192419"/>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="13"/>
-      <name val="PingFang SC"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF8F187C"/>
-      <name val="PingFang SC"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF8F187C"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="13"/>
-      <name val="Helvetica"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="5" tint="0.399975585192419"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
@@ -987,6 +1086,13 @@
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1004,39 +1110,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1057,7 +1134,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1071,6 +1156,73 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -1080,63 +1232,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1149,7 +1248,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1161,19 +1332,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1185,19 +1380,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1209,49 +1410,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1263,73 +1428,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1367,15 +1466,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1394,8 +1484,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1415,6 +1520,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1429,181 +1554,155 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="49" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="49" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="64" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="51" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="49" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="51" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="49" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="49" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="49" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="49" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="49" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="61" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="49" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="54" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="58" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="57" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="66" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="60" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="51" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="51" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="55" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="49" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="51" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="49" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="51" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="49" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1618,42 +1717,54 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1973,10 +2084,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="D7:O57"/>
+  <dimension ref="D7:Q57"/>
   <sheetViews>
-    <sheetView zoomScale="95" zoomScaleNormal="95" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView zoomScale="95" zoomScaleNormal="95" topLeftCell="H3" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8:O26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2000,530 +2111,827 @@
   </cols>
   <sheetData>
     <row r="7" ht="12.85" customHeight="1" spans="4:15">
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="E7" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="F7" s="11" t="s">
+      <c r="E7" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="G7" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="H7" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="I7" s="11" t="s">
+      <c r="I7" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="J7" s="11" t="s">
+      <c r="J7" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="K7" s="11" t="s">
+      <c r="K7" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="L7" s="11" t="s">
+      <c r="L7" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="M7" s="11" t="s">
+      <c r="M7" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="N7" s="11" t="s">
+      <c r="N7" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="O7" s="11" t="s">
+      <c r="O7" s="16" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" s="33" customFormat="1" ht="14.4" spans="6:14">
-      <c r="F8" s="33" t="s">
+    <row r="8" s="30" customFormat="1" ht="14.4" spans="6:17">
+      <c r="F8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="33" t="s">
+      <c r="G8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="33" t="s">
+      <c r="H8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="33" t="s">
+      <c r="I8" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="J8" s="23" t="s">
+      <c r="J8" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="K8" s="33" t="s">
+      <c r="K8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="L8" s="33">
+      <c r="L8" s="7">
         <v>0</v>
       </c>
-      <c r="M8" s="33">
+      <c r="M8" s="7">
         <v>0</v>
       </c>
-      <c r="N8" s="33">
+      <c r="N8" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" s="33" customFormat="1" ht="14.4" spans="6:14">
-      <c r="F9" s="33" t="s">
+      <c r="O8" s="7">
+        <v>1</v>
+      </c>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+    </row>
+    <row r="9" s="30" customFormat="1" ht="14.4" spans="6:17">
+      <c r="F9" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="33" t="s">
+      <c r="G9" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="33" t="s">
+      <c r="H9" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="33" t="s">
+      <c r="I9" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="J9" s="23" t="s">
+      <c r="J9" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="K9" s="33" t="s">
+      <c r="K9" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="L9" s="33">
+      <c r="L9" s="7">
         <v>0</v>
       </c>
-      <c r="M9" s="33">
+      <c r="M9" s="7">
         <v>0</v>
       </c>
-      <c r="N9" s="33">
+      <c r="N9" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" s="33" customFormat="1" ht="14.4" spans="6:14">
-      <c r="F10" s="33" t="s">
+      <c r="O9" s="7">
+        <v>1</v>
+      </c>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+    </row>
+    <row r="10" s="30" customFormat="1" ht="14.4" spans="6:17">
+      <c r="F10" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G10" s="33" t="s">
+      <c r="G10" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H10" s="33" t="s">
+      <c r="H10" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I10" s="33" t="s">
+      <c r="I10" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="J10" s="23" t="s">
+      <c r="J10" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="K10" s="33" t="s">
+      <c r="K10" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="L10" s="33">
+      <c r="L10" s="7">
         <v>0</v>
       </c>
-      <c r="M10" s="33">
+      <c r="M10" s="7">
         <v>0</v>
       </c>
-      <c r="N10" s="33">
+      <c r="N10" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" s="33" customFormat="1" ht="14.4" spans="6:14">
-      <c r="F11" s="33" t="s">
+      <c r="O10" s="7">
+        <v>1</v>
+      </c>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+    </row>
+    <row r="11" s="30" customFormat="1" ht="14.4" spans="6:17">
+      <c r="F11" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="33" t="s">
+      <c r="G11" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="H11" s="33" t="s">
+      <c r="H11" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I11" s="33" t="s">
+      <c r="I11" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="J11" s="23" t="s">
+      <c r="J11" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="K11" s="33" t="s">
+      <c r="K11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="L11" s="33">
+      <c r="L11" s="7">
         <v>0</v>
       </c>
-      <c r="M11" s="33">
+      <c r="M11" s="7">
         <v>0</v>
       </c>
-      <c r="N11" s="33">
+      <c r="N11" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" s="33" customFormat="1" ht="14.4" spans="6:14">
-      <c r="F12" s="33" t="s">
+      <c r="O11" s="7">
+        <v>1</v>
+      </c>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+    </row>
+    <row r="12" s="30" customFormat="1" ht="14.4" spans="6:17">
+      <c r="F12" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="G12" s="33" t="s">
+      <c r="G12" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H12" s="33" t="s">
+      <c r="H12" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I12" s="33" t="s">
+      <c r="I12" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="J12" s="23" t="s">
+      <c r="J12" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="K12" s="33" t="s">
+      <c r="K12" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="L12" s="33">
+      <c r="L12" s="7">
         <v>0</v>
       </c>
-      <c r="M12" s="33">
+      <c r="M12" s="7">
         <v>0</v>
       </c>
-      <c r="N12" s="33">
+      <c r="N12" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" s="33" customFormat="1" spans="6:14">
-      <c r="F13" s="33" t="s">
+      <c r="O12" s="7">
+        <v>1</v>
+      </c>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+    </row>
+    <row r="13" s="30" customFormat="1" spans="6:17">
+      <c r="F13" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="G13" s="33" t="s">
+      <c r="G13" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H13" s="33" t="s">
+      <c r="H13" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="33" t="s">
+      <c r="I13" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="J13" s="33" t="s">
+      <c r="J13" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="K13" s="33" t="s">
+      <c r="K13" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="L13" s="33">
+      <c r="L13" s="7">
         <v>0</v>
       </c>
-      <c r="M13" s="33">
+      <c r="M13" s="7">
         <v>0</v>
       </c>
-      <c r="N13" s="33">
+      <c r="N13" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" s="33" customFormat="1" ht="14.4" spans="6:14">
-      <c r="F14" s="33" t="s">
+      <c r="O13" s="7">
+        <v>1</v>
+      </c>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
+    </row>
+    <row r="14" s="30" customFormat="1" ht="14.4" spans="6:17">
+      <c r="F14" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="G14" s="33" t="s">
+      <c r="G14" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="H14" s="33" t="s">
+      <c r="H14" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I14" s="33" t="s">
+      <c r="I14" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="J14" s="23" t="s">
+      <c r="J14" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="K14" s="33" t="s">
+      <c r="K14" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="L14" s="33">
+      <c r="L14" s="7">
         <v>0</v>
       </c>
-      <c r="M14" s="33">
+      <c r="M14" s="7">
         <v>0</v>
       </c>
-      <c r="N14" s="33">
+      <c r="N14" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" s="33" customFormat="1" ht="14.4" spans="6:14">
-      <c r="F15" s="33" t="s">
+      <c r="O14" s="7">
+        <v>1</v>
+      </c>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+    </row>
+    <row r="15" s="30" customFormat="1" ht="14.4" spans="6:17">
+      <c r="F15" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="G15" s="33" t="s">
+      <c r="G15" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="H15" s="33" t="s">
+      <c r="H15" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I15" s="33" t="s">
+      <c r="I15" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="J15" s="23" t="s">
+      <c r="J15" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="K15" s="33" t="s">
+      <c r="K15" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="L15" s="33">
+      <c r="L15" s="7">
         <v>0</v>
       </c>
-      <c r="M15" s="33">
+      <c r="M15" s="7">
         <v>0</v>
       </c>
-      <c r="N15" s="33">
+      <c r="N15" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" s="17" customFormat="1" spans="6:14">
-      <c r="F16" s="40" t="s">
+      <c r="O15" s="7">
+        <v>1</v>
+      </c>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+    </row>
+    <row r="16" s="23" customFormat="1" spans="6:17">
+      <c r="F16" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="G16" s="41" t="s">
+      <c r="G16" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="H16" s="41" t="s">
+      <c r="H16" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="I16" s="41" t="s">
+      <c r="I16" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="J16" s="17" t="s">
+      <c r="J16" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="K16" s="41" t="s">
+      <c r="K16" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="L16" s="40">
+      <c r="L16" s="48">
         <v>0</v>
       </c>
-      <c r="M16" s="40">
+      <c r="M16" s="48">
         <v>0</v>
       </c>
-      <c r="N16" s="40">
+      <c r="N16" s="48">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" s="17" customFormat="1" spans="6:14">
-      <c r="F17" s="40" t="s">
+      <c r="O16" s="7">
+        <v>1</v>
+      </c>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
+    </row>
+    <row r="17" s="23" customFormat="1" spans="6:17">
+      <c r="F17" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="G17" s="41" t="s">
+      <c r="G17" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="H17" s="41" t="s">
+      <c r="H17" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="I17" s="41" t="s">
+      <c r="I17" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="J17" s="17" t="s">
+      <c r="J17" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="K17" s="41" t="s">
+      <c r="K17" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="L17" s="40">
+      <c r="L17" s="48">
         <v>0</v>
       </c>
-      <c r="M17" s="40">
+      <c r="M17" s="48">
         <v>0</v>
       </c>
-      <c r="N17" s="40">
+      <c r="N17" s="48">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="4:14">
-      <c r="D18" s="10"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="42"/>
-      <c r="M18" s="42"/>
-      <c r="N18" s="42"/>
-    </row>
-    <row r="19" spans="4:14">
-      <c r="D19" s="10"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="42"/>
-      <c r="M19" s="42"/>
-      <c r="N19" s="42"/>
-    </row>
-    <row r="20" spans="6:14">
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="6"/>
-    </row>
-    <row r="21" s="3" customFormat="1" spans="6:10">
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="J21" s="7"/>
-    </row>
-    <row r="22" s="3" customFormat="1" spans="6:10">
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="J22" s="7"/>
-    </row>
-    <row r="23" s="3" customFormat="1" spans="6:10">
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="J23" s="7"/>
-    </row>
-    <row r="24" s="3" customFormat="1" spans="6:10">
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="J24" s="7"/>
-    </row>
-    <row r="25" s="3" customFormat="1" spans="6:10">
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="J25" s="7"/>
-    </row>
-    <row r="26" spans="4:14">
-      <c r="D26" s="10"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="6"/>
-      <c r="M26" s="6"/>
-      <c r="N26" s="6"/>
-    </row>
-    <row r="27" spans="6:14">
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
-      <c r="L27" s="6"/>
-      <c r="M27" s="6"/>
-      <c r="N27" s="6"/>
-    </row>
-    <row r="28" spans="6:14">
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="6"/>
-      <c r="L28" s="6"/>
-      <c r="M28" s="6"/>
-      <c r="N28" s="6"/>
-    </row>
-    <row r="29" spans="6:14">
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="6"/>
-      <c r="L29" s="6"/>
-      <c r="M29" s="6"/>
-      <c r="N29" s="6"/>
-    </row>
-    <row r="30" spans="6:14">
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
-      <c r="K30" s="6"/>
-      <c r="L30" s="6"/>
-      <c r="M30" s="6"/>
-      <c r="N30" s="6"/>
-    </row>
-    <row r="31" spans="6:14">
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="6"/>
-      <c r="L31" s="6"/>
-      <c r="M31" s="6"/>
-      <c r="N31" s="6"/>
-    </row>
-    <row r="32" spans="6:14">
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="6"/>
-      <c r="K32" s="6"/>
-      <c r="L32" s="6"/>
-      <c r="M32" s="6"/>
-      <c r="N32" s="6"/>
-    </row>
-    <row r="33" spans="6:14">
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
-      <c r="J33" s="6"/>
-      <c r="K33" s="6"/>
-      <c r="L33" s="6"/>
-      <c r="M33" s="6"/>
-      <c r="N33" s="6"/>
-    </row>
-    <row r="34" spans="6:14">
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
-      <c r="J34" s="6"/>
-      <c r="K34" s="6"/>
-      <c r="L34" s="6"/>
-      <c r="M34" s="6"/>
-      <c r="N34" s="6"/>
-    </row>
-    <row r="35" ht="14.4" spans="6:14">
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="6"/>
-      <c r="J35" s="44"/>
-      <c r="K35" s="6"/>
-      <c r="L35" s="6"/>
-      <c r="M35" s="6"/>
-      <c r="N35" s="6"/>
-    </row>
-    <row r="36" spans="6:14">
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="6"/>
-      <c r="J36" s="6"/>
-      <c r="K36" s="6"/>
-      <c r="L36" s="6"/>
-      <c r="M36" s="6"/>
-      <c r="N36" s="6"/>
-    </row>
-    <row r="37" spans="6:14">
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="6"/>
-      <c r="K37" s="6"/>
-      <c r="L37" s="6"/>
-      <c r="M37" s="6"/>
-      <c r="N37" s="6"/>
+      <c r="O17" s="7">
+        <v>1</v>
+      </c>
+      <c r="P17" s="27"/>
+      <c r="Q17" s="7"/>
+    </row>
+    <row r="18" ht="14.4" spans="4:17">
+      <c r="D18" s="15"/>
+      <c r="F18" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="G18" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="I18" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="J18" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="K18" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="L18" s="30">
+        <v>0</v>
+      </c>
+      <c r="M18" s="30">
+        <v>0</v>
+      </c>
+      <c r="N18" s="30">
+        <v>0</v>
+      </c>
+      <c r="O18" s="30"/>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="7"/>
+    </row>
+    <row r="19" ht="14.4" spans="4:17">
+      <c r="D19" s="15"/>
+      <c r="F19" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="G19" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="H19" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="I19" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="J19" s="53" t="s">
+        <v>47</v>
+      </c>
+      <c r="K19" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="L19" s="30">
+        <v>0</v>
+      </c>
+      <c r="M19" s="30">
+        <v>0</v>
+      </c>
+      <c r="N19" s="30">
+        <v>0</v>
+      </c>
+      <c r="O19" s="30"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7"/>
+    </row>
+    <row r="20" ht="14.4" spans="6:17">
+      <c r="F20" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="G20" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="H20" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="I20" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="J20" s="53" t="s">
+        <v>49</v>
+      </c>
+      <c r="K20" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="L20" s="30">
+        <v>0</v>
+      </c>
+      <c r="M20" s="30">
+        <v>0</v>
+      </c>
+      <c r="N20" s="30">
+        <v>0</v>
+      </c>
+      <c r="O20" s="30"/>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="7"/>
+    </row>
+    <row r="21" s="3" customFormat="1" ht="14.4" spans="6:17">
+      <c r="F21" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="G21" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="H21" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="I21" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="J21" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="K21" s="50" t="s">
+        <v>17</v>
+      </c>
+      <c r="L21" s="50">
+        <v>0</v>
+      </c>
+      <c r="M21" s="50">
+        <v>0</v>
+      </c>
+      <c r="N21" s="50">
+        <v>0</v>
+      </c>
+      <c r="O21" s="25"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="7"/>
+    </row>
+    <row r="22" s="3" customFormat="1" ht="14.4" spans="6:17">
+      <c r="F22" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="G22" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="H22" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="I22" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="J22" s="54" t="s">
+        <v>55</v>
+      </c>
+      <c r="K22" s="50" t="s">
+        <v>17</v>
+      </c>
+      <c r="L22" s="50">
+        <v>0</v>
+      </c>
+      <c r="M22" s="50">
+        <v>0</v>
+      </c>
+      <c r="N22" s="50">
+        <v>0</v>
+      </c>
+      <c r="O22" s="25"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="7"/>
+    </row>
+    <row r="23" s="3" customFormat="1" ht="14.4" spans="6:17">
+      <c r="F23" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="G23" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="H23" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="I23" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="J23" s="54" t="s">
+        <v>58</v>
+      </c>
+      <c r="K23" s="50" t="s">
+        <v>17</v>
+      </c>
+      <c r="L23" s="50">
+        <v>0</v>
+      </c>
+      <c r="M23" s="50">
+        <v>0</v>
+      </c>
+      <c r="N23" s="50">
+        <v>0</v>
+      </c>
+      <c r="O23" s="25"/>
+      <c r="P23" s="27"/>
+      <c r="Q23" s="7"/>
+    </row>
+    <row r="24" s="3" customFormat="1" ht="14.4" spans="6:17">
+      <c r="F24" s="50" t="s">
+        <v>59</v>
+      </c>
+      <c r="G24" s="50" t="s">
+        <v>60</v>
+      </c>
+      <c r="H24" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="I24" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="J24" s="54" t="s">
+        <v>61</v>
+      </c>
+      <c r="K24" s="50" t="s">
+        <v>17</v>
+      </c>
+      <c r="L24" s="50">
+        <v>0</v>
+      </c>
+      <c r="M24" s="50">
+        <v>0</v>
+      </c>
+      <c r="N24" s="50">
+        <v>0</v>
+      </c>
+      <c r="O24" s="25"/>
+      <c r="P24" s="43"/>
+      <c r="Q24" s="7"/>
+    </row>
+    <row r="25" s="3" customFormat="1" ht="14.4" spans="6:17">
+      <c r="F25" s="51" t="s">
+        <v>62</v>
+      </c>
+      <c r="G25" s="51" t="s">
+        <v>63</v>
+      </c>
+      <c r="H25" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="I25" s="51" t="s">
+        <v>42</v>
+      </c>
+      <c r="J25" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="K25" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="L25" s="51">
+        <v>0</v>
+      </c>
+      <c r="M25" s="51">
+        <v>0</v>
+      </c>
+      <c r="N25" s="51">
+        <v>0</v>
+      </c>
+      <c r="O25"/>
+      <c r="P25" s="27"/>
+      <c r="Q25" s="7"/>
+    </row>
+    <row r="26" ht="14.4" spans="4:17">
+      <c r="D26" s="15"/>
+      <c r="F26" s="51" t="s">
+        <v>65</v>
+      </c>
+      <c r="G26" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="H26" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="I26" s="51" t="s">
+        <v>42</v>
+      </c>
+      <c r="J26" s="55" t="s">
+        <v>67</v>
+      </c>
+      <c r="K26" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="L26" s="51">
+        <v>0</v>
+      </c>
+      <c r="M26" s="51">
+        <v>0</v>
+      </c>
+      <c r="N26" s="51">
+        <v>0</v>
+      </c>
+      <c r="O26"/>
+      <c r="P26" s="43"/>
+      <c r="Q26" s="7"/>
+    </row>
+    <row r="27" spans="6:17">
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="30"/>
+      <c r="J27" s="30"/>
+      <c r="K27" s="30"/>
+      <c r="L27" s="30"/>
+      <c r="M27" s="30"/>
+      <c r="N27" s="30"/>
+      <c r="O27" s="30"/>
+      <c r="P27" s="30"/>
+      <c r="Q27" s="30"/>
+    </row>
+    <row r="28" spans="6:17">
+      <c r="F28" s="30"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="30"/>
+      <c r="J28" s="30"/>
+      <c r="K28" s="30"/>
+      <c r="L28" s="30"/>
+      <c r="M28" s="30"/>
+      <c r="N28" s="30"/>
+      <c r="O28" s="30"/>
+      <c r="P28" s="30"/>
+      <c r="Q28" s="30"/>
+    </row>
+    <row r="29" spans="6:17">
+      <c r="F29" s="30"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="30"/>
+      <c r="I29" s="30"/>
+      <c r="J29" s="30"/>
+      <c r="K29" s="30"/>
+      <c r="L29" s="30"/>
+      <c r="M29" s="30"/>
+      <c r="N29" s="30"/>
+      <c r="O29" s="30"/>
+      <c r="P29" s="30"/>
+      <c r="Q29" s="30"/>
+    </row>
+    <row r="30" spans="6:17">
+      <c r="F30" s="31"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="31"/>
+      <c r="J30" s="31"/>
+      <c r="K30" s="31"/>
+      <c r="L30" s="31"/>
+      <c r="M30" s="31"/>
+      <c r="N30" s="31"/>
+      <c r="O30" s="31"/>
+      <c r="P30" s="31"/>
+      <c r="Q30" s="31"/>
+    </row>
+    <row r="31" ht="14.4" spans="6:17">
+      <c r="F31" s="32"/>
+      <c r="G31" s="33"/>
+      <c r="H31" s="32"/>
+      <c r="I31" s="32"/>
+      <c r="J31" s="32"/>
+      <c r="K31" s="32"/>
+      <c r="L31" s="32"/>
+      <c r="M31" s="32"/>
+      <c r="N31" s="32"/>
+      <c r="O31" s="32"/>
+      <c r="P31" s="32"/>
+      <c r="Q31" s="32"/>
+    </row>
+    <row r="32" ht="14.4" spans="6:17">
+      <c r="F32" s="32"/>
+      <c r="G32" s="33"/>
+      <c r="H32" s="32"/>
+      <c r="I32" s="32"/>
+      <c r="J32" s="32"/>
+      <c r="K32" s="32"/>
+      <c r="L32" s="32"/>
+      <c r="M32" s="32"/>
+      <c r="N32" s="32"/>
+      <c r="O32" s="32"/>
+      <c r="P32" s="32"/>
+      <c r="Q32" s="32"/>
+    </row>
+    <row r="33" ht="14.4" spans="6:17">
+      <c r="F33" s="32"/>
+      <c r="G33" s="33"/>
+      <c r="H33" s="32"/>
+      <c r="I33" s="32"/>
+      <c r="J33" s="32"/>
+      <c r="K33" s="32"/>
+      <c r="L33" s="32"/>
+      <c r="M33" s="32"/>
+      <c r="N33" s="32"/>
+      <c r="O33" s="32"/>
+      <c r="P33" s="32"/>
+      <c r="Q33" s="32"/>
+    </row>
+    <row r="34" ht="14.4" spans="6:17">
+      <c r="F34" s="32"/>
+      <c r="G34" s="33"/>
+      <c r="H34" s="32"/>
+      <c r="I34" s="32"/>
+      <c r="J34" s="32"/>
+      <c r="K34" s="32"/>
+      <c r="L34" s="32"/>
+      <c r="M34" s="32"/>
+      <c r="N34" s="32"/>
+      <c r="O34" s="32"/>
+      <c r="P34" s="32"/>
+      <c r="Q34" s="32"/>
+    </row>
+    <row r="35" spans="6:17">
+      <c r="F35" s="34"/>
+      <c r="G35" s="34"/>
+      <c r="H35" s="34"/>
+      <c r="I35" s="34"/>
+      <c r="J35" s="34"/>
+      <c r="K35" s="34"/>
+      <c r="L35" s="34"/>
+      <c r="M35" s="34"/>
+      <c r="N35" s="34"/>
+      <c r="O35" s="34"/>
+      <c r="P35" s="34"/>
+      <c r="Q35" s="34"/>
+    </row>
+    <row r="36" ht="14.4" spans="6:17">
+      <c r="F36" s="35"/>
+      <c r="G36" s="36"/>
+      <c r="H36" s="35"/>
+      <c r="I36" s="35"/>
+      <c r="J36" s="35"/>
+      <c r="K36" s="35"/>
+      <c r="L36" s="35"/>
+      <c r="M36" s="35"/>
+      <c r="N36" s="35"/>
+      <c r="O36" s="35"/>
+      <c r="P36" s="35"/>
+      <c r="Q36" s="35"/>
+    </row>
+    <row r="37" ht="14.4" spans="6:17">
+      <c r="F37" s="35"/>
+      <c r="G37" s="36"/>
+      <c r="H37" s="35"/>
+      <c r="I37" s="35"/>
+      <c r="J37" s="35"/>
+      <c r="K37" s="35"/>
+      <c r="L37" s="35"/>
+      <c r="M37" s="35"/>
+      <c r="N37" s="35"/>
+      <c r="O37" s="35"/>
+      <c r="P37" s="35"/>
+      <c r="Q37" s="35"/>
     </row>
     <row r="38" spans="6:14">
       <c r="F38" s="6"/>
@@ -2651,7 +3059,7 @@
       <c r="G49" s="6"/>
       <c r="H49" s="6"/>
       <c r="I49" s="6"/>
-      <c r="J49" s="44"/>
+      <c r="J49" s="56"/>
       <c r="K49" s="6"/>
       <c r="L49" s="6"/>
       <c r="M49" s="6"/>
@@ -2700,49 +3108,49 @@
       <c r="L53" s="6"/>
       <c r="M53" s="6"/>
     </row>
-    <row r="54" s="19" customFormat="1" ht="14.4" spans="6:14">
-      <c r="F54" s="43"/>
-      <c r="G54" s="43"/>
-      <c r="H54" s="43"/>
-      <c r="I54" s="43"/>
-      <c r="J54" s="45"/>
-      <c r="K54" s="43"/>
-      <c r="L54" s="43"/>
-      <c r="M54" s="43"/>
-      <c r="N54" s="43"/>
-    </row>
-    <row r="55" s="19" customFormat="1" ht="14.4" spans="6:14">
-      <c r="F55" s="43"/>
-      <c r="G55" s="43"/>
-      <c r="H55" s="43"/>
-      <c r="I55" s="43"/>
-      <c r="J55" s="45"/>
-      <c r="K55" s="43"/>
-      <c r="L55" s="43"/>
-      <c r="M55" s="43"/>
-      <c r="N55" s="43"/>
-    </row>
-    <row r="56" s="19" customFormat="1" ht="14.4" spans="6:14">
-      <c r="F56" s="43"/>
-      <c r="G56" s="43"/>
-      <c r="H56" s="43"/>
-      <c r="I56" s="43"/>
-      <c r="J56" s="45"/>
-      <c r="K56" s="43"/>
-      <c r="L56" s="43"/>
-      <c r="M56" s="43"/>
-      <c r="N56" s="43"/>
-    </row>
-    <row r="57" s="19" customFormat="1" ht="14.4" spans="6:14">
-      <c r="F57" s="43"/>
-      <c r="G57" s="43"/>
-      <c r="H57" s="43"/>
-      <c r="I57" s="43"/>
-      <c r="J57" s="45"/>
-      <c r="K57" s="43"/>
-      <c r="L57" s="43"/>
-      <c r="M57" s="43"/>
-      <c r="N57" s="43"/>
+    <row r="54" s="25" customFormat="1" ht="14.4" spans="6:14">
+      <c r="F54" s="52"/>
+      <c r="G54" s="52"/>
+      <c r="H54" s="52"/>
+      <c r="I54" s="52"/>
+      <c r="J54" s="57"/>
+      <c r="K54" s="52"/>
+      <c r="L54" s="52"/>
+      <c r="M54" s="52"/>
+      <c r="N54" s="52"/>
+    </row>
+    <row r="55" s="25" customFormat="1" ht="14.4" spans="6:14">
+      <c r="F55" s="52"/>
+      <c r="G55" s="52"/>
+      <c r="H55" s="52"/>
+      <c r="I55" s="52"/>
+      <c r="J55" s="57"/>
+      <c r="K55" s="52"/>
+      <c r="L55" s="52"/>
+      <c r="M55" s="52"/>
+      <c r="N55" s="52"/>
+    </row>
+    <row r="56" s="25" customFormat="1" ht="14.4" spans="6:14">
+      <c r="F56" s="52"/>
+      <c r="G56" s="52"/>
+      <c r="H56" s="52"/>
+      <c r="I56" s="52"/>
+      <c r="J56" s="57"/>
+      <c r="K56" s="52"/>
+      <c r="L56" s="52"/>
+      <c r="M56" s="52"/>
+      <c r="N56" s="52"/>
+    </row>
+    <row r="57" s="25" customFormat="1" ht="14.4" spans="6:14">
+      <c r="F57" s="52"/>
+      <c r="G57" s="52"/>
+      <c r="H57" s="52"/>
+      <c r="I57" s="52"/>
+      <c r="J57" s="57"/>
+      <c r="K57" s="52"/>
+      <c r="L57" s="52"/>
+      <c r="M57" s="52"/>
+      <c r="N57" s="52"/>
     </row>
   </sheetData>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -2759,7 +3167,7 @@
   <sheetPr/>
   <dimension ref="D7:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
@@ -2778,7 +3186,7 @@
   <sheetData>
     <row r="7" spans="4:10">
       <c r="D7" s="1" t="s">
-        <v>159</v>
+        <v>210</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>1</v>
@@ -2787,432 +3195,432 @@
         <v>2</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>160</v>
+        <v>211</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>145</v>
+        <v>196</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>146</v>
+        <v>197</v>
       </c>
     </row>
     <row r="8" spans="4:10">
       <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
-        <v>161</v>
+        <v>212</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>161</v>
+        <v>212</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>147</v>
+        <v>198</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>162</v>
+        <v>213</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>162</v>
+        <v>213</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>162</v>
+        <v>213</v>
       </c>
     </row>
     <row r="9" spans="4:10">
       <c r="D9" s="1"/>
       <c r="E9" s="1" t="s">
-        <v>163</v>
+        <v>214</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>163</v>
+        <v>214</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>147</v>
+        <v>198</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>164</v>
+        <v>215</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>164</v>
+        <v>215</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>164</v>
+        <v>215</v>
       </c>
     </row>
     <row r="10" spans="4:10">
       <c r="D10" s="1"/>
       <c r="E10" s="1" t="s">
-        <v>165</v>
+        <v>216</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>165</v>
+        <v>216</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>147</v>
+        <v>198</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>166</v>
+        <v>217</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>166</v>
+        <v>217</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>166</v>
+        <v>217</v>
       </c>
     </row>
     <row r="11" spans="4:10">
       <c r="D11" s="1"/>
       <c r="E11" s="1" t="s">
-        <v>167</v>
+        <v>218</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>167</v>
+        <v>218</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>147</v>
+        <v>198</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>168</v>
+        <v>219</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>168</v>
+        <v>219</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>168</v>
+        <v>219</v>
       </c>
     </row>
     <row r="12" spans="4:10">
       <c r="D12" s="1"/>
       <c r="E12" s="1" t="s">
-        <v>169</v>
+        <v>220</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>169</v>
+        <v>220</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>147</v>
+        <v>198</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>170</v>
+        <v>221</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>170</v>
+        <v>221</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>170</v>
+        <v>221</v>
       </c>
     </row>
     <row r="13" spans="4:10">
       <c r="D13" s="1"/>
       <c r="E13" s="1" t="s">
-        <v>171</v>
+        <v>222</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>171</v>
+        <v>222</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>149</v>
+        <v>200</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>172</v>
+        <v>223</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>172</v>
+        <v>223</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>172</v>
+        <v>223</v>
       </c>
     </row>
     <row r="14" spans="4:10">
       <c r="D14" s="1"/>
       <c r="E14" s="1" t="s">
-        <v>173</v>
+        <v>224</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>173</v>
+        <v>224</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>149</v>
+        <v>200</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>174</v>
+        <v>225</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>174</v>
+        <v>225</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>174</v>
+        <v>225</v>
       </c>
     </row>
     <row r="15" spans="4:10">
       <c r="D15" s="1"/>
       <c r="E15" s="1" t="s">
-        <v>175</v>
+        <v>226</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>175</v>
+        <v>226</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>149</v>
+        <v>200</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>176</v>
+        <v>227</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>176</v>
+        <v>227</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>176</v>
+        <v>227</v>
       </c>
     </row>
     <row r="16" spans="4:10">
       <c r="D16" s="1"/>
       <c r="E16" s="1" t="s">
-        <v>177</v>
+        <v>228</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>177</v>
+        <v>228</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>149</v>
+        <v>200</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>178</v>
+        <v>229</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>178</v>
+        <v>229</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>178</v>
+        <v>229</v>
       </c>
     </row>
     <row r="17" spans="4:10">
       <c r="D17" s="1"/>
       <c r="E17" s="1" t="s">
-        <v>179</v>
+        <v>230</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>179</v>
+        <v>230</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>151</v>
+        <v>202</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>180</v>
+        <v>231</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>180</v>
+        <v>231</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>180</v>
+        <v>231</v>
       </c>
     </row>
     <row r="18" spans="4:10">
       <c r="D18" s="1"/>
       <c r="E18" s="1" t="s">
-        <v>165</v>
+        <v>216</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>165</v>
+        <v>216</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>151</v>
+        <v>202</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>181</v>
+        <v>232</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>181</v>
+        <v>232</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>181</v>
+        <v>232</v>
       </c>
     </row>
     <row r="19" spans="4:10">
       <c r="D19" s="1"/>
       <c r="E19" s="1" t="s">
-        <v>167</v>
+        <v>218</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>167</v>
+        <v>218</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>151</v>
+        <v>202</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>182</v>
+        <v>233</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>182</v>
+        <v>233</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>182</v>
+        <v>233</v>
       </c>
     </row>
     <row r="20" spans="4:10">
       <c r="D20" s="1"/>
       <c r="E20" s="1" t="s">
-        <v>179</v>
+        <v>230</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>179</v>
+        <v>230</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>153</v>
+        <v>204</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>180</v>
+        <v>231</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>180</v>
+        <v>231</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>180</v>
+        <v>231</v>
       </c>
     </row>
     <row r="21" spans="4:10">
       <c r="D21" s="1"/>
       <c r="E21" s="1" t="s">
-        <v>165</v>
+        <v>216</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>165</v>
+        <v>216</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>153</v>
+        <v>204</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>181</v>
+        <v>232</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>181</v>
+        <v>232</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>181</v>
+        <v>232</v>
       </c>
     </row>
     <row r="22" spans="4:10">
       <c r="D22" s="1"/>
       <c r="E22" s="1" t="s">
-        <v>167</v>
+        <v>218</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>167</v>
+        <v>218</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>153</v>
+        <v>204</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>182</v>
+        <v>233</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>182</v>
+        <v>233</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>182</v>
+        <v>233</v>
       </c>
     </row>
     <row r="23" spans="4:10">
       <c r="D23" s="1"/>
       <c r="E23" s="1" t="s">
-        <v>183</v>
+        <v>234</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>183</v>
+        <v>234</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>155</v>
+        <v>206</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>184</v>
+        <v>235</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>184</v>
+        <v>235</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>184</v>
+        <v>235</v>
       </c>
     </row>
     <row r="24" spans="5:10">
       <c r="E24" s="1" t="s">
-        <v>185</v>
+        <v>236</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>185</v>
+        <v>236</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>157</v>
+        <v>208</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>186</v>
+        <v>237</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>186</v>
+        <v>237</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>186</v>
+        <v>237</v>
       </c>
     </row>
     <row r="25" spans="5:10">
       <c r="E25" s="1" t="s">
-        <v>187</v>
+        <v>238</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>187</v>
+        <v>238</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>157</v>
+        <v>208</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>188</v>
+        <v>239</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>188</v>
+        <v>239</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>188</v>
+        <v>239</v>
       </c>
     </row>
     <row r="26" spans="5:10">
       <c r="E26" s="1" t="s">
-        <v>189</v>
+        <v>240</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>189</v>
+        <v>240</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>157</v>
+        <v>208</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>190</v>
+        <v>241</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>190</v>
+        <v>241</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>190</v>
+        <v>241</v>
       </c>
     </row>
     <row r="27" spans="5:10">
       <c r="E27" s="1" t="s">
-        <v>191</v>
+        <v>242</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>191</v>
+        <v>242</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>157</v>
+        <v>208</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>192</v>
+        <v>243</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>192</v>
+        <v>243</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>192</v>
+        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -3227,8 +3635,8 @@
   <sheetPr/>
   <dimension ref="D7:Q81"/>
   <sheetViews>
-    <sheetView zoomScale="86" zoomScaleNormal="86" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8:Q37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -3254,58 +3662,58 @@
   </cols>
   <sheetData>
     <row r="7" ht="12.85" customHeight="1" spans="4:17">
-      <c r="D7" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="F7" s="11" t="s">
+      <c r="D7" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="G7" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="J7" s="11" t="s">
+      <c r="G7" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="I7" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="J7" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="K7" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="L7" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="M7" s="11" t="s">
-        <v>51</v>
+      <c r="K7" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="L7" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="M7" s="16" t="s">
+        <v>74</v>
       </c>
       <c r="N7" s="6" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="O7" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="P7" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q7" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="P7" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q7" s="16" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" s="3" customFormat="1" ht="13.95" customHeight="1" spans="6:15">
+    <row r="8" s="3" customFormat="1" ht="13.95" customHeight="1" spans="6:17">
       <c r="F8" s="7" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="I8" s="7" t="s">
         <v>12</v>
@@ -3314,30 +3722,34 @@
         <v>14</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="O8" s="3">
+        <v>82</v>
+      </c>
+      <c r="N8" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="O8" s="7">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" s="3" customFormat="1" ht="13.95" customHeight="1" spans="6:15">
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" s="3" customFormat="1" ht="13.95" customHeight="1" spans="6:17">
       <c r="F9" s="7" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="I9" s="7" t="s">
         <v>18</v>
@@ -3346,30 +3758,34 @@
         <v>14</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="O9" s="3">
+        <v>87</v>
+      </c>
+      <c r="N9" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="O9" s="7">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" s="3" customFormat="1" spans="6:15">
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" s="3" customFormat="1" spans="6:17">
       <c r="F10" s="7" t="s">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="I10" s="7" t="s">
         <v>21</v>
@@ -3378,1031 +3794,1483 @@
         <v>14</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="O10" s="3">
+        <v>87</v>
+      </c>
+      <c r="N10" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="O10" s="7">
+        <v>30</v>
+      </c>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" s="18" customFormat="1" spans="6:17">
+      <c r="F11" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M11" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="N11" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="O11" s="7">
+        <v>60</v>
+      </c>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" s="19" customFormat="1" spans="6:17">
+      <c r="F12" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M12" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="N12" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="O12" s="7">
+        <v>60</v>
+      </c>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" s="19" customFormat="1" ht="14.4" spans="6:17">
+      <c r="F13" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="G13" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M13" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="N13" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="O13" s="7">
+        <v>50</v>
+      </c>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" s="19" customFormat="1" spans="6:17">
+      <c r="F14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M14" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="N14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="O14" s="7">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" s="12" customFormat="1" spans="6:15">
-      <c r="F11" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="H11" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="J11" s="12" t="s">
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" s="19" customFormat="1" spans="6:17">
+      <c r="F15" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J15" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K11" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="L11" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="M11" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="N11" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="O11" s="12">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" s="13" customFormat="1" spans="6:15">
-      <c r="F12" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="G12" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="H12" s="13" t="s">
+      <c r="K15" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="I12" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="J12" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="K12" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="L12" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="M12" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="N12" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="O12" s="13">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" s="13" customFormat="1" spans="6:15">
-      <c r="F13" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="G13" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="H13" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="I13" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="J13" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="K13" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="L13" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="M13" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="N13" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="O13" s="13">
+      <c r="L15" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M15" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="N15" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="O15" s="7">
         <v>20</v>
       </c>
-    </row>
-    <row r="14" s="13" customFormat="1" spans="6:15">
-      <c r="F14" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="G14" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="H14" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="I14" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="J14" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="K14" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="L14" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="M14" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="N14" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="O14" s="13">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" s="13" customFormat="1" spans="6:15">
-      <c r="F15" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="G15" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="H15" s="13" t="s">
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" s="3" customFormat="1" spans="6:17">
+      <c r="F16" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="I15" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="J15" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="K15" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="L15" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="M15" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="N15" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="O15" s="13">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" s="3" customFormat="1" ht="14.4" spans="6:15">
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="G16" s="20" t="s">
+      <c r="H16" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="H16" s="7" t="s">
-        <v>91</v>
-      </c>
       <c r="I16" s="7" t="s">
-        <v>92</v>
+        <v>21</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K16" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="N16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="O16" s="7">
+        <v>20</v>
+      </c>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" s="20" customFormat="1" spans="6:17">
+      <c r="F17" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="G17" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="H17" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="K17" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="L17" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="M17" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="N17" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="O17" s="27">
+        <v>60</v>
+      </c>
+      <c r="P17" s="27"/>
+      <c r="Q17" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" s="21" customFormat="1" spans="6:17">
+      <c r="F18" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="L16" s="3" t="s">
+      <c r="H18" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="M16" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="N16" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="O16" s="3">
+      <c r="M18" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="N18" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="O18" s="7">
+        <v>10</v>
+      </c>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" s="22" customFormat="1" spans="6:17">
+      <c r="F19" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M19" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="N19" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="O19" s="7">
+        <v>20</v>
+      </c>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" s="23" customFormat="1" spans="6:17">
+      <c r="F20" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M20" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="N20" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="O20" s="7">
+        <v>30</v>
+      </c>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" s="24" customFormat="1" spans="6:17">
+      <c r="F21" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M21" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="N21" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="O21" s="7">
+        <v>40</v>
+      </c>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" s="3" customFormat="1" ht="14.4" spans="6:17">
+      <c r="F22" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="G22" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M22" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="N22" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="O22" s="7">
         <v>50</v>
       </c>
-    </row>
-    <row r="17" s="14" customFormat="1" ht="14.4" spans="6:15">
-      <c r="F17" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="G17" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="H17" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="J17" s="14" t="s">
+      <c r="P22" s="7"/>
+      <c r="Q22" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" ht="14.4" spans="6:17">
+      <c r="F23" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="G23" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="H23" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="I23" s="27"/>
+      <c r="J23" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="K17" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="L17" s="14" t="s">
+      <c r="K23" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="L23" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="M17" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="N17" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="O17" s="14">
+      <c r="M23" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="N23" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="O23" s="27">
         <v>80</v>
       </c>
-    </row>
-    <row r="18" s="15" customFormat="1" ht="15.2" spans="6:15">
-      <c r="F18" s="22" t="s">
+      <c r="P23" s="27"/>
+      <c r="Q23" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" ht="15.2" spans="6:17">
+      <c r="F24" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="G24" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="G18" s="23" t="s">
+      <c r="H24" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="I24" s="42" t="s">
+        <v>120</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K24" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="L24" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="M24" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="N24" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="O24" s="7">
+        <v>10</v>
+      </c>
+      <c r="P24" s="43"/>
+      <c r="Q24" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" ht="14.4" spans="6:17">
+      <c r="F25" s="27" t="s">
+        <v>122</v>
+      </c>
+      <c r="G25" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="H25" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="I25" s="27"/>
+      <c r="J25" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="K25" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="L25" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="M25" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="N25" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="O25" s="27">
+        <v>90</v>
+      </c>
+      <c r="P25" s="27"/>
+      <c r="Q25" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" s="3" customFormat="1" ht="15.2" spans="6:17">
+      <c r="F26" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="G26" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="H26" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="I26" s="42" t="s">
+        <v>126</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K26" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="L26" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="M26" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="N26" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="O26" s="7">
+        <v>10</v>
+      </c>
+      <c r="P26" s="43"/>
+      <c r="Q26" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" s="3" customFormat="1" spans="6:17">
+      <c r="F27" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="G27" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="H27" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="I27" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="J27" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="K27" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="H18" s="22" t="s">
+      <c r="L27" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="M27" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="I18" s="32" t="s">
-        <v>99</v>
-      </c>
-      <c r="J18" s="33" t="s">
+      <c r="N27" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="O27" s="30">
+        <v>10</v>
+      </c>
+      <c r="P27" s="30"/>
+      <c r="Q27" s="30"/>
+    </row>
+    <row r="28" s="3" customFormat="1" spans="6:17">
+      <c r="F28" s="30" t="s">
+        <v>129</v>
+      </c>
+      <c r="G28" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="H28" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="I28" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="J28" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="K18" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="L18" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="M18" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="N18" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="O18" s="33">
+      <c r="K28" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="L28" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="M28" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="N28" s="30"/>
+      <c r="O28" s="30">
         <v>10</v>
       </c>
-    </row>
-    <row r="19" s="16" customFormat="1" ht="14.4" spans="6:15">
-      <c r="F19" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="G19" s="24" t="s">
+      <c r="P28" s="30"/>
+      <c r="Q28" s="30"/>
+    </row>
+    <row r="29" s="3" customFormat="1" spans="6:17">
+      <c r="F29" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="G29" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="H29" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="I29" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="J29" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="K29" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="L29" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="M29" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="N29" s="30"/>
+      <c r="O29" s="30">
+        <v>20</v>
+      </c>
+      <c r="P29" s="30"/>
+      <c r="Q29" s="30"/>
+    </row>
+    <row r="30" s="3" customFormat="1" spans="6:17">
+      <c r="F30" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="G30" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="H30" s="31" t="s">
+        <v>133</v>
+      </c>
+      <c r="I30" s="31"/>
+      <c r="J30" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="K30" s="31" t="s">
+        <v>134</v>
+      </c>
+      <c r="L30" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="M30" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="N30" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="O30" s="31">
+        <v>80</v>
+      </c>
+      <c r="P30" s="31"/>
+      <c r="Q30" s="31"/>
+    </row>
+    <row r="31" s="3" customFormat="1" ht="14.4" spans="6:17">
+      <c r="F31" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="G31" s="33" t="s">
+        <v>136</v>
+      </c>
+      <c r="H31" s="32" t="s">
+        <v>137</v>
+      </c>
+      <c r="I31" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="J31" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="K31" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="L31" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="M31" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="N31" s="32" t="s">
+        <v>138</v>
+      </c>
+      <c r="O31" s="32">
+        <v>10</v>
+      </c>
+      <c r="P31" s="32"/>
+      <c r="Q31" s="32"/>
+    </row>
+    <row r="32" s="3" customFormat="1" ht="14.4" spans="6:17">
+      <c r="F32" s="32" t="s">
+        <v>139</v>
+      </c>
+      <c r="G32" s="33" t="s">
+        <v>140</v>
+      </c>
+      <c r="H32" s="32" t="s">
+        <v>141</v>
+      </c>
+      <c r="I32" s="32" t="s">
+        <v>139</v>
+      </c>
+      <c r="J32" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="K32" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="L32" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="M32" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="N32" s="32"/>
+      <c r="O32" s="32">
+        <v>10</v>
+      </c>
+      <c r="P32" s="32"/>
+      <c r="Q32" s="32"/>
+    </row>
+    <row r="33" ht="14.4" spans="4:17">
+      <c r="D33" s="15"/>
+      <c r="F33" s="32" t="s">
+        <v>142</v>
+      </c>
+      <c r="G33" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="H33" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="I33" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="J33" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="K33" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="L33" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="M33" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="N33" s="32"/>
+      <c r="O33" s="32">
+        <v>20</v>
+      </c>
+      <c r="P33" s="32"/>
+      <c r="Q33" s="32"/>
+    </row>
+    <row r="34" ht="14.4" spans="6:17">
+      <c r="F34" s="32" t="s">
+        <v>145</v>
+      </c>
+      <c r="G34" s="33" t="s">
+        <v>146</v>
+      </c>
+      <c r="H34" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="H19" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="J19" s="16" t="s">
+      <c r="I34" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="J34" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="K19" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="L19" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="M19" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="N19" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="O19" s="16">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="20" s="17" customFormat="1" ht="15.2" spans="6:15">
-      <c r="F20" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="G20" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="H20" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="I20" s="34" t="s">
-        <v>105</v>
-      </c>
-      <c r="J20" s="18" t="s">
+      <c r="K34" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="L34" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="M34" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="N34" s="32" t="s">
+        <v>147</v>
+      </c>
+      <c r="O34" s="32">
+        <v>20</v>
+      </c>
+      <c r="P34" s="32"/>
+      <c r="Q34" s="32"/>
+    </row>
+    <row r="35" spans="6:17">
+      <c r="F35" s="34" t="s">
+        <v>148</v>
+      </c>
+      <c r="G35" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="H35" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="I35" s="34"/>
+      <c r="J35" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="K20" s="25" t="s">
-        <v>101</v>
-      </c>
-      <c r="L20" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="M20" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="N20" s="25" t="s">
-        <v>100</v>
-      </c>
-      <c r="O20" s="18">
+      <c r="K35" s="34" t="s">
+        <v>149</v>
+      </c>
+      <c r="L35" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="M35" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="N35" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="O35" s="34">
+        <v>80</v>
+      </c>
+      <c r="P35" s="34"/>
+      <c r="Q35" s="34"/>
+    </row>
+    <row r="36" ht="14.4" spans="6:17">
+      <c r="F36" s="35" t="s">
+        <v>150</v>
+      </c>
+      <c r="G36" s="36" t="s">
+        <v>151</v>
+      </c>
+      <c r="H36" s="35" t="s">
+        <v>152</v>
+      </c>
+      <c r="I36" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="J36" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="K36" s="35" t="s">
+        <v>148</v>
+      </c>
+      <c r="L36" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="M36" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="N36" s="35" t="s">
+        <v>153</v>
+      </c>
+      <c r="O36" s="35">
         <v>10</v>
       </c>
-    </row>
-    <row r="21" s="18" customFormat="1" ht="14.4" spans="7:7">
-      <c r="G21" s="26"/>
-    </row>
-    <row r="22" s="3" customFormat="1" ht="14.4" spans="6:14">
-      <c r="F22" s="7"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="9"/>
-      <c r="N22" s="7"/>
-    </row>
-    <row r="23" ht="15.2" spans="6:15">
-      <c r="F23" s="8"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="8"/>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" ht="15.2" spans="6:15">
-      <c r="F24" s="8"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="35"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="8"/>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" ht="15.2" spans="6:15">
-      <c r="F25" s="8"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
-      <c r="N25" s="8"/>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" s="3" customFormat="1" ht="14.4" spans="6:13">
-      <c r="F26" s="7"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
-      <c r="M26" s="7"/>
-    </row>
-    <row r="27" s="3" customFormat="1" ht="14.4" spans="6:13">
-      <c r="F27" s="7"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
-      <c r="M27" s="7"/>
-    </row>
-    <row r="28" s="3" customFormat="1" ht="14.4" spans="6:13">
-      <c r="F28" s="7"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="7"/>
-      <c r="M28" s="7"/>
-    </row>
-    <row r="29" s="3" customFormat="1" ht="14.4" spans="6:13">
-      <c r="F29" s="7"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="7"/>
-      <c r="M29" s="7"/>
-    </row>
-    <row r="30" s="3" customFormat="1" ht="14.4" spans="6:13">
-      <c r="F30" s="7"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="7"/>
-      <c r="M30" s="7"/>
-    </row>
-    <row r="31" s="3" customFormat="1" ht="14.4" spans="6:13">
-      <c r="F31" s="7"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="7"/>
-      <c r="M31" s="7"/>
-    </row>
-    <row r="32" s="3" customFormat="1" ht="14.4" spans="6:13">
-      <c r="F32" s="7"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="7"/>
-      <c r="K32" s="7"/>
-      <c r="M32" s="7"/>
-    </row>
-    <row r="33" ht="17.6" spans="4:15">
-      <c r="D33" s="10"/>
-      <c r="F33" s="27"/>
-      <c r="G33" s="27"/>
-      <c r="H33" s="27"/>
-      <c r="I33" s="27"/>
-      <c r="J33" s="27"/>
-      <c r="K33" s="27"/>
-      <c r="L33" s="27"/>
-      <c r="M33" s="27"/>
-      <c r="N33" s="27"/>
-      <c r="O33" s="27"/>
-    </row>
-    <row r="34" ht="17.6" spans="6:15">
-      <c r="F34" s="27"/>
-      <c r="G34" s="27"/>
-      <c r="H34" s="27"/>
-      <c r="I34" s="27"/>
-      <c r="J34" s="27"/>
-      <c r="K34" s="27"/>
-      <c r="L34" s="27"/>
-      <c r="M34" s="27"/>
-      <c r="N34" s="27"/>
-      <c r="O34" s="27"/>
-    </row>
-    <row r="35" ht="17.6" spans="6:15">
-      <c r="F35" s="27"/>
-      <c r="G35" s="27"/>
-      <c r="H35" s="27"/>
-      <c r="I35" s="27"/>
-      <c r="J35" s="27"/>
-      <c r="K35" s="27"/>
-      <c r="L35" s="27"/>
-      <c r="M35" s="27"/>
-      <c r="N35" s="27"/>
-      <c r="O35" s="27"/>
-    </row>
-    <row r="36" ht="17.6" spans="6:15">
-      <c r="F36" s="27"/>
-      <c r="G36" s="27"/>
-      <c r="H36" s="27"/>
-      <c r="I36" s="27"/>
-      <c r="J36" s="27"/>
-      <c r="K36" s="27"/>
-      <c r="L36" s="27"/>
-      <c r="M36" s="27"/>
-      <c r="N36" s="27"/>
-      <c r="O36" s="27"/>
-    </row>
-    <row r="37" ht="17.6" spans="6:15">
-      <c r="F37" s="27"/>
-      <c r="G37" s="27"/>
-      <c r="H37" s="27"/>
-      <c r="I37" s="27"/>
-      <c r="J37" s="27"/>
-      <c r="K37" s="27"/>
-      <c r="L37" s="27"/>
-      <c r="M37" s="27"/>
-      <c r="N37" s="27"/>
-      <c r="O37" s="27"/>
+      <c r="P36" s="35"/>
+      <c r="Q36" s="35"/>
+    </row>
+    <row r="37" ht="14.4" spans="6:17">
+      <c r="F37" s="35" t="s">
+        <v>154</v>
+      </c>
+      <c r="G37" s="36" t="s">
+        <v>155</v>
+      </c>
+      <c r="H37" s="35" t="s">
+        <v>156</v>
+      </c>
+      <c r="I37" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="J37" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="K37" s="35" t="s">
+        <v>148</v>
+      </c>
+      <c r="L37" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="M37" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="N37" s="35" t="s">
+        <v>153</v>
+      </c>
+      <c r="O37" s="35">
+        <v>20</v>
+      </c>
+      <c r="P37" s="35"/>
+      <c r="Q37" s="35"/>
     </row>
     <row r="38" ht="17.6" spans="6:15">
-      <c r="F38" s="27"/>
-      <c r="G38" s="27"/>
-      <c r="H38" s="27"/>
-      <c r="I38" s="27"/>
-      <c r="J38" s="27"/>
-      <c r="K38" s="27"/>
-      <c r="L38" s="27"/>
-      <c r="M38" s="27"/>
-      <c r="N38" s="27"/>
-      <c r="O38" s="27"/>
+      <c r="F38" s="37"/>
+      <c r="G38" s="37"/>
+      <c r="H38" s="37"/>
+      <c r="I38" s="37"/>
+      <c r="J38" s="37"/>
+      <c r="K38" s="37"/>
+      <c r="L38" s="37"/>
+      <c r="M38" s="37"/>
+      <c r="N38" s="37"/>
+      <c r="O38" s="37"/>
     </row>
     <row r="39" ht="17.6" spans="6:15">
-      <c r="F39" s="27"/>
-      <c r="G39" s="27"/>
-      <c r="H39" s="27"/>
-      <c r="I39" s="27"/>
-      <c r="J39" s="27"/>
-      <c r="K39" s="27"/>
-      <c r="L39" s="27"/>
-      <c r="M39" s="27"/>
-      <c r="N39" s="27"/>
-      <c r="O39" s="27"/>
+      <c r="F39" s="37"/>
+      <c r="G39" s="37"/>
+      <c r="H39" s="37"/>
+      <c r="I39" s="37"/>
+      <c r="J39" s="37"/>
+      <c r="K39" s="37"/>
+      <c r="L39" s="37"/>
+      <c r="M39" s="37"/>
+      <c r="N39" s="37"/>
+      <c r="O39" s="37"/>
     </row>
     <row r="40" ht="17.6" spans="6:15">
-      <c r="F40" s="27"/>
-      <c r="G40" s="27"/>
-      <c r="H40" s="27"/>
-      <c r="I40" s="27"/>
-      <c r="J40" s="27"/>
-      <c r="K40" s="27"/>
-      <c r="L40" s="27"/>
-      <c r="M40" s="27"/>
-      <c r="N40" s="27"/>
-      <c r="O40" s="27"/>
+      <c r="F40" s="37"/>
+      <c r="G40" s="37"/>
+      <c r="H40" s="37"/>
+      <c r="I40" s="37"/>
+      <c r="J40" s="37"/>
+      <c r="K40" s="37"/>
+      <c r="L40" s="37"/>
+      <c r="M40" s="37"/>
+      <c r="N40" s="37"/>
+      <c r="O40" s="37"/>
     </row>
     <row r="41" ht="17.6" spans="6:15">
-      <c r="F41" s="27"/>
-      <c r="G41" s="27"/>
-      <c r="H41" s="27"/>
-      <c r="I41" s="27"/>
-      <c r="J41" s="27"/>
-      <c r="K41" s="27"/>
-      <c r="L41" s="27"/>
-      <c r="M41" s="27"/>
-      <c r="N41" s="27"/>
-      <c r="O41" s="27"/>
+      <c r="F41" s="37"/>
+      <c r="G41" s="37"/>
+      <c r="H41" s="37"/>
+      <c r="I41" s="37"/>
+      <c r="J41" s="37"/>
+      <c r="K41" s="37"/>
+      <c r="L41" s="37"/>
+      <c r="M41" s="37"/>
+      <c r="N41" s="37"/>
+      <c r="O41" s="37"/>
     </row>
     <row r="42" ht="17.6" spans="6:15">
-      <c r="F42" s="27"/>
-      <c r="G42" s="27"/>
-      <c r="H42" s="27"/>
-      <c r="I42" s="27"/>
-      <c r="J42" s="27"/>
-      <c r="K42" s="27"/>
-      <c r="L42" s="27"/>
-      <c r="M42" s="27"/>
-      <c r="N42" s="27"/>
-      <c r="O42" s="27"/>
+      <c r="F42" s="37"/>
+      <c r="G42" s="37"/>
+      <c r="H42" s="37"/>
+      <c r="I42" s="37"/>
+      <c r="J42" s="37"/>
+      <c r="K42" s="37"/>
+      <c r="L42" s="37"/>
+      <c r="M42" s="37"/>
+      <c r="N42" s="37"/>
+      <c r="O42" s="37"/>
     </row>
     <row r="43" ht="17.6" spans="6:15">
-      <c r="F43" s="27"/>
-      <c r="G43" s="27"/>
-      <c r="H43" s="27"/>
-      <c r="I43" s="27"/>
-      <c r="J43" s="27"/>
-      <c r="K43" s="27"/>
-      <c r="L43" s="27"/>
-      <c r="M43" s="27"/>
-      <c r="N43" s="27"/>
-      <c r="O43" s="27"/>
+      <c r="F43" s="37"/>
+      <c r="G43" s="37"/>
+      <c r="H43" s="37"/>
+      <c r="I43" s="37"/>
+      <c r="J43" s="37"/>
+      <c r="K43" s="37"/>
+      <c r="L43" s="37"/>
+      <c r="M43" s="37"/>
+      <c r="N43" s="37"/>
+      <c r="O43" s="37"/>
     </row>
     <row r="44" ht="17.6" spans="6:15">
-      <c r="F44" s="27"/>
-      <c r="G44" s="27"/>
-      <c r="H44" s="27"/>
-      <c r="I44" s="27"/>
-      <c r="J44" s="27"/>
-      <c r="K44" s="27"/>
-      <c r="L44" s="27"/>
-      <c r="M44" s="27"/>
-      <c r="N44" s="27"/>
-      <c r="O44" s="27"/>
+      <c r="F44" s="37"/>
+      <c r="G44" s="37"/>
+      <c r="H44" s="37"/>
+      <c r="I44" s="37"/>
+      <c r="J44" s="37"/>
+      <c r="K44" s="37"/>
+      <c r="L44" s="37"/>
+      <c r="M44" s="37"/>
+      <c r="N44" s="37"/>
+      <c r="O44" s="37"/>
     </row>
     <row r="45" ht="17.6" spans="6:15">
-      <c r="F45" s="27"/>
-      <c r="G45" s="27"/>
-      <c r="H45" s="27"/>
-      <c r="I45" s="27"/>
-      <c r="J45" s="27"/>
-      <c r="K45" s="27"/>
-      <c r="L45" s="27"/>
-      <c r="M45" s="27"/>
-      <c r="N45" s="27"/>
-      <c r="O45" s="27"/>
+      <c r="F45" s="37"/>
+      <c r="G45" s="37"/>
+      <c r="H45" s="37"/>
+      <c r="I45" s="37"/>
+      <c r="J45" s="37"/>
+      <c r="K45" s="37"/>
+      <c r="L45" s="37"/>
+      <c r="M45" s="37"/>
+      <c r="N45" s="37"/>
+      <c r="O45" s="37"/>
     </row>
     <row r="46" ht="17.6" spans="6:15">
-      <c r="F46" s="27"/>
-      <c r="G46" s="27"/>
-      <c r="H46" s="27"/>
-      <c r="I46" s="27"/>
-      <c r="J46" s="27"/>
-      <c r="K46" s="27"/>
-      <c r="L46" s="27"/>
-      <c r="M46" s="27"/>
-      <c r="N46" s="27"/>
-      <c r="O46" s="27"/>
+      <c r="F46" s="37"/>
+      <c r="G46" s="37"/>
+      <c r="H46" s="37"/>
+      <c r="I46" s="37"/>
+      <c r="J46" s="37"/>
+      <c r="K46" s="37"/>
+      <c r="L46" s="37"/>
+      <c r="M46" s="37"/>
+      <c r="N46" s="37"/>
+      <c r="O46" s="37"/>
     </row>
     <row r="47" ht="17.6" spans="6:15">
-      <c r="F47" s="27"/>
-      <c r="G47" s="28"/>
-      <c r="H47" s="27"/>
-      <c r="I47" s="27"/>
-      <c r="J47" s="27"/>
-      <c r="K47" s="27"/>
-      <c r="L47" s="27"/>
-      <c r="M47" s="27"/>
-      <c r="N47" s="27"/>
-      <c r="O47" s="27"/>
+      <c r="F47" s="37"/>
+      <c r="G47" s="38"/>
+      <c r="H47" s="37"/>
+      <c r="I47" s="37"/>
+      <c r="J47" s="37"/>
+      <c r="K47" s="37"/>
+      <c r="L47" s="37"/>
+      <c r="M47" s="37"/>
+      <c r="N47" s="37"/>
+      <c r="O47" s="37"/>
     </row>
     <row r="48" ht="17.6" spans="6:15">
-      <c r="F48" s="29"/>
-      <c r="G48" s="29"/>
-      <c r="H48" s="29"/>
-      <c r="I48" s="29"/>
-      <c r="J48" s="29"/>
-      <c r="K48" s="29"/>
-      <c r="L48" s="29"/>
-      <c r="M48" s="29"/>
-      <c r="N48" s="29"/>
-      <c r="O48" s="29"/>
+      <c r="F48" s="39"/>
+      <c r="G48" s="39"/>
+      <c r="H48" s="39"/>
+      <c r="I48" s="39"/>
+      <c r="J48" s="39"/>
+      <c r="K48" s="39"/>
+      <c r="L48" s="39"/>
+      <c r="M48" s="39"/>
+      <c r="N48" s="39"/>
+      <c r="O48" s="39"/>
     </row>
     <row r="49" ht="17.6" spans="6:15">
-      <c r="F49" s="29"/>
-      <c r="G49" s="29"/>
-      <c r="H49" s="29"/>
-      <c r="I49" s="29"/>
-      <c r="J49" s="29"/>
-      <c r="K49" s="29"/>
-      <c r="L49" s="29"/>
-      <c r="M49" s="29"/>
-      <c r="N49" s="29"/>
-      <c r="O49" s="29"/>
+      <c r="F49" s="39"/>
+      <c r="G49" s="39"/>
+      <c r="H49" s="39"/>
+      <c r="I49" s="39"/>
+      <c r="J49" s="39"/>
+      <c r="K49" s="39"/>
+      <c r="L49" s="39"/>
+      <c r="M49" s="39"/>
+      <c r="N49" s="39"/>
+      <c r="O49" s="39"/>
     </row>
     <row r="50" ht="17.6" spans="6:15">
-      <c r="F50" s="29"/>
-      <c r="G50" s="29"/>
-      <c r="H50" s="29"/>
-      <c r="I50" s="29"/>
-      <c r="J50" s="29"/>
-      <c r="K50" s="29"/>
-      <c r="L50" s="29"/>
-      <c r="M50" s="29"/>
-      <c r="N50" s="29"/>
-      <c r="O50" s="29"/>
+      <c r="F50" s="39"/>
+      <c r="G50" s="39"/>
+      <c r="H50" s="39"/>
+      <c r="I50" s="39"/>
+      <c r="J50" s="39"/>
+      <c r="K50" s="39"/>
+      <c r="L50" s="39"/>
+      <c r="M50" s="39"/>
+      <c r="N50" s="39"/>
+      <c r="O50" s="39"/>
     </row>
     <row r="51" ht="17.6" spans="6:15">
-      <c r="F51" s="29"/>
-      <c r="G51" s="30"/>
-      <c r="H51" s="29"/>
-      <c r="I51" s="29"/>
-      <c r="J51" s="29"/>
-      <c r="K51" s="29"/>
-      <c r="L51" s="29"/>
-      <c r="M51" s="29"/>
-      <c r="N51" s="29"/>
-      <c r="O51" s="29"/>
+      <c r="F51" s="39"/>
+      <c r="G51" s="40"/>
+      <c r="H51" s="39"/>
+      <c r="I51" s="39"/>
+      <c r="J51" s="39"/>
+      <c r="K51" s="39"/>
+      <c r="L51" s="39"/>
+      <c r="M51" s="39"/>
+      <c r="N51" s="39"/>
+      <c r="O51" s="39"/>
     </row>
     <row r="52" ht="17.6" spans="6:15">
-      <c r="F52" s="29"/>
-      <c r="G52" s="29"/>
-      <c r="H52" s="29"/>
-      <c r="I52" s="29"/>
-      <c r="J52" s="29"/>
-      <c r="K52" s="29"/>
-      <c r="L52" s="29"/>
-      <c r="M52" s="29"/>
-      <c r="N52" s="29"/>
-      <c r="O52" s="29"/>
+      <c r="F52" s="39"/>
+      <c r="G52" s="39"/>
+      <c r="H52" s="39"/>
+      <c r="I52" s="39"/>
+      <c r="J52" s="39"/>
+      <c r="K52" s="39"/>
+      <c r="L52" s="39"/>
+      <c r="M52" s="39"/>
+      <c r="N52" s="39"/>
+      <c r="O52" s="39"/>
     </row>
     <row r="53" ht="17.6" spans="6:15">
-      <c r="F53" s="29"/>
-      <c r="G53" s="30"/>
-      <c r="H53" s="29"/>
-      <c r="I53" s="29"/>
-      <c r="J53" s="29"/>
-      <c r="K53" s="29"/>
-      <c r="L53" s="29"/>
-      <c r="M53" s="29"/>
-      <c r="N53" s="29"/>
-      <c r="O53" s="29"/>
+      <c r="F53" s="39"/>
+      <c r="G53" s="40"/>
+      <c r="H53" s="39"/>
+      <c r="I53" s="39"/>
+      <c r="J53" s="39"/>
+      <c r="K53" s="39"/>
+      <c r="L53" s="39"/>
+      <c r="M53" s="39"/>
+      <c r="N53" s="39"/>
+      <c r="O53" s="39"/>
     </row>
     <row r="54" ht="17.6" spans="6:15">
-      <c r="F54" s="29"/>
-      <c r="G54" s="29"/>
-      <c r="H54" s="29"/>
-      <c r="I54" s="29"/>
-      <c r="J54" s="29"/>
-      <c r="K54" s="29"/>
-      <c r="L54" s="29"/>
-      <c r="M54" s="29"/>
-      <c r="N54" s="29"/>
-      <c r="O54" s="29"/>
+      <c r="F54" s="39"/>
+      <c r="G54" s="39"/>
+      <c r="H54" s="39"/>
+      <c r="I54" s="39"/>
+      <c r="J54" s="39"/>
+      <c r="K54" s="39"/>
+      <c r="L54" s="39"/>
+      <c r="M54" s="39"/>
+      <c r="N54" s="39"/>
+      <c r="O54" s="39"/>
     </row>
     <row r="55" ht="17.6" spans="6:15">
-      <c r="F55" s="29"/>
-      <c r="G55" s="29"/>
-      <c r="H55" s="29"/>
-      <c r="I55" s="29"/>
-      <c r="J55" s="29"/>
-      <c r="K55" s="29"/>
-      <c r="L55" s="29"/>
-      <c r="M55" s="29"/>
-      <c r="N55" s="29"/>
-      <c r="O55" s="29"/>
+      <c r="F55" s="39"/>
+      <c r="G55" s="39"/>
+      <c r="H55" s="39"/>
+      <c r="I55" s="39"/>
+      <c r="J55" s="39"/>
+      <c r="K55" s="39"/>
+      <c r="L55" s="39"/>
+      <c r="M55" s="39"/>
+      <c r="N55" s="39"/>
+      <c r="O55" s="39"/>
     </row>
     <row r="56" ht="17.6" spans="6:15">
-      <c r="F56" s="29"/>
-      <c r="G56" s="30"/>
-      <c r="H56" s="29"/>
-      <c r="I56" s="29"/>
-      <c r="J56" s="29"/>
-      <c r="K56" s="29"/>
-      <c r="L56" s="29"/>
-      <c r="M56" s="29"/>
-      <c r="N56" s="29"/>
-      <c r="O56" s="29"/>
+      <c r="F56" s="39"/>
+      <c r="G56" s="40"/>
+      <c r="H56" s="39"/>
+      <c r="I56" s="39"/>
+      <c r="J56" s="39"/>
+      <c r="K56" s="39"/>
+      <c r="L56" s="39"/>
+      <c r="M56" s="39"/>
+      <c r="N56" s="39"/>
+      <c r="O56" s="39"/>
     </row>
     <row r="57" ht="17.6" spans="6:15">
-      <c r="F57" s="29"/>
-      <c r="G57" s="29"/>
-      <c r="H57" s="29"/>
-      <c r="I57" s="29"/>
-      <c r="J57" s="29"/>
-      <c r="K57" s="29"/>
-      <c r="L57" s="29"/>
-      <c r="M57" s="29"/>
-      <c r="N57" s="29"/>
-      <c r="O57" s="29"/>
+      <c r="F57" s="39"/>
+      <c r="G57" s="39"/>
+      <c r="H57" s="39"/>
+      <c r="I57" s="39"/>
+      <c r="J57" s="39"/>
+      <c r="K57" s="39"/>
+      <c r="L57" s="39"/>
+      <c r="M57" s="39"/>
+      <c r="N57" s="39"/>
+      <c r="O57" s="39"/>
     </row>
     <row r="58" ht="17.6" spans="6:15">
-      <c r="F58" s="29"/>
-      <c r="G58" s="29"/>
-      <c r="H58" s="29"/>
-      <c r="I58" s="29"/>
-      <c r="J58" s="29"/>
-      <c r="K58" s="29"/>
-      <c r="L58" s="29"/>
-      <c r="M58" s="29"/>
-      <c r="N58" s="29"/>
-      <c r="O58" s="29"/>
+      <c r="F58" s="39"/>
+      <c r="G58" s="39"/>
+      <c r="H58" s="39"/>
+      <c r="I58" s="39"/>
+      <c r="J58" s="39"/>
+      <c r="K58" s="39"/>
+      <c r="L58" s="39"/>
+      <c r="M58" s="39"/>
+      <c r="N58" s="39"/>
+      <c r="O58" s="39"/>
     </row>
     <row r="59" ht="17.6" spans="6:15">
-      <c r="F59" s="29"/>
-      <c r="G59" s="29"/>
-      <c r="H59" s="29"/>
-      <c r="I59" s="29"/>
-      <c r="J59" s="29"/>
-      <c r="K59" s="29"/>
-      <c r="L59" s="29"/>
-      <c r="M59" s="29"/>
-      <c r="N59" s="29"/>
-      <c r="O59" s="29"/>
+      <c r="F59" s="39"/>
+      <c r="G59" s="39"/>
+      <c r="H59" s="39"/>
+      <c r="I59" s="39"/>
+      <c r="J59" s="39"/>
+      <c r="K59" s="39"/>
+      <c r="L59" s="39"/>
+      <c r="M59" s="39"/>
+      <c r="N59" s="39"/>
+      <c r="O59" s="39"/>
     </row>
     <row r="60" ht="17.6" spans="6:15">
-      <c r="F60" s="29"/>
-      <c r="G60" s="29"/>
-      <c r="H60" s="29"/>
-      <c r="I60" s="29"/>
-      <c r="J60" s="29"/>
-      <c r="K60" s="29"/>
-      <c r="L60" s="29"/>
-      <c r="M60" s="29"/>
-      <c r="N60" s="29"/>
-      <c r="O60" s="29"/>
+      <c r="F60" s="39"/>
+      <c r="G60" s="39"/>
+      <c r="H60" s="39"/>
+      <c r="I60" s="39"/>
+      <c r="J60" s="39"/>
+      <c r="K60" s="39"/>
+      <c r="L60" s="39"/>
+      <c r="M60" s="39"/>
+      <c r="N60" s="39"/>
+      <c r="O60" s="39"/>
     </row>
     <row r="61" ht="17.6" spans="6:15">
-      <c r="F61" s="29"/>
-      <c r="G61" s="29"/>
-      <c r="H61" s="29"/>
-      <c r="I61" s="29"/>
-      <c r="J61" s="29"/>
-      <c r="K61" s="29"/>
-      <c r="L61" s="29"/>
-      <c r="M61" s="29"/>
-      <c r="N61" s="29"/>
-      <c r="O61" s="29"/>
+      <c r="F61" s="39"/>
+      <c r="G61" s="39"/>
+      <c r="H61" s="39"/>
+      <c r="I61" s="39"/>
+      <c r="J61" s="39"/>
+      <c r="K61" s="39"/>
+      <c r="L61" s="39"/>
+      <c r="M61" s="39"/>
+      <c r="N61" s="39"/>
+      <c r="O61" s="39"/>
     </row>
     <row r="62" ht="17.6" spans="6:15">
-      <c r="F62" s="31"/>
-      <c r="G62" s="31"/>
-      <c r="H62" s="31"/>
-      <c r="I62" s="31"/>
-      <c r="J62" s="31"/>
-      <c r="K62" s="31"/>
-      <c r="L62" s="31"/>
-      <c r="M62" s="31"/>
-      <c r="N62" s="31"/>
-      <c r="O62" s="31"/>
+      <c r="F62" s="41"/>
+      <c r="G62" s="41"/>
+      <c r="H62" s="41"/>
+      <c r="I62" s="41"/>
+      <c r="J62" s="41"/>
+      <c r="K62" s="41"/>
+      <c r="L62" s="41"/>
+      <c r="M62" s="41"/>
+      <c r="N62" s="41"/>
+      <c r="O62" s="41"/>
     </row>
     <row r="63" ht="17.6" spans="6:15">
-      <c r="F63" s="31"/>
-      <c r="G63" s="31"/>
-      <c r="H63" s="31"/>
-      <c r="I63" s="31"/>
-      <c r="J63" s="31"/>
-      <c r="K63" s="31"/>
-      <c r="L63" s="31"/>
-      <c r="M63" s="31"/>
-      <c r="N63" s="31"/>
-      <c r="O63" s="31"/>
+      <c r="F63" s="41"/>
+      <c r="G63" s="41"/>
+      <c r="H63" s="41"/>
+      <c r="I63" s="41"/>
+      <c r="J63" s="41"/>
+      <c r="K63" s="41"/>
+      <c r="L63" s="41"/>
+      <c r="M63" s="41"/>
+      <c r="N63" s="41"/>
+      <c r="O63" s="41"/>
     </row>
     <row r="64" ht="17.6" spans="6:15">
-      <c r="F64" s="31"/>
-      <c r="G64" s="31"/>
-      <c r="H64" s="31"/>
-      <c r="I64" s="31"/>
-      <c r="J64" s="31"/>
-      <c r="K64" s="31"/>
-      <c r="L64" s="31"/>
-      <c r="M64" s="31"/>
-      <c r="N64" s="31"/>
-      <c r="O64" s="31"/>
+      <c r="F64" s="41"/>
+      <c r="G64" s="41"/>
+      <c r="H64" s="41"/>
+      <c r="I64" s="41"/>
+      <c r="J64" s="41"/>
+      <c r="K64" s="41"/>
+      <c r="L64" s="41"/>
+      <c r="M64" s="41"/>
+      <c r="N64" s="41"/>
+      <c r="O64" s="41"/>
     </row>
     <row r="65" ht="17.6" spans="6:15">
-      <c r="F65" s="31"/>
-      <c r="G65" s="31"/>
-      <c r="H65" s="31"/>
-      <c r="I65" s="31"/>
-      <c r="J65" s="31"/>
-      <c r="K65" s="31"/>
-      <c r="L65" s="31"/>
-      <c r="M65" s="31"/>
-      <c r="N65" s="31"/>
-      <c r="O65" s="31"/>
+      <c r="F65" s="41"/>
+      <c r="G65" s="41"/>
+      <c r="H65" s="41"/>
+      <c r="I65" s="41"/>
+      <c r="J65" s="41"/>
+      <c r="K65" s="41"/>
+      <c r="L65" s="41"/>
+      <c r="M65" s="41"/>
+      <c r="N65" s="41"/>
+      <c r="O65" s="41"/>
     </row>
     <row r="66" ht="19.2" spans="6:15">
-      <c r="F66" s="36"/>
-      <c r="G66" s="36"/>
-      <c r="H66" s="36"/>
-      <c r="I66" s="36"/>
-      <c r="J66" s="36"/>
-      <c r="K66" s="36"/>
-      <c r="L66" s="36"/>
-      <c r="M66" s="36"/>
-      <c r="N66" s="39"/>
-      <c r="O66" s="36"/>
+      <c r="F66" s="44"/>
+      <c r="G66" s="44"/>
+      <c r="H66" s="44"/>
+      <c r="I66" s="44"/>
+      <c r="J66" s="44"/>
+      <c r="K66" s="44"/>
+      <c r="L66" s="44"/>
+      <c r="M66" s="44"/>
+      <c r="N66" s="47"/>
+      <c r="O66" s="44"/>
     </row>
     <row r="67" ht="19.2" spans="6:15">
-      <c r="F67" s="36"/>
-      <c r="G67" s="36"/>
-      <c r="H67" s="36"/>
-      <c r="I67" s="36"/>
-      <c r="J67" s="36"/>
-      <c r="K67" s="36"/>
-      <c r="L67" s="36"/>
-      <c r="M67" s="36"/>
-      <c r="N67" s="39"/>
-      <c r="O67" s="36"/>
+      <c r="F67" s="44"/>
+      <c r="G67" s="44"/>
+      <c r="H67" s="44"/>
+      <c r="I67" s="44"/>
+      <c r="J67" s="44"/>
+      <c r="K67" s="44"/>
+      <c r="L67" s="44"/>
+      <c r="M67" s="44"/>
+      <c r="N67" s="47"/>
+      <c r="O67" s="44"/>
     </row>
     <row r="68" ht="19.2" spans="6:15">
-      <c r="F68" s="36"/>
-      <c r="G68" s="36"/>
-      <c r="H68" s="36"/>
-      <c r="I68" s="36"/>
-      <c r="J68" s="36"/>
-      <c r="K68" s="36"/>
-      <c r="L68" s="36"/>
-      <c r="M68" s="36"/>
-      <c r="N68" s="36"/>
-      <c r="O68" s="36"/>
-    </row>
-    <row r="69" s="19" customFormat="1" ht="17.6" spans="6:15">
-      <c r="F69" s="27"/>
-      <c r="G69" s="28"/>
-      <c r="H69" s="27"/>
-      <c r="I69" s="27"/>
-      <c r="J69" s="27"/>
-      <c r="K69" s="27"/>
-      <c r="L69" s="27"/>
-      <c r="M69" s="27"/>
-      <c r="N69" s="27"/>
-      <c r="O69" s="27"/>
-    </row>
-    <row r="70" s="19" customFormat="1" ht="17.6" spans="6:15">
-      <c r="F70" s="27"/>
-      <c r="G70" s="28"/>
-      <c r="H70" s="27"/>
-      <c r="I70" s="27"/>
-      <c r="J70" s="27"/>
-      <c r="K70" s="27"/>
-      <c r="L70" s="27"/>
-      <c r="M70" s="27"/>
-      <c r="N70" s="27"/>
-      <c r="O70" s="27"/>
-    </row>
-    <row r="71" s="19" customFormat="1" ht="17.6" spans="6:15">
-      <c r="F71" s="27"/>
-      <c r="G71" s="28"/>
-      <c r="H71" s="27"/>
-      <c r="I71" s="27"/>
-      <c r="J71" s="27"/>
-      <c r="K71" s="27"/>
-      <c r="L71" s="27"/>
-      <c r="M71" s="27"/>
-      <c r="N71" s="27"/>
-      <c r="O71" s="27"/>
-    </row>
-    <row r="72" s="19" customFormat="1" ht="17.6" spans="6:15">
-      <c r="F72" s="27"/>
-      <c r="G72" s="28"/>
-      <c r="H72" s="27"/>
-      <c r="I72" s="27"/>
-      <c r="J72" s="27"/>
-      <c r="K72" s="27"/>
-      <c r="L72" s="27"/>
-      <c r="M72" s="27"/>
-      <c r="N72" s="27"/>
-      <c r="O72" s="27"/>
-    </row>
-    <row r="73" s="19" customFormat="1" ht="17.6" spans="6:15">
-      <c r="F73" s="27"/>
-      <c r="G73" s="28"/>
-      <c r="H73" s="27"/>
-      <c r="I73" s="27"/>
-      <c r="J73" s="27"/>
-      <c r="K73" s="27"/>
-      <c r="L73" s="27"/>
-      <c r="M73" s="27"/>
-      <c r="N73" s="27"/>
-      <c r="O73" s="27"/>
-    </row>
-    <row r="74" s="19" customFormat="1" ht="17.6" spans="6:15">
-      <c r="F74" s="27"/>
-      <c r="G74" s="28"/>
-      <c r="H74" s="27"/>
-      <c r="I74" s="27"/>
-      <c r="J74" s="27"/>
-      <c r="K74" s="27"/>
-      <c r="L74" s="27"/>
-      <c r="M74" s="27"/>
-      <c r="N74" s="27"/>
-      <c r="O74" s="27"/>
+      <c r="F68" s="44"/>
+      <c r="G68" s="44"/>
+      <c r="H68" s="44"/>
+      <c r="I68" s="44"/>
+      <c r="J68" s="44"/>
+      <c r="K68" s="44"/>
+      <c r="L68" s="44"/>
+      <c r="M68" s="44"/>
+      <c r="N68" s="44"/>
+      <c r="O68" s="44"/>
+    </row>
+    <row r="69" s="25" customFormat="1" ht="17.6" spans="6:15">
+      <c r="F69" s="37"/>
+      <c r="G69" s="38"/>
+      <c r="H69" s="37"/>
+      <c r="I69" s="37"/>
+      <c r="J69" s="37"/>
+      <c r="K69" s="37"/>
+      <c r="L69" s="37"/>
+      <c r="M69" s="37"/>
+      <c r="N69" s="37"/>
+      <c r="O69" s="37"/>
+    </row>
+    <row r="70" s="25" customFormat="1" ht="17.6" spans="6:15">
+      <c r="F70" s="37"/>
+      <c r="G70" s="38"/>
+      <c r="H70" s="37"/>
+      <c r="I70" s="37"/>
+      <c r="J70" s="37"/>
+      <c r="K70" s="37"/>
+      <c r="L70" s="37"/>
+      <c r="M70" s="37"/>
+      <c r="N70" s="37"/>
+      <c r="O70" s="37"/>
+    </row>
+    <row r="71" s="25" customFormat="1" ht="17.6" spans="6:15">
+      <c r="F71" s="37"/>
+      <c r="G71" s="38"/>
+      <c r="H71" s="37"/>
+      <c r="I71" s="37"/>
+      <c r="J71" s="37"/>
+      <c r="K71" s="37"/>
+      <c r="L71" s="37"/>
+      <c r="M71" s="37"/>
+      <c r="N71" s="37"/>
+      <c r="O71" s="37"/>
+    </row>
+    <row r="72" s="25" customFormat="1" ht="17.6" spans="6:15">
+      <c r="F72" s="37"/>
+      <c r="G72" s="38"/>
+      <c r="H72" s="37"/>
+      <c r="I72" s="37"/>
+      <c r="J72" s="37"/>
+      <c r="K72" s="37"/>
+      <c r="L72" s="37"/>
+      <c r="M72" s="37"/>
+      <c r="N72" s="37"/>
+      <c r="O72" s="37"/>
+    </row>
+    <row r="73" s="25" customFormat="1" ht="17.6" spans="6:15">
+      <c r="F73" s="37"/>
+      <c r="G73" s="38"/>
+      <c r="H73" s="37"/>
+      <c r="I73" s="37"/>
+      <c r="J73" s="37"/>
+      <c r="K73" s="37"/>
+      <c r="L73" s="37"/>
+      <c r="M73" s="37"/>
+      <c r="N73" s="37"/>
+      <c r="O73" s="37"/>
+    </row>
+    <row r="74" s="25" customFormat="1" ht="17.6" spans="6:15">
+      <c r="F74" s="37"/>
+      <c r="G74" s="38"/>
+      <c r="H74" s="37"/>
+      <c r="I74" s="37"/>
+      <c r="J74" s="37"/>
+      <c r="K74" s="37"/>
+      <c r="L74" s="37"/>
+      <c r="M74" s="37"/>
+      <c r="N74" s="37"/>
+      <c r="O74" s="37"/>
     </row>
     <row r="75" ht="17.6" spans="6:15">
-      <c r="F75" s="37"/>
-      <c r="G75" s="37"/>
-      <c r="H75" s="37"/>
-      <c r="I75" s="37"/>
-      <c r="J75" s="37"/>
-      <c r="K75" s="37"/>
-      <c r="L75" s="37"/>
-      <c r="M75" s="37"/>
-      <c r="N75" s="37"/>
-      <c r="O75" s="37"/>
+      <c r="F75" s="45"/>
+      <c r="G75" s="45"/>
+      <c r="H75" s="45"/>
+      <c r="I75" s="45"/>
+      <c r="J75" s="45"/>
+      <c r="K75" s="45"/>
+      <c r="L75" s="45"/>
+      <c r="M75" s="45"/>
+      <c r="N75" s="45"/>
+      <c r="O75" s="45"/>
     </row>
     <row r="76" ht="17.6" spans="6:15">
-      <c r="F76" s="37"/>
-      <c r="G76" s="37"/>
-      <c r="H76" s="37"/>
-      <c r="I76" s="37"/>
-      <c r="J76" s="37"/>
-      <c r="K76" s="37"/>
-      <c r="L76" s="37"/>
-      <c r="M76" s="37"/>
-      <c r="N76" s="37"/>
-      <c r="O76" s="37"/>
+      <c r="F76" s="45"/>
+      <c r="G76" s="45"/>
+      <c r="H76" s="45"/>
+      <c r="I76" s="45"/>
+      <c r="J76" s="45"/>
+      <c r="K76" s="45"/>
+      <c r="L76" s="45"/>
+      <c r="M76" s="45"/>
+      <c r="N76" s="45"/>
+      <c r="O76" s="45"/>
     </row>
     <row r="77" ht="17.6" spans="6:15">
-      <c r="F77" s="37"/>
-      <c r="G77" s="37"/>
-      <c r="H77" s="37"/>
-      <c r="I77" s="37"/>
-      <c r="J77" s="37"/>
-      <c r="K77" s="37"/>
-      <c r="L77" s="37"/>
-      <c r="M77" s="37"/>
-      <c r="N77" s="37"/>
-      <c r="O77" s="37"/>
+      <c r="F77" s="45"/>
+      <c r="G77" s="45"/>
+      <c r="H77" s="45"/>
+      <c r="I77" s="45"/>
+      <c r="J77" s="45"/>
+      <c r="K77" s="45"/>
+      <c r="L77" s="45"/>
+      <c r="M77" s="45"/>
+      <c r="N77" s="45"/>
+      <c r="O77" s="45"/>
     </row>
     <row r="78" ht="17.6" spans="6:15">
-      <c r="F78" s="37"/>
-      <c r="G78" s="37"/>
-      <c r="H78" s="37"/>
-      <c r="I78" s="37"/>
-      <c r="J78" s="37"/>
-      <c r="K78" s="37"/>
-      <c r="L78" s="37"/>
-      <c r="M78" s="37"/>
-      <c r="N78" s="37"/>
-      <c r="O78" s="37"/>
+      <c r="F78" s="45"/>
+      <c r="G78" s="45"/>
+      <c r="H78" s="45"/>
+      <c r="I78" s="45"/>
+      <c r="J78" s="45"/>
+      <c r="K78" s="45"/>
+      <c r="L78" s="45"/>
+      <c r="M78" s="45"/>
+      <c r="N78" s="45"/>
+      <c r="O78" s="45"/>
     </row>
     <row r="79" ht="17.6" spans="6:15">
-      <c r="F79" s="37"/>
-      <c r="G79" s="38"/>
-      <c r="H79" s="37"/>
-      <c r="I79" s="37"/>
-      <c r="J79" s="37"/>
-      <c r="K79" s="37"/>
-      <c r="L79" s="37"/>
-      <c r="M79" s="37"/>
-      <c r="N79" s="37"/>
-      <c r="O79" s="37"/>
+      <c r="F79" s="45"/>
+      <c r="G79" s="46"/>
+      <c r="H79" s="45"/>
+      <c r="I79" s="45"/>
+      <c r="J79" s="45"/>
+      <c r="K79" s="45"/>
+      <c r="L79" s="45"/>
+      <c r="M79" s="45"/>
+      <c r="N79" s="45"/>
+      <c r="O79" s="45"/>
     </row>
     <row r="80" ht="17.6" spans="6:15">
-      <c r="F80" s="37"/>
-      <c r="G80" s="37"/>
-      <c r="H80" s="37"/>
-      <c r="J80" s="37"/>
-      <c r="K80" s="37"/>
-      <c r="L80" s="37"/>
-      <c r="M80" s="37"/>
-      <c r="O80" s="37"/>
+      <c r="F80" s="45"/>
+      <c r="G80" s="45"/>
+      <c r="H80" s="45"/>
+      <c r="J80" s="45"/>
+      <c r="K80" s="45"/>
+      <c r="L80" s="45"/>
+      <c r="M80" s="45"/>
+      <c r="O80" s="45"/>
     </row>
     <row r="81" ht="17.6" spans="6:15">
-      <c r="F81" s="37"/>
-      <c r="G81" s="37"/>
-      <c r="H81" s="37"/>
-      <c r="I81" s="37"/>
-      <c r="J81" s="37"/>
-      <c r="K81" s="37"/>
-      <c r="L81" s="37"/>
-      <c r="M81" s="37"/>
-      <c r="N81" s="37"/>
-      <c r="O81" s="37"/>
+      <c r="F81" s="45"/>
+      <c r="G81" s="45"/>
+      <c r="H81" s="45"/>
+      <c r="I81" s="45"/>
+      <c r="J81" s="45"/>
+      <c r="K81" s="45"/>
+      <c r="L81" s="45"/>
+      <c r="M81" s="45"/>
+      <c r="N81" s="45"/>
+      <c r="O81" s="45"/>
     </row>
   </sheetData>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -4434,23 +5302,23 @@
   </cols>
   <sheetData>
     <row r="7" ht="12.85" customHeight="1" spans="4:9">
-      <c r="D7" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="H7" s="11" t="s">
+      <c r="D7" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="H7" s="16" t="s">
         <v>11</v>
       </c>
       <c r="I7" t="s">
-        <v>109</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -4484,17 +5352,17 @@
   </cols>
   <sheetData>
     <row r="7" ht="15.2" spans="4:7">
-      <c r="D7" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>108</v>
+      <c r="D7" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -4512,8 +5380,8 @@
   <sheetPr/>
   <dimension ref="D6:I75"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8:H35"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="D17" workbookViewId="0">
+      <selection activeCell="K39" sqref="K39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -4530,420 +5398,615 @@
     <row r="6" ht="14.75"/>
     <row r="7" ht="19" customHeight="1" spans="4:9">
       <c r="D7" s="4" t="s">
-        <v>112</v>
+        <v>163</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="I7" s="16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" s="3" customFormat="1" spans="6:9">
+      <c r="F8" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" s="3" customFormat="1" spans="6:9">
+      <c r="F9" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" s="3" customFormat="1" spans="6:9">
+      <c r="F10" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" s="3" customFormat="1" spans="6:9">
+      <c r="F11" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I11" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" s="3" customFormat="1" spans="6:9">
+      <c r="F12" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" s="3" customFormat="1" spans="6:9">
+      <c r="F13" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I13" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" s="3" customFormat="1" spans="6:9">
+      <c r="F14" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I14" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" s="3" customFormat="1" spans="6:9">
+      <c r="F15" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="G7" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="I7" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" s="3" customFormat="1" spans="6:8">
-      <c r="F8" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="H8" s="3" t="s">
+      <c r="H15" s="7" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="9" s="3" customFormat="1" spans="6:8">
-      <c r="F9" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" s="3" customFormat="1" spans="6:8">
-      <c r="F10" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" s="3" customFormat="1" spans="6:8">
-      <c r="F11" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" s="3" customFormat="1" spans="6:8">
-      <c r="F12" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" s="3" customFormat="1" spans="6:8">
-      <c r="F13" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" s="3" customFormat="1" spans="6:8">
-      <c r="F14" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" s="3" customFormat="1" spans="6:8">
-      <c r="F15" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" s="3" customFormat="1" spans="6:8">
+      <c r="I15" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" s="3" customFormat="1" spans="6:9">
       <c r="F16" s="7" t="s">
-        <v>116</v>
+        <v>167</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="17" s="3" customFormat="1" spans="6:8">
+        <v>168</v>
+      </c>
+      <c r="I16" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" s="3" customFormat="1" spans="6:9">
       <c r="F17" s="7" t="s">
-        <v>116</v>
+        <v>167</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="18" s="3" customFormat="1" spans="6:8">
+        <v>168</v>
+      </c>
+      <c r="I17" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" s="3" customFormat="1" spans="6:9">
       <c r="F18" s="7" t="s">
-        <v>116</v>
+        <v>167</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="19" s="3" customFormat="1" spans="6:8">
+        <v>168</v>
+      </c>
+      <c r="I18" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" s="3" customFormat="1" spans="6:9">
       <c r="F19" s="7" t="s">
-        <v>116</v>
+        <v>167</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="20" s="3" customFormat="1" spans="6:8">
+        <v>168</v>
+      </c>
+      <c r="I19" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" s="3" customFormat="1" spans="6:9">
       <c r="F20" s="7" t="s">
-        <v>116</v>
+        <v>167</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="21" s="3" customFormat="1" spans="6:8">
+        <v>168</v>
+      </c>
+      <c r="I20" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" s="3" customFormat="1" spans="6:9">
       <c r="F21" s="7" t="s">
-        <v>116</v>
+        <v>167</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="22" s="3" customFormat="1" spans="6:8">
+        <v>168</v>
+      </c>
+      <c r="I21" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" s="3" customFormat="1" spans="6:9">
       <c r="F22" s="7" t="s">
-        <v>116</v>
+        <v>167</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="23" s="3" customFormat="1" spans="6:8">
+        <v>168</v>
+      </c>
+      <c r="I22" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" s="3" customFormat="1" spans="6:9">
       <c r="F23" s="7" t="s">
-        <v>116</v>
+        <v>167</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="24" s="3" customFormat="1" spans="6:8">
+        <v>168</v>
+      </c>
+      <c r="I23" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" s="3" customFormat="1" spans="6:9">
       <c r="F24" s="7" t="s">
-        <v>118</v>
+        <v>169</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="25" s="3" customFormat="1" spans="6:8">
+        <v>168</v>
+      </c>
+      <c r="I24" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" s="3" customFormat="1" spans="6:9">
       <c r="F25" s="7" t="s">
-        <v>118</v>
+        <v>169</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="26" s="3" customFormat="1" spans="6:8">
+        <v>168</v>
+      </c>
+      <c r="I25" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" s="3" customFormat="1" spans="6:9">
       <c r="F26" s="7" t="s">
-        <v>118</v>
+        <v>169</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="27" s="3" customFormat="1" spans="6:8">
+        <v>168</v>
+      </c>
+      <c r="I26" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" s="3" customFormat="1" spans="6:9">
       <c r="F27" s="7" t="s">
-        <v>118</v>
+        <v>169</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="28" s="3" customFormat="1" spans="6:8">
+        <v>168</v>
+      </c>
+      <c r="I27" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" s="3" customFormat="1" spans="6:9">
       <c r="F28" s="7" t="s">
-        <v>118</v>
+        <v>169</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="29" s="3" customFormat="1" spans="6:8">
+        <v>168</v>
+      </c>
+      <c r="I28" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" s="3" customFormat="1" spans="6:9">
       <c r="F29" s="7" t="s">
-        <v>118</v>
+        <v>169</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="30" s="3" customFormat="1" spans="6:8">
+        <v>168</v>
+      </c>
+      <c r="I29" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" s="3" customFormat="1" spans="6:9">
       <c r="F30" s="7" t="s">
-        <v>118</v>
+        <v>169</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="31" s="3" customFormat="1" spans="6:8">
+        <v>168</v>
+      </c>
+      <c r="I30" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" s="3" customFormat="1" spans="6:9">
       <c r="F31" s="7" t="s">
-        <v>118</v>
+        <v>169</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>117</v>
+        <v>168</v>
+      </c>
+      <c r="I31" s="7">
+        <v>1</v>
       </c>
     </row>
     <row r="32" s="3" customFormat="1" ht="12.85" customHeight="1" spans="4:9">
       <c r="D32" s="5"/>
       <c r="E32" s="8"/>
-      <c r="F32" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="G32" s="9" t="s">
-        <v>98</v>
+      <c r="F32" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>119</v>
       </c>
       <c r="H32" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="I32" s="8"/>
+      <c r="I32" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="33" s="3" customFormat="1" ht="12.85" customHeight="1" spans="4:9">
       <c r="D33" s="5"/>
       <c r="E33" s="8"/>
-      <c r="F33" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="G33" s="9" t="s">
-        <v>104</v>
+      <c r="F33" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>125</v>
       </c>
       <c r="H33" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="I33" s="8"/>
+      <c r="I33" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="34" s="3" customFormat="1" ht="12.85" customHeight="1" spans="4:9">
       <c r="D34" s="5"/>
       <c r="E34" s="8"/>
-      <c r="F34" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="G34" s="9" t="s">
-        <v>98</v>
+      <c r="F34" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>119</v>
       </c>
       <c r="H34" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="I34" s="8"/>
+      <c r="I34" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="35" s="3" customFormat="1" ht="12.85" customHeight="1" spans="4:9">
       <c r="D35" s="5"/>
       <c r="E35" s="8"/>
-      <c r="F35" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="G35" s="9" t="s">
-        <v>104</v>
+      <c r="F35" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>125</v>
       </c>
       <c r="H35" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="I35" s="8"/>
-    </row>
-    <row r="36" s="3" customFormat="1" spans="6:8">
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-    </row>
-    <row r="37" spans="6:8">
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-    </row>
-    <row r="38" spans="6:8">
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6"/>
-    </row>
-    <row r="39" spans="6:8">
-      <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
-      <c r="H39" s="6"/>
-    </row>
-    <row r="40" spans="6:8">
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="6"/>
-    </row>
-    <row r="41" spans="6:8">
-      <c r="F41" s="6"/>
-      <c r="G41" s="6"/>
-      <c r="H41" s="6"/>
-    </row>
-    <row r="42" spans="6:8">
-      <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
-      <c r="H42" s="6"/>
-    </row>
-    <row r="43" spans="6:8">
-      <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
-      <c r="H43" s="6"/>
-    </row>
-    <row r="44" spans="6:8">
-      <c r="F44" s="6"/>
-      <c r="G44" s="6"/>
-      <c r="H44" s="6"/>
-    </row>
-    <row r="45" spans="6:8">
-      <c r="F45" s="6"/>
-      <c r="G45" s="6"/>
-      <c r="H45" s="6"/>
-    </row>
-    <row r="46" spans="6:8">
-      <c r="F46" s="6"/>
-      <c r="G46" s="6"/>
-      <c r="H46" s="6"/>
-    </row>
-    <row r="47" spans="6:8">
-      <c r="F47" s="6"/>
-      <c r="G47" s="6"/>
-      <c r="H47" s="6"/>
-    </row>
-    <row r="48" spans="7:8">
-      <c r="G48" s="6"/>
-      <c r="H48" s="6"/>
-    </row>
-    <row r="49" spans="6:8">
-      <c r="F49" s="10"/>
-      <c r="G49" s="6"/>
-      <c r="H49" s="6"/>
-    </row>
-    <row r="50" spans="7:8">
-      <c r="G50" s="6"/>
-      <c r="H50" s="6"/>
-    </row>
-    <row r="51" spans="7:8">
-      <c r="G51" s="6"/>
-      <c r="H51" s="6"/>
+      <c r="I35" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" s="3" customFormat="1" spans="6:9">
+      <c r="F36" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="G36" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="H36" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="I36" s="10"/>
+    </row>
+    <row r="37" spans="6:9">
+      <c r="F37" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="G37" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="H37" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="I37" s="11"/>
+    </row>
+    <row r="38" spans="6:9">
+      <c r="F38" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="G38" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="H38" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="I38" s="11"/>
+    </row>
+    <row r="39" spans="6:9">
+      <c r="F39" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="G39" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="H39" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="I39" s="11"/>
+    </row>
+    <row r="40" spans="6:9">
+      <c r="F40" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="G40" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="H40" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="I40" s="10"/>
+    </row>
+    <row r="41" spans="6:9">
+      <c r="F41" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="G41" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="H41" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="I41" s="11"/>
+    </row>
+    <row r="42" spans="6:9">
+      <c r="F42" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="G42" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="H42" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="I42" s="11"/>
+    </row>
+    <row r="43" spans="6:9">
+      <c r="F43" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="G43" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="H43" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="I43" s="11"/>
+    </row>
+    <row r="44" spans="6:9">
+      <c r="F44" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="G44" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="H44" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="I44" s="10"/>
+    </row>
+    <row r="45" spans="6:9">
+      <c r="F45" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="G45" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="H45" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="I45" s="11"/>
+    </row>
+    <row r="46" spans="6:9">
+      <c r="F46" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="G46" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="H46" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="I46" s="11"/>
+    </row>
+    <row r="47" spans="6:9">
+      <c r="F47" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="G47" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="H47" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="I47" s="11"/>
+    </row>
+    <row r="48" ht="15.2" spans="6:9">
+      <c r="F48" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="G48" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="H48" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="I48" s="17"/>
+    </row>
+    <row r="49" spans="6:9">
+      <c r="F49" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="G49" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="H49" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="I49" s="14"/>
+    </row>
+    <row r="50" ht="15.2" spans="6:9">
+      <c r="F50" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="G50" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="H50" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="I50" s="17"/>
+    </row>
+    <row r="51" spans="6:9">
+      <c r="F51" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="G51" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="H51" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="I51" s="14"/>
     </row>
     <row r="52" spans="4:8">
       <c r="D52" s="6"/>
@@ -5007,7 +6070,7 @@
       <c r="H63" s="6"/>
     </row>
     <row r="64" spans="6:8">
-      <c r="F64" s="10"/>
+      <c r="F64" s="15"/>
       <c r="G64" s="6"/>
       <c r="H64" s="6"/>
     </row>
@@ -5083,7 +6146,7 @@
   <sheetData>
     <row r="7" spans="4:11">
       <c r="D7" t="s">
-        <v>119</v>
+        <v>170</v>
       </c>
       <c r="E7" t="s">
         <v>1</v>
@@ -5098,13 +6161,13 @@
         <v>5</v>
       </c>
       <c r="I7" t="s">
-        <v>120</v>
+        <v>171</v>
       </c>
       <c r="J7" t="s">
-        <v>121</v>
+        <v>172</v>
       </c>
       <c r="K7" t="s">
-        <v>122</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -5133,22 +6196,22 @@
   <sheetData>
     <row r="7" spans="4:9">
       <c r="D7" t="s">
-        <v>123</v>
+        <v>174</v>
       </c>
       <c r="E7" t="s">
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>124</v>
+        <v>175</v>
       </c>
       <c r="G7" t="s">
-        <v>125</v>
+        <v>176</v>
       </c>
       <c r="H7" t="s">
-        <v>126</v>
+        <v>177</v>
       </c>
       <c r="I7" t="s">
-        <v>127</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -5180,71 +6243,71 @@
   <sheetData>
     <row r="7" spans="4:12">
       <c r="D7" t="s">
-        <v>128</v>
+        <v>179</v>
       </c>
       <c r="E7" t="s">
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>124</v>
+        <v>175</v>
       </c>
       <c r="G7" t="s">
-        <v>129</v>
+        <v>180</v>
       </c>
       <c r="H7" t="s">
-        <v>130</v>
+        <v>181</v>
       </c>
       <c r="I7" t="s">
-        <v>131</v>
+        <v>182</v>
       </c>
       <c r="J7" t="s">
-        <v>132</v>
+        <v>183</v>
       </c>
       <c r="K7" t="s">
-        <v>133</v>
+        <v>184</v>
       </c>
       <c r="L7" t="s">
-        <v>134</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="6:11">
       <c r="F8" t="s">
-        <v>135</v>
+        <v>186</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="H8" t="s">
-        <v>136</v>
+        <v>187</v>
       </c>
       <c r="I8" t="s">
-        <v>137</v>
+        <v>188</v>
       </c>
       <c r="J8" t="s">
-        <v>138</v>
+        <v>189</v>
       </c>
       <c r="K8" t="s">
-        <v>139</v>
+        <v>190</v>
       </c>
     </row>
     <row r="9" spans="6:12">
       <c r="F9" t="s">
-        <v>140</v>
+        <v>191</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>141</v>
+        <v>192</v>
       </c>
       <c r="I9" t="s">
-        <v>142</v>
+        <v>193</v>
       </c>
       <c r="J9" t="s">
-        <v>138</v>
+        <v>189</v>
       </c>
       <c r="K9" t="s">
-        <v>143</v>
+        <v>194</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -5277,7 +6340,7 @@
   <sheetData>
     <row r="7" spans="4:9">
       <c r="D7" s="2" t="s">
-        <v>144</v>
+        <v>195</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>1</v>
@@ -5289,113 +6352,113 @@
         <v>6</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>145</v>
+        <v>196</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>146</v>
+        <v>197</v>
       </c>
     </row>
     <row r="8" spans="4:9">
       <c r="D8" s="2"/>
       <c r="E8" s="1" t="s">
-        <v>147</v>
+        <v>198</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>147</v>
+        <v>198</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>148</v>
+        <v>199</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>148</v>
+        <v>199</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>148</v>
+        <v>199</v>
       </c>
     </row>
     <row r="9" spans="5:9">
       <c r="E9" s="1" t="s">
-        <v>149</v>
+        <v>200</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>149</v>
+        <v>200</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>150</v>
+        <v>201</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>150</v>
+        <v>201</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>150</v>
+        <v>201</v>
       </c>
     </row>
     <row r="10" spans="5:9">
       <c r="E10" s="1" t="s">
-        <v>151</v>
+        <v>202</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>151</v>
+        <v>202</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>152</v>
+        <v>203</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>152</v>
+        <v>203</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>152</v>
+        <v>203</v>
       </c>
     </row>
     <row r="11" spans="5:9">
       <c r="E11" s="1" t="s">
-        <v>153</v>
+        <v>204</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>153</v>
+        <v>204</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>154</v>
+        <v>205</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>154</v>
+        <v>205</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>154</v>
+        <v>205</v>
       </c>
     </row>
     <row r="12" spans="5:9">
       <c r="E12" s="1" t="s">
-        <v>155</v>
+        <v>206</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>155</v>
+        <v>206</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>156</v>
+        <v>207</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>156</v>
+        <v>207</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>156</v>
+        <v>207</v>
       </c>
     </row>
     <row r="13" spans="5:9">
       <c r="E13" s="1" t="s">
-        <v>157</v>
+        <v>208</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>157</v>
+        <v>208</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>158</v>
+        <v>209</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>158</v>
+        <v>209</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>158</v>
+        <v>209</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/meta/micro-service-init-data.xlsx
+++ b/src/main/resources/script/meta/micro-service-init-data.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\RD\hrds-code-repo\src\main\resources\script\meta\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12600" tabRatio="845" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12597" tabRatio="845" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
@@ -23,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="249">
   <si>
     <t>IAM_PERMISSION</t>
   </si>
@@ -150,7 +155,7 @@
         <sz val="10"/>
         <color theme="2" tint="-0.249977111117893"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>choerodon.</t>
     </r>
@@ -159,7 +164,7 @@
         <sz val="10"/>
         <color theme="2" tint="-0.249977111117893"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>route.organization.ps-view</t>
     </r>
@@ -176,7 +181,7 @@
         <sz val="10"/>
         <color theme="2" tint="-0.249977111117893"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>choerodon.</t>
     </r>
@@ -185,7 +190,7 @@
         <sz val="10"/>
         <color theme="2" tint="-0.249977111117893"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>route.organization.operation-logs</t>
     </r>
@@ -789,19 +794,33 @@
   </si>
   <si>
     <t>移除过期成员</t>
+  </si>
+  <si>
+    <t>choerodon.route.project.doc-lib-management</t>
+    <phoneticPr fontId="48" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.route.project.doc.ps-assign</t>
+    <phoneticPr fontId="48" type="noConversion"/>
+  </si>
+  <si>
+    <t>organization</t>
+    <phoneticPr fontId="48" type="noConversion"/>
+  </si>
+  <si>
+    <t>organization</t>
+    <phoneticPr fontId="48" type="noConversion"/>
+  </si>
+  <si>
+    <t>organization</t>
+    <phoneticPr fontId="48" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="68">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="49">
     <font>
       <sz val="10"/>
       <name val="Droid Sans Fallback"/>
@@ -817,18 +836,18 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="DejaVu Sans"/>
-      <charset val="134"/>
+      <family val="3"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF494949"/>
       <name val="Tahoma"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -845,7 +864,7 @@
       <sz val="9"/>
       <color theme="2" tint="-0.249977111117893"/>
       <name val="Tahoma"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -857,7 +876,7 @@
       <sz val="9"/>
       <color theme="4" tint="-0.249977111117893"/>
       <name val="Tahoma"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -873,7 +892,7 @@
     <font>
       <sz val="10"/>
       <name val="DejaVu Sans"/>
-      <charset val="134"/>
+      <family val="3"/>
     </font>
     <font>
       <sz val="10"/>
@@ -910,13 +929,13 @@
     <font>
       <b/>
       <sz val="10"/>
-      <color theme="5" tint="0.399975585192419"/>
+      <color theme="5" tint="0.39994506668294322"/>
       <name val="Droid Sans Fallback"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
-      <color theme="5" tint="0.399975585192419"/>
+      <color theme="5" tint="0.39994506668294322"/>
       <name val="Droid Sans Fallback"/>
       <charset val="134"/>
     </font>
@@ -930,6 +949,7 @@
       <sz val="10"/>
       <color theme="2" tint="-0.249977111117893"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -944,6 +964,7 @@
       <sz val="10"/>
       <color theme="2" tint="-0.249977111117893"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -963,6 +984,7 @@
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -982,458 +1004,135 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="PingFang SC"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF5B9BD5"/>
       <name val="PingFang SC"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF5B9BD5"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFFC000"/>
       <name val="PingFang SC"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="2" tint="-0.249977111117893"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="13"/>
       <name val="PingFang SC"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF8F187C"/>
       <name val="PingFang SC"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF8F187C"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="13"/>
       <name val="Helvetica"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="2" tint="-0.249977111117893"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF00B0F0"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1456,251 +1155,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="49" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="51" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="51" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="51" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="51" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="51" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1766,61 +1223,17 @@
     <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2078,19 +1491,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:Q57"/>
   <sheetViews>
-    <sheetView zoomScale="95" zoomScaleNormal="95" topLeftCell="H3" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8:O26"/>
+    <sheetView topLeftCell="A3" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.7"/>
   <cols>
     <col min="1" max="1" width="9.125" customWidth="1"/>
     <col min="2" max="2" width="9.625" customWidth="1"/>
@@ -2110,7 +1523,7 @@
     <col min="16" max="1025" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" ht="12.85" customHeight="1" spans="4:15">
+    <row r="7" spans="4:17" ht="12.85" customHeight="1">
       <c r="D7" s="16" t="s">
         <v>0</v>
       </c>
@@ -2148,7 +1561,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" s="30" customFormat="1" ht="14.4" spans="6:17">
+    <row r="8" spans="4:17" s="30" customFormat="1">
       <c r="F8" s="7" t="s">
         <v>12</v>
       </c>
@@ -2182,7 +1595,7 @@
       <c r="P8" s="7"/>
       <c r="Q8" s="7"/>
     </row>
-    <row r="9" s="30" customFormat="1" ht="14.4" spans="6:17">
+    <row r="9" spans="4:17" s="30" customFormat="1">
       <c r="F9" s="7" t="s">
         <v>18</v>
       </c>
@@ -2216,7 +1629,7 @@
       <c r="P9" s="7"/>
       <c r="Q9" s="7"/>
     </row>
-    <row r="10" s="30" customFormat="1" ht="14.4" spans="6:17">
+    <row r="10" spans="4:17" s="30" customFormat="1">
       <c r="F10" s="7" t="s">
         <v>21</v>
       </c>
@@ -2250,7 +1663,7 @@
       <c r="P10" s="7"/>
       <c r="Q10" s="7"/>
     </row>
-    <row r="11" s="30" customFormat="1" ht="14.4" spans="6:17">
+    <row r="11" spans="4:17" s="30" customFormat="1">
       <c r="F11" s="7" t="s">
         <v>24</v>
       </c>
@@ -2284,7 +1697,7 @@
       <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
     </row>
-    <row r="12" s="30" customFormat="1" ht="14.4" spans="6:17">
+    <row r="12" spans="4:17" s="30" customFormat="1">
       <c r="F12" s="7" t="s">
         <v>28</v>
       </c>
@@ -2318,7 +1731,7 @@
       <c r="P12" s="7"/>
       <c r="Q12" s="7"/>
     </row>
-    <row r="13" s="30" customFormat="1" spans="6:17">
+    <row r="13" spans="4:17" s="30" customFormat="1">
       <c r="F13" s="7" t="s">
         <v>31</v>
       </c>
@@ -2352,7 +1765,7 @@
       <c r="P13" s="7"/>
       <c r="Q13" s="7"/>
     </row>
-    <row r="14" s="30" customFormat="1" ht="14.4" spans="6:17">
+    <row r="14" spans="4:17" s="30" customFormat="1">
       <c r="F14" s="7" t="s">
         <v>34</v>
       </c>
@@ -2386,7 +1799,7 @@
       <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
     </row>
-    <row r="15" s="30" customFormat="1" ht="14.4" spans="6:17">
+    <row r="15" spans="4:17" s="30" customFormat="1">
       <c r="F15" s="7" t="s">
         <v>37</v>
       </c>
@@ -2420,7 +1833,7 @@
       <c r="P15" s="7"/>
       <c r="Q15" s="7"/>
     </row>
-    <row r="16" s="23" customFormat="1" spans="6:17">
+    <row r="16" spans="4:17" s="23" customFormat="1" ht="13">
       <c r="F16" s="48" t="s">
         <v>40</v>
       </c>
@@ -2454,7 +1867,7 @@
       <c r="P16" s="7"/>
       <c r="Q16" s="7"/>
     </row>
-    <row r="17" s="23" customFormat="1" spans="6:17">
+    <row r="17" spans="4:17" s="23" customFormat="1" ht="13">
       <c r="F17" s="48" t="s">
         <v>43</v>
       </c>
@@ -2488,7 +1901,7 @@
       <c r="P17" s="27"/>
       <c r="Q17" s="7"/>
     </row>
-    <row r="18" ht="14.4" spans="4:17">
+    <row r="18" spans="4:17">
       <c r="D18" s="15"/>
       <c r="F18" s="30" t="s">
         <v>45</v>
@@ -2521,7 +1934,7 @@
       <c r="P18" s="7"/>
       <c r="Q18" s="7"/>
     </row>
-    <row r="19" ht="14.4" spans="4:17">
+    <row r="19" spans="4:17">
       <c r="D19" s="15"/>
       <c r="F19" s="30" t="s">
         <v>46</v>
@@ -2554,7 +1967,7 @@
       <c r="P19" s="7"/>
       <c r="Q19" s="7"/>
     </row>
-    <row r="20" ht="14.4" spans="6:17">
+    <row r="20" spans="4:17">
       <c r="F20" s="30" t="s">
         <v>48</v>
       </c>
@@ -2586,9 +1999,9 @@
       <c r="P20" s="7"/>
       <c r="Q20" s="7"/>
     </row>
-    <row r="21" s="3" customFormat="1" ht="14.4" spans="6:17">
+    <row r="21" spans="4:17" s="3" customFormat="1" ht="12.35">
       <c r="F21" s="50" t="s">
-        <v>50</v>
+        <v>244</v>
       </c>
       <c r="G21" s="50" t="s">
         <v>51</v>
@@ -2618,7 +2031,7 @@
       <c r="P21" s="7"/>
       <c r="Q21" s="7"/>
     </row>
-    <row r="22" s="3" customFormat="1" ht="14.4" spans="6:17">
+    <row r="22" spans="4:17" s="3" customFormat="1" ht="12.35">
       <c r="F22" s="50" t="s">
         <v>53</v>
       </c>
@@ -2650,7 +2063,7 @@
       <c r="P22" s="7"/>
       <c r="Q22" s="7"/>
     </row>
-    <row r="23" s="3" customFormat="1" ht="14.4" spans="6:17">
+    <row r="23" spans="4:17" s="3" customFormat="1" ht="12.35">
       <c r="F23" s="50" t="s">
         <v>56</v>
       </c>
@@ -2682,7 +2095,7 @@
       <c r="P23" s="27"/>
       <c r="Q23" s="7"/>
     </row>
-    <row r="24" s="3" customFormat="1" ht="14.4" spans="6:17">
+    <row r="24" spans="4:17" s="3" customFormat="1" ht="12.35">
       <c r="F24" s="50" t="s">
         <v>59</v>
       </c>
@@ -2714,7 +2127,7 @@
       <c r="P24" s="43"/>
       <c r="Q24" s="7"/>
     </row>
-    <row r="25" s="3" customFormat="1" ht="14.4" spans="6:17">
+    <row r="25" spans="4:17" s="3" customFormat="1" ht="12.35">
       <c r="F25" s="51" t="s">
         <v>62</v>
       </c>
@@ -2746,7 +2159,7 @@
       <c r="P25" s="27"/>
       <c r="Q25" s="7"/>
     </row>
-    <row r="26" ht="14.4" spans="4:17">
+    <row r="26" spans="4:17" ht="12.35">
       <c r="D26" s="15"/>
       <c r="F26" s="51" t="s">
         <v>65</v>
@@ -2775,11 +2188,10 @@
       <c r="N26" s="51">
         <v>0</v>
       </c>
-      <c r="O26"/>
       <c r="P26" s="43"/>
       <c r="Q26" s="7"/>
     </row>
-    <row r="27" spans="6:17">
+    <row r="27" spans="4:17">
       <c r="F27" s="30"/>
       <c r="G27" s="30"/>
       <c r="H27" s="30"/>
@@ -2793,7 +2205,7 @@
       <c r="P27" s="30"/>
       <c r="Q27" s="30"/>
     </row>
-    <row r="28" spans="6:17">
+    <row r="28" spans="4:17">
       <c r="F28" s="30"/>
       <c r="G28" s="30"/>
       <c r="H28" s="30"/>
@@ -2807,7 +2219,7 @@
       <c r="P28" s="30"/>
       <c r="Q28" s="30"/>
     </row>
-    <row r="29" spans="6:17">
+    <row r="29" spans="4:17">
       <c r="F29" s="30"/>
       <c r="G29" s="30"/>
       <c r="H29" s="30"/>
@@ -2821,7 +2233,7 @@
       <c r="P29" s="30"/>
       <c r="Q29" s="30"/>
     </row>
-    <row r="30" spans="6:17">
+    <row r="30" spans="4:17">
       <c r="F30" s="31"/>
       <c r="G30" s="31"/>
       <c r="H30" s="31"/>
@@ -2835,7 +2247,7 @@
       <c r="P30" s="31"/>
       <c r="Q30" s="31"/>
     </row>
-    <row r="31" ht="14.4" spans="6:17">
+    <row r="31" spans="4:17">
       <c r="F31" s="32"/>
       <c r="G31" s="33"/>
       <c r="H31" s="32"/>
@@ -2849,7 +2261,7 @@
       <c r="P31" s="32"/>
       <c r="Q31" s="32"/>
     </row>
-    <row r="32" ht="14.4" spans="6:17">
+    <row r="32" spans="4:17">
       <c r="F32" s="32"/>
       <c r="G32" s="33"/>
       <c r="H32" s="32"/>
@@ -2863,7 +2275,7 @@
       <c r="P32" s="32"/>
       <c r="Q32" s="32"/>
     </row>
-    <row r="33" ht="14.4" spans="6:17">
+    <row r="33" spans="6:17">
       <c r="F33" s="32"/>
       <c r="G33" s="33"/>
       <c r="H33" s="32"/>
@@ -2877,7 +2289,7 @@
       <c r="P33" s="32"/>
       <c r="Q33" s="32"/>
     </row>
-    <row r="34" ht="14.4" spans="6:17">
+    <row r="34" spans="6:17">
       <c r="F34" s="32"/>
       <c r="G34" s="33"/>
       <c r="H34" s="32"/>
@@ -2905,7 +2317,7 @@
       <c r="P35" s="34"/>
       <c r="Q35" s="34"/>
     </row>
-    <row r="36" ht="14.4" spans="6:17">
+    <row r="36" spans="6:17">
       <c r="F36" s="35"/>
       <c r="G36" s="36"/>
       <c r="H36" s="35"/>
@@ -2919,7 +2331,7 @@
       <c r="P36" s="35"/>
       <c r="Q36" s="35"/>
     </row>
-    <row r="37" ht="14.4" spans="6:17">
+    <row r="37" spans="6:17">
       <c r="F37" s="35"/>
       <c r="G37" s="36"/>
       <c r="H37" s="35"/>
@@ -2933,7 +2345,7 @@
       <c r="P37" s="35"/>
       <c r="Q37" s="35"/>
     </row>
-    <row r="38" spans="6:14">
+    <row r="38" spans="6:17" ht="12.35">
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
       <c r="H38" s="6"/>
@@ -2944,7 +2356,7 @@
       <c r="M38" s="6"/>
       <c r="N38" s="6"/>
     </row>
-    <row r="39" spans="6:14">
+    <row r="39" spans="6:17" ht="12.35">
       <c r="F39" s="6"/>
       <c r="G39" s="6"/>
       <c r="H39" s="6"/>
@@ -2955,7 +2367,7 @@
       <c r="M39" s="6"/>
       <c r="N39" s="6"/>
     </row>
-    <row r="40" spans="6:14">
+    <row r="40" spans="6:17" ht="12.35">
       <c r="F40" s="6"/>
       <c r="G40" s="6"/>
       <c r="H40" s="6"/>
@@ -2966,7 +2378,7 @@
       <c r="M40" s="6"/>
       <c r="N40" s="6"/>
     </row>
-    <row r="41" spans="6:14">
+    <row r="41" spans="6:17" ht="12.35">
       <c r="F41" s="6"/>
       <c r="G41" s="6"/>
       <c r="H41" s="6"/>
@@ -2977,7 +2389,7 @@
       <c r="M41" s="6"/>
       <c r="N41" s="6"/>
     </row>
-    <row r="42" spans="6:14">
+    <row r="42" spans="6:17" ht="12.35">
       <c r="F42" s="6"/>
       <c r="G42" s="6"/>
       <c r="H42" s="6"/>
@@ -2988,7 +2400,7 @@
       <c r="M42" s="6"/>
       <c r="N42" s="6"/>
     </row>
-    <row r="43" spans="6:14">
+    <row r="43" spans="6:17" ht="12.35">
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
       <c r="H43" s="6"/>
@@ -2999,7 +2411,7 @@
       <c r="M43" s="6"/>
       <c r="N43" s="6"/>
     </row>
-    <row r="44" spans="6:14">
+    <row r="44" spans="6:17" ht="12.35">
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
       <c r="H44" s="6"/>
@@ -3010,7 +2422,7 @@
       <c r="M44" s="6"/>
       <c r="N44" s="6"/>
     </row>
-    <row r="45" spans="6:14">
+    <row r="45" spans="6:17" ht="12.35">
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
       <c r="H45" s="6"/>
@@ -3021,7 +2433,7 @@
       <c r="M45" s="6"/>
       <c r="N45" s="6"/>
     </row>
-    <row r="46" spans="6:14">
+    <row r="46" spans="6:17" ht="12.35">
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
       <c r="H46" s="6"/>
@@ -3032,7 +2444,7 @@
       <c r="M46" s="6"/>
       <c r="N46" s="6"/>
     </row>
-    <row r="47" spans="6:14">
+    <row r="47" spans="6:17" ht="12.35">
       <c r="F47" s="6"/>
       <c r="G47" s="6"/>
       <c r="H47" s="6"/>
@@ -3043,7 +2455,7 @@
       <c r="M47" s="6"/>
       <c r="N47" s="6"/>
     </row>
-    <row r="48" spans="6:14">
+    <row r="48" spans="6:17" ht="12.35">
       <c r="F48" s="6"/>
       <c r="G48" s="6"/>
       <c r="H48" s="6"/>
@@ -3054,7 +2466,7 @@
       <c r="M48" s="6"/>
       <c r="N48" s="6"/>
     </row>
-    <row r="49" ht="14.4" spans="6:14">
+    <row r="49" spans="6:14" ht="12.35">
       <c r="F49" s="6"/>
       <c r="G49" s="6"/>
       <c r="H49" s="6"/>
@@ -3065,7 +2477,7 @@
       <c r="M49" s="6"/>
       <c r="N49" s="6"/>
     </row>
-    <row r="50" spans="6:14">
+    <row r="50" spans="6:14" ht="12.35">
       <c r="F50" s="6"/>
       <c r="G50" s="6"/>
       <c r="H50" s="6"/>
@@ -3076,7 +2488,7 @@
       <c r="M50" s="6"/>
       <c r="N50" s="6"/>
     </row>
-    <row r="51" spans="6:14">
+    <row r="51" spans="6:14" ht="12.35">
       <c r="F51" s="6"/>
       <c r="G51" s="6"/>
       <c r="H51" s="6"/>
@@ -3087,7 +2499,7 @@
       <c r="M51" s="6"/>
       <c r="N51" s="6"/>
     </row>
-    <row r="52" spans="6:14">
+    <row r="52" spans="6:14" ht="12.35">
       <c r="F52" s="6"/>
       <c r="G52" s="6"/>
       <c r="H52" s="6"/>
@@ -3098,7 +2510,7 @@
       <c r="M52" s="6"/>
       <c r="N52" s="6"/>
     </row>
-    <row r="53" spans="6:13">
+    <row r="53" spans="6:14" ht="12.35">
       <c r="F53" s="6"/>
       <c r="G53" s="6"/>
       <c r="H53" s="6"/>
@@ -3108,7 +2520,7 @@
       <c r="L53" s="6"/>
       <c r="M53" s="6"/>
     </row>
-    <row r="54" s="25" customFormat="1" ht="14.4" spans="6:14">
+    <row r="54" spans="6:14" s="25" customFormat="1" ht="12.35">
       <c r="F54" s="52"/>
       <c r="G54" s="52"/>
       <c r="H54" s="52"/>
@@ -3119,7 +2531,7 @@
       <c r="M54" s="52"/>
       <c r="N54" s="52"/>
     </row>
-    <row r="55" s="25" customFormat="1" ht="14.4" spans="6:14">
+    <row r="55" spans="6:14" s="25" customFormat="1" ht="12.35">
       <c r="F55" s="52"/>
       <c r="G55" s="52"/>
       <c r="H55" s="52"/>
@@ -3130,7 +2542,7 @@
       <c r="M55" s="52"/>
       <c r="N55" s="52"/>
     </row>
-    <row r="56" s="25" customFormat="1" ht="14.4" spans="6:14">
+    <row r="56" spans="6:14" s="25" customFormat="1" ht="12.35">
       <c r="F56" s="52"/>
       <c r="G56" s="52"/>
       <c r="H56" s="52"/>
@@ -3141,7 +2553,7 @@
       <c r="M56" s="52"/>
       <c r="N56" s="52"/>
     </row>
-    <row r="57" s="25" customFormat="1" ht="14.4" spans="6:14">
+    <row r="57" spans="6:14" s="25" customFormat="1" ht="12.35">
       <c r="F57" s="52"/>
       <c r="G57" s="52"/>
       <c r="H57" s="52"/>
@@ -3153,8 +2565,9 @@
       <c r="N57" s="52"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="48" type="noConversion"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,常规"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,常规"&amp;12 Page &amp;P</oddFooter>
@@ -3163,28 +2576,27 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:J27"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.11029411764706" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="11.7"/>
   <cols>
-    <col min="4" max="4" width="22.1102941176471" customWidth="1"/>
-    <col min="5" max="5" width="13.3529411764706" customWidth="1"/>
-    <col min="6" max="6" width="18.8897058823529" customWidth="1"/>
-    <col min="7" max="8" width="63.7794117647059" customWidth="1"/>
+    <col min="4" max="4" width="22.125" customWidth="1"/>
+    <col min="5" max="5" width="13.375" customWidth="1"/>
+    <col min="6" max="6" width="18.875" customWidth="1"/>
+    <col min="7" max="8" width="63.75" customWidth="1"/>
     <col min="9" max="9" width="36" customWidth="1"/>
-    <col min="10" max="10" width="22.1102941176471" customWidth="1"/>
-    <col min="11" max="11" width="25.8897058823529" customWidth="1"/>
-    <col min="12" max="12" width="19.8897058823529" customWidth="1"/>
+    <col min="10" max="10" width="22.125" customWidth="1"/>
+    <col min="11" max="11" width="25.875" customWidth="1"/>
+    <col min="12" max="12" width="19.875" customWidth="1"/>
     <col min="13" max="13" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:10">
+    <row r="7" spans="4:10" ht="15.6">
       <c r="D7" s="1" t="s">
         <v>210</v>
       </c>
@@ -3207,7 +2619,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="8" spans="4:10">
+    <row r="8" spans="4:10" ht="15.6">
       <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
         <v>212</v>
@@ -3228,7 +2640,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="9" spans="4:10">
+    <row r="9" spans="4:10" ht="15.6">
       <c r="D9" s="1"/>
       <c r="E9" s="1" t="s">
         <v>214</v>
@@ -3249,7 +2661,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="10" spans="4:10">
+    <row r="10" spans="4:10" ht="15.6">
       <c r="D10" s="1"/>
       <c r="E10" s="1" t="s">
         <v>216</v>
@@ -3270,7 +2682,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="11" spans="4:10">
+    <row r="11" spans="4:10" ht="15.6">
       <c r="D11" s="1"/>
       <c r="E11" s="1" t="s">
         <v>218</v>
@@ -3291,7 +2703,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="12" spans="4:10">
+    <row r="12" spans="4:10" ht="15.6">
       <c r="D12" s="1"/>
       <c r="E12" s="1" t="s">
         <v>220</v>
@@ -3312,7 +2724,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="13" spans="4:10">
+    <row r="13" spans="4:10" ht="15.6">
       <c r="D13" s="1"/>
       <c r="E13" s="1" t="s">
         <v>222</v>
@@ -3333,7 +2745,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="14" spans="4:10">
+    <row r="14" spans="4:10" ht="15.6">
       <c r="D14" s="1"/>
       <c r="E14" s="1" t="s">
         <v>224</v>
@@ -3354,7 +2766,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="15" spans="4:10">
+    <row r="15" spans="4:10" ht="15.6">
       <c r="D15" s="1"/>
       <c r="E15" s="1" t="s">
         <v>226</v>
@@ -3375,7 +2787,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="16" spans="4:10">
+    <row r="16" spans="4:10" ht="15.6">
       <c r="D16" s="1"/>
       <c r="E16" s="1" t="s">
         <v>228</v>
@@ -3396,7 +2808,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="17" spans="4:10">
+    <row r="17" spans="4:10" ht="15.6">
       <c r="D17" s="1"/>
       <c r="E17" s="1" t="s">
         <v>230</v>
@@ -3417,7 +2829,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="18" spans="4:10">
+    <row r="18" spans="4:10" ht="15.6">
       <c r="D18" s="1"/>
       <c r="E18" s="1" t="s">
         <v>216</v>
@@ -3438,7 +2850,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="19" spans="4:10">
+    <row r="19" spans="4:10" ht="15.6">
       <c r="D19" s="1"/>
       <c r="E19" s="1" t="s">
         <v>218</v>
@@ -3459,7 +2871,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="20" spans="4:10">
+    <row r="20" spans="4:10" ht="15.6">
       <c r="D20" s="1"/>
       <c r="E20" s="1" t="s">
         <v>230</v>
@@ -3480,7 +2892,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="21" spans="4:10">
+    <row r="21" spans="4:10" ht="15.6">
       <c r="D21" s="1"/>
       <c r="E21" s="1" t="s">
         <v>216</v>
@@ -3501,7 +2913,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="22" spans="4:10">
+    <row r="22" spans="4:10" ht="15.6">
       <c r="D22" s="1"/>
       <c r="E22" s="1" t="s">
         <v>218</v>
@@ -3522,7 +2934,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="23" spans="4:10">
+    <row r="23" spans="4:10" ht="15.6">
       <c r="D23" s="1"/>
       <c r="E23" s="1" t="s">
         <v>234</v>
@@ -3543,7 +2955,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="24" spans="5:10">
+    <row r="24" spans="4:10" ht="15.6">
       <c r="E24" s="1" t="s">
         <v>236</v>
       </c>
@@ -3563,7 +2975,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="25" spans="5:10">
+    <row r="25" spans="4:10" ht="15.6">
       <c r="E25" s="1" t="s">
         <v>238</v>
       </c>
@@ -3583,7 +2995,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="26" spans="5:10">
+    <row r="26" spans="4:10" ht="15.6">
       <c r="E26" s="1" t="s">
         <v>240</v>
       </c>
@@ -3603,7 +3015,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="27" spans="5:10">
+    <row r="27" spans="4:10" ht="15.6">
       <c r="E27" s="1" t="s">
         <v>242</v>
       </c>
@@ -3624,22 +3036,21 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="48" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:Q81"/>
   <sheetViews>
-    <sheetView zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8:Q37"/>
+    <sheetView topLeftCell="G1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="L39" sqref="L39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.7"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="6" customWidth="1"/>
@@ -3661,7 +3072,7 @@
     <col min="18" max="1025" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" ht="12.85" customHeight="1" spans="4:17">
+    <row r="7" spans="4:17" ht="12.85" customHeight="1">
       <c r="D7" s="16" t="s">
         <v>68</v>
       </c>
@@ -3705,7 +3116,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" s="3" customFormat="1" ht="13.95" customHeight="1" spans="6:17">
+    <row r="8" spans="4:17" s="3" customFormat="1" ht="13.95" customHeight="1">
       <c r="F8" s="7" t="s">
         <v>78</v>
       </c>
@@ -3741,7 +3152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" s="3" customFormat="1" ht="13.95" customHeight="1" spans="6:17">
+    <row r="9" spans="4:17" s="3" customFormat="1" ht="13.95" customHeight="1">
       <c r="F9" s="7" t="s">
         <v>84</v>
       </c>
@@ -3777,7 +3188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" s="3" customFormat="1" spans="6:17">
+    <row r="10" spans="4:17" s="3" customFormat="1">
       <c r="F10" s="7" t="s">
         <v>88</v>
       </c>
@@ -3813,7 +3224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" s="18" customFormat="1" spans="6:17">
+    <row r="11" spans="4:17" s="18" customFormat="1">
       <c r="F11" s="7" t="s">
         <v>92</v>
       </c>
@@ -3849,7 +3260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" s="19" customFormat="1" spans="6:17">
+    <row r="12" spans="4:17" s="19" customFormat="1">
       <c r="F12" s="7" t="s">
         <v>97</v>
       </c>
@@ -3885,7 +3296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" s="19" customFormat="1" ht="14.4" spans="6:17">
+    <row r="13" spans="4:17" s="19" customFormat="1">
       <c r="F13" s="7" t="s">
         <v>100</v>
       </c>
@@ -3921,7 +3332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" s="19" customFormat="1" spans="6:17">
+    <row r="14" spans="4:17" s="19" customFormat="1">
       <c r="F14" s="7" t="s">
         <v>78</v>
       </c>
@@ -3957,7 +3368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" s="19" customFormat="1" spans="6:17">
+    <row r="15" spans="4:17" s="19" customFormat="1">
       <c r="F15" s="7" t="s">
         <v>84</v>
       </c>
@@ -3993,7 +3404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" s="3" customFormat="1" spans="6:17">
+    <row r="16" spans="4:17" s="3" customFormat="1">
       <c r="F16" s="7" t="s">
         <v>88</v>
       </c>
@@ -4029,7 +3440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" s="20" customFormat="1" spans="6:17">
+    <row r="17" spans="6:17" s="20" customFormat="1">
       <c r="F17" s="27" t="s">
         <v>105</v>
       </c>
@@ -4063,7 +3474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" s="21" customFormat="1" spans="6:17">
+    <row r="18" spans="6:17" s="21" customFormat="1">
       <c r="F18" s="7" t="s">
         <v>92</v>
       </c>
@@ -4099,7 +3510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" s="22" customFormat="1" spans="6:17">
+    <row r="19" spans="6:17" s="22" customFormat="1">
       <c r="F19" s="7" t="s">
         <v>97</v>
       </c>
@@ -4135,7 +3546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" s="23" customFormat="1" spans="6:17">
+    <row r="20" spans="6:17" s="23" customFormat="1">
       <c r="F20" s="7" t="s">
         <v>110</v>
       </c>
@@ -4171,7 +3582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" s="24" customFormat="1" spans="6:17">
+    <row r="21" spans="6:17" s="24" customFormat="1">
       <c r="F21" s="7" t="s">
         <v>113</v>
       </c>
@@ -4207,7 +3618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" s="3" customFormat="1" ht="14.4" spans="6:17">
+    <row r="22" spans="6:17" s="3" customFormat="1">
       <c r="F22" s="7" t="s">
         <v>100</v>
       </c>
@@ -4243,7 +3654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" ht="14.4" spans="6:17">
+    <row r="23" spans="6:17">
       <c r="F23" s="27" t="s">
         <v>116</v>
       </c>
@@ -4261,7 +3672,7 @@
         <v>117</v>
       </c>
       <c r="L23" s="27" t="s">
-        <v>42</v>
+        <v>246</v>
       </c>
       <c r="M23" s="27" t="s">
         <v>108</v>
@@ -4277,7 +3688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" ht="15.2" spans="6:17">
+    <row r="24" spans="6:17" ht="13">
       <c r="F24" s="29" t="s">
         <v>119</v>
       </c>
@@ -4313,7 +3724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" ht="14.4" spans="6:17">
+    <row r="25" spans="6:17">
       <c r="F25" s="27" t="s">
         <v>122</v>
       </c>
@@ -4347,7 +3758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" s="3" customFormat="1" ht="15.2" spans="6:17">
+    <row r="26" spans="6:17" s="3" customFormat="1" ht="13">
       <c r="F26" s="29" t="s">
         <v>125</v>
       </c>
@@ -4383,7 +3794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" s="3" customFormat="1" spans="6:17">
+    <row r="27" spans="6:17" s="3" customFormat="1">
       <c r="F27" s="30" t="s">
         <v>127</v>
       </c>
@@ -4417,7 +3828,7 @@
       <c r="P27" s="30"/>
       <c r="Q27" s="30"/>
     </row>
-    <row r="28" s="3" customFormat="1" spans="6:17">
+    <row r="28" spans="6:17" s="3" customFormat="1">
       <c r="F28" s="30" t="s">
         <v>129</v>
       </c>
@@ -4449,7 +3860,7 @@
       <c r="P28" s="30"/>
       <c r="Q28" s="30"/>
     </row>
-    <row r="29" s="3" customFormat="1" spans="6:17">
+    <row r="29" spans="6:17" s="3" customFormat="1">
       <c r="F29" s="30" t="s">
         <v>130</v>
       </c>
@@ -4481,7 +3892,7 @@
       <c r="P29" s="30"/>
       <c r="Q29" s="30"/>
     </row>
-    <row r="30" s="3" customFormat="1" spans="6:17">
+    <row r="30" spans="6:17" s="3" customFormat="1">
       <c r="F30" s="31" t="s">
         <v>131</v>
       </c>
@@ -4513,7 +3924,7 @@
       <c r="P30" s="31"/>
       <c r="Q30" s="31"/>
     </row>
-    <row r="31" s="3" customFormat="1" ht="14.4" spans="6:17">
+    <row r="31" spans="6:17" s="3" customFormat="1">
       <c r="F31" s="32" t="s">
         <v>135</v>
       </c>
@@ -4547,7 +3958,7 @@
       <c r="P31" s="32"/>
       <c r="Q31" s="32"/>
     </row>
-    <row r="32" s="3" customFormat="1" ht="14.4" spans="6:17">
+    <row r="32" spans="6:17" s="3" customFormat="1">
       <c r="F32" s="32" t="s">
         <v>139</v>
       </c>
@@ -4558,7 +3969,7 @@
         <v>141</v>
       </c>
       <c r="I32" s="32" t="s">
-        <v>139</v>
+        <v>245</v>
       </c>
       <c r="J32" s="32" t="s">
         <v>14</v>
@@ -4579,7 +3990,7 @@
       <c r="P32" s="32"/>
       <c r="Q32" s="32"/>
     </row>
-    <row r="33" ht="14.4" spans="4:17">
+    <row r="33" spans="4:17">
       <c r="D33" s="15"/>
       <c r="F33" s="32" t="s">
         <v>142</v>
@@ -4612,7 +4023,7 @@
       <c r="P33" s="32"/>
       <c r="Q33" s="32"/>
     </row>
-    <row r="34" ht="14.4" spans="6:17">
+    <row r="34" spans="4:17">
       <c r="F34" s="32" t="s">
         <v>145</v>
       </c>
@@ -4646,7 +4057,7 @@
       <c r="P34" s="32"/>
       <c r="Q34" s="32"/>
     </row>
-    <row r="35" spans="6:17">
+    <row r="35" spans="4:17">
       <c r="F35" s="34" t="s">
         <v>148</v>
       </c>
@@ -4664,7 +4075,7 @@
         <v>149</v>
       </c>
       <c r="L35" s="34" t="s">
-        <v>26</v>
+        <v>247</v>
       </c>
       <c r="M35" s="34" t="s">
         <v>108</v>
@@ -4678,7 +4089,7 @@
       <c r="P35" s="34"/>
       <c r="Q35" s="34"/>
     </row>
-    <row r="36" ht="14.4" spans="6:17">
+    <row r="36" spans="4:17">
       <c r="F36" s="35" t="s">
         <v>150</v>
       </c>
@@ -4698,7 +4109,7 @@
         <v>148</v>
       </c>
       <c r="L36" s="35" t="s">
-        <v>26</v>
+        <v>247</v>
       </c>
       <c r="M36" s="35" t="s">
         <v>82</v>
@@ -4712,7 +4123,7 @@
       <c r="P36" s="35"/>
       <c r="Q36" s="35"/>
     </row>
-    <row r="37" ht="14.4" spans="6:17">
+    <row r="37" spans="4:17">
       <c r="F37" s="35" t="s">
         <v>154</v>
       </c>
@@ -4732,7 +4143,7 @@
         <v>148</v>
       </c>
       <c r="L37" s="35" t="s">
-        <v>26</v>
+        <v>248</v>
       </c>
       <c r="M37" s="35" t="s">
         <v>82</v>
@@ -4746,7 +4157,7 @@
       <c r="P37" s="35"/>
       <c r="Q37" s="35"/>
     </row>
-    <row r="38" ht="17.6" spans="6:15">
+    <row r="38" spans="4:17" ht="16.25">
       <c r="F38" s="37"/>
       <c r="G38" s="37"/>
       <c r="H38" s="37"/>
@@ -4758,7 +4169,7 @@
       <c r="N38" s="37"/>
       <c r="O38" s="37"/>
     </row>
-    <row r="39" ht="17.6" spans="6:15">
+    <row r="39" spans="4:17" ht="16.25">
       <c r="F39" s="37"/>
       <c r="G39" s="37"/>
       <c r="H39" s="37"/>
@@ -4770,7 +4181,7 @@
       <c r="N39" s="37"/>
       <c r="O39" s="37"/>
     </row>
-    <row r="40" ht="17.6" spans="6:15">
+    <row r="40" spans="4:17" ht="16.25">
       <c r="F40" s="37"/>
       <c r="G40" s="37"/>
       <c r="H40" s="37"/>
@@ -4782,7 +4193,7 @@
       <c r="N40" s="37"/>
       <c r="O40" s="37"/>
     </row>
-    <row r="41" ht="17.6" spans="6:15">
+    <row r="41" spans="4:17" ht="16.25">
       <c r="F41" s="37"/>
       <c r="G41" s="37"/>
       <c r="H41" s="37"/>
@@ -4794,7 +4205,7 @@
       <c r="N41" s="37"/>
       <c r="O41" s="37"/>
     </row>
-    <row r="42" ht="17.6" spans="6:15">
+    <row r="42" spans="4:17" ht="16.25">
       <c r="F42" s="37"/>
       <c r="G42" s="37"/>
       <c r="H42" s="37"/>
@@ -4806,7 +4217,7 @@
       <c r="N42" s="37"/>
       <c r="O42" s="37"/>
     </row>
-    <row r="43" ht="17.6" spans="6:15">
+    <row r="43" spans="4:17" ht="16.25">
       <c r="F43" s="37"/>
       <c r="G43" s="37"/>
       <c r="H43" s="37"/>
@@ -4818,7 +4229,7 @@
       <c r="N43" s="37"/>
       <c r="O43" s="37"/>
     </row>
-    <row r="44" ht="17.6" spans="6:15">
+    <row r="44" spans="4:17" ht="16.25">
       <c r="F44" s="37"/>
       <c r="G44" s="37"/>
       <c r="H44" s="37"/>
@@ -4830,7 +4241,7 @@
       <c r="N44" s="37"/>
       <c r="O44" s="37"/>
     </row>
-    <row r="45" ht="17.6" spans="6:15">
+    <row r="45" spans="4:17" ht="16.25">
       <c r="F45" s="37"/>
       <c r="G45" s="37"/>
       <c r="H45" s="37"/>
@@ -4842,7 +4253,7 @@
       <c r="N45" s="37"/>
       <c r="O45" s="37"/>
     </row>
-    <row r="46" ht="17.6" spans="6:15">
+    <row r="46" spans="4:17" ht="16.25">
       <c r="F46" s="37"/>
       <c r="G46" s="37"/>
       <c r="H46" s="37"/>
@@ -4854,7 +4265,7 @@
       <c r="N46" s="37"/>
       <c r="O46" s="37"/>
     </row>
-    <row r="47" ht="17.6" spans="6:15">
+    <row r="47" spans="4:17" ht="16.899999999999999">
       <c r="F47" s="37"/>
       <c r="G47" s="38"/>
       <c r="H47" s="37"/>
@@ -4866,7 +4277,7 @@
       <c r="N47" s="37"/>
       <c r="O47" s="37"/>
     </row>
-    <row r="48" ht="17.6" spans="6:15">
+    <row r="48" spans="4:17" ht="16.25">
       <c r="F48" s="39"/>
       <c r="G48" s="39"/>
       <c r="H48" s="39"/>
@@ -4878,7 +4289,7 @@
       <c r="N48" s="39"/>
       <c r="O48" s="39"/>
     </row>
-    <row r="49" ht="17.6" spans="6:15">
+    <row r="49" spans="6:15" ht="16.25">
       <c r="F49" s="39"/>
       <c r="G49" s="39"/>
       <c r="H49" s="39"/>
@@ -4890,7 +4301,7 @@
       <c r="N49" s="39"/>
       <c r="O49" s="39"/>
     </row>
-    <row r="50" ht="17.6" spans="6:15">
+    <row r="50" spans="6:15" ht="16.25">
       <c r="F50" s="39"/>
       <c r="G50" s="39"/>
       <c r="H50" s="39"/>
@@ -4902,7 +4313,7 @@
       <c r="N50" s="39"/>
       <c r="O50" s="39"/>
     </row>
-    <row r="51" ht="17.6" spans="6:15">
+    <row r="51" spans="6:15" ht="16.899999999999999">
       <c r="F51" s="39"/>
       <c r="G51" s="40"/>
       <c r="H51" s="39"/>
@@ -4914,7 +4325,7 @@
       <c r="N51" s="39"/>
       <c r="O51" s="39"/>
     </row>
-    <row r="52" ht="17.6" spans="6:15">
+    <row r="52" spans="6:15" ht="16.25">
       <c r="F52" s="39"/>
       <c r="G52" s="39"/>
       <c r="H52" s="39"/>
@@ -4926,7 +4337,7 @@
       <c r="N52" s="39"/>
       <c r="O52" s="39"/>
     </row>
-    <row r="53" ht="17.6" spans="6:15">
+    <row r="53" spans="6:15" ht="16.899999999999999">
       <c r="F53" s="39"/>
       <c r="G53" s="40"/>
       <c r="H53" s="39"/>
@@ -4938,7 +4349,7 @@
       <c r="N53" s="39"/>
       <c r="O53" s="39"/>
     </row>
-    <row r="54" ht="17.6" spans="6:15">
+    <row r="54" spans="6:15" ht="16.25">
       <c r="F54" s="39"/>
       <c r="G54" s="39"/>
       <c r="H54" s="39"/>
@@ -4950,7 +4361,7 @@
       <c r="N54" s="39"/>
       <c r="O54" s="39"/>
     </row>
-    <row r="55" ht="17.6" spans="6:15">
+    <row r="55" spans="6:15" ht="16.25">
       <c r="F55" s="39"/>
       <c r="G55" s="39"/>
       <c r="H55" s="39"/>
@@ -4962,7 +4373,7 @@
       <c r="N55" s="39"/>
       <c r="O55" s="39"/>
     </row>
-    <row r="56" ht="17.6" spans="6:15">
+    <row r="56" spans="6:15" ht="16.899999999999999">
       <c r="F56" s="39"/>
       <c r="G56" s="40"/>
       <c r="H56" s="39"/>
@@ -4974,7 +4385,7 @@
       <c r="N56" s="39"/>
       <c r="O56" s="39"/>
     </row>
-    <row r="57" ht="17.6" spans="6:15">
+    <row r="57" spans="6:15" ht="16.25">
       <c r="F57" s="39"/>
       <c r="G57" s="39"/>
       <c r="H57" s="39"/>
@@ -4986,7 +4397,7 @@
       <c r="N57" s="39"/>
       <c r="O57" s="39"/>
     </row>
-    <row r="58" ht="17.6" spans="6:15">
+    <row r="58" spans="6:15" ht="16.25">
       <c r="F58" s="39"/>
       <c r="G58" s="39"/>
       <c r="H58" s="39"/>
@@ -4998,7 +4409,7 @@
       <c r="N58" s="39"/>
       <c r="O58" s="39"/>
     </row>
-    <row r="59" ht="17.6" spans="6:15">
+    <row r="59" spans="6:15" ht="16.25">
       <c r="F59" s="39"/>
       <c r="G59" s="39"/>
       <c r="H59" s="39"/>
@@ -5010,7 +4421,7 @@
       <c r="N59" s="39"/>
       <c r="O59" s="39"/>
     </row>
-    <row r="60" ht="17.6" spans="6:15">
+    <row r="60" spans="6:15" ht="16.25">
       <c r="F60" s="39"/>
       <c r="G60" s="39"/>
       <c r="H60" s="39"/>
@@ -5022,7 +4433,7 @@
       <c r="N60" s="39"/>
       <c r="O60" s="39"/>
     </row>
-    <row r="61" ht="17.6" spans="6:15">
+    <row r="61" spans="6:15" ht="16.25">
       <c r="F61" s="39"/>
       <c r="G61" s="39"/>
       <c r="H61" s="39"/>
@@ -5034,7 +4445,7 @@
       <c r="N61" s="39"/>
       <c r="O61" s="39"/>
     </row>
-    <row r="62" ht="17.6" spans="6:15">
+    <row r="62" spans="6:15" ht="16.25">
       <c r="F62" s="41"/>
       <c r="G62" s="41"/>
       <c r="H62" s="41"/>
@@ -5046,7 +4457,7 @@
       <c r="N62" s="41"/>
       <c r="O62" s="41"/>
     </row>
-    <row r="63" ht="17.6" spans="6:15">
+    <row r="63" spans="6:15" ht="16.25">
       <c r="F63" s="41"/>
       <c r="G63" s="41"/>
       <c r="H63" s="41"/>
@@ -5058,7 +4469,7 @@
       <c r="N63" s="41"/>
       <c r="O63" s="41"/>
     </row>
-    <row r="64" ht="17.6" spans="6:15">
+    <row r="64" spans="6:15" ht="16.25">
       <c r="F64" s="41"/>
       <c r="G64" s="41"/>
       <c r="H64" s="41"/>
@@ -5070,7 +4481,7 @@
       <c r="N64" s="41"/>
       <c r="O64" s="41"/>
     </row>
-    <row r="65" ht="17.6" spans="6:15">
+    <row r="65" spans="6:15" ht="16.25">
       <c r="F65" s="41"/>
       <c r="G65" s="41"/>
       <c r="H65" s="41"/>
@@ -5082,7 +4493,7 @@
       <c r="N65" s="41"/>
       <c r="O65" s="41"/>
     </row>
-    <row r="66" ht="19.2" spans="6:15">
+    <row r="66" spans="6:15" ht="16.899999999999999">
       <c r="F66" s="44"/>
       <c r="G66" s="44"/>
       <c r="H66" s="44"/>
@@ -5094,7 +4505,7 @@
       <c r="N66" s="47"/>
       <c r="O66" s="44"/>
     </row>
-    <row r="67" ht="19.2" spans="6:15">
+    <row r="67" spans="6:15" ht="16.899999999999999">
       <c r="F67" s="44"/>
       <c r="G67" s="44"/>
       <c r="H67" s="44"/>
@@ -5106,7 +4517,7 @@
       <c r="N67" s="47"/>
       <c r="O67" s="44"/>
     </row>
-    <row r="68" ht="19.2" spans="6:15">
+    <row r="68" spans="6:15" ht="16.899999999999999">
       <c r="F68" s="44"/>
       <c r="G68" s="44"/>
       <c r="H68" s="44"/>
@@ -5118,7 +4529,7 @@
       <c r="N68" s="44"/>
       <c r="O68" s="44"/>
     </row>
-    <row r="69" s="25" customFormat="1" ht="17.6" spans="6:15">
+    <row r="69" spans="6:15" s="25" customFormat="1" ht="16.899999999999999">
       <c r="F69" s="37"/>
       <c r="G69" s="38"/>
       <c r="H69" s="37"/>
@@ -5130,7 +4541,7 @@
       <c r="N69" s="37"/>
       <c r="O69" s="37"/>
     </row>
-    <row r="70" s="25" customFormat="1" ht="17.6" spans="6:15">
+    <row r="70" spans="6:15" s="25" customFormat="1" ht="16.899999999999999">
       <c r="F70" s="37"/>
       <c r="G70" s="38"/>
       <c r="H70" s="37"/>
@@ -5142,7 +4553,7 @@
       <c r="N70" s="37"/>
       <c r="O70" s="37"/>
     </row>
-    <row r="71" s="25" customFormat="1" ht="17.6" spans="6:15">
+    <row r="71" spans="6:15" s="25" customFormat="1" ht="16.899999999999999">
       <c r="F71" s="37"/>
       <c r="G71" s="38"/>
       <c r="H71" s="37"/>
@@ -5154,7 +4565,7 @@
       <c r="N71" s="37"/>
       <c r="O71" s="37"/>
     </row>
-    <row r="72" s="25" customFormat="1" ht="17.6" spans="6:15">
+    <row r="72" spans="6:15" s="25" customFormat="1" ht="16.899999999999999">
       <c r="F72" s="37"/>
       <c r="G72" s="38"/>
       <c r="H72" s="37"/>
@@ -5166,7 +4577,7 @@
       <c r="N72" s="37"/>
       <c r="O72" s="37"/>
     </row>
-    <row r="73" s="25" customFormat="1" ht="17.6" spans="6:15">
+    <row r="73" spans="6:15" s="25" customFormat="1" ht="16.899999999999999">
       <c r="F73" s="37"/>
       <c r="G73" s="38"/>
       <c r="H73" s="37"/>
@@ -5178,7 +4589,7 @@
       <c r="N73" s="37"/>
       <c r="O73" s="37"/>
     </row>
-    <row r="74" s="25" customFormat="1" ht="17.6" spans="6:15">
+    <row r="74" spans="6:15" s="25" customFormat="1" ht="16.899999999999999">
       <c r="F74" s="37"/>
       <c r="G74" s="38"/>
       <c r="H74" s="37"/>
@@ -5190,7 +4601,7 @@
       <c r="N74" s="37"/>
       <c r="O74" s="37"/>
     </row>
-    <row r="75" ht="17.6" spans="6:15">
+    <row r="75" spans="6:15" ht="16.25">
       <c r="F75" s="45"/>
       <c r="G75" s="45"/>
       <c r="H75" s="45"/>
@@ -5202,7 +4613,7 @@
       <c r="N75" s="45"/>
       <c r="O75" s="45"/>
     </row>
-    <row r="76" ht="17.6" spans="6:15">
+    <row r="76" spans="6:15" ht="16.25">
       <c r="F76" s="45"/>
       <c r="G76" s="45"/>
       <c r="H76" s="45"/>
@@ -5214,7 +4625,7 @@
       <c r="N76" s="45"/>
       <c r="O76" s="45"/>
     </row>
-    <row r="77" ht="17.6" spans="6:15">
+    <row r="77" spans="6:15" ht="16.25">
       <c r="F77" s="45"/>
       <c r="G77" s="45"/>
       <c r="H77" s="45"/>
@@ -5226,7 +4637,7 @@
       <c r="N77" s="45"/>
       <c r="O77" s="45"/>
     </row>
-    <row r="78" ht="17.6" spans="6:15">
+    <row r="78" spans="6:15" ht="16.25">
       <c r="F78" s="45"/>
       <c r="G78" s="45"/>
       <c r="H78" s="45"/>
@@ -5238,7 +4649,7 @@
       <c r="N78" s="45"/>
       <c r="O78" s="45"/>
     </row>
-    <row r="79" ht="17.6" spans="6:15">
+    <row r="79" spans="6:15" ht="16.899999999999999">
       <c r="F79" s="45"/>
       <c r="G79" s="46"/>
       <c r="H79" s="45"/>
@@ -5250,7 +4661,7 @@
       <c r="N79" s="45"/>
       <c r="O79" s="45"/>
     </row>
-    <row r="80" ht="17.6" spans="6:15">
+    <row r="80" spans="6:15" ht="16.25">
       <c r="F80" s="45"/>
       <c r="G80" s="45"/>
       <c r="H80" s="45"/>
@@ -5260,7 +4671,7 @@
       <c r="M80" s="45"/>
       <c r="O80" s="45"/>
     </row>
-    <row r="81" ht="17.6" spans="6:15">
+    <row r="81" spans="6:15" ht="16.25">
       <c r="F81" s="45"/>
       <c r="G81" s="45"/>
       <c r="H81" s="45"/>
@@ -5273,8 +4684,9 @@
       <c r="O81" s="45"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="48" type="noConversion"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,常规"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,常规"&amp;12 Page &amp;P</oddFooter>
@@ -5283,15 +4695,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:I7"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G186" sqref="F8:G186"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.7"/>
   <cols>
     <col min="1" max="3" width="9" customWidth="1"/>
     <col min="4" max="4" width="23.875" customWidth="1"/>
@@ -5301,7 +4712,7 @@
     <col min="8" max="1025" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" ht="12.85" customHeight="1" spans="4:9">
+    <row r="7" spans="4:9" ht="12.85" customHeight="1">
       <c r="D7" s="16" t="s">
         <v>157</v>
       </c>
@@ -5322,8 +4733,9 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="48" type="noConversion"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,常规"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,常规"&amp;12 Page &amp;P</oddFooter>
@@ -5332,15 +4744,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:G7"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="F8" sqref="F8:G37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.7"/>
   <cols>
     <col min="1" max="1" width="6.125" customWidth="1"/>
     <col min="2" max="2" width="5" customWidth="1"/>
@@ -5351,7 +4762,7 @@
     <col min="7" max="7" width="52.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" ht="15.2" spans="4:7">
+    <row r="7" spans="4:7" ht="13">
       <c r="D7" s="16" t="s">
         <v>161</v>
       </c>
@@ -5366,7 +4777,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <phoneticPr fontId="48" type="noConversion"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,标准"&amp;12&amp;A</oddHeader>
@@ -5376,15 +4788,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="D6:I75"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D7:I75"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="D17" workbookViewId="0">
-      <selection activeCell="K39" sqref="K39"/>
+    <sheetView tabSelected="1" topLeftCell="D22" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D40" sqref="A40:XFD40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.7"/>
   <cols>
     <col min="1" max="3" width="8.875" customWidth="1"/>
     <col min="4" max="4" width="27.375" customWidth="1"/>
@@ -5395,8 +4806,7 @@
     <col min="9" max="1025" width="8.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" ht="14.75"/>
-    <row r="7" ht="19" customHeight="1" spans="4:9">
+    <row r="7" spans="4:9" ht="19" customHeight="1">
       <c r="D7" s="4" t="s">
         <v>163</v>
       </c>
@@ -5416,7 +4826,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" s="3" customFormat="1" spans="6:9">
+    <row r="8" spans="4:9" s="3" customFormat="1">
       <c r="F8" s="7" t="s">
         <v>166</v>
       </c>
@@ -5430,7 +4840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" s="3" customFormat="1" spans="6:9">
+    <row r="9" spans="4:9" s="3" customFormat="1">
       <c r="F9" s="7" t="s">
         <v>166</v>
       </c>
@@ -5444,7 +4854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" s="3" customFormat="1" spans="6:9">
+    <row r="10" spans="4:9" s="3" customFormat="1">
       <c r="F10" s="7" t="s">
         <v>166</v>
       </c>
@@ -5458,7 +4868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" s="3" customFormat="1" spans="6:9">
+    <row r="11" spans="4:9" s="3" customFormat="1">
       <c r="F11" s="7" t="s">
         <v>166</v>
       </c>
@@ -5472,7 +4882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" s="3" customFormat="1" spans="6:9">
+    <row r="12" spans="4:9" s="3" customFormat="1">
       <c r="F12" s="7" t="s">
         <v>166</v>
       </c>
@@ -5486,7 +4896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" s="3" customFormat="1" spans="6:9">
+    <row r="13" spans="4:9" s="3" customFormat="1">
       <c r="F13" s="7" t="s">
         <v>166</v>
       </c>
@@ -5500,7 +4910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" s="3" customFormat="1" spans="6:9">
+    <row r="14" spans="4:9" s="3" customFormat="1">
       <c r="F14" s="7" t="s">
         <v>166</v>
       </c>
@@ -5514,7 +4924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" s="3" customFormat="1" spans="6:9">
+    <row r="15" spans="4:9" s="3" customFormat="1">
       <c r="F15" s="7" t="s">
         <v>166</v>
       </c>
@@ -5528,7 +4938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" s="3" customFormat="1" spans="6:9">
+    <row r="16" spans="4:9" s="3" customFormat="1">
       <c r="F16" s="7" t="s">
         <v>167</v>
       </c>
@@ -5542,7 +4952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" s="3" customFormat="1" spans="6:9">
+    <row r="17" spans="4:9" s="3" customFormat="1">
       <c r="F17" s="7" t="s">
         <v>167</v>
       </c>
@@ -5556,7 +4966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" s="3" customFormat="1" spans="6:9">
+    <row r="18" spans="4:9" s="3" customFormat="1">
       <c r="F18" s="7" t="s">
         <v>167</v>
       </c>
@@ -5570,7 +4980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" s="3" customFormat="1" spans="6:9">
+    <row r="19" spans="4:9" s="3" customFormat="1">
       <c r="F19" s="7" t="s">
         <v>167</v>
       </c>
@@ -5584,7 +4994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" s="3" customFormat="1" spans="6:9">
+    <row r="20" spans="4:9" s="3" customFormat="1">
       <c r="F20" s="7" t="s">
         <v>167</v>
       </c>
@@ -5598,7 +5008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" s="3" customFormat="1" spans="6:9">
+    <row r="21" spans="4:9" s="3" customFormat="1">
       <c r="F21" s="7" t="s">
         <v>167</v>
       </c>
@@ -5612,7 +5022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" s="3" customFormat="1" spans="6:9">
+    <row r="22" spans="4:9" s="3" customFormat="1">
       <c r="F22" s="7" t="s">
         <v>167</v>
       </c>
@@ -5626,7 +5036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" s="3" customFormat="1" spans="6:9">
+    <row r="23" spans="4:9" s="3" customFormat="1">
       <c r="F23" s="7" t="s">
         <v>167</v>
       </c>
@@ -5640,7 +5050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" s="3" customFormat="1" spans="6:9">
+    <row r="24" spans="4:9" s="3" customFormat="1">
       <c r="F24" s="7" t="s">
         <v>169</v>
       </c>
@@ -5654,7 +5064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" s="3" customFormat="1" spans="6:9">
+    <row r="25" spans="4:9" s="3" customFormat="1">
       <c r="F25" s="7" t="s">
         <v>169</v>
       </c>
@@ -5668,7 +5078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" s="3" customFormat="1" spans="6:9">
+    <row r="26" spans="4:9" s="3" customFormat="1">
       <c r="F26" s="7" t="s">
         <v>169</v>
       </c>
@@ -5682,7 +5092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" s="3" customFormat="1" spans="6:9">
+    <row r="27" spans="4:9" s="3" customFormat="1">
       <c r="F27" s="7" t="s">
         <v>169</v>
       </c>
@@ -5696,7 +5106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" s="3" customFormat="1" spans="6:9">
+    <row r="28" spans="4:9" s="3" customFormat="1">
       <c r="F28" s="7" t="s">
         <v>169</v>
       </c>
@@ -5710,7 +5120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" s="3" customFormat="1" spans="6:9">
+    <row r="29" spans="4:9" s="3" customFormat="1">
       <c r="F29" s="7" t="s">
         <v>169</v>
       </c>
@@ -5724,7 +5134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" s="3" customFormat="1" spans="6:9">
+    <row r="30" spans="4:9" s="3" customFormat="1">
       <c r="F30" s="7" t="s">
         <v>169</v>
       </c>
@@ -5738,7 +5148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" s="3" customFormat="1" spans="6:9">
+    <row r="31" spans="4:9" s="3" customFormat="1">
       <c r="F31" s="7" t="s">
         <v>169</v>
       </c>
@@ -5752,7 +5162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" s="3" customFormat="1" ht="12.85" customHeight="1" spans="4:9">
+    <row r="32" spans="4:9" s="3" customFormat="1" ht="12.85" customHeight="1">
       <c r="D32" s="5"/>
       <c r="E32" s="8"/>
       <c r="F32" s="9" t="s">
@@ -5768,7 +5178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" s="3" customFormat="1" ht="12.85" customHeight="1" spans="4:9">
+    <row r="33" spans="4:9" s="3" customFormat="1" ht="12.85" customHeight="1">
       <c r="D33" s="5"/>
       <c r="E33" s="8"/>
       <c r="F33" s="9" t="s">
@@ -5784,7 +5194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" s="3" customFormat="1" ht="12.85" customHeight="1" spans="4:9">
+    <row r="34" spans="4:9" s="3" customFormat="1" ht="12.85" customHeight="1">
       <c r="D34" s="5"/>
       <c r="E34" s="8"/>
       <c r="F34" s="9" t="s">
@@ -5800,7 +5210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" s="3" customFormat="1" ht="12.85" customHeight="1" spans="4:9">
+    <row r="35" spans="4:9" s="3" customFormat="1" ht="12.85" customHeight="1">
       <c r="D35" s="5"/>
       <c r="E35" s="8"/>
       <c r="F35" s="9" t="s">
@@ -5816,7 +5226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" s="3" customFormat="1" spans="6:9">
+    <row r="36" spans="4:9" s="3" customFormat="1">
       <c r="F36" s="10" t="s">
         <v>166</v>
       </c>
@@ -5828,7 +5238,7 @@
       </c>
       <c r="I36" s="10"/>
     </row>
-    <row r="37" spans="6:9">
+    <row r="37" spans="4:9">
       <c r="F37" s="10" t="s">
         <v>166</v>
       </c>
@@ -5840,7 +5250,7 @@
       </c>
       <c r="I37" s="11"/>
     </row>
-    <row r="38" spans="6:9">
+    <row r="38" spans="4:9">
       <c r="F38" s="10" t="s">
         <v>166</v>
       </c>
@@ -5852,7 +5262,7 @@
       </c>
       <c r="I38" s="11"/>
     </row>
-    <row r="39" spans="6:9">
+    <row r="39" spans="4:9">
       <c r="F39" s="10" t="s">
         <v>166</v>
       </c>
@@ -5864,7 +5274,7 @@
       </c>
       <c r="I39" s="11"/>
     </row>
-    <row r="40" spans="6:9">
+    <row r="40" spans="4:9">
       <c r="F40" s="10" t="s">
         <v>167</v>
       </c>
@@ -5876,7 +5286,7 @@
       </c>
       <c r="I40" s="10"/>
     </row>
-    <row r="41" spans="6:9">
+    <row r="41" spans="4:9">
       <c r="F41" s="10" t="s">
         <v>167</v>
       </c>
@@ -5888,7 +5298,7 @@
       </c>
       <c r="I41" s="11"/>
     </row>
-    <row r="42" spans="6:9">
+    <row r="42" spans="4:9">
       <c r="F42" s="10" t="s">
         <v>167</v>
       </c>
@@ -5900,7 +5310,7 @@
       </c>
       <c r="I42" s="11"/>
     </row>
-    <row r="43" spans="6:9">
+    <row r="43" spans="4:9">
       <c r="F43" s="10" t="s">
         <v>167</v>
       </c>
@@ -5912,7 +5322,7 @@
       </c>
       <c r="I43" s="11"/>
     </row>
-    <row r="44" spans="6:9">
+    <row r="44" spans="4:9">
       <c r="F44" s="10" t="s">
         <v>169</v>
       </c>
@@ -5924,7 +5334,7 @@
       </c>
       <c r="I44" s="10"/>
     </row>
-    <row r="45" spans="6:9">
+    <row r="45" spans="4:9">
       <c r="F45" s="10" t="s">
         <v>169</v>
       </c>
@@ -5936,7 +5346,7 @@
       </c>
       <c r="I45" s="11"/>
     </row>
-    <row r="46" spans="6:9">
+    <row r="46" spans="4:9">
       <c r="F46" s="10" t="s">
         <v>169</v>
       </c>
@@ -5948,7 +5358,7 @@
       </c>
       <c r="I46" s="11"/>
     </row>
-    <row r="47" spans="6:9">
+    <row r="47" spans="4:9">
       <c r="F47" s="10" t="s">
         <v>169</v>
       </c>
@@ -5960,7 +5370,7 @@
       </c>
       <c r="I47" s="11"/>
     </row>
-    <row r="48" ht="15.2" spans="6:9">
+    <row r="48" spans="4:9" ht="13">
       <c r="F48" s="12" t="s">
         <v>167</v>
       </c>
@@ -5972,7 +5382,7 @@
       </c>
       <c r="I48" s="17"/>
     </row>
-    <row r="49" spans="6:9">
+    <row r="49" spans="4:9" ht="12.35">
       <c r="F49" s="12" t="s">
         <v>167</v>
       </c>
@@ -5984,7 +5394,7 @@
       </c>
       <c r="I49" s="14"/>
     </row>
-    <row r="50" ht="15.2" spans="6:9">
+    <row r="50" spans="4:9" ht="13">
       <c r="F50" s="12" t="s">
         <v>169</v>
       </c>
@@ -5996,7 +5406,7 @@
       </c>
       <c r="I50" s="17"/>
     </row>
-    <row r="51" spans="6:9">
+    <row r="51" spans="4:9" ht="12.35">
       <c r="F51" s="12" t="s">
         <v>169</v>
       </c>
@@ -6008,133 +5418,132 @@
       </c>
       <c r="I51" s="14"/>
     </row>
-    <row r="52" spans="4:8">
+    <row r="52" spans="4:9" ht="12.35">
       <c r="D52" s="6"/>
       <c r="F52" s="6"/>
       <c r="G52" s="6"/>
       <c r="H52" s="6"/>
     </row>
-    <row r="53" spans="6:8">
+    <row r="53" spans="4:9" ht="12.35">
       <c r="F53" s="6"/>
       <c r="G53" s="6"/>
       <c r="H53" s="6"/>
     </row>
-    <row r="54" spans="6:8">
+    <row r="54" spans="4:9" ht="12.35">
       <c r="F54" s="6"/>
       <c r="G54" s="6"/>
       <c r="H54" s="6"/>
     </row>
-    <row r="55" spans="6:8">
+    <row r="55" spans="4:9" ht="12.35">
       <c r="F55" s="6"/>
       <c r="G55" s="6"/>
       <c r="H55" s="6"/>
     </row>
-    <row r="56" spans="6:8">
+    <row r="56" spans="4:9" ht="12.35">
       <c r="F56" s="6"/>
       <c r="G56" s="6"/>
       <c r="H56" s="6"/>
     </row>
-    <row r="57" spans="6:8">
+    <row r="57" spans="4:9" ht="12.35">
       <c r="F57" s="6"/>
       <c r="G57" s="6"/>
       <c r="H57" s="6"/>
     </row>
-    <row r="58" spans="6:8">
+    <row r="58" spans="4:9" ht="12.35">
       <c r="F58" s="6"/>
       <c r="G58" s="6"/>
       <c r="H58" s="6"/>
     </row>
-    <row r="59" spans="6:8">
+    <row r="59" spans="4:9" ht="12.35">
       <c r="F59" s="6"/>
       <c r="G59" s="6"/>
       <c r="H59" s="6"/>
     </row>
-    <row r="60" spans="6:8">
+    <row r="60" spans="4:9" ht="12.35">
       <c r="F60" s="6"/>
       <c r="G60" s="6"/>
       <c r="H60" s="6"/>
     </row>
-    <row r="61" spans="6:8">
+    <row r="61" spans="4:9" ht="12.35">
       <c r="F61" s="6"/>
       <c r="G61" s="6"/>
       <c r="H61" s="6"/>
     </row>
-    <row r="62" spans="6:8">
+    <row r="62" spans="4:9" ht="12.35">
       <c r="F62" s="6"/>
       <c r="G62" s="6"/>
       <c r="H62" s="6"/>
     </row>
-    <row r="63" spans="6:8">
+    <row r="63" spans="4:9" ht="12.35">
       <c r="F63" s="6"/>
       <c r="G63" s="6"/>
       <c r="H63" s="6"/>
     </row>
-    <row r="64" spans="6:8">
+    <row r="64" spans="4:9" ht="12.35">
       <c r="F64" s="15"/>
       <c r="G64" s="6"/>
       <c r="H64" s="6"/>
     </row>
-    <row r="65" spans="7:8">
+    <row r="65" spans="7:8" ht="12.35">
       <c r="G65" s="6"/>
       <c r="H65" s="6"/>
     </row>
-    <row r="66" spans="7:8">
+    <row r="66" spans="7:8" ht="12.35">
       <c r="G66" s="6"/>
       <c r="H66" s="6"/>
     </row>
-    <row r="67" spans="7:8">
+    <row r="67" spans="7:8" ht="12.35">
       <c r="G67" s="6"/>
       <c r="H67" s="6"/>
     </row>
-    <row r="68" spans="7:8">
+    <row r="68" spans="7:8" ht="12.35">
       <c r="G68" s="6"/>
       <c r="H68" s="6"/>
     </row>
-    <row r="69" spans="7:8">
+    <row r="69" spans="7:8" ht="12.35">
       <c r="G69" s="6"/>
       <c r="H69" s="6"/>
     </row>
-    <row r="70" spans="7:8">
+    <row r="70" spans="7:8" ht="12.35">
       <c r="G70" s="6"/>
       <c r="H70" s="6"/>
     </row>
-    <row r="71" spans="7:8">
+    <row r="71" spans="7:8" ht="12.35">
       <c r="G71" s="6"/>
       <c r="H71" s="6"/>
     </row>
-    <row r="72" spans="7:8">
+    <row r="72" spans="7:8" ht="12.35">
       <c r="G72" s="6"/>
       <c r="H72" s="6"/>
     </row>
-    <row r="73" spans="7:8">
+    <row r="73" spans="7:8" ht="12.35">
       <c r="G73" s="6"/>
       <c r="H73" s="6"/>
     </row>
-    <row r="74" spans="7:8">
+    <row r="74" spans="7:8" ht="12.35">
       <c r="G74" s="6"/>
       <c r="H74" s="6"/>
     </row>
-    <row r="75" spans="7:8">
+    <row r="75" spans="7:8" ht="12.35">
       <c r="G75" s="6"/>
       <c r="H75" s="6"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.510416666666667" footer="0.510416666666667"/>
+  <phoneticPr fontId="48" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51041666666666696" footer="0.51041666666666696"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F8" sqref="F8:K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="11.7"/>
   <cols>
     <col min="6" max="6" width="18.125" customWidth="1"/>
     <col min="7" max="7" width="15.875" customWidth="1"/>
@@ -6171,21 +5580,20 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="48" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F8" sqref="F8:I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="11.7"/>
   <cols>
     <col min="4" max="4" width="21.375" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
@@ -6215,21 +5623,20 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="48" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:L9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="11.7"/>
   <cols>
     <col min="4" max="4" width="22.125" customWidth="1"/>
     <col min="6" max="6" width="18.875" customWidth="1"/>
@@ -6270,7 +5677,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="8" spans="6:11">
+    <row r="8" spans="4:12">
       <c r="F8" t="s">
         <v>186</v>
       </c>
@@ -6290,7 +5697,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="9" spans="6:12">
+    <row r="9" spans="4:12">
       <c r="F9" t="s">
         <v>191</v>
       </c>
@@ -6314,31 +5721,30 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="48" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:I13"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.11029411764706" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="11.7"/>
   <cols>
-    <col min="4" max="4" width="21.4411764705882" customWidth="1"/>
-    <col min="5" max="5" width="18.3308823529412" customWidth="1"/>
-    <col min="6" max="7" width="23.6617647058824" customWidth="1"/>
-    <col min="8" max="8" width="25.4411764705882" customWidth="1"/>
-    <col min="9" max="10" width="18.1102941176471" customWidth="1"/>
+    <col min="4" max="4" width="21.5" customWidth="1"/>
+    <col min="5" max="5" width="18.375" customWidth="1"/>
+    <col min="6" max="7" width="23.625" customWidth="1"/>
+    <col min="8" max="8" width="25.5" customWidth="1"/>
+    <col min="9" max="10" width="18.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:9">
+    <row r="7" spans="4:9" ht="15.6">
       <c r="D7" s="2" t="s">
         <v>195</v>
       </c>
@@ -6358,7 +5764,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="8" spans="4:9">
+    <row r="8" spans="4:9" ht="15.6">
       <c r="D8" s="2"/>
       <c r="E8" s="1" t="s">
         <v>198</v>
@@ -6376,7 +5782,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="9" spans="5:9">
+    <row r="9" spans="4:9" ht="15.6">
       <c r="E9" s="1" t="s">
         <v>200</v>
       </c>
@@ -6393,7 +5799,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="10" spans="5:9">
+    <row r="10" spans="4:9" ht="15.6">
       <c r="E10" s="1" t="s">
         <v>202</v>
       </c>
@@ -6410,7 +5816,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="11" spans="5:9">
+    <row r="11" spans="4:9" ht="15.6">
       <c r="E11" s="1" t="s">
         <v>204</v>
       </c>
@@ -6427,7 +5833,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="12" spans="5:9">
+    <row r="12" spans="4:9" ht="15.6">
       <c r="E12" s="1" t="s">
         <v>206</v>
       </c>
@@ -6444,7 +5850,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="13" spans="5:9">
+    <row r="13" spans="4:9" ht="15.6">
       <c r="E13" s="1" t="s">
         <v>208</v>
       </c>
@@ -6462,7 +5868,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="48" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/src/main/resources/script/meta/micro-service-init-data.xlsx
+++ b/src/main/resources/script/meta/micro-service-init-data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12597" tabRatio="845" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12597" tabRatio="845" firstSheet="2" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
@@ -23,12 +23,12 @@
     <sheet name="FD_LOOKUP" sheetId="9" r:id="rId9"/>
     <sheet name="FD_LOOKUP_VALUE" sheetId="10" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="251">
   <si>
     <t>IAM_PERMISSION</t>
   </si>
@@ -815,12 +815,20 @@
     <t>organization</t>
     <phoneticPr fontId="48" type="noConversion"/>
   </si>
+  <si>
+    <t>choerodon.code.organization.infra</t>
+    <phoneticPr fontId="48" type="noConversion"/>
+  </si>
+  <si>
+    <t>organization</t>
+    <phoneticPr fontId="48" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="49">
+  <fonts count="53">
     <font>
       <sz val="10"/>
       <name val="Droid Sans Fallback"/>
@@ -1123,6 +1131,32 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="Droid Sans Fallback"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="Droid Sans Fallback"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1159,7 +1193,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1222,6 +1256,12 @@
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1499,8 +1539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:Q57"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView topLeftCell="G3" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.7"/>
@@ -1934,70 +1974,73 @@
       <c r="P18" s="7"/>
       <c r="Q18" s="7"/>
     </row>
-    <row r="19" spans="4:17">
-      <c r="D19" s="15"/>
-      <c r="F19" s="30" t="s">
+    <row r="19" spans="4:17" s="58" customFormat="1">
+      <c r="F19" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="G19" s="30" t="s">
+      <c r="G19" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="H19" s="30" t="s">
+      <c r="H19" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="I19" s="30" t="s">
+      <c r="I19" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="J19" s="53" t="s">
+      <c r="J19" s="60" t="s">
         <v>47</v>
       </c>
-      <c r="K19" s="30" t="s">
+      <c r="K19" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="L19" s="30">
+      <c r="L19" s="59">
         <v>0</v>
       </c>
-      <c r="M19" s="30">
+      <c r="M19" s="59">
         <v>0</v>
       </c>
-      <c r="N19" s="30">
+      <c r="N19" s="59">
         <v>0</v>
       </c>
-      <c r="O19" s="30"/>
-      <c r="P19" s="7"/>
-      <c r="Q19" s="7"/>
-    </row>
-    <row r="20" spans="4:17">
-      <c r="F20" s="30" t="s">
+      <c r="O19" s="59">
+        <v>1</v>
+      </c>
+      <c r="P19" s="59"/>
+      <c r="Q19" s="59"/>
+    </row>
+    <row r="20" spans="4:17" s="58" customFormat="1">
+      <c r="F20" s="59" t="s">
         <v>48</v>
       </c>
-      <c r="G20" s="30" t="s">
+      <c r="G20" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="H20" s="30" t="s">
+      <c r="H20" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="I20" s="30" t="s">
+      <c r="I20" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="J20" s="53" t="s">
+      <c r="J20" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="K20" s="30" t="s">
+      <c r="K20" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="L20" s="30">
+      <c r="L20" s="59">
         <v>0</v>
       </c>
-      <c r="M20" s="30">
+      <c r="M20" s="59">
         <v>0</v>
       </c>
-      <c r="N20" s="30">
+      <c r="N20" s="59">
         <v>0</v>
       </c>
-      <c r="O20" s="30"/>
-      <c r="P20" s="7"/>
-      <c r="Q20" s="7"/>
+      <c r="O20" s="59">
+        <v>1</v>
+      </c>
+      <c r="P20" s="59"/>
+      <c r="Q20" s="59"/>
     </row>
     <row r="21" spans="4:17" s="3" customFormat="1" ht="12.35">
       <c r="F21" s="50" t="s">
@@ -2031,69 +2074,70 @@
       <c r="P21" s="7"/>
       <c r="Q21" s="7"/>
     </row>
-    <row r="22" spans="4:17" s="3" customFormat="1" ht="12.35">
-      <c r="F22" s="50" t="s">
+    <row r="22" spans="4:17" s="59" customFormat="1" ht="12.35">
+      <c r="F22" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="G22" s="50" t="s">
+      <c r="G22" s="61" t="s">
         <v>54</v>
       </c>
-      <c r="H22" s="32" t="s">
+      <c r="H22" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="I22" s="32" t="s">
+      <c r="I22" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="J22" s="54" t="s">
+      <c r="J22" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="K22" s="50" t="s">
+      <c r="K22" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="L22" s="50">
+      <c r="L22" s="61">
         <v>0</v>
       </c>
-      <c r="M22" s="50">
+      <c r="M22" s="61">
         <v>0</v>
       </c>
-      <c r="N22" s="50">
+      <c r="N22" s="61">
         <v>0</v>
       </c>
-      <c r="O22" s="25"/>
-      <c r="P22" s="7"/>
-      <c r="Q22" s="7"/>
-    </row>
-    <row r="23" spans="4:17" s="3" customFormat="1" ht="12.35">
-      <c r="F23" s="50" t="s">
+      <c r="O22" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="4:17" s="59" customFormat="1" ht="12.35">
+      <c r="F23" s="61" t="s">
         <v>56</v>
       </c>
-      <c r="G23" s="50" t="s">
+      <c r="G23" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="H23" s="32" t="s">
+      <c r="H23" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="I23" s="32" t="s">
+      <c r="I23" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="J23" s="54" t="s">
+      <c r="J23" s="62" t="s">
         <v>58</v>
       </c>
-      <c r="K23" s="50" t="s">
+      <c r="K23" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="L23" s="50">
+      <c r="L23" s="61">
         <v>0</v>
       </c>
-      <c r="M23" s="50">
+      <c r="M23" s="61">
         <v>0</v>
       </c>
-      <c r="N23" s="50">
+      <c r="N23" s="61">
         <v>0</v>
       </c>
-      <c r="O23" s="25"/>
-      <c r="P23" s="27"/>
-      <c r="Q23" s="7"/>
+      <c r="O23" s="58">
+        <v>1</v>
+      </c>
+      <c r="P23" s="63"/>
     </row>
     <row r="24" spans="4:17" s="3" customFormat="1" ht="12.35">
       <c r="F24" s="50" t="s">
@@ -3046,8 +3090,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:Q81"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="L39" sqref="L39"/>
+    <sheetView tabSelected="1" topLeftCell="C5" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.7"/>
@@ -3778,7 +3822,7 @@
         <v>122</v>
       </c>
       <c r="L26" s="29" t="s">
-        <v>42</v>
+        <v>246</v>
       </c>
       <c r="M26" s="29" t="s">
         <v>82</v>
@@ -3828,69 +3872,69 @@
       <c r="P27" s="30"/>
       <c r="Q27" s="30"/>
     </row>
-    <row r="28" spans="6:17" s="3" customFormat="1">
-      <c r="F28" s="30" t="s">
+    <row r="28" spans="6:17" s="59" customFormat="1">
+      <c r="F28" s="59" t="s">
         <v>129</v>
       </c>
-      <c r="G28" s="30" t="s">
+      <c r="G28" s="59" t="s">
         <v>85</v>
       </c>
-      <c r="H28" s="30" t="s">
+      <c r="H28" s="59" t="s">
         <v>86</v>
       </c>
-      <c r="I28" s="30" t="s">
+      <c r="I28" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="J28" s="30" t="s">
+      <c r="J28" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="K28" s="30" t="s">
+      <c r="K28" s="59" t="s">
         <v>127</v>
       </c>
-      <c r="L28" s="30" t="s">
+      <c r="L28" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="M28" s="30" t="s">
+      <c r="M28" s="59" t="s">
         <v>87</v>
       </c>
-      <c r="N28" s="30"/>
-      <c r="O28" s="30">
+      <c r="O28" s="59">
         <v>10</v>
       </c>
-      <c r="P28" s="30"/>
-      <c r="Q28" s="30"/>
-    </row>
-    <row r="29" spans="6:17" s="3" customFormat="1">
-      <c r="F29" s="30" t="s">
+      <c r="Q28" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="6:17" s="59" customFormat="1">
+      <c r="F29" s="59" t="s">
         <v>130</v>
       </c>
-      <c r="G29" s="30" t="s">
+      <c r="G29" s="59" t="s">
         <v>89</v>
       </c>
-      <c r="H29" s="30" t="s">
+      <c r="H29" s="59" t="s">
         <v>90</v>
       </c>
-      <c r="I29" s="30" t="s">
+      <c r="I29" s="59" t="s">
         <v>48</v>
       </c>
-      <c r="J29" s="30" t="s">
+      <c r="J29" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="K29" s="30" t="s">
+      <c r="K29" s="59" t="s">
         <v>127</v>
       </c>
-      <c r="L29" s="30" t="s">
+      <c r="L29" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="M29" s="30" t="s">
+      <c r="M29" s="59" t="s">
         <v>87</v>
       </c>
-      <c r="N29" s="30"/>
-      <c r="O29" s="30">
+      <c r="O29" s="59">
         <v>20</v>
       </c>
-      <c r="P29" s="30"/>
-      <c r="Q29" s="30"/>
+      <c r="Q29" s="59">
+        <v>1</v>
+      </c>
     </row>
     <row r="30" spans="6:17" s="3" customFormat="1">
       <c r="F30" s="31" t="s">
@@ -3958,72 +4002,73 @@
       <c r="P31" s="32"/>
       <c r="Q31" s="32"/>
     </row>
-    <row r="32" spans="6:17" s="3" customFormat="1">
-      <c r="F32" s="32" t="s">
+    <row r="32" spans="6:17" s="59" customFormat="1">
+      <c r="F32" s="59" t="s">
         <v>139</v>
       </c>
-      <c r="G32" s="33" t="s">
+      <c r="G32" s="60" t="s">
         <v>140</v>
       </c>
-      <c r="H32" s="32" t="s">
+      <c r="H32" s="59" t="s">
         <v>141</v>
       </c>
-      <c r="I32" s="32" t="s">
+      <c r="I32" s="59" t="s">
         <v>245</v>
       </c>
-      <c r="J32" s="32" t="s">
+      <c r="J32" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="K32" s="32" t="s">
+      <c r="K32" s="59" t="s">
         <v>135</v>
       </c>
-      <c r="L32" s="32" t="s">
+      <c r="L32" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="M32" s="32" t="s">
+      <c r="M32" s="59" t="s">
         <v>87</v>
       </c>
-      <c r="N32" s="32"/>
-      <c r="O32" s="32">
+      <c r="O32" s="59">
         <v>10</v>
       </c>
-      <c r="P32" s="32"/>
-      <c r="Q32" s="32"/>
-    </row>
-    <row r="33" spans="4:17">
-      <c r="D33" s="15"/>
-      <c r="F33" s="32" t="s">
+      <c r="Q32" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="6:17" s="58" customFormat="1">
+      <c r="F33" s="59" t="s">
         <v>142</v>
       </c>
-      <c r="G33" s="33" t="s">
+      <c r="G33" s="60" t="s">
         <v>143</v>
       </c>
-      <c r="H33" s="32" t="s">
+      <c r="H33" s="59" t="s">
         <v>144</v>
       </c>
-      <c r="I33" s="32" t="s">
+      <c r="I33" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="J33" s="32" t="s">
+      <c r="J33" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="K33" s="32" t="s">
+      <c r="K33" s="59" t="s">
         <v>135</v>
       </c>
-      <c r="L33" s="32" t="s">
+      <c r="L33" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="M33" s="32" t="s">
+      <c r="M33" s="59" t="s">
         <v>87</v>
       </c>
-      <c r="N33" s="32"/>
-      <c r="O33" s="32">
+      <c r="N33" s="59"/>
+      <c r="O33" s="59">
         <v>20</v>
       </c>
-      <c r="P33" s="32"/>
-      <c r="Q33" s="32"/>
-    </row>
-    <row r="34" spans="4:17">
+      <c r="P33" s="59"/>
+      <c r="Q33" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="6:17">
       <c r="F34" s="32" t="s">
         <v>145</v>
       </c>
@@ -4057,9 +4102,9 @@
       <c r="P34" s="32"/>
       <c r="Q34" s="32"/>
     </row>
-    <row r="35" spans="4:17">
+    <row r="35" spans="6:17">
       <c r="F35" s="34" t="s">
-        <v>148</v>
+        <v>249</v>
       </c>
       <c r="G35" s="34" t="s">
         <v>132</v>
@@ -4075,7 +4120,7 @@
         <v>149</v>
       </c>
       <c r="L35" s="34" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="M35" s="34" t="s">
         <v>108</v>
@@ -4084,12 +4129,12 @@
         <v>83</v>
       </c>
       <c r="O35" s="34">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="P35" s="34"/>
       <c r="Q35" s="34"/>
     </row>
-    <row r="36" spans="4:17">
+    <row r="36" spans="6:17">
       <c r="F36" s="35" t="s">
         <v>150</v>
       </c>
@@ -4123,7 +4168,7 @@
       <c r="P36" s="35"/>
       <c r="Q36" s="35"/>
     </row>
-    <row r="37" spans="4:17">
+    <row r="37" spans="6:17">
       <c r="F37" s="35" t="s">
         <v>154</v>
       </c>
@@ -4157,7 +4202,7 @@
       <c r="P37" s="35"/>
       <c r="Q37" s="35"/>
     </row>
-    <row r="38" spans="4:17" ht="16.25">
+    <row r="38" spans="6:17" ht="16.25">
       <c r="F38" s="37"/>
       <c r="G38" s="37"/>
       <c r="H38" s="37"/>
@@ -4169,7 +4214,7 @@
       <c r="N38" s="37"/>
       <c r="O38" s="37"/>
     </row>
-    <row r="39" spans="4:17" ht="16.25">
+    <row r="39" spans="6:17" ht="16.25">
       <c r="F39" s="37"/>
       <c r="G39" s="37"/>
       <c r="H39" s="37"/>
@@ -4181,7 +4226,7 @@
       <c r="N39" s="37"/>
       <c r="O39" s="37"/>
     </row>
-    <row r="40" spans="4:17" ht="16.25">
+    <row r="40" spans="6:17" ht="16.25">
       <c r="F40" s="37"/>
       <c r="G40" s="37"/>
       <c r="H40" s="37"/>
@@ -4193,7 +4238,7 @@
       <c r="N40" s="37"/>
       <c r="O40" s="37"/>
     </row>
-    <row r="41" spans="4:17" ht="16.25">
+    <row r="41" spans="6:17" ht="16.25">
       <c r="F41" s="37"/>
       <c r="G41" s="37"/>
       <c r="H41" s="37"/>
@@ -4205,7 +4250,7 @@
       <c r="N41" s="37"/>
       <c r="O41" s="37"/>
     </row>
-    <row r="42" spans="4:17" ht="16.25">
+    <row r="42" spans="6:17" ht="16.25">
       <c r="F42" s="37"/>
       <c r="G42" s="37"/>
       <c r="H42" s="37"/>
@@ -4217,7 +4262,7 @@
       <c r="N42" s="37"/>
       <c r="O42" s="37"/>
     </row>
-    <row r="43" spans="4:17" ht="16.25">
+    <row r="43" spans="6:17" ht="16.25">
       <c r="F43" s="37"/>
       <c r="G43" s="37"/>
       <c r="H43" s="37"/>
@@ -4229,7 +4274,7 @@
       <c r="N43" s="37"/>
       <c r="O43" s="37"/>
     </row>
-    <row r="44" spans="4:17" ht="16.25">
+    <row r="44" spans="6:17" ht="16.25">
       <c r="F44" s="37"/>
       <c r="G44" s="37"/>
       <c r="H44" s="37"/>
@@ -4241,7 +4286,7 @@
       <c r="N44" s="37"/>
       <c r="O44" s="37"/>
     </row>
-    <row r="45" spans="4:17" ht="16.25">
+    <row r="45" spans="6:17" ht="16.25">
       <c r="F45" s="37"/>
       <c r="G45" s="37"/>
       <c r="H45" s="37"/>
@@ -4253,7 +4298,7 @@
       <c r="N45" s="37"/>
       <c r="O45" s="37"/>
     </row>
-    <row r="46" spans="4:17" ht="16.25">
+    <row r="46" spans="6:17" ht="16.25">
       <c r="F46" s="37"/>
       <c r="G46" s="37"/>
       <c r="H46" s="37"/>
@@ -4265,7 +4310,7 @@
       <c r="N46" s="37"/>
       <c r="O46" s="37"/>
     </row>
-    <row r="47" spans="4:17" ht="16.899999999999999">
+    <row r="47" spans="6:17" ht="16.899999999999999">
       <c r="F47" s="37"/>
       <c r="G47" s="38"/>
       <c r="H47" s="37"/>
@@ -4277,7 +4322,7 @@
       <c r="N47" s="37"/>
       <c r="O47" s="37"/>
     </row>
-    <row r="48" spans="4:17" ht="16.25">
+    <row r="48" spans="6:17" ht="16.25">
       <c r="F48" s="39"/>
       <c r="G48" s="39"/>
       <c r="H48" s="39"/>
@@ -4791,8 +4836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:I75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D22" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D40" sqref="A40:XFD40"/>
+    <sheetView topLeftCell="A22" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50:XFD50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.7"/>
@@ -5238,29 +5283,33 @@
       </c>
       <c r="I36" s="10"/>
     </row>
-    <row r="37" spans="4:9">
-      <c r="F37" s="10" t="s">
+    <row r="37" spans="4:9" s="58" customFormat="1">
+      <c r="F37" s="59" t="s">
         <v>166</v>
       </c>
-      <c r="G37" s="10" t="s">
+      <c r="G37" s="59" t="s">
         <v>139</v>
       </c>
-      <c r="H37" s="10" t="s">
+      <c r="H37" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="I37" s="11"/>
-    </row>
-    <row r="38" spans="4:9">
-      <c r="F38" s="10" t="s">
+      <c r="I37" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="4:9" s="58" customFormat="1">
+      <c r="F38" s="59" t="s">
         <v>166</v>
       </c>
-      <c r="G38" s="10" t="s">
+      <c r="G38" s="59" t="s">
         <v>142</v>
       </c>
-      <c r="H38" s="10" t="s">
+      <c r="H38" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="I38" s="11"/>
+      <c r="I38" s="58">
+        <v>1</v>
+      </c>
     </row>
     <row r="39" spans="4:9">
       <c r="F39" s="10" t="s">
@@ -5286,29 +5335,33 @@
       </c>
       <c r="I40" s="10"/>
     </row>
-    <row r="41" spans="4:9">
-      <c r="F41" s="10" t="s">
+    <row r="41" spans="4:9" s="58" customFormat="1">
+      <c r="F41" s="59" t="s">
         <v>167</v>
       </c>
-      <c r="G41" s="10" t="s">
+      <c r="G41" s="59" t="s">
         <v>139</v>
       </c>
-      <c r="H41" s="10" t="s">
+      <c r="H41" s="59" t="s">
         <v>168</v>
       </c>
-      <c r="I41" s="11"/>
-    </row>
-    <row r="42" spans="4:9">
-      <c r="F42" s="10" t="s">
+      <c r="I41" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="4:9" s="58" customFormat="1">
+      <c r="F42" s="59" t="s">
         <v>167</v>
       </c>
-      <c r="G42" s="10" t="s">
+      <c r="G42" s="59" t="s">
         <v>142</v>
       </c>
-      <c r="H42" s="10" t="s">
+      <c r="H42" s="59" t="s">
         <v>168</v>
       </c>
-      <c r="I42" s="11"/>
+      <c r="I42" s="58">
+        <v>1</v>
+      </c>
     </row>
     <row r="43" spans="4:9">
       <c r="F43" s="10" t="s">
@@ -5334,29 +5387,33 @@
       </c>
       <c r="I44" s="10"/>
     </row>
-    <row r="45" spans="4:9">
-      <c r="F45" s="10" t="s">
+    <row r="45" spans="4:9" s="58" customFormat="1">
+      <c r="F45" s="59" t="s">
         <v>169</v>
       </c>
-      <c r="G45" s="11" t="s">
+      <c r="G45" s="58" t="s">
         <v>139</v>
       </c>
-      <c r="H45" s="10" t="s">
+      <c r="H45" s="59" t="s">
         <v>168</v>
       </c>
-      <c r="I45" s="11"/>
-    </row>
-    <row r="46" spans="4:9">
-      <c r="F46" s="10" t="s">
+      <c r="I45" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="4:9" s="58" customFormat="1">
+      <c r="F46" s="59" t="s">
         <v>169</v>
       </c>
-      <c r="G46" s="11" t="s">
+      <c r="G46" s="58" t="s">
         <v>142</v>
       </c>
-      <c r="H46" s="10" t="s">
+      <c r="H46" s="59" t="s">
         <v>168</v>
       </c>
-      <c r="I46" s="11"/>
+      <c r="I46" s="58">
+        <v>1</v>
+      </c>
     </row>
     <row r="47" spans="4:9">
       <c r="F47" s="10" t="s">

--- a/src/main/resources/script/meta/micro-service-init-data.xlsx
+++ b/src/main/resources/script/meta/micro-service-init-data.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="268">
   <si>
     <t>IAM_PERMISSION</t>
   </si>
@@ -821,6 +821,74 @@
   </si>
   <si>
     <t>organization</t>
+    <phoneticPr fontId="48" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.code.organization.infra</t>
+    <phoneticPr fontId="48" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础</t>
+    <phoneticPr fontId="48" type="noConversion"/>
+  </si>
+  <si>
+    <t>Basis</t>
+    <phoneticPr fontId="48" type="noConversion"/>
+  </si>
+  <si>
+    <t>hrds-infra-front</t>
+    <phoneticPr fontId="48" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.code.top.organization</t>
+    <phoneticPr fontId="48" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.code.organization.doc-lib-audit</t>
+    <phoneticPr fontId="48" type="noConversion"/>
+  </si>
+  <si>
+    <t>文档库审计</t>
+    <phoneticPr fontId="48" type="noConversion"/>
+  </si>
+  <si>
+    <t>Document Library Audit</t>
+    <phoneticPr fontId="48" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.route.organization.doc-lib-audit</t>
+    <phoneticPr fontId="48" type="noConversion"/>
+  </si>
+  <si>
+    <t>menu_item</t>
+    <phoneticPr fontId="48" type="noConversion"/>
+  </si>
+  <si>
+    <t>work_log</t>
+    <phoneticPr fontId="48" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.code.organization.code-lib-audit</t>
+    <phoneticPr fontId="48" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码库审计</t>
+    <phoneticPr fontId="48" type="noConversion"/>
+  </si>
+  <si>
+    <t>Code Base Audit</t>
+    <phoneticPr fontId="48" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.route.organization.code-lib-audit</t>
+    <phoneticPr fontId="48" type="noConversion"/>
+  </si>
+  <si>
+    <t>hrds-infra-front</t>
+    <phoneticPr fontId="48" type="noConversion"/>
+  </si>
+  <si>
+    <t>work_log</t>
     <phoneticPr fontId="48" type="noConversion"/>
   </si>
 </sst>
@@ -3088,10 +3156,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D7:Q81"/>
+  <dimension ref="D7:Q84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C5" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="H40" sqref="H40"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="P44" sqref="P44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.7"/>
@@ -4102,141 +4170,207 @@
       <c r="P34" s="32"/>
       <c r="Q34" s="32"/>
     </row>
-    <row r="35" spans="6:17">
-      <c r="F35" s="34" t="s">
+    <row r="35" spans="6:17" s="63" customFormat="1" ht="14.15" customHeight="1">
+      <c r="F35" s="63" t="s">
+        <v>251</v>
+      </c>
+      <c r="G35" s="63" t="s">
+        <v>252</v>
+      </c>
+      <c r="H35" s="63" t="s">
+        <v>253</v>
+      </c>
+      <c r="J35" s="63" t="s">
+        <v>254</v>
+      </c>
+      <c r="K35" s="63" t="s">
+        <v>255</v>
+      </c>
+      <c r="L35" s="63" t="s">
+        <v>26</v>
+      </c>
+      <c r="M35" s="63" t="s">
+        <v>108</v>
+      </c>
+      <c r="N35" s="63" t="s">
+        <v>83</v>
+      </c>
+      <c r="O35" s="63">
+        <v>80</v>
+      </c>
+      <c r="Q35" s="63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="6:17" s="59" customFormat="1">
+      <c r="F36" s="59" t="s">
+        <v>256</v>
+      </c>
+      <c r="G36" s="60" t="s">
+        <v>257</v>
+      </c>
+      <c r="H36" s="59" t="s">
+        <v>258</v>
+      </c>
+      <c r="I36" s="59" t="s">
+        <v>259</v>
+      </c>
+      <c r="J36" s="59" t="s">
+        <v>254</v>
+      </c>
+      <c r="K36" s="59" t="s">
+        <v>251</v>
+      </c>
+      <c r="L36" s="59" t="s">
+        <v>26</v>
+      </c>
+      <c r="M36" s="59" t="s">
+        <v>260</v>
+      </c>
+      <c r="N36" s="59" t="s">
+        <v>261</v>
+      </c>
+      <c r="O36" s="59">
+        <v>10</v>
+      </c>
+      <c r="Q36" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="6:17" s="59" customFormat="1">
+      <c r="F37" s="59" t="s">
+        <v>262</v>
+      </c>
+      <c r="G37" s="60" t="s">
+        <v>263</v>
+      </c>
+      <c r="H37" s="59" t="s">
+        <v>264</v>
+      </c>
+      <c r="I37" s="59" t="s">
+        <v>265</v>
+      </c>
+      <c r="J37" s="59" t="s">
+        <v>266</v>
+      </c>
+      <c r="K37" s="59" t="s">
+        <v>251</v>
+      </c>
+      <c r="L37" s="59" t="s">
+        <v>26</v>
+      </c>
+      <c r="M37" s="59" t="s">
+        <v>260</v>
+      </c>
+      <c r="N37" s="59" t="s">
+        <v>267</v>
+      </c>
+      <c r="O37" s="59">
+        <v>20</v>
+      </c>
+      <c r="Q37" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="6:17">
+      <c r="F38" s="34" t="s">
         <v>249</v>
       </c>
-      <c r="G35" s="34" t="s">
+      <c r="G38" s="34" t="s">
         <v>132</v>
       </c>
-      <c r="H35" s="34" t="s">
+      <c r="H38" s="34" t="s">
         <v>133</v>
       </c>
-      <c r="I35" s="34"/>
-      <c r="J35" s="34" t="s">
+      <c r="I38" s="34"/>
+      <c r="J38" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="K35" s="34" t="s">
+      <c r="K38" s="34" t="s">
         <v>149</v>
       </c>
-      <c r="L35" s="34" t="s">
+      <c r="L38" s="34" t="s">
         <v>250</v>
       </c>
-      <c r="M35" s="34" t="s">
+      <c r="M38" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="N35" s="34" t="s">
+      <c r="N38" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="O35" s="34">
-        <v>120</v>
-      </c>
-      <c r="P35" s="34"/>
-      <c r="Q35" s="34"/>
-    </row>
-    <row r="36" spans="6:17">
-      <c r="F36" s="35" t="s">
+      <c r="O38" s="34">
+        <v>80</v>
+      </c>
+      <c r="P38" s="34"/>
+      <c r="Q38" s="34"/>
+    </row>
+    <row r="39" spans="6:17">
+      <c r="F39" s="35" t="s">
         <v>150</v>
       </c>
-      <c r="G36" s="36" t="s">
+      <c r="G39" s="36" t="s">
         <v>151</v>
       </c>
-      <c r="H36" s="35" t="s">
+      <c r="H39" s="35" t="s">
         <v>152</v>
       </c>
-      <c r="I36" s="35" t="s">
+      <c r="I39" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="J36" s="35" t="s">
+      <c r="J39" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="K36" s="35" t="s">
+      <c r="K39" s="35" t="s">
         <v>148</v>
       </c>
-      <c r="L36" s="35" t="s">
+      <c r="L39" s="35" t="s">
         <v>247</v>
       </c>
-      <c r="M36" s="35" t="s">
+      <c r="M39" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="N36" s="35" t="s">
+      <c r="N39" s="35" t="s">
         <v>153</v>
       </c>
-      <c r="O36" s="35">
+      <c r="O39" s="35">
         <v>10</v>
       </c>
-      <c r="P36" s="35"/>
-      <c r="Q36" s="35"/>
-    </row>
-    <row r="37" spans="6:17">
-      <c r="F37" s="35" t="s">
+      <c r="P39" s="35"/>
+      <c r="Q39" s="35"/>
+    </row>
+    <row r="40" spans="6:17">
+      <c r="F40" s="35" t="s">
         <v>154</v>
       </c>
-      <c r="G37" s="36" t="s">
+      <c r="G40" s="36" t="s">
         <v>155</v>
       </c>
-      <c r="H37" s="35" t="s">
+      <c r="H40" s="35" t="s">
         <v>156</v>
       </c>
-      <c r="I37" s="35" t="s">
+      <c r="I40" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="J37" s="35" t="s">
+      <c r="J40" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="K37" s="35" t="s">
+      <c r="K40" s="35" t="s">
         <v>148</v>
       </c>
-      <c r="L37" s="35" t="s">
+      <c r="L40" s="35" t="s">
         <v>248</v>
       </c>
-      <c r="M37" s="35" t="s">
+      <c r="M40" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="N37" s="35" t="s">
+      <c r="N40" s="35" t="s">
         <v>153</v>
       </c>
-      <c r="O37" s="35">
+      <c r="O40" s="35">
         <v>20</v>
       </c>
-      <c r="P37" s="35"/>
-      <c r="Q37" s="35"/>
-    </row>
-    <row r="38" spans="6:17" ht="16.25">
-      <c r="F38" s="37"/>
-      <c r="G38" s="37"/>
-      <c r="H38" s="37"/>
-      <c r="I38" s="37"/>
-      <c r="J38" s="37"/>
-      <c r="K38" s="37"/>
-      <c r="L38" s="37"/>
-      <c r="M38" s="37"/>
-      <c r="N38" s="37"/>
-      <c r="O38" s="37"/>
-    </row>
-    <row r="39" spans="6:17" ht="16.25">
-      <c r="F39" s="37"/>
-      <c r="G39" s="37"/>
-      <c r="H39" s="37"/>
-      <c r="I39" s="37"/>
-      <c r="J39" s="37"/>
-      <c r="K39" s="37"/>
-      <c r="L39" s="37"/>
-      <c r="M39" s="37"/>
-      <c r="N39" s="37"/>
-      <c r="O39" s="37"/>
-    </row>
-    <row r="40" spans="6:17" ht="16.25">
-      <c r="F40" s="37"/>
-      <c r="G40" s="37"/>
-      <c r="H40" s="37"/>
-      <c r="I40" s="37"/>
-      <c r="J40" s="37"/>
-      <c r="K40" s="37"/>
-      <c r="L40" s="37"/>
-      <c r="M40" s="37"/>
-      <c r="N40" s="37"/>
-      <c r="O40" s="37"/>
+      <c r="P40" s="35"/>
+      <c r="Q40" s="35"/>
     </row>
     <row r="41" spans="6:17" ht="16.25">
       <c r="F41" s="37"/>
@@ -4310,9 +4444,9 @@
       <c r="N46" s="37"/>
       <c r="O46" s="37"/>
     </row>
-    <row r="47" spans="6:17" ht="16.899999999999999">
+    <row r="47" spans="6:17" ht="16.25">
       <c r="F47" s="37"/>
-      <c r="G47" s="38"/>
+      <c r="G47" s="37"/>
       <c r="H47" s="37"/>
       <c r="I47" s="37"/>
       <c r="J47" s="37"/>
@@ -4323,44 +4457,44 @@
       <c r="O47" s="37"/>
     </row>
     <row r="48" spans="6:17" ht="16.25">
-      <c r="F48" s="39"/>
-      <c r="G48" s="39"/>
-      <c r="H48" s="39"/>
-      <c r="I48" s="39"/>
-      <c r="J48" s="39"/>
-      <c r="K48" s="39"/>
-      <c r="L48" s="39"/>
-      <c r="M48" s="39"/>
-      <c r="N48" s="39"/>
-      <c r="O48" s="39"/>
+      <c r="F48" s="37"/>
+      <c r="G48" s="37"/>
+      <c r="H48" s="37"/>
+      <c r="I48" s="37"/>
+      <c r="J48" s="37"/>
+      <c r="K48" s="37"/>
+      <c r="L48" s="37"/>
+      <c r="M48" s="37"/>
+      <c r="N48" s="37"/>
+      <c r="O48" s="37"/>
     </row>
     <row r="49" spans="6:15" ht="16.25">
-      <c r="F49" s="39"/>
-      <c r="G49" s="39"/>
-      <c r="H49" s="39"/>
-      <c r="I49" s="39"/>
-      <c r="J49" s="39"/>
-      <c r="K49" s="39"/>
-      <c r="L49" s="39"/>
-      <c r="M49" s="39"/>
-      <c r="N49" s="39"/>
-      <c r="O49" s="39"/>
-    </row>
-    <row r="50" spans="6:15" ht="16.25">
-      <c r="F50" s="39"/>
-      <c r="G50" s="39"/>
-      <c r="H50" s="39"/>
-      <c r="I50" s="39"/>
-      <c r="J50" s="39"/>
-      <c r="K50" s="39"/>
-      <c r="L50" s="39"/>
-      <c r="M50" s="39"/>
-      <c r="N50" s="39"/>
-      <c r="O50" s="39"/>
-    </row>
-    <row r="51" spans="6:15" ht="16.899999999999999">
+      <c r="F49" s="37"/>
+      <c r="G49" s="37"/>
+      <c r="H49" s="37"/>
+      <c r="I49" s="37"/>
+      <c r="J49" s="37"/>
+      <c r="K49" s="37"/>
+      <c r="L49" s="37"/>
+      <c r="M49" s="37"/>
+      <c r="N49" s="37"/>
+      <c r="O49" s="37"/>
+    </row>
+    <row r="50" spans="6:15" ht="16.899999999999999">
+      <c r="F50" s="37"/>
+      <c r="G50" s="38"/>
+      <c r="H50" s="37"/>
+      <c r="I50" s="37"/>
+      <c r="J50" s="37"/>
+      <c r="K50" s="37"/>
+      <c r="L50" s="37"/>
+      <c r="M50" s="37"/>
+      <c r="N50" s="37"/>
+      <c r="O50" s="37"/>
+    </row>
+    <row r="51" spans="6:15" ht="16.25">
       <c r="F51" s="39"/>
-      <c r="G51" s="40"/>
+      <c r="G51" s="39"/>
       <c r="H51" s="39"/>
       <c r="I51" s="39"/>
       <c r="J51" s="39"/>
@@ -4382,9 +4516,9 @@
       <c r="N52" s="39"/>
       <c r="O52" s="39"/>
     </row>
-    <row r="53" spans="6:15" ht="16.899999999999999">
+    <row r="53" spans="6:15" ht="16.25">
       <c r="F53" s="39"/>
-      <c r="G53" s="40"/>
+      <c r="G53" s="39"/>
       <c r="H53" s="39"/>
       <c r="I53" s="39"/>
       <c r="J53" s="39"/>
@@ -4394,9 +4528,9 @@
       <c r="N53" s="39"/>
       <c r="O53" s="39"/>
     </row>
-    <row r="54" spans="6:15" ht="16.25">
+    <row r="54" spans="6:15" ht="16.899999999999999">
       <c r="F54" s="39"/>
-      <c r="G54" s="39"/>
+      <c r="G54" s="40"/>
       <c r="H54" s="39"/>
       <c r="I54" s="39"/>
       <c r="J54" s="39"/>
@@ -4454,9 +4588,9 @@
       <c r="N58" s="39"/>
       <c r="O58" s="39"/>
     </row>
-    <row r="59" spans="6:15" ht="16.25">
+    <row r="59" spans="6:15" ht="16.899999999999999">
       <c r="F59" s="39"/>
-      <c r="G59" s="39"/>
+      <c r="G59" s="40"/>
       <c r="H59" s="39"/>
       <c r="I59" s="39"/>
       <c r="J59" s="39"/>
@@ -4491,40 +4625,40 @@
       <c r="O61" s="39"/>
     </row>
     <row r="62" spans="6:15" ht="16.25">
-      <c r="F62" s="41"/>
-      <c r="G62" s="41"/>
-      <c r="H62" s="41"/>
-      <c r="I62" s="41"/>
-      <c r="J62" s="41"/>
-      <c r="K62" s="41"/>
-      <c r="L62" s="41"/>
-      <c r="M62" s="41"/>
-      <c r="N62" s="41"/>
-      <c r="O62" s="41"/>
+      <c r="F62" s="39"/>
+      <c r="G62" s="39"/>
+      <c r="H62" s="39"/>
+      <c r="I62" s="39"/>
+      <c r="J62" s="39"/>
+      <c r="K62" s="39"/>
+      <c r="L62" s="39"/>
+      <c r="M62" s="39"/>
+      <c r="N62" s="39"/>
+      <c r="O62" s="39"/>
     </row>
     <row r="63" spans="6:15" ht="16.25">
-      <c r="F63" s="41"/>
-      <c r="G63" s="41"/>
-      <c r="H63" s="41"/>
-      <c r="I63" s="41"/>
-      <c r="J63" s="41"/>
-      <c r="K63" s="41"/>
-      <c r="L63" s="41"/>
-      <c r="M63" s="41"/>
-      <c r="N63" s="41"/>
-      <c r="O63" s="41"/>
+      <c r="F63" s="39"/>
+      <c r="G63" s="39"/>
+      <c r="H63" s="39"/>
+      <c r="I63" s="39"/>
+      <c r="J63" s="39"/>
+      <c r="K63" s="39"/>
+      <c r="L63" s="39"/>
+      <c r="M63" s="39"/>
+      <c r="N63" s="39"/>
+      <c r="O63" s="39"/>
     </row>
     <row r="64" spans="6:15" ht="16.25">
-      <c r="F64" s="41"/>
-      <c r="G64" s="41"/>
-      <c r="H64" s="41"/>
-      <c r="I64" s="41"/>
-      <c r="J64" s="41"/>
-      <c r="K64" s="41"/>
-      <c r="L64" s="41"/>
-      <c r="M64" s="41"/>
-      <c r="N64" s="41"/>
-      <c r="O64" s="41"/>
+      <c r="F64" s="39"/>
+      <c r="G64" s="39"/>
+      <c r="H64" s="39"/>
+      <c r="I64" s="39"/>
+      <c r="J64" s="39"/>
+      <c r="K64" s="39"/>
+      <c r="L64" s="39"/>
+      <c r="M64" s="39"/>
+      <c r="N64" s="39"/>
+      <c r="O64" s="39"/>
     </row>
     <row r="65" spans="6:15" ht="16.25">
       <c r="F65" s="41"/>
@@ -4538,77 +4672,77 @@
       <c r="N65" s="41"/>
       <c r="O65" s="41"/>
     </row>
-    <row r="66" spans="6:15" ht="16.899999999999999">
-      <c r="F66" s="44"/>
-      <c r="G66" s="44"/>
-      <c r="H66" s="44"/>
-      <c r="I66" s="44"/>
-      <c r="J66" s="44"/>
-      <c r="K66" s="44"/>
-      <c r="L66" s="44"/>
-      <c r="M66" s="44"/>
-      <c r="N66" s="47"/>
-      <c r="O66" s="44"/>
-    </row>
-    <row r="67" spans="6:15" ht="16.899999999999999">
-      <c r="F67" s="44"/>
-      <c r="G67" s="44"/>
-      <c r="H67" s="44"/>
-      <c r="I67" s="44"/>
-      <c r="J67" s="44"/>
-      <c r="K67" s="44"/>
-      <c r="L67" s="44"/>
-      <c r="M67" s="44"/>
-      <c r="N67" s="47"/>
-      <c r="O67" s="44"/>
-    </row>
-    <row r="68" spans="6:15" ht="16.899999999999999">
-      <c r="F68" s="44"/>
-      <c r="G68" s="44"/>
-      <c r="H68" s="44"/>
-      <c r="I68" s="44"/>
-      <c r="J68" s="44"/>
-      <c r="K68" s="44"/>
-      <c r="L68" s="44"/>
-      <c r="M68" s="44"/>
-      <c r="N68" s="44"/>
-      <c r="O68" s="44"/>
-    </row>
-    <row r="69" spans="6:15" s="25" customFormat="1" ht="16.899999999999999">
-      <c r="F69" s="37"/>
-      <c r="G69" s="38"/>
-      <c r="H69" s="37"/>
-      <c r="I69" s="37"/>
-      <c r="J69" s="37"/>
-      <c r="K69" s="37"/>
-      <c r="L69" s="37"/>
-      <c r="M69" s="37"/>
-      <c r="N69" s="37"/>
-      <c r="O69" s="37"/>
-    </row>
-    <row r="70" spans="6:15" s="25" customFormat="1" ht="16.899999999999999">
-      <c r="F70" s="37"/>
-      <c r="G70" s="38"/>
-      <c r="H70" s="37"/>
-      <c r="I70" s="37"/>
-      <c r="J70" s="37"/>
-      <c r="K70" s="37"/>
-      <c r="L70" s="37"/>
-      <c r="M70" s="37"/>
-      <c r="N70" s="37"/>
-      <c r="O70" s="37"/>
-    </row>
-    <row r="71" spans="6:15" s="25" customFormat="1" ht="16.899999999999999">
-      <c r="F71" s="37"/>
-      <c r="G71" s="38"/>
-      <c r="H71" s="37"/>
-      <c r="I71" s="37"/>
-      <c r="J71" s="37"/>
-      <c r="K71" s="37"/>
-      <c r="L71" s="37"/>
-      <c r="M71" s="37"/>
-      <c r="N71" s="37"/>
-      <c r="O71" s="37"/>
+    <row r="66" spans="6:15" ht="16.25">
+      <c r="F66" s="41"/>
+      <c r="G66" s="41"/>
+      <c r="H66" s="41"/>
+      <c r="I66" s="41"/>
+      <c r="J66" s="41"/>
+      <c r="K66" s="41"/>
+      <c r="L66" s="41"/>
+      <c r="M66" s="41"/>
+      <c r="N66" s="41"/>
+      <c r="O66" s="41"/>
+    </row>
+    <row r="67" spans="6:15" ht="16.25">
+      <c r="F67" s="41"/>
+      <c r="G67" s="41"/>
+      <c r="H67" s="41"/>
+      <c r="I67" s="41"/>
+      <c r="J67" s="41"/>
+      <c r="K67" s="41"/>
+      <c r="L67" s="41"/>
+      <c r="M67" s="41"/>
+      <c r="N67" s="41"/>
+      <c r="O67" s="41"/>
+    </row>
+    <row r="68" spans="6:15" ht="16.25">
+      <c r="F68" s="41"/>
+      <c r="G68" s="41"/>
+      <c r="H68" s="41"/>
+      <c r="I68" s="41"/>
+      <c r="J68" s="41"/>
+      <c r="K68" s="41"/>
+      <c r="L68" s="41"/>
+      <c r="M68" s="41"/>
+      <c r="N68" s="41"/>
+      <c r="O68" s="41"/>
+    </row>
+    <row r="69" spans="6:15" ht="16.899999999999999">
+      <c r="F69" s="44"/>
+      <c r="G69" s="44"/>
+      <c r="H69" s="44"/>
+      <c r="I69" s="44"/>
+      <c r="J69" s="44"/>
+      <c r="K69" s="44"/>
+      <c r="L69" s="44"/>
+      <c r="M69" s="44"/>
+      <c r="N69" s="47"/>
+      <c r="O69" s="44"/>
+    </row>
+    <row r="70" spans="6:15" ht="16.899999999999999">
+      <c r="F70" s="44"/>
+      <c r="G70" s="44"/>
+      <c r="H70" s="44"/>
+      <c r="I70" s="44"/>
+      <c r="J70" s="44"/>
+      <c r="K70" s="44"/>
+      <c r="L70" s="44"/>
+      <c r="M70" s="44"/>
+      <c r="N70" s="47"/>
+      <c r="O70" s="44"/>
+    </row>
+    <row r="71" spans="6:15" ht="16.899999999999999">
+      <c r="F71" s="44"/>
+      <c r="G71" s="44"/>
+      <c r="H71" s="44"/>
+      <c r="I71" s="44"/>
+      <c r="J71" s="44"/>
+      <c r="K71" s="44"/>
+      <c r="L71" s="44"/>
+      <c r="M71" s="44"/>
+      <c r="N71" s="44"/>
+      <c r="O71" s="44"/>
     </row>
     <row r="72" spans="6:15" s="25" customFormat="1" ht="16.899999999999999">
       <c r="F72" s="37"/>
@@ -4646,41 +4780,41 @@
       <c r="N74" s="37"/>
       <c r="O74" s="37"/>
     </row>
-    <row r="75" spans="6:15" ht="16.25">
-      <c r="F75" s="45"/>
-      <c r="G75" s="45"/>
-      <c r="H75" s="45"/>
-      <c r="I75" s="45"/>
-      <c r="J75" s="45"/>
-      <c r="K75" s="45"/>
-      <c r="L75" s="45"/>
-      <c r="M75" s="45"/>
-      <c r="N75" s="45"/>
-      <c r="O75" s="45"/>
-    </row>
-    <row r="76" spans="6:15" ht="16.25">
-      <c r="F76" s="45"/>
-      <c r="G76" s="45"/>
-      <c r="H76" s="45"/>
-      <c r="I76" s="45"/>
-      <c r="J76" s="45"/>
-      <c r="K76" s="45"/>
-      <c r="L76" s="45"/>
-      <c r="M76" s="45"/>
-      <c r="N76" s="45"/>
-      <c r="O76" s="45"/>
-    </row>
-    <row r="77" spans="6:15" ht="16.25">
-      <c r="F77" s="45"/>
-      <c r="G77" s="45"/>
-      <c r="H77" s="45"/>
-      <c r="I77" s="45"/>
-      <c r="J77" s="45"/>
-      <c r="K77" s="45"/>
-      <c r="L77" s="45"/>
-      <c r="M77" s="45"/>
-      <c r="N77" s="45"/>
-      <c r="O77" s="45"/>
+    <row r="75" spans="6:15" s="25" customFormat="1" ht="16.899999999999999">
+      <c r="F75" s="37"/>
+      <c r="G75" s="38"/>
+      <c r="H75" s="37"/>
+      <c r="I75" s="37"/>
+      <c r="J75" s="37"/>
+      <c r="K75" s="37"/>
+      <c r="L75" s="37"/>
+      <c r="M75" s="37"/>
+      <c r="N75" s="37"/>
+      <c r="O75" s="37"/>
+    </row>
+    <row r="76" spans="6:15" s="25" customFormat="1" ht="16.899999999999999">
+      <c r="F76" s="37"/>
+      <c r="G76" s="38"/>
+      <c r="H76" s="37"/>
+      <c r="I76" s="37"/>
+      <c r="J76" s="37"/>
+      <c r="K76" s="37"/>
+      <c r="L76" s="37"/>
+      <c r="M76" s="37"/>
+      <c r="N76" s="37"/>
+      <c r="O76" s="37"/>
+    </row>
+    <row r="77" spans="6:15" s="25" customFormat="1" ht="16.899999999999999">
+      <c r="F77" s="37"/>
+      <c r="G77" s="38"/>
+      <c r="H77" s="37"/>
+      <c r="I77" s="37"/>
+      <c r="J77" s="37"/>
+      <c r="K77" s="37"/>
+      <c r="L77" s="37"/>
+      <c r="M77" s="37"/>
+      <c r="N77" s="37"/>
+      <c r="O77" s="37"/>
     </row>
     <row r="78" spans="6:15" ht="16.25">
       <c r="F78" s="45"/>
@@ -4694,9 +4828,9 @@
       <c r="N78" s="45"/>
       <c r="O78" s="45"/>
     </row>
-    <row r="79" spans="6:15" ht="16.899999999999999">
+    <row r="79" spans="6:15" ht="16.25">
       <c r="F79" s="45"/>
-      <c r="G79" s="46"/>
+      <c r="G79" s="45"/>
       <c r="H79" s="45"/>
       <c r="I79" s="45"/>
       <c r="J79" s="45"/>
@@ -4710,10 +4844,12 @@
       <c r="F80" s="45"/>
       <c r="G80" s="45"/>
       <c r="H80" s="45"/>
+      <c r="I80" s="45"/>
       <c r="J80" s="45"/>
       <c r="K80" s="45"/>
       <c r="L80" s="45"/>
       <c r="M80" s="45"/>
+      <c r="N80" s="45"/>
       <c r="O80" s="45"/>
     </row>
     <row r="81" spans="6:15" ht="16.25">
@@ -4727,6 +4863,40 @@
       <c r="M81" s="45"/>
       <c r="N81" s="45"/>
       <c r="O81" s="45"/>
+    </row>
+    <row r="82" spans="6:15" ht="16.899999999999999">
+      <c r="F82" s="45"/>
+      <c r="G82" s="46"/>
+      <c r="H82" s="45"/>
+      <c r="I82" s="45"/>
+      <c r="J82" s="45"/>
+      <c r="K82" s="45"/>
+      <c r="L82" s="45"/>
+      <c r="M82" s="45"/>
+      <c r="N82" s="45"/>
+      <c r="O82" s="45"/>
+    </row>
+    <row r="83" spans="6:15" ht="16.25">
+      <c r="F83" s="45"/>
+      <c r="G83" s="45"/>
+      <c r="H83" s="45"/>
+      <c r="J83" s="45"/>
+      <c r="K83" s="45"/>
+      <c r="L83" s="45"/>
+      <c r="M83" s="45"/>
+      <c r="O83" s="45"/>
+    </row>
+    <row r="84" spans="6:15" ht="16.25">
+      <c r="F84" s="45"/>
+      <c r="G84" s="45"/>
+      <c r="H84" s="45"/>
+      <c r="I84" s="45"/>
+      <c r="J84" s="45"/>
+      <c r="K84" s="45"/>
+      <c r="L84" s="45"/>
+      <c r="M84" s="45"/>
+      <c r="N84" s="45"/>
+      <c r="O84" s="45"/>
     </row>
   </sheetData>
   <phoneticPr fontId="48" type="noConversion"/>

--- a/src/main/resources/script/meta/micro-service-init-data.xlsx
+++ b/src/main/resources/script/meta/micro-service-init-data.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\RD\hrds-code-repo\src\main\resources\script\meta\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12597" tabRatio="845" firstSheet="2" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12600" tabRatio="845" firstSheet="4" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
@@ -23,12 +18,12 @@
     <sheet name="FD_LOOKUP" sheetId="9" r:id="rId9"/>
     <sheet name="FD_LOOKUP_VALUE" sheetId="10" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258">
   <si>
     <t>IAM_PERMISSION</t>
   </si>
@@ -155,7 +150,7 @@
         <sz val="10"/>
         <color theme="2" tint="-0.249977111117893"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>choerodon.</t>
     </r>
@@ -164,7 +159,7 @@
         <sz val="10"/>
         <color theme="2" tint="-0.249977111117893"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>route.organization.ps-view</t>
     </r>
@@ -181,7 +176,7 @@
         <sz val="10"/>
         <color theme="2" tint="-0.249977111117893"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>choerodon.</t>
     </r>
@@ -190,7 +185,7 @@
         <sz val="10"/>
         <color theme="2" tint="-0.249977111117893"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>route.organization.operation-logs</t>
     </r>
@@ -694,6 +689,18 @@
     <t>操作日志成员管理事件类型</t>
   </si>
   <si>
+    <t>RDUCM.APPLICANT_TYPE</t>
+  </si>
+  <si>
+    <t>成员申请类型</t>
+  </si>
+  <si>
+    <t>RDUCM.APPROVAL_STATE</t>
+  </si>
+  <si>
+    <t>成员审批状态</t>
+  </si>
+  <si>
     <t>FD_LOOKUP_VALUE</t>
   </si>
   <si>
@@ -796,107 +803,47 @@
     <t>移除过期成员</t>
   </si>
   <si>
-    <t>choerodon.route.project.doc-lib-management</t>
-    <phoneticPr fontId="48" type="noConversion"/>
-  </si>
-  <si>
-    <t>choerodon.route.project.doc.ps-assign</t>
-    <phoneticPr fontId="48" type="noConversion"/>
-  </si>
-  <si>
-    <t>organization</t>
-    <phoneticPr fontId="48" type="noConversion"/>
-  </si>
-  <si>
-    <t>organization</t>
-    <phoneticPr fontId="48" type="noConversion"/>
-  </si>
-  <si>
-    <t>organization</t>
-    <phoneticPr fontId="48" type="noConversion"/>
-  </si>
-  <si>
-    <t>choerodon.code.organization.infra</t>
-    <phoneticPr fontId="48" type="noConversion"/>
-  </si>
-  <si>
-    <t>organization</t>
-    <phoneticPr fontId="48" type="noConversion"/>
-  </si>
-  <si>
-    <t>choerodon.code.organization.infra</t>
-    <phoneticPr fontId="48" type="noConversion"/>
-  </si>
-  <si>
-    <t>基础</t>
-    <phoneticPr fontId="48" type="noConversion"/>
-  </si>
-  <si>
-    <t>Basis</t>
-    <phoneticPr fontId="48" type="noConversion"/>
-  </si>
-  <si>
-    <t>hrds-infra-front</t>
-    <phoneticPr fontId="48" type="noConversion"/>
-  </si>
-  <si>
-    <t>choerodon.code.top.organization</t>
-    <phoneticPr fontId="48" type="noConversion"/>
-  </si>
-  <si>
-    <t>choerodon.code.organization.doc-lib-audit</t>
-    <phoneticPr fontId="48" type="noConversion"/>
-  </si>
-  <si>
-    <t>文档库审计</t>
-    <phoneticPr fontId="48" type="noConversion"/>
-  </si>
-  <si>
-    <t>Document Library Audit</t>
-    <phoneticPr fontId="48" type="noConversion"/>
-  </si>
-  <si>
-    <t>choerodon.route.organization.doc-lib-audit</t>
-    <phoneticPr fontId="48" type="noConversion"/>
-  </si>
-  <si>
-    <t>menu_item</t>
-    <phoneticPr fontId="48" type="noConversion"/>
-  </si>
-  <si>
-    <t>work_log</t>
-    <phoneticPr fontId="48" type="noConversion"/>
-  </si>
-  <si>
-    <t>choerodon.code.organization.code-lib-audit</t>
-    <phoneticPr fontId="48" type="noConversion"/>
-  </si>
-  <si>
-    <t>代码库审计</t>
-    <phoneticPr fontId="48" type="noConversion"/>
-  </si>
-  <si>
-    <t>Code Base Audit</t>
-    <phoneticPr fontId="48" type="noConversion"/>
-  </si>
-  <si>
-    <t>choerodon.route.organization.code-lib-audit</t>
-    <phoneticPr fontId="48" type="noConversion"/>
-  </si>
-  <si>
-    <t>hrds-infra-front</t>
-    <phoneticPr fontId="48" type="noConversion"/>
-  </si>
-  <si>
-    <t>work_log</t>
-    <phoneticPr fontId="48" type="noConversion"/>
+    <t>MEMBER_JOIN</t>
+  </si>
+  <si>
+    <t>新成员</t>
+  </si>
+  <si>
+    <t>MEMBER_PERMISSION_CHANGE</t>
+  </si>
+  <si>
+    <t>权限变更</t>
+  </si>
+  <si>
+    <t>PENDING</t>
+  </si>
+  <si>
+    <t>待审批</t>
+  </si>
+  <si>
+    <t>APPROVED</t>
+  </si>
+  <si>
+    <t>通过</t>
+  </si>
+  <si>
+    <t>REJECTED</t>
+  </si>
+  <si>
+    <t>不通过</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="53">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="68">
     <font>
       <sz val="10"/>
       <name val="Droid Sans Fallback"/>
@@ -910,20 +857,26 @@
     </font>
     <font>
       <sz val="10"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="Droid Sans Fallback"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="DejaVu Sans"/>
-      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF494949"/>
       <name val="Tahoma"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -940,7 +893,7 @@
       <sz val="9"/>
       <color theme="2" tint="-0.249977111117893"/>
       <name val="Tahoma"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -952,7 +905,7 @@
       <sz val="9"/>
       <color theme="4" tint="-0.249977111117893"/>
       <name val="Tahoma"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -968,7 +921,7 @@
     <font>
       <sz val="10"/>
       <name val="DejaVu Sans"/>
-      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1005,13 +958,20 @@
     <font>
       <b/>
       <sz val="10"/>
-      <color theme="5" tint="0.39994506668294322"/>
+      <color theme="5" tint="0.399945066682943"/>
       <name val="Droid Sans Fallback"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
-      <color theme="5" tint="0.39994506668294322"/>
+      <color theme="5" tint="0.399945066682943"/>
+      <name val="Droid Sans Fallback"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0" tint="-0.249977111117893"/>
       <name val="Droid Sans Fallback"/>
       <charset val="134"/>
     </font>
@@ -1025,7 +985,6 @@
       <sz val="10"/>
       <color theme="2" tint="-0.249977111117893"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1040,7 +999,6 @@
       <sz val="10"/>
       <color theme="2" tint="-0.249977111117893"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1060,7 +1018,12 @@
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1080,161 +1043,442 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="PingFang SC"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF5B9BD5"/>
       <name val="PingFang SC"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF5B9BD5"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="2" tint="-0.249977111117893"/>
+      <name val="Times New Roman"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFFC000"/>
       <name val="PingFang SC"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="2" tint="-0.249977111117893"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="13"/>
       <name val="PingFang SC"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF8F187C"/>
       <name val="PingFang SC"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF8F187C"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="13"/>
       <name val="Helvetica"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="2" tint="-0.249977111117893"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF00B0F0"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="0" tint="-0.249977111117893"/>
-      <name val="Droid Sans Fallback"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="0" tint="-0.249977111117893"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="0" tint="-0.249977111117893"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF00B0F0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="10"/>
-      <color theme="0" tint="-0.249977111117893"/>
-      <name val="Droid Sans Fallback"/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1257,91 +1501,373 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="51" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1599,19 +2125,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="D7:Q57"/>
   <sheetViews>
-    <sheetView topLeftCell="G3" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+    <sheetView zoomScale="95" zoomScaleNormal="95" topLeftCell="G3" workbookViewId="0">
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="9.125" customWidth="1"/>
     <col min="2" max="2" width="9.625" customWidth="1"/>
@@ -1631,1055 +2157,1054 @@
     <col min="16" max="1025" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:17" ht="12.85" customHeight="1">
-      <c r="D7" s="16" t="s">
+    <row r="7" ht="12.85" customHeight="1" spans="4:15">
+      <c r="D7" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="E7" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F7" s="16" t="s">
+      <c r="E7" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="G7" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="H7" s="16" t="s">
+      <c r="H7" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="I7" s="16" t="s">
+      <c r="I7" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="J7" s="16" t="s">
+      <c r="J7" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="K7" s="16" t="s">
+      <c r="K7" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="L7" s="16" t="s">
+      <c r="L7" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="M7" s="16" t="s">
+      <c r="M7" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="N7" s="16" t="s">
+      <c r="N7" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="O7" s="16" t="s">
+      <c r="O7" s="18" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="4:17" s="30" customFormat="1">
-      <c r="F8" s="7" t="s">
+    <row r="8" s="33" customFormat="1" ht="14.4" spans="6:17">
+      <c r="F8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="H8" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="I8" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="J8" s="26" t="s">
+      <c r="J8" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="K8" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="L8" s="7">
+      <c r="L8" s="8">
         <v>0</v>
       </c>
-      <c r="M8" s="7">
+      <c r="M8" s="8">
         <v>0</v>
       </c>
-      <c r="N8" s="7">
+      <c r="N8" s="8">
         <v>0</v>
       </c>
-      <c r="O8" s="7">
-        <v>1</v>
-      </c>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
-    </row>
-    <row r="9" spans="4:17" s="30" customFormat="1">
-      <c r="F9" s="7" t="s">
+      <c r="O8" s="8">
+        <v>1</v>
+      </c>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+    </row>
+    <row r="9" s="33" customFormat="1" ht="14.4" spans="6:17">
+      <c r="F9" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="H9" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="7" t="s">
+      <c r="I9" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="J9" s="26" t="s">
+      <c r="J9" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="K9" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="L9" s="7">
+      <c r="L9" s="8">
         <v>0</v>
       </c>
-      <c r="M9" s="7">
+      <c r="M9" s="8">
         <v>0</v>
       </c>
-      <c r="N9" s="7">
+      <c r="N9" s="8">
         <v>0</v>
       </c>
-      <c r="O9" s="7">
-        <v>1</v>
-      </c>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
-    </row>
-    <row r="10" spans="4:17" s="30" customFormat="1">
-      <c r="F10" s="7" t="s">
+      <c r="O9" s="8">
+        <v>1</v>
+      </c>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
+    </row>
+    <row r="10" s="33" customFormat="1" ht="14.4" spans="6:17">
+      <c r="F10" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="H10" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="I10" s="7" t="s">
+      <c r="I10" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="J10" s="26" t="s">
+      <c r="J10" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="K10" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="L10" s="7">
+      <c r="L10" s="8">
         <v>0</v>
       </c>
-      <c r="M10" s="7">
+      <c r="M10" s="8">
         <v>0</v>
       </c>
-      <c r="N10" s="7">
+      <c r="N10" s="8">
         <v>0</v>
       </c>
-      <c r="O10" s="7">
-        <v>1</v>
-      </c>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="7"/>
-    </row>
-    <row r="11" spans="4:17" s="30" customFormat="1">
-      <c r="F11" s="7" t="s">
+      <c r="O10" s="8">
+        <v>1</v>
+      </c>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+    </row>
+    <row r="11" s="33" customFormat="1" ht="14.4" spans="6:17">
+      <c r="F11" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="G11" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="H11" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="I11" s="7" t="s">
+      <c r="I11" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="J11" s="26" t="s">
+      <c r="J11" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="K11" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="L11" s="7">
+      <c r="L11" s="8">
         <v>0</v>
       </c>
-      <c r="M11" s="7">
+      <c r="M11" s="8">
         <v>0</v>
       </c>
-      <c r="N11" s="7">
+      <c r="N11" s="8">
         <v>0</v>
       </c>
-      <c r="O11" s="7">
-        <v>1</v>
-      </c>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="7"/>
-    </row>
-    <row r="12" spans="4:17" s="30" customFormat="1">
-      <c r="F12" s="7" t="s">
+      <c r="O11" s="8">
+        <v>1</v>
+      </c>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+    </row>
+    <row r="12" s="33" customFormat="1" ht="14.4" spans="6:17">
+      <c r="F12" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="G12" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="H12" s="7" t="s">
+      <c r="H12" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="I12" s="7" t="s">
+      <c r="I12" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="J12" s="26" t="s">
+      <c r="J12" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="K12" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="L12" s="7">
+      <c r="L12" s="8">
         <v>0</v>
       </c>
-      <c r="M12" s="7">
+      <c r="M12" s="8">
         <v>0</v>
       </c>
-      <c r="N12" s="7">
+      <c r="N12" s="8">
         <v>0</v>
       </c>
-      <c r="O12" s="7">
-        <v>1</v>
-      </c>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="7"/>
-    </row>
-    <row r="13" spans="4:17" s="30" customFormat="1">
-      <c r="F13" s="7" t="s">
+      <c r="O12" s="8">
+        <v>1</v>
+      </c>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
+    </row>
+    <row r="13" s="33" customFormat="1" spans="6:17">
+      <c r="F13" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="G13" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="H13" s="7" t="s">
+      <c r="H13" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="7" t="s">
+      <c r="I13" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="J13" s="7" t="s">
+      <c r="J13" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="K13" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="L13" s="7">
+      <c r="L13" s="8">
         <v>0</v>
       </c>
-      <c r="M13" s="7">
+      <c r="M13" s="8">
         <v>0</v>
       </c>
-      <c r="N13" s="7">
+      <c r="N13" s="8">
         <v>0</v>
       </c>
-      <c r="O13" s="7">
-        <v>1</v>
-      </c>
-      <c r="P13" s="7"/>
-      <c r="Q13" s="7"/>
-    </row>
-    <row r="14" spans="4:17" s="30" customFormat="1">
-      <c r="F14" s="7" t="s">
+      <c r="O13" s="8">
+        <v>1</v>
+      </c>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
+    </row>
+    <row r="14" s="33" customFormat="1" ht="14.4" spans="6:17">
+      <c r="F14" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="G14" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="H14" s="7" t="s">
+      <c r="H14" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="I14" s="7" t="s">
+      <c r="I14" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="J14" s="26" t="s">
+      <c r="J14" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="K14" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="L14" s="7">
+      <c r="L14" s="8">
         <v>0</v>
       </c>
-      <c r="M14" s="7">
+      <c r="M14" s="8">
         <v>0</v>
       </c>
-      <c r="N14" s="7">
+      <c r="N14" s="8">
         <v>0</v>
       </c>
-      <c r="O14" s="7">
-        <v>1</v>
-      </c>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="7"/>
-    </row>
-    <row r="15" spans="4:17" s="30" customFormat="1">
-      <c r="F15" s="7" t="s">
+      <c r="O14" s="8">
+        <v>1</v>
+      </c>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+    </row>
+    <row r="15" s="33" customFormat="1" ht="14.4" spans="6:17">
+      <c r="F15" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="G15" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="H15" s="7" t="s">
+      <c r="H15" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="I15" s="7" t="s">
+      <c r="I15" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="J15" s="26" t="s">
+      <c r="J15" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="K15" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="L15" s="7">
+      <c r="L15" s="8">
         <v>0</v>
       </c>
-      <c r="M15" s="7">
+      <c r="M15" s="8">
         <v>0</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N15" s="8">
         <v>0</v>
       </c>
-      <c r="O15" s="7">
-        <v>1</v>
-      </c>
-      <c r="P15" s="7"/>
-      <c r="Q15" s="7"/>
-    </row>
-    <row r="16" spans="4:17" s="23" customFormat="1" ht="13">
-      <c r="F16" s="48" t="s">
+      <c r="O15" s="8">
+        <v>1</v>
+      </c>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
+    </row>
+    <row r="16" s="25" customFormat="1" spans="6:17">
+      <c r="F16" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="G16" s="49" t="s">
+      <c r="G16" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="H16" s="49" t="s">
+      <c r="H16" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="I16" s="49" t="s">
+      <c r="I16" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="J16" s="43" t="s">
+      <c r="J16" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="K16" s="49" t="s">
+      <c r="K16" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="L16" s="48">
+      <c r="L16" s="52">
         <v>0</v>
       </c>
-      <c r="M16" s="48">
+      <c r="M16" s="52">
         <v>0</v>
       </c>
-      <c r="N16" s="48">
+      <c r="N16" s="52">
         <v>0</v>
       </c>
-      <c r="O16" s="7">
-        <v>1</v>
-      </c>
-      <c r="P16" s="7"/>
-      <c r="Q16" s="7"/>
-    </row>
-    <row r="17" spans="4:17" s="23" customFormat="1" ht="13">
-      <c r="F17" s="48" t="s">
+      <c r="O16" s="8">
+        <v>1</v>
+      </c>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
+    </row>
+    <row r="17" s="25" customFormat="1" spans="6:17">
+      <c r="F17" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="G17" s="49" t="s">
+      <c r="G17" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="H17" s="49" t="s">
+      <c r="H17" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="I17" s="49" t="s">
+      <c r="I17" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="J17" s="43" t="s">
+      <c r="J17" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="K17" s="49" t="s">
+      <c r="K17" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="L17" s="48">
+      <c r="L17" s="52">
         <v>0</v>
       </c>
-      <c r="M17" s="48">
+      <c r="M17" s="52">
         <v>0</v>
       </c>
-      <c r="N17" s="48">
+      <c r="N17" s="52">
         <v>0</v>
       </c>
-      <c r="O17" s="7">
-        <v>1</v>
-      </c>
-      <c r="P17" s="27"/>
-      <c r="Q17" s="7"/>
-    </row>
-    <row r="18" spans="4:17">
-      <c r="D18" s="15"/>
-      <c r="F18" s="30" t="s">
+      <c r="O17" s="8">
+        <v>1</v>
+      </c>
+      <c r="P17" s="30"/>
+      <c r="Q17" s="8"/>
+    </row>
+    <row r="18" ht="14.4" spans="4:17">
+      <c r="D18" s="17"/>
+      <c r="F18" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="G18" s="30" t="s">
+      <c r="G18" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="H18" s="30" t="s">
+      <c r="H18" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="I18" s="30" t="s">
+      <c r="I18" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="J18" s="53" t="s">
+      <c r="J18" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="K18" s="30" t="s">
+      <c r="K18" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="L18" s="30">
+      <c r="L18" s="33">
         <v>0</v>
       </c>
-      <c r="M18" s="30">
+      <c r="M18" s="33">
         <v>0</v>
       </c>
-      <c r="N18" s="30">
+      <c r="N18" s="33">
         <v>0</v>
       </c>
-      <c r="O18" s="30"/>
-      <c r="P18" s="7"/>
-      <c r="Q18" s="7"/>
-    </row>
-    <row r="19" spans="4:17" s="58" customFormat="1">
-      <c r="F19" s="59" t="s">
+      <c r="O18" s="33"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8"/>
+    </row>
+    <row r="19" s="4" customFormat="1" ht="14.4" spans="6:17">
+      <c r="F19" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="G19" s="59" t="s">
+      <c r="G19" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="H19" s="59" t="s">
+      <c r="H19" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="I19" s="59" t="s">
+      <c r="I19" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="J19" s="60" t="s">
+      <c r="J19" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="K19" s="59" t="s">
+      <c r="K19" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="L19" s="59">
+      <c r="L19" s="12">
         <v>0</v>
       </c>
-      <c r="M19" s="59">
+      <c r="M19" s="12">
         <v>0</v>
       </c>
-      <c r="N19" s="59">
+      <c r="N19" s="12">
         <v>0</v>
       </c>
-      <c r="O19" s="59">
-        <v>1</v>
-      </c>
-      <c r="P19" s="59"/>
-      <c r="Q19" s="59"/>
-    </row>
-    <row r="20" spans="4:17" s="58" customFormat="1">
-      <c r="F20" s="59" t="s">
+      <c r="O19" s="12">
+        <v>1</v>
+      </c>
+      <c r="P19" s="12"/>
+      <c r="Q19" s="12"/>
+    </row>
+    <row r="20" s="4" customFormat="1" ht="14.4" spans="6:17">
+      <c r="F20" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="G20" s="59" t="s">
+      <c r="G20" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="H20" s="59" t="s">
+      <c r="H20" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="I20" s="59" t="s">
+      <c r="I20" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="J20" s="60" t="s">
+      <c r="J20" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="K20" s="59" t="s">
+      <c r="K20" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="L20" s="59">
+      <c r="L20" s="12">
         <v>0</v>
       </c>
-      <c r="M20" s="59">
+      <c r="M20" s="12">
         <v>0</v>
       </c>
-      <c r="N20" s="59">
+      <c r="N20" s="12">
         <v>0</v>
       </c>
-      <c r="O20" s="59">
-        <v>1</v>
-      </c>
-      <c r="P20" s="59"/>
-      <c r="Q20" s="59"/>
-    </row>
-    <row r="21" spans="4:17" s="3" customFormat="1" ht="12.35">
-      <c r="F21" s="50" t="s">
-        <v>244</v>
-      </c>
-      <c r="G21" s="50" t="s">
+      <c r="O20" s="12">
+        <v>1</v>
+      </c>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="12"/>
+    </row>
+    <row r="21" s="3" customFormat="1" ht="14.4" spans="6:17">
+      <c r="F21" s="54" t="s">
+        <v>50</v>
+      </c>
+      <c r="G21" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="H21" s="32" t="s">
+      <c r="H21" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="I21" s="32" t="s">
+      <c r="I21" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="J21" s="54" t="s">
+      <c r="J21" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="K21" s="50" t="s">
+      <c r="K21" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="L21" s="50">
+      <c r="L21" s="54">
         <v>0</v>
       </c>
-      <c r="M21" s="50">
+      <c r="M21" s="54">
         <v>0</v>
       </c>
-      <c r="N21" s="50">
+      <c r="N21" s="54">
         <v>0</v>
       </c>
-      <c r="O21" s="25"/>
-      <c r="P21" s="7"/>
-      <c r="Q21" s="7"/>
-    </row>
-    <row r="22" spans="4:17" s="59" customFormat="1" ht="12.35">
-      <c r="F22" s="61" t="s">
+      <c r="O21" s="28"/>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="8"/>
+    </row>
+    <row r="22" s="12" customFormat="1" ht="14.4" spans="6:15">
+      <c r="F22" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="G22" s="61" t="s">
+      <c r="G22" s="55" t="s">
         <v>54</v>
       </c>
-      <c r="H22" s="59" t="s">
+      <c r="H22" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="I22" s="59" t="s">
+      <c r="I22" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="J22" s="62" t="s">
+      <c r="J22" s="58" t="s">
         <v>55</v>
       </c>
-      <c r="K22" s="61" t="s">
+      <c r="K22" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="L22" s="61">
+      <c r="L22" s="55">
         <v>0</v>
       </c>
-      <c r="M22" s="61">
+      <c r="M22" s="55">
         <v>0</v>
       </c>
-      <c r="N22" s="61">
+      <c r="N22" s="55">
         <v>0</v>
       </c>
-      <c r="O22" s="58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="4:17" s="59" customFormat="1" ht="12.35">
-      <c r="F23" s="61" t="s">
+      <c r="O22" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" s="12" customFormat="1" ht="14.4" spans="6:16">
+      <c r="F23" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="G23" s="61" t="s">
+      <c r="G23" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="H23" s="59" t="s">
+      <c r="H23" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="I23" s="59" t="s">
+      <c r="I23" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="J23" s="62" t="s">
+      <c r="J23" s="58" t="s">
         <v>58</v>
       </c>
-      <c r="K23" s="61" t="s">
+      <c r="K23" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="L23" s="61">
+      <c r="L23" s="55">
         <v>0</v>
       </c>
-      <c r="M23" s="61">
+      <c r="M23" s="55">
         <v>0</v>
       </c>
-      <c r="N23" s="61">
+      <c r="N23" s="55">
         <v>0</v>
       </c>
-      <c r="O23" s="58">
-        <v>1</v>
-      </c>
-      <c r="P23" s="63"/>
-    </row>
-    <row r="24" spans="4:17" s="3" customFormat="1" ht="12.35">
-      <c r="F24" s="50" t="s">
+      <c r="O23" s="4">
+        <v>1</v>
+      </c>
+      <c r="P23" s="27"/>
+    </row>
+    <row r="24" s="3" customFormat="1" ht="14.4" spans="6:17">
+      <c r="F24" s="54" t="s">
         <v>59</v>
       </c>
-      <c r="G24" s="50" t="s">
+      <c r="G24" s="54" t="s">
         <v>60</v>
       </c>
-      <c r="H24" s="32" t="s">
+      <c r="H24" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="I24" s="32" t="s">
+      <c r="I24" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="J24" s="54" t="s">
+      <c r="J24" s="57" t="s">
         <v>61</v>
       </c>
-      <c r="K24" s="50" t="s">
+      <c r="K24" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="L24" s="50">
+      <c r="L24" s="54">
         <v>0</v>
       </c>
-      <c r="M24" s="50">
+      <c r="M24" s="54">
         <v>0</v>
       </c>
-      <c r="N24" s="50">
+      <c r="N24" s="54">
         <v>0</v>
       </c>
-      <c r="O24" s="25"/>
-      <c r="P24" s="43"/>
-      <c r="Q24" s="7"/>
-    </row>
-    <row r="25" spans="4:17" s="3" customFormat="1" ht="12.35">
-      <c r="F25" s="51" t="s">
+      <c r="O24" s="28"/>
+      <c r="P24" s="46"/>
+      <c r="Q24" s="8"/>
+    </row>
+    <row r="25" s="3" customFormat="1" ht="14.4" spans="6:17">
+      <c r="F25" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="G25" s="51" t="s">
+      <c r="G25" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="H25" s="30" t="s">
+      <c r="H25" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="I25" s="51" t="s">
+      <c r="I25" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="J25" s="55" t="s">
+      <c r="J25" s="59" t="s">
         <v>64</v>
       </c>
-      <c r="K25" s="51" t="s">
+      <c r="K25" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="L25" s="51">
+      <c r="L25" s="7">
         <v>0</v>
       </c>
-      <c r="M25" s="51">
+      <c r="M25" s="7">
         <v>0</v>
       </c>
-      <c r="N25" s="51">
+      <c r="N25" s="7">
         <v>0</v>
       </c>
       <c r="O25"/>
-      <c r="P25" s="27"/>
-      <c r="Q25" s="7"/>
-    </row>
-    <row r="26" spans="4:17" ht="12.35">
-      <c r="D26" s="15"/>
-      <c r="F26" s="51" t="s">
+      <c r="P25" s="30"/>
+      <c r="Q25" s="8"/>
+    </row>
+    <row r="26" ht="14.4" spans="4:17">
+      <c r="D26" s="17"/>
+      <c r="F26" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="G26" s="51" t="s">
+      <c r="G26" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="H26" s="30" t="s">
+      <c r="H26" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="I26" s="51" t="s">
+      <c r="I26" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="J26" s="55" t="s">
+      <c r="J26" s="59" t="s">
         <v>67</v>
       </c>
-      <c r="K26" s="51" t="s">
+      <c r="K26" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="L26" s="51">
+      <c r="L26" s="7">
         <v>0</v>
       </c>
-      <c r="M26" s="51">
+      <c r="M26" s="7">
         <v>0</v>
       </c>
-      <c r="N26" s="51">
+      <c r="N26" s="7">
         <v>0</v>
       </c>
-      <c r="P26" s="43"/>
-      <c r="Q26" s="7"/>
-    </row>
-    <row r="27" spans="4:17">
-      <c r="F27" s="30"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="30"/>
-      <c r="I27" s="30"/>
-      <c r="J27" s="30"/>
-      <c r="K27" s="30"/>
-      <c r="L27" s="30"/>
-      <c r="M27" s="30"/>
-      <c r="N27" s="30"/>
-      <c r="O27" s="30"/>
-      <c r="P27" s="30"/>
-      <c r="Q27" s="30"/>
-    </row>
-    <row r="28" spans="4:17">
-      <c r="F28" s="30"/>
-      <c r="G28" s="30"/>
-      <c r="H28" s="30"/>
-      <c r="I28" s="30"/>
-      <c r="J28" s="30"/>
-      <c r="K28" s="30"/>
-      <c r="L28" s="30"/>
-      <c r="M28" s="30"/>
-      <c r="N28" s="30"/>
-      <c r="O28" s="30"/>
-      <c r="P28" s="30"/>
-      <c r="Q28" s="30"/>
-    </row>
-    <row r="29" spans="4:17">
-      <c r="F29" s="30"/>
-      <c r="G29" s="30"/>
-      <c r="H29" s="30"/>
-      <c r="I29" s="30"/>
-      <c r="J29" s="30"/>
-      <c r="K29" s="30"/>
-      <c r="L29" s="30"/>
-      <c r="M29" s="30"/>
-      <c r="N29" s="30"/>
-      <c r="O29" s="30"/>
-      <c r="P29" s="30"/>
-      <c r="Q29" s="30"/>
-    </row>
-    <row r="30" spans="4:17">
-      <c r="F30" s="31"/>
-      <c r="G30" s="31"/>
-      <c r="H30" s="31"/>
-      <c r="I30" s="31"/>
-      <c r="J30" s="31"/>
-      <c r="K30" s="31"/>
-      <c r="L30" s="31"/>
-      <c r="M30" s="31"/>
-      <c r="N30" s="31"/>
-      <c r="O30" s="31"/>
-      <c r="P30" s="31"/>
-      <c r="Q30" s="31"/>
-    </row>
-    <row r="31" spans="4:17">
-      <c r="F31" s="32"/>
-      <c r="G31" s="33"/>
-      <c r="H31" s="32"/>
-      <c r="I31" s="32"/>
-      <c r="J31" s="32"/>
-      <c r="K31" s="32"/>
-      <c r="L31" s="32"/>
-      <c r="M31" s="32"/>
-      <c r="N31" s="32"/>
-      <c r="O31" s="32"/>
-      <c r="P31" s="32"/>
-      <c r="Q31" s="32"/>
-    </row>
-    <row r="32" spans="4:17">
-      <c r="F32" s="32"/>
-      <c r="G32" s="33"/>
-      <c r="H32" s="32"/>
-      <c r="I32" s="32"/>
-      <c r="J32" s="32"/>
-      <c r="K32" s="32"/>
-      <c r="L32" s="32"/>
-      <c r="M32" s="32"/>
-      <c r="N32" s="32"/>
-      <c r="O32" s="32"/>
-      <c r="P32" s="32"/>
-      <c r="Q32" s="32"/>
-    </row>
-    <row r="33" spans="6:17">
-      <c r="F33" s="32"/>
-      <c r="G33" s="33"/>
-      <c r="H33" s="32"/>
-      <c r="I33" s="32"/>
-      <c r="J33" s="32"/>
-      <c r="K33" s="32"/>
-      <c r="L33" s="32"/>
-      <c r="M33" s="32"/>
-      <c r="N33" s="32"/>
-      <c r="O33" s="32"/>
-      <c r="P33" s="32"/>
-      <c r="Q33" s="32"/>
-    </row>
-    <row r="34" spans="6:17">
-      <c r="F34" s="32"/>
-      <c r="G34" s="33"/>
-      <c r="H34" s="32"/>
-      <c r="I34" s="32"/>
-      <c r="J34" s="32"/>
-      <c r="K34" s="32"/>
-      <c r="L34" s="32"/>
-      <c r="M34" s="32"/>
-      <c r="N34" s="32"/>
-      <c r="O34" s="32"/>
-      <c r="P34" s="32"/>
-      <c r="Q34" s="32"/>
+      <c r="P26" s="46"/>
+      <c r="Q26" s="8"/>
+    </row>
+    <row r="27" spans="6:17">
+      <c r="F27" s="33"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="33"/>
+      <c r="I27" s="33"/>
+      <c r="J27" s="33"/>
+      <c r="K27" s="33"/>
+      <c r="L27" s="33"/>
+      <c r="M27" s="33"/>
+      <c r="N27" s="33"/>
+      <c r="O27" s="33"/>
+      <c r="P27" s="33"/>
+      <c r="Q27" s="33"/>
+    </row>
+    <row r="28" spans="6:17">
+      <c r="F28" s="33"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="33"/>
+      <c r="I28" s="33"/>
+      <c r="J28" s="33"/>
+      <c r="K28" s="33"/>
+      <c r="L28" s="33"/>
+      <c r="M28" s="33"/>
+      <c r="N28" s="33"/>
+      <c r="O28" s="33"/>
+      <c r="P28" s="33"/>
+      <c r="Q28" s="33"/>
+    </row>
+    <row r="29" spans="6:17">
+      <c r="F29" s="33"/>
+      <c r="G29" s="33"/>
+      <c r="H29" s="33"/>
+      <c r="I29" s="33"/>
+      <c r="J29" s="33"/>
+      <c r="K29" s="33"/>
+      <c r="L29" s="33"/>
+      <c r="M29" s="33"/>
+      <c r="N29" s="33"/>
+      <c r="O29" s="33"/>
+      <c r="P29" s="33"/>
+      <c r="Q29" s="33"/>
+    </row>
+    <row r="30" spans="6:17">
+      <c r="F30" s="34"/>
+      <c r="G30" s="34"/>
+      <c r="H30" s="34"/>
+      <c r="I30" s="34"/>
+      <c r="J30" s="34"/>
+      <c r="K30" s="34"/>
+      <c r="L30" s="34"/>
+      <c r="M30" s="34"/>
+      <c r="N30" s="34"/>
+      <c r="O30" s="34"/>
+      <c r="P30" s="34"/>
+      <c r="Q30" s="34"/>
+    </row>
+    <row r="31" ht="14.4" spans="6:17">
+      <c r="F31" s="35"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="35"/>
+      <c r="I31" s="35"/>
+      <c r="J31" s="35"/>
+      <c r="K31" s="35"/>
+      <c r="L31" s="35"/>
+      <c r="M31" s="35"/>
+      <c r="N31" s="35"/>
+      <c r="O31" s="35"/>
+      <c r="P31" s="35"/>
+      <c r="Q31" s="35"/>
+    </row>
+    <row r="32" ht="14.4" spans="6:17">
+      <c r="F32" s="35"/>
+      <c r="G32" s="36"/>
+      <c r="H32" s="35"/>
+      <c r="I32" s="35"/>
+      <c r="J32" s="35"/>
+      <c r="K32" s="35"/>
+      <c r="L32" s="35"/>
+      <c r="M32" s="35"/>
+      <c r="N32" s="35"/>
+      <c r="O32" s="35"/>
+      <c r="P32" s="35"/>
+      <c r="Q32" s="35"/>
+    </row>
+    <row r="33" ht="14.4" spans="6:17">
+      <c r="F33" s="35"/>
+      <c r="G33" s="36"/>
+      <c r="H33" s="35"/>
+      <c r="I33" s="35"/>
+      <c r="J33" s="35"/>
+      <c r="K33" s="35"/>
+      <c r="L33" s="35"/>
+      <c r="M33" s="35"/>
+      <c r="N33" s="35"/>
+      <c r="O33" s="35"/>
+      <c r="P33" s="35"/>
+      <c r="Q33" s="35"/>
+    </row>
+    <row r="34" ht="14.4" spans="6:17">
+      <c r="F34" s="35"/>
+      <c r="G34" s="36"/>
+      <c r="H34" s="35"/>
+      <c r="I34" s="35"/>
+      <c r="J34" s="35"/>
+      <c r="K34" s="35"/>
+      <c r="L34" s="35"/>
+      <c r="M34" s="35"/>
+      <c r="N34" s="35"/>
+      <c r="O34" s="35"/>
+      <c r="P34" s="35"/>
+      <c r="Q34" s="35"/>
     </row>
     <row r="35" spans="6:17">
-      <c r="F35" s="34"/>
-      <c r="G35" s="34"/>
-      <c r="H35" s="34"/>
-      <c r="I35" s="34"/>
-      <c r="J35" s="34"/>
-      <c r="K35" s="34"/>
-      <c r="L35" s="34"/>
-      <c r="M35" s="34"/>
-      <c r="N35" s="34"/>
-      <c r="O35" s="34"/>
-      <c r="P35" s="34"/>
-      <c r="Q35" s="34"/>
-    </row>
-    <row r="36" spans="6:17">
-      <c r="F36" s="35"/>
-      <c r="G36" s="36"/>
-      <c r="H36" s="35"/>
-      <c r="I36" s="35"/>
-      <c r="J36" s="35"/>
-      <c r="K36" s="35"/>
-      <c r="L36" s="35"/>
-      <c r="M36" s="35"/>
-      <c r="N36" s="35"/>
-      <c r="O36" s="35"/>
-      <c r="P36" s="35"/>
-      <c r="Q36" s="35"/>
-    </row>
-    <row r="37" spans="6:17">
-      <c r="F37" s="35"/>
-      <c r="G37" s="36"/>
-      <c r="H37" s="35"/>
-      <c r="I37" s="35"/>
-      <c r="J37" s="35"/>
-      <c r="K37" s="35"/>
-      <c r="L37" s="35"/>
-      <c r="M37" s="35"/>
-      <c r="N37" s="35"/>
-      <c r="O37" s="35"/>
-      <c r="P37" s="35"/>
-      <c r="Q37" s="35"/>
-    </row>
-    <row r="38" spans="6:17" ht="12.35">
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6"/>
-      <c r="I38" s="6"/>
-      <c r="J38" s="6"/>
-      <c r="K38" s="6"/>
-      <c r="L38" s="6"/>
-      <c r="M38" s="6"/>
-      <c r="N38" s="6"/>
-    </row>
-    <row r="39" spans="6:17" ht="12.35">
-      <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
-      <c r="H39" s="6"/>
-      <c r="I39" s="6"/>
-      <c r="J39" s="6"/>
-      <c r="K39" s="6"/>
-      <c r="L39" s="6"/>
-      <c r="M39" s="6"/>
-      <c r="N39" s="6"/>
-    </row>
-    <row r="40" spans="6:17" ht="12.35">
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="6"/>
-      <c r="I40" s="6"/>
-      <c r="J40" s="6"/>
-      <c r="K40" s="6"/>
-      <c r="L40" s="6"/>
-      <c r="M40" s="6"/>
-      <c r="N40" s="6"/>
-    </row>
-    <row r="41" spans="6:17" ht="12.35">
-      <c r="F41" s="6"/>
-      <c r="G41" s="6"/>
-      <c r="H41" s="6"/>
-      <c r="I41" s="6"/>
-      <c r="J41" s="6"/>
-      <c r="K41" s="6"/>
-      <c r="L41" s="6"/>
-      <c r="M41" s="6"/>
-      <c r="N41" s="6"/>
-    </row>
-    <row r="42" spans="6:17" ht="12.35">
-      <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
-      <c r="H42" s="6"/>
-      <c r="I42" s="6"/>
-      <c r="J42" s="6"/>
-      <c r="K42" s="6"/>
-      <c r="L42" s="6"/>
-      <c r="M42" s="6"/>
-      <c r="N42" s="6"/>
-    </row>
-    <row r="43" spans="6:17" ht="12.35">
-      <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
-      <c r="H43" s="6"/>
-      <c r="I43" s="6"/>
-      <c r="J43" s="6"/>
-      <c r="K43" s="6"/>
-      <c r="L43" s="6"/>
-      <c r="M43" s="6"/>
-      <c r="N43" s="6"/>
-    </row>
-    <row r="44" spans="6:17" ht="12.35">
-      <c r="F44" s="6"/>
-      <c r="G44" s="6"/>
-      <c r="H44" s="6"/>
-      <c r="I44" s="6"/>
-      <c r="J44" s="6"/>
-      <c r="K44" s="6"/>
-      <c r="L44" s="6"/>
-      <c r="M44" s="6"/>
-      <c r="N44" s="6"/>
-    </row>
-    <row r="45" spans="6:17" ht="12.35">
-      <c r="F45" s="6"/>
-      <c r="G45" s="6"/>
-      <c r="H45" s="6"/>
-      <c r="I45" s="6"/>
-      <c r="J45" s="6"/>
-      <c r="K45" s="6"/>
-      <c r="L45" s="6"/>
-      <c r="M45" s="6"/>
-      <c r="N45" s="6"/>
-    </row>
-    <row r="46" spans="6:17" ht="12.35">
-      <c r="F46" s="6"/>
-      <c r="G46" s="6"/>
-      <c r="H46" s="6"/>
-      <c r="I46" s="6"/>
-      <c r="J46" s="6"/>
-      <c r="K46" s="6"/>
-      <c r="L46" s="6"/>
-      <c r="M46" s="6"/>
-      <c r="N46" s="6"/>
-    </row>
-    <row r="47" spans="6:17" ht="12.35">
-      <c r="F47" s="6"/>
-      <c r="G47" s="6"/>
-      <c r="H47" s="6"/>
-      <c r="I47" s="6"/>
-      <c r="J47" s="6"/>
-      <c r="K47" s="6"/>
-      <c r="L47" s="6"/>
-      <c r="M47" s="6"/>
-      <c r="N47" s="6"/>
-    </row>
-    <row r="48" spans="6:17" ht="12.35">
-      <c r="F48" s="6"/>
-      <c r="G48" s="6"/>
-      <c r="H48" s="6"/>
-      <c r="I48" s="6"/>
-      <c r="J48" s="6"/>
-      <c r="K48" s="6"/>
-      <c r="L48" s="6"/>
-      <c r="M48" s="6"/>
-      <c r="N48" s="6"/>
-    </row>
-    <row r="49" spans="6:14" ht="12.35">
-      <c r="F49" s="6"/>
-      <c r="G49" s="6"/>
-      <c r="H49" s="6"/>
-      <c r="I49" s="6"/>
-      <c r="J49" s="56"/>
-      <c r="K49" s="6"/>
-      <c r="L49" s="6"/>
-      <c r="M49" s="6"/>
-      <c r="N49" s="6"/>
-    </row>
-    <row r="50" spans="6:14" ht="12.35">
-      <c r="F50" s="6"/>
-      <c r="G50" s="6"/>
-      <c r="H50" s="6"/>
-      <c r="I50" s="6"/>
-      <c r="J50" s="6"/>
-      <c r="K50" s="6"/>
-      <c r="L50" s="6"/>
-      <c r="M50" s="6"/>
-      <c r="N50" s="6"/>
-    </row>
-    <row r="51" spans="6:14" ht="12.35">
-      <c r="F51" s="6"/>
-      <c r="G51" s="6"/>
-      <c r="H51" s="6"/>
-      <c r="I51" s="6"/>
-      <c r="J51" s="6"/>
-      <c r="K51" s="6"/>
-      <c r="L51" s="6"/>
-      <c r="M51" s="6"/>
-      <c r="N51" s="6"/>
-    </row>
-    <row r="52" spans="6:14" ht="12.35">
-      <c r="F52" s="6"/>
-      <c r="G52" s="6"/>
-      <c r="H52" s="6"/>
-      <c r="I52" s="6"/>
-      <c r="J52" s="6"/>
-      <c r="K52" s="6"/>
-      <c r="L52" s="6"/>
-      <c r="M52" s="6"/>
-      <c r="N52" s="6"/>
-    </row>
-    <row r="53" spans="6:14" ht="12.35">
-      <c r="F53" s="6"/>
-      <c r="G53" s="6"/>
-      <c r="H53" s="6"/>
-      <c r="I53" s="6"/>
-      <c r="J53" s="6"/>
-      <c r="K53" s="6"/>
-      <c r="L53" s="6"/>
-      <c r="M53" s="6"/>
-    </row>
-    <row r="54" spans="6:14" s="25" customFormat="1" ht="12.35">
-      <c r="F54" s="52"/>
-      <c r="G54" s="52"/>
-      <c r="H54" s="52"/>
-      <c r="I54" s="52"/>
+      <c r="F35" s="38"/>
+      <c r="G35" s="38"/>
+      <c r="H35" s="38"/>
+      <c r="I35" s="38"/>
+      <c r="J35" s="38"/>
+      <c r="K35" s="38"/>
+      <c r="L35" s="38"/>
+      <c r="M35" s="38"/>
+      <c r="N35" s="38"/>
+      <c r="O35" s="38"/>
+      <c r="P35" s="38"/>
+      <c r="Q35" s="38"/>
+    </row>
+    <row r="36" ht="14.4" spans="6:17">
+      <c r="F36" s="39"/>
+      <c r="G36" s="40"/>
+      <c r="H36" s="39"/>
+      <c r="I36" s="39"/>
+      <c r="J36" s="39"/>
+      <c r="K36" s="39"/>
+      <c r="L36" s="39"/>
+      <c r="M36" s="39"/>
+      <c r="N36" s="39"/>
+      <c r="O36" s="39"/>
+      <c r="P36" s="39"/>
+      <c r="Q36" s="39"/>
+    </row>
+    <row r="37" ht="14.4" spans="6:17">
+      <c r="F37" s="39"/>
+      <c r="G37" s="40"/>
+      <c r="H37" s="39"/>
+      <c r="I37" s="39"/>
+      <c r="J37" s="39"/>
+      <c r="K37" s="39"/>
+      <c r="L37" s="39"/>
+      <c r="M37" s="39"/>
+      <c r="N37" s="39"/>
+      <c r="O37" s="39"/>
+      <c r="P37" s="39"/>
+      <c r="Q37" s="39"/>
+    </row>
+    <row r="38" spans="6:14">
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="7"/>
+      <c r="L38" s="7"/>
+      <c r="M38" s="7"/>
+      <c r="N38" s="7"/>
+    </row>
+    <row r="39" spans="6:14">
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="7"/>
+      <c r="L39" s="7"/>
+      <c r="M39" s="7"/>
+      <c r="N39" s="7"/>
+    </row>
+    <row r="40" spans="6:14">
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="7"/>
+      <c r="L40" s="7"/>
+      <c r="M40" s="7"/>
+      <c r="N40" s="7"/>
+    </row>
+    <row r="41" spans="6:14">
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="7"/>
+      <c r="K41" s="7"/>
+      <c r="L41" s="7"/>
+      <c r="M41" s="7"/>
+      <c r="N41" s="7"/>
+    </row>
+    <row r="42" spans="6:14">
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="7"/>
+      <c r="K42" s="7"/>
+      <c r="L42" s="7"/>
+      <c r="M42" s="7"/>
+      <c r="N42" s="7"/>
+    </row>
+    <row r="43" spans="6:14">
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="7"/>
+      <c r="J43" s="7"/>
+      <c r="K43" s="7"/>
+      <c r="L43" s="7"/>
+      <c r="M43" s="7"/>
+      <c r="N43" s="7"/>
+    </row>
+    <row r="44" spans="6:14">
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="7"/>
+      <c r="J44" s="7"/>
+      <c r="K44" s="7"/>
+      <c r="L44" s="7"/>
+      <c r="M44" s="7"/>
+      <c r="N44" s="7"/>
+    </row>
+    <row r="45" spans="6:14">
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7"/>
+      <c r="K45" s="7"/>
+      <c r="L45" s="7"/>
+      <c r="M45" s="7"/>
+      <c r="N45" s="7"/>
+    </row>
+    <row r="46" spans="6:14">
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="7"/>
+      <c r="J46" s="7"/>
+      <c r="K46" s="7"/>
+      <c r="L46" s="7"/>
+      <c r="M46" s="7"/>
+      <c r="N46" s="7"/>
+    </row>
+    <row r="47" spans="6:14">
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="7"/>
+      <c r="K47" s="7"/>
+      <c r="L47" s="7"/>
+      <c r="M47" s="7"/>
+      <c r="N47" s="7"/>
+    </row>
+    <row r="48" spans="6:14">
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="7"/>
+      <c r="J48" s="7"/>
+      <c r="K48" s="7"/>
+      <c r="L48" s="7"/>
+      <c r="M48" s="7"/>
+      <c r="N48" s="7"/>
+    </row>
+    <row r="49" ht="14.4" spans="6:14">
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="7"/>
+      <c r="J49" s="59"/>
+      <c r="K49" s="7"/>
+      <c r="L49" s="7"/>
+      <c r="M49" s="7"/>
+      <c r="N49" s="7"/>
+    </row>
+    <row r="50" spans="6:14">
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="7"/>
+      <c r="I50" s="7"/>
+      <c r="J50" s="7"/>
+      <c r="K50" s="7"/>
+      <c r="L50" s="7"/>
+      <c r="M50" s="7"/>
+      <c r="N50" s="7"/>
+    </row>
+    <row r="51" spans="6:14">
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="7"/>
+      <c r="I51" s="7"/>
+      <c r="J51" s="7"/>
+      <c r="K51" s="7"/>
+      <c r="L51" s="7"/>
+      <c r="M51" s="7"/>
+      <c r="N51" s="7"/>
+    </row>
+    <row r="52" spans="6:14">
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="7"/>
+      <c r="I52" s="7"/>
+      <c r="J52" s="7"/>
+      <c r="K52" s="7"/>
+      <c r="L52" s="7"/>
+      <c r="M52" s="7"/>
+      <c r="N52" s="7"/>
+    </row>
+    <row r="53" spans="6:13">
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="7"/>
+      <c r="I53" s="7"/>
+      <c r="J53" s="7"/>
+      <c r="K53" s="7"/>
+      <c r="L53" s="7"/>
+      <c r="M53" s="7"/>
+    </row>
+    <row r="54" s="28" customFormat="1" ht="14.4" spans="6:14">
+      <c r="F54" s="54"/>
+      <c r="G54" s="54"/>
+      <c r="H54" s="54"/>
+      <c r="I54" s="54"/>
       <c r="J54" s="57"/>
-      <c r="K54" s="52"/>
-      <c r="L54" s="52"/>
-      <c r="M54" s="52"/>
-      <c r="N54" s="52"/>
-    </row>
-    <row r="55" spans="6:14" s="25" customFormat="1" ht="12.35">
-      <c r="F55" s="52"/>
-      <c r="G55" s="52"/>
-      <c r="H55" s="52"/>
-      <c r="I55" s="52"/>
+      <c r="K54" s="54"/>
+      <c r="L54" s="54"/>
+      <c r="M54" s="54"/>
+      <c r="N54" s="54"/>
+    </row>
+    <row r="55" s="28" customFormat="1" ht="14.4" spans="6:14">
+      <c r="F55" s="54"/>
+      <c r="G55" s="54"/>
+      <c r="H55" s="54"/>
+      <c r="I55" s="54"/>
       <c r="J55" s="57"/>
-      <c r="K55" s="52"/>
-      <c r="L55" s="52"/>
-      <c r="M55" s="52"/>
-      <c r="N55" s="52"/>
-    </row>
-    <row r="56" spans="6:14" s="25" customFormat="1" ht="12.35">
-      <c r="F56" s="52"/>
-      <c r="G56" s="52"/>
-      <c r="H56" s="52"/>
-      <c r="I56" s="52"/>
+      <c r="K55" s="54"/>
+      <c r="L55" s="54"/>
+      <c r="M55" s="54"/>
+      <c r="N55" s="54"/>
+    </row>
+    <row r="56" s="28" customFormat="1" ht="14.4" spans="6:14">
+      <c r="F56" s="54"/>
+      <c r="G56" s="54"/>
+      <c r="H56" s="54"/>
+      <c r="I56" s="54"/>
       <c r="J56" s="57"/>
-      <c r="K56" s="52"/>
-      <c r="L56" s="52"/>
-      <c r="M56" s="52"/>
-      <c r="N56" s="52"/>
-    </row>
-    <row r="57" spans="6:14" s="25" customFormat="1" ht="12.35">
-      <c r="F57" s="52"/>
-      <c r="G57" s="52"/>
-      <c r="H57" s="52"/>
-      <c r="I57" s="52"/>
+      <c r="K56" s="54"/>
+      <c r="L56" s="54"/>
+      <c r="M56" s="54"/>
+      <c r="N56" s="54"/>
+    </row>
+    <row r="57" s="28" customFormat="1" ht="14.4" spans="6:14">
+      <c r="F57" s="54"/>
+      <c r="G57" s="54"/>
+      <c r="H57" s="54"/>
+      <c r="I57" s="54"/>
       <c r="J57" s="57"/>
-      <c r="K57" s="52"/>
-      <c r="L57" s="52"/>
-      <c r="M57" s="52"/>
-      <c r="N57" s="52"/>
+      <c r="K57" s="54"/>
+      <c r="L57" s="54"/>
+      <c r="M57" s="54"/>
+      <c r="N57" s="54"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="48" type="noConversion"/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,常规"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,常规"&amp;12 Page &amp;P</oddFooter>
@@ -2688,14 +3213,15 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D7:J27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="D7:J36"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="11.7"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14"/>
   <cols>
     <col min="4" max="4" width="22.125" customWidth="1"/>
     <col min="5" max="5" width="13.375" customWidth="1"/>
@@ -2708,9 +3234,9 @@
     <col min="13" max="13" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:10" ht="15.6">
+    <row r="7" spans="4:10">
       <c r="D7" s="1" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>1</v>
@@ -2719,7 +3245,7 @@
         <v>2</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>6</v>
@@ -2731,438 +3257,571 @@
         <v>197</v>
       </c>
     </row>
-    <row r="8" spans="4:10" ht="15.6">
+    <row r="8" spans="4:10">
       <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>198</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="9" spans="4:10" ht="15.6">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="9" spans="4:10">
       <c r="D9" s="1"/>
       <c r="E9" s="1" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>198</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="10" spans="4:10" ht="15.6">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="10" spans="4:10">
       <c r="D10" s="1"/>
       <c r="E10" s="1" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>198</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="11" spans="4:10" ht="15.6">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="11" spans="4:10">
       <c r="D11" s="1"/>
       <c r="E11" s="1" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>198</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="12" spans="4:10" ht="15.6">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="12" spans="4:10">
       <c r="D12" s="1"/>
       <c r="E12" s="1" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>198</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="13" spans="4:10" ht="15.6">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="13" spans="4:10">
       <c r="D13" s="1"/>
       <c r="E13" s="1" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>200</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="14" spans="4:10" ht="15.6">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="14" spans="4:10">
       <c r="D14" s="1"/>
       <c r="E14" s="1" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>200</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="15" spans="4:10" ht="15.6">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="15" spans="4:10">
       <c r="D15" s="1"/>
       <c r="E15" s="1" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>200</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="16" spans="4:10" ht="15.6">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="16" spans="4:10">
       <c r="D16" s="1"/>
       <c r="E16" s="1" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>200</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="17" spans="4:10" ht="15.6">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="17" spans="4:10">
       <c r="D17" s="1"/>
       <c r="E17" s="1" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>202</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="18" spans="4:10" ht="15.6">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="18" spans="4:10">
       <c r="D18" s="1"/>
       <c r="E18" s="1" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>202</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="19" spans="4:10" ht="15.6">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="19" spans="4:10">
       <c r="D19" s="1"/>
       <c r="E19" s="1" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>202</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="20" spans="4:10" ht="15.6">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="20" spans="4:10">
       <c r="D20" s="1"/>
       <c r="E20" s="1" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>204</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="21" spans="4:10" ht="15.6">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="21" spans="4:10">
       <c r="D21" s="1"/>
       <c r="E21" s="1" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>204</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="22" spans="4:10" ht="15.6">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="22" spans="4:10">
       <c r="D22" s="1"/>
       <c r="E22" s="1" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>204</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="23" spans="4:10" ht="15.6">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="23" spans="4:10">
       <c r="D23" s="1"/>
       <c r="E23" s="1" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>206</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="24" spans="4:10" ht="15.6">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="24" spans="5:10">
       <c r="E24" s="1" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>208</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="25" spans="4:10" ht="15.6">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="25" spans="5:10">
       <c r="E25" s="1" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>208</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="26" spans="4:10" ht="15.6">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="26" spans="5:10">
       <c r="E26" s="1" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>208</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="27" spans="4:10" ht="15.6">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="27" spans="5:10">
       <c r="E27" s="1" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>208</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>243</v>
-      </c>
+        <v>247</v>
+      </c>
+    </row>
+    <row r="28" spans="5:10">
+      <c r="E28" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="29" spans="5:10">
+      <c r="E29" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="30" spans="5:10">
+      <c r="E30" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="31" spans="5:10">
+      <c r="E31" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="32" spans="5:10">
+      <c r="E32" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="33" spans="5:10">
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+    </row>
+    <row r="34" spans="5:10">
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+    </row>
+    <row r="35" spans="5:10">
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+    </row>
+    <row r="36" spans="5:10">
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="48" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="D7:Q84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+    <sheetView zoomScale="86" zoomScaleNormal="86" topLeftCell="A5" workbookViewId="0">
       <selection activeCell="P44" sqref="P44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="6" customWidth="1"/>
@@ -3184,1724 +3843,1723 @@
     <col min="18" max="1025" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:17" ht="12.85" customHeight="1">
-      <c r="D7" s="16" t="s">
+    <row r="7" ht="12.85" customHeight="1" spans="4:17">
+      <c r="D7" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="E7" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F7" s="16" t="s">
+      <c r="E7" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="G7" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="H7" s="16" t="s">
+      <c r="H7" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="I7" s="16" t="s">
+      <c r="I7" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="J7" s="16" t="s">
+      <c r="J7" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="K7" s="16" t="s">
+      <c r="K7" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="L7" s="16" t="s">
+      <c r="L7" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="M7" s="16" t="s">
+      <c r="M7" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="N7" s="6" t="s">
+      <c r="N7" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="O7" s="6" t="s">
+      <c r="O7" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P7" s="16" t="s">
+      <c r="P7" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="Q7" s="16" t="s">
+      <c r="Q7" s="18" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="4:17" s="3" customFormat="1" ht="13.95" customHeight="1">
-      <c r="F8" s="7" t="s">
+    <row r="8" s="3" customFormat="1" ht="13.95" customHeight="1" spans="6:17">
+      <c r="F8" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="H8" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="I8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="J8" s="7" t="s">
+      <c r="J8" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="K8" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="L8" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="M8" s="7" t="s">
+      <c r="M8" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="N8" s="7" t="s">
+      <c r="N8" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="O8" s="7">
+      <c r="O8" s="8">
         <v>20</v>
       </c>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="4:17" s="3" customFormat="1" ht="13.95" customHeight="1">
-      <c r="F9" s="7" t="s">
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" s="3" customFormat="1" ht="13.95" customHeight="1" spans="6:17">
+      <c r="F9" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="H9" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="I9" s="7" t="s">
+      <c r="I9" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="J9" s="7" t="s">
+      <c r="J9" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="K9" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="L9" s="7" t="s">
+      <c r="L9" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="M9" s="7" t="s">
+      <c r="M9" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="N9" s="7" t="s">
+      <c r="N9" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="O9" s="7">
+      <c r="O9" s="8">
         <v>20</v>
       </c>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="4:17" s="3" customFormat="1">
-      <c r="F10" s="7" t="s">
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" s="3" customFormat="1" spans="6:17">
+      <c r="F10" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="H10" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="I10" s="7" t="s">
+      <c r="I10" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="J10" s="7" t="s">
+      <c r="J10" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="K10" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="L10" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="M10" s="7" t="s">
+      <c r="M10" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="N10" s="7" t="s">
+      <c r="N10" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="O10" s="7">
+      <c r="O10" s="8">
         <v>30</v>
       </c>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="4:17" s="18" customFormat="1">
-      <c r="F11" s="7" t="s">
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" s="20" customFormat="1" spans="6:17">
+      <c r="F11" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="G11" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="H11" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="I11" s="7" t="s">
+      <c r="I11" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="J11" s="7" t="s">
+      <c r="J11" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="K11" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="L11" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="M11" s="7" t="s">
+      <c r="M11" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="N11" s="7" t="s">
+      <c r="N11" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="O11" s="7">
+      <c r="O11" s="8">
         <v>60</v>
       </c>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="4:17" s="19" customFormat="1">
-      <c r="F12" s="7" t="s">
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" s="21" customFormat="1" spans="6:17">
+      <c r="F12" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="G12" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="H12" s="7" t="s">
+      <c r="H12" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="I12" s="7" t="s">
+      <c r="I12" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J12" s="7" t="s">
+      <c r="J12" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="K12" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="L12" s="7" t="s">
+      <c r="L12" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="M12" s="7" t="s">
+      <c r="M12" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="N12" s="7" t="s">
+      <c r="N12" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="O12" s="7">
+      <c r="O12" s="8">
         <v>60</v>
       </c>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="4:17" s="19" customFormat="1">
-      <c r="F13" s="7" t="s">
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" s="21" customFormat="1" ht="14.4" spans="6:17">
+      <c r="F13" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="G13" s="26" t="s">
+      <c r="G13" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="H13" s="7" t="s">
+      <c r="H13" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="I13" s="7" t="s">
+      <c r="I13" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="J13" s="7" t="s">
+      <c r="J13" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="K13" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="L13" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="M13" s="7" t="s">
+      <c r="M13" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="N13" s="7" t="s">
+      <c r="N13" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="O13" s="7">
+      <c r="O13" s="8">
         <v>50</v>
       </c>
-      <c r="P13" s="7"/>
-      <c r="Q13" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="4:17" s="19" customFormat="1">
-      <c r="F14" s="7" t="s">
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" s="21" customFormat="1" spans="6:17">
+      <c r="F14" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="G14" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="H14" s="7" t="s">
+      <c r="H14" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="I14" s="7" t="s">
+      <c r="I14" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="J14" s="7" t="s">
+      <c r="J14" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="K14" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="L14" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="M14" s="7" t="s">
+      <c r="M14" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="N14" s="7" t="s">
+      <c r="N14" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="O14" s="7">
+      <c r="O14" s="8">
         <v>20</v>
       </c>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="4:17" s="19" customFormat="1">
-      <c r="F15" s="7" t="s">
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" s="21" customFormat="1" spans="6:17">
+      <c r="F15" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="G15" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="H15" s="7" t="s">
+      <c r="H15" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="I15" s="7" t="s">
+      <c r="I15" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="J15" s="7" t="s">
+      <c r="J15" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="K15" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="L15" s="7" t="s">
+      <c r="L15" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="M15" s="7" t="s">
+      <c r="M15" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="N15" s="7" t="s">
+      <c r="N15" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="O15" s="7">
+      <c r="O15" s="8">
         <v>20</v>
       </c>
-      <c r="P15" s="7"/>
-      <c r="Q15" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="4:17" s="3" customFormat="1">
-      <c r="F16" s="7" t="s">
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" s="3" customFormat="1" spans="6:17">
+      <c r="F16" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="G16" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="H16" s="7" t="s">
+      <c r="H16" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="I16" s="7" t="s">
+      <c r="I16" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="J16" s="7" t="s">
+      <c r="J16" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="K16" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="L16" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="M16" s="7" t="s">
+      <c r="M16" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="N16" s="7" t="s">
+      <c r="N16" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="O16" s="7">
+      <c r="O16" s="8">
         <v>20</v>
       </c>
-      <c r="P16" s="7"/>
-      <c r="Q16" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="6:17" s="20" customFormat="1">
-      <c r="F17" s="27" t="s">
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" s="22" customFormat="1" spans="6:17">
+      <c r="F17" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="G17" s="27" t="s">
+      <c r="G17" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="H17" s="27" t="s">
+      <c r="H17" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="I17" s="27"/>
-      <c r="J17" s="27" t="s">
+      <c r="I17" s="30"/>
+      <c r="J17" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="K17" s="27" t="s">
+      <c r="K17" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="L17" s="27" t="s">
+      <c r="L17" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="M17" s="27" t="s">
+      <c r="M17" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="N17" s="27" t="s">
+      <c r="N17" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="O17" s="27">
+      <c r="O17" s="30">
         <v>60</v>
       </c>
-      <c r="P17" s="27"/>
-      <c r="Q17" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="6:17" s="21" customFormat="1">
-      <c r="F18" s="7" t="s">
+      <c r="P17" s="30"/>
+      <c r="Q17" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" s="23" customFormat="1" spans="6:17">
+      <c r="F18" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="G18" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="H18" s="7" t="s">
+      <c r="H18" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="I18" s="7" t="s">
+      <c r="I18" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="J18" s="7" t="s">
+      <c r="J18" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="K18" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="L18" s="7" t="s">
+      <c r="L18" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="M18" s="7" t="s">
+      <c r="M18" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="N18" s="7" t="s">
+      <c r="N18" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="O18" s="7">
+      <c r="O18" s="8">
         <v>10</v>
       </c>
-      <c r="P18" s="7"/>
-      <c r="Q18" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="6:17" s="22" customFormat="1">
-      <c r="F19" s="7" t="s">
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" s="24" customFormat="1" spans="6:17">
+      <c r="F19" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="G19" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="H19" s="7" t="s">
+      <c r="H19" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="I19" s="7" t="s">
+      <c r="I19" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J19" s="7" t="s">
+      <c r="J19" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="K19" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="L19" s="7" t="s">
+      <c r="L19" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="M19" s="7" t="s">
+      <c r="M19" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="N19" s="7" t="s">
+      <c r="N19" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="O19" s="7">
+      <c r="O19" s="8">
         <v>20</v>
       </c>
-      <c r="P19" s="7"/>
-      <c r="Q19" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="6:17" s="23" customFormat="1">
-      <c r="F20" s="7" t="s">
+      <c r="P19" s="8"/>
+      <c r="Q19" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" s="25" customFormat="1" spans="6:17">
+      <c r="F20" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="G20" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="H20" s="7" t="s">
+      <c r="H20" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="I20" s="7" t="s">
+      <c r="I20" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="J20" s="7" t="s">
+      <c r="J20" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="K20" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="L20" s="7" t="s">
+      <c r="L20" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="M20" s="7" t="s">
+      <c r="M20" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="N20" s="7" t="s">
+      <c r="N20" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="O20" s="7">
+      <c r="O20" s="8">
         <v>30</v>
       </c>
-      <c r="P20" s="7"/>
-      <c r="Q20" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="6:17" s="24" customFormat="1">
-      <c r="F21" s="7" t="s">
+      <c r="P20" s="8"/>
+      <c r="Q20" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" s="26" customFormat="1" spans="6:17">
+      <c r="F21" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="G21" s="7" t="s">
+      <c r="G21" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="H21" s="7" t="s">
+      <c r="H21" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="I21" s="7" t="s">
+      <c r="I21" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="J21" s="7" t="s">
+      <c r="J21" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="K21" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="L21" s="7" t="s">
+      <c r="L21" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="M21" s="7" t="s">
+      <c r="M21" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="N21" s="7" t="s">
+      <c r="N21" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="O21" s="7">
+      <c r="O21" s="8">
         <v>40</v>
       </c>
-      <c r="P21" s="7"/>
-      <c r="Q21" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="6:17" s="3" customFormat="1">
-      <c r="F22" s="7" t="s">
+      <c r="P21" s="8"/>
+      <c r="Q21" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" s="3" customFormat="1" ht="14.4" spans="6:17">
+      <c r="F22" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="G22" s="26" t="s">
+      <c r="G22" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="H22" s="7" t="s">
+      <c r="H22" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="I22" s="7" t="s">
+      <c r="I22" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="J22" s="7" t="s">
+      <c r="J22" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="K22" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="L22" s="7" t="s">
+      <c r="L22" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="M22" s="7" t="s">
+      <c r="M22" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="N22" s="7" t="s">
+      <c r="N22" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="O22" s="7">
+      <c r="O22" s="8">
         <v>50</v>
       </c>
-      <c r="P22" s="7"/>
-      <c r="Q22" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="6:17">
-      <c r="F23" s="27" t="s">
+      <c r="P22" s="8"/>
+      <c r="Q22" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" ht="14.4" spans="6:17">
+      <c r="F23" s="30" t="s">
         <v>116</v>
       </c>
-      <c r="G23" s="28" t="s">
+      <c r="G23" s="31" t="s">
         <v>106</v>
       </c>
-      <c r="H23" s="27" t="s">
+      <c r="H23" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="I23" s="27"/>
-      <c r="J23" s="27" t="s">
+      <c r="I23" s="30"/>
+      <c r="J23" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="K23" s="27" t="s">
+      <c r="K23" s="30" t="s">
         <v>117</v>
       </c>
-      <c r="L23" s="27" t="s">
-        <v>246</v>
-      </c>
-      <c r="M23" s="27" t="s">
+      <c r="L23" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="M23" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="N23" s="27" t="s">
+      <c r="N23" s="30" t="s">
         <v>118</v>
       </c>
-      <c r="O23" s="27">
+      <c r="O23" s="30">
         <v>80</v>
       </c>
-      <c r="P23" s="27"/>
-      <c r="Q23" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="6:17" ht="13">
-      <c r="F24" s="29" t="s">
+      <c r="P23" s="30"/>
+      <c r="Q23" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" ht="15.2" spans="6:17">
+      <c r="F24" s="32" t="s">
         <v>119</v>
       </c>
-      <c r="G24" s="26" t="s">
+      <c r="G24" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="H24" s="29" t="s">
+      <c r="H24" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="I24" s="42" t="s">
+      <c r="I24" s="45" t="s">
         <v>120</v>
       </c>
-      <c r="J24" s="7" t="s">
+      <c r="J24" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="K24" s="29" t="s">
+      <c r="K24" s="32" t="s">
         <v>116</v>
       </c>
-      <c r="L24" s="29" t="s">
+      <c r="L24" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="M24" s="29" t="s">
+      <c r="M24" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="N24" s="29" t="s">
+      <c r="N24" s="32" t="s">
         <v>121</v>
       </c>
-      <c r="O24" s="7">
+      <c r="O24" s="8">
         <v>10</v>
       </c>
-      <c r="P24" s="43"/>
-      <c r="Q24" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="6:17">
-      <c r="F25" s="27" t="s">
+      <c r="P24" s="46"/>
+      <c r="Q24" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" ht="14.4" spans="6:17">
+      <c r="F25" s="30" t="s">
         <v>122</v>
       </c>
-      <c r="G25" s="28" t="s">
+      <c r="G25" s="31" t="s">
         <v>123</v>
       </c>
-      <c r="H25" s="27" t="s">
+      <c r="H25" s="30" t="s">
         <v>124</v>
       </c>
-      <c r="I25" s="27"/>
-      <c r="J25" s="27" t="s">
+      <c r="I25" s="30"/>
+      <c r="J25" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="K25" s="27" t="s">
+      <c r="K25" s="30" t="s">
         <v>117</v>
       </c>
-      <c r="L25" s="27" t="s">
+      <c r="L25" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="M25" s="27" t="s">
+      <c r="M25" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="N25" s="27" t="s">
+      <c r="N25" s="30" t="s">
         <v>118</v>
       </c>
-      <c r="O25" s="27">
+      <c r="O25" s="30">
         <v>90</v>
       </c>
-      <c r="P25" s="27"/>
-      <c r="Q25" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="6:17" s="3" customFormat="1" ht="13">
-      <c r="F26" s="29" t="s">
+      <c r="P25" s="30"/>
+      <c r="Q25" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" s="3" customFormat="1" ht="15.2" spans="6:17">
+      <c r="F26" s="32" t="s">
         <v>125</v>
       </c>
-      <c r="G26" s="26" t="s">
+      <c r="G26" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="H26" s="29" t="s">
+      <c r="H26" s="32" t="s">
         <v>112</v>
       </c>
-      <c r="I26" s="42" t="s">
+      <c r="I26" s="45" t="s">
         <v>126</v>
       </c>
-      <c r="J26" s="7" t="s">
+      <c r="J26" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="K26" s="29" t="s">
+      <c r="K26" s="32" t="s">
         <v>122</v>
       </c>
-      <c r="L26" s="29" t="s">
-        <v>246</v>
-      </c>
-      <c r="M26" s="29" t="s">
+      <c r="L26" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="M26" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="N26" s="29" t="s">
+      <c r="N26" s="32" t="s">
         <v>121</v>
       </c>
-      <c r="O26" s="7">
+      <c r="O26" s="8">
         <v>10</v>
       </c>
-      <c r="P26" s="43"/>
-      <c r="Q26" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="6:17" s="3" customFormat="1">
-      <c r="F27" s="30" t="s">
+      <c r="P26" s="46"/>
+      <c r="Q26" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" s="3" customFormat="1" spans="6:17">
+      <c r="F27" s="33" t="s">
         <v>127</v>
       </c>
-      <c r="G27" s="30" t="s">
+      <c r="G27" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="H27" s="30" t="s">
+      <c r="H27" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="I27" s="30" t="s">
+      <c r="I27" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="J27" s="30" t="s">
+      <c r="J27" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="K27" s="30" t="s">
+      <c r="K27" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="L27" s="30" t="s">
+      <c r="L27" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="M27" s="30" t="s">
+      <c r="M27" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="N27" s="30" t="s">
+      <c r="N27" s="33" t="s">
         <v>128</v>
       </c>
-      <c r="O27" s="30">
+      <c r="O27" s="33">
         <v>10</v>
       </c>
-      <c r="P27" s="30"/>
-      <c r="Q27" s="30"/>
-    </row>
-    <row r="28" spans="6:17" s="59" customFormat="1">
-      <c r="F28" s="59" t="s">
+      <c r="P27" s="33"/>
+      <c r="Q27" s="33"/>
+    </row>
+    <row r="28" s="12" customFormat="1" spans="6:17">
+      <c r="F28" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="G28" s="59" t="s">
+      <c r="G28" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="H28" s="59" t="s">
+      <c r="H28" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="I28" s="59" t="s">
+      <c r="I28" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="J28" s="59" t="s">
+      <c r="J28" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="K28" s="59" t="s">
+      <c r="K28" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="L28" s="59" t="s">
+      <c r="L28" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="M28" s="59" t="s">
+      <c r="M28" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="O28" s="59">
+      <c r="O28" s="12">
         <v>10</v>
       </c>
-      <c r="Q28" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="6:17" s="59" customFormat="1">
-      <c r="F29" s="59" t="s">
+      <c r="Q28" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" s="12" customFormat="1" spans="6:17">
+      <c r="F29" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="G29" s="59" t="s">
+      <c r="G29" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="H29" s="59" t="s">
+      <c r="H29" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="I29" s="59" t="s">
+      <c r="I29" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="J29" s="59" t="s">
+      <c r="J29" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="K29" s="59" t="s">
+      <c r="K29" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="L29" s="59" t="s">
+      <c r="L29" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="M29" s="59" t="s">
+      <c r="M29" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="O29" s="59">
+      <c r="O29" s="12">
         <v>20</v>
       </c>
-      <c r="Q29" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="6:17" s="3" customFormat="1">
-      <c r="F30" s="31" t="s">
+      <c r="Q29" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" s="3" customFormat="1" spans="6:17">
+      <c r="F30" s="34" t="s">
         <v>131</v>
       </c>
-      <c r="G30" s="31" t="s">
+      <c r="G30" s="34" t="s">
         <v>132</v>
       </c>
-      <c r="H30" s="31" t="s">
+      <c r="H30" s="34" t="s">
         <v>133</v>
       </c>
-      <c r="I30" s="31"/>
-      <c r="J30" s="31" t="s">
+      <c r="I30" s="34"/>
+      <c r="J30" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="K30" s="31" t="s">
+      <c r="K30" s="34" t="s">
         <v>134</v>
       </c>
-      <c r="L30" s="31" t="s">
+      <c r="L30" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="M30" s="31" t="s">
+      <c r="M30" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="N30" s="31" t="s">
+      <c r="N30" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="O30" s="31">
+      <c r="O30" s="34">
         <v>80</v>
       </c>
-      <c r="P30" s="31"/>
-      <c r="Q30" s="31"/>
-    </row>
-    <row r="31" spans="6:17" s="3" customFormat="1">
-      <c r="F31" s="32" t="s">
+      <c r="P30" s="34"/>
+      <c r="Q30" s="34"/>
+    </row>
+    <row r="31" s="3" customFormat="1" ht="14.4" spans="6:17">
+      <c r="F31" s="35" t="s">
         <v>135</v>
       </c>
-      <c r="G31" s="33" t="s">
+      <c r="G31" s="36" t="s">
         <v>136</v>
       </c>
-      <c r="H31" s="32" t="s">
+      <c r="H31" s="35" t="s">
         <v>137</v>
       </c>
-      <c r="I31" s="32" t="s">
+      <c r="I31" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="J31" s="32" t="s">
+      <c r="J31" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="K31" s="32" t="s">
+      <c r="K31" s="35" t="s">
         <v>131</v>
       </c>
-      <c r="L31" s="32" t="s">
+      <c r="L31" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="M31" s="32" t="s">
+      <c r="M31" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="N31" s="32" t="s">
+      <c r="N31" s="35" t="s">
         <v>138</v>
       </c>
-      <c r="O31" s="32">
+      <c r="O31" s="35">
         <v>10</v>
       </c>
-      <c r="P31" s="32"/>
-      <c r="Q31" s="32"/>
-    </row>
-    <row r="32" spans="6:17" s="59" customFormat="1">
-      <c r="F32" s="59" t="s">
+      <c r="P31" s="35"/>
+      <c r="Q31" s="35"/>
+    </row>
+    <row r="32" s="12" customFormat="1" ht="14.4" spans="6:17">
+      <c r="F32" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="G32" s="60" t="s">
+      <c r="G32" s="37" t="s">
         <v>140</v>
       </c>
-      <c r="H32" s="59" t="s">
+      <c r="H32" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="I32" s="59" t="s">
-        <v>245</v>
-      </c>
-      <c r="J32" s="59" t="s">
+      <c r="I32" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="J32" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="K32" s="59" t="s">
+      <c r="K32" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="L32" s="59" t="s">
+      <c r="L32" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="M32" s="59" t="s">
+      <c r="M32" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="O32" s="59">
+      <c r="O32" s="12">
         <v>10</v>
       </c>
-      <c r="Q32" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="6:17" s="58" customFormat="1">
-      <c r="F33" s="59" t="s">
+      <c r="Q32" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" s="4" customFormat="1" ht="14.4" spans="6:17">
+      <c r="F33" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="G33" s="60" t="s">
+      <c r="G33" s="37" t="s">
         <v>143</v>
       </c>
-      <c r="H33" s="59" t="s">
+      <c r="H33" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="I33" s="59" t="s">
+      <c r="I33" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="J33" s="59" t="s">
+      <c r="J33" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="K33" s="59" t="s">
+      <c r="K33" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="L33" s="59" t="s">
+      <c r="L33" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="M33" s="59" t="s">
+      <c r="M33" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="N33" s="59"/>
-      <c r="O33" s="59">
+      <c r="N33" s="12"/>
+      <c r="O33" s="12">
         <v>20</v>
       </c>
-      <c r="P33" s="59"/>
-      <c r="Q33" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="6:17">
-      <c r="F34" s="32" t="s">
+      <c r="P33" s="12"/>
+      <c r="Q33" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" ht="14.4" spans="6:17">
+      <c r="F34" s="35" t="s">
         <v>145</v>
       </c>
-      <c r="G34" s="33" t="s">
+      <c r="G34" s="36" t="s">
         <v>146</v>
       </c>
-      <c r="H34" s="32" t="s">
+      <c r="H34" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="I34" s="32" t="s">
+      <c r="I34" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="J34" s="32" t="s">
+      <c r="J34" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="K34" s="32" t="s">
+      <c r="K34" s="35" t="s">
         <v>131</v>
       </c>
-      <c r="L34" s="32" t="s">
+      <c r="L34" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="M34" s="32" t="s">
+      <c r="M34" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="N34" s="32" t="s">
+      <c r="N34" s="35" t="s">
         <v>147</v>
       </c>
-      <c r="O34" s="32">
+      <c r="O34" s="35">
         <v>20</v>
       </c>
-      <c r="P34" s="32"/>
-      <c r="Q34" s="32"/>
-    </row>
-    <row r="35" spans="6:17" s="63" customFormat="1" ht="14.15" customHeight="1">
-      <c r="F35" s="63" t="s">
-        <v>251</v>
-      </c>
-      <c r="G35" s="63" t="s">
-        <v>252</v>
-      </c>
-      <c r="H35" s="63" t="s">
-        <v>253</v>
-      </c>
-      <c r="J35" s="63" t="s">
-        <v>254</v>
-      </c>
-      <c r="K35" s="63" t="s">
-        <v>255</v>
-      </c>
-      <c r="L35" s="63" t="s">
+      <c r="P34" s="35"/>
+      <c r="Q34" s="35"/>
+    </row>
+    <row r="35" s="27" customFormat="1" ht="14.15" customHeight="1" spans="6:17">
+      <c r="F35" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="G35" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="H35" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="J35" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="K35" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="L35" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="M35" s="63" t="s">
+      <c r="M35" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="N35" s="63" t="s">
+      <c r="N35" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="O35" s="63">
+      <c r="O35" s="27">
         <v>80</v>
       </c>
-      <c r="Q35" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="6:17" s="59" customFormat="1">
-      <c r="F36" s="59" t="s">
-        <v>256</v>
-      </c>
-      <c r="G36" s="60" t="s">
-        <v>257</v>
-      </c>
-      <c r="H36" s="59" t="s">
-        <v>258</v>
-      </c>
-      <c r="I36" s="59" t="s">
-        <v>259</v>
-      </c>
-      <c r="J36" s="59" t="s">
-        <v>254</v>
-      </c>
-      <c r="K36" s="59" t="s">
-        <v>251</v>
-      </c>
-      <c r="L36" s="59" t="s">
+      <c r="Q35" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" s="12" customFormat="1" ht="14.4" spans="6:17">
+      <c r="F36" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="G36" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="H36" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="I36" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="J36" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="K36" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="L36" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="M36" s="59" t="s">
-        <v>260</v>
-      </c>
-      <c r="N36" s="59" t="s">
-        <v>261</v>
-      </c>
-      <c r="O36" s="59">
+      <c r="M36" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="N36" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="O36" s="12">
         <v>10</v>
       </c>
-      <c r="Q36" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="6:17" s="59" customFormat="1">
-      <c r="F37" s="59" t="s">
-        <v>262</v>
-      </c>
-      <c r="G37" s="60" t="s">
-        <v>263</v>
-      </c>
-      <c r="H37" s="59" t="s">
-        <v>264</v>
-      </c>
-      <c r="I37" s="59" t="s">
-        <v>265</v>
-      </c>
-      <c r="J37" s="59" t="s">
-        <v>266</v>
-      </c>
-      <c r="K37" s="59" t="s">
-        <v>251</v>
-      </c>
-      <c r="L37" s="59" t="s">
+      <c r="Q36" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" s="12" customFormat="1" ht="14.4" spans="6:17">
+      <c r="F37" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="G37" s="37" t="s">
+        <v>155</v>
+      </c>
+      <c r="H37" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="I37" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="J37" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="K37" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="L37" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="M37" s="59" t="s">
-        <v>260</v>
-      </c>
-      <c r="N37" s="59" t="s">
-        <v>267</v>
-      </c>
-      <c r="O37" s="59">
+      <c r="M37" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="N37" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="O37" s="12">
         <v>20</v>
       </c>
-      <c r="Q37" s="59">
+      <c r="Q37" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="6:17">
-      <c r="F38" s="34" t="s">
-        <v>249</v>
-      </c>
-      <c r="G38" s="34" t="s">
+      <c r="F38" s="38" t="s">
+        <v>148</v>
+      </c>
+      <c r="G38" s="38" t="s">
         <v>132</v>
       </c>
-      <c r="H38" s="34" t="s">
+      <c r="H38" s="38" t="s">
         <v>133</v>
       </c>
-      <c r="I38" s="34"/>
-      <c r="J38" s="34" t="s">
+      <c r="I38" s="38"/>
+      <c r="J38" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="K38" s="34" t="s">
+      <c r="K38" s="38" t="s">
         <v>149</v>
       </c>
-      <c r="L38" s="34" t="s">
-        <v>250</v>
-      </c>
-      <c r="M38" s="34" t="s">
+      <c r="L38" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="M38" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="N38" s="34" t="s">
+      <c r="N38" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="O38" s="34">
+      <c r="O38" s="38">
         <v>80</v>
       </c>
-      <c r="P38" s="34"/>
-      <c r="Q38" s="34"/>
-    </row>
-    <row r="39" spans="6:17">
-      <c r="F39" s="35" t="s">
+      <c r="P38" s="38"/>
+      <c r="Q38" s="38"/>
+    </row>
+    <row r="39" ht="14.4" spans="6:17">
+      <c r="F39" s="39" t="s">
         <v>150</v>
       </c>
-      <c r="G39" s="36" t="s">
+      <c r="G39" s="40" t="s">
         <v>151</v>
       </c>
-      <c r="H39" s="35" t="s">
+      <c r="H39" s="39" t="s">
         <v>152</v>
       </c>
-      <c r="I39" s="35" t="s">
+      <c r="I39" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="J39" s="35" t="s">
+      <c r="J39" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="K39" s="35" t="s">
+      <c r="K39" s="39" t="s">
         <v>148</v>
       </c>
-      <c r="L39" s="35" t="s">
-        <v>247</v>
-      </c>
-      <c r="M39" s="35" t="s">
+      <c r="L39" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="M39" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="N39" s="35" t="s">
+      <c r="N39" s="39" t="s">
         <v>153</v>
       </c>
-      <c r="O39" s="35">
+      <c r="O39" s="39">
         <v>10</v>
       </c>
-      <c r="P39" s="35"/>
-      <c r="Q39" s="35"/>
-    </row>
-    <row r="40" spans="6:17">
-      <c r="F40" s="35" t="s">
+      <c r="P39" s="39"/>
+      <c r="Q39" s="39"/>
+    </row>
+    <row r="40" ht="14.4" spans="6:17">
+      <c r="F40" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="G40" s="36" t="s">
+      <c r="G40" s="40" t="s">
         <v>155</v>
       </c>
-      <c r="H40" s="35" t="s">
+      <c r="H40" s="39" t="s">
         <v>156</v>
       </c>
-      <c r="I40" s="35" t="s">
+      <c r="I40" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="J40" s="35" t="s">
+      <c r="J40" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="K40" s="35" t="s">
+      <c r="K40" s="39" t="s">
         <v>148</v>
       </c>
-      <c r="L40" s="35" t="s">
-        <v>248</v>
-      </c>
-      <c r="M40" s="35" t="s">
+      <c r="L40" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="M40" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="N40" s="35" t="s">
+      <c r="N40" s="39" t="s">
         <v>153</v>
       </c>
-      <c r="O40" s="35">
+      <c r="O40" s="39">
         <v>20</v>
       </c>
-      <c r="P40" s="35"/>
-      <c r="Q40" s="35"/>
-    </row>
-    <row r="41" spans="6:17" ht="16.25">
-      <c r="F41" s="37"/>
-      <c r="G41" s="37"/>
-      <c r="H41" s="37"/>
-      <c r="I41" s="37"/>
-      <c r="J41" s="37"/>
-      <c r="K41" s="37"/>
-      <c r="L41" s="37"/>
-      <c r="M41" s="37"/>
-      <c r="N41" s="37"/>
-      <c r="O41" s="37"/>
-    </row>
-    <row r="42" spans="6:17" ht="16.25">
-      <c r="F42" s="37"/>
-      <c r="G42" s="37"/>
-      <c r="H42" s="37"/>
-      <c r="I42" s="37"/>
-      <c r="J42" s="37"/>
-      <c r="K42" s="37"/>
-      <c r="L42" s="37"/>
-      <c r="M42" s="37"/>
-      <c r="N42" s="37"/>
-      <c r="O42" s="37"/>
-    </row>
-    <row r="43" spans="6:17" ht="16.25">
-      <c r="F43" s="37"/>
-      <c r="G43" s="37"/>
-      <c r="H43" s="37"/>
-      <c r="I43" s="37"/>
-      <c r="J43" s="37"/>
-      <c r="K43" s="37"/>
-      <c r="L43" s="37"/>
-      <c r="M43" s="37"/>
-      <c r="N43" s="37"/>
-      <c r="O43" s="37"/>
-    </row>
-    <row r="44" spans="6:17" ht="16.25">
-      <c r="F44" s="37"/>
-      <c r="G44" s="37"/>
-      <c r="H44" s="37"/>
-      <c r="I44" s="37"/>
-      <c r="J44" s="37"/>
-      <c r="K44" s="37"/>
-      <c r="L44" s="37"/>
-      <c r="M44" s="37"/>
-      <c r="N44" s="37"/>
-      <c r="O44" s="37"/>
-    </row>
-    <row r="45" spans="6:17" ht="16.25">
-      <c r="F45" s="37"/>
-      <c r="G45" s="37"/>
-      <c r="H45" s="37"/>
-      <c r="I45" s="37"/>
-      <c r="J45" s="37"/>
-      <c r="K45" s="37"/>
-      <c r="L45" s="37"/>
-      <c r="M45" s="37"/>
-      <c r="N45" s="37"/>
-      <c r="O45" s="37"/>
-    </row>
-    <row r="46" spans="6:17" ht="16.25">
-      <c r="F46" s="37"/>
-      <c r="G46" s="37"/>
-      <c r="H46" s="37"/>
-      <c r="I46" s="37"/>
-      <c r="J46" s="37"/>
-      <c r="K46" s="37"/>
-      <c r="L46" s="37"/>
-      <c r="M46" s="37"/>
-      <c r="N46" s="37"/>
-      <c r="O46" s="37"/>
-    </row>
-    <row r="47" spans="6:17" ht="16.25">
-      <c r="F47" s="37"/>
-      <c r="G47" s="37"/>
-      <c r="H47" s="37"/>
-      <c r="I47" s="37"/>
-      <c r="J47" s="37"/>
-      <c r="K47" s="37"/>
-      <c r="L47" s="37"/>
-      <c r="M47" s="37"/>
-      <c r="N47" s="37"/>
-      <c r="O47" s="37"/>
-    </row>
-    <row r="48" spans="6:17" ht="16.25">
-      <c r="F48" s="37"/>
-      <c r="G48" s="37"/>
-      <c r="H48" s="37"/>
-      <c r="I48" s="37"/>
-      <c r="J48" s="37"/>
-      <c r="K48" s="37"/>
-      <c r="L48" s="37"/>
-      <c r="M48" s="37"/>
-      <c r="N48" s="37"/>
-      <c r="O48" s="37"/>
-    </row>
-    <row r="49" spans="6:15" ht="16.25">
-      <c r="F49" s="37"/>
-      <c r="G49" s="37"/>
-      <c r="H49" s="37"/>
-      <c r="I49" s="37"/>
-      <c r="J49" s="37"/>
-      <c r="K49" s="37"/>
-      <c r="L49" s="37"/>
-      <c r="M49" s="37"/>
-      <c r="N49" s="37"/>
-      <c r="O49" s="37"/>
-    </row>
-    <row r="50" spans="6:15" ht="16.899999999999999">
-      <c r="F50" s="37"/>
-      <c r="G50" s="38"/>
-      <c r="H50" s="37"/>
-      <c r="I50" s="37"/>
-      <c r="J50" s="37"/>
-      <c r="K50" s="37"/>
-      <c r="L50" s="37"/>
-      <c r="M50" s="37"/>
-      <c r="N50" s="37"/>
-      <c r="O50" s="37"/>
-    </row>
-    <row r="51" spans="6:15" ht="16.25">
-      <c r="F51" s="39"/>
-      <c r="G51" s="39"/>
-      <c r="H51" s="39"/>
-      <c r="I51" s="39"/>
-      <c r="J51" s="39"/>
-      <c r="K51" s="39"/>
-      <c r="L51" s="39"/>
-      <c r="M51" s="39"/>
-      <c r="N51" s="39"/>
-      <c r="O51" s="39"/>
-    </row>
-    <row r="52" spans="6:15" ht="16.25">
-      <c r="F52" s="39"/>
-      <c r="G52" s="39"/>
-      <c r="H52" s="39"/>
-      <c r="I52" s="39"/>
-      <c r="J52" s="39"/>
-      <c r="K52" s="39"/>
-      <c r="L52" s="39"/>
-      <c r="M52" s="39"/>
-      <c r="N52" s="39"/>
-      <c r="O52" s="39"/>
-    </row>
-    <row r="53" spans="6:15" ht="16.25">
-      <c r="F53" s="39"/>
-      <c r="G53" s="39"/>
-      <c r="H53" s="39"/>
-      <c r="I53" s="39"/>
-      <c r="J53" s="39"/>
-      <c r="K53" s="39"/>
-      <c r="L53" s="39"/>
-      <c r="M53" s="39"/>
-      <c r="N53" s="39"/>
-      <c r="O53" s="39"/>
-    </row>
-    <row r="54" spans="6:15" ht="16.899999999999999">
-      <c r="F54" s="39"/>
-      <c r="G54" s="40"/>
-      <c r="H54" s="39"/>
-      <c r="I54" s="39"/>
-      <c r="J54" s="39"/>
-      <c r="K54" s="39"/>
-      <c r="L54" s="39"/>
-      <c r="M54" s="39"/>
-      <c r="N54" s="39"/>
-      <c r="O54" s="39"/>
-    </row>
-    <row r="55" spans="6:15" ht="16.25">
-      <c r="F55" s="39"/>
-      <c r="G55" s="39"/>
-      <c r="H55" s="39"/>
-      <c r="I55" s="39"/>
-      <c r="J55" s="39"/>
-      <c r="K55" s="39"/>
-      <c r="L55" s="39"/>
-      <c r="M55" s="39"/>
-      <c r="N55" s="39"/>
-      <c r="O55" s="39"/>
-    </row>
-    <row r="56" spans="6:15" ht="16.899999999999999">
-      <c r="F56" s="39"/>
-      <c r="G56" s="40"/>
-      <c r="H56" s="39"/>
-      <c r="I56" s="39"/>
-      <c r="J56" s="39"/>
-      <c r="K56" s="39"/>
-      <c r="L56" s="39"/>
-      <c r="M56" s="39"/>
-      <c r="N56" s="39"/>
-      <c r="O56" s="39"/>
-    </row>
-    <row r="57" spans="6:15" ht="16.25">
-      <c r="F57" s="39"/>
-      <c r="G57" s="39"/>
-      <c r="H57" s="39"/>
-      <c r="I57" s="39"/>
-      <c r="J57" s="39"/>
-      <c r="K57" s="39"/>
-      <c r="L57" s="39"/>
-      <c r="M57" s="39"/>
-      <c r="N57" s="39"/>
-      <c r="O57" s="39"/>
-    </row>
-    <row r="58" spans="6:15" ht="16.25">
-      <c r="F58" s="39"/>
-      <c r="G58" s="39"/>
-      <c r="H58" s="39"/>
-      <c r="I58" s="39"/>
-      <c r="J58" s="39"/>
-      <c r="K58" s="39"/>
-      <c r="L58" s="39"/>
-      <c r="M58" s="39"/>
-      <c r="N58" s="39"/>
-      <c r="O58" s="39"/>
-    </row>
-    <row r="59" spans="6:15" ht="16.899999999999999">
-      <c r="F59" s="39"/>
-      <c r="G59" s="40"/>
-      <c r="H59" s="39"/>
-      <c r="I59" s="39"/>
-      <c r="J59" s="39"/>
-      <c r="K59" s="39"/>
-      <c r="L59" s="39"/>
-      <c r="M59" s="39"/>
-      <c r="N59" s="39"/>
-      <c r="O59" s="39"/>
-    </row>
-    <row r="60" spans="6:15" ht="16.25">
-      <c r="F60" s="39"/>
-      <c r="G60" s="39"/>
-      <c r="H60" s="39"/>
-      <c r="I60" s="39"/>
-      <c r="J60" s="39"/>
-      <c r="K60" s="39"/>
-      <c r="L60" s="39"/>
-      <c r="M60" s="39"/>
-      <c r="N60" s="39"/>
-      <c r="O60" s="39"/>
-    </row>
-    <row r="61" spans="6:15" ht="16.25">
-      <c r="F61" s="39"/>
-      <c r="G61" s="39"/>
-      <c r="H61" s="39"/>
-      <c r="I61" s="39"/>
-      <c r="J61" s="39"/>
-      <c r="K61" s="39"/>
-      <c r="L61" s="39"/>
-      <c r="M61" s="39"/>
-      <c r="N61" s="39"/>
-      <c r="O61" s="39"/>
-    </row>
-    <row r="62" spans="6:15" ht="16.25">
-      <c r="F62" s="39"/>
-      <c r="G62" s="39"/>
-      <c r="H62" s="39"/>
-      <c r="I62" s="39"/>
-      <c r="J62" s="39"/>
-      <c r="K62" s="39"/>
-      <c r="L62" s="39"/>
-      <c r="M62" s="39"/>
-      <c r="N62" s="39"/>
-      <c r="O62" s="39"/>
-    </row>
-    <row r="63" spans="6:15" ht="16.25">
-      <c r="F63" s="39"/>
-      <c r="G63" s="39"/>
-      <c r="H63" s="39"/>
-      <c r="I63" s="39"/>
-      <c r="J63" s="39"/>
-      <c r="K63" s="39"/>
-      <c r="L63" s="39"/>
-      <c r="M63" s="39"/>
-      <c r="N63" s="39"/>
-      <c r="O63" s="39"/>
-    </row>
-    <row r="64" spans="6:15" ht="16.25">
-      <c r="F64" s="39"/>
-      <c r="G64" s="39"/>
-      <c r="H64" s="39"/>
-      <c r="I64" s="39"/>
-      <c r="J64" s="39"/>
-      <c r="K64" s="39"/>
-      <c r="L64" s="39"/>
-      <c r="M64" s="39"/>
-      <c r="N64" s="39"/>
-      <c r="O64" s="39"/>
-    </row>
-    <row r="65" spans="6:15" ht="16.25">
-      <c r="F65" s="41"/>
-      <c r="G65" s="41"/>
-      <c r="H65" s="41"/>
-      <c r="I65" s="41"/>
-      <c r="J65" s="41"/>
-      <c r="K65" s="41"/>
-      <c r="L65" s="41"/>
-      <c r="M65" s="41"/>
-      <c r="N65" s="41"/>
-      <c r="O65" s="41"/>
-    </row>
-    <row r="66" spans="6:15" ht="16.25">
-      <c r="F66" s="41"/>
-      <c r="G66" s="41"/>
-      <c r="H66" s="41"/>
-      <c r="I66" s="41"/>
-      <c r="J66" s="41"/>
-      <c r="K66" s="41"/>
-      <c r="L66" s="41"/>
-      <c r="M66" s="41"/>
-      <c r="N66" s="41"/>
-      <c r="O66" s="41"/>
-    </row>
-    <row r="67" spans="6:15" ht="16.25">
-      <c r="F67" s="41"/>
-      <c r="G67" s="41"/>
-      <c r="H67" s="41"/>
-      <c r="I67" s="41"/>
-      <c r="J67" s="41"/>
-      <c r="K67" s="41"/>
-      <c r="L67" s="41"/>
-      <c r="M67" s="41"/>
-      <c r="N67" s="41"/>
-      <c r="O67" s="41"/>
-    </row>
-    <row r="68" spans="6:15" ht="16.25">
-      <c r="F68" s="41"/>
-      <c r="G68" s="41"/>
-      <c r="H68" s="41"/>
-      <c r="I68" s="41"/>
-      <c r="J68" s="41"/>
-      <c r="K68" s="41"/>
-      <c r="L68" s="41"/>
-      <c r="M68" s="41"/>
-      <c r="N68" s="41"/>
-      <c r="O68" s="41"/>
-    </row>
-    <row r="69" spans="6:15" ht="16.899999999999999">
-      <c r="F69" s="44"/>
-      <c r="G69" s="44"/>
-      <c r="H69" s="44"/>
-      <c r="I69" s="44"/>
-      <c r="J69" s="44"/>
-      <c r="K69" s="44"/>
-      <c r="L69" s="44"/>
-      <c r="M69" s="44"/>
-      <c r="N69" s="47"/>
-      <c r="O69" s="44"/>
-    </row>
-    <row r="70" spans="6:15" ht="16.899999999999999">
-      <c r="F70" s="44"/>
-      <c r="G70" s="44"/>
-      <c r="H70" s="44"/>
-      <c r="I70" s="44"/>
-      <c r="J70" s="44"/>
-      <c r="K70" s="44"/>
-      <c r="L70" s="44"/>
-      <c r="M70" s="44"/>
-      <c r="N70" s="47"/>
-      <c r="O70" s="44"/>
-    </row>
-    <row r="71" spans="6:15" ht="16.899999999999999">
-      <c r="F71" s="44"/>
-      <c r="G71" s="44"/>
-      <c r="H71" s="44"/>
-      <c r="I71" s="44"/>
-      <c r="J71" s="44"/>
-      <c r="K71" s="44"/>
-      <c r="L71" s="44"/>
-      <c r="M71" s="44"/>
-      <c r="N71" s="44"/>
-      <c r="O71" s="44"/>
-    </row>
-    <row r="72" spans="6:15" s="25" customFormat="1" ht="16.899999999999999">
-      <c r="F72" s="37"/>
-      <c r="G72" s="38"/>
-      <c r="H72" s="37"/>
-      <c r="I72" s="37"/>
-      <c r="J72" s="37"/>
-      <c r="K72" s="37"/>
-      <c r="L72" s="37"/>
-      <c r="M72" s="37"/>
-      <c r="N72" s="37"/>
-      <c r="O72" s="37"/>
-    </row>
-    <row r="73" spans="6:15" s="25" customFormat="1" ht="16.899999999999999">
-      <c r="F73" s="37"/>
-      <c r="G73" s="38"/>
-      <c r="H73" s="37"/>
-      <c r="I73" s="37"/>
-      <c r="J73" s="37"/>
-      <c r="K73" s="37"/>
-      <c r="L73" s="37"/>
-      <c r="M73" s="37"/>
-      <c r="N73" s="37"/>
-      <c r="O73" s="37"/>
-    </row>
-    <row r="74" spans="6:15" s="25" customFormat="1" ht="16.899999999999999">
-      <c r="F74" s="37"/>
-      <c r="G74" s="38"/>
-      <c r="H74" s="37"/>
-      <c r="I74" s="37"/>
-      <c r="J74" s="37"/>
-      <c r="K74" s="37"/>
-      <c r="L74" s="37"/>
-      <c r="M74" s="37"/>
-      <c r="N74" s="37"/>
-      <c r="O74" s="37"/>
-    </row>
-    <row r="75" spans="6:15" s="25" customFormat="1" ht="16.899999999999999">
-      <c r="F75" s="37"/>
-      <c r="G75" s="38"/>
-      <c r="H75" s="37"/>
-      <c r="I75" s="37"/>
-      <c r="J75" s="37"/>
-      <c r="K75" s="37"/>
-      <c r="L75" s="37"/>
-      <c r="M75" s="37"/>
-      <c r="N75" s="37"/>
-      <c r="O75" s="37"/>
-    </row>
-    <row r="76" spans="6:15" s="25" customFormat="1" ht="16.899999999999999">
-      <c r="F76" s="37"/>
-      <c r="G76" s="38"/>
-      <c r="H76" s="37"/>
-      <c r="I76" s="37"/>
-      <c r="J76" s="37"/>
-      <c r="K76" s="37"/>
-      <c r="L76" s="37"/>
-      <c r="M76" s="37"/>
-      <c r="N76" s="37"/>
-      <c r="O76" s="37"/>
-    </row>
-    <row r="77" spans="6:15" s="25" customFormat="1" ht="16.899999999999999">
-      <c r="F77" s="37"/>
-      <c r="G77" s="38"/>
-      <c r="H77" s="37"/>
-      <c r="I77" s="37"/>
-      <c r="J77" s="37"/>
-      <c r="K77" s="37"/>
-      <c r="L77" s="37"/>
-      <c r="M77" s="37"/>
-      <c r="N77" s="37"/>
-      <c r="O77" s="37"/>
-    </row>
-    <row r="78" spans="6:15" ht="16.25">
-      <c r="F78" s="45"/>
-      <c r="G78" s="45"/>
-      <c r="H78" s="45"/>
-      <c r="I78" s="45"/>
-      <c r="J78" s="45"/>
-      <c r="K78" s="45"/>
-      <c r="L78" s="45"/>
-      <c r="M78" s="45"/>
-      <c r="N78" s="45"/>
-      <c r="O78" s="45"/>
-    </row>
-    <row r="79" spans="6:15" ht="16.25">
-      <c r="F79" s="45"/>
-      <c r="G79" s="45"/>
-      <c r="H79" s="45"/>
-      <c r="I79" s="45"/>
-      <c r="J79" s="45"/>
-      <c r="K79" s="45"/>
-      <c r="L79" s="45"/>
-      <c r="M79" s="45"/>
-      <c r="N79" s="45"/>
-      <c r="O79" s="45"/>
-    </row>
-    <row r="80" spans="6:15" ht="16.25">
-      <c r="F80" s="45"/>
-      <c r="G80" s="45"/>
-      <c r="H80" s="45"/>
-      <c r="I80" s="45"/>
-      <c r="J80" s="45"/>
-      <c r="K80" s="45"/>
-      <c r="L80" s="45"/>
-      <c r="M80" s="45"/>
-      <c r="N80" s="45"/>
-      <c r="O80" s="45"/>
-    </row>
-    <row r="81" spans="6:15" ht="16.25">
-      <c r="F81" s="45"/>
-      <c r="G81" s="45"/>
-      <c r="H81" s="45"/>
-      <c r="I81" s="45"/>
-      <c r="J81" s="45"/>
-      <c r="K81" s="45"/>
-      <c r="L81" s="45"/>
-      <c r="M81" s="45"/>
-      <c r="N81" s="45"/>
-      <c r="O81" s="45"/>
-    </row>
-    <row r="82" spans="6:15" ht="16.899999999999999">
-      <c r="F82" s="45"/>
-      <c r="G82" s="46"/>
-      <c r="H82" s="45"/>
-      <c r="I82" s="45"/>
-      <c r="J82" s="45"/>
-      <c r="K82" s="45"/>
-      <c r="L82" s="45"/>
-      <c r="M82" s="45"/>
-      <c r="N82" s="45"/>
-      <c r="O82" s="45"/>
-    </row>
-    <row r="83" spans="6:15" ht="16.25">
-      <c r="F83" s="45"/>
-      <c r="G83" s="45"/>
-      <c r="H83" s="45"/>
-      <c r="J83" s="45"/>
-      <c r="K83" s="45"/>
-      <c r="L83" s="45"/>
-      <c r="M83" s="45"/>
-      <c r="O83" s="45"/>
-    </row>
-    <row r="84" spans="6:15" ht="16.25">
-      <c r="F84" s="45"/>
-      <c r="G84" s="45"/>
-      <c r="H84" s="45"/>
-      <c r="I84" s="45"/>
-      <c r="J84" s="45"/>
-      <c r="K84" s="45"/>
-      <c r="L84" s="45"/>
-      <c r="M84" s="45"/>
-      <c r="N84" s="45"/>
-      <c r="O84" s="45"/>
+      <c r="P40" s="39"/>
+      <c r="Q40" s="39"/>
+    </row>
+    <row r="41" ht="17.6" spans="6:15">
+      <c r="F41" s="41"/>
+      <c r="G41" s="41"/>
+      <c r="H41" s="41"/>
+      <c r="I41" s="41"/>
+      <c r="J41" s="41"/>
+      <c r="K41" s="41"/>
+      <c r="L41" s="41"/>
+      <c r="M41" s="41"/>
+      <c r="N41" s="41"/>
+      <c r="O41" s="41"/>
+    </row>
+    <row r="42" ht="17.6" spans="6:15">
+      <c r="F42" s="41"/>
+      <c r="G42" s="41"/>
+      <c r="H42" s="41"/>
+      <c r="I42" s="41"/>
+      <c r="J42" s="41"/>
+      <c r="K42" s="41"/>
+      <c r="L42" s="41"/>
+      <c r="M42" s="41"/>
+      <c r="N42" s="41"/>
+      <c r="O42" s="41"/>
+    </row>
+    <row r="43" ht="17.6" spans="6:15">
+      <c r="F43" s="41"/>
+      <c r="G43" s="41"/>
+      <c r="H43" s="41"/>
+      <c r="I43" s="41"/>
+      <c r="J43" s="41"/>
+      <c r="K43" s="41"/>
+      <c r="L43" s="41"/>
+      <c r="M43" s="41"/>
+      <c r="N43" s="41"/>
+      <c r="O43" s="41"/>
+    </row>
+    <row r="44" ht="17.6" spans="6:15">
+      <c r="F44" s="41"/>
+      <c r="G44" s="41"/>
+      <c r="H44" s="41"/>
+      <c r="I44" s="41"/>
+      <c r="J44" s="41"/>
+      <c r="K44" s="41"/>
+      <c r="L44" s="41"/>
+      <c r="M44" s="41"/>
+      <c r="N44" s="41"/>
+      <c r="O44" s="41"/>
+    </row>
+    <row r="45" ht="17.6" spans="6:15">
+      <c r="F45" s="41"/>
+      <c r="G45" s="41"/>
+      <c r="H45" s="41"/>
+      <c r="I45" s="41"/>
+      <c r="J45" s="41"/>
+      <c r="K45" s="41"/>
+      <c r="L45" s="41"/>
+      <c r="M45" s="41"/>
+      <c r="N45" s="41"/>
+      <c r="O45" s="41"/>
+    </row>
+    <row r="46" ht="17.6" spans="6:15">
+      <c r="F46" s="41"/>
+      <c r="G46" s="41"/>
+      <c r="H46" s="41"/>
+      <c r="I46" s="41"/>
+      <c r="J46" s="41"/>
+      <c r="K46" s="41"/>
+      <c r="L46" s="41"/>
+      <c r="M46" s="41"/>
+      <c r="N46" s="41"/>
+      <c r="O46" s="41"/>
+    </row>
+    <row r="47" ht="17.6" spans="6:15">
+      <c r="F47" s="41"/>
+      <c r="G47" s="41"/>
+      <c r="H47" s="41"/>
+      <c r="I47" s="41"/>
+      <c r="J47" s="41"/>
+      <c r="K47" s="41"/>
+      <c r="L47" s="41"/>
+      <c r="M47" s="41"/>
+      <c r="N47" s="41"/>
+      <c r="O47" s="41"/>
+    </row>
+    <row r="48" ht="17.6" spans="6:15">
+      <c r="F48" s="41"/>
+      <c r="G48" s="41"/>
+      <c r="H48" s="41"/>
+      <c r="I48" s="41"/>
+      <c r="J48" s="41"/>
+      <c r="K48" s="41"/>
+      <c r="L48" s="41"/>
+      <c r="M48" s="41"/>
+      <c r="N48" s="41"/>
+      <c r="O48" s="41"/>
+    </row>
+    <row r="49" ht="17.6" spans="6:15">
+      <c r="F49" s="41"/>
+      <c r="G49" s="41"/>
+      <c r="H49" s="41"/>
+      <c r="I49" s="41"/>
+      <c r="J49" s="41"/>
+      <c r="K49" s="41"/>
+      <c r="L49" s="41"/>
+      <c r="M49" s="41"/>
+      <c r="N49" s="41"/>
+      <c r="O49" s="41"/>
+    </row>
+    <row r="50" ht="17.6" spans="6:15">
+      <c r="F50" s="41"/>
+      <c r="G50" s="42"/>
+      <c r="H50" s="41"/>
+      <c r="I50" s="41"/>
+      <c r="J50" s="41"/>
+      <c r="K50" s="41"/>
+      <c r="L50" s="41"/>
+      <c r="M50" s="41"/>
+      <c r="N50" s="41"/>
+      <c r="O50" s="41"/>
+    </row>
+    <row r="51" ht="17.6" spans="6:15">
+      <c r="F51" s="43"/>
+      <c r="G51" s="43"/>
+      <c r="H51" s="43"/>
+      <c r="I51" s="43"/>
+      <c r="J51" s="43"/>
+      <c r="K51" s="43"/>
+      <c r="L51" s="43"/>
+      <c r="M51" s="43"/>
+      <c r="N51" s="43"/>
+      <c r="O51" s="43"/>
+    </row>
+    <row r="52" ht="17.6" spans="6:15">
+      <c r="F52" s="43"/>
+      <c r="G52" s="43"/>
+      <c r="H52" s="43"/>
+      <c r="I52" s="43"/>
+      <c r="J52" s="43"/>
+      <c r="K52" s="43"/>
+      <c r="L52" s="43"/>
+      <c r="M52" s="43"/>
+      <c r="N52" s="43"/>
+      <c r="O52" s="43"/>
+    </row>
+    <row r="53" ht="17.6" spans="6:15">
+      <c r="F53" s="43"/>
+      <c r="G53" s="43"/>
+      <c r="H53" s="43"/>
+      <c r="I53" s="43"/>
+      <c r="J53" s="43"/>
+      <c r="K53" s="43"/>
+      <c r="L53" s="43"/>
+      <c r="M53" s="43"/>
+      <c r="N53" s="43"/>
+      <c r="O53" s="43"/>
+    </row>
+    <row r="54" ht="17.6" spans="6:15">
+      <c r="F54" s="43"/>
+      <c r="G54" s="44"/>
+      <c r="H54" s="43"/>
+      <c r="I54" s="43"/>
+      <c r="J54" s="43"/>
+      <c r="K54" s="43"/>
+      <c r="L54" s="43"/>
+      <c r="M54" s="43"/>
+      <c r="N54" s="43"/>
+      <c r="O54" s="43"/>
+    </row>
+    <row r="55" ht="17.6" spans="6:15">
+      <c r="F55" s="43"/>
+      <c r="G55" s="43"/>
+      <c r="H55" s="43"/>
+      <c r="I55" s="43"/>
+      <c r="J55" s="43"/>
+      <c r="K55" s="43"/>
+      <c r="L55" s="43"/>
+      <c r="M55" s="43"/>
+      <c r="N55" s="43"/>
+      <c r="O55" s="43"/>
+    </row>
+    <row r="56" ht="17.6" spans="6:15">
+      <c r="F56" s="43"/>
+      <c r="G56" s="44"/>
+      <c r="H56" s="43"/>
+      <c r="I56" s="43"/>
+      <c r="J56" s="43"/>
+      <c r="K56" s="43"/>
+      <c r="L56" s="43"/>
+      <c r="M56" s="43"/>
+      <c r="N56" s="43"/>
+      <c r="O56" s="43"/>
+    </row>
+    <row r="57" ht="17.6" spans="6:15">
+      <c r="F57" s="43"/>
+      <c r="G57" s="43"/>
+      <c r="H57" s="43"/>
+      <c r="I57" s="43"/>
+      <c r="J57" s="43"/>
+      <c r="K57" s="43"/>
+      <c r="L57" s="43"/>
+      <c r="M57" s="43"/>
+      <c r="N57" s="43"/>
+      <c r="O57" s="43"/>
+    </row>
+    <row r="58" ht="17.6" spans="6:15">
+      <c r="F58" s="43"/>
+      <c r="G58" s="43"/>
+      <c r="H58" s="43"/>
+      <c r="I58" s="43"/>
+      <c r="J58" s="43"/>
+      <c r="K58" s="43"/>
+      <c r="L58" s="43"/>
+      <c r="M58" s="43"/>
+      <c r="N58" s="43"/>
+      <c r="O58" s="43"/>
+    </row>
+    <row r="59" ht="17.6" spans="6:15">
+      <c r="F59" s="43"/>
+      <c r="G59" s="44"/>
+      <c r="H59" s="43"/>
+      <c r="I59" s="43"/>
+      <c r="J59" s="43"/>
+      <c r="K59" s="43"/>
+      <c r="L59" s="43"/>
+      <c r="M59" s="43"/>
+      <c r="N59" s="43"/>
+      <c r="O59" s="43"/>
+    </row>
+    <row r="60" ht="17.6" spans="6:15">
+      <c r="F60" s="43"/>
+      <c r="G60" s="43"/>
+      <c r="H60" s="43"/>
+      <c r="I60" s="43"/>
+      <c r="J60" s="43"/>
+      <c r="K60" s="43"/>
+      <c r="L60" s="43"/>
+      <c r="M60" s="43"/>
+      <c r="N60" s="43"/>
+      <c r="O60" s="43"/>
+    </row>
+    <row r="61" ht="17.6" spans="6:15">
+      <c r="F61" s="43"/>
+      <c r="G61" s="43"/>
+      <c r="H61" s="43"/>
+      <c r="I61" s="43"/>
+      <c r="J61" s="43"/>
+      <c r="K61" s="43"/>
+      <c r="L61" s="43"/>
+      <c r="M61" s="43"/>
+      <c r="N61" s="43"/>
+      <c r="O61" s="43"/>
+    </row>
+    <row r="62" ht="17.6" spans="6:15">
+      <c r="F62" s="43"/>
+      <c r="G62" s="43"/>
+      <c r="H62" s="43"/>
+      <c r="I62" s="43"/>
+      <c r="J62" s="43"/>
+      <c r="K62" s="43"/>
+      <c r="L62" s="43"/>
+      <c r="M62" s="43"/>
+      <c r="N62" s="43"/>
+      <c r="O62" s="43"/>
+    </row>
+    <row r="63" ht="17.6" spans="6:15">
+      <c r="F63" s="43"/>
+      <c r="G63" s="43"/>
+      <c r="H63" s="43"/>
+      <c r="I63" s="43"/>
+      <c r="J63" s="43"/>
+      <c r="K63" s="43"/>
+      <c r="L63" s="43"/>
+      <c r="M63" s="43"/>
+      <c r="N63" s="43"/>
+      <c r="O63" s="43"/>
+    </row>
+    <row r="64" ht="17.6" spans="6:15">
+      <c r="F64" s="43"/>
+      <c r="G64" s="43"/>
+      <c r="H64" s="43"/>
+      <c r="I64" s="43"/>
+      <c r="J64" s="43"/>
+      <c r="K64" s="43"/>
+      <c r="L64" s="43"/>
+      <c r="M64" s="43"/>
+      <c r="N64" s="43"/>
+      <c r="O64" s="43"/>
+    </row>
+    <row r="65" ht="17.6" spans="6:15">
+      <c r="F65" s="47"/>
+      <c r="G65" s="47"/>
+      <c r="H65" s="47"/>
+      <c r="I65" s="47"/>
+      <c r="J65" s="47"/>
+      <c r="K65" s="47"/>
+      <c r="L65" s="47"/>
+      <c r="M65" s="47"/>
+      <c r="N65" s="47"/>
+      <c r="O65" s="47"/>
+    </row>
+    <row r="66" ht="17.6" spans="6:15">
+      <c r="F66" s="47"/>
+      <c r="G66" s="47"/>
+      <c r="H66" s="47"/>
+      <c r="I66" s="47"/>
+      <c r="J66" s="47"/>
+      <c r="K66" s="47"/>
+      <c r="L66" s="47"/>
+      <c r="M66" s="47"/>
+      <c r="N66" s="47"/>
+      <c r="O66" s="47"/>
+    </row>
+    <row r="67" ht="17.6" spans="6:15">
+      <c r="F67" s="47"/>
+      <c r="G67" s="47"/>
+      <c r="H67" s="47"/>
+      <c r="I67" s="47"/>
+      <c r="J67" s="47"/>
+      <c r="K67" s="47"/>
+      <c r="L67" s="47"/>
+      <c r="M67" s="47"/>
+      <c r="N67" s="47"/>
+      <c r="O67" s="47"/>
+    </row>
+    <row r="68" ht="17.6" spans="6:15">
+      <c r="F68" s="47"/>
+      <c r="G68" s="47"/>
+      <c r="H68" s="47"/>
+      <c r="I68" s="47"/>
+      <c r="J68" s="47"/>
+      <c r="K68" s="47"/>
+      <c r="L68" s="47"/>
+      <c r="M68" s="47"/>
+      <c r="N68" s="47"/>
+      <c r="O68" s="47"/>
+    </row>
+    <row r="69" ht="19.2" spans="6:15">
+      <c r="F69" s="48"/>
+      <c r="G69" s="48"/>
+      <c r="H69" s="48"/>
+      <c r="I69" s="48"/>
+      <c r="J69" s="48"/>
+      <c r="K69" s="48"/>
+      <c r="L69" s="48"/>
+      <c r="M69" s="48"/>
+      <c r="N69" s="51"/>
+      <c r="O69" s="48"/>
+    </row>
+    <row r="70" ht="19.2" spans="6:15">
+      <c r="F70" s="48"/>
+      <c r="G70" s="48"/>
+      <c r="H70" s="48"/>
+      <c r="I70" s="48"/>
+      <c r="J70" s="48"/>
+      <c r="K70" s="48"/>
+      <c r="L70" s="48"/>
+      <c r="M70" s="48"/>
+      <c r="N70" s="51"/>
+      <c r="O70" s="48"/>
+    </row>
+    <row r="71" ht="19.2" spans="6:15">
+      <c r="F71" s="48"/>
+      <c r="G71" s="48"/>
+      <c r="H71" s="48"/>
+      <c r="I71" s="48"/>
+      <c r="J71" s="48"/>
+      <c r="K71" s="48"/>
+      <c r="L71" s="48"/>
+      <c r="M71" s="48"/>
+      <c r="N71" s="48"/>
+      <c r="O71" s="48"/>
+    </row>
+    <row r="72" s="28" customFormat="1" ht="17.6" spans="6:15">
+      <c r="F72" s="41"/>
+      <c r="G72" s="42"/>
+      <c r="H72" s="41"/>
+      <c r="I72" s="41"/>
+      <c r="J72" s="41"/>
+      <c r="K72" s="41"/>
+      <c r="L72" s="41"/>
+      <c r="M72" s="41"/>
+      <c r="N72" s="41"/>
+      <c r="O72" s="41"/>
+    </row>
+    <row r="73" s="28" customFormat="1" ht="17.6" spans="6:15">
+      <c r="F73" s="41"/>
+      <c r="G73" s="42"/>
+      <c r="H73" s="41"/>
+      <c r="I73" s="41"/>
+      <c r="J73" s="41"/>
+      <c r="K73" s="41"/>
+      <c r="L73" s="41"/>
+      <c r="M73" s="41"/>
+      <c r="N73" s="41"/>
+      <c r="O73" s="41"/>
+    </row>
+    <row r="74" s="28" customFormat="1" ht="17.6" spans="6:15">
+      <c r="F74" s="41"/>
+      <c r="G74" s="42"/>
+      <c r="H74" s="41"/>
+      <c r="I74" s="41"/>
+      <c r="J74" s="41"/>
+      <c r="K74" s="41"/>
+      <c r="L74" s="41"/>
+      <c r="M74" s="41"/>
+      <c r="N74" s="41"/>
+      <c r="O74" s="41"/>
+    </row>
+    <row r="75" s="28" customFormat="1" ht="17.6" spans="6:15">
+      <c r="F75" s="41"/>
+      <c r="G75" s="42"/>
+      <c r="H75" s="41"/>
+      <c r="I75" s="41"/>
+      <c r="J75" s="41"/>
+      <c r="K75" s="41"/>
+      <c r="L75" s="41"/>
+      <c r="M75" s="41"/>
+      <c r="N75" s="41"/>
+      <c r="O75" s="41"/>
+    </row>
+    <row r="76" s="28" customFormat="1" ht="17.6" spans="6:15">
+      <c r="F76" s="41"/>
+      <c r="G76" s="42"/>
+      <c r="H76" s="41"/>
+      <c r="I76" s="41"/>
+      <c r="J76" s="41"/>
+      <c r="K76" s="41"/>
+      <c r="L76" s="41"/>
+      <c r="M76" s="41"/>
+      <c r="N76" s="41"/>
+      <c r="O76" s="41"/>
+    </row>
+    <row r="77" s="28" customFormat="1" ht="17.6" spans="6:15">
+      <c r="F77" s="41"/>
+      <c r="G77" s="42"/>
+      <c r="H77" s="41"/>
+      <c r="I77" s="41"/>
+      <c r="J77" s="41"/>
+      <c r="K77" s="41"/>
+      <c r="L77" s="41"/>
+      <c r="M77" s="41"/>
+      <c r="N77" s="41"/>
+      <c r="O77" s="41"/>
+    </row>
+    <row r="78" ht="17.6" spans="6:15">
+      <c r="F78" s="49"/>
+      <c r="G78" s="49"/>
+      <c r="H78" s="49"/>
+      <c r="I78" s="49"/>
+      <c r="J78" s="49"/>
+      <c r="K78" s="49"/>
+      <c r="L78" s="49"/>
+      <c r="M78" s="49"/>
+      <c r="N78" s="49"/>
+      <c r="O78" s="49"/>
+    </row>
+    <row r="79" ht="17.6" spans="6:15">
+      <c r="F79" s="49"/>
+      <c r="G79" s="49"/>
+      <c r="H79" s="49"/>
+      <c r="I79" s="49"/>
+      <c r="J79" s="49"/>
+      <c r="K79" s="49"/>
+      <c r="L79" s="49"/>
+      <c r="M79" s="49"/>
+      <c r="N79" s="49"/>
+      <c r="O79" s="49"/>
+    </row>
+    <row r="80" ht="17.6" spans="6:15">
+      <c r="F80" s="49"/>
+      <c r="G80" s="49"/>
+      <c r="H80" s="49"/>
+      <c r="I80" s="49"/>
+      <c r="J80" s="49"/>
+      <c r="K80" s="49"/>
+      <c r="L80" s="49"/>
+      <c r="M80" s="49"/>
+      <c r="N80" s="49"/>
+      <c r="O80" s="49"/>
+    </row>
+    <row r="81" ht="17.6" spans="6:15">
+      <c r="F81" s="49"/>
+      <c r="G81" s="49"/>
+      <c r="H81" s="49"/>
+      <c r="I81" s="49"/>
+      <c r="J81" s="49"/>
+      <c r="K81" s="49"/>
+      <c r="L81" s="49"/>
+      <c r="M81" s="49"/>
+      <c r="N81" s="49"/>
+      <c r="O81" s="49"/>
+    </row>
+    <row r="82" ht="17.6" spans="6:15">
+      <c r="F82" s="49"/>
+      <c r="G82" s="50"/>
+      <c r="H82" s="49"/>
+      <c r="I82" s="49"/>
+      <c r="J82" s="49"/>
+      <c r="K82" s="49"/>
+      <c r="L82" s="49"/>
+      <c r="M82" s="49"/>
+      <c r="N82" s="49"/>
+      <c r="O82" s="49"/>
+    </row>
+    <row r="83" ht="17.6" spans="6:15">
+      <c r="F83" s="49"/>
+      <c r="G83" s="49"/>
+      <c r="H83" s="49"/>
+      <c r="J83" s="49"/>
+      <c r="K83" s="49"/>
+      <c r="L83" s="49"/>
+      <c r="M83" s="49"/>
+      <c r="O83" s="49"/>
+    </row>
+    <row r="84" ht="17.6" spans="6:15">
+      <c r="F84" s="49"/>
+      <c r="G84" s="49"/>
+      <c r="H84" s="49"/>
+      <c r="I84" s="49"/>
+      <c r="J84" s="49"/>
+      <c r="K84" s="49"/>
+      <c r="L84" s="49"/>
+      <c r="M84" s="49"/>
+      <c r="N84" s="49"/>
+      <c r="O84" s="49"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="48" type="noConversion"/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,常规"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,常规"&amp;12 Page &amp;P</oddFooter>
@@ -4910,14 +5568,15 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="D7:I7"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G186" sqref="F8:G186"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6"/>
   <cols>
     <col min="1" max="3" width="9" customWidth="1"/>
     <col min="4" max="4" width="23.875" customWidth="1"/>
@@ -4927,20 +5586,20 @@
     <col min="8" max="1025" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:9" ht="12.85" customHeight="1">
-      <c r="D7" s="16" t="s">
+    <row r="7" ht="12.85" customHeight="1" spans="4:9">
+      <c r="D7" s="18" t="s">
         <v>157</v>
       </c>
-      <c r="E7" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F7" s="16" t="s">
+      <c r="E7" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="18" t="s">
         <v>158</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="G7" s="18" t="s">
         <v>159</v>
       </c>
-      <c r="H7" s="16" t="s">
+      <c r="H7" s="18" t="s">
         <v>11</v>
       </c>
       <c r="I7" t="s">
@@ -4948,9 +5607,8 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="48" type="noConversion"/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,常规"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,常规"&amp;12 Page &amp;P</oddFooter>
@@ -4959,14 +5617,15 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="D7:G7"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="F8" sqref="F8:G37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="6.125" customWidth="1"/>
     <col min="2" max="2" width="5" customWidth="1"/>
@@ -4977,23 +5636,22 @@
     <col min="7" max="7" width="52.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:7" ht="13">
-      <c r="D7" s="16" t="s">
+    <row r="7" ht="15.2" spans="4:7">
+      <c r="D7" s="18" t="s">
         <v>161</v>
       </c>
-      <c r="E7" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F7" s="16" t="s">
+      <c r="E7" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="18" t="s">
         <v>162</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="G7" s="18" t="s">
         <v>159</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="48" type="noConversion"/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,标准"&amp;12&amp;A</oddHeader>
@@ -5003,14 +5661,15 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D7:I75"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="D6:I75"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50:XFD50"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A50" sqref="$A50:$XFD50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="3" width="8.875" customWidth="1"/>
     <col min="4" max="4" width="27.375" customWidth="1"/>
@@ -5021,756 +5680,758 @@
     <col min="9" max="1025" width="8.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:9" ht="19" customHeight="1">
-      <c r="D7" s="4" t="s">
+    <row r="6" ht="14.75"/>
+    <row r="7" ht="19" customHeight="1" spans="4:9">
+      <c r="D7" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F7" s="4" t="s">
+      <c r="E7" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="I7" s="16" t="s">
+      <c r="I7" s="18" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="4:9" s="3" customFormat="1">
-      <c r="F8" s="7" t="s">
+    <row r="8" s="3" customFormat="1" spans="6:9">
+      <c r="F8" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="H8" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="I8" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="4:9" s="3" customFormat="1">
-      <c r="F9" s="7" t="s">
+      <c r="I8" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" s="3" customFormat="1" spans="6:9">
+      <c r="F9" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="H9" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="I9" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="4:9" s="3" customFormat="1">
-      <c r="F10" s="7" t="s">
+      <c r="I9" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" s="3" customFormat="1" spans="6:9">
+      <c r="F10" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="H10" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="I10" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="4:9" s="3" customFormat="1">
-      <c r="F11" s="7" t="s">
+      <c r="I10" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" s="3" customFormat="1" spans="6:9">
+      <c r="F11" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="G11" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="H11" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="I11" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="4:9" s="3" customFormat="1">
-      <c r="F12" s="7" t="s">
+      <c r="I11" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" s="3" customFormat="1" spans="6:9">
+      <c r="F12" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="G12" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="H12" s="7" t="s">
+      <c r="H12" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="I12" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="4:9" s="3" customFormat="1">
-      <c r="F13" s="7" t="s">
+      <c r="I12" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" s="3" customFormat="1" spans="6:9">
+      <c r="F13" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="G13" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="H13" s="7" t="s">
+      <c r="H13" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="I13" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="4:9" s="3" customFormat="1">
-      <c r="F14" s="7" t="s">
+      <c r="I13" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" s="3" customFormat="1" spans="6:9">
+      <c r="F14" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="G14" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="H14" s="7" t="s">
+      <c r="H14" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="I14" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="4:9" s="3" customFormat="1">
-      <c r="F15" s="7" t="s">
+      <c r="I14" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" s="3" customFormat="1" spans="6:9">
+      <c r="F15" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="G15" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="H15" s="7" t="s">
+      <c r="H15" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="I15" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="4:9" s="3" customFormat="1">
-      <c r="F16" s="7" t="s">
+      <c r="I15" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" s="3" customFormat="1" spans="6:9">
+      <c r="F16" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="G16" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="H16" s="7" t="s">
+      <c r="H16" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="I16" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="4:9" s="3" customFormat="1">
-      <c r="F17" s="7" t="s">
+      <c r="I16" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" s="3" customFormat="1" spans="6:9">
+      <c r="F17" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="G17" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="H17" s="7" t="s">
+      <c r="H17" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="I17" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="4:9" s="3" customFormat="1">
-      <c r="F18" s="7" t="s">
+      <c r="I17" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" s="3" customFormat="1" spans="6:9">
+      <c r="F18" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="G18" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="H18" s="7" t="s">
+      <c r="H18" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="I18" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="4:9" s="3" customFormat="1">
-      <c r="F19" s="7" t="s">
+      <c r="I18" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" s="3" customFormat="1" spans="6:9">
+      <c r="F19" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="G19" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="H19" s="7" t="s">
+      <c r="H19" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="I19" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="4:9" s="3" customFormat="1">
-      <c r="F20" s="7" t="s">
+      <c r="I19" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" s="3" customFormat="1" spans="6:9">
+      <c r="F20" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="G20" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="H20" s="7" t="s">
+      <c r="H20" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="I20" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="4:9" s="3" customFormat="1">
-      <c r="F21" s="7" t="s">
+      <c r="I20" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" s="3" customFormat="1" spans="6:9">
+      <c r="F21" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="G21" s="7" t="s">
+      <c r="G21" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="H21" s="7" t="s">
+      <c r="H21" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="I21" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="4:9" s="3" customFormat="1">
-      <c r="F22" s="7" t="s">
+      <c r="I21" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" s="3" customFormat="1" spans="6:9">
+      <c r="F22" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="G22" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="H22" s="7" t="s">
+      <c r="H22" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="I22" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="4:9" s="3" customFormat="1">
-      <c r="F23" s="7" t="s">
+      <c r="I22" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" s="3" customFormat="1" spans="6:9">
+      <c r="F23" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="G23" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="H23" s="7" t="s">
+      <c r="H23" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="I23" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="4:9" s="3" customFormat="1">
-      <c r="F24" s="7" t="s">
+      <c r="I23" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" s="3" customFormat="1" spans="6:9">
+      <c r="F24" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="G24" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="H24" s="7" t="s">
+      <c r="H24" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="I24" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="4:9" s="3" customFormat="1">
-      <c r="F25" s="7" t="s">
+      <c r="I24" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" s="3" customFormat="1" spans="6:9">
+      <c r="F25" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="G25" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="H25" s="7" t="s">
+      <c r="H25" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="I25" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="4:9" s="3" customFormat="1">
-      <c r="F26" s="7" t="s">
+      <c r="I25" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" s="3" customFormat="1" spans="6:9">
+      <c r="F26" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="G26" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="H26" s="7" t="s">
+      <c r="H26" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="I26" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="4:9" s="3" customFormat="1">
-      <c r="F27" s="7" t="s">
+      <c r="I26" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" s="3" customFormat="1" spans="6:9">
+      <c r="F27" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="G27" s="7" t="s">
+      <c r="G27" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="H27" s="7" t="s">
+      <c r="H27" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="I27" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="4:9" s="3" customFormat="1">
-      <c r="F28" s="7" t="s">
+      <c r="I27" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" s="3" customFormat="1" spans="6:9">
+      <c r="F28" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="G28" s="7" t="s">
+      <c r="G28" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="H28" s="7" t="s">
+      <c r="H28" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="I28" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="4:9" s="3" customFormat="1">
-      <c r="F29" s="7" t="s">
+      <c r="I28" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" s="3" customFormat="1" spans="6:9">
+      <c r="F29" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="G29" s="7" t="s">
+      <c r="G29" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="H29" s="7" t="s">
+      <c r="H29" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="I29" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="4:9" s="3" customFormat="1">
-      <c r="F30" s="7" t="s">
+      <c r="I29" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" s="3" customFormat="1" spans="6:9">
+      <c r="F30" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="G30" s="7" t="s">
+      <c r="G30" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="H30" s="7" t="s">
+      <c r="H30" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="I30" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="4:9" s="3" customFormat="1">
-      <c r="F31" s="7" t="s">
+      <c r="I30" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" s="3" customFormat="1" spans="6:9">
+      <c r="F31" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="G31" s="7" t="s">
+      <c r="G31" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="H31" s="7" t="s">
+      <c r="H31" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="I31" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="4:9" s="3" customFormat="1" ht="12.85" customHeight="1">
-      <c r="D32" s="5"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="9" t="s">
+      <c r="I31" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" s="3" customFormat="1" ht="12.85" customHeight="1" spans="4:9">
+      <c r="D32" s="6"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="G32" s="7" t="s">
+      <c r="G32" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="H32" s="7" t="s">
+      <c r="H32" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="I32" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="4:9" s="3" customFormat="1" ht="12.85" customHeight="1">
-      <c r="D33" s="5"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="9" t="s">
+      <c r="I32" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" s="3" customFormat="1" ht="12.85" customHeight="1" spans="4:9">
+      <c r="D33" s="6"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="G33" s="7" t="s">
+      <c r="G33" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="H33" s="7" t="s">
+      <c r="H33" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="I33" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="4:9" s="3" customFormat="1" ht="12.85" customHeight="1">
-      <c r="D34" s="5"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="9" t="s">
+      <c r="I33" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" s="3" customFormat="1" ht="12.85" customHeight="1" spans="4:9">
+      <c r="D34" s="6"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="G34" s="7" t="s">
+      <c r="G34" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="H34" s="7" t="s">
+      <c r="H34" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="I34" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="4:9" s="3" customFormat="1" ht="12.85" customHeight="1">
-      <c r="D35" s="5"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="9" t="s">
+      <c r="I34" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" s="3" customFormat="1" ht="12.85" customHeight="1" spans="4:9">
+      <c r="D35" s="6"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="G35" s="7" t="s">
+      <c r="G35" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="H35" s="7" t="s">
+      <c r="H35" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="I35" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="4:9" s="3" customFormat="1">
-      <c r="F36" s="10" t="s">
+      <c r="I35" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" s="3" customFormat="1" spans="6:9">
+      <c r="F36" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="G36" s="10" t="s">
+      <c r="G36" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="H36" s="10" t="s">
+      <c r="H36" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="I36" s="10"/>
-    </row>
-    <row r="37" spans="4:9" s="58" customFormat="1">
-      <c r="F37" s="59" t="s">
+      <c r="I36" s="11"/>
+    </row>
+    <row r="37" s="4" customFormat="1" spans="6:9">
+      <c r="F37" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="G37" s="59" t="s">
+      <c r="G37" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="H37" s="59" t="s">
+      <c r="H37" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="I37" s="58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="4:9" s="58" customFormat="1">
-      <c r="F38" s="59" t="s">
+      <c r="I37" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" s="4" customFormat="1" spans="6:9">
+      <c r="F38" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="G38" s="59" t="s">
+      <c r="G38" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="H38" s="59" t="s">
+      <c r="H38" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="I38" s="58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="4:9">
-      <c r="F39" s="10" t="s">
+      <c r="I38" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="6:9">
+      <c r="F39" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="G39" s="10" t="s">
+      <c r="G39" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="H39" s="10" t="s">
+      <c r="H39" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="I39" s="11"/>
-    </row>
-    <row r="40" spans="4:9">
-      <c r="F40" s="10" t="s">
+      <c r="I39" s="13"/>
+    </row>
+    <row r="40" spans="6:9">
+      <c r="F40" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="G40" s="10" t="s">
+      <c r="G40" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="H40" s="10" t="s">
+      <c r="H40" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="I40" s="10"/>
-    </row>
-    <row r="41" spans="4:9" s="58" customFormat="1">
-      <c r="F41" s="59" t="s">
+      <c r="I40" s="11"/>
+    </row>
+    <row r="41" s="4" customFormat="1" spans="6:9">
+      <c r="F41" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="G41" s="59" t="s">
+      <c r="G41" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="H41" s="59" t="s">
+      <c r="H41" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="I41" s="58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="4:9" s="58" customFormat="1">
-      <c r="F42" s="59" t="s">
+      <c r="I41" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" s="4" customFormat="1" spans="6:9">
+      <c r="F42" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="G42" s="59" t="s">
+      <c r="G42" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="H42" s="59" t="s">
+      <c r="H42" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="I42" s="58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="4:9">
-      <c r="F43" s="10" t="s">
+      <c r="I42" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="6:9">
+      <c r="F43" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="G43" s="10" t="s">
+      <c r="G43" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="H43" s="10" t="s">
+      <c r="H43" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="I43" s="11"/>
-    </row>
-    <row r="44" spans="4:9">
-      <c r="F44" s="10" t="s">
+      <c r="I43" s="13"/>
+    </row>
+    <row r="44" spans="6:9">
+      <c r="F44" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="G44" s="10" t="s">
+      <c r="G44" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="H44" s="10" t="s">
+      <c r="H44" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="I44" s="10"/>
-    </row>
-    <row r="45" spans="4:9" s="58" customFormat="1">
-      <c r="F45" s="59" t="s">
+      <c r="I44" s="11"/>
+    </row>
+    <row r="45" s="4" customFormat="1" spans="6:9">
+      <c r="F45" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="G45" s="58" t="s">
+      <c r="G45" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="H45" s="59" t="s">
+      <c r="H45" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="I45" s="58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="4:9" s="58" customFormat="1">
-      <c r="F46" s="59" t="s">
+      <c r="I45" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" s="4" customFormat="1" spans="6:9">
+      <c r="F46" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="G46" s="58" t="s">
+      <c r="G46" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="H46" s="59" t="s">
+      <c r="H46" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="I46" s="58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="4:9">
-      <c r="F47" s="10" t="s">
+      <c r="I46" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="6:9">
+      <c r="F47" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="G47" s="11" t="s">
+      <c r="G47" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="H47" s="10" t="s">
+      <c r="H47" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="I47" s="11"/>
-    </row>
-    <row r="48" spans="4:9" ht="13">
-      <c r="F48" s="12" t="s">
+      <c r="I47" s="13"/>
+    </row>
+    <row r="48" ht="15.2" spans="6:9">
+      <c r="F48" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="G48" s="13" t="s">
+      <c r="G48" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="H48" s="13" t="s">
+      <c r="H48" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="I48" s="17"/>
-    </row>
-    <row r="49" spans="4:9" ht="12.35">
-      <c r="F49" s="12" t="s">
+      <c r="I48" s="19"/>
+    </row>
+    <row r="49" spans="6:9">
+      <c r="F49" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="G49" s="14" t="s">
+      <c r="G49" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="H49" s="13" t="s">
+      <c r="H49" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="I49" s="14"/>
-    </row>
-    <row r="50" spans="4:9" ht="13">
-      <c r="F50" s="12" t="s">
+      <c r="I49" s="16"/>
+    </row>
+    <row r="50" ht="15.2" spans="6:9">
+      <c r="F50" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="G50" s="13" t="s">
+      <c r="G50" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="H50" s="13" t="s">
+      <c r="H50" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="I50" s="17"/>
-    </row>
-    <row r="51" spans="4:9" ht="12.35">
-      <c r="F51" s="12" t="s">
+      <c r="I50" s="19"/>
+    </row>
+    <row r="51" spans="6:9">
+      <c r="F51" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="G51" s="14" t="s">
+      <c r="G51" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="H51" s="13" t="s">
+      <c r="H51" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="I51" s="14"/>
-    </row>
-    <row r="52" spans="4:9" ht="12.35">
-      <c r="D52" s="6"/>
-      <c r="F52" s="6"/>
-      <c r="G52" s="6"/>
-      <c r="H52" s="6"/>
-    </row>
-    <row r="53" spans="4:9" ht="12.35">
-      <c r="F53" s="6"/>
-      <c r="G53" s="6"/>
-      <c r="H53" s="6"/>
-    </row>
-    <row r="54" spans="4:9" ht="12.35">
-      <c r="F54" s="6"/>
-      <c r="G54" s="6"/>
-      <c r="H54" s="6"/>
-    </row>
-    <row r="55" spans="4:9" ht="12.35">
-      <c r="F55" s="6"/>
-      <c r="G55" s="6"/>
-      <c r="H55" s="6"/>
-    </row>
-    <row r="56" spans="4:9" ht="12.35">
-      <c r="F56" s="6"/>
-      <c r="G56" s="6"/>
-      <c r="H56" s="6"/>
-    </row>
-    <row r="57" spans="4:9" ht="12.35">
-      <c r="F57" s="6"/>
-      <c r="G57" s="6"/>
-      <c r="H57" s="6"/>
-    </row>
-    <row r="58" spans="4:9" ht="12.35">
-      <c r="F58" s="6"/>
-      <c r="G58" s="6"/>
-      <c r="H58" s="6"/>
-    </row>
-    <row r="59" spans="4:9" ht="12.35">
-      <c r="F59" s="6"/>
-      <c r="G59" s="6"/>
-      <c r="H59" s="6"/>
-    </row>
-    <row r="60" spans="4:9" ht="12.35">
-      <c r="F60" s="6"/>
-      <c r="G60" s="6"/>
-      <c r="H60" s="6"/>
-    </row>
-    <row r="61" spans="4:9" ht="12.35">
-      <c r="F61" s="6"/>
-      <c r="G61" s="6"/>
-      <c r="H61" s="6"/>
-    </row>
-    <row r="62" spans="4:9" ht="12.35">
-      <c r="F62" s="6"/>
-      <c r="G62" s="6"/>
-      <c r="H62" s="6"/>
-    </row>
-    <row r="63" spans="4:9" ht="12.35">
-      <c r="F63" s="6"/>
-      <c r="G63" s="6"/>
-      <c r="H63" s="6"/>
-    </row>
-    <row r="64" spans="4:9" ht="12.35">
-      <c r="F64" s="15"/>
-      <c r="G64" s="6"/>
-      <c r="H64" s="6"/>
-    </row>
-    <row r="65" spans="7:8" ht="12.35">
-      <c r="G65" s="6"/>
-      <c r="H65" s="6"/>
-    </row>
-    <row r="66" spans="7:8" ht="12.35">
-      <c r="G66" s="6"/>
-      <c r="H66" s="6"/>
-    </row>
-    <row r="67" spans="7:8" ht="12.35">
-      <c r="G67" s="6"/>
-      <c r="H67" s="6"/>
-    </row>
-    <row r="68" spans="7:8" ht="12.35">
-      <c r="G68" s="6"/>
-      <c r="H68" s="6"/>
-    </row>
-    <row r="69" spans="7:8" ht="12.35">
-      <c r="G69" s="6"/>
-      <c r="H69" s="6"/>
-    </row>
-    <row r="70" spans="7:8" ht="12.35">
-      <c r="G70" s="6"/>
-      <c r="H70" s="6"/>
-    </row>
-    <row r="71" spans="7:8" ht="12.35">
-      <c r="G71" s="6"/>
-      <c r="H71" s="6"/>
-    </row>
-    <row r="72" spans="7:8" ht="12.35">
-      <c r="G72" s="6"/>
-      <c r="H72" s="6"/>
-    </row>
-    <row r="73" spans="7:8" ht="12.35">
-      <c r="G73" s="6"/>
-      <c r="H73" s="6"/>
-    </row>
-    <row r="74" spans="7:8" ht="12.35">
-      <c r="G74" s="6"/>
-      <c r="H74" s="6"/>
-    </row>
-    <row r="75" spans="7:8" ht="12.35">
-      <c r="G75" s="6"/>
-      <c r="H75" s="6"/>
+      <c r="I51" s="16"/>
+    </row>
+    <row r="52" spans="4:8">
+      <c r="D52" s="7"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="7"/>
+    </row>
+    <row r="53" spans="6:8">
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="7"/>
+    </row>
+    <row r="54" spans="6:8">
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="7"/>
+    </row>
+    <row r="55" spans="6:8">
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="7"/>
+    </row>
+    <row r="56" spans="6:8">
+      <c r="F56" s="7"/>
+      <c r="G56" s="7"/>
+      <c r="H56" s="7"/>
+    </row>
+    <row r="57" spans="6:8">
+      <c r="F57" s="7"/>
+      <c r="G57" s="7"/>
+      <c r="H57" s="7"/>
+    </row>
+    <row r="58" spans="6:8">
+      <c r="F58" s="7"/>
+      <c r="G58" s="7"/>
+      <c r="H58" s="7"/>
+    </row>
+    <row r="59" spans="6:8">
+      <c r="F59" s="7"/>
+      <c r="G59" s="7"/>
+      <c r="H59" s="7"/>
+    </row>
+    <row r="60" spans="6:8">
+      <c r="F60" s="7"/>
+      <c r="G60" s="7"/>
+      <c r="H60" s="7"/>
+    </row>
+    <row r="61" spans="6:8">
+      <c r="F61" s="7"/>
+      <c r="G61" s="7"/>
+      <c r="H61" s="7"/>
+    </row>
+    <row r="62" spans="6:8">
+      <c r="F62" s="7"/>
+      <c r="G62" s="7"/>
+      <c r="H62" s="7"/>
+    </row>
+    <row r="63" spans="6:8">
+      <c r="F63" s="7"/>
+      <c r="G63" s="7"/>
+      <c r="H63" s="7"/>
+    </row>
+    <row r="64" spans="6:8">
+      <c r="F64" s="17"/>
+      <c r="G64" s="7"/>
+      <c r="H64" s="7"/>
+    </row>
+    <row r="65" spans="7:8">
+      <c r="G65" s="7"/>
+      <c r="H65" s="7"/>
+    </row>
+    <row r="66" spans="7:8">
+      <c r="G66" s="7"/>
+      <c r="H66" s="7"/>
+    </row>
+    <row r="67" spans="7:8">
+      <c r="G67" s="7"/>
+      <c r="H67" s="7"/>
+    </row>
+    <row r="68" spans="7:8">
+      <c r="G68" s="7"/>
+      <c r="H68" s="7"/>
+    </row>
+    <row r="69" spans="7:8">
+      <c r="G69" s="7"/>
+      <c r="H69" s="7"/>
+    </row>
+    <row r="70" spans="7:8">
+      <c r="G70" s="7"/>
+      <c r="H70" s="7"/>
+    </row>
+    <row r="71" spans="7:8">
+      <c r="G71" s="7"/>
+      <c r="H71" s="7"/>
+    </row>
+    <row r="72" spans="7:8">
+      <c r="G72" s="7"/>
+      <c r="H72" s="7"/>
+    </row>
+    <row r="73" spans="7:8">
+      <c r="G73" s="7"/>
+      <c r="H73" s="7"/>
+    </row>
+    <row r="74" spans="7:8">
+      <c r="G74" s="7"/>
+      <c r="H74" s="7"/>
+    </row>
+    <row r="75" spans="7:8">
+      <c r="G75" s="7"/>
+      <c r="H75" s="7"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="48" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51041666666666696" footer="0.51041666666666696"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.510416666666667" footer="0.510416666666667"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="D7:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F8" sqref="F8:K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="11.7"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14" outlineLevelRow="6"/>
   <cols>
     <col min="6" max="6" width="18.125" customWidth="1"/>
     <col min="7" max="7" width="15.875" customWidth="1"/>
@@ -5807,20 +6468,21 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="48" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="D7:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F8" sqref="F8:I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="11.7"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14" outlineLevelRow="6"/>
   <cols>
     <col min="4" max="4" width="21.375" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
@@ -5850,20 +6512,21 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="48" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="D7:L9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="11.7"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14"/>
   <cols>
     <col min="4" max="4" width="22.125" customWidth="1"/>
     <col min="6" max="6" width="18.875" customWidth="1"/>
@@ -5904,7 +6567,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="8" spans="4:12">
+    <row r="8" spans="6:11">
       <c r="F8" t="s">
         <v>186</v>
       </c>
@@ -5924,7 +6587,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="9" spans="4:12">
+    <row r="9" spans="6:12">
       <c r="F9" t="s">
         <v>191</v>
       </c>
@@ -5948,21 +6611,22 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="48" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D7:I13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="D7:I24"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="11.7"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14"/>
   <cols>
     <col min="4" max="4" width="21.5" customWidth="1"/>
     <col min="5" max="5" width="18.375" customWidth="1"/>
@@ -5971,7 +6635,7 @@
     <col min="9" max="10" width="18.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:9" ht="15.6">
+    <row r="7" spans="4:9">
       <c r="D7" s="2" t="s">
         <v>195</v>
       </c>
@@ -5991,7 +6655,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="8" spans="4:9" ht="15.6">
+    <row r="8" spans="4:9">
       <c r="D8" s="2"/>
       <c r="E8" s="1" t="s">
         <v>198</v>
@@ -6009,7 +6673,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="9" spans="4:9" ht="15.6">
+    <row r="9" spans="5:9">
       <c r="E9" s="1" t="s">
         <v>200</v>
       </c>
@@ -6026,7 +6690,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="10" spans="4:9" ht="15.6">
+    <row r="10" spans="5:9">
       <c r="E10" s="1" t="s">
         <v>202</v>
       </c>
@@ -6043,7 +6707,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="11" spans="4:9" ht="15.6">
+    <row r="11" spans="5:9">
       <c r="E11" s="1" t="s">
         <v>204</v>
       </c>
@@ -6060,7 +6724,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="12" spans="4:9" ht="15.6">
+    <row r="12" spans="5:9">
       <c r="E12" s="1" t="s">
         <v>206</v>
       </c>
@@ -6077,7 +6741,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="13" spans="4:9" ht="15.6">
+    <row r="13" spans="5:9">
       <c r="E13" s="1" t="s">
         <v>208</v>
       </c>
@@ -6094,8 +6758,105 @@
         <v>209</v>
       </c>
     </row>
+    <row r="14" spans="5:9">
+      <c r="E14" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="15" spans="5:9">
+      <c r="E15" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="16" spans="5:9">
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="5:9">
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="5:9">
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="5:9">
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+    </row>
+    <row r="20" spans="5:9">
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="5:9">
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="5:9">
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="5:9">
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="5:9">
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+    </row>
   </sheetData>
-  <phoneticPr fontId="48" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/src/main/resources/script/meta/micro-service-init-data.xlsx
+++ b/src/main/resources/script/meta/micro-service-init-data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12600" tabRatio="845" firstSheet="4" activeTab="9"/>
+    <workbookView windowWidth="28800" windowHeight="13200" tabRatio="845" firstSheet="4" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263">
   <si>
     <t>IAM_PERMISSION</t>
   </si>
@@ -548,6 +548,15 @@
     <t>#ROLE_CODE</t>
   </si>
   <si>
+    <t>role/project/default/project-owner</t>
+  </si>
+  <si>
+    <t>role/project/default/project-member</t>
+  </si>
+  <si>
+    <t>role/organization/default/administrator</t>
+  </si>
+  <si>
     <t>FD_CATEGORY_MENU</t>
   </si>
   <si>
@@ -801,6 +810,12 @@
   </si>
   <si>
     <t>移除过期成员</t>
+  </si>
+  <si>
+    <t>SYNC_MEMBER</t>
+  </si>
+  <si>
+    <t>同步成员</t>
   </si>
   <si>
     <t>MEMBER_JOIN</t>
@@ -838,12 +853,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="68">
+  <fonts count="73">
     <font>
       <sz val="10"/>
       <name val="Droid Sans Fallback"/>
@@ -928,6 +943,35 @@
       <color theme="4" tint="-0.249977111117893"/>
       <name val="DejaVu Sans"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Droid Sans Fallback"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="9" tint="0.399975585192419"/>
+      <name val="Droid Sans Fallback"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="8" tint="-0.249977111117893"/>
+      <name val="Droid Sans Fallback"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="4" tint="0.399975585192419"/>
+      <name val="Droid Sans Fallback"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="7" tint="-0.249977111117893"/>
+      <name val="Droid Sans Fallback"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -958,13 +1002,13 @@
     <font>
       <b/>
       <sz val="10"/>
-      <color theme="5" tint="0.399945066682943"/>
+      <color theme="5" tint="0.399914548173467"/>
       <name val="Droid Sans Fallback"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
-      <color theme="5" tint="0.399945066682943"/>
+      <color theme="5" tint="0.399914548173467"/>
       <name val="Droid Sans Fallback"/>
       <charset val="134"/>
     </font>
@@ -1140,24 +1184,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1169,8 +1215,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1184,17 +1238,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1206,21 +1253,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -1245,6 +1277,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -1260,19 +1313,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1293,7 +1337,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1305,7 +1433,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1317,37 +1493,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1359,103 +1505,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1467,13 +1517,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1511,6 +1555,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1526,15 +1588,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1546,15 +1599,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1602,152 +1646,152 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="51" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="68" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="60" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="68" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="71" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="60" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="60" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="56" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="68" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="56" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="68" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="68" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="68" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="68" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="68" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="58" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="68" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="67" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="60" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="70" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="60" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="66" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="72" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="65" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="60" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="56" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="60" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="56" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="3" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="57" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="49" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="56" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="55" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="60" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="68" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1773,45 +1817,51 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2133,8 +2183,8 @@
   <sheetPr/>
   <dimension ref="D7:Q57"/>
   <sheetViews>
-    <sheetView zoomScale="95" zoomScaleNormal="95" topLeftCell="G3" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView zoomScale="95" zoomScaleNormal="95" topLeftCell="E3" workbookViewId="0">
+      <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2195,7 +2245,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" s="33" customFormat="1" ht="14.4" spans="6:17">
+    <row r="8" s="39" customFormat="1" ht="14.4" spans="6:17">
       <c r="F8" s="8" t="s">
         <v>12</v>
       </c>
@@ -2208,7 +2258,7 @@
       <c r="I8" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="J8" s="29" t="s">
+      <c r="J8" s="35" t="s">
         <v>16</v>
       </c>
       <c r="K8" s="8" t="s">
@@ -2229,7 +2279,7 @@
       <c r="P8" s="8"/>
       <c r="Q8" s="8"/>
     </row>
-    <row r="9" s="33" customFormat="1" ht="14.4" spans="6:17">
+    <row r="9" s="39" customFormat="1" ht="14.4" spans="6:17">
       <c r="F9" s="8" t="s">
         <v>18</v>
       </c>
@@ -2242,7 +2292,7 @@
       <c r="I9" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="J9" s="29" t="s">
+      <c r="J9" s="35" t="s">
         <v>20</v>
       </c>
       <c r="K9" s="8" t="s">
@@ -2263,7 +2313,7 @@
       <c r="P9" s="8"/>
       <c r="Q9" s="8"/>
     </row>
-    <row r="10" s="33" customFormat="1" ht="14.4" spans="6:17">
+    <row r="10" s="39" customFormat="1" ht="14.4" spans="6:17">
       <c r="F10" s="8" t="s">
         <v>21</v>
       </c>
@@ -2276,7 +2326,7 @@
       <c r="I10" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="J10" s="29" t="s">
+      <c r="J10" s="35" t="s">
         <v>23</v>
       </c>
       <c r="K10" s="8" t="s">
@@ -2297,7 +2347,7 @@
       <c r="P10" s="8"/>
       <c r="Q10" s="8"/>
     </row>
-    <row r="11" s="33" customFormat="1" ht="14.4" spans="6:17">
+    <row r="11" s="39" customFormat="1" ht="14.4" spans="6:17">
       <c r="F11" s="8" t="s">
         <v>24</v>
       </c>
@@ -2310,7 +2360,7 @@
       <c r="I11" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="J11" s="29" t="s">
+      <c r="J11" s="35" t="s">
         <v>27</v>
       </c>
       <c r="K11" s="8" t="s">
@@ -2331,7 +2381,7 @@
       <c r="P11" s="8"/>
       <c r="Q11" s="8"/>
     </row>
-    <row r="12" s="33" customFormat="1" ht="14.4" spans="6:17">
+    <row r="12" s="39" customFormat="1" ht="14.4" spans="6:17">
       <c r="F12" s="8" t="s">
         <v>28</v>
       </c>
@@ -2344,7 +2394,7 @@
       <c r="I12" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="J12" s="29" t="s">
+      <c r="J12" s="35" t="s">
         <v>30</v>
       </c>
       <c r="K12" s="8" t="s">
@@ -2365,7 +2415,7 @@
       <c r="P12" s="8"/>
       <c r="Q12" s="8"/>
     </row>
-    <row r="13" s="33" customFormat="1" spans="6:17">
+    <row r="13" s="39" customFormat="1" spans="6:17">
       <c r="F13" s="8" t="s">
         <v>31</v>
       </c>
@@ -2399,7 +2449,7 @@
       <c r="P13" s="8"/>
       <c r="Q13" s="8"/>
     </row>
-    <row r="14" s="33" customFormat="1" ht="14.4" spans="6:17">
+    <row r="14" s="39" customFormat="1" ht="14.4" spans="6:17">
       <c r="F14" s="8" t="s">
         <v>34</v>
       </c>
@@ -2412,7 +2462,7 @@
       <c r="I14" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="J14" s="29" t="s">
+      <c r="J14" s="35" t="s">
         <v>36</v>
       </c>
       <c r="K14" s="8" t="s">
@@ -2433,7 +2483,7 @@
       <c r="P14" s="8"/>
       <c r="Q14" s="8"/>
     </row>
-    <row r="15" s="33" customFormat="1" ht="14.4" spans="6:17">
+    <row r="15" s="39" customFormat="1" ht="14.4" spans="6:17">
       <c r="F15" s="8" t="s">
         <v>37</v>
       </c>
@@ -2446,7 +2496,7 @@
       <c r="I15" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="J15" s="29" t="s">
+      <c r="J15" s="35" t="s">
         <v>39</v>
       </c>
       <c r="K15" s="8" t="s">
@@ -2467,32 +2517,32 @@
       <c r="P15" s="8"/>
       <c r="Q15" s="8"/>
     </row>
-    <row r="16" s="25" customFormat="1" spans="6:17">
-      <c r="F16" s="52" t="s">
+    <row r="16" s="31" customFormat="1" spans="6:17">
+      <c r="F16" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="G16" s="53" t="s">
+      <c r="G16" s="59" t="s">
         <v>41</v>
       </c>
-      <c r="H16" s="53" t="s">
+      <c r="H16" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="I16" s="53" t="s">
+      <c r="I16" s="59" t="s">
         <v>42</v>
       </c>
-      <c r="J16" s="46" t="s">
+      <c r="J16" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="K16" s="53" t="s">
+      <c r="K16" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="L16" s="52">
+      <c r="L16" s="58">
         <v>0</v>
       </c>
-      <c r="M16" s="52">
+      <c r="M16" s="58">
         <v>0</v>
       </c>
-      <c r="N16" s="52">
+      <c r="N16" s="58">
         <v>0</v>
       </c>
       <c r="O16" s="8">
@@ -2501,70 +2551,70 @@
       <c r="P16" s="8"/>
       <c r="Q16" s="8"/>
     </row>
-    <row r="17" s="25" customFormat="1" spans="6:17">
-      <c r="F17" s="52" t="s">
+    <row r="17" s="31" customFormat="1" spans="6:17">
+      <c r="F17" s="58" t="s">
         <v>43</v>
       </c>
-      <c r="G17" s="53" t="s">
+      <c r="G17" s="59" t="s">
         <v>44</v>
       </c>
-      <c r="H17" s="53" t="s">
+      <c r="H17" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="I17" s="53" t="s">
+      <c r="I17" s="59" t="s">
         <v>42</v>
       </c>
-      <c r="J17" s="46" t="s">
+      <c r="J17" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="K17" s="53" t="s">
+      <c r="K17" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="L17" s="52">
+      <c r="L17" s="58">
         <v>0</v>
       </c>
-      <c r="M17" s="52">
+      <c r="M17" s="58">
         <v>0</v>
       </c>
-      <c r="N17" s="52">
+      <c r="N17" s="58">
         <v>0</v>
       </c>
       <c r="O17" s="8">
         <v>1</v>
       </c>
-      <c r="P17" s="30"/>
+      <c r="P17" s="36"/>
       <c r="Q17" s="8"/>
     </row>
     <row r="18" ht="14.4" spans="4:17">
       <c r="D18" s="17"/>
-      <c r="F18" s="33" t="s">
+      <c r="F18" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="G18" s="33" t="s">
+      <c r="G18" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="H18" s="33" t="s">
+      <c r="H18" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="I18" s="33" t="s">
+      <c r="I18" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="J18" s="56" t="s">
+      <c r="J18" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="K18" s="33" t="s">
+      <c r="K18" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="L18" s="33">
+      <c r="L18" s="39">
         <v>0</v>
       </c>
-      <c r="M18" s="33">
+      <c r="M18" s="39">
         <v>0</v>
       </c>
-      <c r="N18" s="33">
+      <c r="N18" s="39">
         <v>0</v>
       </c>
-      <c r="O18" s="33"/>
+      <c r="O18" s="39"/>
       <c r="P18" s="8"/>
       <c r="Q18" s="8"/>
     </row>
@@ -2581,7 +2631,7 @@
       <c r="I19" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="J19" s="37" t="s">
+      <c r="J19" s="43" t="s">
         <v>47</v>
       </c>
       <c r="K19" s="12" t="s">
@@ -2615,7 +2665,7 @@
       <c r="I20" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="J20" s="37" t="s">
+      <c r="J20" s="43" t="s">
         <v>49</v>
       </c>
       <c r="K20" s="12" t="s">
@@ -2637,42 +2687,42 @@
       <c r="Q20" s="12"/>
     </row>
     <row r="21" s="3" customFormat="1" ht="14.4" spans="6:17">
-      <c r="F21" s="54" t="s">
+      <c r="F21" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="G21" s="54" t="s">
+      <c r="G21" s="60" t="s">
         <v>51</v>
       </c>
-      <c r="H21" s="35" t="s">
+      <c r="H21" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="I21" s="35" t="s">
+      <c r="I21" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="J21" s="57" t="s">
+      <c r="J21" s="63" t="s">
         <v>52</v>
       </c>
-      <c r="K21" s="54" t="s">
+      <c r="K21" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="L21" s="54">
+      <c r="L21" s="60">
         <v>0</v>
       </c>
-      <c r="M21" s="54">
+      <c r="M21" s="60">
         <v>0</v>
       </c>
-      <c r="N21" s="54">
+      <c r="N21" s="60">
         <v>0</v>
       </c>
-      <c r="O21" s="28"/>
+      <c r="O21" s="34"/>
       <c r="P21" s="8"/>
       <c r="Q21" s="8"/>
     </row>
     <row r="22" s="12" customFormat="1" ht="14.4" spans="6:15">
-      <c r="F22" s="55" t="s">
+      <c r="F22" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="G22" s="55" t="s">
+      <c r="G22" s="61" t="s">
         <v>54</v>
       </c>
       <c r="H22" s="12" t="s">
@@ -2681,19 +2731,19 @@
       <c r="I22" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="J22" s="58" t="s">
+      <c r="J22" s="64" t="s">
         <v>55</v>
       </c>
-      <c r="K22" s="55" t="s">
+      <c r="K22" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="L22" s="55">
+      <c r="L22" s="61">
         <v>0</v>
       </c>
-      <c r="M22" s="55">
+      <c r="M22" s="61">
         <v>0</v>
       </c>
-      <c r="N22" s="55">
+      <c r="N22" s="61">
         <v>0</v>
       </c>
       <c r="O22" s="4">
@@ -2701,10 +2751,10 @@
       </c>
     </row>
     <row r="23" s="12" customFormat="1" ht="14.4" spans="6:16">
-      <c r="F23" s="55" t="s">
+      <c r="F23" s="61" t="s">
         <v>56</v>
       </c>
-      <c r="G23" s="55" t="s">
+      <c r="G23" s="61" t="s">
         <v>57</v>
       </c>
       <c r="H23" s="12" t="s">
@@ -2713,56 +2763,56 @@
       <c r="I23" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="J23" s="58" t="s">
+      <c r="J23" s="64" t="s">
         <v>58</v>
       </c>
-      <c r="K23" s="55" t="s">
+      <c r="K23" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="L23" s="55">
+      <c r="L23" s="61">
         <v>0</v>
       </c>
-      <c r="M23" s="55">
+      <c r="M23" s="61">
         <v>0</v>
       </c>
-      <c r="N23" s="55">
+      <c r="N23" s="61">
         <v>0</v>
       </c>
       <c r="O23" s="4">
         <v>1</v>
       </c>
-      <c r="P23" s="27"/>
+      <c r="P23" s="33"/>
     </row>
     <row r="24" s="3" customFormat="1" ht="14.4" spans="6:17">
-      <c r="F24" s="54" t="s">
+      <c r="F24" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="G24" s="54" t="s">
+      <c r="G24" s="60" t="s">
         <v>60</v>
       </c>
-      <c r="H24" s="35" t="s">
+      <c r="H24" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="I24" s="35" t="s">
+      <c r="I24" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="J24" s="57" t="s">
+      <c r="J24" s="63" t="s">
         <v>61</v>
       </c>
-      <c r="K24" s="54" t="s">
+      <c r="K24" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="L24" s="54">
+      <c r="L24" s="60">
         <v>0</v>
       </c>
-      <c r="M24" s="54">
+      <c r="M24" s="60">
         <v>0</v>
       </c>
-      <c r="N24" s="54">
+      <c r="N24" s="60">
         <v>0</v>
       </c>
-      <c r="O24" s="28"/>
-      <c r="P24" s="46"/>
+      <c r="O24" s="34"/>
+      <c r="P24" s="52"/>
       <c r="Q24" s="8"/>
     </row>
     <row r="25" s="3" customFormat="1" ht="14.4" spans="6:17">
@@ -2772,13 +2822,13 @@
       <c r="G25" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="H25" s="33" t="s">
+      <c r="H25" s="39" t="s">
         <v>14</v>
       </c>
       <c r="I25" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="J25" s="59" t="s">
+      <c r="J25" s="65" t="s">
         <v>64</v>
       </c>
       <c r="K25" s="7" t="s">
@@ -2794,7 +2844,7 @@
         <v>0</v>
       </c>
       <c r="O25"/>
-      <c r="P25" s="30"/>
+      <c r="P25" s="36"/>
       <c r="Q25" s="8"/>
     </row>
     <row r="26" ht="14.4" spans="4:17">
@@ -2805,13 +2855,13 @@
       <c r="G26" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="H26" s="33" t="s">
+      <c r="H26" s="39" t="s">
         <v>14</v>
       </c>
       <c r="I26" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="J26" s="59" t="s">
+      <c r="J26" s="65" t="s">
         <v>67</v>
       </c>
       <c r="K26" s="7" t="s">
@@ -2826,162 +2876,162 @@
       <c r="N26" s="7">
         <v>0</v>
       </c>
-      <c r="P26" s="46"/>
+      <c r="P26" s="52"/>
       <c r="Q26" s="8"/>
     </row>
     <row r="27" spans="6:17">
-      <c r="F27" s="33"/>
-      <c r="G27" s="33"/>
-      <c r="H27" s="33"/>
-      <c r="I27" s="33"/>
-      <c r="J27" s="33"/>
-      <c r="K27" s="33"/>
-      <c r="L27" s="33"/>
-      <c r="M27" s="33"/>
-      <c r="N27" s="33"/>
-      <c r="O27" s="33"/>
-      <c r="P27" s="33"/>
-      <c r="Q27" s="33"/>
+      <c r="F27" s="39"/>
+      <c r="G27" s="39"/>
+      <c r="H27" s="39"/>
+      <c r="I27" s="39"/>
+      <c r="J27" s="39"/>
+      <c r="K27" s="39"/>
+      <c r="L27" s="39"/>
+      <c r="M27" s="39"/>
+      <c r="N27" s="39"/>
+      <c r="O27" s="39"/>
+      <c r="P27" s="39"/>
+      <c r="Q27" s="39"/>
     </row>
     <row r="28" spans="6:17">
-      <c r="F28" s="33"/>
-      <c r="G28" s="33"/>
-      <c r="H28" s="33"/>
-      <c r="I28" s="33"/>
-      <c r="J28" s="33"/>
-      <c r="K28" s="33"/>
-      <c r="L28" s="33"/>
-      <c r="M28" s="33"/>
-      <c r="N28" s="33"/>
-      <c r="O28" s="33"/>
-      <c r="P28" s="33"/>
-      <c r="Q28" s="33"/>
+      <c r="F28" s="39"/>
+      <c r="G28" s="39"/>
+      <c r="H28" s="39"/>
+      <c r="I28" s="39"/>
+      <c r="J28" s="39"/>
+      <c r="K28" s="39"/>
+      <c r="L28" s="39"/>
+      <c r="M28" s="39"/>
+      <c r="N28" s="39"/>
+      <c r="O28" s="39"/>
+      <c r="P28" s="39"/>
+      <c r="Q28" s="39"/>
     </row>
     <row r="29" spans="6:17">
-      <c r="F29" s="33"/>
-      <c r="G29" s="33"/>
-      <c r="H29" s="33"/>
-      <c r="I29" s="33"/>
-      <c r="J29" s="33"/>
-      <c r="K29" s="33"/>
-      <c r="L29" s="33"/>
-      <c r="M29" s="33"/>
-      <c r="N29" s="33"/>
-      <c r="O29" s="33"/>
-      <c r="P29" s="33"/>
-      <c r="Q29" s="33"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="39"/>
+      <c r="I29" s="39"/>
+      <c r="J29" s="39"/>
+      <c r="K29" s="39"/>
+      <c r="L29" s="39"/>
+      <c r="M29" s="39"/>
+      <c r="N29" s="39"/>
+      <c r="O29" s="39"/>
+      <c r="P29" s="39"/>
+      <c r="Q29" s="39"/>
     </row>
     <row r="30" spans="6:17">
-      <c r="F30" s="34"/>
-      <c r="G30" s="34"/>
-      <c r="H30" s="34"/>
-      <c r="I30" s="34"/>
-      <c r="J30" s="34"/>
-      <c r="K30" s="34"/>
-      <c r="L30" s="34"/>
-      <c r="M30" s="34"/>
-      <c r="N30" s="34"/>
-      <c r="O30" s="34"/>
-      <c r="P30" s="34"/>
-      <c r="Q30" s="34"/>
+      <c r="F30" s="40"/>
+      <c r="G30" s="40"/>
+      <c r="H30" s="40"/>
+      <c r="I30" s="40"/>
+      <c r="J30" s="40"/>
+      <c r="K30" s="40"/>
+      <c r="L30" s="40"/>
+      <c r="M30" s="40"/>
+      <c r="N30" s="40"/>
+      <c r="O30" s="40"/>
+      <c r="P30" s="40"/>
+      <c r="Q30" s="40"/>
     </row>
     <row r="31" ht="14.4" spans="6:17">
-      <c r="F31" s="35"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="35"/>
-      <c r="I31" s="35"/>
-      <c r="J31" s="35"/>
-      <c r="K31" s="35"/>
-      <c r="L31" s="35"/>
-      <c r="M31" s="35"/>
-      <c r="N31" s="35"/>
-      <c r="O31" s="35"/>
-      <c r="P31" s="35"/>
-      <c r="Q31" s="35"/>
+      <c r="F31" s="41"/>
+      <c r="G31" s="42"/>
+      <c r="H31" s="41"/>
+      <c r="I31" s="41"/>
+      <c r="J31" s="41"/>
+      <c r="K31" s="41"/>
+      <c r="L31" s="41"/>
+      <c r="M31" s="41"/>
+      <c r="N31" s="41"/>
+      <c r="O31" s="41"/>
+      <c r="P31" s="41"/>
+      <c r="Q31" s="41"/>
     </row>
     <row r="32" ht="14.4" spans="6:17">
-      <c r="F32" s="35"/>
-      <c r="G32" s="36"/>
-      <c r="H32" s="35"/>
-      <c r="I32" s="35"/>
-      <c r="J32" s="35"/>
-      <c r="K32" s="35"/>
-      <c r="L32" s="35"/>
-      <c r="M32" s="35"/>
-      <c r="N32" s="35"/>
-      <c r="O32" s="35"/>
-      <c r="P32" s="35"/>
-      <c r="Q32" s="35"/>
+      <c r="F32" s="41"/>
+      <c r="G32" s="42"/>
+      <c r="H32" s="41"/>
+      <c r="I32" s="41"/>
+      <c r="J32" s="41"/>
+      <c r="K32" s="41"/>
+      <c r="L32" s="41"/>
+      <c r="M32" s="41"/>
+      <c r="N32" s="41"/>
+      <c r="O32" s="41"/>
+      <c r="P32" s="41"/>
+      <c r="Q32" s="41"/>
     </row>
     <row r="33" ht="14.4" spans="6:17">
-      <c r="F33" s="35"/>
-      <c r="G33" s="36"/>
-      <c r="H33" s="35"/>
-      <c r="I33" s="35"/>
-      <c r="J33" s="35"/>
-      <c r="K33" s="35"/>
-      <c r="L33" s="35"/>
-      <c r="M33" s="35"/>
-      <c r="N33" s="35"/>
-      <c r="O33" s="35"/>
-      <c r="P33" s="35"/>
-      <c r="Q33" s="35"/>
+      <c r="F33" s="41"/>
+      <c r="G33" s="42"/>
+      <c r="H33" s="41"/>
+      <c r="I33" s="41"/>
+      <c r="J33" s="41"/>
+      <c r="K33" s="41"/>
+      <c r="L33" s="41"/>
+      <c r="M33" s="41"/>
+      <c r="N33" s="41"/>
+      <c r="O33" s="41"/>
+      <c r="P33" s="41"/>
+      <c r="Q33" s="41"/>
     </row>
     <row r="34" ht="14.4" spans="6:17">
-      <c r="F34" s="35"/>
-      <c r="G34" s="36"/>
-      <c r="H34" s="35"/>
-      <c r="I34" s="35"/>
-      <c r="J34" s="35"/>
-      <c r="K34" s="35"/>
-      <c r="L34" s="35"/>
-      <c r="M34" s="35"/>
-      <c r="N34" s="35"/>
-      <c r="O34" s="35"/>
-      <c r="P34" s="35"/>
-      <c r="Q34" s="35"/>
+      <c r="F34" s="41"/>
+      <c r="G34" s="42"/>
+      <c r="H34" s="41"/>
+      <c r="I34" s="41"/>
+      <c r="J34" s="41"/>
+      <c r="K34" s="41"/>
+      <c r="L34" s="41"/>
+      <c r="M34" s="41"/>
+      <c r="N34" s="41"/>
+      <c r="O34" s="41"/>
+      <c r="P34" s="41"/>
+      <c r="Q34" s="41"/>
     </row>
     <row r="35" spans="6:17">
-      <c r="F35" s="38"/>
-      <c r="G35" s="38"/>
-      <c r="H35" s="38"/>
-      <c r="I35" s="38"/>
-      <c r="J35" s="38"/>
-      <c r="K35" s="38"/>
-      <c r="L35" s="38"/>
-      <c r="M35" s="38"/>
-      <c r="N35" s="38"/>
-      <c r="O35" s="38"/>
-      <c r="P35" s="38"/>
-      <c r="Q35" s="38"/>
+      <c r="F35" s="44"/>
+      <c r="G35" s="44"/>
+      <c r="H35" s="44"/>
+      <c r="I35" s="44"/>
+      <c r="J35" s="44"/>
+      <c r="K35" s="44"/>
+      <c r="L35" s="44"/>
+      <c r="M35" s="44"/>
+      <c r="N35" s="44"/>
+      <c r="O35" s="44"/>
+      <c r="P35" s="44"/>
+      <c r="Q35" s="44"/>
     </row>
     <row r="36" ht="14.4" spans="6:17">
-      <c r="F36" s="39"/>
-      <c r="G36" s="40"/>
-      <c r="H36" s="39"/>
-      <c r="I36" s="39"/>
-      <c r="J36" s="39"/>
-      <c r="K36" s="39"/>
-      <c r="L36" s="39"/>
-      <c r="M36" s="39"/>
-      <c r="N36" s="39"/>
-      <c r="O36" s="39"/>
-      <c r="P36" s="39"/>
-      <c r="Q36" s="39"/>
+      <c r="F36" s="45"/>
+      <c r="G36" s="46"/>
+      <c r="H36" s="45"/>
+      <c r="I36" s="45"/>
+      <c r="J36" s="45"/>
+      <c r="K36" s="45"/>
+      <c r="L36" s="45"/>
+      <c r="M36" s="45"/>
+      <c r="N36" s="45"/>
+      <c r="O36" s="45"/>
+      <c r="P36" s="45"/>
+      <c r="Q36" s="45"/>
     </row>
     <row r="37" ht="14.4" spans="6:17">
-      <c r="F37" s="39"/>
-      <c r="G37" s="40"/>
-      <c r="H37" s="39"/>
-      <c r="I37" s="39"/>
-      <c r="J37" s="39"/>
-      <c r="K37" s="39"/>
-      <c r="L37" s="39"/>
-      <c r="M37" s="39"/>
-      <c r="N37" s="39"/>
-      <c r="O37" s="39"/>
-      <c r="P37" s="39"/>
-      <c r="Q37" s="39"/>
+      <c r="F37" s="45"/>
+      <c r="G37" s="46"/>
+      <c r="H37" s="45"/>
+      <c r="I37" s="45"/>
+      <c r="J37" s="45"/>
+      <c r="K37" s="45"/>
+      <c r="L37" s="45"/>
+      <c r="M37" s="45"/>
+      <c r="N37" s="45"/>
+      <c r="O37" s="45"/>
+      <c r="P37" s="45"/>
+      <c r="Q37" s="45"/>
     </row>
     <row r="38" spans="6:14">
       <c r="F38" s="7"/>
@@ -3109,7 +3159,7 @@
       <c r="G49" s="7"/>
       <c r="H49" s="7"/>
       <c r="I49" s="7"/>
-      <c r="J49" s="59"/>
+      <c r="J49" s="65"/>
       <c r="K49" s="7"/>
       <c r="L49" s="7"/>
       <c r="M49" s="7"/>
@@ -3158,49 +3208,49 @@
       <c r="L53" s="7"/>
       <c r="M53" s="7"/>
     </row>
-    <row r="54" s="28" customFormat="1" ht="14.4" spans="6:14">
-      <c r="F54" s="54"/>
-      <c r="G54" s="54"/>
-      <c r="H54" s="54"/>
-      <c r="I54" s="54"/>
-      <c r="J54" s="57"/>
-      <c r="K54" s="54"/>
-      <c r="L54" s="54"/>
-      <c r="M54" s="54"/>
-      <c r="N54" s="54"/>
-    </row>
-    <row r="55" s="28" customFormat="1" ht="14.4" spans="6:14">
-      <c r="F55" s="54"/>
-      <c r="G55" s="54"/>
-      <c r="H55" s="54"/>
-      <c r="I55" s="54"/>
-      <c r="J55" s="57"/>
-      <c r="K55" s="54"/>
-      <c r="L55" s="54"/>
-      <c r="M55" s="54"/>
-      <c r="N55" s="54"/>
-    </row>
-    <row r="56" s="28" customFormat="1" ht="14.4" spans="6:14">
-      <c r="F56" s="54"/>
-      <c r="G56" s="54"/>
-      <c r="H56" s="54"/>
-      <c r="I56" s="54"/>
-      <c r="J56" s="57"/>
-      <c r="K56" s="54"/>
-      <c r="L56" s="54"/>
-      <c r="M56" s="54"/>
-      <c r="N56" s="54"/>
-    </row>
-    <row r="57" s="28" customFormat="1" ht="14.4" spans="6:14">
-      <c r="F57" s="54"/>
-      <c r="G57" s="54"/>
-      <c r="H57" s="54"/>
-      <c r="I57" s="54"/>
-      <c r="J57" s="57"/>
-      <c r="K57" s="54"/>
-      <c r="L57" s="54"/>
-      <c r="M57" s="54"/>
-      <c r="N57" s="54"/>
+    <row r="54" s="34" customFormat="1" ht="14.4" spans="6:14">
+      <c r="F54" s="60"/>
+      <c r="G54" s="60"/>
+      <c r="H54" s="60"/>
+      <c r="I54" s="60"/>
+      <c r="J54" s="63"/>
+      <c r="K54" s="60"/>
+      <c r="L54" s="60"/>
+      <c r="M54" s="60"/>
+      <c r="N54" s="60"/>
+    </row>
+    <row r="55" s="34" customFormat="1" ht="14.4" spans="6:14">
+      <c r="F55" s="60"/>
+      <c r="G55" s="60"/>
+      <c r="H55" s="60"/>
+      <c r="I55" s="60"/>
+      <c r="J55" s="63"/>
+      <c r="K55" s="60"/>
+      <c r="L55" s="60"/>
+      <c r="M55" s="60"/>
+      <c r="N55" s="60"/>
+    </row>
+    <row r="56" s="34" customFormat="1" ht="14.4" spans="6:14">
+      <c r="F56" s="60"/>
+      <c r="G56" s="60"/>
+      <c r="H56" s="60"/>
+      <c r="I56" s="60"/>
+      <c r="J56" s="63"/>
+      <c r="K56" s="60"/>
+      <c r="L56" s="60"/>
+      <c r="M56" s="60"/>
+      <c r="N56" s="60"/>
+    </row>
+    <row r="57" s="34" customFormat="1" ht="14.4" spans="6:14">
+      <c r="F57" s="60"/>
+      <c r="G57" s="60"/>
+      <c r="H57" s="60"/>
+      <c r="I57" s="60"/>
+      <c r="J57" s="63"/>
+      <c r="K57" s="60"/>
+      <c r="L57" s="60"/>
+      <c r="M57" s="60"/>
+      <c r="N57" s="60"/>
     </row>
   </sheetData>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -3215,10 +3265,10 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="D7:J36"/>
+  <dimension ref="D7:J37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView tabSelected="1" topLeftCell="G3" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14"/>
@@ -3236,7 +3286,7 @@
   <sheetData>
     <row r="7" spans="4:10">
       <c r="D7" s="1" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>1</v>
@@ -3245,541 +3295,553 @@
         <v>2</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8" spans="4:10">
       <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
     </row>
     <row r="9" spans="4:10">
       <c r="D9" s="1"/>
       <c r="E9" s="1" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
     </row>
     <row r="10" spans="4:10">
       <c r="D10" s="1"/>
       <c r="E10" s="1" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="11" spans="4:10">
       <c r="D11" s="1"/>
       <c r="E11" s="1" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
     </row>
     <row r="12" spans="4:10">
       <c r="D12" s="1"/>
       <c r="E12" s="1" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
     </row>
     <row r="13" spans="4:10">
       <c r="D13" s="1"/>
       <c r="E13" s="1" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
     </row>
     <row r="14" spans="4:10">
       <c r="D14" s="1"/>
       <c r="E14" s="1" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
     </row>
     <row r="15" spans="4:10">
       <c r="D15" s="1"/>
       <c r="E15" s="1" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
     </row>
     <row r="16" spans="4:10">
       <c r="D16" s="1"/>
       <c r="E16" s="1" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="17" spans="4:10">
       <c r="D17" s="1"/>
       <c r="E17" s="1" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
     </row>
     <row r="18" spans="4:10">
       <c r="D18" s="1"/>
       <c r="E18" s="1" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
     </row>
     <row r="19" spans="4:10">
       <c r="D19" s="1"/>
       <c r="E19" s="1" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="20" spans="4:10">
       <c r="D20" s="1"/>
       <c r="E20" s="1" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
     </row>
     <row r="21" spans="4:10">
       <c r="D21" s="1"/>
       <c r="E21" s="1" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
     </row>
     <row r="22" spans="4:10">
       <c r="D22" s="1"/>
       <c r="E22" s="1" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="23" spans="4:10">
       <c r="D23" s="1"/>
       <c r="E23" s="1" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="24" spans="5:10">
       <c r="E24" s="1" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
     </row>
     <row r="25" spans="5:10">
       <c r="E25" s="1" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
     </row>
     <row r="26" spans="5:10">
       <c r="E26" s="1" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
     </row>
     <row r="27" spans="5:10">
       <c r="E27" s="1" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
     </row>
     <row r="28" spans="5:10">
       <c r="E28" s="1" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="29" spans="5:10">
       <c r="E29" s="1" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
     </row>
     <row r="30" spans="5:10">
       <c r="E30" s="1" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
     </row>
     <row r="31" spans="5:10">
       <c r="E31" s="1" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="32" spans="5:10">
       <c r="E32" s="1" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
     </row>
     <row r="33" spans="5:10">
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
+      <c r="E33" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="34" spans="5:10">
       <c r="E34" s="1"/>
@@ -3804,6 +3866,14 @@
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
+    </row>
+    <row r="37" spans="5:10">
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3818,7 +3888,7 @@
   <dimension ref="D7:Q84"/>
   <sheetViews>
     <sheetView zoomScale="86" zoomScaleNormal="86" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="P44" sqref="P44"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -3995,7 +4065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" s="20" customFormat="1" spans="6:17">
+    <row r="11" s="26" customFormat="1" spans="6:17">
       <c r="F11" s="8" t="s">
         <v>92</v>
       </c>
@@ -4031,7 +4101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" s="21" customFormat="1" spans="6:17">
+    <row r="12" s="27" customFormat="1" spans="6:17">
       <c r="F12" s="8" t="s">
         <v>97</v>
       </c>
@@ -4067,11 +4137,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" s="21" customFormat="1" ht="14.4" spans="6:17">
+    <row r="13" s="27" customFormat="1" ht="14.4" spans="6:17">
       <c r="F13" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="G13" s="29" t="s">
+      <c r="G13" s="35" t="s">
         <v>101</v>
       </c>
       <c r="H13" s="8" t="s">
@@ -4103,7 +4173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" s="21" customFormat="1" spans="6:17">
+    <row r="14" s="27" customFormat="1" spans="6:17">
       <c r="F14" s="8" t="s">
         <v>78</v>
       </c>
@@ -4139,7 +4209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" s="21" customFormat="1" spans="6:17">
+    <row r="15" s="27" customFormat="1" spans="6:17">
       <c r="F15" s="8" t="s">
         <v>84</v>
       </c>
@@ -4211,41 +4281,41 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" s="22" customFormat="1" spans="6:17">
-      <c r="F17" s="30" t="s">
+    <row r="17" s="28" customFormat="1" spans="6:17">
+      <c r="F17" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="G17" s="30" t="s">
+      <c r="G17" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="H17" s="30" t="s">
+      <c r="H17" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="I17" s="30"/>
-      <c r="J17" s="30" t="s">
+      <c r="I17" s="36"/>
+      <c r="J17" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="K17" s="30" t="s">
+      <c r="K17" s="36" t="s">
         <v>95</v>
       </c>
-      <c r="L17" s="30" t="s">
+      <c r="L17" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="M17" s="30" t="s">
+      <c r="M17" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="N17" s="30" t="s">
+      <c r="N17" s="36" t="s">
         <v>109</v>
       </c>
-      <c r="O17" s="30">
+      <c r="O17" s="36">
         <v>60</v>
       </c>
-      <c r="P17" s="30"/>
+      <c r="P17" s="36"/>
       <c r="Q17" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="18" s="23" customFormat="1" spans="6:17">
+    <row r="18" s="29" customFormat="1" spans="6:17">
       <c r="F18" s="8" t="s">
         <v>92</v>
       </c>
@@ -4281,7 +4351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" s="24" customFormat="1" spans="6:17">
+    <row r="19" s="30" customFormat="1" spans="6:17">
       <c r="F19" s="8" t="s">
         <v>97</v>
       </c>
@@ -4317,7 +4387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" s="25" customFormat="1" spans="6:17">
+    <row r="20" s="31" customFormat="1" spans="6:17">
       <c r="F20" s="8" t="s">
         <v>110</v>
       </c>
@@ -4353,7 +4423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" s="26" customFormat="1" spans="6:17">
+    <row r="21" s="32" customFormat="1" spans="6:17">
       <c r="F21" s="8" t="s">
         <v>113</v>
       </c>
@@ -4393,7 +4463,7 @@
       <c r="F22" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="G22" s="29" t="s">
+      <c r="G22" s="35" t="s">
         <v>101</v>
       </c>
       <c r="H22" s="8" t="s">
@@ -4426,178 +4496,178 @@
       </c>
     </row>
     <row r="23" ht="14.4" spans="6:17">
-      <c r="F23" s="30" t="s">
+      <c r="F23" s="36" t="s">
         <v>116</v>
       </c>
-      <c r="G23" s="31" t="s">
+      <c r="G23" s="37" t="s">
         <v>106</v>
       </c>
-      <c r="H23" s="30" t="s">
+      <c r="H23" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="I23" s="30"/>
-      <c r="J23" s="30" t="s">
+      <c r="I23" s="36"/>
+      <c r="J23" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="K23" s="30" t="s">
+      <c r="K23" s="36" t="s">
         <v>117</v>
       </c>
-      <c r="L23" s="30" t="s">
+      <c r="L23" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="M23" s="30" t="s">
+      <c r="M23" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="N23" s="30" t="s">
+      <c r="N23" s="36" t="s">
         <v>118</v>
       </c>
-      <c r="O23" s="30">
+      <c r="O23" s="36">
         <v>80</v>
       </c>
-      <c r="P23" s="30"/>
+      <c r="P23" s="36"/>
       <c r="Q23" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="24" ht="15.2" spans="6:17">
-      <c r="F24" s="32" t="s">
+      <c r="F24" s="38" t="s">
         <v>119</v>
       </c>
-      <c r="G24" s="29" t="s">
+      <c r="G24" s="35" t="s">
         <v>98</v>
       </c>
-      <c r="H24" s="32" t="s">
+      <c r="H24" s="38" t="s">
         <v>99</v>
       </c>
-      <c r="I24" s="45" t="s">
+      <c r="I24" s="51" t="s">
         <v>120</v>
       </c>
       <c r="J24" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="K24" s="32" t="s">
+      <c r="K24" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="L24" s="32" t="s">
+      <c r="L24" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="M24" s="32" t="s">
+      <c r="M24" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="N24" s="32" t="s">
+      <c r="N24" s="38" t="s">
         <v>121</v>
       </c>
       <c r="O24" s="8">
         <v>10</v>
       </c>
-      <c r="P24" s="46"/>
+      <c r="P24" s="52"/>
       <c r="Q24" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="25" ht="14.4" spans="6:17">
-      <c r="F25" s="30" t="s">
+      <c r="F25" s="36" t="s">
         <v>122</v>
       </c>
-      <c r="G25" s="31" t="s">
+      <c r="G25" s="37" t="s">
         <v>123</v>
       </c>
-      <c r="H25" s="30" t="s">
+      <c r="H25" s="36" t="s">
         <v>124</v>
       </c>
-      <c r="I25" s="30"/>
-      <c r="J25" s="30" t="s">
+      <c r="I25" s="36"/>
+      <c r="J25" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="K25" s="30" t="s">
+      <c r="K25" s="36" t="s">
         <v>117</v>
       </c>
-      <c r="L25" s="30" t="s">
+      <c r="L25" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="M25" s="30" t="s">
+      <c r="M25" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="N25" s="30" t="s">
+      <c r="N25" s="36" t="s">
         <v>118</v>
       </c>
-      <c r="O25" s="30">
+      <c r="O25" s="36">
         <v>90</v>
       </c>
-      <c r="P25" s="30"/>
+      <c r="P25" s="36"/>
       <c r="Q25" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="26" s="3" customFormat="1" ht="15.2" spans="6:17">
-      <c r="F26" s="32" t="s">
+      <c r="F26" s="38" t="s">
         <v>125</v>
       </c>
-      <c r="G26" s="29" t="s">
+      <c r="G26" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="H26" s="32" t="s">
+      <c r="H26" s="38" t="s">
         <v>112</v>
       </c>
-      <c r="I26" s="45" t="s">
+      <c r="I26" s="51" t="s">
         <v>126</v>
       </c>
       <c r="J26" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="K26" s="32" t="s">
+      <c r="K26" s="38" t="s">
         <v>122</v>
       </c>
-      <c r="L26" s="32" t="s">
+      <c r="L26" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="M26" s="32" t="s">
+      <c r="M26" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="N26" s="32" t="s">
+      <c r="N26" s="38" t="s">
         <v>121</v>
       </c>
       <c r="O26" s="8">
         <v>10</v>
       </c>
-      <c r="P26" s="46"/>
+      <c r="P26" s="52"/>
       <c r="Q26" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="27" s="3" customFormat="1" spans="6:17">
-      <c r="F27" s="33" t="s">
+      <c r="F27" s="39" t="s">
         <v>127</v>
       </c>
-      <c r="G27" s="33" t="s">
+      <c r="G27" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="H27" s="33" t="s">
+      <c r="H27" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="I27" s="33" t="s">
+      <c r="I27" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="J27" s="33" t="s">
+      <c r="J27" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="K27" s="33" t="s">
+      <c r="K27" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="L27" s="33" t="s">
+      <c r="L27" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="M27" s="33" t="s">
+      <c r="M27" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="N27" s="33" t="s">
+      <c r="N27" s="39" t="s">
         <v>128</v>
       </c>
-      <c r="O27" s="33">
+      <c r="O27" s="39">
         <v>10</v>
       </c>
-      <c r="P27" s="33"/>
-      <c r="Q27" s="33"/>
+      <c r="P27" s="39"/>
+      <c r="Q27" s="39"/>
     </row>
     <row r="28" s="12" customFormat="1" spans="6:17">
       <c r="F28" s="12" t="s">
@@ -4664,76 +4734,76 @@
       </c>
     </row>
     <row r="30" s="3" customFormat="1" spans="6:17">
-      <c r="F30" s="34" t="s">
+      <c r="F30" s="40" t="s">
         <v>131</v>
       </c>
-      <c r="G30" s="34" t="s">
+      <c r="G30" s="40" t="s">
         <v>132</v>
       </c>
-      <c r="H30" s="34" t="s">
+      <c r="H30" s="40" t="s">
         <v>133</v>
       </c>
-      <c r="I30" s="34"/>
-      <c r="J30" s="34" t="s">
+      <c r="I30" s="40"/>
+      <c r="J30" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="K30" s="34" t="s">
+      <c r="K30" s="40" t="s">
         <v>134</v>
       </c>
-      <c r="L30" s="34" t="s">
+      <c r="L30" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="M30" s="34" t="s">
+      <c r="M30" s="40" t="s">
         <v>108</v>
       </c>
-      <c r="N30" s="34" t="s">
+      <c r="N30" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="O30" s="34">
+      <c r="O30" s="40">
         <v>80</v>
       </c>
-      <c r="P30" s="34"/>
-      <c r="Q30" s="34"/>
+      <c r="P30" s="40"/>
+      <c r="Q30" s="40"/>
     </row>
     <row r="31" s="3" customFormat="1" ht="14.4" spans="6:17">
-      <c r="F31" s="35" t="s">
+      <c r="F31" s="41" t="s">
         <v>135</v>
       </c>
-      <c r="G31" s="36" t="s">
+      <c r="G31" s="42" t="s">
         <v>136</v>
       </c>
-      <c r="H31" s="35" t="s">
+      <c r="H31" s="41" t="s">
         <v>137</v>
       </c>
-      <c r="I31" s="35" t="s">
+      <c r="I31" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="J31" s="35" t="s">
+      <c r="J31" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="K31" s="35" t="s">
+      <c r="K31" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="L31" s="35" t="s">
+      <c r="L31" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="M31" s="35" t="s">
+      <c r="M31" s="41" t="s">
         <v>82</v>
       </c>
-      <c r="N31" s="35" t="s">
+      <c r="N31" s="41" t="s">
         <v>138</v>
       </c>
-      <c r="O31" s="35">
+      <c r="O31" s="41">
         <v>10</v>
       </c>
-      <c r="P31" s="35"/>
-      <c r="Q31" s="35"/>
+      <c r="P31" s="41"/>
+      <c r="Q31" s="41"/>
     </row>
     <row r="32" s="12" customFormat="1" ht="14.4" spans="6:17">
       <c r="F32" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="G32" s="37" t="s">
+      <c r="G32" s="43" t="s">
         <v>140</v>
       </c>
       <c r="H32" s="12" t="s">
@@ -4765,7 +4835,7 @@
       <c r="F33" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="G33" s="37" t="s">
+      <c r="G33" s="43" t="s">
         <v>143</v>
       </c>
       <c r="H33" s="12" t="s">
@@ -4796,68 +4866,68 @@
       </c>
     </row>
     <row r="34" ht="14.4" spans="6:17">
-      <c r="F34" s="35" t="s">
+      <c r="F34" s="41" t="s">
         <v>145</v>
       </c>
-      <c r="G34" s="36" t="s">
+      <c r="G34" s="42" t="s">
         <v>146</v>
       </c>
-      <c r="H34" s="35" t="s">
+      <c r="H34" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="I34" s="35" t="s">
+      <c r="I34" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="J34" s="35" t="s">
+      <c r="J34" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="K34" s="35" t="s">
+      <c r="K34" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="L34" s="35" t="s">
+      <c r="L34" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="M34" s="35" t="s">
+      <c r="M34" s="41" t="s">
         <v>82</v>
       </c>
-      <c r="N34" s="35" t="s">
+      <c r="N34" s="41" t="s">
         <v>147</v>
       </c>
-      <c r="O34" s="35">
+      <c r="O34" s="41">
         <v>20</v>
       </c>
-      <c r="P34" s="35"/>
-      <c r="Q34" s="35"/>
-    </row>
-    <row r="35" s="27" customFormat="1" ht="14.15" customHeight="1" spans="6:17">
-      <c r="F35" s="27" t="s">
+      <c r="P34" s="41"/>
+      <c r="Q34" s="41"/>
+    </row>
+    <row r="35" s="33" customFormat="1" ht="14.15" customHeight="1" spans="6:17">
+      <c r="F35" s="33" t="s">
         <v>148</v>
       </c>
-      <c r="G35" s="27" t="s">
+      <c r="G35" s="33" t="s">
         <v>132</v>
       </c>
-      <c r="H35" s="27" t="s">
+      <c r="H35" s="33" t="s">
         <v>133</v>
       </c>
-      <c r="J35" s="27" t="s">
+      <c r="J35" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="K35" s="27" t="s">
+      <c r="K35" s="33" t="s">
         <v>149</v>
       </c>
-      <c r="L35" s="27" t="s">
+      <c r="L35" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="M35" s="27" t="s">
+      <c r="M35" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="N35" s="27" t="s">
+      <c r="N35" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="O35" s="27">
+      <c r="O35" s="33">
         <v>80</v>
       </c>
-      <c r="Q35" s="27">
+      <c r="Q35" s="33">
         <v>1</v>
       </c>
     </row>
@@ -4865,7 +4935,7 @@
       <c r="F36" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="G36" s="37" t="s">
+      <c r="G36" s="43" t="s">
         <v>151</v>
       </c>
       <c r="H36" s="12" t="s">
@@ -4900,7 +4970,7 @@
       <c r="F37" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="G37" s="37" t="s">
+      <c r="G37" s="43" t="s">
         <v>155</v>
       </c>
       <c r="H37" s="12" t="s">
@@ -4932,630 +5002,630 @@
       </c>
     </row>
     <row r="38" spans="6:17">
-      <c r="F38" s="38" t="s">
+      <c r="F38" s="44" t="s">
         <v>148</v>
       </c>
-      <c r="G38" s="38" t="s">
+      <c r="G38" s="44" t="s">
         <v>132</v>
       </c>
-      <c r="H38" s="38" t="s">
+      <c r="H38" s="44" t="s">
         <v>133</v>
       </c>
-      <c r="I38" s="38"/>
-      <c r="J38" s="38" t="s">
+      <c r="I38" s="44"/>
+      <c r="J38" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="K38" s="38" t="s">
+      <c r="K38" s="44" t="s">
         <v>149</v>
       </c>
-      <c r="L38" s="38" t="s">
+      <c r="L38" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="M38" s="38" t="s">
+      <c r="M38" s="44" t="s">
         <v>108</v>
       </c>
-      <c r="N38" s="38" t="s">
+      <c r="N38" s="44" t="s">
         <v>83</v>
       </c>
-      <c r="O38" s="38">
+      <c r="O38" s="44">
         <v>80</v>
       </c>
-      <c r="P38" s="38"/>
-      <c r="Q38" s="38"/>
+      <c r="P38" s="44"/>
+      <c r="Q38" s="44"/>
     </row>
     <row r="39" ht="14.4" spans="6:17">
-      <c r="F39" s="39" t="s">
+      <c r="F39" s="45" t="s">
         <v>150</v>
       </c>
-      <c r="G39" s="40" t="s">
+      <c r="G39" s="46" t="s">
         <v>151</v>
       </c>
-      <c r="H39" s="39" t="s">
+      <c r="H39" s="45" t="s">
         <v>152</v>
       </c>
-      <c r="I39" s="39" t="s">
+      <c r="I39" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="J39" s="39" t="s">
+      <c r="J39" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="K39" s="39" t="s">
+      <c r="K39" s="45" t="s">
         <v>148</v>
       </c>
-      <c r="L39" s="39" t="s">
+      <c r="L39" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="M39" s="39" t="s">
+      <c r="M39" s="45" t="s">
         <v>82</v>
       </c>
-      <c r="N39" s="39" t="s">
+      <c r="N39" s="45" t="s">
         <v>153</v>
       </c>
-      <c r="O39" s="39">
+      <c r="O39" s="45">
         <v>10</v>
       </c>
-      <c r="P39" s="39"/>
-      <c r="Q39" s="39"/>
+      <c r="P39" s="45"/>
+      <c r="Q39" s="45"/>
     </row>
     <row r="40" ht="14.4" spans="6:17">
-      <c r="F40" s="39" t="s">
+      <c r="F40" s="45" t="s">
         <v>154</v>
       </c>
-      <c r="G40" s="40" t="s">
+      <c r="G40" s="46" t="s">
         <v>155</v>
       </c>
-      <c r="H40" s="39" t="s">
+      <c r="H40" s="45" t="s">
         <v>156</v>
       </c>
-      <c r="I40" s="39" t="s">
+      <c r="I40" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="J40" s="39" t="s">
+      <c r="J40" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="K40" s="39" t="s">
+      <c r="K40" s="45" t="s">
         <v>148</v>
       </c>
-      <c r="L40" s="39" t="s">
+      <c r="L40" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="M40" s="39" t="s">
+      <c r="M40" s="45" t="s">
         <v>82</v>
       </c>
-      <c r="N40" s="39" t="s">
+      <c r="N40" s="45" t="s">
         <v>153</v>
       </c>
-      <c r="O40" s="39">
+      <c r="O40" s="45">
         <v>20</v>
       </c>
-      <c r="P40" s="39"/>
-      <c r="Q40" s="39"/>
+      <c r="P40" s="45"/>
+      <c r="Q40" s="45"/>
     </row>
     <row r="41" ht="17.6" spans="6:15">
-      <c r="F41" s="41"/>
-      <c r="G41" s="41"/>
-      <c r="H41" s="41"/>
-      <c r="I41" s="41"/>
-      <c r="J41" s="41"/>
-      <c r="K41" s="41"/>
-      <c r="L41" s="41"/>
-      <c r="M41" s="41"/>
-      <c r="N41" s="41"/>
-      <c r="O41" s="41"/>
+      <c r="F41" s="47"/>
+      <c r="G41" s="47"/>
+      <c r="H41" s="47"/>
+      <c r="I41" s="47"/>
+      <c r="J41" s="47"/>
+      <c r="K41" s="47"/>
+      <c r="L41" s="47"/>
+      <c r="M41" s="47"/>
+      <c r="N41" s="47"/>
+      <c r="O41" s="47"/>
     </row>
     <row r="42" ht="17.6" spans="6:15">
-      <c r="F42" s="41"/>
-      <c r="G42" s="41"/>
-      <c r="H42" s="41"/>
-      <c r="I42" s="41"/>
-      <c r="J42" s="41"/>
-      <c r="K42" s="41"/>
-      <c r="L42" s="41"/>
-      <c r="M42" s="41"/>
-      <c r="N42" s="41"/>
-      <c r="O42" s="41"/>
+      <c r="F42" s="47"/>
+      <c r="G42" s="47"/>
+      <c r="H42" s="47"/>
+      <c r="I42" s="47"/>
+      <c r="J42" s="47"/>
+      <c r="K42" s="47"/>
+      <c r="L42" s="47"/>
+      <c r="M42" s="47"/>
+      <c r="N42" s="47"/>
+      <c r="O42" s="47"/>
     </row>
     <row r="43" ht="17.6" spans="6:15">
-      <c r="F43" s="41"/>
-      <c r="G43" s="41"/>
-      <c r="H43" s="41"/>
-      <c r="I43" s="41"/>
-      <c r="J43" s="41"/>
-      <c r="K43" s="41"/>
-      <c r="L43" s="41"/>
-      <c r="M43" s="41"/>
-      <c r="N43" s="41"/>
-      <c r="O43" s="41"/>
+      <c r="F43" s="47"/>
+      <c r="G43" s="47"/>
+      <c r="H43" s="47"/>
+      <c r="I43" s="47"/>
+      <c r="J43" s="47"/>
+      <c r="K43" s="47"/>
+      <c r="L43" s="47"/>
+      <c r="M43" s="47"/>
+      <c r="N43" s="47"/>
+      <c r="O43" s="47"/>
     </row>
     <row r="44" ht="17.6" spans="6:15">
-      <c r="F44" s="41"/>
-      <c r="G44" s="41"/>
-      <c r="H44" s="41"/>
-      <c r="I44" s="41"/>
-      <c r="J44" s="41"/>
-      <c r="K44" s="41"/>
-      <c r="L44" s="41"/>
-      <c r="M44" s="41"/>
-      <c r="N44" s="41"/>
-      <c r="O44" s="41"/>
+      <c r="F44" s="47"/>
+      <c r="G44" s="47"/>
+      <c r="H44" s="47"/>
+      <c r="I44" s="47"/>
+      <c r="J44" s="47"/>
+      <c r="K44" s="47"/>
+      <c r="L44" s="47"/>
+      <c r="M44" s="47"/>
+      <c r="N44" s="47"/>
+      <c r="O44" s="47"/>
     </row>
     <row r="45" ht="17.6" spans="6:15">
-      <c r="F45" s="41"/>
-      <c r="G45" s="41"/>
-      <c r="H45" s="41"/>
-      <c r="I45" s="41"/>
-      <c r="J45" s="41"/>
-      <c r="K45" s="41"/>
-      <c r="L45" s="41"/>
-      <c r="M45" s="41"/>
-      <c r="N45" s="41"/>
-      <c r="O45" s="41"/>
+      <c r="F45" s="47"/>
+      <c r="G45" s="47"/>
+      <c r="H45" s="47"/>
+      <c r="I45" s="47"/>
+      <c r="J45" s="47"/>
+      <c r="K45" s="47"/>
+      <c r="L45" s="47"/>
+      <c r="M45" s="47"/>
+      <c r="N45" s="47"/>
+      <c r="O45" s="47"/>
     </row>
     <row r="46" ht="17.6" spans="6:15">
-      <c r="F46" s="41"/>
-      <c r="G46" s="41"/>
-      <c r="H46" s="41"/>
-      <c r="I46" s="41"/>
-      <c r="J46" s="41"/>
-      <c r="K46" s="41"/>
-      <c r="L46" s="41"/>
-      <c r="M46" s="41"/>
-      <c r="N46" s="41"/>
-      <c r="O46" s="41"/>
+      <c r="F46" s="47"/>
+      <c r="G46" s="47"/>
+      <c r="H46" s="47"/>
+      <c r="I46" s="47"/>
+      <c r="J46" s="47"/>
+      <c r="K46" s="47"/>
+      <c r="L46" s="47"/>
+      <c r="M46" s="47"/>
+      <c r="N46" s="47"/>
+      <c r="O46" s="47"/>
     </row>
     <row r="47" ht="17.6" spans="6:15">
-      <c r="F47" s="41"/>
-      <c r="G47" s="41"/>
-      <c r="H47" s="41"/>
-      <c r="I47" s="41"/>
-      <c r="J47" s="41"/>
-      <c r="K47" s="41"/>
-      <c r="L47" s="41"/>
-      <c r="M47" s="41"/>
-      <c r="N47" s="41"/>
-      <c r="O47" s="41"/>
+      <c r="F47" s="47"/>
+      <c r="G47" s="47"/>
+      <c r="H47" s="47"/>
+      <c r="I47" s="47"/>
+      <c r="J47" s="47"/>
+      <c r="K47" s="47"/>
+      <c r="L47" s="47"/>
+      <c r="M47" s="47"/>
+      <c r="N47" s="47"/>
+      <c r="O47" s="47"/>
     </row>
     <row r="48" ht="17.6" spans="6:15">
-      <c r="F48" s="41"/>
-      <c r="G48" s="41"/>
-      <c r="H48" s="41"/>
-      <c r="I48" s="41"/>
-      <c r="J48" s="41"/>
-      <c r="K48" s="41"/>
-      <c r="L48" s="41"/>
-      <c r="M48" s="41"/>
-      <c r="N48" s="41"/>
-      <c r="O48" s="41"/>
+      <c r="F48" s="47"/>
+      <c r="G48" s="47"/>
+      <c r="H48" s="47"/>
+      <c r="I48" s="47"/>
+      <c r="J48" s="47"/>
+      <c r="K48" s="47"/>
+      <c r="L48" s="47"/>
+      <c r="M48" s="47"/>
+      <c r="N48" s="47"/>
+      <c r="O48" s="47"/>
     </row>
     <row r="49" ht="17.6" spans="6:15">
-      <c r="F49" s="41"/>
-      <c r="G49" s="41"/>
-      <c r="H49" s="41"/>
-      <c r="I49" s="41"/>
-      <c r="J49" s="41"/>
-      <c r="K49" s="41"/>
-      <c r="L49" s="41"/>
-      <c r="M49" s="41"/>
-      <c r="N49" s="41"/>
-      <c r="O49" s="41"/>
+      <c r="F49" s="47"/>
+      <c r="G49" s="47"/>
+      <c r="H49" s="47"/>
+      <c r="I49" s="47"/>
+      <c r="J49" s="47"/>
+      <c r="K49" s="47"/>
+      <c r="L49" s="47"/>
+      <c r="M49" s="47"/>
+      <c r="N49" s="47"/>
+      <c r="O49" s="47"/>
     </row>
     <row r="50" ht="17.6" spans="6:15">
-      <c r="F50" s="41"/>
-      <c r="G50" s="42"/>
-      <c r="H50" s="41"/>
-      <c r="I50" s="41"/>
-      <c r="J50" s="41"/>
-      <c r="K50" s="41"/>
-      <c r="L50" s="41"/>
-      <c r="M50" s="41"/>
-      <c r="N50" s="41"/>
-      <c r="O50" s="41"/>
+      <c r="F50" s="47"/>
+      <c r="G50" s="48"/>
+      <c r="H50" s="47"/>
+      <c r="I50" s="47"/>
+      <c r="J50" s="47"/>
+      <c r="K50" s="47"/>
+      <c r="L50" s="47"/>
+      <c r="M50" s="47"/>
+      <c r="N50" s="47"/>
+      <c r="O50" s="47"/>
     </row>
     <row r="51" ht="17.6" spans="6:15">
-      <c r="F51" s="43"/>
-      <c r="G51" s="43"/>
-      <c r="H51" s="43"/>
-      <c r="I51" s="43"/>
-      <c r="J51" s="43"/>
-      <c r="K51" s="43"/>
-      <c r="L51" s="43"/>
-      <c r="M51" s="43"/>
-      <c r="N51" s="43"/>
-      <c r="O51" s="43"/>
+      <c r="F51" s="49"/>
+      <c r="G51" s="49"/>
+      <c r="H51" s="49"/>
+      <c r="I51" s="49"/>
+      <c r="J51" s="49"/>
+      <c r="K51" s="49"/>
+      <c r="L51" s="49"/>
+      <c r="M51" s="49"/>
+      <c r="N51" s="49"/>
+      <c r="O51" s="49"/>
     </row>
     <row r="52" ht="17.6" spans="6:15">
-      <c r="F52" s="43"/>
-      <c r="G52" s="43"/>
-      <c r="H52" s="43"/>
-      <c r="I52" s="43"/>
-      <c r="J52" s="43"/>
-      <c r="K52" s="43"/>
-      <c r="L52" s="43"/>
-      <c r="M52" s="43"/>
-      <c r="N52" s="43"/>
-      <c r="O52" s="43"/>
+      <c r="F52" s="49"/>
+      <c r="G52" s="49"/>
+      <c r="H52" s="49"/>
+      <c r="I52" s="49"/>
+      <c r="J52" s="49"/>
+      <c r="K52" s="49"/>
+      <c r="L52" s="49"/>
+      <c r="M52" s="49"/>
+      <c r="N52" s="49"/>
+      <c r="O52" s="49"/>
     </row>
     <row r="53" ht="17.6" spans="6:15">
-      <c r="F53" s="43"/>
-      <c r="G53" s="43"/>
-      <c r="H53" s="43"/>
-      <c r="I53" s="43"/>
-      <c r="J53" s="43"/>
-      <c r="K53" s="43"/>
-      <c r="L53" s="43"/>
-      <c r="M53" s="43"/>
-      <c r="N53" s="43"/>
-      <c r="O53" s="43"/>
+      <c r="F53" s="49"/>
+      <c r="G53" s="49"/>
+      <c r="H53" s="49"/>
+      <c r="I53" s="49"/>
+      <c r="J53" s="49"/>
+      <c r="K53" s="49"/>
+      <c r="L53" s="49"/>
+      <c r="M53" s="49"/>
+      <c r="N53" s="49"/>
+      <c r="O53" s="49"/>
     </row>
     <row r="54" ht="17.6" spans="6:15">
-      <c r="F54" s="43"/>
-      <c r="G54" s="44"/>
-      <c r="H54" s="43"/>
-      <c r="I54" s="43"/>
-      <c r="J54" s="43"/>
-      <c r="K54" s="43"/>
-      <c r="L54" s="43"/>
-      <c r="M54" s="43"/>
-      <c r="N54" s="43"/>
-      <c r="O54" s="43"/>
+      <c r="F54" s="49"/>
+      <c r="G54" s="50"/>
+      <c r="H54" s="49"/>
+      <c r="I54" s="49"/>
+      <c r="J54" s="49"/>
+      <c r="K54" s="49"/>
+      <c r="L54" s="49"/>
+      <c r="M54" s="49"/>
+      <c r="N54" s="49"/>
+      <c r="O54" s="49"/>
     </row>
     <row r="55" ht="17.6" spans="6:15">
-      <c r="F55" s="43"/>
-      <c r="G55" s="43"/>
-      <c r="H55" s="43"/>
-      <c r="I55" s="43"/>
-      <c r="J55" s="43"/>
-      <c r="K55" s="43"/>
-      <c r="L55" s="43"/>
-      <c r="M55" s="43"/>
-      <c r="N55" s="43"/>
-      <c r="O55" s="43"/>
+      <c r="F55" s="49"/>
+      <c r="G55" s="49"/>
+      <c r="H55" s="49"/>
+      <c r="I55" s="49"/>
+      <c r="J55" s="49"/>
+      <c r="K55" s="49"/>
+      <c r="L55" s="49"/>
+      <c r="M55" s="49"/>
+      <c r="N55" s="49"/>
+      <c r="O55" s="49"/>
     </row>
     <row r="56" ht="17.6" spans="6:15">
-      <c r="F56" s="43"/>
-      <c r="G56" s="44"/>
-      <c r="H56" s="43"/>
-      <c r="I56" s="43"/>
-      <c r="J56" s="43"/>
-      <c r="K56" s="43"/>
-      <c r="L56" s="43"/>
-      <c r="M56" s="43"/>
-      <c r="N56" s="43"/>
-      <c r="O56" s="43"/>
+      <c r="F56" s="49"/>
+      <c r="G56" s="50"/>
+      <c r="H56" s="49"/>
+      <c r="I56" s="49"/>
+      <c r="J56" s="49"/>
+      <c r="K56" s="49"/>
+      <c r="L56" s="49"/>
+      <c r="M56" s="49"/>
+      <c r="N56" s="49"/>
+      <c r="O56" s="49"/>
     </row>
     <row r="57" ht="17.6" spans="6:15">
-      <c r="F57" s="43"/>
-      <c r="G57" s="43"/>
-      <c r="H57" s="43"/>
-      <c r="I57" s="43"/>
-      <c r="J57" s="43"/>
-      <c r="K57" s="43"/>
-      <c r="L57" s="43"/>
-      <c r="M57" s="43"/>
-      <c r="N57" s="43"/>
-      <c r="O57" s="43"/>
+      <c r="F57" s="49"/>
+      <c r="G57" s="49"/>
+      <c r="H57" s="49"/>
+      <c r="I57" s="49"/>
+      <c r="J57" s="49"/>
+      <c r="K57" s="49"/>
+      <c r="L57" s="49"/>
+      <c r="M57" s="49"/>
+      <c r="N57" s="49"/>
+      <c r="O57" s="49"/>
     </row>
     <row r="58" ht="17.6" spans="6:15">
-      <c r="F58" s="43"/>
-      <c r="G58" s="43"/>
-      <c r="H58" s="43"/>
-      <c r="I58" s="43"/>
-      <c r="J58" s="43"/>
-      <c r="K58" s="43"/>
-      <c r="L58" s="43"/>
-      <c r="M58" s="43"/>
-      <c r="N58" s="43"/>
-      <c r="O58" s="43"/>
+      <c r="F58" s="49"/>
+      <c r="G58" s="49"/>
+      <c r="H58" s="49"/>
+      <c r="I58" s="49"/>
+      <c r="J58" s="49"/>
+      <c r="K58" s="49"/>
+      <c r="L58" s="49"/>
+      <c r="M58" s="49"/>
+      <c r="N58" s="49"/>
+      <c r="O58" s="49"/>
     </row>
     <row r="59" ht="17.6" spans="6:15">
-      <c r="F59" s="43"/>
-      <c r="G59" s="44"/>
-      <c r="H59" s="43"/>
-      <c r="I59" s="43"/>
-      <c r="J59" s="43"/>
-      <c r="K59" s="43"/>
-      <c r="L59" s="43"/>
-      <c r="M59" s="43"/>
-      <c r="N59" s="43"/>
-      <c r="O59" s="43"/>
+      <c r="F59" s="49"/>
+      <c r="G59" s="50"/>
+      <c r="H59" s="49"/>
+      <c r="I59" s="49"/>
+      <c r="J59" s="49"/>
+      <c r="K59" s="49"/>
+      <c r="L59" s="49"/>
+      <c r="M59" s="49"/>
+      <c r="N59" s="49"/>
+      <c r="O59" s="49"/>
     </row>
     <row r="60" ht="17.6" spans="6:15">
-      <c r="F60" s="43"/>
-      <c r="G60" s="43"/>
-      <c r="H60" s="43"/>
-      <c r="I60" s="43"/>
-      <c r="J60" s="43"/>
-      <c r="K60" s="43"/>
-      <c r="L60" s="43"/>
-      <c r="M60" s="43"/>
-      <c r="N60" s="43"/>
-      <c r="O60" s="43"/>
+      <c r="F60" s="49"/>
+      <c r="G60" s="49"/>
+      <c r="H60" s="49"/>
+      <c r="I60" s="49"/>
+      <c r="J60" s="49"/>
+      <c r="K60" s="49"/>
+      <c r="L60" s="49"/>
+      <c r="M60" s="49"/>
+      <c r="N60" s="49"/>
+      <c r="O60" s="49"/>
     </row>
     <row r="61" ht="17.6" spans="6:15">
-      <c r="F61" s="43"/>
-      <c r="G61" s="43"/>
-      <c r="H61" s="43"/>
-      <c r="I61" s="43"/>
-      <c r="J61" s="43"/>
-      <c r="K61" s="43"/>
-      <c r="L61" s="43"/>
-      <c r="M61" s="43"/>
-      <c r="N61" s="43"/>
-      <c r="O61" s="43"/>
+      <c r="F61" s="49"/>
+      <c r="G61" s="49"/>
+      <c r="H61" s="49"/>
+      <c r="I61" s="49"/>
+      <c r="J61" s="49"/>
+      <c r="K61" s="49"/>
+      <c r="L61" s="49"/>
+      <c r="M61" s="49"/>
+      <c r="N61" s="49"/>
+      <c r="O61" s="49"/>
     </row>
     <row r="62" ht="17.6" spans="6:15">
-      <c r="F62" s="43"/>
-      <c r="G62" s="43"/>
-      <c r="H62" s="43"/>
-      <c r="I62" s="43"/>
-      <c r="J62" s="43"/>
-      <c r="K62" s="43"/>
-      <c r="L62" s="43"/>
-      <c r="M62" s="43"/>
-      <c r="N62" s="43"/>
-      <c r="O62" s="43"/>
+      <c r="F62" s="49"/>
+      <c r="G62" s="49"/>
+      <c r="H62" s="49"/>
+      <c r="I62" s="49"/>
+      <c r="J62" s="49"/>
+      <c r="K62" s="49"/>
+      <c r="L62" s="49"/>
+      <c r="M62" s="49"/>
+      <c r="N62" s="49"/>
+      <c r="O62" s="49"/>
     </row>
     <row r="63" ht="17.6" spans="6:15">
-      <c r="F63" s="43"/>
-      <c r="G63" s="43"/>
-      <c r="H63" s="43"/>
-      <c r="I63" s="43"/>
-      <c r="J63" s="43"/>
-      <c r="K63" s="43"/>
-      <c r="L63" s="43"/>
-      <c r="M63" s="43"/>
-      <c r="N63" s="43"/>
-      <c r="O63" s="43"/>
+      <c r="F63" s="49"/>
+      <c r="G63" s="49"/>
+      <c r="H63" s="49"/>
+      <c r="I63" s="49"/>
+      <c r="J63" s="49"/>
+      <c r="K63" s="49"/>
+      <c r="L63" s="49"/>
+      <c r="M63" s="49"/>
+      <c r="N63" s="49"/>
+      <c r="O63" s="49"/>
     </row>
     <row r="64" ht="17.6" spans="6:15">
-      <c r="F64" s="43"/>
-      <c r="G64" s="43"/>
-      <c r="H64" s="43"/>
-      <c r="I64" s="43"/>
-      <c r="J64" s="43"/>
-      <c r="K64" s="43"/>
-      <c r="L64" s="43"/>
-      <c r="M64" s="43"/>
-      <c r="N64" s="43"/>
-      <c r="O64" s="43"/>
+      <c r="F64" s="49"/>
+      <c r="G64" s="49"/>
+      <c r="H64" s="49"/>
+      <c r="I64" s="49"/>
+      <c r="J64" s="49"/>
+      <c r="K64" s="49"/>
+      <c r="L64" s="49"/>
+      <c r="M64" s="49"/>
+      <c r="N64" s="49"/>
+      <c r="O64" s="49"/>
     </row>
     <row r="65" ht="17.6" spans="6:15">
-      <c r="F65" s="47"/>
-      <c r="G65" s="47"/>
-      <c r="H65" s="47"/>
-      <c r="I65" s="47"/>
-      <c r="J65" s="47"/>
-      <c r="K65" s="47"/>
-      <c r="L65" s="47"/>
-      <c r="M65" s="47"/>
-      <c r="N65" s="47"/>
-      <c r="O65" s="47"/>
+      <c r="F65" s="53"/>
+      <c r="G65" s="53"/>
+      <c r="H65" s="53"/>
+      <c r="I65" s="53"/>
+      <c r="J65" s="53"/>
+      <c r="K65" s="53"/>
+      <c r="L65" s="53"/>
+      <c r="M65" s="53"/>
+      <c r="N65" s="53"/>
+      <c r="O65" s="53"/>
     </row>
     <row r="66" ht="17.6" spans="6:15">
-      <c r="F66" s="47"/>
-      <c r="G66" s="47"/>
-      <c r="H66" s="47"/>
-      <c r="I66" s="47"/>
-      <c r="J66" s="47"/>
-      <c r="K66" s="47"/>
-      <c r="L66" s="47"/>
-      <c r="M66" s="47"/>
-      <c r="N66" s="47"/>
-      <c r="O66" s="47"/>
+      <c r="F66" s="53"/>
+      <c r="G66" s="53"/>
+      <c r="H66" s="53"/>
+      <c r="I66" s="53"/>
+      <c r="J66" s="53"/>
+      <c r="K66" s="53"/>
+      <c r="L66" s="53"/>
+      <c r="M66" s="53"/>
+      <c r="N66" s="53"/>
+      <c r="O66" s="53"/>
     </row>
     <row r="67" ht="17.6" spans="6:15">
-      <c r="F67" s="47"/>
-      <c r="G67" s="47"/>
-      <c r="H67" s="47"/>
-      <c r="I67" s="47"/>
-      <c r="J67" s="47"/>
-      <c r="K67" s="47"/>
-      <c r="L67" s="47"/>
-      <c r="M67" s="47"/>
-      <c r="N67" s="47"/>
-      <c r="O67" s="47"/>
+      <c r="F67" s="53"/>
+      <c r="G67" s="53"/>
+      <c r="H67" s="53"/>
+      <c r="I67" s="53"/>
+      <c r="J67" s="53"/>
+      <c r="K67" s="53"/>
+      <c r="L67" s="53"/>
+      <c r="M67" s="53"/>
+      <c r="N67" s="53"/>
+      <c r="O67" s="53"/>
     </row>
     <row r="68" ht="17.6" spans="6:15">
-      <c r="F68" s="47"/>
-      <c r="G68" s="47"/>
-      <c r="H68" s="47"/>
-      <c r="I68" s="47"/>
-      <c r="J68" s="47"/>
-      <c r="K68" s="47"/>
-      <c r="L68" s="47"/>
-      <c r="M68" s="47"/>
-      <c r="N68" s="47"/>
-      <c r="O68" s="47"/>
+      <c r="F68" s="53"/>
+      <c r="G68" s="53"/>
+      <c r="H68" s="53"/>
+      <c r="I68" s="53"/>
+      <c r="J68" s="53"/>
+      <c r="K68" s="53"/>
+      <c r="L68" s="53"/>
+      <c r="M68" s="53"/>
+      <c r="N68" s="53"/>
+      <c r="O68" s="53"/>
     </row>
     <row r="69" ht="19.2" spans="6:15">
-      <c r="F69" s="48"/>
-      <c r="G69" s="48"/>
-      <c r="H69" s="48"/>
-      <c r="I69" s="48"/>
-      <c r="J69" s="48"/>
-      <c r="K69" s="48"/>
-      <c r="L69" s="48"/>
-      <c r="M69" s="48"/>
-      <c r="N69" s="51"/>
-      <c r="O69" s="48"/>
+      <c r="F69" s="54"/>
+      <c r="G69" s="54"/>
+      <c r="H69" s="54"/>
+      <c r="I69" s="54"/>
+      <c r="J69" s="54"/>
+      <c r="K69" s="54"/>
+      <c r="L69" s="54"/>
+      <c r="M69" s="54"/>
+      <c r="N69" s="57"/>
+      <c r="O69" s="54"/>
     </row>
     <row r="70" ht="19.2" spans="6:15">
-      <c r="F70" s="48"/>
-      <c r="G70" s="48"/>
-      <c r="H70" s="48"/>
-      <c r="I70" s="48"/>
-      <c r="J70" s="48"/>
-      <c r="K70" s="48"/>
-      <c r="L70" s="48"/>
-      <c r="M70" s="48"/>
-      <c r="N70" s="51"/>
-      <c r="O70" s="48"/>
+      <c r="F70" s="54"/>
+      <c r="G70" s="54"/>
+      <c r="H70" s="54"/>
+      <c r="I70" s="54"/>
+      <c r="J70" s="54"/>
+      <c r="K70" s="54"/>
+      <c r="L70" s="54"/>
+      <c r="M70" s="54"/>
+      <c r="N70" s="57"/>
+      <c r="O70" s="54"/>
     </row>
     <row r="71" ht="19.2" spans="6:15">
-      <c r="F71" s="48"/>
-      <c r="G71" s="48"/>
-      <c r="H71" s="48"/>
-      <c r="I71" s="48"/>
-      <c r="J71" s="48"/>
-      <c r="K71" s="48"/>
-      <c r="L71" s="48"/>
-      <c r="M71" s="48"/>
-      <c r="N71" s="48"/>
-      <c r="O71" s="48"/>
-    </row>
-    <row r="72" s="28" customFormat="1" ht="17.6" spans="6:15">
-      <c r="F72" s="41"/>
-      <c r="G72" s="42"/>
-      <c r="H72" s="41"/>
-      <c r="I72" s="41"/>
-      <c r="J72" s="41"/>
-      <c r="K72" s="41"/>
-      <c r="L72" s="41"/>
-      <c r="M72" s="41"/>
-      <c r="N72" s="41"/>
-      <c r="O72" s="41"/>
-    </row>
-    <row r="73" s="28" customFormat="1" ht="17.6" spans="6:15">
-      <c r="F73" s="41"/>
-      <c r="G73" s="42"/>
-      <c r="H73" s="41"/>
-      <c r="I73" s="41"/>
-      <c r="J73" s="41"/>
-      <c r="K73" s="41"/>
-      <c r="L73" s="41"/>
-      <c r="M73" s="41"/>
-      <c r="N73" s="41"/>
-      <c r="O73" s="41"/>
-    </row>
-    <row r="74" s="28" customFormat="1" ht="17.6" spans="6:15">
-      <c r="F74" s="41"/>
-      <c r="G74" s="42"/>
-      <c r="H74" s="41"/>
-      <c r="I74" s="41"/>
-      <c r="J74" s="41"/>
-      <c r="K74" s="41"/>
-      <c r="L74" s="41"/>
-      <c r="M74" s="41"/>
-      <c r="N74" s="41"/>
-      <c r="O74" s="41"/>
-    </row>
-    <row r="75" s="28" customFormat="1" ht="17.6" spans="6:15">
-      <c r="F75" s="41"/>
-      <c r="G75" s="42"/>
-      <c r="H75" s="41"/>
-      <c r="I75" s="41"/>
-      <c r="J75" s="41"/>
-      <c r="K75" s="41"/>
-      <c r="L75" s="41"/>
-      <c r="M75" s="41"/>
-      <c r="N75" s="41"/>
-      <c r="O75" s="41"/>
-    </row>
-    <row r="76" s="28" customFormat="1" ht="17.6" spans="6:15">
-      <c r="F76" s="41"/>
-      <c r="G76" s="42"/>
-      <c r="H76" s="41"/>
-      <c r="I76" s="41"/>
-      <c r="J76" s="41"/>
-      <c r="K76" s="41"/>
-      <c r="L76" s="41"/>
-      <c r="M76" s="41"/>
-      <c r="N76" s="41"/>
-      <c r="O76" s="41"/>
-    </row>
-    <row r="77" s="28" customFormat="1" ht="17.6" spans="6:15">
-      <c r="F77" s="41"/>
-      <c r="G77" s="42"/>
-      <c r="H77" s="41"/>
-      <c r="I77" s="41"/>
-      <c r="J77" s="41"/>
-      <c r="K77" s="41"/>
-      <c r="L77" s="41"/>
-      <c r="M77" s="41"/>
-      <c r="N77" s="41"/>
-      <c r="O77" s="41"/>
+      <c r="F71" s="54"/>
+      <c r="G71" s="54"/>
+      <c r="H71" s="54"/>
+      <c r="I71" s="54"/>
+      <c r="J71" s="54"/>
+      <c r="K71" s="54"/>
+      <c r="L71" s="54"/>
+      <c r="M71" s="54"/>
+      <c r="N71" s="54"/>
+      <c r="O71" s="54"/>
+    </row>
+    <row r="72" s="34" customFormat="1" ht="17.6" spans="6:15">
+      <c r="F72" s="47"/>
+      <c r="G72" s="48"/>
+      <c r="H72" s="47"/>
+      <c r="I72" s="47"/>
+      <c r="J72" s="47"/>
+      <c r="K72" s="47"/>
+      <c r="L72" s="47"/>
+      <c r="M72" s="47"/>
+      <c r="N72" s="47"/>
+      <c r="O72" s="47"/>
+    </row>
+    <row r="73" s="34" customFormat="1" ht="17.6" spans="6:15">
+      <c r="F73" s="47"/>
+      <c r="G73" s="48"/>
+      <c r="H73" s="47"/>
+      <c r="I73" s="47"/>
+      <c r="J73" s="47"/>
+      <c r="K73" s="47"/>
+      <c r="L73" s="47"/>
+      <c r="M73" s="47"/>
+      <c r="N73" s="47"/>
+      <c r="O73" s="47"/>
+    </row>
+    <row r="74" s="34" customFormat="1" ht="17.6" spans="6:15">
+      <c r="F74" s="47"/>
+      <c r="G74" s="48"/>
+      <c r="H74" s="47"/>
+      <c r="I74" s="47"/>
+      <c r="J74" s="47"/>
+      <c r="K74" s="47"/>
+      <c r="L74" s="47"/>
+      <c r="M74" s="47"/>
+      <c r="N74" s="47"/>
+      <c r="O74" s="47"/>
+    </row>
+    <row r="75" s="34" customFormat="1" ht="17.6" spans="6:15">
+      <c r="F75" s="47"/>
+      <c r="G75" s="48"/>
+      <c r="H75" s="47"/>
+      <c r="I75" s="47"/>
+      <c r="J75" s="47"/>
+      <c r="K75" s="47"/>
+      <c r="L75" s="47"/>
+      <c r="M75" s="47"/>
+      <c r="N75" s="47"/>
+      <c r="O75" s="47"/>
+    </row>
+    <row r="76" s="34" customFormat="1" ht="17.6" spans="6:15">
+      <c r="F76" s="47"/>
+      <c r="G76" s="48"/>
+      <c r="H76" s="47"/>
+      <c r="I76" s="47"/>
+      <c r="J76" s="47"/>
+      <c r="K76" s="47"/>
+      <c r="L76" s="47"/>
+      <c r="M76" s="47"/>
+      <c r="N76" s="47"/>
+      <c r="O76" s="47"/>
+    </row>
+    <row r="77" s="34" customFormat="1" ht="17.6" spans="6:15">
+      <c r="F77" s="47"/>
+      <c r="G77" s="48"/>
+      <c r="H77" s="47"/>
+      <c r="I77" s="47"/>
+      <c r="J77" s="47"/>
+      <c r="K77" s="47"/>
+      <c r="L77" s="47"/>
+      <c r="M77" s="47"/>
+      <c r="N77" s="47"/>
+      <c r="O77" s="47"/>
     </row>
     <row r="78" ht="17.6" spans="6:15">
-      <c r="F78" s="49"/>
-      <c r="G78" s="49"/>
-      <c r="H78" s="49"/>
-      <c r="I78" s="49"/>
-      <c r="J78" s="49"/>
-      <c r="K78" s="49"/>
-      <c r="L78" s="49"/>
-      <c r="M78" s="49"/>
-      <c r="N78" s="49"/>
-      <c r="O78" s="49"/>
+      <c r="F78" s="55"/>
+      <c r="G78" s="55"/>
+      <c r="H78" s="55"/>
+      <c r="I78" s="55"/>
+      <c r="J78" s="55"/>
+      <c r="K78" s="55"/>
+      <c r="L78" s="55"/>
+      <c r="M78" s="55"/>
+      <c r="N78" s="55"/>
+      <c r="O78" s="55"/>
     </row>
     <row r="79" ht="17.6" spans="6:15">
-      <c r="F79" s="49"/>
-      <c r="G79" s="49"/>
-      <c r="H79" s="49"/>
-      <c r="I79" s="49"/>
-      <c r="J79" s="49"/>
-      <c r="K79" s="49"/>
-      <c r="L79" s="49"/>
-      <c r="M79" s="49"/>
-      <c r="N79" s="49"/>
-      <c r="O79" s="49"/>
+      <c r="F79" s="55"/>
+      <c r="G79" s="55"/>
+      <c r="H79" s="55"/>
+      <c r="I79" s="55"/>
+      <c r="J79" s="55"/>
+      <c r="K79" s="55"/>
+      <c r="L79" s="55"/>
+      <c r="M79" s="55"/>
+      <c r="N79" s="55"/>
+      <c r="O79" s="55"/>
     </row>
     <row r="80" ht="17.6" spans="6:15">
-      <c r="F80" s="49"/>
-      <c r="G80" s="49"/>
-      <c r="H80" s="49"/>
-      <c r="I80" s="49"/>
-      <c r="J80" s="49"/>
-      <c r="K80" s="49"/>
-      <c r="L80" s="49"/>
-      <c r="M80" s="49"/>
-      <c r="N80" s="49"/>
-      <c r="O80" s="49"/>
+      <c r="F80" s="55"/>
+      <c r="G80" s="55"/>
+      <c r="H80" s="55"/>
+      <c r="I80" s="55"/>
+      <c r="J80" s="55"/>
+      <c r="K80" s="55"/>
+      <c r="L80" s="55"/>
+      <c r="M80" s="55"/>
+      <c r="N80" s="55"/>
+      <c r="O80" s="55"/>
     </row>
     <row r="81" ht="17.6" spans="6:15">
-      <c r="F81" s="49"/>
-      <c r="G81" s="49"/>
-      <c r="H81" s="49"/>
-      <c r="I81" s="49"/>
-      <c r="J81" s="49"/>
-      <c r="K81" s="49"/>
-      <c r="L81" s="49"/>
-      <c r="M81" s="49"/>
-      <c r="N81" s="49"/>
-      <c r="O81" s="49"/>
+      <c r="F81" s="55"/>
+      <c r="G81" s="55"/>
+      <c r="H81" s="55"/>
+      <c r="I81" s="55"/>
+      <c r="J81" s="55"/>
+      <c r="K81" s="55"/>
+      <c r="L81" s="55"/>
+      <c r="M81" s="55"/>
+      <c r="N81" s="55"/>
+      <c r="O81" s="55"/>
     </row>
     <row r="82" ht="17.6" spans="6:15">
-      <c r="F82" s="49"/>
-      <c r="G82" s="50"/>
-      <c r="H82" s="49"/>
-      <c r="I82" s="49"/>
-      <c r="J82" s="49"/>
-      <c r="K82" s="49"/>
-      <c r="L82" s="49"/>
-      <c r="M82" s="49"/>
-      <c r="N82" s="49"/>
-      <c r="O82" s="49"/>
+      <c r="F82" s="55"/>
+      <c r="G82" s="56"/>
+      <c r="H82" s="55"/>
+      <c r="I82" s="55"/>
+      <c r="J82" s="55"/>
+      <c r="K82" s="55"/>
+      <c r="L82" s="55"/>
+      <c r="M82" s="55"/>
+      <c r="N82" s="55"/>
+      <c r="O82" s="55"/>
     </row>
     <row r="83" ht="17.6" spans="6:15">
-      <c r="F83" s="49"/>
-      <c r="G83" s="49"/>
-      <c r="H83" s="49"/>
-      <c r="J83" s="49"/>
-      <c r="K83" s="49"/>
-      <c r="L83" s="49"/>
-      <c r="M83" s="49"/>
-      <c r="O83" s="49"/>
+      <c r="F83" s="55"/>
+      <c r="G83" s="55"/>
+      <c r="H83" s="55"/>
+      <c r="J83" s="55"/>
+      <c r="K83" s="55"/>
+      <c r="L83" s="55"/>
+      <c r="M83" s="55"/>
+      <c r="O83" s="55"/>
     </row>
     <row r="84" ht="17.6" spans="6:15">
-      <c r="F84" s="49"/>
-      <c r="G84" s="49"/>
-      <c r="H84" s="49"/>
-      <c r="I84" s="49"/>
-      <c r="J84" s="49"/>
-      <c r="K84" s="49"/>
-      <c r="L84" s="49"/>
-      <c r="M84" s="49"/>
-      <c r="N84" s="49"/>
-      <c r="O84" s="49"/>
+      <c r="F84" s="55"/>
+      <c r="G84" s="55"/>
+      <c r="H84" s="55"/>
+      <c r="I84" s="55"/>
+      <c r="J84" s="55"/>
+      <c r="K84" s="55"/>
+      <c r="L84" s="55"/>
+      <c r="M84" s="55"/>
+      <c r="N84" s="55"/>
+      <c r="O84" s="55"/>
     </row>
   </sheetData>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -5619,21 +5689,21 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="D7:G7"/>
+  <dimension ref="D7:G43"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8:G37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="6.125" customWidth="1"/>
     <col min="2" max="2" width="5" customWidth="1"/>
     <col min="3" max="3" width="7.125" customWidth="1"/>
     <col min="4" max="4" width="25.875" customWidth="1"/>
     <col min="5" max="5" width="7.125" customWidth="1"/>
-    <col min="6" max="6" width="42.875" customWidth="1"/>
-    <col min="7" max="7" width="52.875" customWidth="1"/>
+    <col min="6" max="6" width="56.375" customWidth="1"/>
+    <col min="7" max="7" width="64.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" ht="15.2" spans="4:7">
@@ -5650,6 +5720,94 @@
         <v>159</v>
       </c>
     </row>
+    <row r="8" s="20" customFormat="1" ht="19.2" spans="4:7">
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="G8" s="22" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" s="20" customFormat="1" ht="19.2" spans="4:7">
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="G9" s="22" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" s="20" customFormat="1" ht="19.2" spans="4:7">
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="G10" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" s="20" customFormat="1" ht="19.2" spans="4:7">
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="G11" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" ht="19.2" spans="6:7">
+      <c r="F12" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="G12" s="25" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" s="20" customFormat="1" ht="19.2" spans="4:7">
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="G13" s="25" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" s="21" customFormat="1" ht="19.2"/>
+    <row r="15" s="21" customFormat="1" ht="19.2"/>
+    <row r="16" s="21" customFormat="1" ht="19.2"/>
+    <row r="17" s="21" customFormat="1" ht="19.2"/>
+    <row r="18" s="21" customFormat="1" ht="19.2"/>
+    <row r="19" s="21" customFormat="1" ht="19.2"/>
+    <row r="20" s="21" customFormat="1" ht="19.2"/>
+    <row r="21" s="21" customFormat="1" ht="19.2"/>
+    <row r="22" s="21" customFormat="1" ht="19.2"/>
+    <row r="23" s="21" customFormat="1" ht="19.2"/>
+    <row r="24" s="21" customFormat="1" ht="19.2"/>
+    <row r="25" s="21" customFormat="1" ht="19.2"/>
+    <row r="26" s="21" customFormat="1" ht="19.2"/>
+    <row r="27" s="21" customFormat="1" ht="19.2"/>
+    <row r="28" s="21" customFormat="1" ht="19.2"/>
+    <row r="29" s="21" customFormat="1" ht="19.2"/>
+    <row r="30" s="21" customFormat="1" ht="19.2"/>
+    <row r="31" s="21" customFormat="1" ht="19.2"/>
+    <row r="32" s="21" customFormat="1" ht="19.2"/>
+    <row r="33" s="21" customFormat="1" ht="19.2"/>
+    <row r="34" s="21" customFormat="1" ht="19.2"/>
+    <row r="35" s="21" customFormat="1" ht="19.2"/>
+    <row r="36" s="21" customFormat="1" ht="19.2"/>
+    <row r="37" s="21" customFormat="1" ht="19.2"/>
+    <row r="38" s="21" customFormat="1" ht="19.2"/>
+    <row r="39" s="21" customFormat="1" ht="19.2"/>
+    <row r="40" s="21" customFormat="1" ht="19.2"/>
+    <row r="41" s="21" customFormat="1" ht="19.2"/>
+    <row r="42" s="21" customFormat="1" ht="19.2"/>
+    <row r="43" s="21" customFormat="1" ht="19.2"/>
   </sheetData>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
@@ -5665,7 +5823,7 @@
   <sheetPr/>
   <dimension ref="D6:I75"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" topLeftCell="A22" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" topLeftCell="A14" workbookViewId="0">
       <selection activeCell="A50" sqref="$A50:$XFD50"/>
     </sheetView>
   </sheetViews>
@@ -5683,19 +5841,19 @@
     <row r="6" ht="14.75"/>
     <row r="7" ht="19" customHeight="1" spans="4:9">
       <c r="D7" s="5" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>158</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="I7" s="18" t="s">
         <v>11</v>
@@ -5703,7 +5861,7 @@
     </row>
     <row r="8" s="3" customFormat="1" spans="6:9">
       <c r="F8" s="8" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="G8" s="8" t="s">
         <v>78</v>
@@ -5717,7 +5875,7 @@
     </row>
     <row r="9" s="3" customFormat="1" spans="6:9">
       <c r="F9" s="8" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="G9" s="8" t="s">
         <v>84</v>
@@ -5731,7 +5889,7 @@
     </row>
     <row r="10" s="3" customFormat="1" spans="6:9">
       <c r="F10" s="8" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="G10" s="8" t="s">
         <v>88</v>
@@ -5745,7 +5903,7 @@
     </row>
     <row r="11" s="3" customFormat="1" spans="6:9">
       <c r="F11" s="8" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="G11" s="8" t="s">
         <v>92</v>
@@ -5759,7 +5917,7 @@
     </row>
     <row r="12" s="3" customFormat="1" spans="6:9">
       <c r="F12" s="8" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="G12" s="8" t="s">
         <v>97</v>
@@ -5773,7 +5931,7 @@
     </row>
     <row r="13" s="3" customFormat="1" spans="6:9">
       <c r="F13" s="8" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="G13" s="8" t="s">
         <v>100</v>
@@ -5787,7 +5945,7 @@
     </row>
     <row r="14" s="3" customFormat="1" spans="6:9">
       <c r="F14" s="8" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="G14" s="8" t="s">
         <v>110</v>
@@ -5801,7 +5959,7 @@
     </row>
     <row r="15" s="3" customFormat="1" spans="6:9">
       <c r="F15" s="8" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="G15" s="8" t="s">
         <v>113</v>
@@ -5815,13 +5973,13 @@
     </row>
     <row r="16" s="3" customFormat="1" spans="6:9">
       <c r="F16" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="G16" s="8" t="s">
         <v>78</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="I16" s="8">
         <v>1</v>
@@ -5829,13 +5987,13 @@
     </row>
     <row r="17" s="3" customFormat="1" spans="6:9">
       <c r="F17" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="G17" s="8" t="s">
         <v>84</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="I17" s="8">
         <v>1</v>
@@ -5843,13 +6001,13 @@
     </row>
     <row r="18" s="3" customFormat="1" spans="6:9">
       <c r="F18" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="G18" s="8" t="s">
         <v>88</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="I18" s="8">
         <v>1</v>
@@ -5857,13 +6015,13 @@
     </row>
     <row r="19" s="3" customFormat="1" spans="6:9">
       <c r="F19" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="G19" s="8" t="s">
         <v>92</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="I19" s="8">
         <v>1</v>
@@ -5871,13 +6029,13 @@
     </row>
     <row r="20" s="3" customFormat="1" spans="6:9">
       <c r="F20" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="G20" s="8" t="s">
         <v>97</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="I20" s="8">
         <v>1</v>
@@ -5885,13 +6043,13 @@
     </row>
     <row r="21" s="3" customFormat="1" spans="6:9">
       <c r="F21" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="G21" s="8" t="s">
         <v>100</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="I21" s="8">
         <v>1</v>
@@ -5899,13 +6057,13 @@
     </row>
     <row r="22" s="3" customFormat="1" spans="6:9">
       <c r="F22" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="G22" s="8" t="s">
         <v>110</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="I22" s="8">
         <v>1</v>
@@ -5913,13 +6071,13 @@
     </row>
     <row r="23" s="3" customFormat="1" spans="6:9">
       <c r="F23" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="G23" s="8" t="s">
         <v>113</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="I23" s="8">
         <v>1</v>
@@ -5927,13 +6085,13 @@
     </row>
     <row r="24" s="3" customFormat="1" spans="6:9">
       <c r="F24" s="8" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="G24" s="8" t="s">
         <v>78</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="I24" s="8">
         <v>1</v>
@@ -5941,13 +6099,13 @@
     </row>
     <row r="25" s="3" customFormat="1" spans="6:9">
       <c r="F25" s="8" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="G25" s="8" t="s">
         <v>84</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="I25" s="8">
         <v>1</v>
@@ -5955,13 +6113,13 @@
     </row>
     <row r="26" s="3" customFormat="1" spans="6:9">
       <c r="F26" s="8" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="G26" s="8" t="s">
         <v>88</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="I26" s="8">
         <v>1</v>
@@ -5969,13 +6127,13 @@
     </row>
     <row r="27" s="3" customFormat="1" spans="6:9">
       <c r="F27" s="8" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="G27" s="8" t="s">
         <v>92</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="I27" s="8">
         <v>1</v>
@@ -5983,13 +6141,13 @@
     </row>
     <row r="28" s="3" customFormat="1" spans="6:9">
       <c r="F28" s="8" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="G28" s="8" t="s">
         <v>97</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="I28" s="8">
         <v>1</v>
@@ -5997,13 +6155,13 @@
     </row>
     <row r="29" s="3" customFormat="1" spans="6:9">
       <c r="F29" s="8" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="G29" s="8" t="s">
         <v>100</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="I29" s="8">
         <v>1</v>
@@ -6011,13 +6169,13 @@
     </row>
     <row r="30" s="3" customFormat="1" spans="6:9">
       <c r="F30" s="8" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="G30" s="8" t="s">
         <v>110</v>
       </c>
       <c r="H30" s="8" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="I30" s="8">
         <v>1</v>
@@ -6025,13 +6183,13 @@
     </row>
     <row r="31" s="3" customFormat="1" spans="6:9">
       <c r="F31" s="8" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="G31" s="8" t="s">
         <v>113</v>
       </c>
       <c r="H31" s="8" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="I31" s="8">
         <v>1</v>
@@ -6041,7 +6199,7 @@
       <c r="D32" s="6"/>
       <c r="E32" s="9"/>
       <c r="F32" s="10" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="G32" s="8" t="s">
         <v>119</v>
@@ -6057,7 +6215,7 @@
       <c r="D33" s="6"/>
       <c r="E33" s="9"/>
       <c r="F33" s="10" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="G33" s="8" t="s">
         <v>125</v>
@@ -6073,7 +6231,7 @@
       <c r="D34" s="6"/>
       <c r="E34" s="9"/>
       <c r="F34" s="10" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="G34" s="8" t="s">
         <v>119</v>
@@ -6089,7 +6247,7 @@
       <c r="D35" s="6"/>
       <c r="E35" s="9"/>
       <c r="F35" s="10" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="G35" s="8" t="s">
         <v>125</v>
@@ -6103,7 +6261,7 @@
     </row>
     <row r="36" s="3" customFormat="1" spans="6:9">
       <c r="F36" s="11" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="G36" s="11" t="s">
         <v>135</v>
@@ -6115,7 +6273,7 @@
     </row>
     <row r="37" s="4" customFormat="1" spans="6:9">
       <c r="F37" s="12" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="G37" s="12" t="s">
         <v>139</v>
@@ -6129,7 +6287,7 @@
     </row>
     <row r="38" s="4" customFormat="1" spans="6:9">
       <c r="F38" s="12" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="G38" s="12" t="s">
         <v>142</v>
@@ -6143,7 +6301,7 @@
     </row>
     <row r="39" spans="6:9">
       <c r="F39" s="11" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="G39" s="11" t="s">
         <v>145</v>
@@ -6155,25 +6313,25 @@
     </row>
     <row r="40" spans="6:9">
       <c r="F40" s="11" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="G40" s="11" t="s">
         <v>135</v>
       </c>
       <c r="H40" s="11" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="I40" s="11"/>
     </row>
     <row r="41" s="4" customFormat="1" spans="6:9">
       <c r="F41" s="12" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="G41" s="12" t="s">
         <v>139</v>
       </c>
       <c r="H41" s="12" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="I41" s="4">
         <v>1</v>
@@ -6181,13 +6339,13 @@
     </row>
     <row r="42" s="4" customFormat="1" spans="6:9">
       <c r="F42" s="12" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="G42" s="12" t="s">
         <v>142</v>
       </c>
       <c r="H42" s="12" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="I42" s="4">
         <v>1</v>
@@ -6195,37 +6353,37 @@
     </row>
     <row r="43" spans="6:9">
       <c r="F43" s="11" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="G43" s="11" t="s">
         <v>145</v>
       </c>
       <c r="H43" s="11" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="I43" s="13"/>
     </row>
     <row r="44" spans="6:9">
       <c r="F44" s="11" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="G44" s="11" t="s">
         <v>135</v>
       </c>
       <c r="H44" s="11" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="I44" s="11"/>
     </row>
     <row r="45" s="4" customFormat="1" spans="6:9">
       <c r="F45" s="12" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="G45" s="4" t="s">
         <v>139</v>
       </c>
       <c r="H45" s="12" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="I45" s="4">
         <v>1</v>
@@ -6233,13 +6391,13 @@
     </row>
     <row r="46" s="4" customFormat="1" spans="6:9">
       <c r="F46" s="12" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="G46" s="4" t="s">
         <v>142</v>
       </c>
       <c r="H46" s="12" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="I46" s="4">
         <v>1</v>
@@ -6247,19 +6405,19 @@
     </row>
     <row r="47" spans="6:9">
       <c r="F47" s="11" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="G47" s="13" t="s">
         <v>145</v>
       </c>
       <c r="H47" s="11" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="I47" s="13"/>
     </row>
     <row r="48" ht="15.2" spans="6:9">
       <c r="F48" s="14" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="G48" s="15" t="s">
         <v>150</v>
@@ -6271,7 +6429,7 @@
     </row>
     <row r="49" spans="6:9">
       <c r="F49" s="14" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="G49" s="16" t="s">
         <v>154</v>
@@ -6283,7 +6441,7 @@
     </row>
     <row r="50" ht="15.2" spans="6:9">
       <c r="F50" s="14" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="G50" s="15" t="s">
         <v>150</v>
@@ -6295,7 +6453,7 @@
     </row>
     <row r="51" spans="6:9">
       <c r="F51" s="14" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="G51" s="16" t="s">
         <v>154</v>
@@ -6443,7 +6601,7 @@
   <sheetData>
     <row r="7" spans="4:11">
       <c r="D7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="E7" t="s">
         <v>1</v>
@@ -6458,13 +6616,13 @@
         <v>5</v>
       </c>
       <c r="I7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="J7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="K7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -6493,22 +6651,22 @@
   <sheetData>
     <row r="7" spans="4:9">
       <c r="D7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="E7" t="s">
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="G7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="H7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="I7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -6540,71 +6698,71 @@
   <sheetData>
     <row r="7" spans="4:12">
       <c r="D7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="E7" t="s">
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="G7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="H7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="J7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="K7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="L7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="6:11">
       <c r="F8" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="H8" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="I8" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="J8" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="K8" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="9" spans="6:12">
       <c r="F9" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9" t="s">
+        <v>195</v>
+      </c>
+      <c r="I9" t="s">
+        <v>196</v>
+      </c>
+      <c r="J9" t="s">
         <v>192</v>
       </c>
-      <c r="I9" t="s">
-        <v>193</v>
-      </c>
-      <c r="J9" t="s">
-        <v>189</v>
-      </c>
       <c r="K9" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -6637,7 +6795,7 @@
   <sheetData>
     <row r="7" spans="4:9">
       <c r="D7" s="2" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>1</v>
@@ -6649,147 +6807,147 @@
         <v>6</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8" spans="4:9">
       <c r="D8" s="2"/>
       <c r="E8" s="1" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
     <row r="9" spans="5:9">
       <c r="E9" s="1" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
     </row>
     <row r="10" spans="5:9">
       <c r="E10" s="1" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="11" spans="5:9">
       <c r="E11" s="1" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="12" spans="5:9">
       <c r="E12" s="1" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
     </row>
     <row r="13" spans="5:9">
       <c r="E13" s="1" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
     </row>
     <row r="14" spans="5:9">
       <c r="E14" s="1" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
     </row>
     <row r="15" spans="5:9">
       <c r="E15" s="1" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="5:9">

--- a/src/main/resources/script/meta/micro-service-init-data.xlsx
+++ b/src/main/resources/script/meta/micro-service-init-data.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\RD\hrds-code-repo\src\main\resources\script\meta\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13200" tabRatio="845" firstSheet="4" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13206" tabRatio="845" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
@@ -23,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="989" uniqueCount="349">
   <si>
     <t>IAM_PERMISSION</t>
   </si>
@@ -150,7 +155,7 @@
         <sz val="10"/>
         <color theme="2" tint="-0.249977111117893"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>choerodon.</t>
     </r>
@@ -159,7 +164,7 @@
         <sz val="10"/>
         <color theme="2" tint="-0.249977111117893"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>route.organization.ps-view</t>
     </r>
@@ -176,7 +181,7 @@
         <sz val="10"/>
         <color theme="2" tint="-0.249977111117893"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>choerodon.</t>
     </r>
@@ -185,7 +190,7 @@
         <sz val="10"/>
         <color theme="2" tint="-0.249977111117893"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>route.organization.operation-logs</t>
     </r>
@@ -846,19 +851,317 @@
   </si>
   <si>
     <t>不通过</t>
+  </si>
+  <si>
+    <t>hrds-code-repo.rdm-repository-proj.listByActive</t>
+    <phoneticPr fontId="53" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.route.project.code-lib-management</t>
+    <phoneticPr fontId="53" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.route.project.code-lib-management</t>
+    <phoneticPr fontId="53" type="noConversion"/>
+  </si>
+  <si>
+    <t>hrds-code-repo.rdm-repository-proj.pageOverviewByOptions</t>
+    <phoneticPr fontId="53" type="noConversion"/>
+  </si>
+  <si>
+    <t>hrds-code-repo.rdm-operation-log-proj.pageByOptionsMemberLog</t>
+    <phoneticPr fontId="53" type="noConversion"/>
+  </si>
+  <si>
+    <t>hrds-code-repo.rdm-member.removeMember</t>
+    <phoneticPr fontId="53" type="noConversion"/>
+  </si>
+  <si>
+    <t>hrds-code-repo.rdm-member.updateMember</t>
+    <phoneticPr fontId="53" type="noConversion"/>
+  </si>
+  <si>
+    <t>hrds-code-repo.rdm-member.syncMember</t>
+    <phoneticPr fontId="53" type="noConversion"/>
+  </si>
+  <si>
+    <t>hrds-code-repo.rdm-member.syncMembersFromGitlab</t>
+    <phoneticPr fontId="53" type="noConversion"/>
+  </si>
+  <si>
+    <t>hrds-code-repo.org.listProjectsByUserId</t>
+    <phoneticPr fontId="53" type="noConversion"/>
+  </si>
+  <si>
+    <t>hrds-code-repo.rdm-branch.removeProtectedBranch</t>
+    <phoneticPr fontId="53" type="noConversion"/>
+  </si>
+  <si>
+    <t>hrds-code-repo.rdm-branch.createProtectedBranch</t>
+    <phoneticPr fontId="53" type="noConversion"/>
+  </si>
+  <si>
+    <t>hrds-code-repo.rdm-branch.getBranches</t>
+    <phoneticPr fontId="53" type="noConversion"/>
+  </si>
+  <si>
+    <t>hrds-code-repo.rdm-branch.getProtectedBranches</t>
+    <phoneticPr fontId="53" type="noConversion"/>
+  </si>
+  <si>
+    <t>hrds-code-repo.rdm-branch.updateProtectedBranch</t>
+    <phoneticPr fontId="53" type="noConversion"/>
+  </si>
+  <si>
+    <t>hrds-code-repo.rdm-tag.updateProtectedTag</t>
+    <phoneticPr fontId="53" type="noConversion"/>
+  </si>
+  <si>
+    <t>hrds-code-repo.rdm-tag.getProtectedTags</t>
+    <phoneticPr fontId="53" type="noConversion"/>
+  </si>
+  <si>
+    <t>hrds-code-repo.rdm-tag.createProtectedTag</t>
+    <phoneticPr fontId="53" type="noConversion"/>
+  </si>
+  <si>
+    <t>hrds-code-repo.rdm-tag.deleteProtectedTag</t>
+    <phoneticPr fontId="53" type="noConversion"/>
+  </si>
+  <si>
+    <t>hrds-code-repo.rdm-tag.getTags</t>
+    <phoneticPr fontId="53" type="noConversion"/>
+  </si>
+  <si>
+    <t>hrds-code-repo.rdm-member-proj.pageByOptions</t>
+    <phoneticPr fontId="53" type="noConversion"/>
+  </si>
+  <si>
+    <t>hrds-code-repo.rdm-member-proj.batchAddMembers</t>
+    <phoneticPr fontId="53" type="noConversion"/>
+  </si>
+  <si>
+    <t>hrds-code-repo.rdm-member-proj.export</t>
+    <phoneticPr fontId="53" type="noConversion"/>
+  </si>
+  <si>
+    <t>hrds-code-repo.rdm-member-org.export</t>
+    <phoneticPr fontId="53" type="noConversion"/>
+  </si>
+  <si>
+    <t>hrds-code-repo.rdm-operation-log-org.pageByOptionsMemberLog</t>
+    <phoneticPr fontId="53" type="noConversion"/>
+  </si>
+  <si>
+    <t>hrds-code-repo.rdm-member-org.pageByOptions</t>
+    <phoneticPr fontId="53" type="noConversion"/>
+  </si>
+  <si>
+    <t>hrds-code-repo.project.listDeveloperProjectMembers</t>
+    <phoneticPr fontId="53" type="noConversion"/>
+  </si>
+  <si>
+    <t>hrds-code-repo.rdm-user-site.queryUser</t>
+    <phoneticPr fontId="53" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.route.site.personal-setting</t>
+    <phoneticPr fontId="53" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.route.site.personal-setting</t>
+    <phoneticPr fontId="53" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.route.organization.code-lib-audit</t>
+    <phoneticPr fontId="53" type="noConversion"/>
+  </si>
+  <si>
+    <t>hrds-code-repo.rdm-user-site.createUser</t>
+    <phoneticPr fontId="53" type="noConversion"/>
+  </si>
+  <si>
+    <t>hrds-code-repo.rdm-member-applicant-proj.refuse</t>
+    <phoneticPr fontId="53" type="noConversion"/>
+  </si>
+  <si>
+    <t>hrds-code-repo.rdm-member-applicant-proj.create</t>
+    <phoneticPr fontId="53" type="noConversion"/>
+  </si>
+  <si>
+    <t>hrds-code-repo.rdm-member-applicant-proj.detectApplicantType</t>
+    <phoneticPr fontId="53" type="noConversion"/>
+  </si>
+  <si>
+    <t>hrds-code-repo.rdm-member-applicant-proj.passAndHandleMember</t>
+    <phoneticPr fontId="53" type="noConversion"/>
+  </si>
+  <si>
+    <t>hrds-code-repo.rdm-member-applicant-proj.list</t>
+    <phoneticPr fontId="53" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.route.project.code-lib-management</t>
+    <phoneticPr fontId="53" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.route.project.doc-lib-management</t>
+    <phoneticPr fontId="53" type="noConversion"/>
+  </si>
+  <si>
+    <t>hrds-doc-repo.doc-auth-export.projectExport</t>
+    <phoneticPr fontId="53" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.route.organization.doc-lib-audit</t>
+    <phoneticPr fontId="53" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.route.organization.doc-lib-audit</t>
+    <phoneticPr fontId="53" type="noConversion"/>
+  </si>
+  <si>
+    <t>hrds-doc-repo.doc-auth-export.orgExport</t>
+  </si>
+  <si>
+    <t>hrds-doc-repo.doc-client.syncMultiUser</t>
+  </si>
+  <si>
+    <t>hrds-doc-repo.doc-client.createRepo</t>
+  </si>
+  <si>
+    <t>hrds-doc-repo.doc-client.syncOneUser</t>
+  </si>
+  <si>
+    <t>hrds-doc-repo.doc-client.getProjectCatalog</t>
+  </si>
+  <si>
+    <t>hrds-doc-repo.doc-project.getProjectDetail</t>
+  </si>
+  <si>
+    <t>hrds-doc-repo.doc-project.create</t>
+  </si>
+  <si>
+    <t>hrds-doc-repo.doc-project.getUserList</t>
+  </si>
+  <si>
+    <t>hrds-doc-repo.doc-project.getProjectCatalog</t>
+  </si>
+  <si>
+    <t>hrds-doc-repo.doc-project.listProjectsWithLimit</t>
+  </si>
+  <si>
+    <t>hrds-doc-repo.doc-project.addDir</t>
+  </si>
+  <si>
+    <t>hrds-doc-repo.doc-project.deleteDir</t>
+  </si>
+  <si>
+    <t>hrds-doc-repo.doc-project.renameDir</t>
+  </si>
+  <si>
+    <t>hrds-doc-repo.doc-user.updatePwd</t>
+    <phoneticPr fontId="53" type="noConversion"/>
+  </si>
+  <si>
+    <t>hrds-doc-repo.doc-user.selectPwd</t>
+  </si>
+  <si>
+    <t>hrds-doc-repo.doc-user.syncUser</t>
+    <phoneticPr fontId="53" type="noConversion"/>
+  </si>
+  <si>
+    <t>hrds-doc-repo.doc-auth-audit.list</t>
+    <phoneticPr fontId="53" type="noConversion"/>
+  </si>
+  <si>
+    <t>hrds-doc-repo.doc-service-scan.scan</t>
+  </si>
+  <si>
+    <t>hrds-doc-repo.doc-service-scan.sumServiceScan</t>
+  </si>
+  <si>
+    <t>hrds-doc-repo.doc-person-process.getSolution</t>
+  </si>
+  <si>
+    <t>hrds-doc-repo.doc-person-process.list</t>
+  </si>
+  <si>
+    <t>hrds-doc-repo.doc-person-process.countByDate</t>
+  </si>
+  <si>
+    <t>hrds-doc-repo.doc-person-process.update</t>
+  </si>
+  <si>
+    <t>hrds-doc-repo.doc-person-process.getHttpdLog</t>
+  </si>
+  <si>
+    <t>hrds-doc-repo.doc-server-config.detail</t>
+  </si>
+  <si>
+    <t>hrds-doc-repo.doc-server-config.create</t>
+  </si>
+  <si>
+    <t>hrds-doc-repo.doc-server-config.update</t>
+  </si>
+  <si>
+    <t>hrds-doc-repo.doc-server-config.remove</t>
+  </si>
+  <si>
+    <t>hrds-doc-repo.doc-server-config.uploadPrivateKey</t>
+  </si>
+  <si>
+    <t>hrds-doc-repo.doc-server-config.check</t>
+  </si>
+  <si>
+    <t>hrds-doc-repo.doc-server-config.list</t>
+  </si>
+  <si>
+    <t>hrds-doc-repo.doc-server-config.getServerByProject</t>
+  </si>
+  <si>
+    <t>hrds-doc-repo.doc-server-config.deleteFile</t>
+  </si>
+  <si>
+    <t>hrds-doc-repo.doc-project-server.grantAuth</t>
+  </si>
+  <si>
+    <t>hrds-doc-repo.doc-project-server.list</t>
+  </si>
+  <si>
+    <t>hrds-doc-repo.doc-auth-log.listPro</t>
+  </si>
+  <si>
+    <t>hrds-doc-repo.doc-auth-log.listOrg</t>
+  </si>
+  <si>
+    <t>hrds-doc-repo.doc-auth-log.getChart</t>
+  </si>
+  <si>
+    <t>hrds-doc-repo.doc-user-auth.listPro</t>
+  </si>
+  <si>
+    <t>hrds-doc-repo.doc-user-auth.revokeOrgAuth</t>
+  </si>
+  <si>
+    <t>hrds-doc-repo.doc-user-auth.revokeAuth</t>
+  </si>
+  <si>
+    <t>hrds-doc-repo.doc-user-auth.updateAuth</t>
+  </si>
+  <si>
+    <t>hrds-doc-repo.doc-user-auth.assignAuth</t>
+  </si>
+  <si>
+    <t>hrds-doc-repo.doc-user-auth.listOrg</t>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="73">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="57">
     <font>
       <sz val="10"/>
       <name val="Droid Sans Fallback"/>
@@ -880,18 +1183,18 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="DejaVu Sans"/>
-      <charset val="134"/>
+      <family val="3"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF494949"/>
       <name val="Tahoma"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -908,7 +1211,7 @@
       <sz val="9"/>
       <color theme="2" tint="-0.249977111117893"/>
       <name val="Tahoma"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -920,7 +1223,7 @@
       <sz val="9"/>
       <color theme="4" tint="-0.249977111117893"/>
       <name val="Tahoma"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -936,7 +1239,7 @@
     <font>
       <sz val="10"/>
       <name val="DejaVu Sans"/>
-      <charset val="134"/>
+      <family val="3"/>
     </font>
     <font>
       <sz val="10"/>
@@ -951,7 +1254,7 @@
     </font>
     <font>
       <sz val="14"/>
-      <color theme="9" tint="0.399975585192419"/>
+      <color theme="9" tint="0.39994506668294322"/>
       <name val="Droid Sans Fallback"/>
       <charset val="134"/>
     </font>
@@ -963,7 +1266,7 @@
     </font>
     <font>
       <sz val="14"/>
-      <color theme="4" tint="0.399975585192419"/>
+      <color theme="4" tint="0.39994506668294322"/>
       <name val="Droid Sans Fallback"/>
       <charset val="134"/>
     </font>
@@ -1002,13 +1305,13 @@
     <font>
       <b/>
       <sz val="10"/>
-      <color theme="5" tint="0.399914548173467"/>
+      <color theme="5" tint="0.39988402966399123"/>
       <name val="Droid Sans Fallback"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
-      <color theme="5" tint="0.399914548173467"/>
+      <color theme="5" tint="0.39988402966399123"/>
       <name val="Droid Sans Fallback"/>
       <charset val="134"/>
     </font>
@@ -1029,6 +1332,7 @@
       <sz val="10"/>
       <color theme="2" tint="-0.249977111117893"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1043,6 +1347,7 @@
       <sz val="10"/>
       <color theme="2" tint="-0.249977111117893"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1062,12 +1367,14 @@
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="0" tint="-0.249977111117893"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1087,442 +1394,138 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="PingFang SC"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF5B9BD5"/>
       <name val="PingFang SC"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF5B9BD5"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="2" tint="-0.249977111117893"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFFC000"/>
       <name val="PingFang SC"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="13"/>
       <name val="PingFang SC"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF8F187C"/>
       <name val="PingFang SC"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF8F187C"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="13"/>
       <name val="Helvetica"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="2" tint="-0.249977111117893"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="0" tint="-0.249977111117893"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF00B0F0"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
+      <color theme="9" tint="0.39997558519241921"/>
+      <name val="Microsoft YaHei UI"/>
+      <family val="2"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="12"/>
+      <color theme="4" tint="0.39997558519241921"/>
+      <name val="Microsoft YaHei UI"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <sz val="12"/>
+      <color theme="5" tint="0.39997558519241921"/>
+      <name val="Microsoft YaHei UI"/>
+      <family val="2"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1545,253 +1548,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="68" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="71" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="56" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="56" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="72" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="56" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="56" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="3" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="56" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1862,62 +1623,22 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2175,19 +1896,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:Q57"/>
   <sheetViews>
-    <sheetView zoomScale="95" zoomScaleNormal="95" topLeftCell="E3" workbookViewId="0">
-      <selection activeCell="H39" sqref="H39"/>
+    <sheetView topLeftCell="E3" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.7"/>
   <cols>
     <col min="1" max="1" width="9.125" customWidth="1"/>
     <col min="2" max="2" width="9.625" customWidth="1"/>
@@ -2207,7 +1928,7 @@
     <col min="16" max="1025" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" ht="12.85" customHeight="1" spans="4:15">
+    <row r="7" spans="4:17" ht="12.85" customHeight="1">
       <c r="D7" s="18" t="s">
         <v>0</v>
       </c>
@@ -2245,7 +1966,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" s="39" customFormat="1" ht="14.4" spans="6:17">
+    <row r="8" spans="4:17" s="39" customFormat="1">
       <c r="F8" s="8" t="s">
         <v>12</v>
       </c>
@@ -2279,7 +2000,7 @@
       <c r="P8" s="8"/>
       <c r="Q8" s="8"/>
     </row>
-    <row r="9" s="39" customFormat="1" ht="14.4" spans="6:17">
+    <row r="9" spans="4:17" s="39" customFormat="1">
       <c r="F9" s="8" t="s">
         <v>18</v>
       </c>
@@ -2313,7 +2034,7 @@
       <c r="P9" s="8"/>
       <c r="Q9" s="8"/>
     </row>
-    <row r="10" s="39" customFormat="1" ht="14.4" spans="6:17">
+    <row r="10" spans="4:17" s="39" customFormat="1">
       <c r="F10" s="8" t="s">
         <v>21</v>
       </c>
@@ -2347,7 +2068,7 @@
       <c r="P10" s="8"/>
       <c r="Q10" s="8"/>
     </row>
-    <row r="11" s="39" customFormat="1" ht="14.4" spans="6:17">
+    <row r="11" spans="4:17" s="39" customFormat="1">
       <c r="F11" s="8" t="s">
         <v>24</v>
       </c>
@@ -2381,7 +2102,7 @@
       <c r="P11" s="8"/>
       <c r="Q11" s="8"/>
     </row>
-    <row r="12" s="39" customFormat="1" ht="14.4" spans="6:17">
+    <row r="12" spans="4:17" s="39" customFormat="1">
       <c r="F12" s="8" t="s">
         <v>28</v>
       </c>
@@ -2415,7 +2136,7 @@
       <c r="P12" s="8"/>
       <c r="Q12" s="8"/>
     </row>
-    <row r="13" s="39" customFormat="1" spans="6:17">
+    <row r="13" spans="4:17" s="39" customFormat="1">
       <c r="F13" s="8" t="s">
         <v>31</v>
       </c>
@@ -2449,7 +2170,7 @@
       <c r="P13" s="8"/>
       <c r="Q13" s="8"/>
     </row>
-    <row r="14" s="39" customFormat="1" ht="14.4" spans="6:17">
+    <row r="14" spans="4:17" s="39" customFormat="1">
       <c r="F14" s="8" t="s">
         <v>34</v>
       </c>
@@ -2483,7 +2204,7 @@
       <c r="P14" s="8"/>
       <c r="Q14" s="8"/>
     </row>
-    <row r="15" s="39" customFormat="1" ht="14.4" spans="6:17">
+    <row r="15" spans="4:17" s="39" customFormat="1">
       <c r="F15" s="8" t="s">
         <v>37</v>
       </c>
@@ -2517,7 +2238,7 @@
       <c r="P15" s="8"/>
       <c r="Q15" s="8"/>
     </row>
-    <row r="16" s="31" customFormat="1" spans="6:17">
+    <row r="16" spans="4:17" s="31" customFormat="1" ht="13">
       <c r="F16" s="58" t="s">
         <v>40</v>
       </c>
@@ -2551,7 +2272,7 @@
       <c r="P16" s="8"/>
       <c r="Q16" s="8"/>
     </row>
-    <row r="17" s="31" customFormat="1" spans="6:17">
+    <row r="17" spans="4:17" s="31" customFormat="1" ht="13">
       <c r="F17" s="58" t="s">
         <v>43</v>
       </c>
@@ -2585,10 +2306,10 @@
       <c r="P17" s="36"/>
       <c r="Q17" s="8"/>
     </row>
-    <row r="18" ht="14.4" spans="4:17">
+    <row r="18" spans="4:17">
       <c r="D18" s="17"/>
       <c r="F18" s="39" t="s">
-        <v>45</v>
+        <v>291</v>
       </c>
       <c r="G18" s="39" t="s">
         <v>13</v>
@@ -2618,7 +2339,7 @@
       <c r="P18" s="8"/>
       <c r="Q18" s="8"/>
     </row>
-    <row r="19" s="4" customFormat="1" ht="14.4" spans="6:17">
+    <row r="19" spans="4:17" s="4" customFormat="1">
       <c r="F19" s="12" t="s">
         <v>46</v>
       </c>
@@ -2652,7 +2373,7 @@
       <c r="P19" s="12"/>
       <c r="Q19" s="12"/>
     </row>
-    <row r="20" s="4" customFormat="1" ht="14.4" spans="6:17">
+    <row r="20" spans="4:17" s="4" customFormat="1">
       <c r="F20" s="12" t="s">
         <v>48</v>
       </c>
@@ -2686,9 +2407,9 @@
       <c r="P20" s="12"/>
       <c r="Q20" s="12"/>
     </row>
-    <row r="21" s="3" customFormat="1" ht="14.4" spans="6:17">
+    <row r="21" spans="4:17" s="3" customFormat="1" ht="12.35">
       <c r="F21" s="60" t="s">
-        <v>50</v>
+        <v>301</v>
       </c>
       <c r="G21" s="60" t="s">
         <v>51</v>
@@ -2718,7 +2439,7 @@
       <c r="P21" s="8"/>
       <c r="Q21" s="8"/>
     </row>
-    <row r="22" s="12" customFormat="1" ht="14.4" spans="6:15">
+    <row r="22" spans="4:17" s="12" customFormat="1" ht="12.35">
       <c r="F22" s="61" t="s">
         <v>53</v>
       </c>
@@ -2750,7 +2471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" s="12" customFormat="1" ht="14.4" spans="6:16">
+    <row r="23" spans="4:17" s="12" customFormat="1" ht="12.35">
       <c r="F23" s="61" t="s">
         <v>56</v>
       </c>
@@ -2783,9 +2504,9 @@
       </c>
       <c r="P23" s="33"/>
     </row>
-    <row r="24" s="3" customFormat="1" ht="14.4" spans="6:17">
+    <row r="24" spans="4:17" s="3" customFormat="1" ht="12.35">
       <c r="F24" s="60" t="s">
-        <v>59</v>
+        <v>264</v>
       </c>
       <c r="G24" s="60" t="s">
         <v>60</v>
@@ -2815,9 +2536,9 @@
       <c r="P24" s="52"/>
       <c r="Q24" s="8"/>
     </row>
-    <row r="25" s="3" customFormat="1" ht="14.4" spans="6:17">
+    <row r="25" spans="4:17" s="3" customFormat="1" ht="12.35">
       <c r="F25" s="7" t="s">
-        <v>62</v>
+        <v>303</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>63</v>
@@ -2847,10 +2568,10 @@
       <c r="P25" s="36"/>
       <c r="Q25" s="8"/>
     </row>
-    <row r="26" ht="14.4" spans="4:17">
+    <row r="26" spans="4:17" ht="12.35">
       <c r="D26" s="17"/>
       <c r="F26" s="7" t="s">
-        <v>65</v>
+        <v>293</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>66</v>
@@ -2879,7 +2600,7 @@
       <c r="P26" s="52"/>
       <c r="Q26" s="8"/>
     </row>
-    <row r="27" spans="6:17">
+    <row r="27" spans="4:17">
       <c r="F27" s="39"/>
       <c r="G27" s="39"/>
       <c r="H27" s="39"/>
@@ -2893,7 +2614,7 @@
       <c r="P27" s="39"/>
       <c r="Q27" s="39"/>
     </row>
-    <row r="28" spans="6:17">
+    <row r="28" spans="4:17">
       <c r="F28" s="39"/>
       <c r="G28" s="39"/>
       <c r="H28" s="39"/>
@@ -2907,7 +2628,7 @@
       <c r="P28" s="39"/>
       <c r="Q28" s="39"/>
     </row>
-    <row r="29" spans="6:17">
+    <row r="29" spans="4:17">
       <c r="F29" s="39"/>
       <c r="G29" s="39"/>
       <c r="H29" s="39"/>
@@ -2921,7 +2642,7 @@
       <c r="P29" s="39"/>
       <c r="Q29" s="39"/>
     </row>
-    <row r="30" spans="6:17">
+    <row r="30" spans="4:17">
       <c r="F30" s="40"/>
       <c r="G30" s="40"/>
       <c r="H30" s="40"/>
@@ -2935,7 +2656,7 @@
       <c r="P30" s="40"/>
       <c r="Q30" s="40"/>
     </row>
-    <row r="31" ht="14.4" spans="6:17">
+    <row r="31" spans="4:17">
       <c r="F31" s="41"/>
       <c r="G31" s="42"/>
       <c r="H31" s="41"/>
@@ -2949,7 +2670,7 @@
       <c r="P31" s="41"/>
       <c r="Q31" s="41"/>
     </row>
-    <row r="32" ht="14.4" spans="6:17">
+    <row r="32" spans="4:17">
       <c r="F32" s="41"/>
       <c r="G32" s="42"/>
       <c r="H32" s="41"/>
@@ -2963,7 +2684,7 @@
       <c r="P32" s="41"/>
       <c r="Q32" s="41"/>
     </row>
-    <row r="33" ht="14.4" spans="6:17">
+    <row r="33" spans="6:17">
       <c r="F33" s="41"/>
       <c r="G33" s="42"/>
       <c r="H33" s="41"/>
@@ -2977,7 +2698,7 @@
       <c r="P33" s="41"/>
       <c r="Q33" s="41"/>
     </row>
-    <row r="34" ht="14.4" spans="6:17">
+    <row r="34" spans="6:17">
       <c r="F34" s="41"/>
       <c r="G34" s="42"/>
       <c r="H34" s="41"/>
@@ -3005,7 +2726,7 @@
       <c r="P35" s="44"/>
       <c r="Q35" s="44"/>
     </row>
-    <row r="36" ht="14.4" spans="6:17">
+    <row r="36" spans="6:17">
       <c r="F36" s="45"/>
       <c r="G36" s="46"/>
       <c r="H36" s="45"/>
@@ -3019,7 +2740,7 @@
       <c r="P36" s="45"/>
       <c r="Q36" s="45"/>
     </row>
-    <row r="37" ht="14.4" spans="6:17">
+    <row r="37" spans="6:17">
       <c r="F37" s="45"/>
       <c r="G37" s="46"/>
       <c r="H37" s="45"/>
@@ -3033,7 +2754,7 @@
       <c r="P37" s="45"/>
       <c r="Q37" s="45"/>
     </row>
-    <row r="38" spans="6:14">
+    <row r="38" spans="6:17" ht="12.35">
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c r="H38" s="7"/>
@@ -3044,7 +2765,7 @@
       <c r="M38" s="7"/>
       <c r="N38" s="7"/>
     </row>
-    <row r="39" spans="6:14">
+    <row r="39" spans="6:17" ht="12.35">
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c r="H39" s="7"/>
@@ -3055,7 +2776,7 @@
       <c r="M39" s="7"/>
       <c r="N39" s="7"/>
     </row>
-    <row r="40" spans="6:14">
+    <row r="40" spans="6:17" ht="12.35">
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c r="H40" s="7"/>
@@ -3066,7 +2787,7 @@
       <c r="M40" s="7"/>
       <c r="N40" s="7"/>
     </row>
-    <row r="41" spans="6:14">
+    <row r="41" spans="6:17" ht="12.35">
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c r="H41" s="7"/>
@@ -3077,7 +2798,7 @@
       <c r="M41" s="7"/>
       <c r="N41" s="7"/>
     </row>
-    <row r="42" spans="6:14">
+    <row r="42" spans="6:17" ht="12.35">
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c r="H42" s="7"/>
@@ -3088,7 +2809,7 @@
       <c r="M42" s="7"/>
       <c r="N42" s="7"/>
     </row>
-    <row r="43" spans="6:14">
+    <row r="43" spans="6:17" ht="12.35">
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c r="H43" s="7"/>
@@ -3099,7 +2820,7 @@
       <c r="M43" s="7"/>
       <c r="N43" s="7"/>
     </row>
-    <row r="44" spans="6:14">
+    <row r="44" spans="6:17" ht="12.35">
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c r="H44" s="7"/>
@@ -3110,7 +2831,7 @@
       <c r="M44" s="7"/>
       <c r="N44" s="7"/>
     </row>
-    <row r="45" spans="6:14">
+    <row r="45" spans="6:17" ht="12.35">
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c r="H45" s="7"/>
@@ -3121,7 +2842,7 @@
       <c r="M45" s="7"/>
       <c r="N45" s="7"/>
     </row>
-    <row r="46" spans="6:14">
+    <row r="46" spans="6:17" ht="12.35">
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c r="H46" s="7"/>
@@ -3132,7 +2853,7 @@
       <c r="M46" s="7"/>
       <c r="N46" s="7"/>
     </row>
-    <row r="47" spans="6:14">
+    <row r="47" spans="6:17" ht="12.35">
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c r="H47" s="7"/>
@@ -3143,7 +2864,7 @@
       <c r="M47" s="7"/>
       <c r="N47" s="7"/>
     </row>
-    <row r="48" spans="6:14">
+    <row r="48" spans="6:17" ht="12.35">
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c r="H48" s="7"/>
@@ -3154,7 +2875,7 @@
       <c r="M48" s="7"/>
       <c r="N48" s="7"/>
     </row>
-    <row r="49" ht="14.4" spans="6:14">
+    <row r="49" spans="6:14" ht="12.35">
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c r="H49" s="7"/>
@@ -3165,7 +2886,7 @@
       <c r="M49" s="7"/>
       <c r="N49" s="7"/>
     </row>
-    <row r="50" spans="6:14">
+    <row r="50" spans="6:14" ht="12.35">
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c r="H50" s="7"/>
@@ -3176,7 +2897,7 @@
       <c r="M50" s="7"/>
       <c r="N50" s="7"/>
     </row>
-    <row r="51" spans="6:14">
+    <row r="51" spans="6:14" ht="12.35">
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c r="H51" s="7"/>
@@ -3187,7 +2908,7 @@
       <c r="M51" s="7"/>
       <c r="N51" s="7"/>
     </row>
-    <row r="52" spans="6:14">
+    <row r="52" spans="6:14" ht="12.35">
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c r="H52" s="7"/>
@@ -3198,7 +2919,7 @@
       <c r="M52" s="7"/>
       <c r="N52" s="7"/>
     </row>
-    <row r="53" spans="6:13">
+    <row r="53" spans="6:14" ht="12.35">
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c r="H53" s="7"/>
@@ -3208,7 +2929,7 @@
       <c r="L53" s="7"/>
       <c r="M53" s="7"/>
     </row>
-    <row r="54" s="34" customFormat="1" ht="14.4" spans="6:14">
+    <row r="54" spans="6:14" s="34" customFormat="1" ht="12.35">
       <c r="F54" s="60"/>
       <c r="G54" s="60"/>
       <c r="H54" s="60"/>
@@ -3219,7 +2940,7 @@
       <c r="M54" s="60"/>
       <c r="N54" s="60"/>
     </row>
-    <row r="55" s="34" customFormat="1" ht="14.4" spans="6:14">
+    <row r="55" spans="6:14" s="34" customFormat="1" ht="12.35">
       <c r="F55" s="60"/>
       <c r="G55" s="60"/>
       <c r="H55" s="60"/>
@@ -3230,7 +2951,7 @@
       <c r="M55" s="60"/>
       <c r="N55" s="60"/>
     </row>
-    <row r="56" s="34" customFormat="1" ht="14.4" spans="6:14">
+    <row r="56" spans="6:14" s="34" customFormat="1" ht="12.35">
       <c r="F56" s="60"/>
       <c r="G56" s="60"/>
       <c r="H56" s="60"/>
@@ -3241,7 +2962,7 @@
       <c r="M56" s="60"/>
       <c r="N56" s="60"/>
     </row>
-    <row r="57" s="34" customFormat="1" ht="14.4" spans="6:14">
+    <row r="57" spans="6:14" s="34" customFormat="1" ht="12.35">
       <c r="F57" s="60"/>
       <c r="G57" s="60"/>
       <c r="H57" s="60"/>
@@ -3253,8 +2974,9 @@
       <c r="N57" s="60"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="53" type="noConversion"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,常规"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,常规"&amp;12 Page &amp;P</oddFooter>
@@ -3263,15 +2985,14 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:J37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G3" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView topLeftCell="G3" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="11.7"/>
   <cols>
     <col min="4" max="4" width="22.125" customWidth="1"/>
     <col min="5" max="5" width="13.375" customWidth="1"/>
@@ -3284,7 +3005,7 @@
     <col min="13" max="13" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:10">
+    <row r="7" spans="4:10" ht="15.6">
       <c r="D7" s="1" t="s">
         <v>217</v>
       </c>
@@ -3307,7 +3028,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="8" spans="4:10">
+    <row r="8" spans="4:10" ht="15.6">
       <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
         <v>219</v>
@@ -3328,7 +3049,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="9" spans="4:10">
+    <row r="9" spans="4:10" ht="15.6">
       <c r="D9" s="1"/>
       <c r="E9" s="1" t="s">
         <v>221</v>
@@ -3349,7 +3070,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="10" spans="4:10">
+    <row r="10" spans="4:10" ht="15.6">
       <c r="D10" s="1"/>
       <c r="E10" s="1" t="s">
         <v>223</v>
@@ -3370,7 +3091,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="11" spans="4:10">
+    <row r="11" spans="4:10" ht="15.6">
       <c r="D11" s="1"/>
       <c r="E11" s="1" t="s">
         <v>225</v>
@@ -3391,7 +3112,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="12" spans="4:10">
+    <row r="12" spans="4:10" ht="15.6">
       <c r="D12" s="1"/>
       <c r="E12" s="1" t="s">
         <v>227</v>
@@ -3412,7 +3133,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="13" spans="4:10">
+    <row r="13" spans="4:10" ht="15.6">
       <c r="D13" s="1"/>
       <c r="E13" s="1" t="s">
         <v>229</v>
@@ -3433,7 +3154,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="14" spans="4:10">
+    <row r="14" spans="4:10" ht="15.6">
       <c r="D14" s="1"/>
       <c r="E14" s="1" t="s">
         <v>231</v>
@@ -3454,7 +3175,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="15" spans="4:10">
+    <row r="15" spans="4:10" ht="15.6">
       <c r="D15" s="1"/>
       <c r="E15" s="1" t="s">
         <v>233</v>
@@ -3475,7 +3196,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="16" spans="4:10">
+    <row r="16" spans="4:10" ht="15.6">
       <c r="D16" s="1"/>
       <c r="E16" s="1" t="s">
         <v>235</v>
@@ -3496,7 +3217,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="17" spans="4:10">
+    <row r="17" spans="4:10" ht="15.6">
       <c r="D17" s="1"/>
       <c r="E17" s="1" t="s">
         <v>237</v>
@@ -3517,7 +3238,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="18" spans="4:10">
+    <row r="18" spans="4:10" ht="15.6">
       <c r="D18" s="1"/>
       <c r="E18" s="1" t="s">
         <v>223</v>
@@ -3538,7 +3259,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="19" spans="4:10">
+    <row r="19" spans="4:10" ht="15.6">
       <c r="D19" s="1"/>
       <c r="E19" s="1" t="s">
         <v>225</v>
@@ -3559,7 +3280,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="20" spans="4:10">
+    <row r="20" spans="4:10" ht="15.6">
       <c r="D20" s="1"/>
       <c r="E20" s="1" t="s">
         <v>237</v>
@@ -3580,7 +3301,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="21" spans="4:10">
+    <row r="21" spans="4:10" ht="15.6">
       <c r="D21" s="1"/>
       <c r="E21" s="1" t="s">
         <v>223</v>
@@ -3601,7 +3322,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="22" spans="4:10">
+    <row r="22" spans="4:10" ht="15.6">
       <c r="D22" s="1"/>
       <c r="E22" s="1" t="s">
         <v>225</v>
@@ -3622,7 +3343,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="23" spans="4:10">
+    <row r="23" spans="4:10" ht="15.6">
       <c r="D23" s="1"/>
       <c r="E23" s="1" t="s">
         <v>241</v>
@@ -3643,7 +3364,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="24" spans="5:10">
+    <row r="24" spans="4:10" ht="15.6">
       <c r="E24" s="1" t="s">
         <v>243</v>
       </c>
@@ -3663,7 +3384,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="25" spans="5:10">
+    <row r="25" spans="4:10" ht="15.6">
       <c r="E25" s="1" t="s">
         <v>245</v>
       </c>
@@ -3683,7 +3404,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="26" spans="5:10">
+    <row r="26" spans="4:10" ht="15.6">
       <c r="E26" s="1" t="s">
         <v>247</v>
       </c>
@@ -3703,7 +3424,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="27" spans="5:10">
+    <row r="27" spans="4:10" ht="15.6">
       <c r="E27" s="1" t="s">
         <v>249</v>
       </c>
@@ -3723,7 +3444,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="28" spans="5:10">
+    <row r="28" spans="4:10" ht="15.6">
       <c r="E28" s="1" t="s">
         <v>251</v>
       </c>
@@ -3743,7 +3464,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="29" spans="5:10">
+    <row r="29" spans="4:10" ht="15.6">
       <c r="E29" s="1" t="s">
         <v>253</v>
       </c>
@@ -3763,7 +3484,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="30" spans="5:10">
+    <row r="30" spans="4:10" ht="15.6">
       <c r="E30" s="1" t="s">
         <v>255</v>
       </c>
@@ -3783,7 +3504,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="31" spans="5:10">
+    <row r="31" spans="4:10" ht="15.6">
       <c r="E31" s="1" t="s">
         <v>257</v>
       </c>
@@ -3803,7 +3524,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="32" spans="5:10">
+    <row r="32" spans="4:10" ht="15.6">
       <c r="E32" s="1" t="s">
         <v>259</v>
       </c>
@@ -3823,7 +3544,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="33" spans="5:10">
+    <row r="33" spans="5:10" ht="15.6">
       <c r="E33" s="1" t="s">
         <v>261</v>
       </c>
@@ -3843,7 +3564,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="34" spans="5:10">
+    <row r="34" spans="5:10" ht="15.6">
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
@@ -3851,7 +3572,7 @@
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
     </row>
-    <row r="35" spans="5:10">
+    <row r="35" spans="5:10" ht="15.6">
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
@@ -3859,7 +3580,7 @@
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
     </row>
-    <row r="36" spans="5:10">
+    <row r="36" spans="5:10" ht="15.6">
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
@@ -3867,7 +3588,7 @@
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
     </row>
-    <row r="37" spans="5:10">
+    <row r="37" spans="5:10" ht="15.6">
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
@@ -3876,22 +3597,21 @@
       <c r="J37" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="53" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:Q84"/>
   <sheetViews>
-    <sheetView zoomScale="86" zoomScaleNormal="86" topLeftCell="A5" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
       <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.7"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="6" customWidth="1"/>
@@ -3913,7 +3633,7 @@
     <col min="18" max="1025" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" ht="12.85" customHeight="1" spans="4:17">
+    <row r="7" spans="4:17" ht="12.85" customHeight="1">
       <c r="D7" s="18" t="s">
         <v>68</v>
       </c>
@@ -3957,7 +3677,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" s="3" customFormat="1" ht="13.95" customHeight="1" spans="6:17">
+    <row r="8" spans="4:17" s="3" customFormat="1" ht="13.95" customHeight="1">
       <c r="F8" s="8" t="s">
         <v>78</v>
       </c>
@@ -3993,7 +3713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" s="3" customFormat="1" ht="13.95" customHeight="1" spans="6:17">
+    <row r="9" spans="4:17" s="3" customFormat="1" ht="13.95" customHeight="1">
       <c r="F9" s="8" t="s">
         <v>84</v>
       </c>
@@ -4029,7 +3749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" s="3" customFormat="1" spans="6:17">
+    <row r="10" spans="4:17" s="3" customFormat="1">
       <c r="F10" s="8" t="s">
         <v>88</v>
       </c>
@@ -4065,7 +3785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" s="26" customFormat="1" spans="6:17">
+    <row r="11" spans="4:17" s="26" customFormat="1">
       <c r="F11" s="8" t="s">
         <v>92</v>
       </c>
@@ -4101,7 +3821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" s="27" customFormat="1" spans="6:17">
+    <row r="12" spans="4:17" s="27" customFormat="1">
       <c r="F12" s="8" t="s">
         <v>97</v>
       </c>
@@ -4137,7 +3857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" s="27" customFormat="1" ht="14.4" spans="6:17">
+    <row r="13" spans="4:17" s="27" customFormat="1">
       <c r="F13" s="8" t="s">
         <v>100</v>
       </c>
@@ -4173,7 +3893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" s="27" customFormat="1" spans="6:17">
+    <row r="14" spans="4:17" s="27" customFormat="1">
       <c r="F14" s="8" t="s">
         <v>78</v>
       </c>
@@ -4209,7 +3929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" s="27" customFormat="1" spans="6:17">
+    <row r="15" spans="4:17" s="27" customFormat="1">
       <c r="F15" s="8" t="s">
         <v>84</v>
       </c>
@@ -4245,7 +3965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" s="3" customFormat="1" spans="6:17">
+    <row r="16" spans="4:17" s="3" customFormat="1">
       <c r="F16" s="8" t="s">
         <v>88</v>
       </c>
@@ -4281,7 +4001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" s="28" customFormat="1" spans="6:17">
+    <row r="17" spans="6:17" s="28" customFormat="1">
       <c r="F17" s="36" t="s">
         <v>105</v>
       </c>
@@ -4315,7 +4035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" s="29" customFormat="1" spans="6:17">
+    <row r="18" spans="6:17" s="29" customFormat="1">
       <c r="F18" s="8" t="s">
         <v>92</v>
       </c>
@@ -4351,7 +4071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" s="30" customFormat="1" spans="6:17">
+    <row r="19" spans="6:17" s="30" customFormat="1">
       <c r="F19" s="8" t="s">
         <v>97</v>
       </c>
@@ -4387,7 +4107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" s="31" customFormat="1" spans="6:17">
+    <row r="20" spans="6:17" s="31" customFormat="1">
       <c r="F20" s="8" t="s">
         <v>110</v>
       </c>
@@ -4423,7 +4143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" s="32" customFormat="1" spans="6:17">
+    <row r="21" spans="6:17" s="32" customFormat="1">
       <c r="F21" s="8" t="s">
         <v>113</v>
       </c>
@@ -4459,7 +4179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" s="3" customFormat="1" ht="14.4" spans="6:17">
+    <row r="22" spans="6:17" s="3" customFormat="1">
       <c r="F22" s="8" t="s">
         <v>100</v>
       </c>
@@ -4495,7 +4215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" ht="14.4" spans="6:17">
+    <row r="23" spans="6:17">
       <c r="F23" s="36" t="s">
         <v>116</v>
       </c>
@@ -4529,7 +4249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" ht="15.2" spans="6:17">
+    <row r="24" spans="6:17" ht="13">
       <c r="F24" s="38" t="s">
         <v>119</v>
       </c>
@@ -4565,7 +4285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" ht="14.4" spans="6:17">
+    <row r="25" spans="6:17">
       <c r="F25" s="36" t="s">
         <v>122</v>
       </c>
@@ -4599,7 +4319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" s="3" customFormat="1" ht="15.2" spans="6:17">
+    <row r="26" spans="6:17" s="3" customFormat="1" ht="13">
       <c r="F26" s="38" t="s">
         <v>125</v>
       </c>
@@ -4635,7 +4355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" s="3" customFormat="1" spans="6:17">
+    <row r="27" spans="6:17" s="3" customFormat="1">
       <c r="F27" s="39" t="s">
         <v>127</v>
       </c>
@@ -4669,7 +4389,7 @@
       <c r="P27" s="39"/>
       <c r="Q27" s="39"/>
     </row>
-    <row r="28" s="12" customFormat="1" spans="6:17">
+    <row r="28" spans="6:17" s="12" customFormat="1">
       <c r="F28" s="12" t="s">
         <v>129</v>
       </c>
@@ -4701,7 +4421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" s="12" customFormat="1" spans="6:17">
+    <row r="29" spans="6:17" s="12" customFormat="1">
       <c r="F29" s="12" t="s">
         <v>130</v>
       </c>
@@ -4733,7 +4453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" s="3" customFormat="1" spans="6:17">
+    <row r="30" spans="6:17" s="3" customFormat="1">
       <c r="F30" s="40" t="s">
         <v>131</v>
       </c>
@@ -4765,7 +4485,7 @@
       <c r="P30" s="40"/>
       <c r="Q30" s="40"/>
     </row>
-    <row r="31" s="3" customFormat="1" ht="14.4" spans="6:17">
+    <row r="31" spans="6:17" s="3" customFormat="1">
       <c r="F31" s="41" t="s">
         <v>135</v>
       </c>
@@ -4799,7 +4519,7 @@
       <c r="P31" s="41"/>
       <c r="Q31" s="41"/>
     </row>
-    <row r="32" s="12" customFormat="1" ht="14.4" spans="6:17">
+    <row r="32" spans="6:17" s="12" customFormat="1">
       <c r="F32" s="12" t="s">
         <v>139</v>
       </c>
@@ -4831,7 +4551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" s="4" customFormat="1" ht="14.4" spans="6:17">
+    <row r="33" spans="6:17" s="4" customFormat="1">
       <c r="F33" s="12" t="s">
         <v>142</v>
       </c>
@@ -4865,7 +4585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" ht="14.4" spans="6:17">
+    <row r="34" spans="6:17">
       <c r="F34" s="41" t="s">
         <v>145</v>
       </c>
@@ -4899,7 +4619,7 @@
       <c r="P34" s="41"/>
       <c r="Q34" s="41"/>
     </row>
-    <row r="35" s="33" customFormat="1" ht="14.15" customHeight="1" spans="6:17">
+    <row r="35" spans="6:17" s="33" customFormat="1" ht="14.15" customHeight="1">
       <c r="F35" s="33" t="s">
         <v>148</v>
       </c>
@@ -4931,7 +4651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" s="12" customFormat="1" ht="14.4" spans="6:17">
+    <row r="36" spans="6:17" s="12" customFormat="1">
       <c r="F36" s="12" t="s">
         <v>150</v>
       </c>
@@ -4966,7 +4686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" s="12" customFormat="1" ht="14.4" spans="6:17">
+    <row r="37" spans="6:17" s="12" customFormat="1">
       <c r="F37" s="12" t="s">
         <v>154</v>
       </c>
@@ -5033,7 +4753,7 @@
       <c r="P38" s="44"/>
       <c r="Q38" s="44"/>
     </row>
-    <row r="39" ht="14.4" spans="6:17">
+    <row r="39" spans="6:17">
       <c r="F39" s="45" t="s">
         <v>150</v>
       </c>
@@ -5067,7 +4787,7 @@
       <c r="P39" s="45"/>
       <c r="Q39" s="45"/>
     </row>
-    <row r="40" ht="14.4" spans="6:17">
+    <row r="40" spans="6:17">
       <c r="F40" s="45" t="s">
         <v>154</v>
       </c>
@@ -5101,7 +4821,7 @@
       <c r="P40" s="45"/>
       <c r="Q40" s="45"/>
     </row>
-    <row r="41" ht="17.6" spans="6:15">
+    <row r="41" spans="6:17" ht="16.25">
       <c r="F41" s="47"/>
       <c r="G41" s="47"/>
       <c r="H41" s="47"/>
@@ -5113,7 +4833,7 @@
       <c r="N41" s="47"/>
       <c r="O41" s="47"/>
     </row>
-    <row r="42" ht="17.6" spans="6:15">
+    <row r="42" spans="6:17" ht="16.25">
       <c r="F42" s="47"/>
       <c r="G42" s="47"/>
       <c r="H42" s="47"/>
@@ -5125,7 +4845,7 @@
       <c r="N42" s="47"/>
       <c r="O42" s="47"/>
     </row>
-    <row r="43" ht="17.6" spans="6:15">
+    <row r="43" spans="6:17" ht="16.25">
       <c r="F43" s="47"/>
       <c r="G43" s="47"/>
       <c r="H43" s="47"/>
@@ -5137,7 +4857,7 @@
       <c r="N43" s="47"/>
       <c r="O43" s="47"/>
     </row>
-    <row r="44" ht="17.6" spans="6:15">
+    <row r="44" spans="6:17" ht="16.25">
       <c r="F44" s="47"/>
       <c r="G44" s="47"/>
       <c r="H44" s="47"/>
@@ -5149,7 +4869,7 @@
       <c r="N44" s="47"/>
       <c r="O44" s="47"/>
     </row>
-    <row r="45" ht="17.6" spans="6:15">
+    <row r="45" spans="6:17" ht="16.25">
       <c r="F45" s="47"/>
       <c r="G45" s="47"/>
       <c r="H45" s="47"/>
@@ -5161,7 +4881,7 @@
       <c r="N45" s="47"/>
       <c r="O45" s="47"/>
     </row>
-    <row r="46" ht="17.6" spans="6:15">
+    <row r="46" spans="6:17" ht="16.25">
       <c r="F46" s="47"/>
       <c r="G46" s="47"/>
       <c r="H46" s="47"/>
@@ -5173,7 +4893,7 @@
       <c r="N46" s="47"/>
       <c r="O46" s="47"/>
     </row>
-    <row r="47" ht="17.6" spans="6:15">
+    <row r="47" spans="6:17" ht="16.25">
       <c r="F47" s="47"/>
       <c r="G47" s="47"/>
       <c r="H47" s="47"/>
@@ -5185,7 +4905,7 @@
       <c r="N47" s="47"/>
       <c r="O47" s="47"/>
     </row>
-    <row r="48" ht="17.6" spans="6:15">
+    <row r="48" spans="6:17" ht="16.25">
       <c r="F48" s="47"/>
       <c r="G48" s="47"/>
       <c r="H48" s="47"/>
@@ -5197,7 +4917,7 @@
       <c r="N48" s="47"/>
       <c r="O48" s="47"/>
     </row>
-    <row r="49" ht="17.6" spans="6:15">
+    <row r="49" spans="6:15" ht="16.25">
       <c r="F49" s="47"/>
       <c r="G49" s="47"/>
       <c r="H49" s="47"/>
@@ -5209,7 +4929,7 @@
       <c r="N49" s="47"/>
       <c r="O49" s="47"/>
     </row>
-    <row r="50" ht="17.6" spans="6:15">
+    <row r="50" spans="6:15" ht="16.899999999999999">
       <c r="F50" s="47"/>
       <c r="G50" s="48"/>
       <c r="H50" s="47"/>
@@ -5221,7 +4941,7 @@
       <c r="N50" s="47"/>
       <c r="O50" s="47"/>
     </row>
-    <row r="51" ht="17.6" spans="6:15">
+    <row r="51" spans="6:15" ht="16.25">
       <c r="F51" s="49"/>
       <c r="G51" s="49"/>
       <c r="H51" s="49"/>
@@ -5233,7 +4953,7 @@
       <c r="N51" s="49"/>
       <c r="O51" s="49"/>
     </row>
-    <row r="52" ht="17.6" spans="6:15">
+    <row r="52" spans="6:15" ht="16.25">
       <c r="F52" s="49"/>
       <c r="G52" s="49"/>
       <c r="H52" s="49"/>
@@ -5245,7 +4965,7 @@
       <c r="N52" s="49"/>
       <c r="O52" s="49"/>
     </row>
-    <row r="53" ht="17.6" spans="6:15">
+    <row r="53" spans="6:15" ht="16.25">
       <c r="F53" s="49"/>
       <c r="G53" s="49"/>
       <c r="H53" s="49"/>
@@ -5257,7 +4977,7 @@
       <c r="N53" s="49"/>
       <c r="O53" s="49"/>
     </row>
-    <row r="54" ht="17.6" spans="6:15">
+    <row r="54" spans="6:15" ht="16.899999999999999">
       <c r="F54" s="49"/>
       <c r="G54" s="50"/>
       <c r="H54" s="49"/>
@@ -5269,7 +4989,7 @@
       <c r="N54" s="49"/>
       <c r="O54" s="49"/>
     </row>
-    <row r="55" ht="17.6" spans="6:15">
+    <row r="55" spans="6:15" ht="16.25">
       <c r="F55" s="49"/>
       <c r="G55" s="49"/>
       <c r="H55" s="49"/>
@@ -5281,7 +5001,7 @@
       <c r="N55" s="49"/>
       <c r="O55" s="49"/>
     </row>
-    <row r="56" ht="17.6" spans="6:15">
+    <row r="56" spans="6:15" ht="16.899999999999999">
       <c r="F56" s="49"/>
       <c r="G56" s="50"/>
       <c r="H56" s="49"/>
@@ -5293,7 +5013,7 @@
       <c r="N56" s="49"/>
       <c r="O56" s="49"/>
     </row>
-    <row r="57" ht="17.6" spans="6:15">
+    <row r="57" spans="6:15" ht="16.25">
       <c r="F57" s="49"/>
       <c r="G57" s="49"/>
       <c r="H57" s="49"/>
@@ -5305,7 +5025,7 @@
       <c r="N57" s="49"/>
       <c r="O57" s="49"/>
     </row>
-    <row r="58" ht="17.6" spans="6:15">
+    <row r="58" spans="6:15" ht="16.25">
       <c r="F58" s="49"/>
       <c r="G58" s="49"/>
       <c r="H58" s="49"/>
@@ -5317,7 +5037,7 @@
       <c r="N58" s="49"/>
       <c r="O58" s="49"/>
     </row>
-    <row r="59" ht="17.6" spans="6:15">
+    <row r="59" spans="6:15" ht="16.899999999999999">
       <c r="F59" s="49"/>
       <c r="G59" s="50"/>
       <c r="H59" s="49"/>
@@ -5329,7 +5049,7 @@
       <c r="N59" s="49"/>
       <c r="O59" s="49"/>
     </row>
-    <row r="60" ht="17.6" spans="6:15">
+    <row r="60" spans="6:15" ht="16.25">
       <c r="F60" s="49"/>
       <c r="G60" s="49"/>
       <c r="H60" s="49"/>
@@ -5341,7 +5061,7 @@
       <c r="N60" s="49"/>
       <c r="O60" s="49"/>
     </row>
-    <row r="61" ht="17.6" spans="6:15">
+    <row r="61" spans="6:15" ht="16.25">
       <c r="F61" s="49"/>
       <c r="G61" s="49"/>
       <c r="H61" s="49"/>
@@ -5353,7 +5073,7 @@
       <c r="N61" s="49"/>
       <c r="O61" s="49"/>
     </row>
-    <row r="62" ht="17.6" spans="6:15">
+    <row r="62" spans="6:15" ht="16.25">
       <c r="F62" s="49"/>
       <c r="G62" s="49"/>
       <c r="H62" s="49"/>
@@ -5365,7 +5085,7 @@
       <c r="N62" s="49"/>
       <c r="O62" s="49"/>
     </row>
-    <row r="63" ht="17.6" spans="6:15">
+    <row r="63" spans="6:15" ht="16.25">
       <c r="F63" s="49"/>
       <c r="G63" s="49"/>
       <c r="H63" s="49"/>
@@ -5377,7 +5097,7 @@
       <c r="N63" s="49"/>
       <c r="O63" s="49"/>
     </row>
-    <row r="64" ht="17.6" spans="6:15">
+    <row r="64" spans="6:15" ht="16.25">
       <c r="F64" s="49"/>
       <c r="G64" s="49"/>
       <c r="H64" s="49"/>
@@ -5389,7 +5109,7 @@
       <c r="N64" s="49"/>
       <c r="O64" s="49"/>
     </row>
-    <row r="65" ht="17.6" spans="6:15">
+    <row r="65" spans="6:15" ht="16.25">
       <c r="F65" s="53"/>
       <c r="G65" s="53"/>
       <c r="H65" s="53"/>
@@ -5401,7 +5121,7 @@
       <c r="N65" s="53"/>
       <c r="O65" s="53"/>
     </row>
-    <row r="66" ht="17.6" spans="6:15">
+    <row r="66" spans="6:15" ht="16.25">
       <c r="F66" s="53"/>
       <c r="G66" s="53"/>
       <c r="H66" s="53"/>
@@ -5413,7 +5133,7 @@
       <c r="N66" s="53"/>
       <c r="O66" s="53"/>
     </row>
-    <row r="67" ht="17.6" spans="6:15">
+    <row r="67" spans="6:15" ht="16.25">
       <c r="F67" s="53"/>
       <c r="G67" s="53"/>
       <c r="H67" s="53"/>
@@ -5425,7 +5145,7 @@
       <c r="N67" s="53"/>
       <c r="O67" s="53"/>
     </row>
-    <row r="68" ht="17.6" spans="6:15">
+    <row r="68" spans="6:15" ht="16.25">
       <c r="F68" s="53"/>
       <c r="G68" s="53"/>
       <c r="H68" s="53"/>
@@ -5437,7 +5157,7 @@
       <c r="N68" s="53"/>
       <c r="O68" s="53"/>
     </row>
-    <row r="69" ht="19.2" spans="6:15">
+    <row r="69" spans="6:15" ht="16.899999999999999">
       <c r="F69" s="54"/>
       <c r="G69" s="54"/>
       <c r="H69" s="54"/>
@@ -5449,7 +5169,7 @@
       <c r="N69" s="57"/>
       <c r="O69" s="54"/>
     </row>
-    <row r="70" ht="19.2" spans="6:15">
+    <row r="70" spans="6:15" ht="16.899999999999999">
       <c r="F70" s="54"/>
       <c r="G70" s="54"/>
       <c r="H70" s="54"/>
@@ -5461,7 +5181,7 @@
       <c r="N70" s="57"/>
       <c r="O70" s="54"/>
     </row>
-    <row r="71" ht="19.2" spans="6:15">
+    <row r="71" spans="6:15" ht="16.899999999999999">
       <c r="F71" s="54"/>
       <c r="G71" s="54"/>
       <c r="H71" s="54"/>
@@ -5473,7 +5193,7 @@
       <c r="N71" s="54"/>
       <c r="O71" s="54"/>
     </row>
-    <row r="72" s="34" customFormat="1" ht="17.6" spans="6:15">
+    <row r="72" spans="6:15" s="34" customFormat="1" ht="16.899999999999999">
       <c r="F72" s="47"/>
       <c r="G72" s="48"/>
       <c r="H72" s="47"/>
@@ -5485,7 +5205,7 @@
       <c r="N72" s="47"/>
       <c r="O72" s="47"/>
     </row>
-    <row r="73" s="34" customFormat="1" ht="17.6" spans="6:15">
+    <row r="73" spans="6:15" s="34" customFormat="1" ht="16.899999999999999">
       <c r="F73" s="47"/>
       <c r="G73" s="48"/>
       <c r="H73" s="47"/>
@@ -5497,7 +5217,7 @@
       <c r="N73" s="47"/>
       <c r="O73" s="47"/>
     </row>
-    <row r="74" s="34" customFormat="1" ht="17.6" spans="6:15">
+    <row r="74" spans="6:15" s="34" customFormat="1" ht="16.899999999999999">
       <c r="F74" s="47"/>
       <c r="G74" s="48"/>
       <c r="H74" s="47"/>
@@ -5509,7 +5229,7 @@
       <c r="N74" s="47"/>
       <c r="O74" s="47"/>
     </row>
-    <row r="75" s="34" customFormat="1" ht="17.6" spans="6:15">
+    <row r="75" spans="6:15" s="34" customFormat="1" ht="16.899999999999999">
       <c r="F75" s="47"/>
       <c r="G75" s="48"/>
       <c r="H75" s="47"/>
@@ -5521,7 +5241,7 @@
       <c r="N75" s="47"/>
       <c r="O75" s="47"/>
     </row>
-    <row r="76" s="34" customFormat="1" ht="17.6" spans="6:15">
+    <row r="76" spans="6:15" s="34" customFormat="1" ht="16.899999999999999">
       <c r="F76" s="47"/>
       <c r="G76" s="48"/>
       <c r="H76" s="47"/>
@@ -5533,7 +5253,7 @@
       <c r="N76" s="47"/>
       <c r="O76" s="47"/>
     </row>
-    <row r="77" s="34" customFormat="1" ht="17.6" spans="6:15">
+    <row r="77" spans="6:15" s="34" customFormat="1" ht="16.899999999999999">
       <c r="F77" s="47"/>
       <c r="G77" s="48"/>
       <c r="H77" s="47"/>
@@ -5545,7 +5265,7 @@
       <c r="N77" s="47"/>
       <c r="O77" s="47"/>
     </row>
-    <row r="78" ht="17.6" spans="6:15">
+    <row r="78" spans="6:15" ht="16.25">
       <c r="F78" s="55"/>
       <c r="G78" s="55"/>
       <c r="H78" s="55"/>
@@ -5557,7 +5277,7 @@
       <c r="N78" s="55"/>
       <c r="O78" s="55"/>
     </row>
-    <row r="79" ht="17.6" spans="6:15">
+    <row r="79" spans="6:15" ht="16.25">
       <c r="F79" s="55"/>
       <c r="G79" s="55"/>
       <c r="H79" s="55"/>
@@ -5569,7 +5289,7 @@
       <c r="N79" s="55"/>
       <c r="O79" s="55"/>
     </row>
-    <row r="80" ht="17.6" spans="6:15">
+    <row r="80" spans="6:15" ht="16.25">
       <c r="F80" s="55"/>
       <c r="G80" s="55"/>
       <c r="H80" s="55"/>
@@ -5581,7 +5301,7 @@
       <c r="N80" s="55"/>
       <c r="O80" s="55"/>
     </row>
-    <row r="81" ht="17.6" spans="6:15">
+    <row r="81" spans="6:15" ht="16.25">
       <c r="F81" s="55"/>
       <c r="G81" s="55"/>
       <c r="H81" s="55"/>
@@ -5593,7 +5313,7 @@
       <c r="N81" s="55"/>
       <c r="O81" s="55"/>
     </row>
-    <row r="82" ht="17.6" spans="6:15">
+    <row r="82" spans="6:15" ht="16.899999999999999">
       <c r="F82" s="55"/>
       <c r="G82" s="56"/>
       <c r="H82" s="55"/>
@@ -5605,7 +5325,7 @@
       <c r="N82" s="55"/>
       <c r="O82" s="55"/>
     </row>
-    <row r="83" ht="17.6" spans="6:15">
+    <row r="83" spans="6:15" ht="16.25">
       <c r="F83" s="55"/>
       <c r="G83" s="55"/>
       <c r="H83" s="55"/>
@@ -5615,7 +5335,7 @@
       <c r="M83" s="55"/>
       <c r="O83" s="55"/>
     </row>
-    <row r="84" ht="17.6" spans="6:15">
+    <row r="84" spans="6:15" ht="16.25">
       <c r="F84" s="55"/>
       <c r="G84" s="55"/>
       <c r="H84" s="55"/>
@@ -5628,8 +5348,9 @@
       <c r="O84" s="55"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="53" type="noConversion"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,常规"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,常规"&amp;12 Page &amp;P</oddFooter>
@@ -5638,15 +5359,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="D7:I7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D7:I87"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G186" sqref="F8:G186"/>
+    <sheetView tabSelected="1" topLeftCell="A66" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G95" sqref="G95"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.7"/>
   <cols>
     <col min="1" max="3" width="9" customWidth="1"/>
     <col min="4" max="4" width="23.875" customWidth="1"/>
@@ -5656,7 +5376,7 @@
     <col min="8" max="1025" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" ht="12.85" customHeight="1" spans="4:9">
+    <row r="7" spans="4:9" ht="12.85" customHeight="1">
       <c r="D7" s="18" t="s">
         <v>157</v>
       </c>
@@ -5676,9 +5396,890 @@
         <v>160</v>
       </c>
     </row>
+    <row r="8" spans="4:9" s="66" customFormat="1" ht="17.55">
+      <c r="F8" s="66" t="s">
+        <v>265</v>
+      </c>
+      <c r="G8" s="66" t="s">
+        <v>263</v>
+      </c>
+      <c r="I8" s="66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="4:9" s="66" customFormat="1" ht="17.55">
+      <c r="F9" s="66" t="s">
+        <v>265</v>
+      </c>
+      <c r="G9" s="66" t="s">
+        <v>266</v>
+      </c>
+      <c r="I9" s="66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="4:9" s="66" customFormat="1" ht="17.55">
+      <c r="F10" s="66" t="s">
+        <v>265</v>
+      </c>
+      <c r="G10" s="66" t="s">
+        <v>267</v>
+      </c>
+      <c r="I10" s="66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="4:9" s="66" customFormat="1" ht="17.55">
+      <c r="F11" s="66" t="s">
+        <v>265</v>
+      </c>
+      <c r="G11" s="66" t="s">
+        <v>271</v>
+      </c>
+      <c r="I11" s="66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="4:9" s="66" customFormat="1" ht="17.55">
+      <c r="F12" s="66" t="s">
+        <v>265</v>
+      </c>
+      <c r="G12" s="66" t="s">
+        <v>268</v>
+      </c>
+      <c r="I12" s="66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="4:9" s="66" customFormat="1" ht="17.55">
+      <c r="F13" s="66" t="s">
+        <v>265</v>
+      </c>
+      <c r="G13" s="66" t="s">
+        <v>269</v>
+      </c>
+      <c r="I13" s="66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="4:9" s="66" customFormat="1" ht="17.55">
+      <c r="F14" s="66" t="s">
+        <v>265</v>
+      </c>
+      <c r="G14" s="66" t="s">
+        <v>270</v>
+      </c>
+      <c r="I14" s="66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="4:9" s="66" customFormat="1" ht="17.55">
+      <c r="F15" s="66" t="s">
+        <v>265</v>
+      </c>
+      <c r="G15" s="66" t="s">
+        <v>273</v>
+      </c>
+      <c r="I15" s="66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="4:9" s="66" customFormat="1" ht="17.55">
+      <c r="F16" s="66" t="s">
+        <v>265</v>
+      </c>
+      <c r="G16" s="66" t="s">
+        <v>274</v>
+      </c>
+      <c r="I16" s="66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="6:9" s="66" customFormat="1" ht="17.55">
+      <c r="F17" s="66" t="s">
+        <v>265</v>
+      </c>
+      <c r="G17" s="66" t="s">
+        <v>275</v>
+      </c>
+      <c r="I17" s="66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="6:9" s="66" customFormat="1" ht="17.55">
+      <c r="F18" s="66" t="s">
+        <v>265</v>
+      </c>
+      <c r="G18" s="66" t="s">
+        <v>276</v>
+      </c>
+      <c r="I18" s="66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="6:9" s="66" customFormat="1" ht="17.55">
+      <c r="F19" s="66" t="s">
+        <v>265</v>
+      </c>
+      <c r="G19" s="66" t="s">
+        <v>277</v>
+      </c>
+      <c r="I19" s="66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="6:9" s="66" customFormat="1" ht="17.55">
+      <c r="F20" s="66" t="s">
+        <v>300</v>
+      </c>
+      <c r="G20" s="66" t="s">
+        <v>278</v>
+      </c>
+      <c r="I20" s="66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="6:9" s="66" customFormat="1" ht="17.55">
+      <c r="F21" s="66" t="s">
+        <v>265</v>
+      </c>
+      <c r="G21" s="66" t="s">
+        <v>279</v>
+      </c>
+      <c r="I21" s="66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="6:9" s="66" customFormat="1" ht="17.55">
+      <c r="F22" s="66" t="s">
+        <v>265</v>
+      </c>
+      <c r="G22" s="66" t="s">
+        <v>280</v>
+      </c>
+      <c r="I22" s="66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="6:9" s="66" customFormat="1" ht="17.55">
+      <c r="F23" s="66" t="s">
+        <v>265</v>
+      </c>
+      <c r="G23" s="66" t="s">
+        <v>281</v>
+      </c>
+      <c r="I23" s="66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="6:9" s="66" customFormat="1" ht="17.55">
+      <c r="F24" s="66" t="s">
+        <v>265</v>
+      </c>
+      <c r="G24" s="66" t="s">
+        <v>282</v>
+      </c>
+      <c r="I24" s="66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="6:9" s="66" customFormat="1" ht="17.55">
+      <c r="F25" s="66" t="s">
+        <v>265</v>
+      </c>
+      <c r="G25" s="66" t="s">
+        <v>283</v>
+      </c>
+      <c r="I25" s="66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="6:9" s="66" customFormat="1" ht="17.55">
+      <c r="F26" s="66" t="s">
+        <v>265</v>
+      </c>
+      <c r="G26" s="66" t="s">
+        <v>284</v>
+      </c>
+      <c r="I26" s="66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="6:9" s="66" customFormat="1" ht="17.55">
+      <c r="F27" s="66" t="s">
+        <v>265</v>
+      </c>
+      <c r="G27" s="66" t="s">
+        <v>285</v>
+      </c>
+      <c r="I27" s="66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="6:9" s="66" customFormat="1" ht="17.55">
+      <c r="F28" s="66" t="s">
+        <v>265</v>
+      </c>
+      <c r="G28" s="66" t="s">
+        <v>289</v>
+      </c>
+      <c r="I28" s="66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="6:9" ht="17.55">
+      <c r="F29" s="66" t="s">
+        <v>265</v>
+      </c>
+      <c r="G29" s="66" t="s">
+        <v>298</v>
+      </c>
+      <c r="I29" s="66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="6:9" ht="17.55">
+      <c r="F30" s="66" t="s">
+        <v>265</v>
+      </c>
+      <c r="G30" s="66" t="s">
+        <v>295</v>
+      </c>
+      <c r="I30" s="66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="6:9" ht="17.55">
+      <c r="F31" s="66" t="s">
+        <v>265</v>
+      </c>
+      <c r="G31" s="66" t="s">
+        <v>296</v>
+      </c>
+      <c r="I31" s="66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="6:9" ht="17.55">
+      <c r="F32" s="66" t="s">
+        <v>265</v>
+      </c>
+      <c r="G32" s="66" t="s">
+        <v>297</v>
+      </c>
+      <c r="I32" s="66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="6:9" ht="17.55">
+      <c r="F33" s="66" t="s">
+        <v>265</v>
+      </c>
+      <c r="G33" s="66" t="s">
+        <v>299</v>
+      </c>
+      <c r="I33" s="66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="6:9" ht="17.55">
+      <c r="F34" s="66" t="s">
+        <v>301</v>
+      </c>
+      <c r="G34" s="66" t="s">
+        <v>302</v>
+      </c>
+      <c r="I34" s="66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="6:9" ht="17.55">
+      <c r="F35" s="66" t="s">
+        <v>301</v>
+      </c>
+      <c r="G35" s="66" t="s">
+        <v>306</v>
+      </c>
+      <c r="I35" s="66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="6:9" ht="17.55">
+      <c r="F36" s="66" t="s">
+        <v>301</v>
+      </c>
+      <c r="G36" s="66" t="s">
+        <v>307</v>
+      </c>
+      <c r="I36" s="66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="6:9" ht="17.55">
+      <c r="F37" s="66" t="s">
+        <v>301</v>
+      </c>
+      <c r="G37" s="66" t="s">
+        <v>308</v>
+      </c>
+      <c r="I37" s="66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="6:9" ht="17.55">
+      <c r="F38" s="66" t="s">
+        <v>301</v>
+      </c>
+      <c r="G38" s="66" t="s">
+        <v>309</v>
+      </c>
+      <c r="I38" s="66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="6:9" ht="17.55">
+      <c r="F39" s="66" t="s">
+        <v>301</v>
+      </c>
+      <c r="G39" s="66" t="s">
+        <v>310</v>
+      </c>
+      <c r="I39" s="66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="6:9" ht="17.55">
+      <c r="F40" s="66" t="s">
+        <v>301</v>
+      </c>
+      <c r="G40" s="66" t="s">
+        <v>311</v>
+      </c>
+      <c r="I40" s="66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="6:9" ht="17.55">
+      <c r="F41" s="66" t="s">
+        <v>301</v>
+      </c>
+      <c r="G41" s="66" t="s">
+        <v>312</v>
+      </c>
+      <c r="I41" s="66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="6:9" ht="17.55">
+      <c r="F42" s="66" t="s">
+        <v>301</v>
+      </c>
+      <c r="G42" s="66" t="s">
+        <v>313</v>
+      </c>
+      <c r="I42" s="66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="6:9" ht="17.55">
+      <c r="F43" s="66" t="s">
+        <v>301</v>
+      </c>
+      <c r="G43" s="66" t="s">
+        <v>314</v>
+      </c>
+      <c r="I43" s="66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="6:9" ht="17.55">
+      <c r="F44" s="66" t="s">
+        <v>301</v>
+      </c>
+      <c r="G44" s="66" t="s">
+        <v>315</v>
+      </c>
+      <c r="I44" s="66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="6:9" ht="17.55">
+      <c r="F45" s="66" t="s">
+        <v>301</v>
+      </c>
+      <c r="G45" s="66" t="s">
+        <v>316</v>
+      </c>
+      <c r="I45" s="66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="6:9" ht="17.55">
+      <c r="F46" s="66" t="s">
+        <v>301</v>
+      </c>
+      <c r="G46" s="66" t="s">
+        <v>317</v>
+      </c>
+      <c r="I46" s="66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="6:9" ht="17.55">
+      <c r="F47" s="66" t="s">
+        <v>301</v>
+      </c>
+      <c r="G47" s="66" t="s">
+        <v>321</v>
+      </c>
+      <c r="I47" s="66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="6:9" ht="17.55">
+      <c r="F48" s="66" t="s">
+        <v>301</v>
+      </c>
+      <c r="G48" s="66" t="s">
+        <v>329</v>
+      </c>
+      <c r="I48" s="66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="6:9" ht="17.55">
+      <c r="F49" s="66" t="s">
+        <v>301</v>
+      </c>
+      <c r="G49" s="66" t="s">
+        <v>330</v>
+      </c>
+      <c r="I49" s="66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="6:9" ht="17.55">
+      <c r="F50" s="66" t="s">
+        <v>301</v>
+      </c>
+      <c r="G50" s="66" t="s">
+        <v>331</v>
+      </c>
+      <c r="I50" s="66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="6:9" ht="17.55">
+      <c r="F51" s="66" t="s">
+        <v>301</v>
+      </c>
+      <c r="G51" s="66" t="s">
+        <v>332</v>
+      </c>
+      <c r="I51" s="66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="6:9" ht="17.55">
+      <c r="F52" s="66" t="s">
+        <v>301</v>
+      </c>
+      <c r="G52" s="66" t="s">
+        <v>333</v>
+      </c>
+      <c r="I52" s="66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="6:9" ht="17.55">
+      <c r="F53" s="66" t="s">
+        <v>301</v>
+      </c>
+      <c r="G53" s="66" t="s">
+        <v>334</v>
+      </c>
+      <c r="I53" s="66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="6:9" ht="17.55">
+      <c r="F54" s="66" t="s">
+        <v>301</v>
+      </c>
+      <c r="G54" s="66" t="s">
+        <v>336</v>
+      </c>
+      <c r="I54" s="66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="6:9" ht="17.55">
+      <c r="F55" s="66" t="s">
+        <v>301</v>
+      </c>
+      <c r="G55" s="66" t="s">
+        <v>337</v>
+      </c>
+      <c r="I55" s="66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="6:9" ht="17.55">
+      <c r="F56" s="66" t="s">
+        <v>301</v>
+      </c>
+      <c r="G56" s="66" t="s">
+        <v>340</v>
+      </c>
+      <c r="I56" s="66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="6:9" ht="17.55">
+      <c r="F57" s="66" t="s">
+        <v>301</v>
+      </c>
+      <c r="G57" s="66" t="s">
+        <v>343</v>
+      </c>
+      <c r="I57" s="66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="6:9" ht="17.55">
+      <c r="F58" s="66" t="s">
+        <v>301</v>
+      </c>
+      <c r="G58" s="66" t="s">
+        <v>345</v>
+      </c>
+      <c r="I58" s="66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="6:9" ht="17.55">
+      <c r="F59" s="66" t="s">
+        <v>301</v>
+      </c>
+      <c r="G59" s="66" t="s">
+        <v>346</v>
+      </c>
+      <c r="I59" s="66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="6:9" ht="17.55">
+      <c r="F60" s="66" t="s">
+        <v>301</v>
+      </c>
+      <c r="G60" s="66" t="s">
+        <v>347</v>
+      </c>
+      <c r="I60" s="66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="6:9" s="67" customFormat="1" ht="17.55">
+      <c r="F61" s="67" t="s">
+        <v>293</v>
+      </c>
+      <c r="G61" s="67" t="s">
+        <v>272</v>
+      </c>
+      <c r="I61" s="67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="6:9" s="67" customFormat="1" ht="17.55">
+      <c r="F62" s="67" t="s">
+        <v>293</v>
+      </c>
+      <c r="G62" s="67" t="s">
+        <v>288</v>
+      </c>
+      <c r="I62" s="67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="6:9" s="67" customFormat="1" ht="17.55">
+      <c r="F63" s="67" t="s">
+        <v>293</v>
+      </c>
+      <c r="G63" s="67" t="s">
+        <v>286</v>
+      </c>
+      <c r="I63" s="67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="6:9" s="67" customFormat="1" ht="17.55">
+      <c r="F64" s="67" t="s">
+        <v>293</v>
+      </c>
+      <c r="G64" s="67" t="s">
+        <v>287</v>
+      </c>
+      <c r="I64" s="67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="6:9" s="67" customFormat="1" ht="17.55">
+      <c r="F65" s="67" t="s">
+        <v>304</v>
+      </c>
+      <c r="G65" s="67" t="s">
+        <v>305</v>
+      </c>
+      <c r="I65" s="67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="6:9" s="67" customFormat="1" ht="17.55">
+      <c r="F66" s="67" t="s">
+        <v>304</v>
+      </c>
+      <c r="G66" s="67" t="s">
+        <v>288</v>
+      </c>
+      <c r="I66" s="67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="6:9" s="67" customFormat="1" ht="17.55">
+      <c r="F67" s="67" t="s">
+        <v>304</v>
+      </c>
+      <c r="G67" s="67" t="s">
+        <v>286</v>
+      </c>
+      <c r="I67" s="67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="6:9" s="67" customFormat="1" ht="17.55">
+      <c r="F68" s="67" t="s">
+        <v>304</v>
+      </c>
+      <c r="G68" s="67" t="s">
+        <v>287</v>
+      </c>
+      <c r="I68" s="67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="6:9" s="67" customFormat="1" ht="17.55">
+      <c r="F69" s="67" t="s">
+        <v>304</v>
+      </c>
+      <c r="G69" s="67" t="s">
+        <v>322</v>
+      </c>
+      <c r="I69" s="67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="6:9" s="67" customFormat="1" ht="17.55">
+      <c r="F70" s="67" t="s">
+        <v>304</v>
+      </c>
+      <c r="G70" s="67" t="s">
+        <v>323</v>
+      </c>
+      <c r="I70" s="67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="6:9" s="69" customFormat="1" ht="17.55">
+      <c r="F71" s="67" t="s">
+        <v>304</v>
+      </c>
+      <c r="G71" s="69" t="s">
+        <v>324</v>
+      </c>
+      <c r="I71" s="67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="6:9" s="69" customFormat="1" ht="17.55">
+      <c r="F72" s="67" t="s">
+        <v>304</v>
+      </c>
+      <c r="G72" s="69" t="s">
+        <v>325</v>
+      </c>
+      <c r="I72" s="67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="6:9" s="69" customFormat="1" ht="17.55">
+      <c r="F73" s="67" t="s">
+        <v>304</v>
+      </c>
+      <c r="G73" s="69" t="s">
+        <v>326</v>
+      </c>
+      <c r="I73" s="67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="6:9" s="69" customFormat="1" ht="17.55">
+      <c r="F74" s="67" t="s">
+        <v>304</v>
+      </c>
+      <c r="G74" s="69" t="s">
+        <v>327</v>
+      </c>
+      <c r="I74" s="67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="6:9" s="69" customFormat="1" ht="17.55">
+      <c r="F75" s="67" t="s">
+        <v>304</v>
+      </c>
+      <c r="G75" s="69" t="s">
+        <v>328</v>
+      </c>
+      <c r="I75" s="67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="6:9" s="69" customFormat="1" ht="17.55">
+      <c r="F76" s="67" t="s">
+        <v>304</v>
+      </c>
+      <c r="G76" s="69" t="s">
+        <v>335</v>
+      </c>
+      <c r="I76" s="67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="6:9" s="69" customFormat="1" ht="17.55">
+      <c r="F77" s="67" t="s">
+        <v>304</v>
+      </c>
+      <c r="G77" s="69" t="s">
+        <v>338</v>
+      </c>
+      <c r="I77" s="67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="6:9" s="69" customFormat="1" ht="17.55">
+      <c r="F78" s="67" t="s">
+        <v>304</v>
+      </c>
+      <c r="G78" s="69" t="s">
+        <v>339</v>
+      </c>
+      <c r="I78" s="67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="6:9" s="69" customFormat="1" ht="17.55">
+      <c r="F79" s="67" t="s">
+        <v>304</v>
+      </c>
+      <c r="G79" s="69" t="s">
+        <v>341</v>
+      </c>
+      <c r="I79" s="67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="6:9" s="69" customFormat="1" ht="17.55">
+      <c r="F80" s="67" t="s">
+        <v>304</v>
+      </c>
+      <c r="G80" s="69" t="s">
+        <v>342</v>
+      </c>
+      <c r="I80" s="67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="6:9" s="69" customFormat="1" ht="17.55">
+      <c r="F81" s="67" t="s">
+        <v>304</v>
+      </c>
+      <c r="G81" s="69" t="s">
+        <v>344</v>
+      </c>
+      <c r="I81" s="67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="6:9" s="69" customFormat="1" ht="17.55">
+      <c r="F82" s="67" t="s">
+        <v>304</v>
+      </c>
+      <c r="G82" s="69" t="s">
+        <v>348</v>
+      </c>
+      <c r="I82" s="67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="6:9" s="68" customFormat="1" ht="17.55">
+      <c r="F83" s="68" t="s">
+        <v>292</v>
+      </c>
+      <c r="G83" s="68" t="s">
+        <v>290</v>
+      </c>
+      <c r="I83" s="68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="6:9" s="68" customFormat="1" ht="17.55">
+      <c r="F84" s="68" t="s">
+        <v>292</v>
+      </c>
+      <c r="G84" s="68" t="s">
+        <v>294</v>
+      </c>
+      <c r="I84" s="68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="6:9" s="68" customFormat="1" ht="17.55">
+      <c r="F85" s="68" t="s">
+        <v>292</v>
+      </c>
+      <c r="G85" s="68" t="s">
+        <v>318</v>
+      </c>
+      <c r="I85" s="68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="6:9" s="68" customFormat="1" ht="17.55">
+      <c r="F86" s="68" t="s">
+        <v>292</v>
+      </c>
+      <c r="G86" s="68" t="s">
+        <v>319</v>
+      </c>
+      <c r="I86" s="68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="6:9" s="68" customFormat="1" ht="17.55">
+      <c r="F87" s="68" t="s">
+        <v>292</v>
+      </c>
+      <c r="G87" s="68" t="s">
+        <v>320</v>
+      </c>
+      <c r="I87" s="68">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="53" type="noConversion"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,常规"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,常规"&amp;12 Page &amp;P</oddFooter>
@@ -5687,15 +6288,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:G43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.7"/>
   <cols>
     <col min="1" max="1" width="6.125" customWidth="1"/>
     <col min="2" max="2" width="5" customWidth="1"/>
@@ -5706,7 +6306,7 @@
     <col min="7" max="7" width="64.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" ht="15.2" spans="4:7">
+    <row r="7" spans="4:7" ht="13">
       <c r="D7" s="18" t="s">
         <v>161</v>
       </c>
@@ -5720,7 +6320,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="8" s="20" customFormat="1" ht="19.2" spans="4:7">
+    <row r="8" spans="4:7" s="20" customFormat="1" ht="18.2">
       <c r="D8" s="21"/>
       <c r="E8" s="21"/>
       <c r="F8" s="21" t="s">
@@ -5730,7 +6330,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" s="20" customFormat="1" ht="19.2" spans="4:7">
+    <row r="9" spans="4:7" s="20" customFormat="1" ht="18.2">
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
       <c r="F9" s="21" t="s">
@@ -5740,7 +6340,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" s="20" customFormat="1" ht="19.2" spans="4:7">
+    <row r="10" spans="4:7" s="20" customFormat="1" ht="18.2">
       <c r="D10" s="21"/>
       <c r="E10" s="21"/>
       <c r="F10" s="21" t="s">
@@ -5750,7 +6350,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" s="20" customFormat="1" ht="19.2" spans="4:7">
+    <row r="11" spans="4:7" s="20" customFormat="1" ht="18.2">
       <c r="D11" s="21"/>
       <c r="E11" s="21"/>
       <c r="F11" s="21" t="s">
@@ -5760,7 +6360,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="12" ht="19.2" spans="6:7">
+    <row r="12" spans="4:7" ht="18.2">
       <c r="F12" s="24" t="s">
         <v>165</v>
       </c>
@@ -5768,7 +6368,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="13" s="20" customFormat="1" ht="19.2" spans="4:7">
+    <row r="13" spans="4:7" s="20" customFormat="1" ht="18.2">
       <c r="D13" s="21"/>
       <c r="E13" s="21"/>
       <c r="F13" s="24" t="s">
@@ -5778,38 +6378,39 @@
         <v>65</v>
       </c>
     </row>
-    <row r="14" s="21" customFormat="1" ht="19.2"/>
-    <row r="15" s="21" customFormat="1" ht="19.2"/>
-    <row r="16" s="21" customFormat="1" ht="19.2"/>
-    <row r="17" s="21" customFormat="1" ht="19.2"/>
-    <row r="18" s="21" customFormat="1" ht="19.2"/>
-    <row r="19" s="21" customFormat="1" ht="19.2"/>
-    <row r="20" s="21" customFormat="1" ht="19.2"/>
-    <row r="21" s="21" customFormat="1" ht="19.2"/>
-    <row r="22" s="21" customFormat="1" ht="19.2"/>
-    <row r="23" s="21" customFormat="1" ht="19.2"/>
-    <row r="24" s="21" customFormat="1" ht="19.2"/>
-    <row r="25" s="21" customFormat="1" ht="19.2"/>
-    <row r="26" s="21" customFormat="1" ht="19.2"/>
-    <row r="27" s="21" customFormat="1" ht="19.2"/>
-    <row r="28" s="21" customFormat="1" ht="19.2"/>
-    <row r="29" s="21" customFormat="1" ht="19.2"/>
-    <row r="30" s="21" customFormat="1" ht="19.2"/>
-    <row r="31" s="21" customFormat="1" ht="19.2"/>
-    <row r="32" s="21" customFormat="1" ht="19.2"/>
-    <row r="33" s="21" customFormat="1" ht="19.2"/>
-    <row r="34" s="21" customFormat="1" ht="19.2"/>
-    <row r="35" s="21" customFormat="1" ht="19.2"/>
-    <row r="36" s="21" customFormat="1" ht="19.2"/>
-    <row r="37" s="21" customFormat="1" ht="19.2"/>
-    <row r="38" s="21" customFormat="1" ht="19.2"/>
-    <row r="39" s="21" customFormat="1" ht="19.2"/>
-    <row r="40" s="21" customFormat="1" ht="19.2"/>
-    <row r="41" s="21" customFormat="1" ht="19.2"/>
-    <row r="42" s="21" customFormat="1" ht="19.2"/>
-    <row r="43" s="21" customFormat="1" ht="19.2"/>
+    <row r="14" spans="4:7" s="21" customFormat="1" ht="18.2"/>
+    <row r="15" spans="4:7" s="21" customFormat="1" ht="18.2"/>
+    <row r="16" spans="4:7" s="21" customFormat="1" ht="18.2"/>
+    <row r="17" s="21" customFormat="1" ht="18.2"/>
+    <row r="18" s="21" customFormat="1" ht="18.2"/>
+    <row r="19" s="21" customFormat="1" ht="18.2"/>
+    <row r="20" s="21" customFormat="1" ht="18.2"/>
+    <row r="21" s="21" customFormat="1" ht="18.2"/>
+    <row r="22" s="21" customFormat="1" ht="18.2"/>
+    <row r="23" s="21" customFormat="1" ht="18.2"/>
+    <row r="24" s="21" customFormat="1" ht="18.2"/>
+    <row r="25" s="21" customFormat="1" ht="18.2"/>
+    <row r="26" s="21" customFormat="1" ht="18.2"/>
+    <row r="27" s="21" customFormat="1" ht="18.2"/>
+    <row r="28" s="21" customFormat="1" ht="18.2"/>
+    <row r="29" s="21" customFormat="1" ht="18.2"/>
+    <row r="30" s="21" customFormat="1" ht="18.2"/>
+    <row r="31" s="21" customFormat="1" ht="18.2"/>
+    <row r="32" s="21" customFormat="1" ht="18.2"/>
+    <row r="33" s="21" customFormat="1" ht="18.2"/>
+    <row r="34" s="21" customFormat="1" ht="18.2"/>
+    <row r="35" s="21" customFormat="1" ht="18.2"/>
+    <row r="36" s="21" customFormat="1" ht="18.2"/>
+    <row r="37" s="21" customFormat="1" ht="18.2"/>
+    <row r="38" s="21" customFormat="1" ht="18.2"/>
+    <row r="39" s="21" customFormat="1" ht="18.2"/>
+    <row r="40" s="21" customFormat="1" ht="18.2"/>
+    <row r="41" s="21" customFormat="1" ht="18.2"/>
+    <row r="42" s="21" customFormat="1" ht="18.2"/>
+    <row r="43" s="21" customFormat="1" ht="18.2"/>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <phoneticPr fontId="53" type="noConversion"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,标准"&amp;12&amp;A</oddHeader>
@@ -5819,15 +6420,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="D6:I75"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D7:I75"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="A50" sqref="$A50:$XFD50"/>
+    <sheetView topLeftCell="A26" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G58" sqref="G58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.7"/>
   <cols>
     <col min="1" max="3" width="8.875" customWidth="1"/>
     <col min="4" max="4" width="27.375" customWidth="1"/>
@@ -5838,8 +6438,7 @@
     <col min="9" max="1025" width="8.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" ht="14.75"/>
-    <row r="7" ht="19" customHeight="1" spans="4:9">
+    <row r="7" spans="4:9" ht="19" customHeight="1">
       <c r="D7" s="5" t="s">
         <v>166</v>
       </c>
@@ -5859,7 +6458,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" s="3" customFormat="1" spans="6:9">
+    <row r="8" spans="4:9" s="3" customFormat="1">
       <c r="F8" s="8" t="s">
         <v>169</v>
       </c>
@@ -5873,7 +6472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" s="3" customFormat="1" spans="6:9">
+    <row r="9" spans="4:9" s="3" customFormat="1">
       <c r="F9" s="8" t="s">
         <v>169</v>
       </c>
@@ -5887,7 +6486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" s="3" customFormat="1" spans="6:9">
+    <row r="10" spans="4:9" s="3" customFormat="1">
       <c r="F10" s="8" t="s">
         <v>169</v>
       </c>
@@ -5901,7 +6500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" s="3" customFormat="1" spans="6:9">
+    <row r="11" spans="4:9" s="3" customFormat="1">
       <c r="F11" s="8" t="s">
         <v>169</v>
       </c>
@@ -5915,7 +6514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" s="3" customFormat="1" spans="6:9">
+    <row r="12" spans="4:9" s="3" customFormat="1">
       <c r="F12" s="8" t="s">
         <v>169</v>
       </c>
@@ -5929,7 +6528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" s="3" customFormat="1" spans="6:9">
+    <row r="13" spans="4:9" s="3" customFormat="1">
       <c r="F13" s="8" t="s">
         <v>169</v>
       </c>
@@ -5943,7 +6542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" s="3" customFormat="1" spans="6:9">
+    <row r="14" spans="4:9" s="3" customFormat="1">
       <c r="F14" s="8" t="s">
         <v>169</v>
       </c>
@@ -5957,7 +6556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" s="3" customFormat="1" spans="6:9">
+    <row r="15" spans="4:9" s="3" customFormat="1">
       <c r="F15" s="8" t="s">
         <v>169</v>
       </c>
@@ -5971,7 +6570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" s="3" customFormat="1" spans="6:9">
+    <row r="16" spans="4:9" s="3" customFormat="1">
       <c r="F16" s="8" t="s">
         <v>170</v>
       </c>
@@ -5985,7 +6584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" s="3" customFormat="1" spans="6:9">
+    <row r="17" spans="4:9" s="3" customFormat="1">
       <c r="F17" s="8" t="s">
         <v>170</v>
       </c>
@@ -5999,7 +6598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" s="3" customFormat="1" spans="6:9">
+    <row r="18" spans="4:9" s="3" customFormat="1">
       <c r="F18" s="8" t="s">
         <v>170</v>
       </c>
@@ -6013,7 +6612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" s="3" customFormat="1" spans="6:9">
+    <row r="19" spans="4:9" s="3" customFormat="1">
       <c r="F19" s="8" t="s">
         <v>170</v>
       </c>
@@ -6027,7 +6626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" s="3" customFormat="1" spans="6:9">
+    <row r="20" spans="4:9" s="3" customFormat="1">
       <c r="F20" s="8" t="s">
         <v>170</v>
       </c>
@@ -6041,7 +6640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" s="3" customFormat="1" spans="6:9">
+    <row r="21" spans="4:9" s="3" customFormat="1">
       <c r="F21" s="8" t="s">
         <v>170</v>
       </c>
@@ -6055,7 +6654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" s="3" customFormat="1" spans="6:9">
+    <row r="22" spans="4:9" s="3" customFormat="1">
       <c r="F22" s="8" t="s">
         <v>170</v>
       </c>
@@ -6069,7 +6668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" s="3" customFormat="1" spans="6:9">
+    <row r="23" spans="4:9" s="3" customFormat="1">
       <c r="F23" s="8" t="s">
         <v>170</v>
       </c>
@@ -6083,7 +6682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" s="3" customFormat="1" spans="6:9">
+    <row r="24" spans="4:9" s="3" customFormat="1">
       <c r="F24" s="8" t="s">
         <v>172</v>
       </c>
@@ -6097,7 +6696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" s="3" customFormat="1" spans="6:9">
+    <row r="25" spans="4:9" s="3" customFormat="1">
       <c r="F25" s="8" t="s">
         <v>172</v>
       </c>
@@ -6111,7 +6710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" s="3" customFormat="1" spans="6:9">
+    <row r="26" spans="4:9" s="3" customFormat="1">
       <c r="F26" s="8" t="s">
         <v>172</v>
       </c>
@@ -6125,7 +6724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" s="3" customFormat="1" spans="6:9">
+    <row r="27" spans="4:9" s="3" customFormat="1">
       <c r="F27" s="8" t="s">
         <v>172</v>
       </c>
@@ -6139,7 +6738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" s="3" customFormat="1" spans="6:9">
+    <row r="28" spans="4:9" s="3" customFormat="1">
       <c r="F28" s="8" t="s">
         <v>172</v>
       </c>
@@ -6153,7 +6752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" s="3" customFormat="1" spans="6:9">
+    <row r="29" spans="4:9" s="3" customFormat="1">
       <c r="F29" s="8" t="s">
         <v>172</v>
       </c>
@@ -6167,7 +6766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" s="3" customFormat="1" spans="6:9">
+    <row r="30" spans="4:9" s="3" customFormat="1">
       <c r="F30" s="8" t="s">
         <v>172</v>
       </c>
@@ -6181,7 +6780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" s="3" customFormat="1" spans="6:9">
+    <row r="31" spans="4:9" s="3" customFormat="1">
       <c r="F31" s="8" t="s">
         <v>172</v>
       </c>
@@ -6195,7 +6794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" s="3" customFormat="1" ht="12.85" customHeight="1" spans="4:9">
+    <row r="32" spans="4:9" s="3" customFormat="1" ht="12.85" customHeight="1">
       <c r="D32" s="6"/>
       <c r="E32" s="9"/>
       <c r="F32" s="10" t="s">
@@ -6211,7 +6810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" s="3" customFormat="1" ht="12.85" customHeight="1" spans="4:9">
+    <row r="33" spans="4:9" s="3" customFormat="1" ht="12.85" customHeight="1">
       <c r="D33" s="6"/>
       <c r="E33" s="9"/>
       <c r="F33" s="10" t="s">
@@ -6227,7 +6826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" s="3" customFormat="1" ht="12.85" customHeight="1" spans="4:9">
+    <row r="34" spans="4:9" s="3" customFormat="1" ht="12.85" customHeight="1">
       <c r="D34" s="6"/>
       <c r="E34" s="9"/>
       <c r="F34" s="10" t="s">
@@ -6243,7 +6842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" s="3" customFormat="1" ht="12.85" customHeight="1" spans="4:9">
+    <row r="35" spans="4:9" s="3" customFormat="1" ht="12.85" customHeight="1">
       <c r="D35" s="6"/>
       <c r="E35" s="9"/>
       <c r="F35" s="10" t="s">
@@ -6259,7 +6858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" s="3" customFormat="1" spans="6:9">
+    <row r="36" spans="4:9" s="3" customFormat="1">
       <c r="F36" s="11" t="s">
         <v>169</v>
       </c>
@@ -6271,7 +6870,7 @@
       </c>
       <c r="I36" s="11"/>
     </row>
-    <row r="37" s="4" customFormat="1" spans="6:9">
+    <row r="37" spans="4:9" s="4" customFormat="1">
       <c r="F37" s="12" t="s">
         <v>169</v>
       </c>
@@ -6285,7 +6884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" s="4" customFormat="1" spans="6:9">
+    <row r="38" spans="4:9" s="4" customFormat="1">
       <c r="F38" s="12" t="s">
         <v>169</v>
       </c>
@@ -6299,7 +6898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="6:9">
+    <row r="39" spans="4:9">
       <c r="F39" s="11" t="s">
         <v>169</v>
       </c>
@@ -6311,7 +6910,7 @@
       </c>
       <c r="I39" s="13"/>
     </row>
-    <row r="40" spans="6:9">
+    <row r="40" spans="4:9">
       <c r="F40" s="11" t="s">
         <v>170</v>
       </c>
@@ -6323,7 +6922,7 @@
       </c>
       <c r="I40" s="11"/>
     </row>
-    <row r="41" s="4" customFormat="1" spans="6:9">
+    <row r="41" spans="4:9" s="4" customFormat="1">
       <c r="F41" s="12" t="s">
         <v>170</v>
       </c>
@@ -6337,7 +6936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" s="4" customFormat="1" spans="6:9">
+    <row r="42" spans="4:9" s="4" customFormat="1">
       <c r="F42" s="12" t="s">
         <v>170</v>
       </c>
@@ -6351,7 +6950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="6:9">
+    <row r="43" spans="4:9">
       <c r="F43" s="11" t="s">
         <v>170</v>
       </c>
@@ -6363,7 +6962,7 @@
       </c>
       <c r="I43" s="13"/>
     </row>
-    <row r="44" spans="6:9">
+    <row r="44" spans="4:9">
       <c r="F44" s="11" t="s">
         <v>172</v>
       </c>
@@ -6375,7 +6974,7 @@
       </c>
       <c r="I44" s="11"/>
     </row>
-    <row r="45" s="4" customFormat="1" spans="6:9">
+    <row r="45" spans="4:9" s="4" customFormat="1">
       <c r="F45" s="12" t="s">
         <v>172</v>
       </c>
@@ -6389,7 +6988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" s="4" customFormat="1" spans="6:9">
+    <row r="46" spans="4:9" s="4" customFormat="1">
       <c r="F46" s="12" t="s">
         <v>172</v>
       </c>
@@ -6403,7 +7002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="6:9">
+    <row r="47" spans="4:9">
       <c r="F47" s="11" t="s">
         <v>172</v>
       </c>
@@ -6415,7 +7014,7 @@
       </c>
       <c r="I47" s="13"/>
     </row>
-    <row r="48" ht="15.2" spans="6:9">
+    <row r="48" spans="4:9" ht="13">
       <c r="F48" s="14" t="s">
         <v>170</v>
       </c>
@@ -6427,7 +7026,7 @@
       </c>
       <c r="I48" s="19"/>
     </row>
-    <row r="49" spans="6:9">
+    <row r="49" spans="4:9" ht="12.35">
       <c r="F49" s="14" t="s">
         <v>170</v>
       </c>
@@ -6439,7 +7038,7 @@
       </c>
       <c r="I49" s="16"/>
     </row>
-    <row r="50" ht="15.2" spans="6:9">
+    <row r="50" spans="4:9" ht="13">
       <c r="F50" s="14" t="s">
         <v>172</v>
       </c>
@@ -6451,7 +7050,7 @@
       </c>
       <c r="I50" s="19"/>
     </row>
-    <row r="51" spans="6:9">
+    <row r="51" spans="4:9" ht="12.35">
       <c r="F51" s="14" t="s">
         <v>172</v>
       </c>
@@ -6463,133 +7062,132 @@
       </c>
       <c r="I51" s="16"/>
     </row>
-    <row r="52" spans="4:8">
+    <row r="52" spans="4:9" ht="12.35">
       <c r="D52" s="7"/>
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c r="H52" s="7"/>
     </row>
-    <row r="53" spans="6:8">
+    <row r="53" spans="4:9" ht="12.35">
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c r="H53" s="7"/>
     </row>
-    <row r="54" spans="6:8">
+    <row r="54" spans="4:9" ht="12.35">
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c r="H54" s="7"/>
     </row>
-    <row r="55" spans="6:8">
+    <row r="55" spans="4:9" ht="12.35">
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c r="H55" s="7"/>
     </row>
-    <row r="56" spans="6:8">
+    <row r="56" spans="4:9" ht="12.35">
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c r="H56" s="7"/>
     </row>
-    <row r="57" spans="6:8">
+    <row r="57" spans="4:9" ht="12.35">
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c r="H57" s="7"/>
     </row>
-    <row r="58" spans="6:8">
+    <row r="58" spans="4:9" ht="12.35">
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c r="H58" s="7"/>
     </row>
-    <row r="59" spans="6:8">
+    <row r="59" spans="4:9" ht="12.35">
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c r="H59" s="7"/>
     </row>
-    <row r="60" spans="6:8">
+    <row r="60" spans="4:9" ht="12.35">
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
       <c r="H60" s="7"/>
     </row>
-    <row r="61" spans="6:8">
+    <row r="61" spans="4:9" ht="12.35">
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
       <c r="H61" s="7"/>
     </row>
-    <row r="62" spans="6:8">
+    <row r="62" spans="4:9" ht="12.35">
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
       <c r="H62" s="7"/>
     </row>
-    <row r="63" spans="6:8">
+    <row r="63" spans="4:9" ht="12.35">
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c r="H63" s="7"/>
     </row>
-    <row r="64" spans="6:8">
+    <row r="64" spans="4:9" ht="12.35">
       <c r="F64" s="17"/>
       <c r="G64" s="7"/>
       <c r="H64" s="7"/>
     </row>
-    <row r="65" spans="7:8">
+    <row r="65" spans="7:8" ht="12.35">
       <c r="G65" s="7"/>
       <c r="H65" s="7"/>
     </row>
-    <row r="66" spans="7:8">
+    <row r="66" spans="7:8" ht="12.35">
       <c r="G66" s="7"/>
       <c r="H66" s="7"/>
     </row>
-    <row r="67" spans="7:8">
+    <row r="67" spans="7:8" ht="12.35">
       <c r="G67" s="7"/>
       <c r="H67" s="7"/>
     </row>
-    <row r="68" spans="7:8">
+    <row r="68" spans="7:8" ht="12.35">
       <c r="G68" s="7"/>
       <c r="H68" s="7"/>
     </row>
-    <row r="69" spans="7:8">
+    <row r="69" spans="7:8" ht="12.35">
       <c r="G69" s="7"/>
       <c r="H69" s="7"/>
     </row>
-    <row r="70" spans="7:8">
+    <row r="70" spans="7:8" ht="12.35">
       <c r="G70" s="7"/>
       <c r="H70" s="7"/>
     </row>
-    <row r="71" spans="7:8">
+    <row r="71" spans="7:8" ht="12.35">
       <c r="G71" s="7"/>
       <c r="H71" s="7"/>
     </row>
-    <row r="72" spans="7:8">
+    <row r="72" spans="7:8" ht="12.35">
       <c r="G72" s="7"/>
       <c r="H72" s="7"/>
     </row>
-    <row r="73" spans="7:8">
+    <row r="73" spans="7:8" ht="12.35">
       <c r="G73" s="7"/>
       <c r="H73" s="7"/>
     </row>
-    <row r="74" spans="7:8">
+    <row r="74" spans="7:8" ht="12.35">
       <c r="G74" s="7"/>
       <c r="H74" s="7"/>
     </row>
-    <row r="75" spans="7:8">
+    <row r="75" spans="7:8" ht="12.35">
       <c r="G75" s="7"/>
       <c r="H75" s="7"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.510416666666667" footer="0.510416666666667"/>
+  <phoneticPr fontId="53" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51041666666666696" footer="0.51041666666666696"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:K7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="F8" sqref="F8:K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="11.7"/>
   <cols>
     <col min="6" max="6" width="18.125" customWidth="1"/>
     <col min="7" max="7" width="15.875" customWidth="1"/>
@@ -6626,21 +7224,20 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="53" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F8" sqref="F8:I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="11.7"/>
   <cols>
     <col min="4" max="4" width="21.375" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
@@ -6670,21 +7267,20 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="53" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:L9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="11.7"/>
   <cols>
     <col min="4" max="4" width="22.125" customWidth="1"/>
     <col min="6" max="6" width="18.875" customWidth="1"/>
@@ -6725,7 +7321,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="8" spans="6:11">
+    <row r="8" spans="4:12">
       <c r="F8" t="s">
         <v>189</v>
       </c>
@@ -6745,7 +7341,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="9" spans="6:12">
+    <row r="9" spans="4:12">
       <c r="F9" t="s">
         <v>194</v>
       </c>
@@ -6769,22 +7365,21 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="53" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:I24"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="11.7"/>
   <cols>
     <col min="4" max="4" width="21.5" customWidth="1"/>
     <col min="5" max="5" width="18.375" customWidth="1"/>
@@ -6793,7 +7388,7 @@
     <col min="9" max="10" width="18.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:9">
+    <row r="7" spans="4:9" ht="15.6">
       <c r="D7" s="2" t="s">
         <v>198</v>
       </c>
@@ -6813,7 +7408,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="8" spans="4:9">
+    <row r="8" spans="4:9" ht="15.6">
       <c r="D8" s="2"/>
       <c r="E8" s="1" t="s">
         <v>201</v>
@@ -6831,7 +7426,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="9" spans="5:9">
+    <row r="9" spans="4:9" ht="15.6">
       <c r="E9" s="1" t="s">
         <v>203</v>
       </c>
@@ -6848,7 +7443,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="10" spans="5:9">
+    <row r="10" spans="4:9" ht="15.6">
       <c r="E10" s="1" t="s">
         <v>205</v>
       </c>
@@ -6865,7 +7460,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="11" spans="5:9">
+    <row r="11" spans="4:9" ht="15.6">
       <c r="E11" s="1" t="s">
         <v>207</v>
       </c>
@@ -6882,7 +7477,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="12" spans="5:9">
+    <row r="12" spans="4:9" ht="15.6">
       <c r="E12" s="1" t="s">
         <v>209</v>
       </c>
@@ -6899,7 +7494,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="13" spans="5:9">
+    <row r="13" spans="4:9" ht="15.6">
       <c r="E13" s="1" t="s">
         <v>211</v>
       </c>
@@ -6916,7 +7511,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="14" spans="5:9">
+    <row r="14" spans="4:9" ht="15.6">
       <c r="E14" s="1" t="s">
         <v>213</v>
       </c>
@@ -6933,7 +7528,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="15" spans="5:9">
+    <row r="15" spans="4:9" ht="15.6">
       <c r="E15" s="1" t="s">
         <v>215</v>
       </c>
@@ -6950,63 +7545,63 @@
         <v>216</v>
       </c>
     </row>
-    <row r="16" spans="5:9">
+    <row r="16" spans="4:9" ht="15.6">
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="5:9">
+    <row r="17" spans="5:9" ht="15.6">
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="5:9">
+    <row r="18" spans="5:9" ht="15.6">
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="5:9">
+    <row r="19" spans="5:9" ht="15.6">
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="5:9">
+    <row r="20" spans="5:9" ht="15.6">
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="5:9">
+    <row r="21" spans="5:9" ht="15.6">
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="5:9">
+    <row r="22" spans="5:9" ht="15.6">
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="5:9">
+    <row r="23" spans="5:9" ht="15.6">
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="5:9">
+    <row r="24" spans="5:9" ht="15.6">
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
@@ -7014,7 +7609,7 @@
       <c r="I24" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="53" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/src/main/resources/script/meta/micro-service-init-data.xlsx
+++ b/src/main/resources/script/meta/micro-service-init-data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13206" tabRatio="845" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13206" tabRatio="845" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="989" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1062" uniqueCount="380">
   <si>
     <t>IAM_PERMISSION</t>
   </si>
@@ -1156,12 +1156,134 @@
     <t>hrds-doc-repo.doc-user-auth.listOrg</t>
     <phoneticPr fontId="53" type="noConversion"/>
   </si>
+  <si>
+    <t>/infra/product-lib-site</t>
+    <phoneticPr fontId="53" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.route.project.product-lib</t>
+    <phoneticPr fontId="53" type="noConversion"/>
+  </si>
+  <si>
+    <t>/infra/product-lib</t>
+    <phoneticPr fontId="53" type="noConversion"/>
+  </si>
+  <si>
+    <t>project</t>
+    <phoneticPr fontId="53" type="noConversion"/>
+  </si>
+  <si>
+    <t>制品库管理路由</t>
+    <phoneticPr fontId="53" type="noConversion"/>
+  </si>
+  <si>
+    <t>制品库管理路由</t>
+    <phoneticPr fontId="53" type="noConversion"/>
+  </si>
+  <si>
+    <t>/infra/product-lib-org</t>
+    <phoneticPr fontId="53" type="noConversion"/>
+  </si>
+  <si>
+    <t>organization</t>
+    <phoneticPr fontId="53" type="noConversion"/>
+  </si>
+  <si>
+    <t>sutask</t>
+  </si>
+  <si>
+    <t>choerodon.code.site.infra</t>
+    <phoneticPr fontId="53" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础</t>
+    <phoneticPr fontId="53" type="noConversion"/>
+  </si>
+  <si>
+    <t>Basis</t>
+    <phoneticPr fontId="53" type="noConversion"/>
+  </si>
+  <si>
+    <t>hrds-infra-front</t>
+    <phoneticPr fontId="53" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.code.top.site</t>
+    <phoneticPr fontId="53" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.code.project.product-lib</t>
+    <phoneticPr fontId="53" type="noConversion"/>
+  </si>
+  <si>
+    <t>制品库管理</t>
+    <phoneticPr fontId="53" type="noConversion"/>
+  </si>
+  <si>
+    <t>Product Library Management</t>
+    <phoneticPr fontId="53" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.code.organization.product-lib</t>
+    <phoneticPr fontId="53" type="noConversion"/>
+  </si>
+  <si>
+    <t>制品库管理</t>
+    <phoneticPr fontId="53" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.route.organization.product-lib</t>
+    <phoneticPr fontId="53" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.route.site.product-lib</t>
+    <phoneticPr fontId="53" type="noConversion"/>
+  </si>
+  <si>
+    <t>account_balance</t>
+    <phoneticPr fontId="53" type="noConversion"/>
+  </si>
+  <si>
+    <t>account_balance</t>
+    <phoneticPr fontId="53" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.code.site.product-lib</t>
+    <phoneticPr fontId="53" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.route.site.product-lib</t>
+    <phoneticPr fontId="53" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.code.project.product-lib</t>
+    <phoneticPr fontId="53" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.route.project.product-lib</t>
+    <phoneticPr fontId="53" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.route.project.product-lib</t>
+    <phoneticPr fontId="53" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.route.organization.product-lib</t>
+    <phoneticPr fontId="53" type="noConversion"/>
+  </si>
+  <si>
+    <t>Product Library Management</t>
+  </si>
+  <si>
+    <t>制品库管理</t>
+    <phoneticPr fontId="53" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="57">
+  <fonts count="59">
     <font>
       <sz val="10"/>
       <name val="Droid Sans Fallback"/>
@@ -1516,6 +1638,19 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="PingFang SC"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1552,7 +1687,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1627,6 +1762,8 @@
     <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1902,10 +2039,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D7:Q57"/>
+  <dimension ref="D7:Q59"/>
   <sheetViews>
-    <sheetView topLeftCell="E3" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView topLeftCell="E5" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.7"/>
@@ -2600,89 +2737,134 @@
       <c r="P26" s="52"/>
       <c r="Q26" s="8"/>
     </row>
-    <row r="27" spans="4:17">
-      <c r="F27" s="39"/>
-      <c r="G27" s="39"/>
-      <c r="H27" s="39"/>
-      <c r="I27" s="39"/>
-      <c r="J27" s="39"/>
-      <c r="K27" s="39"/>
-      <c r="L27" s="39"/>
-      <c r="M27" s="39"/>
-      <c r="N27" s="39"/>
-      <c r="O27" s="39"/>
-      <c r="P27" s="39"/>
-      <c r="Q27" s="39"/>
-    </row>
-    <row r="28" spans="4:17">
-      <c r="F28" s="39"/>
-      <c r="G28" s="39"/>
-      <c r="H28" s="39"/>
-      <c r="I28" s="39"/>
-      <c r="J28" s="39"/>
-      <c r="K28" s="39"/>
-      <c r="L28" s="39"/>
-      <c r="M28" s="39"/>
-      <c r="N28" s="39"/>
-      <c r="O28" s="39"/>
-      <c r="P28" s="39"/>
-      <c r="Q28" s="39"/>
-    </row>
-    <row r="29" spans="4:17">
-      <c r="F29" s="39"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="39"/>
-      <c r="I29" s="39"/>
-      <c r="J29" s="39"/>
-      <c r="K29" s="39"/>
-      <c r="L29" s="39"/>
-      <c r="M29" s="39"/>
-      <c r="N29" s="39"/>
-      <c r="O29" s="39"/>
-      <c r="P29" s="39"/>
-      <c r="Q29" s="39"/>
+    <row r="27" spans="4:17" ht="12.35">
+      <c r="F27" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="H27" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="I27" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="J27" s="65" t="s">
+        <v>353</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L27" s="7">
+        <v>0</v>
+      </c>
+      <c r="M27" s="7">
+        <v>0</v>
+      </c>
+      <c r="N27" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="4:17" ht="12.35">
+      <c r="F28" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="H28" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="I28" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="J28" s="65" t="s">
+        <v>353</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L28" s="7">
+        <v>0</v>
+      </c>
+      <c r="M28" s="7">
+        <v>0</v>
+      </c>
+      <c r="N28" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="4:17" ht="12.35">
+      <c r="F29" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="H29" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="I29" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J29" s="65" t="s">
+        <v>354</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L29" s="7">
+        <v>0</v>
+      </c>
+      <c r="M29" s="7">
+        <v>0</v>
+      </c>
+      <c r="N29" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="30" spans="4:17">
-      <c r="F30" s="40"/>
-      <c r="G30" s="40"/>
-      <c r="H30" s="40"/>
-      <c r="I30" s="40"/>
-      <c r="J30" s="40"/>
-      <c r="K30" s="40"/>
-      <c r="L30" s="40"/>
-      <c r="M30" s="40"/>
-      <c r="N30" s="40"/>
-      <c r="O30" s="40"/>
-      <c r="P30" s="40"/>
-      <c r="Q30" s="40"/>
+      <c r="F30" s="39"/>
+      <c r="G30" s="39"/>
+      <c r="H30" s="39"/>
+      <c r="I30" s="39"/>
+      <c r="J30" s="39"/>
+      <c r="K30" s="39"/>
+      <c r="L30" s="39"/>
+      <c r="M30" s="39"/>
+      <c r="N30" s="39"/>
+      <c r="O30" s="39"/>
+      <c r="P30" s="39"/>
+      <c r="Q30" s="39"/>
     </row>
     <row r="31" spans="4:17">
-      <c r="F31" s="41"/>
-      <c r="G31" s="42"/>
-      <c r="H31" s="41"/>
-      <c r="I31" s="41"/>
-      <c r="J31" s="41"/>
-      <c r="K31" s="41"/>
-      <c r="L31" s="41"/>
-      <c r="M31" s="41"/>
-      <c r="N31" s="41"/>
-      <c r="O31" s="41"/>
-      <c r="P31" s="41"/>
-      <c r="Q31" s="41"/>
+      <c r="F31" s="39"/>
+      <c r="G31" s="39"/>
+      <c r="H31" s="39"/>
+      <c r="I31" s="39"/>
+      <c r="J31" s="39"/>
+      <c r="K31" s="39"/>
+      <c r="L31" s="39"/>
+      <c r="M31" s="39"/>
+      <c r="N31" s="39"/>
+      <c r="O31" s="39"/>
+      <c r="P31" s="39"/>
+      <c r="Q31" s="39"/>
     </row>
     <row r="32" spans="4:17">
-      <c r="F32" s="41"/>
-      <c r="G32" s="42"/>
-      <c r="H32" s="41"/>
-      <c r="I32" s="41"/>
-      <c r="J32" s="41"/>
-      <c r="K32" s="41"/>
-      <c r="L32" s="41"/>
-      <c r="M32" s="41"/>
-      <c r="N32" s="41"/>
-      <c r="O32" s="41"/>
-      <c r="P32" s="41"/>
-      <c r="Q32" s="41"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="40"/>
+      <c r="H32" s="40"/>
+      <c r="I32" s="40"/>
+      <c r="J32" s="40"/>
+      <c r="K32" s="40"/>
+      <c r="L32" s="40"/>
+      <c r="M32" s="40"/>
+      <c r="N32" s="40"/>
+      <c r="O32" s="40"/>
+      <c r="P32" s="40"/>
+      <c r="Q32" s="40"/>
     </row>
     <row r="33" spans="6:17">
       <c r="F33" s="41"/>
@@ -2713,68 +2895,74 @@
       <c r="Q34" s="41"/>
     </row>
     <row r="35" spans="6:17">
-      <c r="F35" s="44"/>
-      <c r="G35" s="44"/>
-      <c r="H35" s="44"/>
-      <c r="I35" s="44"/>
-      <c r="J35" s="44"/>
-      <c r="K35" s="44"/>
-      <c r="L35" s="44"/>
-      <c r="M35" s="44"/>
-      <c r="N35" s="44"/>
-      <c r="O35" s="44"/>
-      <c r="P35" s="44"/>
-      <c r="Q35" s="44"/>
+      <c r="F35" s="41"/>
+      <c r="G35" s="42"/>
+      <c r="H35" s="41"/>
+      <c r="I35" s="41"/>
+      <c r="J35" s="41"/>
+      <c r="K35" s="41"/>
+      <c r="L35" s="41"/>
+      <c r="M35" s="41"/>
+      <c r="N35" s="41"/>
+      <c r="O35" s="41"/>
+      <c r="P35" s="41"/>
+      <c r="Q35" s="41"/>
     </row>
     <row r="36" spans="6:17">
-      <c r="F36" s="45"/>
-      <c r="G36" s="46"/>
-      <c r="H36" s="45"/>
-      <c r="I36" s="45"/>
-      <c r="J36" s="45"/>
-      <c r="K36" s="45"/>
-      <c r="L36" s="45"/>
-      <c r="M36" s="45"/>
-      <c r="N36" s="45"/>
-      <c r="O36" s="45"/>
-      <c r="P36" s="45"/>
-      <c r="Q36" s="45"/>
+      <c r="F36" s="41"/>
+      <c r="G36" s="42"/>
+      <c r="H36" s="41"/>
+      <c r="I36" s="41"/>
+      <c r="J36" s="41"/>
+      <c r="K36" s="41"/>
+      <c r="L36" s="41"/>
+      <c r="M36" s="41"/>
+      <c r="N36" s="41"/>
+      <c r="O36" s="41"/>
+      <c r="P36" s="41"/>
+      <c r="Q36" s="41"/>
     </row>
     <row r="37" spans="6:17">
-      <c r="F37" s="45"/>
-      <c r="G37" s="46"/>
-      <c r="H37" s="45"/>
-      <c r="I37" s="45"/>
-      <c r="J37" s="45"/>
-      <c r="K37" s="45"/>
-      <c r="L37" s="45"/>
-      <c r="M37" s="45"/>
-      <c r="N37" s="45"/>
-      <c r="O37" s="45"/>
-      <c r="P37" s="45"/>
-      <c r="Q37" s="45"/>
-    </row>
-    <row r="38" spans="6:17" ht="12.35">
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
-      <c r="I38" s="7"/>
-      <c r="J38" s="7"/>
-      <c r="K38" s="7"/>
-      <c r="L38" s="7"/>
-      <c r="M38" s="7"/>
-      <c r="N38" s="7"/>
-    </row>
-    <row r="39" spans="6:17" ht="12.35">
-      <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7"/>
-      <c r="I39" s="7"/>
-      <c r="J39" s="7"/>
-      <c r="K39" s="7"/>
-      <c r="L39" s="7"/>
-      <c r="M39" s="7"/>
-      <c r="N39" s="7"/>
+      <c r="F37" s="44"/>
+      <c r="G37" s="44"/>
+      <c r="H37" s="44"/>
+      <c r="I37" s="44"/>
+      <c r="J37" s="44"/>
+      <c r="K37" s="44"/>
+      <c r="L37" s="44"/>
+      <c r="M37" s="44"/>
+      <c r="N37" s="44"/>
+      <c r="O37" s="44"/>
+      <c r="P37" s="44"/>
+      <c r="Q37" s="44"/>
+    </row>
+    <row r="38" spans="6:17">
+      <c r="F38" s="45"/>
+      <c r="G38" s="46"/>
+      <c r="H38" s="45"/>
+      <c r="I38" s="45"/>
+      <c r="J38" s="45"/>
+      <c r="K38" s="45"/>
+      <c r="L38" s="45"/>
+      <c r="M38" s="45"/>
+      <c r="N38" s="45"/>
+      <c r="O38" s="45"/>
+      <c r="P38" s="45"/>
+      <c r="Q38" s="45"/>
+    </row>
+    <row r="39" spans="6:17">
+      <c r="F39" s="45"/>
+      <c r="G39" s="46"/>
+      <c r="H39" s="45"/>
+      <c r="I39" s="45"/>
+      <c r="J39" s="45"/>
+      <c r="K39" s="45"/>
+      <c r="L39" s="45"/>
+      <c r="M39" s="45"/>
+      <c r="N39" s="45"/>
+      <c r="O39" s="45"/>
+      <c r="P39" s="45"/>
+      <c r="Q39" s="45"/>
     </row>
     <row r="40" spans="6:17" ht="12.35">
       <c r="F40" s="7"/>
@@ -2880,7 +3068,7 @@
       <c r="G49" s="7"/>
       <c r="H49" s="7"/>
       <c r="I49" s="7"/>
-      <c r="J49" s="65"/>
+      <c r="J49" s="7"/>
       <c r="K49" s="7"/>
       <c r="L49" s="7"/>
       <c r="M49" s="7"/>
@@ -2902,7 +3090,7 @@
       <c r="G51" s="7"/>
       <c r="H51" s="7"/>
       <c r="I51" s="7"/>
-      <c r="J51" s="7"/>
+      <c r="J51" s="65"/>
       <c r="K51" s="7"/>
       <c r="L51" s="7"/>
       <c r="M51" s="7"/>
@@ -2928,28 +3116,28 @@
       <c r="K53" s="7"/>
       <c r="L53" s="7"/>
       <c r="M53" s="7"/>
-    </row>
-    <row r="54" spans="6:14" s="34" customFormat="1" ht="12.35">
-      <c r="F54" s="60"/>
-      <c r="G54" s="60"/>
-      <c r="H54" s="60"/>
-      <c r="I54" s="60"/>
-      <c r="J54" s="63"/>
-      <c r="K54" s="60"/>
-      <c r="L54" s="60"/>
-      <c r="M54" s="60"/>
-      <c r="N54" s="60"/>
-    </row>
-    <row r="55" spans="6:14" s="34" customFormat="1" ht="12.35">
-      <c r="F55" s="60"/>
-      <c r="G55" s="60"/>
-      <c r="H55" s="60"/>
-      <c r="I55" s="60"/>
-      <c r="J55" s="63"/>
-      <c r="K55" s="60"/>
-      <c r="L55" s="60"/>
-      <c r="M55" s="60"/>
-      <c r="N55" s="60"/>
+      <c r="N53" s="7"/>
+    </row>
+    <row r="54" spans="6:14" ht="12.35">
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="7"/>
+      <c r="I54" s="7"/>
+      <c r="J54" s="7"/>
+      <c r="K54" s="7"/>
+      <c r="L54" s="7"/>
+      <c r="M54" s="7"/>
+      <c r="N54" s="7"/>
+    </row>
+    <row r="55" spans="6:14" ht="12.35">
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="7"/>
+      <c r="I55" s="7"/>
+      <c r="J55" s="7"/>
+      <c r="K55" s="7"/>
+      <c r="L55" s="7"/>
+      <c r="M55" s="7"/>
     </row>
     <row r="56" spans="6:14" s="34" customFormat="1" ht="12.35">
       <c r="F56" s="60"/>
@@ -2972,6 +3160,28 @@
       <c r="L57" s="60"/>
       <c r="M57" s="60"/>
       <c r="N57" s="60"/>
+    </row>
+    <row r="58" spans="6:14" s="34" customFormat="1" ht="12.35">
+      <c r="F58" s="60"/>
+      <c r="G58" s="60"/>
+      <c r="H58" s="60"/>
+      <c r="I58" s="60"/>
+      <c r="J58" s="63"/>
+      <c r="K58" s="60"/>
+      <c r="L58" s="60"/>
+      <c r="M58" s="60"/>
+      <c r="N58" s="60"/>
+    </row>
+    <row r="59" spans="6:14" s="34" customFormat="1" ht="12.35">
+      <c r="F59" s="60"/>
+      <c r="G59" s="60"/>
+      <c r="H59" s="60"/>
+      <c r="I59" s="60"/>
+      <c r="J59" s="63"/>
+      <c r="K59" s="60"/>
+      <c r="L59" s="60"/>
+      <c r="M59" s="60"/>
+      <c r="N59" s="60"/>
     </row>
   </sheetData>
   <phoneticPr fontId="53" type="noConversion"/>
@@ -2989,7 +3199,7 @@
   <dimension ref="D7:J37"/>
   <sheetViews>
     <sheetView topLeftCell="G3" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="11.7"/>
@@ -3605,10 +3815,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D7:Q84"/>
+  <dimension ref="D7:Q86"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" topLeftCell="F25" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="I50" sqref="I50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.7"/>
@@ -4619,85 +4829,84 @@
       <c r="P34" s="41"/>
       <c r="Q34" s="41"/>
     </row>
-    <row r="35" spans="6:17" s="33" customFormat="1" ht="14.15" customHeight="1">
-      <c r="F35" s="33" t="s">
+    <row r="35" spans="6:17">
+      <c r="F35" s="41" t="s">
+        <v>363</v>
+      </c>
+      <c r="G35" s="42" t="s">
+        <v>364</v>
+      </c>
+      <c r="H35" s="41" t="s">
+        <v>365</v>
+      </c>
+      <c r="I35" s="41" t="s">
+        <v>350</v>
+      </c>
+      <c r="J35" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="K35" s="41" t="s">
+        <v>131</v>
+      </c>
+      <c r="L35" s="41" t="s">
+        <v>26</v>
+      </c>
+      <c r="M35" s="41" t="s">
+        <v>82</v>
+      </c>
+      <c r="N35" s="41" t="s">
+        <v>370</v>
+      </c>
+      <c r="O35" s="41">
+        <v>20</v>
+      </c>
+      <c r="P35" s="41"/>
+      <c r="Q35" s="41"/>
+    </row>
+    <row r="36" spans="6:17" s="33" customFormat="1" ht="14.15" customHeight="1">
+      <c r="F36" s="33" t="s">
         <v>148</v>
       </c>
-      <c r="G35" s="33" t="s">
+      <c r="G36" s="33" t="s">
         <v>132</v>
       </c>
-      <c r="H35" s="33" t="s">
+      <c r="H36" s="33" t="s">
         <v>133</v>
       </c>
-      <c r="J35" s="33" t="s">
+      <c r="J36" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="K35" s="33" t="s">
+      <c r="K36" s="33" t="s">
         <v>149</v>
       </c>
-      <c r="L35" s="33" t="s">
+      <c r="L36" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="M35" s="33" t="s">
+      <c r="M36" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="N35" s="33" t="s">
+      <c r="N36" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="O35" s="33">
+      <c r="O36" s="33">
         <v>80</v>
       </c>
-      <c r="Q35" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="6:17" s="12" customFormat="1">
-      <c r="F36" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="G36" s="43" t="s">
-        <v>151</v>
-      </c>
-      <c r="H36" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="I36" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="J36" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="K36" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="L36" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="M36" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="N36" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="O36" s="12">
-        <v>10</v>
-      </c>
-      <c r="Q36" s="12">
+      <c r="Q36" s="33">
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="6:17" s="12" customFormat="1">
       <c r="F37" s="12" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="G37" s="43" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="H37" s="12" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="I37" s="12" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="J37" s="12" t="s">
         <v>14</v>
@@ -4715,90 +4924,91 @@
         <v>153</v>
       </c>
       <c r="O37" s="12">
+        <v>10</v>
+      </c>
+      <c r="Q37" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="6:17" s="12" customFormat="1">
+      <c r="F38" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="G38" s="43" t="s">
+        <v>155</v>
+      </c>
+      <c r="H38" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="I38" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="J38" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="K38" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="L38" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="M38" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="N38" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="O38" s="12">
         <v>20</v>
       </c>
-      <c r="Q37" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="6:17">
-      <c r="F38" s="44" t="s">
+      <c r="Q38" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="6:17">
+      <c r="F39" s="44" t="s">
         <v>148</v>
       </c>
-      <c r="G38" s="44" t="s">
+      <c r="G39" s="44" t="s">
         <v>132</v>
       </c>
-      <c r="H38" s="44" t="s">
+      <c r="H39" s="44" t="s">
         <v>133</v>
       </c>
-      <c r="I38" s="44"/>
-      <c r="J38" s="44" t="s">
+      <c r="I39" s="44"/>
+      <c r="J39" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="K38" s="44" t="s">
+      <c r="K39" s="44" t="s">
         <v>149</v>
       </c>
-      <c r="L38" s="44" t="s">
+      <c r="L39" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="M38" s="44" t="s">
+      <c r="M39" s="44" t="s">
         <v>108</v>
       </c>
-      <c r="N38" s="44" t="s">
+      <c r="N39" s="44" t="s">
         <v>83</v>
       </c>
-      <c r="O38" s="44">
+      <c r="O39" s="44">
         <v>80</v>
       </c>
-      <c r="P38" s="44"/>
-      <c r="Q38" s="44"/>
-    </row>
-    <row r="39" spans="6:17">
-      <c r="F39" s="45" t="s">
-        <v>150</v>
-      </c>
-      <c r="G39" s="46" t="s">
-        <v>151</v>
-      </c>
-      <c r="H39" s="45" t="s">
-        <v>152</v>
-      </c>
-      <c r="I39" s="45" t="s">
-        <v>62</v>
-      </c>
-      <c r="J39" s="45" t="s">
-        <v>14</v>
-      </c>
-      <c r="K39" s="45" t="s">
-        <v>148</v>
-      </c>
-      <c r="L39" s="45" t="s">
-        <v>42</v>
-      </c>
-      <c r="M39" s="45" t="s">
-        <v>82</v>
-      </c>
-      <c r="N39" s="45" t="s">
-        <v>153</v>
-      </c>
-      <c r="O39" s="45">
-        <v>10</v>
-      </c>
-      <c r="P39" s="45"/>
-      <c r="Q39" s="45"/>
+      <c r="P39" s="44"/>
+      <c r="Q39" s="44"/>
     </row>
     <row r="40" spans="6:17">
       <c r="F40" s="45" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="G40" s="46" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="H40" s="45" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="I40" s="45" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="J40" s="45" t="s">
         <v>14</v>
@@ -4816,58 +5026,138 @@
         <v>153</v>
       </c>
       <c r="O40" s="45">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="P40" s="45"/>
       <c r="Q40" s="45"/>
     </row>
-    <row r="41" spans="6:17" ht="16.25">
-      <c r="F41" s="47"/>
-      <c r="G41" s="47"/>
-      <c r="H41" s="47"/>
-      <c r="I41" s="47"/>
-      <c r="J41" s="47"/>
-      <c r="K41" s="47"/>
-      <c r="L41" s="47"/>
-      <c r="M41" s="47"/>
-      <c r="N41" s="47"/>
-      <c r="O41" s="47"/>
-    </row>
-    <row r="42" spans="6:17" ht="16.25">
-      <c r="F42" s="47"/>
-      <c r="G42" s="47"/>
-      <c r="H42" s="47"/>
-      <c r="I42" s="47"/>
-      <c r="J42" s="47"/>
-      <c r="K42" s="47"/>
-      <c r="L42" s="47"/>
-      <c r="M42" s="47"/>
-      <c r="N42" s="47"/>
-      <c r="O42" s="47"/>
-    </row>
-    <row r="43" spans="6:17" ht="16.25">
-      <c r="F43" s="47"/>
-      <c r="G43" s="47"/>
-      <c r="H43" s="47"/>
-      <c r="I43" s="47"/>
-      <c r="J43" s="47"/>
-      <c r="K43" s="47"/>
-      <c r="L43" s="47"/>
-      <c r="M43" s="47"/>
-      <c r="N43" s="47"/>
-      <c r="O43" s="47"/>
-    </row>
-    <row r="44" spans="6:17" ht="16.25">
-      <c r="F44" s="47"/>
-      <c r="G44" s="47"/>
-      <c r="H44" s="47"/>
-      <c r="I44" s="47"/>
-      <c r="J44" s="47"/>
-      <c r="K44" s="47"/>
-      <c r="L44" s="47"/>
-      <c r="M44" s="47"/>
-      <c r="N44" s="47"/>
-      <c r="O44" s="47"/>
+    <row r="41" spans="6:17">
+      <c r="F41" s="45" t="s">
+        <v>154</v>
+      </c>
+      <c r="G41" s="46" t="s">
+        <v>155</v>
+      </c>
+      <c r="H41" s="45" t="s">
+        <v>156</v>
+      </c>
+      <c r="I41" s="45" t="s">
+        <v>65</v>
+      </c>
+      <c r="J41" s="45" t="s">
+        <v>361</v>
+      </c>
+      <c r="K41" s="45" t="s">
+        <v>148</v>
+      </c>
+      <c r="L41" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="M41" s="45" t="s">
+        <v>82</v>
+      </c>
+      <c r="N41" s="45" t="s">
+        <v>153</v>
+      </c>
+      <c r="O41" s="45">
+        <v>20</v>
+      </c>
+      <c r="P41" s="45"/>
+      <c r="Q41" s="45"/>
+    </row>
+    <row r="42" spans="6:17">
+      <c r="F42" s="45" t="s">
+        <v>366</v>
+      </c>
+      <c r="G42" s="46" t="s">
+        <v>367</v>
+      </c>
+      <c r="H42" s="45" t="s">
+        <v>365</v>
+      </c>
+      <c r="I42" s="45" t="s">
+        <v>368</v>
+      </c>
+      <c r="J42" s="45" t="s">
+        <v>361</v>
+      </c>
+      <c r="K42" s="45" t="s">
+        <v>148</v>
+      </c>
+      <c r="L42" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="M42" s="45" t="s">
+        <v>82</v>
+      </c>
+      <c r="N42" s="45" t="s">
+        <v>371</v>
+      </c>
+      <c r="O42" s="45">
+        <v>30</v>
+      </c>
+      <c r="P42" s="45"/>
+      <c r="Q42" s="45"/>
+    </row>
+    <row r="43" spans="6:17" s="13" customFormat="1" ht="16.899999999999999">
+      <c r="F43" s="70" t="s">
+        <v>358</v>
+      </c>
+      <c r="G43" s="71" t="s">
+        <v>359</v>
+      </c>
+      <c r="H43" s="70" t="s">
+        <v>360</v>
+      </c>
+      <c r="I43" s="70"/>
+      <c r="J43" s="70" t="s">
+        <v>14</v>
+      </c>
+      <c r="K43" s="70" t="s">
+        <v>362</v>
+      </c>
+      <c r="L43" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="M43" s="70" t="s">
+        <v>108</v>
+      </c>
+      <c r="N43" s="70"/>
+      <c r="O43" s="70">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="44" spans="6:17" s="13" customFormat="1" ht="16.899999999999999">
+      <c r="F44" s="70" t="s">
+        <v>372</v>
+      </c>
+      <c r="G44" s="71" t="s">
+        <v>379</v>
+      </c>
+      <c r="H44" s="70" t="s">
+        <v>378</v>
+      </c>
+      <c r="I44" s="70" t="s">
+        <v>373</v>
+      </c>
+      <c r="J44" s="70" t="s">
+        <v>14</v>
+      </c>
+      <c r="K44" s="70" t="s">
+        <v>358</v>
+      </c>
+      <c r="L44" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="M44" s="70" t="s">
+        <v>82</v>
+      </c>
+      <c r="N44" s="70" t="s">
+        <v>357</v>
+      </c>
+      <c r="O44" s="70">
+        <v>10</v>
+      </c>
     </row>
     <row r="45" spans="6:17" ht="16.25">
       <c r="F45" s="47"/>
@@ -4929,9 +5219,9 @@
       <c r="N49" s="47"/>
       <c r="O49" s="47"/>
     </row>
-    <row r="50" spans="6:15" ht="16.899999999999999">
+    <row r="50" spans="6:15" ht="16.25">
       <c r="F50" s="47"/>
-      <c r="G50" s="48"/>
+      <c r="G50" s="47"/>
       <c r="H50" s="47"/>
       <c r="I50" s="47"/>
       <c r="J50" s="47"/>
@@ -4942,28 +5232,28 @@
       <c r="O50" s="47"/>
     </row>
     <row r="51" spans="6:15" ht="16.25">
-      <c r="F51" s="49"/>
-      <c r="G51" s="49"/>
-      <c r="H51" s="49"/>
-      <c r="I51" s="49"/>
-      <c r="J51" s="49"/>
-      <c r="K51" s="49"/>
-      <c r="L51" s="49"/>
-      <c r="M51" s="49"/>
-      <c r="N51" s="49"/>
-      <c r="O51" s="49"/>
-    </row>
-    <row r="52" spans="6:15" ht="16.25">
-      <c r="F52" s="49"/>
-      <c r="G52" s="49"/>
-      <c r="H52" s="49"/>
-      <c r="I52" s="49"/>
-      <c r="J52" s="49"/>
-      <c r="K52" s="49"/>
-      <c r="L52" s="49"/>
-      <c r="M52" s="49"/>
-      <c r="N52" s="49"/>
-      <c r="O52" s="49"/>
+      <c r="F51" s="47"/>
+      <c r="G51" s="47"/>
+      <c r="H51" s="47"/>
+      <c r="I51" s="47"/>
+      <c r="J51" s="47"/>
+      <c r="K51" s="47"/>
+      <c r="L51" s="47"/>
+      <c r="M51" s="47"/>
+      <c r="N51" s="47"/>
+      <c r="O51" s="47"/>
+    </row>
+    <row r="52" spans="6:15" ht="16.899999999999999">
+      <c r="F52" s="47"/>
+      <c r="G52" s="48"/>
+      <c r="H52" s="47"/>
+      <c r="I52" s="47"/>
+      <c r="J52" s="47"/>
+      <c r="K52" s="47"/>
+      <c r="L52" s="47"/>
+      <c r="M52" s="47"/>
+      <c r="N52" s="47"/>
+      <c r="O52" s="47"/>
     </row>
     <row r="53" spans="6:15" ht="16.25">
       <c r="F53" s="49"/>
@@ -4977,9 +5267,9 @@
       <c r="N53" s="49"/>
       <c r="O53" s="49"/>
     </row>
-    <row r="54" spans="6:15" ht="16.899999999999999">
+    <row r="54" spans="6:15" ht="16.25">
       <c r="F54" s="49"/>
-      <c r="G54" s="50"/>
+      <c r="G54" s="49"/>
       <c r="H54" s="49"/>
       <c r="I54" s="49"/>
       <c r="J54" s="49"/>
@@ -5025,9 +5315,9 @@
       <c r="N57" s="49"/>
       <c r="O57" s="49"/>
     </row>
-    <row r="58" spans="6:15" ht="16.25">
+    <row r="58" spans="6:15" ht="16.899999999999999">
       <c r="F58" s="49"/>
-      <c r="G58" s="49"/>
+      <c r="G58" s="50"/>
       <c r="H58" s="49"/>
       <c r="I58" s="49"/>
       <c r="J58" s="49"/>
@@ -5037,9 +5327,9 @@
       <c r="N58" s="49"/>
       <c r="O58" s="49"/>
     </row>
-    <row r="59" spans="6:15" ht="16.899999999999999">
+    <row r="59" spans="6:15" ht="16.25">
       <c r="F59" s="49"/>
-      <c r="G59" s="50"/>
+      <c r="G59" s="49"/>
       <c r="H59" s="49"/>
       <c r="I59" s="49"/>
       <c r="J59" s="49"/>
@@ -5061,9 +5351,9 @@
       <c r="N60" s="49"/>
       <c r="O60" s="49"/>
     </row>
-    <row r="61" spans="6:15" ht="16.25">
+    <row r="61" spans="6:15" ht="16.899999999999999">
       <c r="F61" s="49"/>
-      <c r="G61" s="49"/>
+      <c r="G61" s="50"/>
       <c r="H61" s="49"/>
       <c r="I61" s="49"/>
       <c r="J61" s="49"/>
@@ -5110,28 +5400,28 @@
       <c r="O64" s="49"/>
     </row>
     <row r="65" spans="6:15" ht="16.25">
-      <c r="F65" s="53"/>
-      <c r="G65" s="53"/>
-      <c r="H65" s="53"/>
-      <c r="I65" s="53"/>
-      <c r="J65" s="53"/>
-      <c r="K65" s="53"/>
-      <c r="L65" s="53"/>
-      <c r="M65" s="53"/>
-      <c r="N65" s="53"/>
-      <c r="O65" s="53"/>
+      <c r="F65" s="49"/>
+      <c r="G65" s="49"/>
+      <c r="H65" s="49"/>
+      <c r="I65" s="49"/>
+      <c r="J65" s="49"/>
+      <c r="K65" s="49"/>
+      <c r="L65" s="49"/>
+      <c r="M65" s="49"/>
+      <c r="N65" s="49"/>
+      <c r="O65" s="49"/>
     </row>
     <row r="66" spans="6:15" ht="16.25">
-      <c r="F66" s="53"/>
-      <c r="G66" s="53"/>
-      <c r="H66" s="53"/>
-      <c r="I66" s="53"/>
-      <c r="J66" s="53"/>
-      <c r="K66" s="53"/>
-      <c r="L66" s="53"/>
-      <c r="M66" s="53"/>
-      <c r="N66" s="53"/>
-      <c r="O66" s="53"/>
+      <c r="F66" s="49"/>
+      <c r="G66" s="49"/>
+      <c r="H66" s="49"/>
+      <c r="I66" s="49"/>
+      <c r="J66" s="49"/>
+      <c r="K66" s="49"/>
+      <c r="L66" s="49"/>
+      <c r="M66" s="49"/>
+      <c r="N66" s="49"/>
+      <c r="O66" s="49"/>
     </row>
     <row r="67" spans="6:15" ht="16.25">
       <c r="F67" s="53"/>
@@ -5157,29 +5447,29 @@
       <c r="N68" s="53"/>
       <c r="O68" s="53"/>
     </row>
-    <row r="69" spans="6:15" ht="16.899999999999999">
-      <c r="F69" s="54"/>
-      <c r="G69" s="54"/>
-      <c r="H69" s="54"/>
-      <c r="I69" s="54"/>
-      <c r="J69" s="54"/>
-      <c r="K69" s="54"/>
-      <c r="L69" s="54"/>
-      <c r="M69" s="54"/>
-      <c r="N69" s="57"/>
-      <c r="O69" s="54"/>
-    </row>
-    <row r="70" spans="6:15" ht="16.899999999999999">
-      <c r="F70" s="54"/>
-      <c r="G70" s="54"/>
-      <c r="H70" s="54"/>
-      <c r="I70" s="54"/>
-      <c r="J70" s="54"/>
-      <c r="K70" s="54"/>
-      <c r="L70" s="54"/>
-      <c r="M70" s="54"/>
-      <c r="N70" s="57"/>
-      <c r="O70" s="54"/>
+    <row r="69" spans="6:15" ht="16.25">
+      <c r="F69" s="53"/>
+      <c r="G69" s="53"/>
+      <c r="H69" s="53"/>
+      <c r="I69" s="53"/>
+      <c r="J69" s="53"/>
+      <c r="K69" s="53"/>
+      <c r="L69" s="53"/>
+      <c r="M69" s="53"/>
+      <c r="N69" s="53"/>
+      <c r="O69" s="53"/>
+    </row>
+    <row r="70" spans="6:15" ht="16.25">
+      <c r="F70" s="53"/>
+      <c r="G70" s="53"/>
+      <c r="H70" s="53"/>
+      <c r="I70" s="53"/>
+      <c r="J70" s="53"/>
+      <c r="K70" s="53"/>
+      <c r="L70" s="53"/>
+      <c r="M70" s="53"/>
+      <c r="N70" s="53"/>
+      <c r="O70" s="53"/>
     </row>
     <row r="71" spans="6:15" ht="16.899999999999999">
       <c r="F71" s="54"/>
@@ -5190,32 +5480,32 @@
       <c r="K71" s="54"/>
       <c r="L71" s="54"/>
       <c r="M71" s="54"/>
-      <c r="N71" s="54"/>
+      <c r="N71" s="57"/>
       <c r="O71" s="54"/>
     </row>
-    <row r="72" spans="6:15" s="34" customFormat="1" ht="16.899999999999999">
-      <c r="F72" s="47"/>
-      <c r="G72" s="48"/>
-      <c r="H72" s="47"/>
-      <c r="I72" s="47"/>
-      <c r="J72" s="47"/>
-      <c r="K72" s="47"/>
-      <c r="L72" s="47"/>
-      <c r="M72" s="47"/>
-      <c r="N72" s="47"/>
-      <c r="O72" s="47"/>
-    </row>
-    <row r="73" spans="6:15" s="34" customFormat="1" ht="16.899999999999999">
-      <c r="F73" s="47"/>
-      <c r="G73" s="48"/>
-      <c r="H73" s="47"/>
-      <c r="I73" s="47"/>
-      <c r="J73" s="47"/>
-      <c r="K73" s="47"/>
-      <c r="L73" s="47"/>
-      <c r="M73" s="47"/>
-      <c r="N73" s="47"/>
-      <c r="O73" s="47"/>
+    <row r="72" spans="6:15" ht="16.899999999999999">
+      <c r="F72" s="54"/>
+      <c r="G72" s="54"/>
+      <c r="H72" s="54"/>
+      <c r="I72" s="54"/>
+      <c r="J72" s="54"/>
+      <c r="K72" s="54"/>
+      <c r="L72" s="54"/>
+      <c r="M72" s="54"/>
+      <c r="N72" s="57"/>
+      <c r="O72" s="54"/>
+    </row>
+    <row r="73" spans="6:15" ht="16.899999999999999">
+      <c r="F73" s="54"/>
+      <c r="G73" s="54"/>
+      <c r="H73" s="54"/>
+      <c r="I73" s="54"/>
+      <c r="J73" s="54"/>
+      <c r="K73" s="54"/>
+      <c r="L73" s="54"/>
+      <c r="M73" s="54"/>
+      <c r="N73" s="54"/>
+      <c r="O73" s="54"/>
     </row>
     <row r="74" spans="6:15" s="34" customFormat="1" ht="16.899999999999999">
       <c r="F74" s="47"/>
@@ -5265,29 +5555,29 @@
       <c r="N77" s="47"/>
       <c r="O77" s="47"/>
     </row>
-    <row r="78" spans="6:15" ht="16.25">
-      <c r="F78" s="55"/>
-      <c r="G78" s="55"/>
-      <c r="H78" s="55"/>
-      <c r="I78" s="55"/>
-      <c r="J78" s="55"/>
-      <c r="K78" s="55"/>
-      <c r="L78" s="55"/>
-      <c r="M78" s="55"/>
-      <c r="N78" s="55"/>
-      <c r="O78" s="55"/>
-    </row>
-    <row r="79" spans="6:15" ht="16.25">
-      <c r="F79" s="55"/>
-      <c r="G79" s="55"/>
-      <c r="H79" s="55"/>
-      <c r="I79" s="55"/>
-      <c r="J79" s="55"/>
-      <c r="K79" s="55"/>
-      <c r="L79" s="55"/>
-      <c r="M79" s="55"/>
-      <c r="N79" s="55"/>
-      <c r="O79" s="55"/>
+    <row r="78" spans="6:15" s="34" customFormat="1" ht="16.899999999999999">
+      <c r="F78" s="47"/>
+      <c r="G78" s="48"/>
+      <c r="H78" s="47"/>
+      <c r="I78" s="47"/>
+      <c r="J78" s="47"/>
+      <c r="K78" s="47"/>
+      <c r="L78" s="47"/>
+      <c r="M78" s="47"/>
+      <c r="N78" s="47"/>
+      <c r="O78" s="47"/>
+    </row>
+    <row r="79" spans="6:15" s="34" customFormat="1" ht="16.899999999999999">
+      <c r="F79" s="47"/>
+      <c r="G79" s="48"/>
+      <c r="H79" s="47"/>
+      <c r="I79" s="47"/>
+      <c r="J79" s="47"/>
+      <c r="K79" s="47"/>
+      <c r="L79" s="47"/>
+      <c r="M79" s="47"/>
+      <c r="N79" s="47"/>
+      <c r="O79" s="47"/>
     </row>
     <row r="80" spans="6:15" ht="16.25">
       <c r="F80" s="55"/>
@@ -5313,9 +5603,9 @@
       <c r="N81" s="55"/>
       <c r="O81" s="55"/>
     </row>
-    <row r="82" spans="6:15" ht="16.899999999999999">
+    <row r="82" spans="6:15" ht="16.25">
       <c r="F82" s="55"/>
-      <c r="G82" s="56"/>
+      <c r="G82" s="55"/>
       <c r="H82" s="55"/>
       <c r="I82" s="55"/>
       <c r="J82" s="55"/>
@@ -5329,15 +5619,17 @@
       <c r="F83" s="55"/>
       <c r="G83" s="55"/>
       <c r="H83" s="55"/>
+      <c r="I83" s="55"/>
       <c r="J83" s="55"/>
       <c r="K83" s="55"/>
       <c r="L83" s="55"/>
       <c r="M83" s="55"/>
+      <c r="N83" s="55"/>
       <c r="O83" s="55"/>
     </row>
-    <row r="84" spans="6:15" ht="16.25">
+    <row r="84" spans="6:15" ht="16.899999999999999">
       <c r="F84" s="55"/>
-      <c r="G84" s="55"/>
+      <c r="G84" s="56"/>
       <c r="H84" s="55"/>
       <c r="I84" s="55"/>
       <c r="J84" s="55"/>
@@ -5346,6 +5638,28 @@
       <c r="M84" s="55"/>
       <c r="N84" s="55"/>
       <c r="O84" s="55"/>
+    </row>
+    <row r="85" spans="6:15" ht="16.25">
+      <c r="F85" s="55"/>
+      <c r="G85" s="55"/>
+      <c r="H85" s="55"/>
+      <c r="J85" s="55"/>
+      <c r="K85" s="55"/>
+      <c r="L85" s="55"/>
+      <c r="M85" s="55"/>
+      <c r="O85" s="55"/>
+    </row>
+    <row r="86" spans="6:15" ht="16.25">
+      <c r="F86" s="55"/>
+      <c r="G86" s="55"/>
+      <c r="H86" s="55"/>
+      <c r="I86" s="55"/>
+      <c r="J86" s="55"/>
+      <c r="K86" s="55"/>
+      <c r="L86" s="55"/>
+      <c r="M86" s="55"/>
+      <c r="N86" s="55"/>
+      <c r="O86" s="55"/>
     </row>
   </sheetData>
   <phoneticPr fontId="53" type="noConversion"/>
@@ -5362,8 +5676,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:I87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G95" sqref="G95"/>
+    <sheetView topLeftCell="A75" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G76" sqref="G76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.7"/>
@@ -6289,10 +6603,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D7:G43"/>
+  <dimension ref="D7:G45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.7"/>
@@ -6360,27 +6674,54 @@
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="4:7" ht="18.2">
-      <c r="F12" s="24" t="s">
-        <v>165</v>
-      </c>
-      <c r="G12" s="25" t="s">
-        <v>62</v>
+    <row r="12" spans="4:7" s="20" customFormat="1" ht="18.2">
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="G12" s="23" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="13" spans="4:7" s="20" customFormat="1" ht="18.2">
       <c r="D13" s="21"/>
       <c r="E13" s="21"/>
-      <c r="F13" s="24" t="s">
+      <c r="F13" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="G13" s="23" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="14" spans="4:7" ht="18.2">
+      <c r="F14" s="24" t="s">
         <v>165</v>
       </c>
-      <c r="G13" s="25" t="s">
+      <c r="G14" s="25" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="4:7" s="20" customFormat="1" ht="18.2">
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="G15" s="25" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="4:7" s="21" customFormat="1" ht="18.2"/>
-    <row r="15" spans="4:7" s="21" customFormat="1" ht="18.2"/>
-    <row r="16" spans="4:7" s="21" customFormat="1" ht="18.2"/>
+    <row r="16" spans="4:7" s="20" customFormat="1" ht="18.2">
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="G16" s="25" t="s">
+        <v>377</v>
+      </c>
+    </row>
     <row r="17" s="21" customFormat="1" ht="18.2"/>
     <row r="18" s="21" customFormat="1" ht="18.2"/>
     <row r="19" s="21" customFormat="1" ht="18.2"/>
@@ -6408,6 +6749,8 @@
     <row r="41" s="21" customFormat="1" ht="18.2"/>
     <row r="42" s="21" customFormat="1" ht="18.2"/>
     <row r="43" s="21" customFormat="1" ht="18.2"/>
+    <row r="44" s="21" customFormat="1" ht="18.2"/>
+    <row r="45" s="21" customFormat="1" ht="18.2"/>
   </sheetData>
   <phoneticPr fontId="53" type="noConversion"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
@@ -6421,9 +6764,9 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D7:I75"/>
+  <dimension ref="D7:I79"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A28" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="G58" sqref="G58"/>
     </sheetView>
   </sheetViews>
@@ -6912,36 +7255,34 @@
     </row>
     <row r="40" spans="4:9">
       <c r="F40" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="G40" s="11" t="s">
+        <v>374</v>
+      </c>
+      <c r="H40" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="I40" s="13"/>
+    </row>
+    <row r="41" spans="4:9">
+      <c r="F41" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="G40" s="11" t="s">
+      <c r="G41" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="H40" s="11" t="s">
+      <c r="H41" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="I40" s="11"/>
-    </row>
-    <row r="41" spans="4:9" s="4" customFormat="1">
-      <c r="F41" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="G41" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="H41" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="I41" s="4">
-        <v>1</v>
-      </c>
+      <c r="I41" s="11"/>
     </row>
     <row r="42" spans="4:9" s="4" customFormat="1">
       <c r="F42" s="12" t="s">
         <v>170</v>
       </c>
       <c r="G42" s="12" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="H42" s="12" t="s">
         <v>171</v>
@@ -6950,227 +7291,283 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="4:9">
-      <c r="F43" s="11" t="s">
+    <row r="43" spans="4:9" s="4" customFormat="1">
+      <c r="F43" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="G43" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="H43" s="11" t="s">
+      <c r="G43" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="H43" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="I43" s="13"/>
+      <c r="I43" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="44" spans="4:9">
       <c r="F44" s="11" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G44" s="11" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="H44" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="I44" s="11"/>
-    </row>
-    <row r="45" spans="4:9" s="4" customFormat="1">
-      <c r="F45" s="12" t="s">
+      <c r="I44" s="13"/>
+    </row>
+    <row r="45" spans="4:9">
+      <c r="F45" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="G45" s="11" t="s">
+        <v>374</v>
+      </c>
+      <c r="H45" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="I45" s="13"/>
+    </row>
+    <row r="46" spans="4:9">
+      <c r="F46" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="G45" s="4" t="s">
+      <c r="G46" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="H46" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="I46" s="11"/>
+    </row>
+    <row r="47" spans="4:9" s="4" customFormat="1">
+      <c r="F47" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="G47" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="H45" s="12" t="s">
+      <c r="H47" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="I45" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="4:9" s="4" customFormat="1">
-      <c r="F46" s="12" t="s">
+      <c r="I47" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="4:9" s="4" customFormat="1">
+      <c r="F48" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="G46" s="4" t="s">
+      <c r="G48" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="H46" s="12" t="s">
+      <c r="H48" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="I46" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="4:9">
-      <c r="F47" s="11" t="s">
+      <c r="I48" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="6:9">
+      <c r="F49" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="G47" s="13" t="s">
+      <c r="G49" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="H47" s="11" t="s">
+      <c r="H49" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="I47" s="13"/>
-    </row>
-    <row r="48" spans="4:9" ht="13">
-      <c r="F48" s="14" t="s">
+      <c r="I49" s="13"/>
+    </row>
+    <row r="50" spans="6:9">
+      <c r="F50" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="G50" s="13" t="s">
+        <v>374</v>
+      </c>
+      <c r="H50" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="I50" s="13"/>
+    </row>
+    <row r="51" spans="6:9" ht="13">
+      <c r="F51" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="G48" s="15" t="s">
+      <c r="G51" s="15" t="s">
         <v>150</v>
-      </c>
-      <c r="H48" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="I48" s="19"/>
-    </row>
-    <row r="49" spans="4:9" ht="12.35">
-      <c r="F49" s="14" t="s">
-        <v>170</v>
-      </c>
-      <c r="G49" s="16" t="s">
-        <v>154</v>
-      </c>
-      <c r="H49" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="I49" s="16"/>
-    </row>
-    <row r="50" spans="4:9" ht="13">
-      <c r="F50" s="14" t="s">
-        <v>172</v>
-      </c>
-      <c r="G50" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="H50" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="I50" s="19"/>
-    </row>
-    <row r="51" spans="4:9" ht="12.35">
-      <c r="F51" s="14" t="s">
-        <v>172</v>
-      </c>
-      <c r="G51" s="16" t="s">
-        <v>154</v>
       </c>
       <c r="H51" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="I51" s="16"/>
-    </row>
-    <row r="52" spans="4:9" ht="12.35">
-      <c r="D52" s="7"/>
-      <c r="F52" s="7"/>
-      <c r="G52" s="7"/>
-      <c r="H52" s="7"/>
-    </row>
-    <row r="53" spans="4:9" ht="12.35">
-      <c r="F53" s="7"/>
-      <c r="G53" s="7"/>
-      <c r="H53" s="7"/>
-    </row>
-    <row r="54" spans="4:9" ht="12.35">
-      <c r="F54" s="7"/>
-      <c r="G54" s="7"/>
-      <c r="H54" s="7"/>
-    </row>
-    <row r="55" spans="4:9" ht="12.35">
-      <c r="F55" s="7"/>
-      <c r="G55" s="7"/>
-      <c r="H55" s="7"/>
-    </row>
-    <row r="56" spans="4:9" ht="12.35">
-      <c r="F56" s="7"/>
-      <c r="G56" s="7"/>
-      <c r="H56" s="7"/>
-    </row>
-    <row r="57" spans="4:9" ht="12.35">
+      <c r="I51" s="19"/>
+    </row>
+    <row r="52" spans="6:9" ht="12.35">
+      <c r="F52" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="G52" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="H52" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="I52" s="16"/>
+    </row>
+    <row r="53" spans="6:9" ht="12.35">
+      <c r="F53" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="G53" s="16" t="s">
+        <v>366</v>
+      </c>
+      <c r="H53" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="I53" s="16"/>
+    </row>
+    <row r="54" spans="6:9" ht="13">
+      <c r="F54" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="G54" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="H54" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="I54" s="19"/>
+    </row>
+    <row r="55" spans="6:9" ht="12.35">
+      <c r="F55" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="G55" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="H55" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="I55" s="16"/>
+    </row>
+    <row r="56" spans="6:9" ht="12.35">
+      <c r="F56" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="G56" s="16" t="s">
+        <v>366</v>
+      </c>
+      <c r="H56" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="I56" s="16"/>
+    </row>
+    <row r="57" spans="6:9" ht="12.35">
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c r="H57" s="7"/>
     </row>
-    <row r="58" spans="4:9" ht="12.35">
+    <row r="58" spans="6:9" ht="12.35">
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c r="H58" s="7"/>
     </row>
-    <row r="59" spans="4:9" ht="12.35">
+    <row r="59" spans="6:9" ht="12.35">
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c r="H59" s="7"/>
     </row>
-    <row r="60" spans="4:9" ht="12.35">
+    <row r="60" spans="6:9" ht="12.35">
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
       <c r="H60" s="7"/>
     </row>
-    <row r="61" spans="4:9" ht="12.35">
+    <row r="61" spans="6:9" ht="12.35">
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
       <c r="H61" s="7"/>
     </row>
-    <row r="62" spans="4:9" ht="12.35">
+    <row r="62" spans="6:9" ht="12.35">
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
       <c r="H62" s="7"/>
     </row>
-    <row r="63" spans="4:9" ht="12.35">
+    <row r="63" spans="6:9" ht="12.35">
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c r="H63" s="7"/>
     </row>
-    <row r="64" spans="4:9" ht="12.35">
-      <c r="F64" s="17"/>
+    <row r="64" spans="6:9" ht="12.35">
+      <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c r="H64" s="7"/>
     </row>
-    <row r="65" spans="7:8" ht="12.35">
+    <row r="65" spans="6:8" ht="12.35">
+      <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c r="H65" s="7"/>
     </row>
-    <row r="66" spans="7:8" ht="12.35">
+    <row r="66" spans="6:8" ht="12.35">
+      <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c r="H66" s="7"/>
     </row>
-    <row r="67" spans="7:8" ht="12.35">
+    <row r="67" spans="6:8" ht="12.35">
+      <c r="F67" s="7"/>
       <c r="G67" s="7"/>
       <c r="H67" s="7"/>
     </row>
-    <row r="68" spans="7:8" ht="12.35">
+    <row r="68" spans="6:8" ht="12.35">
+      <c r="F68" s="17"/>
       <c r="G68" s="7"/>
       <c r="H68" s="7"/>
     </row>
-    <row r="69" spans="7:8" ht="12.35">
+    <row r="69" spans="6:8" ht="12.35">
       <c r="G69" s="7"/>
       <c r="H69" s="7"/>
     </row>
-    <row r="70" spans="7:8" ht="12.35">
+    <row r="70" spans="6:8" ht="12.35">
       <c r="G70" s="7"/>
       <c r="H70" s="7"/>
     </row>
-    <row r="71" spans="7:8" ht="12.35">
+    <row r="71" spans="6:8" ht="12.35">
       <c r="G71" s="7"/>
       <c r="H71" s="7"/>
     </row>
-    <row r="72" spans="7:8" ht="12.35">
+    <row r="72" spans="6:8" ht="12.35">
       <c r="G72" s="7"/>
       <c r="H72" s="7"/>
     </row>
-    <row r="73" spans="7:8" ht="12.35">
+    <row r="73" spans="6:8" ht="12.35">
       <c r="G73" s="7"/>
       <c r="H73" s="7"/>
     </row>
-    <row r="74" spans="7:8" ht="12.35">
+    <row r="74" spans="6:8" ht="12.35">
       <c r="G74" s="7"/>
       <c r="H74" s="7"/>
     </row>
-    <row r="75" spans="7:8" ht="12.35">
+    <row r="75" spans="6:8" ht="12.35">
       <c r="G75" s="7"/>
       <c r="H75" s="7"/>
+    </row>
+    <row r="76" spans="6:8" ht="12.35">
+      <c r="G76" s="7"/>
+      <c r="H76" s="7"/>
+    </row>
+    <row r="77" spans="6:8" ht="12.35">
+      <c r="G77" s="7"/>
+      <c r="H77" s="7"/>
+    </row>
+    <row r="78" spans="6:8" ht="12.35">
+      <c r="G78" s="7"/>
+      <c r="H78" s="7"/>
+    </row>
+    <row r="79" spans="6:8" ht="12.35">
+      <c r="G79" s="7"/>
+      <c r="H79" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="53" type="noConversion"/>

--- a/src/main/resources/script/meta/micro-service-init-data.xlsx
+++ b/src/main/resources/script/meta/micro-service-init-data.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1062" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1397" uniqueCount="379">
   <si>
     <t>IAM_PERMISSION</t>
   </si>
@@ -1189,9 +1189,6 @@
     <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
-    <t>sutask</t>
-  </si>
-  <si>
     <t>choerodon.code.site.infra</t>
     <phoneticPr fontId="53" type="noConversion"/>
   </si>
@@ -1240,14 +1237,6 @@
     <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
-    <t>account_balance</t>
-    <phoneticPr fontId="53" type="noConversion"/>
-  </si>
-  <si>
-    <t>account_balance</t>
-    <phoneticPr fontId="53" type="noConversion"/>
-  </si>
-  <si>
     <t>choerodon.code.site.product-lib</t>
     <phoneticPr fontId="53" type="noConversion"/>
   </si>
@@ -1276,6 +1265,14 @@
   </si>
   <si>
     <t>制品库管理</t>
+    <phoneticPr fontId="53" type="noConversion"/>
+  </si>
+  <si>
+    <t>sutask</t>
+    <phoneticPr fontId="53" type="noConversion"/>
+  </si>
+  <si>
+    <t>sutask</t>
     <phoneticPr fontId="53" type="noConversion"/>
   </si>
 </sst>
@@ -2768,7 +2765,7 @@
     </row>
     <row r="28" spans="4:17" ht="12.35">
       <c r="F28" s="7" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>355</v>
@@ -2797,7 +2794,7 @@
     </row>
     <row r="29" spans="4:17" ht="12.35">
       <c r="F29" s="7" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>349</v>
@@ -3817,8 +3814,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:Q86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F25" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="I50" sqref="I50"/>
+    <sheetView tabSelected="1" topLeftCell="G21" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="O35" sqref="O35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.7"/>
@@ -4831,13 +4828,13 @@
     </row>
     <row r="35" spans="6:17">
       <c r="F35" s="41" t="s">
+        <v>362</v>
+      </c>
+      <c r="G35" s="42" t="s">
         <v>363</v>
       </c>
-      <c r="G35" s="42" t="s">
+      <c r="H35" s="41" t="s">
         <v>364</v>
-      </c>
-      <c r="H35" s="41" t="s">
-        <v>365</v>
       </c>
       <c r="I35" s="41" t="s">
         <v>350</v>
@@ -4855,10 +4852,10 @@
         <v>82</v>
       </c>
       <c r="N35" s="41" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="O35" s="41">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="P35" s="41"/>
       <c r="Q35" s="41"/>
@@ -5045,7 +5042,7 @@
         <v>65</v>
       </c>
       <c r="J41" s="45" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="K41" s="45" t="s">
         <v>148</v>
@@ -5067,19 +5064,19 @@
     </row>
     <row r="42" spans="6:17">
       <c r="F42" s="45" t="s">
+        <v>365</v>
+      </c>
+      <c r="G42" s="46" t="s">
         <v>366</v>
       </c>
-      <c r="G42" s="46" t="s">
+      <c r="H42" s="45" t="s">
+        <v>364</v>
+      </c>
+      <c r="I42" s="45" t="s">
         <v>367</v>
       </c>
-      <c r="H42" s="45" t="s">
-        <v>365</v>
-      </c>
-      <c r="I42" s="45" t="s">
-        <v>368</v>
-      </c>
       <c r="J42" s="45" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="K42" s="45" t="s">
         <v>148</v>
@@ -5091,7 +5088,7 @@
         <v>82</v>
       </c>
       <c r="N42" s="45" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="O42" s="45">
         <v>30</v>
@@ -5101,20 +5098,20 @@
     </row>
     <row r="43" spans="6:17" s="13" customFormat="1" ht="16.899999999999999">
       <c r="F43" s="70" t="s">
+        <v>357</v>
+      </c>
+      <c r="G43" s="71" t="s">
         <v>358</v>
       </c>
-      <c r="G43" s="71" t="s">
+      <c r="H43" s="70" t="s">
         <v>359</v>
-      </c>
-      <c r="H43" s="70" t="s">
-        <v>360</v>
       </c>
       <c r="I43" s="70"/>
       <c r="J43" s="70" t="s">
         <v>14</v>
       </c>
       <c r="K43" s="70" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="L43" s="70" t="s">
         <v>15</v>
@@ -5129,22 +5126,22 @@
     </row>
     <row r="44" spans="6:17" s="13" customFormat="1" ht="16.899999999999999">
       <c r="F44" s="70" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="G44" s="71" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="H44" s="70" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="I44" s="70" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="J44" s="70" t="s">
         <v>14</v>
       </c>
       <c r="K44" s="70" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="L44" s="70" t="s">
         <v>15</v>
@@ -5153,7 +5150,7 @@
         <v>82</v>
       </c>
       <c r="N44" s="70" t="s">
-        <v>357</v>
+        <v>377</v>
       </c>
       <c r="O44" s="70">
         <v>10</v>
@@ -6681,7 +6678,7 @@
         <v>163</v>
       </c>
       <c r="G12" s="23" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="13" spans="4:7" s="20" customFormat="1" ht="18.2">
@@ -6691,7 +6688,7 @@
         <v>164</v>
       </c>
       <c r="G13" s="23" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="14" spans="4:7" ht="18.2">
@@ -6719,7 +6716,7 @@
         <v>165</v>
       </c>
       <c r="G16" s="25" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="17" s="21" customFormat="1" ht="18.2"/>
@@ -7258,7 +7255,7 @@
         <v>169</v>
       </c>
       <c r="G40" s="11" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="H40" s="11" t="s">
         <v>26</v>
@@ -7322,7 +7319,7 @@
         <v>170</v>
       </c>
       <c r="G45" s="11" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="H45" s="11" t="s">
         <v>171</v>
@@ -7386,7 +7383,7 @@
         <v>172</v>
       </c>
       <c r="G50" s="13" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="H50" s="11" t="s">
         <v>171</v>
@@ -7422,7 +7419,7 @@
         <v>170</v>
       </c>
       <c r="G53" s="16" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H53" s="15" t="s">
         <v>42</v>
@@ -7458,7 +7455,7 @@
         <v>172</v>
       </c>
       <c r="G56" s="16" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H56" s="15" t="s">
         <v>42</v>

--- a/src/main/resources/script/meta/micro-service-init-data.xlsx
+++ b/src/main/resources/script/meta/micro-service-init-data.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1397" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1062" uniqueCount="381">
   <si>
     <t>IAM_PERMISSION</t>
   </si>
@@ -1273,6 +1273,14 @@
   </si>
   <si>
     <t>sutask</t>
+    <phoneticPr fontId="53" type="noConversion"/>
+  </si>
+  <si>
+    <t>文档库管理</t>
+    <phoneticPr fontId="53" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码库管理</t>
     <phoneticPr fontId="53" type="noConversion"/>
   </si>
 </sst>
@@ -1684,7 +1692,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1761,6 +1769,7 @@
     <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3815,7 +3824,7 @@
   <dimension ref="D7:Q86"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G21" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="O35" sqref="O35"/>
+      <selection activeCell="L49" sqref="L49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.7"/>
@@ -4999,10 +5008,10 @@
         <v>150</v>
       </c>
       <c r="G40" s="46" t="s">
-        <v>151</v>
-      </c>
-      <c r="H40" s="45" t="s">
-        <v>152</v>
+        <v>379</v>
+      </c>
+      <c r="H40" s="72" t="s">
+        <v>137</v>
       </c>
       <c r="I40" s="45" t="s">
         <v>62</v>
@@ -5019,8 +5028,8 @@
       <c r="M40" s="45" t="s">
         <v>82</v>
       </c>
-      <c r="N40" s="45" t="s">
-        <v>153</v>
+      <c r="N40" s="41" t="s">
+        <v>138</v>
       </c>
       <c r="O40" s="45">
         <v>10</v>
@@ -5033,10 +5042,10 @@
         <v>154</v>
       </c>
       <c r="G41" s="46" t="s">
-        <v>155</v>
-      </c>
-      <c r="H41" s="45" t="s">
-        <v>156</v>
+        <v>380</v>
+      </c>
+      <c r="H41" s="72" t="s">
+        <v>102</v>
       </c>
       <c r="I41" s="45" t="s">
         <v>65</v>
@@ -5053,8 +5062,8 @@
       <c r="M41" s="45" t="s">
         <v>82</v>
       </c>
-      <c r="N41" s="45" t="s">
-        <v>153</v>
+      <c r="N41" s="41" t="s">
+        <v>147</v>
       </c>
       <c r="O41" s="45">
         <v>20</v>

--- a/src/main/resources/script/meta/micro-service-init-data.xlsx
+++ b/src/main/resources/script/meta/micro-service-init-data.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1062" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1110" uniqueCount="400">
   <si>
     <t>IAM_PERMISSION</t>
   </si>
@@ -1283,6 +1283,91 @@
     <t>代码库管理</t>
     <phoneticPr fontId="53" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t>/infra/cluster-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Fallback"/>
+        <charset val="134"/>
+      </rPr>
+      <t>apply</t>
+    </r>
+    <phoneticPr fontId="53" type="noConversion"/>
+  </si>
+  <si>
+    <t>集群申请路由</t>
+    <phoneticPr fontId="53" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.route.project.cluster-approval</t>
+    <phoneticPr fontId="53" type="noConversion"/>
+  </si>
+  <si>
+    <t>/infra/cluster-approval</t>
+    <phoneticPr fontId="53" type="noConversion"/>
+  </si>
+  <si>
+    <t>集群审批路由</t>
+    <phoneticPr fontId="53" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.code.deploy.cluster</t>
+  </si>
+  <si>
+    <t>集群申请</t>
+    <phoneticPr fontId="53" type="noConversion"/>
+  </si>
+  <si>
+    <t>集群审批</t>
+    <phoneticPr fontId="53" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cluster Apply</t>
+    <phoneticPr fontId="53" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cluster Approval</t>
+    <phoneticPr fontId="53" type="noConversion"/>
+  </si>
+  <si>
+    <t>menu_item</t>
+    <phoneticPr fontId="53" type="noConversion"/>
+  </si>
+  <si>
+    <t>receipt</t>
+    <phoneticPr fontId="53" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.route.project.cluster-apply</t>
+    <phoneticPr fontId="53" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.code.project.cluster-apply</t>
+    <phoneticPr fontId="53" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.route.project.cluster-approval</t>
+    <phoneticPr fontId="53" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.code.project.cluster-approval</t>
+    <phoneticPr fontId="53" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.route.project.cluster-apply</t>
+    <phoneticPr fontId="53" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.code.project.cluster-apply</t>
+    <phoneticPr fontId="53" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.code.project.cluster-approval</t>
+    <phoneticPr fontId="53" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1298,7 +1383,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="DengXian"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2047,8 +2132,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:Q59"/>
   <sheetViews>
-    <sheetView topLeftCell="E5" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView topLeftCell="G12" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.7"/>
@@ -2830,33 +2915,63 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="4:17">
-      <c r="F30" s="39"/>
-      <c r="G30" s="39"/>
-      <c r="H30" s="39"/>
-      <c r="I30" s="39"/>
-      <c r="J30" s="39"/>
-      <c r="K30" s="39"/>
-      <c r="L30" s="39"/>
-      <c r="M30" s="39"/>
-      <c r="N30" s="39"/>
-      <c r="O30" s="39"/>
-      <c r="P30" s="39"/>
-      <c r="Q30" s="39"/>
-    </row>
-    <row r="31" spans="4:17">
-      <c r="F31" s="39"/>
-      <c r="G31" s="39"/>
-      <c r="H31" s="39"/>
-      <c r="I31" s="39"/>
-      <c r="J31" s="39"/>
-      <c r="K31" s="39"/>
-      <c r="L31" s="39"/>
-      <c r="M31" s="39"/>
-      <c r="N31" s="39"/>
-      <c r="O31" s="39"/>
-      <c r="P31" s="39"/>
-      <c r="Q31" s="39"/>
+    <row r="30" spans="4:17" s="3" customFormat="1">
+      <c r="F30" s="72" t="s">
+        <v>397</v>
+      </c>
+      <c r="G30" s="72" t="s">
+        <v>381</v>
+      </c>
+      <c r="H30" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J30" s="72" t="s">
+        <v>382</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="4:17" s="3" customFormat="1">
+      <c r="F31" s="72" t="s">
+        <v>383</v>
+      </c>
+      <c r="G31" s="72" t="s">
+        <v>384</v>
+      </c>
+      <c r="H31" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J31" s="72" t="s">
+        <v>385</v>
+      </c>
+      <c r="K31" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="32" spans="4:17">
       <c r="F32" s="40"/>
@@ -3815,7 +3930,7 @@
   </sheetData>
   <phoneticPr fontId="53" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3823,8 +3938,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:Q86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G21" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="L49" sqref="L49"/>
+    <sheetView tabSelected="1" topLeftCell="G25" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="I44" sqref="I44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.7"/>
@@ -5165,29 +5280,69 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="6:17" ht="16.25">
-      <c r="F45" s="47"/>
-      <c r="G45" s="47"/>
-      <c r="H45" s="47"/>
-      <c r="I45" s="47"/>
-      <c r="J45" s="47"/>
-      <c r="K45" s="47"/>
-      <c r="L45" s="47"/>
-      <c r="M45" s="47"/>
-      <c r="N45" s="47"/>
-      <c r="O45" s="47"/>
-    </row>
-    <row r="46" spans="6:17" ht="16.25">
-      <c r="F46" s="47"/>
-      <c r="G46" s="47"/>
-      <c r="H46" s="47"/>
-      <c r="I46" s="47"/>
-      <c r="J46" s="47"/>
-      <c r="K46" s="47"/>
-      <c r="L46" s="47"/>
-      <c r="M46" s="47"/>
-      <c r="N46" s="47"/>
-      <c r="O46" s="47"/>
+    <row r="45" spans="6:17" s="3" customFormat="1" ht="16.25">
+      <c r="F45" s="72" t="s">
+        <v>394</v>
+      </c>
+      <c r="G45" s="72" t="s">
+        <v>387</v>
+      </c>
+      <c r="H45" s="72" t="s">
+        <v>389</v>
+      </c>
+      <c r="I45" s="72" t="s">
+        <v>393</v>
+      </c>
+      <c r="J45" s="70" t="s">
+        <v>14</v>
+      </c>
+      <c r="K45" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="L45" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M45" s="72" t="s">
+        <v>391</v>
+      </c>
+      <c r="N45" s="72" t="s">
+        <v>392</v>
+      </c>
+      <c r="O45" s="3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="46" spans="6:17" s="3" customFormat="1" ht="16.25">
+      <c r="F46" s="72" t="s">
+        <v>396</v>
+      </c>
+      <c r="G46" s="72" t="s">
+        <v>388</v>
+      </c>
+      <c r="H46" s="72" t="s">
+        <v>390</v>
+      </c>
+      <c r="I46" s="72" t="s">
+        <v>395</v>
+      </c>
+      <c r="J46" s="70" t="s">
+        <v>14</v>
+      </c>
+      <c r="K46" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="L46" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="N46" s="72" t="s">
+        <v>392</v>
+      </c>
+      <c r="O46" s="3">
+        <v>90</v>
+      </c>
     </row>
     <row r="47" spans="6:17" ht="16.25">
       <c r="F47" s="47"/>
@@ -5682,7 +5837,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:I87"/>
   <sheetViews>
-    <sheetView topLeftCell="A75" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A51" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G76" sqref="G76"/>
     </sheetView>
   </sheetViews>
@@ -6611,7 +6766,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:G45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
@@ -6770,10 +6925,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D7:I79"/>
+  <dimension ref="D7:I85"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G58" sqref="G58"/>
+    <sheetView topLeftCell="A31" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="L47" sqref="L47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.7"/>
@@ -7271,235 +7426,271 @@
       </c>
       <c r="I40" s="13"/>
     </row>
-    <row r="41" spans="4:9">
-      <c r="F41" s="11" t="s">
+    <row r="41" spans="4:9" s="3" customFormat="1">
+      <c r="F41" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="G41" s="72" t="s">
+        <v>398</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="42" spans="4:9" s="3" customFormat="1">
+      <c r="F42" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="G42" s="72" t="s">
+        <v>399</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="43" spans="4:9">
+      <c r="F43" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="G41" s="11" t="s">
+      <c r="G43" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="H41" s="11" t="s">
+      <c r="H43" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="I41" s="11"/>
-    </row>
-    <row r="42" spans="4:9" s="4" customFormat="1">
-      <c r="F42" s="12" t="s">
+      <c r="I43" s="11"/>
+    </row>
+    <row r="44" spans="4:9" s="4" customFormat="1">
+      <c r="F44" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="G42" s="12" t="s">
+      <c r="G44" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="H42" s="12" t="s">
+      <c r="H44" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="I42" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="4:9" s="4" customFormat="1">
-      <c r="F43" s="12" t="s">
+      <c r="I44" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="4:9" s="4" customFormat="1">
+      <c r="F45" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="G43" s="12" t="s">
+      <c r="G45" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="H43" s="12" t="s">
+      <c r="H45" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="I43" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="4:9">
-      <c r="F44" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="G44" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="H44" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="I44" s="13"/>
-    </row>
-    <row r="45" spans="4:9">
-      <c r="F45" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="G45" s="11" t="s">
-        <v>371</v>
-      </c>
-      <c r="H45" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="I45" s="13"/>
+      <c r="I45" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="46" spans="4:9">
       <c r="F46" s="11" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G46" s="11" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="H46" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="I46" s="11"/>
-    </row>
-    <row r="47" spans="4:9" s="4" customFormat="1">
-      <c r="F47" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="G47" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="H47" s="12" t="s">
+      <c r="I46" s="13"/>
+    </row>
+    <row r="47" spans="4:9">
+      <c r="F47" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="G47" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="H47" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="I47" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="4:9" s="4" customFormat="1">
-      <c r="F48" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="G48" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="H48" s="12" t="s">
+      <c r="I47" s="13"/>
+    </row>
+    <row r="48" spans="4:9" s="3" customFormat="1">
+      <c r="F48" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="G48" s="72" t="s">
+        <v>398</v>
+      </c>
+      <c r="H48" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="I48" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="6:9">
+    </row>
+    <row r="49" spans="6:9" s="3" customFormat="1">
       <c r="F49" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="G49" s="13" t="s">
-        <v>145</v>
+        <v>170</v>
+      </c>
+      <c r="G49" s="72" t="s">
+        <v>399</v>
       </c>
       <c r="H49" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="I49" s="13"/>
     </row>
     <row r="50" spans="6:9">
       <c r="F50" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="G50" s="13" t="s">
-        <v>371</v>
+      <c r="G50" s="11" t="s">
+        <v>135</v>
       </c>
       <c r="H50" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="I50" s="13"/>
-    </row>
-    <row r="51" spans="6:9" ht="13">
-      <c r="F51" s="14" t="s">
+      <c r="I50" s="11"/>
+    </row>
+    <row r="51" spans="6:9" s="4" customFormat="1">
+      <c r="F51" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="H51" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="I51" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="6:9" s="4" customFormat="1">
+      <c r="F52" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="H52" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="I52" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="6:9">
+      <c r="F53" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="G53" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="H53" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="I53" s="13"/>
+    </row>
+    <row r="54" spans="6:9">
+      <c r="F54" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="G54" s="13" t="s">
+        <v>371</v>
+      </c>
+      <c r="H54" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="I54" s="13"/>
+    </row>
+    <row r="55" spans="6:9" s="3" customFormat="1">
+      <c r="F55" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="G55" s="72" t="s">
+        <v>398</v>
+      </c>
+      <c r="H55" s="11" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="56" spans="6:9" s="3" customFormat="1">
+      <c r="F56" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="G56" s="72" t="s">
+        <v>399</v>
+      </c>
+      <c r="H56" s="11" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="57" spans="6:9" ht="13">
+      <c r="F57" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="G51" s="15" t="s">
+      <c r="G57" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="H51" s="15" t="s">
+      <c r="H57" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="I51" s="19"/>
-    </row>
-    <row r="52" spans="6:9" ht="12.35">
-      <c r="F52" s="14" t="s">
+      <c r="I57" s="19"/>
+    </row>
+    <row r="58" spans="6:9" ht="12.35">
+      <c r="F58" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="G52" s="16" t="s">
+      <c r="G58" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="H52" s="15" t="s">
+      <c r="H58" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="I52" s="16"/>
-    </row>
-    <row r="53" spans="6:9" ht="12.35">
-      <c r="F53" s="14" t="s">
+      <c r="I58" s="16"/>
+    </row>
+    <row r="59" spans="6:9" ht="12.35">
+      <c r="F59" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="G53" s="16" t="s">
+      <c r="G59" s="16" t="s">
         <v>365</v>
       </c>
-      <c r="H53" s="15" t="s">
+      <c r="H59" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="I53" s="16"/>
-    </row>
-    <row r="54" spans="6:9" ht="13">
-      <c r="F54" s="14" t="s">
+      <c r="I59" s="16"/>
+    </row>
+    <row r="60" spans="6:9" ht="13">
+      <c r="F60" s="14" t="s">
         <v>172</v>
       </c>
-      <c r="G54" s="15" t="s">
+      <c r="G60" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="H54" s="15" t="s">
+      <c r="H60" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="I54" s="19"/>
-    </row>
-    <row r="55" spans="6:9" ht="12.35">
-      <c r="F55" s="14" t="s">
+      <c r="I60" s="19"/>
+    </row>
+    <row r="61" spans="6:9" ht="12.35">
+      <c r="F61" s="14" t="s">
         <v>172</v>
       </c>
-      <c r="G55" s="16" t="s">
+      <c r="G61" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="H55" s="15" t="s">
+      <c r="H61" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="I55" s="16"/>
-    </row>
-    <row r="56" spans="6:9" ht="12.35">
-      <c r="F56" s="14" t="s">
+      <c r="I61" s="16"/>
+    </row>
+    <row r="62" spans="6:9" ht="12.35">
+      <c r="F62" s="14" t="s">
         <v>172</v>
       </c>
-      <c r="G56" s="16" t="s">
+      <c r="G62" s="16" t="s">
         <v>365</v>
       </c>
-      <c r="H56" s="15" t="s">
+      <c r="H62" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="I56" s="16"/>
-    </row>
-    <row r="57" spans="6:9" ht="12.35">
-      <c r="F57" s="7"/>
-      <c r="G57" s="7"/>
-      <c r="H57" s="7"/>
-    </row>
-    <row r="58" spans="6:9" ht="12.35">
-      <c r="F58" s="7"/>
-      <c r="G58" s="7"/>
-      <c r="H58" s="7"/>
-    </row>
-    <row r="59" spans="6:9" ht="12.35">
-      <c r="F59" s="7"/>
-      <c r="G59" s="7"/>
-      <c r="H59" s="7"/>
-    </row>
-    <row r="60" spans="6:9" ht="12.35">
-      <c r="F60" s="7"/>
-      <c r="G60" s="7"/>
-      <c r="H60" s="7"/>
-    </row>
-    <row r="61" spans="6:9" ht="12.35">
-      <c r="F61" s="7"/>
-      <c r="G61" s="7"/>
-      <c r="H61" s="7"/>
-    </row>
-    <row r="62" spans="6:9" ht="12.35">
-      <c r="F62" s="7"/>
-      <c r="G62" s="7"/>
-      <c r="H62" s="7"/>
+      <c r="I62" s="16"/>
     </row>
     <row r="63" spans="6:9" ht="12.35">
       <c r="F63" s="7"/>
@@ -7527,31 +7718,37 @@
       <c r="H67" s="7"/>
     </row>
     <row r="68" spans="6:8" ht="12.35">
-      <c r="F68" s="17"/>
+      <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c r="H68" s="7"/>
     </row>
     <row r="69" spans="6:8" ht="12.35">
+      <c r="F69" s="7"/>
       <c r="G69" s="7"/>
       <c r="H69" s="7"/>
     </row>
     <row r="70" spans="6:8" ht="12.35">
+      <c r="F70" s="7"/>
       <c r="G70" s="7"/>
       <c r="H70" s="7"/>
     </row>
     <row r="71" spans="6:8" ht="12.35">
+      <c r="F71" s="7"/>
       <c r="G71" s="7"/>
       <c r="H71" s="7"/>
     </row>
     <row r="72" spans="6:8" ht="12.35">
+      <c r="F72" s="7"/>
       <c r="G72" s="7"/>
       <c r="H72" s="7"/>
     </row>
     <row r="73" spans="6:8" ht="12.35">
+      <c r="F73" s="7"/>
       <c r="G73" s="7"/>
       <c r="H73" s="7"/>
     </row>
     <row r="74" spans="6:8" ht="12.35">
+      <c r="F74" s="17"/>
       <c r="G74" s="7"/>
       <c r="H74" s="7"/>
     </row>
@@ -7574,6 +7771,30 @@
     <row r="79" spans="6:8" ht="12.35">
       <c r="G79" s="7"/>
       <c r="H79" s="7"/>
+    </row>
+    <row r="80" spans="6:8" ht="12.35">
+      <c r="G80" s="7"/>
+      <c r="H80" s="7"/>
+    </row>
+    <row r="81" spans="7:8" ht="12.35">
+      <c r="G81" s="7"/>
+      <c r="H81" s="7"/>
+    </row>
+    <row r="82" spans="7:8" ht="12.35">
+      <c r="G82" s="7"/>
+      <c r="H82" s="7"/>
+    </row>
+    <row r="83" spans="7:8" ht="12.35">
+      <c r="G83" s="7"/>
+      <c r="H83" s="7"/>
+    </row>
+    <row r="84" spans="7:8" ht="12.35">
+      <c r="G84" s="7"/>
+      <c r="H84" s="7"/>
+    </row>
+    <row r="85" spans="7:8" ht="12.35">
+      <c r="G85" s="7"/>
+      <c r="H85" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="53" type="noConversion"/>

--- a/src/main/resources/script/meta/micro-service-init-data.xlsx
+++ b/src/main/resources/script/meta/micro-service-init-data.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\RD\Infra\hrds-code-repo\src\main\resources\script\meta\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13200" tabRatio="845" firstSheet="4" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13206" tabRatio="845" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
@@ -23,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1168" uniqueCount="394">
   <si>
     <t>IAM_PERMISSION</t>
   </si>
@@ -150,7 +155,7 @@
         <sz val="10"/>
         <color theme="2" tint="-0.249977111117893"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>choerodon.</t>
     </r>
@@ -159,7 +164,7 @@
         <sz val="10"/>
         <color theme="2" tint="-0.249977111117893"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>route.organization.ps-view</t>
     </r>
@@ -176,7 +181,7 @@
         <sz val="10"/>
         <color theme="2" tint="-0.249977111117893"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>choerodon.</t>
     </r>
@@ -185,7 +190,7 @@
         <sz val="10"/>
         <color theme="2" tint="-0.249977111117893"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>route.organization.operation-logs</t>
     </r>
@@ -248,19 +253,7 @@
     <t>choerodon.route.organization.doc-lib-audit</t>
   </si>
   <si>
-    <t>/infra/doc-lib-audit</t>
-  </si>
-  <si>
-    <t>文档库审计路由</t>
-  </si>
-  <si>
     <t>choerodon.route.organization.code-lib-audit</t>
-  </si>
-  <si>
-    <t>/infra/code-lib-audit</t>
-  </si>
-  <si>
-    <t>代码库审计路由</t>
   </si>
   <si>
     <t>choerodon.route.project.product-lib</t>
@@ -1237,18 +1230,52 @@
   <si>
     <t>其他</t>
   </si>
+  <si>
+    <t>/infra/doc-lib-org</t>
+    <phoneticPr fontId="58" type="noConversion"/>
+  </si>
+  <si>
+    <t>/infra/code-lib-org</t>
+    <phoneticPr fontId="58" type="noConversion"/>
+  </si>
+  <si>
+    <t>文档库管理路由</t>
+    <phoneticPr fontId="58" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码库管理路由</t>
+    <phoneticPr fontId="58" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.route.project.code-lib-management</t>
+    <phoneticPr fontId="58" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.route.organization.doc-lib-management</t>
+    <phoneticPr fontId="58" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.route.organization.code-lib-management</t>
+    <phoneticPr fontId="58" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.route.organization.doc-lib-management</t>
+    <phoneticPr fontId="58" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.code.organization.doc-lib-management</t>
+    <phoneticPr fontId="58" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.code.organization.code-lib-management</t>
+    <phoneticPr fontId="58" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="78">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="59">
     <font>
       <sz val="10"/>
       <name val="Droid Sans Fallback"/>
@@ -1270,13 +1297,13 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="DejaVu Sans"/>
-      <charset val="134"/>
+      <family val="3"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF494949"/>
       <name val="Tahoma"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1293,7 +1320,7 @@
       <sz val="9"/>
       <color theme="2" tint="-0.249977111117893"/>
       <name val="Tahoma"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1310,7 +1337,7 @@
       <sz val="9"/>
       <color theme="4" tint="-0.249977111117893"/>
       <name val="Tahoma"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1321,12 +1348,12 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="DejaVu Sans"/>
-      <charset val="134"/>
+      <family val="3"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1341,7 +1368,7 @@
     </font>
     <font>
       <sz val="14"/>
-      <color theme="9" tint="0.399945066682943"/>
+      <color theme="9" tint="0.39991454817346722"/>
       <name val="Droid Sans Fallback"/>
       <charset val="134"/>
     </font>
@@ -1353,7 +1380,7 @@
     </font>
     <font>
       <sz val="14"/>
-      <color theme="4" tint="0.399945066682943"/>
+      <color theme="4" tint="0.39991454817346722"/>
       <name val="Droid Sans Fallback"/>
       <charset val="134"/>
     </font>
@@ -1365,20 +1392,23 @@
     </font>
     <font>
       <sz val="12"/>
-      <color theme="9" tint="0.399975585192419"/>
+      <color theme="9" tint="0.39994506668294322"/>
       <name val="Microsoft YaHei UI"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
-      <color theme="4" tint="0.399975585192419"/>
+      <color theme="4" tint="0.39994506668294322"/>
       <name val="Microsoft YaHei UI"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
-      <color theme="5" tint="0.399975585192419"/>
+      <color theme="5" tint="0.39994506668294322"/>
       <name val="Microsoft YaHei UI"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1410,13 +1440,13 @@
     <font>
       <b/>
       <sz val="10"/>
-      <color theme="5" tint="0.399884029663991"/>
+      <color theme="5" tint="0.39985351115451523"/>
       <name val="Droid Sans Fallback"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
-      <color theme="5" tint="0.399884029663991"/>
+      <color theme="5" tint="0.39985351115451523"/>
       <name val="Droid Sans Fallback"/>
       <charset val="134"/>
     </font>
@@ -1437,6 +1467,7 @@
       <sz val="10"/>
       <color theme="2" tint="-0.249977111117893"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1451,6 +1482,7 @@
       <sz val="10"/>
       <color theme="2" tint="-0.249977111117893"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1470,12 +1502,14 @@
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="0" tint="-0.249977111117893"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1495,454 +1529,130 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="5" tint="-0.249977111117893"/>
       <name val="PingFang SC"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="5" tint="-0.249977111117893"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="PingFang SC"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF5B9BD5"/>
       <name val="PingFang SC"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF5B9BD5"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="2" tint="-0.249977111117893"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFFC000"/>
       <name val="PingFang SC"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="13"/>
       <name val="PingFang SC"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF8F187C"/>
       <name val="PingFang SC"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF8F187C"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="13"/>
       <name val="Helvetica"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="2" tint="-0.249977111117893"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="0" tint="-0.249977111117893"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF00B0F0"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1965,251 +1675,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="60" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="75" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="61" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="61" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="73" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="76" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="71" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="77" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="61" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="61" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="61" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -2290,61 +1758,17 @@
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2602,19 +2026,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:Q59"/>
   <sheetViews>
-    <sheetView zoomScale="95" zoomScaleNormal="95" topLeftCell="G12" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView topLeftCell="E12" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.7"/>
   <cols>
     <col min="1" max="1" width="9.125" customWidth="1"/>
     <col min="2" max="2" width="9.625" customWidth="1"/>
@@ -2634,7 +2058,7 @@
     <col min="16" max="1025" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" ht="12.85" customHeight="1" spans="4:15">
+    <row r="7" spans="4:17" ht="12.85" customHeight="1">
       <c r="D7" s="18" t="s">
         <v>0</v>
       </c>
@@ -2672,7 +2096,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" s="44" customFormat="1" ht="14.4" spans="6:17">
+    <row r="8" spans="4:17" s="44" customFormat="1">
       <c r="F8" s="7" t="s">
         <v>12</v>
       </c>
@@ -2706,7 +2130,7 @@
       <c r="P8" s="7"/>
       <c r="Q8" s="7"/>
     </row>
-    <row r="9" s="44" customFormat="1" ht="14.4" spans="6:17">
+    <row r="9" spans="4:17" s="44" customFormat="1">
       <c r="F9" s="7" t="s">
         <v>18</v>
       </c>
@@ -2740,7 +2164,7 @@
       <c r="P9" s="7"/>
       <c r="Q9" s="7"/>
     </row>
-    <row r="10" s="44" customFormat="1" ht="14.4" spans="6:17">
+    <row r="10" spans="4:17" s="44" customFormat="1">
       <c r="F10" s="7" t="s">
         <v>21</v>
       </c>
@@ -2774,7 +2198,7 @@
       <c r="P10" s="7"/>
       <c r="Q10" s="7"/>
     </row>
-    <row r="11" s="44" customFormat="1" ht="14.4" spans="6:17">
+    <row r="11" spans="4:17" s="44" customFormat="1">
       <c r="F11" s="7" t="s">
         <v>24</v>
       </c>
@@ -2808,7 +2232,7 @@
       <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
     </row>
-    <row r="12" s="44" customFormat="1" ht="14.4" spans="6:17">
+    <row r="12" spans="4:17" s="44" customFormat="1">
       <c r="F12" s="7" t="s">
         <v>28</v>
       </c>
@@ -2842,7 +2266,7 @@
       <c r="P12" s="7"/>
       <c r="Q12" s="7"/>
     </row>
-    <row r="13" s="44" customFormat="1" spans="6:17">
+    <row r="13" spans="4:17" s="44" customFormat="1">
       <c r="F13" s="7" t="s">
         <v>31</v>
       </c>
@@ -2876,7 +2300,7 @@
       <c r="P13" s="7"/>
       <c r="Q13" s="7"/>
     </row>
-    <row r="14" s="44" customFormat="1" ht="14.4" spans="6:17">
+    <row r="14" spans="4:17" s="44" customFormat="1">
       <c r="F14" s="7" t="s">
         <v>34</v>
       </c>
@@ -2910,7 +2334,7 @@
       <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
     </row>
-    <row r="15" s="44" customFormat="1" ht="14.4" spans="6:17">
+    <row r="15" spans="4:17" s="44" customFormat="1">
       <c r="F15" s="7" t="s">
         <v>37</v>
       </c>
@@ -2944,7 +2368,7 @@
       <c r="P15" s="7"/>
       <c r="Q15" s="7"/>
     </row>
-    <row r="16" s="36" customFormat="1" spans="6:17">
+    <row r="16" spans="4:17" s="36" customFormat="1" ht="13">
       <c r="F16" s="65" t="s">
         <v>40</v>
       </c>
@@ -2978,7 +2402,7 @@
       <c r="P16" s="7"/>
       <c r="Q16" s="7"/>
     </row>
-    <row r="17" s="36" customFormat="1" spans="6:17">
+    <row r="17" spans="4:17" s="36" customFormat="1" ht="13">
       <c r="F17" s="65" t="s">
         <v>43</v>
       </c>
@@ -3012,7 +2436,7 @@
       <c r="P17" s="41"/>
       <c r="Q17" s="7"/>
     </row>
-    <row r="18" ht="14.4" spans="4:17">
+    <row r="18" spans="4:17">
       <c r="D18" s="20"/>
       <c r="F18" s="44" t="s">
         <v>45</v>
@@ -3045,7 +2469,7 @@
       <c r="P18" s="7"/>
       <c r="Q18" s="7"/>
     </row>
-    <row r="19" s="4" customFormat="1" ht="14.4" spans="6:17">
+    <row r="19" spans="4:17" s="4" customFormat="1">
       <c r="F19" s="11" t="s">
         <v>46</v>
       </c>
@@ -3079,7 +2503,7 @@
       <c r="P19" s="11"/>
       <c r="Q19" s="11"/>
     </row>
-    <row r="20" s="4" customFormat="1" ht="14.4" spans="6:17">
+    <row r="20" spans="4:17" s="4" customFormat="1">
       <c r="F20" s="11" t="s">
         <v>48</v>
       </c>
@@ -3113,7 +2537,7 @@
       <c r="P20" s="11"/>
       <c r="Q20" s="11"/>
     </row>
-    <row r="21" s="3" customFormat="1" ht="14.4" spans="6:17">
+    <row r="21" spans="4:17" s="3" customFormat="1" ht="12.35">
       <c r="F21" s="67" t="s">
         <v>50</v>
       </c>
@@ -3145,7 +2569,7 @@
       <c r="P21" s="7"/>
       <c r="Q21" s="7"/>
     </row>
-    <row r="22" s="11" customFormat="1" ht="14.4" spans="6:15">
+    <row r="22" spans="4:17" s="11" customFormat="1" ht="12.35">
       <c r="F22" s="68" t="s">
         <v>53</v>
       </c>
@@ -3177,7 +2601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" s="11" customFormat="1" ht="14.4" spans="6:16">
+    <row r="23" spans="4:17" s="11" customFormat="1" ht="12.35">
       <c r="F23" s="68" t="s">
         <v>56</v>
       </c>
@@ -3210,7 +2634,7 @@
       </c>
       <c r="P23" s="38"/>
     </row>
-    <row r="24" s="3" customFormat="1" ht="14.4" spans="6:17">
+    <row r="24" spans="4:17" s="3" customFormat="1" ht="12.35">
       <c r="F24" s="67" t="s">
         <v>59</v>
       </c>
@@ -3242,12 +2666,12 @@
       <c r="P24" s="59"/>
       <c r="Q24" s="7"/>
     </row>
-    <row r="25" s="3" customFormat="1" ht="14.4" spans="6:17">
+    <row r="25" spans="4:17" s="3" customFormat="1" ht="12.35">
       <c r="F25" s="17" t="s">
-        <v>62</v>
+        <v>391</v>
       </c>
       <c r="G25" s="17" t="s">
-        <v>63</v>
+        <v>384</v>
       </c>
       <c r="H25" s="44" t="s">
         <v>14</v>
@@ -3256,7 +2680,7 @@
         <v>42</v>
       </c>
       <c r="J25" s="72" t="s">
-        <v>64</v>
+        <v>386</v>
       </c>
       <c r="K25" s="17" t="s">
         <v>17</v>
@@ -3274,13 +2698,13 @@
       <c r="P25" s="41"/>
       <c r="Q25" s="7"/>
     </row>
-    <row r="26" ht="14.4" spans="4:17">
+    <row r="26" spans="4:17" ht="12.35">
       <c r="D26" s="20"/>
       <c r="F26" s="17" t="s">
-        <v>65</v>
+        <v>390</v>
       </c>
       <c r="G26" s="17" t="s">
-        <v>66</v>
+        <v>385</v>
       </c>
       <c r="H26" s="44" t="s">
         <v>14</v>
@@ -3289,7 +2713,7 @@
         <v>42</v>
       </c>
       <c r="J26" s="72" t="s">
-        <v>67</v>
+        <v>387</v>
       </c>
       <c r="K26" s="17" t="s">
         <v>17</v>
@@ -3306,12 +2730,12 @@
       <c r="P26" s="59"/>
       <c r="Q26" s="7"/>
     </row>
-    <row r="27" ht="14.4" spans="6:14">
+    <row r="27" spans="4:17" ht="12.35">
       <c r="F27" s="17" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="G27" s="17" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="H27" s="44" t="s">
         <v>14</v>
@@ -3320,7 +2744,7 @@
         <v>26</v>
       </c>
       <c r="J27" s="72" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="K27" s="17" t="s">
         <v>17</v>
@@ -3335,12 +2759,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" ht="14.4" spans="6:14">
+    <row r="28" spans="4:17" ht="12.35">
       <c r="F28" s="17" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G28" s="17" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="H28" s="44" t="s">
         <v>14</v>
@@ -3349,7 +2773,7 @@
         <v>42</v>
       </c>
       <c r="J28" s="72" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="K28" s="17" t="s">
         <v>17</v>
@@ -3364,12 +2788,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" ht="14.4" spans="6:14">
+    <row r="29" spans="4:17" ht="12.35">
       <c r="F29" s="17" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G29" s="17" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H29" s="44" t="s">
         <v>14</v>
@@ -3378,7 +2802,7 @@
         <v>15</v>
       </c>
       <c r="J29" s="72" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="K29" s="17" t="s">
         <v>17</v>
@@ -3393,12 +2817,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" s="3" customFormat="1" spans="6:14">
+    <row r="30" spans="4:17" s="3" customFormat="1">
       <c r="F30" s="12" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G30" s="12" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H30" s="44" t="s">
         <v>14</v>
@@ -3407,7 +2831,7 @@
         <v>26</v>
       </c>
       <c r="J30" s="12" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="K30" s="3" t="s">
         <v>17</v>
@@ -3422,12 +2846,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" s="3" customFormat="1" spans="6:14">
+    <row r="31" spans="4:17" s="3" customFormat="1">
       <c r="F31" s="12" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G31" s="12" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H31" s="44" t="s">
         <v>14</v>
@@ -3436,7 +2860,7 @@
         <v>26</v>
       </c>
       <c r="J31" s="12" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="K31" s="3" t="s">
         <v>17</v>
@@ -3451,7 +2875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="6:17">
+    <row r="32" spans="4:17">
       <c r="F32" s="45"/>
       <c r="G32" s="45"/>
       <c r="H32" s="45"/>
@@ -3465,7 +2889,7 @@
       <c r="P32" s="45"/>
       <c r="Q32" s="45"/>
     </row>
-    <row r="33" ht="14.4" spans="6:17">
+    <row r="33" spans="6:17">
       <c r="F33" s="46"/>
       <c r="G33" s="47"/>
       <c r="H33" s="46"/>
@@ -3479,7 +2903,7 @@
       <c r="P33" s="46"/>
       <c r="Q33" s="46"/>
     </row>
-    <row r="34" ht="14.4" spans="6:17">
+    <row r="34" spans="6:17">
       <c r="F34" s="46"/>
       <c r="G34" s="47"/>
       <c r="H34" s="46"/>
@@ -3493,7 +2917,7 @@
       <c r="P34" s="46"/>
       <c r="Q34" s="46"/>
     </row>
-    <row r="35" ht="14.4" spans="6:17">
+    <row r="35" spans="6:17">
       <c r="F35" s="46"/>
       <c r="G35" s="47"/>
       <c r="H35" s="46"/>
@@ -3507,7 +2931,7 @@
       <c r="P35" s="46"/>
       <c r="Q35" s="46"/>
     </row>
-    <row r="36" ht="14.4" spans="6:17">
+    <row r="36" spans="6:17">
       <c r="F36" s="46"/>
       <c r="G36" s="47"/>
       <c r="H36" s="46"/>
@@ -3535,7 +2959,7 @@
       <c r="P37" s="49"/>
       <c r="Q37" s="49"/>
     </row>
-    <row r="38" ht="14.4" spans="6:17">
+    <row r="38" spans="6:17">
       <c r="F38" s="50"/>
       <c r="G38" s="51"/>
       <c r="H38" s="50"/>
@@ -3549,7 +2973,7 @@
       <c r="P38" s="50"/>
       <c r="Q38" s="50"/>
     </row>
-    <row r="39" ht="14.4" spans="6:17">
+    <row r="39" spans="6:17">
       <c r="F39" s="50"/>
       <c r="G39" s="51"/>
       <c r="H39" s="50"/>
@@ -3563,7 +2987,7 @@
       <c r="P39" s="50"/>
       <c r="Q39" s="50"/>
     </row>
-    <row r="40" spans="6:14">
+    <row r="40" spans="6:17" ht="12.35">
       <c r="F40" s="17"/>
       <c r="G40" s="17"/>
       <c r="H40" s="17"/>
@@ -3574,7 +2998,7 @@
       <c r="M40" s="17"/>
       <c r="N40" s="17"/>
     </row>
-    <row r="41" spans="6:14">
+    <row r="41" spans="6:17" ht="12.35">
       <c r="F41" s="17"/>
       <c r="G41" s="17"/>
       <c r="H41" s="17"/>
@@ -3585,7 +3009,7 @@
       <c r="M41" s="17"/>
       <c r="N41" s="17"/>
     </row>
-    <row r="42" spans="6:14">
+    <row r="42" spans="6:17" ht="12.35">
       <c r="F42" s="17"/>
       <c r="G42" s="17"/>
       <c r="H42" s="17"/>
@@ -3596,7 +3020,7 @@
       <c r="M42" s="17"/>
       <c r="N42" s="17"/>
     </row>
-    <row r="43" spans="6:14">
+    <row r="43" spans="6:17" ht="12.35">
       <c r="F43" s="17"/>
       <c r="G43" s="17"/>
       <c r="H43" s="17"/>
@@ -3607,7 +3031,7 @@
       <c r="M43" s="17"/>
       <c r="N43" s="17"/>
     </row>
-    <row r="44" spans="6:14">
+    <row r="44" spans="6:17" ht="12.35">
       <c r="F44" s="17"/>
       <c r="G44" s="17"/>
       <c r="H44" s="17"/>
@@ -3618,7 +3042,7 @@
       <c r="M44" s="17"/>
       <c r="N44" s="17"/>
     </row>
-    <row r="45" spans="6:14">
+    <row r="45" spans="6:17" ht="12.35">
       <c r="F45" s="17"/>
       <c r="G45" s="17"/>
       <c r="H45" s="17"/>
@@ -3629,7 +3053,7 @@
       <c r="M45" s="17"/>
       <c r="N45" s="17"/>
     </row>
-    <row r="46" spans="6:14">
+    <row r="46" spans="6:17" ht="12.35">
       <c r="F46" s="17"/>
       <c r="G46" s="17"/>
       <c r="H46" s="17"/>
@@ -3640,7 +3064,7 @@
       <c r="M46" s="17"/>
       <c r="N46" s="17"/>
     </row>
-    <row r="47" spans="6:14">
+    <row r="47" spans="6:17" ht="12.35">
       <c r="F47" s="17"/>
       <c r="G47" s="17"/>
       <c r="H47" s="17"/>
@@ -3651,7 +3075,7 @@
       <c r="M47" s="17"/>
       <c r="N47" s="17"/>
     </row>
-    <row r="48" spans="6:14">
+    <row r="48" spans="6:17" ht="12.35">
       <c r="F48" s="17"/>
       <c r="G48" s="17"/>
       <c r="H48" s="17"/>
@@ -3662,7 +3086,7 @@
       <c r="M48" s="17"/>
       <c r="N48" s="17"/>
     </row>
-    <row r="49" spans="6:14">
+    <row r="49" spans="6:14" ht="12.35">
       <c r="F49" s="17"/>
       <c r="G49" s="17"/>
       <c r="H49" s="17"/>
@@ -3673,7 +3097,7 @@
       <c r="M49" s="17"/>
       <c r="N49" s="17"/>
     </row>
-    <row r="50" spans="6:14">
+    <row r="50" spans="6:14" ht="12.35">
       <c r="F50" s="17"/>
       <c r="G50" s="17"/>
       <c r="H50" s="17"/>
@@ -3684,7 +3108,7 @@
       <c r="M50" s="17"/>
       <c r="N50" s="17"/>
     </row>
-    <row r="51" ht="14.4" spans="6:14">
+    <row r="51" spans="6:14" ht="12.35">
       <c r="F51" s="17"/>
       <c r="G51" s="17"/>
       <c r="H51" s="17"/>
@@ -3695,7 +3119,7 @@
       <c r="M51" s="17"/>
       <c r="N51" s="17"/>
     </row>
-    <row r="52" spans="6:14">
+    <row r="52" spans="6:14" ht="12.35">
       <c r="F52" s="17"/>
       <c r="G52" s="17"/>
       <c r="H52" s="17"/>
@@ -3706,7 +3130,7 @@
       <c r="M52" s="17"/>
       <c r="N52" s="17"/>
     </row>
-    <row r="53" spans="6:14">
+    <row r="53" spans="6:14" ht="12.35">
       <c r="F53" s="17"/>
       <c r="G53" s="17"/>
       <c r="H53" s="17"/>
@@ -3717,7 +3141,7 @@
       <c r="M53" s="17"/>
       <c r="N53" s="17"/>
     </row>
-    <row r="54" spans="6:14">
+    <row r="54" spans="6:14" ht="12.35">
       <c r="F54" s="17"/>
       <c r="G54" s="17"/>
       <c r="H54" s="17"/>
@@ -3728,7 +3152,7 @@
       <c r="M54" s="17"/>
       <c r="N54" s="17"/>
     </row>
-    <row r="55" spans="6:13">
+    <row r="55" spans="6:14" ht="12.35">
       <c r="F55" s="17"/>
       <c r="G55" s="17"/>
       <c r="H55" s="17"/>
@@ -3738,7 +3162,7 @@
       <c r="L55" s="17"/>
       <c r="M55" s="17"/>
     </row>
-    <row r="56" s="39" customFormat="1" ht="14.4" spans="6:14">
+    <row r="56" spans="6:14" s="39" customFormat="1" ht="12.35">
       <c r="F56" s="67"/>
       <c r="G56" s="67"/>
       <c r="H56" s="67"/>
@@ -3749,7 +3173,7 @@
       <c r="M56" s="67"/>
       <c r="N56" s="67"/>
     </row>
-    <row r="57" s="39" customFormat="1" ht="14.4" spans="6:14">
+    <row r="57" spans="6:14" s="39" customFormat="1" ht="12.35">
       <c r="F57" s="67"/>
       <c r="G57" s="67"/>
       <c r="H57" s="67"/>
@@ -3760,7 +3184,7 @@
       <c r="M57" s="67"/>
       <c r="N57" s="67"/>
     </row>
-    <row r="58" s="39" customFormat="1" ht="14.4" spans="6:14">
+    <row r="58" spans="6:14" s="39" customFormat="1" ht="12.35">
       <c r="F58" s="67"/>
       <c r="G58" s="67"/>
       <c r="H58" s="67"/>
@@ -3771,7 +3195,7 @@
       <c r="M58" s="67"/>
       <c r="N58" s="67"/>
     </row>
-    <row r="59" s="39" customFormat="1" ht="14.4" spans="6:14">
+    <row r="59" spans="6:14" s="39" customFormat="1" ht="12.35">
       <c r="F59" s="67"/>
       <c r="G59" s="67"/>
       <c r="H59" s="67"/>
@@ -3783,8 +3207,9 @@
       <c r="N59" s="67"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="58" type="noConversion"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,常规"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,常规"&amp;12 Page &amp;P</oddFooter>
@@ -3793,15 +3218,14 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:J41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="11.7"/>
   <cols>
     <col min="4" max="4" width="22.125" customWidth="1"/>
     <col min="5" max="5" width="13.375" customWidth="1"/>
@@ -3814,9 +3238,9 @@
     <col min="13" max="13" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:10">
+    <row r="7" spans="4:10" ht="15.6">
       <c r="D7" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>1</v>
@@ -3825,731 +3249,730 @@
         <v>2</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="8" spans="4:10">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="8" spans="4:10" ht="15.6">
       <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="9" spans="4:10">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="9" spans="4:10" ht="15.6">
       <c r="D9" s="1"/>
       <c r="E9" s="1" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="10" spans="4:10">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="10" spans="4:10" ht="15.6">
       <c r="D10" s="1"/>
       <c r="E10" s="1" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="11" spans="4:10">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="11" spans="4:10" ht="15.6">
       <c r="D11" s="1"/>
       <c r="E11" s="1" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="12" spans="4:10">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="12" spans="4:10" ht="15.6">
       <c r="D12" s="1"/>
       <c r="E12" s="1" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="13" spans="4:10">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="13" spans="4:10" ht="15.6">
       <c r="D13" s="1"/>
       <c r="E13" s="1" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="14" spans="4:10">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="14" spans="4:10" ht="15.6">
       <c r="D14" s="1"/>
       <c r="E14" s="1" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="15" spans="4:10">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="15" spans="4:10" ht="15.6">
       <c r="D15" s="1"/>
       <c r="E15" s="1" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="16" spans="4:10">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="16" spans="4:10" ht="15.6">
       <c r="D16" s="1"/>
       <c r="E16" s="1" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="17" spans="4:10">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="17" spans="4:10" ht="15.6">
       <c r="D17" s="1"/>
       <c r="E17" s="1" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="18" spans="4:10">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="18" spans="4:10" ht="15.6">
       <c r="D18" s="1"/>
       <c r="E18" s="1" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="19" spans="4:10">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="19" spans="4:10" ht="15.6">
       <c r="D19" s="1"/>
       <c r="E19" s="1" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="20" spans="4:10">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="20" spans="4:10" ht="15.6">
       <c r="D20" s="1"/>
       <c r="E20" s="1" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="21" spans="4:10">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="21" spans="4:10" ht="15.6">
       <c r="D21" s="1"/>
       <c r="E21" s="1" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="22" spans="4:10">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="22" spans="4:10" ht="15.6">
       <c r="D22" s="1"/>
       <c r="E22" s="1" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="23" spans="4:10">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="23" spans="4:10" ht="15.6">
       <c r="D23" s="1"/>
       <c r="E23" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="24" spans="4:10" ht="15.6">
+      <c r="E24" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="25" spans="4:10" ht="15.6">
+      <c r="E25" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="F25" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="G25" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="26" spans="4:10" ht="15.6">
+      <c r="E26" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="27" spans="4:10" ht="15.6">
+      <c r="E27" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="28" spans="4:10" ht="15.6">
+      <c r="E28" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="29" spans="4:10" ht="15.6">
+      <c r="E29" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="G29" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="H23" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="24" spans="5:10">
-      <c r="E24" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="G24" s="1" t="s">
+      <c r="H29" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="30" spans="4:10" ht="15.6">
+      <c r="E30" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="31" spans="4:10" ht="15.6">
+      <c r="E31" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="G31" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="H24" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="25" spans="5:10">
-      <c r="E25" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="G25" s="1" t="s">
+      <c r="H31" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="32" spans="4:10" ht="15.6">
+      <c r="E32" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="G32" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="H25" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="26" spans="5:10">
-      <c r="E26" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="G26" s="1" t="s">
+      <c r="H32" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="33" spans="5:10" ht="15.6">
+      <c r="E33" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="G33" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="H26" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="27" spans="5:10">
-      <c r="E27" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="28" spans="5:10">
-      <c r="E28" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="29" spans="5:10">
-      <c r="E29" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="G29" s="1" t="s">
+      <c r="H33" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="34" spans="5:10" ht="15.6">
+      <c r="E34" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="G34" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="H29" s="1" t="s">
+      <c r="H34" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="35" spans="5:10" ht="15.6">
+      <c r="E35" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="H35" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="I29" s="1" t="s">
+      <c r="I35" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="J29" s="1" t="s">
+      <c r="J35" s="1" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="30" spans="5:10">
-      <c r="E30" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="G30" s="1" t="s">
+    <row r="36" spans="5:10" ht="15.6">
+      <c r="E36" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="G36" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="H30" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="31" spans="5:10">
-      <c r="E31" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="G31" s="1" t="s">
+      <c r="H36" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="37" spans="5:10" ht="15.6">
+      <c r="E37" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="38" spans="5:10" ht="15.6">
+      <c r="E38" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="G38" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="H31" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="32" spans="5:10">
-      <c r="E32" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="G32" s="1" t="s">
+      <c r="H38" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="39" spans="5:10" ht="15.6">
+      <c r="E39" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="G39" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="H32" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="33" spans="5:10">
-      <c r="E33" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="G33" s="1" t="s">
+      <c r="H39" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="40" spans="5:10" ht="15.6">
+      <c r="E40" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="G40" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="H33" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="34" spans="5:10">
-      <c r="E34" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="35" spans="5:10">
-      <c r="E35" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="36" spans="5:10">
-      <c r="E36" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="37" spans="5:10">
-      <c r="E37" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="38" spans="5:10">
-      <c r="E38" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="H38" s="1" t="s">
+      <c r="H40" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="I38" s="1" t="s">
+      <c r="I40" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="J38" s="1" t="s">
+      <c r="J40" s="1" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="39" spans="5:10">
-      <c r="E39" s="1" t="s">
+    <row r="41" spans="5:10" ht="15.6">
+      <c r="E41" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="F39" s="1" t="s">
+      <c r="F41" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="G39" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="H39" s="1" t="s">
+      <c r="G41" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="H41" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="I39" s="1" t="s">
+      <c r="I41" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="J39" s="1" t="s">
+      <c r="J41" s="1" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="40" spans="5:10">
-      <c r="E40" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="J40" s="1" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="41" spans="5:10">
-      <c r="E41" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="J41" s="1" t="s">
-        <v>387</v>
-      </c>
-    </row>
   </sheetData>
+  <phoneticPr fontId="58" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:Q86"/>
   <sheetViews>
-    <sheetView zoomScale="86" zoomScaleNormal="86" topLeftCell="G25" workbookViewId="0">
-      <selection activeCell="I44" sqref="I44"/>
+    <sheetView tabSelected="1" topLeftCell="F26" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="I49" sqref="I49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.7"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="6" customWidth="1"/>
@@ -4571,9 +3994,9 @@
     <col min="18" max="1025" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" ht="12.85" customHeight="1" spans="4:17">
+    <row r="7" spans="4:17" ht="12.85" customHeight="1">
       <c r="D7" s="18" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E7" s="18" t="s">
         <v>1</v>
@@ -4582,48 +4005,48 @@
         <v>2</v>
       </c>
       <c r="G7" s="18" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="H7" s="18" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="I7" s="18" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="J7" s="18" t="s">
         <v>4</v>
       </c>
       <c r="K7" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="L7" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="M7" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="N7" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="O7" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="L7" s="18" t="s">
+      <c r="P7" s="18" t="s">
         <v>86</v>
-      </c>
-      <c r="M7" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="N7" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="O7" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="P7" s="18" t="s">
-        <v>90</v>
       </c>
       <c r="Q7" s="18" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" s="3" customFormat="1" ht="13.95" customHeight="1" spans="6:17">
+    <row r="8" spans="4:17" s="3" customFormat="1" ht="13.95" customHeight="1">
       <c r="F8" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="I8" s="7" t="s">
         <v>12</v>
@@ -4632,16 +4055,16 @@
         <v>14</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>15</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="N8" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="O8" s="7">
         <v>20</v>
@@ -4651,15 +4074,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" s="3" customFormat="1" ht="13.95" customHeight="1" spans="6:17">
+    <row r="9" spans="4:17" s="3" customFormat="1" ht="13.95" customHeight="1">
       <c r="F9" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="I9" s="7" t="s">
         <v>18</v>
@@ -4668,16 +4091,16 @@
         <v>14</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="L9" s="7" t="s">
         <v>15</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="N9" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="O9" s="7">
         <v>20</v>
@@ -4687,15 +4110,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" s="3" customFormat="1" spans="6:17">
+    <row r="10" spans="4:17" s="3" customFormat="1">
       <c r="F10" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="I10" s="7" t="s">
         <v>21</v>
@@ -4704,16 +4127,16 @@
         <v>14</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>15</v>
       </c>
       <c r="M10" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="N10" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="N10" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="O10" s="7">
         <v>30</v>
@@ -4723,15 +4146,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" s="31" customFormat="1" spans="6:17">
+    <row r="11" spans="4:17" s="31" customFormat="1">
       <c r="F11" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="I11" s="7" t="s">
         <v>24</v>
@@ -4740,16 +4163,16 @@
         <v>14</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>26</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="N11" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="O11" s="7">
         <v>60</v>
@@ -4759,15 +4182,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" s="32" customFormat="1" spans="6:17">
+    <row r="12" spans="4:17" s="32" customFormat="1">
       <c r="F12" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="I12" s="7" t="s">
         <v>28</v>
@@ -4776,16 +4199,16 @@
         <v>14</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>26</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="N12" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="O12" s="7">
         <v>60</v>
@@ -4795,15 +4218,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" s="32" customFormat="1" ht="14.4" spans="6:17">
+    <row r="13" spans="4:17" s="32" customFormat="1">
       <c r="F13" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G13" s="40" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="I13" s="7" t="s">
         <v>31</v>
@@ -4812,16 +4235,16 @@
         <v>14</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>26</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="N13" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="O13" s="7">
         <v>50</v>
@@ -4831,15 +4254,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" s="32" customFormat="1" spans="6:17">
+    <row r="14" spans="4:17" s="32" customFormat="1">
       <c r="F14" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="I14" s="7" t="s">
         <v>12</v>
@@ -4848,16 +4271,16 @@
         <v>14</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>15</v>
       </c>
       <c r="M14" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="N14" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="O14" s="7">
         <v>20</v>
@@ -4867,15 +4290,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" s="32" customFormat="1" spans="6:17">
+    <row r="15" spans="4:17" s="32" customFormat="1">
       <c r="F15" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="I15" s="7" t="s">
         <v>18</v>
@@ -4884,16 +4307,16 @@
         <v>14</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="L15" s="7" t="s">
         <v>15</v>
       </c>
       <c r="M15" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="N15" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="O15" s="7">
         <v>20</v>
@@ -4903,15 +4326,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" s="3" customFormat="1" spans="6:17">
+    <row r="16" spans="4:17" s="3" customFormat="1">
       <c r="F16" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="I16" s="7" t="s">
         <v>21</v>
@@ -4920,16 +4343,16 @@
         <v>14</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>15</v>
       </c>
       <c r="M16" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="N16" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="N16" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="O16" s="7">
         <v>20</v>
@@ -4939,31 +4362,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" s="33" customFormat="1" spans="6:17">
+    <row r="17" spans="6:17" s="33" customFormat="1">
       <c r="F17" s="41" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G17" s="41" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="H17" s="41" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="I17" s="41"/>
       <c r="J17" s="41" t="s">
         <v>14</v>
       </c>
       <c r="K17" s="41" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="L17" s="41" t="s">
         <v>26</v>
       </c>
       <c r="M17" s="41" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="N17" s="41" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="O17" s="41">
         <v>60</v>
@@ -4973,15 +4396,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" s="34" customFormat="1" spans="6:17">
+    <row r="18" spans="6:17" s="34" customFormat="1">
       <c r="F18" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="I18" s="7" t="s">
         <v>24</v>
@@ -4990,16 +4413,16 @@
         <v>14</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="L18" s="7" t="s">
         <v>26</v>
       </c>
       <c r="M18" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="N18" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="O18" s="7">
         <v>10</v>
@@ -5009,15 +4432,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" s="35" customFormat="1" spans="6:17">
+    <row r="19" spans="6:17" s="35" customFormat="1">
       <c r="F19" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="I19" s="7" t="s">
         <v>28</v>
@@ -5026,16 +4449,16 @@
         <v>14</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>26</v>
       </c>
       <c r="M19" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="N19" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="O19" s="7">
         <v>20</v>
@@ -5045,15 +4468,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" s="36" customFormat="1" spans="6:17">
+    <row r="20" spans="6:17" s="36" customFormat="1">
       <c r="F20" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="I20" s="7" t="s">
         <v>34</v>
@@ -5062,16 +4485,16 @@
         <v>14</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>26</v>
       </c>
       <c r="M20" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="N20" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="O20" s="7">
         <v>30</v>
@@ -5081,15 +4504,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" s="37" customFormat="1" spans="6:17">
+    <row r="21" spans="6:17" s="37" customFormat="1">
       <c r="F21" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="I21" s="7" t="s">
         <v>37</v>
@@ -5098,16 +4521,16 @@
         <v>14</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="L21" s="7" t="s">
         <v>26</v>
       </c>
       <c r="M21" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="N21" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="O21" s="7">
         <v>40</v>
@@ -5117,15 +4540,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" s="3" customFormat="1" ht="14.4" spans="6:17">
+    <row r="22" spans="6:17" s="3" customFormat="1">
       <c r="F22" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G22" s="40" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="I22" s="7" t="s">
         <v>31</v>
@@ -5134,16 +4557,16 @@
         <v>14</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>26</v>
       </c>
       <c r="M22" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="N22" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="O22" s="7">
         <v>50</v>
@@ -5153,31 +4576,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" ht="14.4" spans="6:17">
+    <row r="23" spans="6:17">
       <c r="F23" s="41" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="G23" s="42" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="H23" s="41" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="I23" s="41"/>
       <c r="J23" s="41" t="s">
         <v>14</v>
       </c>
       <c r="K23" s="41" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="L23" s="41" t="s">
         <v>42</v>
       </c>
       <c r="M23" s="41" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="N23" s="41" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="O23" s="41">
         <v>80</v>
@@ -5187,33 +4610,33 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" ht="15.2" spans="6:17">
+    <row r="24" spans="6:17" ht="13">
       <c r="F24" s="43" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G24" s="40" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="H24" s="43" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="I24" s="58" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K24" s="43" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="L24" s="43" t="s">
         <v>42</v>
       </c>
       <c r="M24" s="43" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="N24" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="O24" s="7">
         <v>10</v>
@@ -5223,31 +4646,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" ht="14.4" spans="6:17">
+    <row r="25" spans="6:17">
       <c r="F25" s="41" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="G25" s="42" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="H25" s="41" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="I25" s="41"/>
       <c r="J25" s="41" t="s">
         <v>14</v>
       </c>
       <c r="K25" s="41" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="L25" s="41" t="s">
         <v>42</v>
       </c>
       <c r="M25" s="41" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="N25" s="41" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="O25" s="41">
         <v>90</v>
@@ -5257,33 +4680,33 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" s="3" customFormat="1" ht="15.2" spans="6:17">
+    <row r="26" spans="6:17" s="3" customFormat="1" ht="13">
       <c r="F26" s="43" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="G26" s="40" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="H26" s="43" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="I26" s="58" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="J26" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K26" s="43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="L26" s="43" t="s">
         <v>42</v>
       </c>
       <c r="M26" s="43" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="N26" s="43" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="O26" s="7">
         <v>10</v>
@@ -5293,15 +4716,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" s="3" customFormat="1" spans="6:17">
+    <row r="27" spans="6:17" s="3" customFormat="1">
       <c r="F27" s="44" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="G27" s="44" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="H27" s="44" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="I27" s="44" t="s">
         <v>45</v>
@@ -5310,16 +4733,16 @@
         <v>14</v>
       </c>
       <c r="K27" s="44" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="L27" s="44" t="s">
         <v>15</v>
       </c>
       <c r="M27" s="44" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="N27" s="44" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="O27" s="44">
         <v>10</v>
@@ -5327,15 +4750,15 @@
       <c r="P27" s="44"/>
       <c r="Q27" s="44"/>
     </row>
-    <row r="28" s="11" customFormat="1" spans="6:17">
+    <row r="28" spans="6:17" s="11" customFormat="1">
       <c r="F28" s="11" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G28" s="11" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="I28" s="11" t="s">
         <v>46</v>
@@ -5344,13 +4767,13 @@
         <v>14</v>
       </c>
       <c r="K28" s="11" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="L28" s="11" t="s">
         <v>15</v>
       </c>
       <c r="M28" s="11" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="O28" s="11">
         <v>10</v>
@@ -5359,15 +4782,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" s="11" customFormat="1" spans="6:17">
+    <row r="29" spans="6:17" s="11" customFormat="1">
       <c r="F29" s="11" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="I29" s="11" t="s">
         <v>48</v>
@@ -5376,13 +4799,13 @@
         <v>14</v>
       </c>
       <c r="K29" s="11" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="L29" s="11" t="s">
         <v>15</v>
       </c>
       <c r="M29" s="11" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="O29" s="11">
         <v>20</v>
@@ -5391,31 +4814,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" s="3" customFormat="1" spans="6:17">
+    <row r="30" spans="6:17" s="3" customFormat="1">
       <c r="F30" s="45" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G30" s="45" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H30" s="45" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="I30" s="45"/>
       <c r="J30" s="45" t="s">
         <v>14</v>
       </c>
       <c r="K30" s="45" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="L30" s="45" t="s">
         <v>26</v>
       </c>
       <c r="M30" s="45" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="N30" s="45" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="O30" s="45">
         <v>80</v>
@@ -5423,15 +4846,15 @@
       <c r="P30" s="45"/>
       <c r="Q30" s="45"/>
     </row>
-    <row r="31" s="3" customFormat="1" ht="14.4" spans="6:17">
+    <row r="31" spans="6:17" s="3" customFormat="1">
       <c r="F31" s="46" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="G31" s="47" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="H31" s="46" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="I31" s="46" t="s">
         <v>50</v>
@@ -5440,16 +4863,16 @@
         <v>14</v>
       </c>
       <c r="K31" s="46" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="L31" s="46" t="s">
         <v>26</v>
       </c>
       <c r="M31" s="46" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="N31" s="46" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="O31" s="46">
         <v>10</v>
@@ -5457,15 +4880,15 @@
       <c r="P31" s="46"/>
       <c r="Q31" s="46"/>
     </row>
-    <row r="32" s="11" customFormat="1" ht="14.4" spans="6:17">
+    <row r="32" spans="6:17" s="11" customFormat="1">
       <c r="F32" s="11" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G32" s="48" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="H32" s="11" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="I32" s="11" t="s">
         <v>53</v>
@@ -5474,13 +4897,13 @@
         <v>14</v>
       </c>
       <c r="K32" s="11" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="L32" s="11" t="s">
         <v>26</v>
       </c>
       <c r="M32" s="11" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="O32" s="11">
         <v>10</v>
@@ -5489,15 +4912,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" s="4" customFormat="1" ht="14.4" spans="6:17">
+    <row r="33" spans="6:17" s="4" customFormat="1">
       <c r="F33" s="11" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="G33" s="48" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="H33" s="11" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="I33" s="11" t="s">
         <v>56</v>
@@ -5506,13 +4929,13 @@
         <v>14</v>
       </c>
       <c r="K33" s="11" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="L33" s="11" t="s">
         <v>26</v>
       </c>
       <c r="M33" s="11" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="N33" s="11"/>
       <c r="O33" s="11">
@@ -5523,33 +4946,33 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" ht="14.4" spans="6:17">
+    <row r="34" spans="6:17">
       <c r="F34" s="46" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="G34" s="47" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="H34" s="46" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="I34" s="46" t="s">
-        <v>59</v>
+        <v>388</v>
       </c>
       <c r="J34" s="46" t="s">
         <v>14</v>
       </c>
       <c r="K34" s="46" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="L34" s="46" t="s">
         <v>26</v>
       </c>
       <c r="M34" s="46" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="N34" s="46" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="O34" s="46">
         <v>20</v>
@@ -5557,33 +4980,33 @@
       <c r="P34" s="46"/>
       <c r="Q34" s="46"/>
     </row>
-    <row r="35" ht="14.4" spans="6:17">
+    <row r="35" spans="6:17">
       <c r="F35" s="46" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G35" s="47" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="H35" s="46" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="I35" s="46" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="J35" s="46" t="s">
         <v>14</v>
       </c>
       <c r="K35" s="46" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="L35" s="46" t="s">
         <v>26</v>
       </c>
       <c r="M35" s="46" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="N35" s="46" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="O35" s="46">
         <v>30</v>
@@ -5591,30 +5014,30 @@
       <c r="P35" s="46"/>
       <c r="Q35" s="46"/>
     </row>
-    <row r="36" s="38" customFormat="1" ht="14.15" customHeight="1" spans="6:17">
+    <row r="36" spans="6:17" s="38" customFormat="1" ht="14.15" customHeight="1">
       <c r="F36" s="38" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="G36" s="38" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H36" s="38" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="J36" s="38" t="s">
         <v>14</v>
       </c>
       <c r="K36" s="38" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="L36" s="38" t="s">
         <v>26</v>
       </c>
       <c r="M36" s="38" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="N36" s="38" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="O36" s="38">
         <v>80</v>
@@ -5623,15 +5046,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" s="11" customFormat="1" ht="14.4" spans="6:17">
+    <row r="37" spans="6:17" s="11" customFormat="1">
       <c r="F37" s="11" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="G37" s="48" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="H37" s="11" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="I37" s="11" t="s">
         <v>62</v>
@@ -5640,16 +5063,16 @@
         <v>14</v>
       </c>
       <c r="K37" s="11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="L37" s="11" t="s">
         <v>26</v>
       </c>
       <c r="M37" s="11" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="N37" s="11" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="O37" s="11">
         <v>10</v>
@@ -5658,33 +5081,33 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" s="11" customFormat="1" ht="14.4" spans="6:17">
+    <row r="38" spans="6:17" s="11" customFormat="1">
       <c r="F38" s="11" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="G38" s="48" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H38" s="11" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="I38" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J38" s="11" t="s">
         <v>14</v>
       </c>
       <c r="K38" s="11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="L38" s="11" t="s">
         <v>26</v>
       </c>
       <c r="M38" s="11" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="N38" s="11" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="O38" s="11">
         <v>20</v>
@@ -5695,29 +5118,29 @@
     </row>
     <row r="39" spans="6:17">
       <c r="F39" s="49" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="G39" s="49" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H39" s="49" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="I39" s="49"/>
       <c r="J39" s="49" t="s">
         <v>14</v>
       </c>
       <c r="K39" s="49" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="L39" s="49" t="s">
         <v>42</v>
       </c>
       <c r="M39" s="49" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="N39" s="49" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="O39" s="49">
         <v>80</v>
@@ -5725,33 +5148,33 @@
       <c r="P39" s="49"/>
       <c r="Q39" s="49"/>
     </row>
-    <row r="40" ht="14.4" spans="6:17">
+    <row r="40" spans="6:17">
       <c r="F40" s="50" t="s">
-        <v>167</v>
+        <v>392</v>
       </c>
       <c r="G40" s="51" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="H40" s="12" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="I40" s="50" t="s">
-        <v>62</v>
+        <v>389</v>
       </c>
       <c r="J40" s="50" t="s">
         <v>14</v>
       </c>
       <c r="K40" s="50" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="L40" s="50" t="s">
         <v>42</v>
       </c>
       <c r="M40" s="50" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="N40" s="46" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="O40" s="50">
         <v>10</v>
@@ -5759,33 +5182,33 @@
       <c r="P40" s="50"/>
       <c r="Q40" s="50"/>
     </row>
-    <row r="41" ht="14.4" spans="6:17">
+    <row r="41" spans="6:17">
       <c r="F41" s="50" t="s">
-        <v>171</v>
+        <v>393</v>
       </c>
       <c r="G41" s="51" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="H41" s="12" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="I41" s="50" t="s">
-        <v>65</v>
+        <v>390</v>
       </c>
       <c r="J41" s="50" t="s">
         <v>14</v>
       </c>
       <c r="K41" s="50" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="L41" s="50" t="s">
         <v>42</v>
       </c>
       <c r="M41" s="50" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="N41" s="46" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="O41" s="50">
         <v>20</v>
@@ -5793,33 +5216,33 @@
       <c r="P41" s="50"/>
       <c r="Q41" s="50"/>
     </row>
-    <row r="42" ht="14.4" spans="6:17">
+    <row r="42" spans="6:17">
       <c r="F42" s="50" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="G42" s="51" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="H42" s="50" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="I42" s="50" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="J42" s="50" t="s">
         <v>14</v>
       </c>
       <c r="K42" s="50" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="L42" s="50" t="s">
         <v>42</v>
       </c>
       <c r="M42" s="50" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="N42" s="50" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="O42" s="50">
         <v>30</v>
@@ -5827,131 +5250,131 @@
       <c r="P42" s="50"/>
       <c r="Q42" s="50"/>
     </row>
-    <row r="43" s="13" customFormat="1" ht="17.6" spans="6:15">
+    <row r="43" spans="6:17" s="13" customFormat="1" ht="16.899999999999999">
       <c r="F43" s="52" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="G43" s="53" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H43" s="52" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="I43" s="52"/>
       <c r="J43" s="52" t="s">
         <v>14</v>
       </c>
       <c r="K43" s="52" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="L43" s="52" t="s">
         <v>15</v>
       </c>
       <c r="M43" s="52" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="N43" s="52"/>
       <c r="O43" s="52">
         <v>80</v>
       </c>
     </row>
-    <row r="44" s="13" customFormat="1" ht="17.6" spans="6:15">
+    <row r="44" spans="6:17" s="13" customFormat="1" ht="16.899999999999999">
       <c r="F44" s="52" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="G44" s="53" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="H44" s="52" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="I44" s="52" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="J44" s="52" t="s">
         <v>14</v>
       </c>
       <c r="K44" s="52" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="L44" s="52" t="s">
         <v>15</v>
       </c>
       <c r="M44" s="52" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="N44" s="52" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="O44" s="52">
         <v>10</v>
       </c>
     </row>
-    <row r="45" s="3" customFormat="1" ht="17.6" spans="6:15">
+    <row r="45" spans="6:17" s="3" customFormat="1" ht="16.25">
       <c r="F45" s="12" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G45" s="12" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="H45" s="12" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="I45" s="12" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="J45" s="52" t="s">
         <v>14</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="L45" s="3" t="s">
         <v>26</v>
       </c>
       <c r="M45" s="12" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="N45" s="12" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="O45" s="3">
         <v>80</v>
       </c>
     </row>
-    <row r="46" s="3" customFormat="1" ht="17.6" spans="6:15">
+    <row r="46" spans="6:17" s="3" customFormat="1" ht="16.25">
       <c r="F46" s="12" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="G46" s="12" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="H46" s="12" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="I46" s="12" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="J46" s="52" t="s">
         <v>14</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="L46" s="3" t="s">
         <v>26</v>
       </c>
       <c r="M46" s="3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="N46" s="12" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="O46" s="3">
         <v>90</v>
       </c>
     </row>
-    <row r="47" ht="17.6" spans="6:15">
+    <row r="47" spans="6:17" ht="16.25">
       <c r="F47" s="54"/>
       <c r="G47" s="54"/>
       <c r="H47" s="54"/>
@@ -5963,7 +5386,7 @@
       <c r="N47" s="54"/>
       <c r="O47" s="54"/>
     </row>
-    <row r="48" ht="17.6" spans="6:15">
+    <row r="48" spans="6:17" ht="16.25">
       <c r="F48" s="54"/>
       <c r="G48" s="54"/>
       <c r="H48" s="54"/>
@@ -5975,7 +5398,7 @@
       <c r="N48" s="54"/>
       <c r="O48" s="54"/>
     </row>
-    <row r="49" ht="17.6" spans="6:15">
+    <row r="49" spans="6:15" ht="16.25">
       <c r="F49" s="54"/>
       <c r="G49" s="54"/>
       <c r="H49" s="54"/>
@@ -5987,7 +5410,7 @@
       <c r="N49" s="54"/>
       <c r="O49" s="54"/>
     </row>
-    <row r="50" ht="17.6" spans="6:15">
+    <row r="50" spans="6:15" ht="16.25">
       <c r="F50" s="54"/>
       <c r="G50" s="54"/>
       <c r="H50" s="54"/>
@@ -5999,7 +5422,7 @@
       <c r="N50" s="54"/>
       <c r="O50" s="54"/>
     </row>
-    <row r="51" ht="17.6" spans="6:15">
+    <row r="51" spans="6:15" ht="16.25">
       <c r="F51" s="54"/>
       <c r="G51" s="54"/>
       <c r="H51" s="54"/>
@@ -6011,7 +5434,7 @@
       <c r="N51" s="54"/>
       <c r="O51" s="54"/>
     </row>
-    <row r="52" ht="17.6" spans="6:15">
+    <row r="52" spans="6:15" ht="16.899999999999999">
       <c r="F52" s="54"/>
       <c r="G52" s="55"/>
       <c r="H52" s="54"/>
@@ -6023,7 +5446,7 @@
       <c r="N52" s="54"/>
       <c r="O52" s="54"/>
     </row>
-    <row r="53" ht="17.6" spans="6:15">
+    <row r="53" spans="6:15" ht="16.25">
       <c r="F53" s="56"/>
       <c r="G53" s="56"/>
       <c r="H53" s="56"/>
@@ -6035,7 +5458,7 @@
       <c r="N53" s="56"/>
       <c r="O53" s="56"/>
     </row>
-    <row r="54" ht="17.6" spans="6:15">
+    <row r="54" spans="6:15" ht="16.25">
       <c r="F54" s="56"/>
       <c r="G54" s="56"/>
       <c r="H54" s="56"/>
@@ -6047,7 +5470,7 @@
       <c r="N54" s="56"/>
       <c r="O54" s="56"/>
     </row>
-    <row r="55" ht="17.6" spans="6:15">
+    <row r="55" spans="6:15" ht="16.25">
       <c r="F55" s="56"/>
       <c r="G55" s="56"/>
       <c r="H55" s="56"/>
@@ -6059,7 +5482,7 @@
       <c r="N55" s="56"/>
       <c r="O55" s="56"/>
     </row>
-    <row r="56" ht="17.6" spans="6:15">
+    <row r="56" spans="6:15" ht="16.899999999999999">
       <c r="F56" s="56"/>
       <c r="G56" s="57"/>
       <c r="H56" s="56"/>
@@ -6071,7 +5494,7 @@
       <c r="N56" s="56"/>
       <c r="O56" s="56"/>
     </row>
-    <row r="57" ht="17.6" spans="6:15">
+    <row r="57" spans="6:15" ht="16.25">
       <c r="F57" s="56"/>
       <c r="G57" s="56"/>
       <c r="H57" s="56"/>
@@ -6083,7 +5506,7 @@
       <c r="N57" s="56"/>
       <c r="O57" s="56"/>
     </row>
-    <row r="58" ht="17.6" spans="6:15">
+    <row r="58" spans="6:15" ht="16.899999999999999">
       <c r="F58" s="56"/>
       <c r="G58" s="57"/>
       <c r="H58" s="56"/>
@@ -6095,7 +5518,7 @@
       <c r="N58" s="56"/>
       <c r="O58" s="56"/>
     </row>
-    <row r="59" ht="17.6" spans="6:15">
+    <row r="59" spans="6:15" ht="16.25">
       <c r="F59" s="56"/>
       <c r="G59" s="56"/>
       <c r="H59" s="56"/>
@@ -6107,7 +5530,7 @@
       <c r="N59" s="56"/>
       <c r="O59" s="56"/>
     </row>
-    <row r="60" ht="17.6" spans="6:15">
+    <row r="60" spans="6:15" ht="16.25">
       <c r="F60" s="56"/>
       <c r="G60" s="56"/>
       <c r="H60" s="56"/>
@@ -6119,7 +5542,7 @@
       <c r="N60" s="56"/>
       <c r="O60" s="56"/>
     </row>
-    <row r="61" ht="17.6" spans="6:15">
+    <row r="61" spans="6:15" ht="16.899999999999999">
       <c r="F61" s="56"/>
       <c r="G61" s="57"/>
       <c r="H61" s="56"/>
@@ -6131,7 +5554,7 @@
       <c r="N61" s="56"/>
       <c r="O61" s="56"/>
     </row>
-    <row r="62" ht="17.6" spans="6:15">
+    <row r="62" spans="6:15" ht="16.25">
       <c r="F62" s="56"/>
       <c r="G62" s="56"/>
       <c r="H62" s="56"/>
@@ -6143,7 +5566,7 @@
       <c r="N62" s="56"/>
       <c r="O62" s="56"/>
     </row>
-    <row r="63" ht="17.6" spans="6:15">
+    <row r="63" spans="6:15" ht="16.25">
       <c r="F63" s="56"/>
       <c r="G63" s="56"/>
       <c r="H63" s="56"/>
@@ -6155,7 +5578,7 @@
       <c r="N63" s="56"/>
       <c r="O63" s="56"/>
     </row>
-    <row r="64" ht="17.6" spans="6:15">
+    <row r="64" spans="6:15" ht="16.25">
       <c r="F64" s="56"/>
       <c r="G64" s="56"/>
       <c r="H64" s="56"/>
@@ -6167,7 +5590,7 @@
       <c r="N64" s="56"/>
       <c r="O64" s="56"/>
     </row>
-    <row r="65" ht="17.6" spans="6:15">
+    <row r="65" spans="6:15" ht="16.25">
       <c r="F65" s="56"/>
       <c r="G65" s="56"/>
       <c r="H65" s="56"/>
@@ -6179,7 +5602,7 @@
       <c r="N65" s="56"/>
       <c r="O65" s="56"/>
     </row>
-    <row r="66" ht="17.6" spans="6:15">
+    <row r="66" spans="6:15" ht="16.25">
       <c r="F66" s="56"/>
       <c r="G66" s="56"/>
       <c r="H66" s="56"/>
@@ -6191,7 +5614,7 @@
       <c r="N66" s="56"/>
       <c r="O66" s="56"/>
     </row>
-    <row r="67" ht="17.6" spans="6:15">
+    <row r="67" spans="6:15" ht="16.25">
       <c r="F67" s="60"/>
       <c r="G67" s="60"/>
       <c r="H67" s="60"/>
@@ -6203,7 +5626,7 @@
       <c r="N67" s="60"/>
       <c r="O67" s="60"/>
     </row>
-    <row r="68" ht="17.6" spans="6:15">
+    <row r="68" spans="6:15" ht="16.25">
       <c r="F68" s="60"/>
       <c r="G68" s="60"/>
       <c r="H68" s="60"/>
@@ -6215,7 +5638,7 @@
       <c r="N68" s="60"/>
       <c r="O68" s="60"/>
     </row>
-    <row r="69" ht="17.6" spans="6:15">
+    <row r="69" spans="6:15" ht="16.25">
       <c r="F69" s="60"/>
       <c r="G69" s="60"/>
       <c r="H69" s="60"/>
@@ -6227,7 +5650,7 @@
       <c r="N69" s="60"/>
       <c r="O69" s="60"/>
     </row>
-    <row r="70" ht="17.6" spans="6:15">
+    <row r="70" spans="6:15" ht="16.25">
       <c r="F70" s="60"/>
       <c r="G70" s="60"/>
       <c r="H70" s="60"/>
@@ -6239,7 +5662,7 @@
       <c r="N70" s="60"/>
       <c r="O70" s="60"/>
     </row>
-    <row r="71" ht="19.2" spans="6:15">
+    <row r="71" spans="6:15" ht="16.899999999999999">
       <c r="F71" s="61"/>
       <c r="G71" s="61"/>
       <c r="H71" s="61"/>
@@ -6251,7 +5674,7 @@
       <c r="N71" s="64"/>
       <c r="O71" s="61"/>
     </row>
-    <row r="72" ht="19.2" spans="6:15">
+    <row r="72" spans="6:15" ht="16.899999999999999">
       <c r="F72" s="61"/>
       <c r="G72" s="61"/>
       <c r="H72" s="61"/>
@@ -6263,7 +5686,7 @@
       <c r="N72" s="64"/>
       <c r="O72" s="61"/>
     </row>
-    <row r="73" ht="19.2" spans="6:15">
+    <row r="73" spans="6:15" ht="16.899999999999999">
       <c r="F73" s="61"/>
       <c r="G73" s="61"/>
       <c r="H73" s="61"/>
@@ -6275,7 +5698,7 @@
       <c r="N73" s="61"/>
       <c r="O73" s="61"/>
     </row>
-    <row r="74" s="39" customFormat="1" ht="17.6" spans="6:15">
+    <row r="74" spans="6:15" s="39" customFormat="1" ht="16.899999999999999">
       <c r="F74" s="54"/>
       <c r="G74" s="55"/>
       <c r="H74" s="54"/>
@@ -6287,7 +5710,7 @@
       <c r="N74" s="54"/>
       <c r="O74" s="54"/>
     </row>
-    <row r="75" s="39" customFormat="1" ht="17.6" spans="6:15">
+    <row r="75" spans="6:15" s="39" customFormat="1" ht="16.899999999999999">
       <c r="F75" s="54"/>
       <c r="G75" s="55"/>
       <c r="H75" s="54"/>
@@ -6299,7 +5722,7 @@
       <c r="N75" s="54"/>
       <c r="O75" s="54"/>
     </row>
-    <row r="76" s="39" customFormat="1" ht="17.6" spans="6:15">
+    <row r="76" spans="6:15" s="39" customFormat="1" ht="16.899999999999999">
       <c r="F76" s="54"/>
       <c r="G76" s="55"/>
       <c r="H76" s="54"/>
@@ -6311,7 +5734,7 @@
       <c r="N76" s="54"/>
       <c r="O76" s="54"/>
     </row>
-    <row r="77" s="39" customFormat="1" ht="17.6" spans="6:15">
+    <row r="77" spans="6:15" s="39" customFormat="1" ht="16.899999999999999">
       <c r="F77" s="54"/>
       <c r="G77" s="55"/>
       <c r="H77" s="54"/>
@@ -6323,7 +5746,7 @@
       <c r="N77" s="54"/>
       <c r="O77" s="54"/>
     </row>
-    <row r="78" s="39" customFormat="1" ht="17.6" spans="6:15">
+    <row r="78" spans="6:15" s="39" customFormat="1" ht="16.899999999999999">
       <c r="F78" s="54"/>
       <c r="G78" s="55"/>
       <c r="H78" s="54"/>
@@ -6335,7 +5758,7 @@
       <c r="N78" s="54"/>
       <c r="O78" s="54"/>
     </row>
-    <row r="79" s="39" customFormat="1" ht="17.6" spans="6:15">
+    <row r="79" spans="6:15" s="39" customFormat="1" ht="16.899999999999999">
       <c r="F79" s="54"/>
       <c r="G79" s="55"/>
       <c r="H79" s="54"/>
@@ -6347,7 +5770,7 @@
       <c r="N79" s="54"/>
       <c r="O79" s="54"/>
     </row>
-    <row r="80" ht="17.6" spans="6:15">
+    <row r="80" spans="6:15" ht="16.25">
       <c r="F80" s="62"/>
       <c r="G80" s="62"/>
       <c r="H80" s="62"/>
@@ -6359,7 +5782,7 @@
       <c r="N80" s="62"/>
       <c r="O80" s="62"/>
     </row>
-    <row r="81" ht="17.6" spans="6:15">
+    <row r="81" spans="6:15" ht="16.25">
       <c r="F81" s="62"/>
       <c r="G81" s="62"/>
       <c r="H81" s="62"/>
@@ -6371,7 +5794,7 @@
       <c r="N81" s="62"/>
       <c r="O81" s="62"/>
     </row>
-    <row r="82" ht="17.6" spans="6:15">
+    <row r="82" spans="6:15" ht="16.25">
       <c r="F82" s="62"/>
       <c r="G82" s="62"/>
       <c r="H82" s="62"/>
@@ -6383,7 +5806,7 @@
       <c r="N82" s="62"/>
       <c r="O82" s="62"/>
     </row>
-    <row r="83" ht="17.6" spans="6:15">
+    <row r="83" spans="6:15" ht="16.25">
       <c r="F83" s="62"/>
       <c r="G83" s="62"/>
       <c r="H83" s="62"/>
@@ -6395,7 +5818,7 @@
       <c r="N83" s="62"/>
       <c r="O83" s="62"/>
     </row>
-    <row r="84" ht="17.6" spans="6:15">
+    <row r="84" spans="6:15" ht="16.899999999999999">
       <c r="F84" s="62"/>
       <c r="G84" s="63"/>
       <c r="H84" s="62"/>
@@ -6407,7 +5830,7 @@
       <c r="N84" s="62"/>
       <c r="O84" s="62"/>
     </row>
-    <row r="85" ht="17.6" spans="6:15">
+    <row r="85" spans="6:15" ht="16.25">
       <c r="F85" s="62"/>
       <c r="G85" s="62"/>
       <c r="H85" s="62"/>
@@ -6417,7 +5840,7 @@
       <c r="M85" s="62"/>
       <c r="O85" s="62"/>
     </row>
-    <row r="86" ht="17.6" spans="6:15">
+    <row r="86" spans="6:15" ht="16.25">
       <c r="F86" s="62"/>
       <c r="G86" s="62"/>
       <c r="H86" s="62"/>
@@ -6430,8 +5853,9 @@
       <c r="O86" s="62"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="58" type="noConversion"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,常规"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,常规"&amp;12 Page &amp;P</oddFooter>
@@ -6440,15 +5864,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:I87"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A51" workbookViewId="0">
+    <sheetView topLeftCell="A51" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G76" sqref="G76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.7"/>
   <cols>
     <col min="1" max="3" width="9" customWidth="1"/>
     <col min="4" max="4" width="23.875" customWidth="1"/>
@@ -6458,909 +5881,910 @@
     <col min="8" max="1025" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" ht="12.85" customHeight="1" spans="4:9">
+    <row r="7" spans="4:9" ht="12.85" customHeight="1">
       <c r="D7" s="18" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="E7" s="18" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="G7" s="18" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="H7" s="18" t="s">
         <v>11</v>
       </c>
       <c r="I7" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="8" s="27" customFormat="1" ht="17.6" spans="6:9">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="8" spans="4:9" s="27" customFormat="1" ht="17.55">
       <c r="F8" s="27" t="s">
         <v>59</v>
       </c>
       <c r="G8" s="27" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="I8" s="27">
         <v>1</v>
       </c>
     </row>
-    <row r="9" s="27" customFormat="1" ht="17.6" spans="6:9">
+    <row r="9" spans="4:9" s="27" customFormat="1" ht="17.55">
       <c r="F9" s="27" t="s">
         <v>59</v>
       </c>
       <c r="G9" s="27" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="I9" s="27">
         <v>1</v>
       </c>
     </row>
-    <row r="10" s="27" customFormat="1" ht="17.6" spans="6:9">
+    <row r="10" spans="4:9" s="27" customFormat="1" ht="17.55">
       <c r="F10" s="27" t="s">
         <v>59</v>
       </c>
       <c r="G10" s="27" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="I10" s="27">
         <v>1</v>
       </c>
     </row>
-    <row r="11" s="27" customFormat="1" ht="17.6" spans="6:9">
+    <row r="11" spans="4:9" s="27" customFormat="1" ht="17.55">
       <c r="F11" s="27" t="s">
         <v>59</v>
       </c>
       <c r="G11" s="27" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="I11" s="27">
         <v>0</v>
       </c>
     </row>
-    <row r="12" s="27" customFormat="1" ht="17.6" spans="6:9">
+    <row r="12" spans="4:9" s="27" customFormat="1" ht="17.55">
       <c r="F12" s="27" t="s">
         <v>59</v>
       </c>
       <c r="G12" s="27" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="I12" s="27">
         <v>0</v>
       </c>
     </row>
-    <row r="13" s="27" customFormat="1" ht="17.6" spans="6:9">
+    <row r="13" spans="4:9" s="27" customFormat="1" ht="17.55">
       <c r="F13" s="27" t="s">
         <v>59</v>
       </c>
       <c r="G13" s="27" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="I13" s="27">
         <v>0</v>
       </c>
     </row>
-    <row r="14" s="27" customFormat="1" ht="17.6" spans="6:9">
+    <row r="14" spans="4:9" s="27" customFormat="1" ht="17.55">
       <c r="F14" s="27" t="s">
         <v>59</v>
       </c>
       <c r="G14" s="27" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="I14" s="27">
         <v>0</v>
       </c>
     </row>
-    <row r="15" s="27" customFormat="1" ht="17.6" spans="6:9">
+    <row r="15" spans="4:9" s="27" customFormat="1" ht="17.55">
       <c r="F15" s="27" t="s">
         <v>59</v>
       </c>
       <c r="G15" s="27" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="I15" s="27">
         <v>0</v>
       </c>
     </row>
-    <row r="16" s="27" customFormat="1" ht="17.6" spans="6:9">
+    <row r="16" spans="4:9" s="27" customFormat="1" ht="17.55">
       <c r="F16" s="27" t="s">
         <v>59</v>
       </c>
       <c r="G16" s="27" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="I16" s="27">
         <v>0</v>
       </c>
     </row>
-    <row r="17" s="27" customFormat="1" ht="17.6" spans="6:9">
+    <row r="17" spans="6:9" s="27" customFormat="1" ht="17.55">
       <c r="F17" s="27" t="s">
         <v>59</v>
       </c>
       <c r="G17" s="27" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="I17" s="27">
         <v>1</v>
       </c>
     </row>
-    <row r="18" s="27" customFormat="1" ht="17.6" spans="6:9">
+    <row r="18" spans="6:9" s="27" customFormat="1" ht="17.55">
       <c r="F18" s="27" t="s">
         <v>59</v>
       </c>
       <c r="G18" s="27" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="I18" s="27">
         <v>0</v>
       </c>
     </row>
-    <row r="19" s="27" customFormat="1" ht="17.6" spans="6:9">
+    <row r="19" spans="6:9" s="27" customFormat="1" ht="17.55">
       <c r="F19" s="27" t="s">
         <v>59</v>
       </c>
       <c r="G19" s="27" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="I19" s="27">
         <v>0</v>
       </c>
     </row>
-    <row r="20" s="27" customFormat="1" ht="17.6" spans="6:9">
+    <row r="20" spans="6:9" s="27" customFormat="1" ht="17.55">
       <c r="F20" s="27" t="s">
         <v>59</v>
       </c>
       <c r="G20" s="27" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="I20" s="27">
         <v>0</v>
       </c>
     </row>
-    <row r="21" s="27" customFormat="1" ht="17.6" spans="6:9">
+    <row r="21" spans="6:9" s="27" customFormat="1" ht="17.55">
       <c r="F21" s="27" t="s">
         <v>59</v>
       </c>
       <c r="G21" s="27" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="I21" s="27">
         <v>0</v>
       </c>
     </row>
-    <row r="22" s="27" customFormat="1" ht="17.6" spans="6:9">
+    <row r="22" spans="6:9" s="27" customFormat="1" ht="17.55">
       <c r="F22" s="27" t="s">
         <v>59</v>
       </c>
       <c r="G22" s="27" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="I22" s="27">
         <v>0</v>
       </c>
     </row>
-    <row r="23" s="27" customFormat="1" ht="17.6" spans="6:9">
+    <row r="23" spans="6:9" s="27" customFormat="1" ht="17.55">
       <c r="F23" s="27" t="s">
         <v>59</v>
       </c>
       <c r="G23" s="27" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="I23" s="27">
         <v>0</v>
       </c>
     </row>
-    <row r="24" s="27" customFormat="1" ht="17.6" spans="6:9">
+    <row r="24" spans="6:9" s="27" customFormat="1" ht="17.55">
       <c r="F24" s="27" t="s">
         <v>59</v>
       </c>
       <c r="G24" s="27" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="I24" s="27">
         <v>1</v>
       </c>
     </row>
-    <row r="25" s="27" customFormat="1" ht="17.6" spans="6:9">
+    <row r="25" spans="6:9" s="27" customFormat="1" ht="17.55">
       <c r="F25" s="27" t="s">
         <v>59</v>
       </c>
       <c r="G25" s="27" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="I25" s="27">
         <v>1</v>
       </c>
     </row>
-    <row r="26" s="27" customFormat="1" ht="17.6" spans="6:9">
+    <row r="26" spans="6:9" s="27" customFormat="1" ht="17.55">
       <c r="F26" s="27" t="s">
         <v>59</v>
       </c>
       <c r="G26" s="27" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="I26" s="27">
         <v>0</v>
       </c>
     </row>
-    <row r="27" s="27" customFormat="1" ht="17.6" spans="6:9">
+    <row r="27" spans="6:9" s="27" customFormat="1" ht="17.55">
       <c r="F27" s="27" t="s">
         <v>59</v>
       </c>
       <c r="G27" s="27" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="I27" s="27">
         <v>0</v>
       </c>
     </row>
-    <row r="28" s="27" customFormat="1" ht="17.6" spans="6:9">
+    <row r="28" spans="6:9" s="27" customFormat="1" ht="17.55">
       <c r="F28" s="27" t="s">
         <v>59</v>
       </c>
       <c r="G28" s="27" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="I28" s="27">
         <v>0</v>
       </c>
     </row>
-    <row r="29" ht="17.6" spans="6:9">
+    <row r="29" spans="6:9" ht="17.55">
       <c r="F29" s="27" t="s">
         <v>59</v>
       </c>
       <c r="G29" s="27" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="I29" s="27">
         <v>0</v>
       </c>
     </row>
-    <row r="30" ht="17.6" spans="6:9">
+    <row r="30" spans="6:9" ht="17.55">
       <c r="F30" s="27" t="s">
         <v>59</v>
       </c>
       <c r="G30" s="27" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="I30" s="27">
         <v>0</v>
       </c>
     </row>
-    <row r="31" ht="17.6" spans="6:9">
+    <row r="31" spans="6:9" ht="17.55">
       <c r="F31" s="27" t="s">
         <v>59</v>
       </c>
       <c r="G31" s="27" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="I31" s="27">
         <v>0</v>
       </c>
     </row>
-    <row r="32" ht="17.6" spans="6:9">
+    <row r="32" spans="6:9" ht="17.55">
       <c r="F32" s="27" t="s">
         <v>59</v>
       </c>
       <c r="G32" s="27" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="I32" s="27">
         <v>0</v>
       </c>
     </row>
-    <row r="33" ht="17.6" spans="6:9">
+    <row r="33" spans="6:9" ht="17.55">
       <c r="F33" s="27" t="s">
         <v>59</v>
       </c>
       <c r="G33" s="27" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="I33" s="27">
         <v>1</v>
       </c>
     </row>
-    <row r="34" ht="17.6" spans="6:9">
+    <row r="34" spans="6:9" ht="17.55">
       <c r="F34" s="27" t="s">
         <v>50</v>
       </c>
       <c r="G34" s="27" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="I34" s="27">
         <v>0</v>
       </c>
     </row>
-    <row r="35" ht="17.6" spans="6:9">
+    <row r="35" spans="6:9" ht="17.55">
       <c r="F35" s="27" t="s">
         <v>50</v>
       </c>
       <c r="G35" s="27" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="I35" s="27">
         <v>0</v>
       </c>
     </row>
-    <row r="36" ht="17.6" spans="6:9">
+    <row r="36" spans="6:9" ht="17.55">
       <c r="F36" s="27" t="s">
         <v>50</v>
       </c>
       <c r="G36" s="27" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="I36" s="27">
         <v>0</v>
       </c>
     </row>
-    <row r="37" ht="17.6" spans="6:9">
+    <row r="37" spans="6:9" ht="17.55">
       <c r="F37" s="27" t="s">
         <v>50</v>
       </c>
       <c r="G37" s="27" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="I37" s="27">
         <v>0</v>
       </c>
     </row>
-    <row r="38" ht="17.6" spans="6:9">
+    <row r="38" spans="6:9" ht="17.55">
       <c r="F38" s="27" t="s">
         <v>50</v>
       </c>
       <c r="G38" s="27" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="I38" s="27">
         <v>1</v>
       </c>
     </row>
-    <row r="39" ht="17.6" spans="6:9">
+    <row r="39" spans="6:9" ht="17.55">
       <c r="F39" s="27" t="s">
         <v>50</v>
       </c>
       <c r="G39" s="27" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="I39" s="27">
         <v>1</v>
       </c>
     </row>
-    <row r="40" ht="17.6" spans="6:9">
+    <row r="40" spans="6:9" ht="17.55">
       <c r="F40" s="27" t="s">
         <v>50</v>
       </c>
       <c r="G40" s="27" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="I40" s="27">
         <v>0</v>
       </c>
     </row>
-    <row r="41" ht="17.6" spans="6:9">
+    <row r="41" spans="6:9" ht="17.55">
       <c r="F41" s="27" t="s">
         <v>50</v>
       </c>
       <c r="G41" s="27" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="I41" s="27">
         <v>0</v>
       </c>
     </row>
-    <row r="42" ht="17.6" spans="6:9">
+    <row r="42" spans="6:9" ht="17.55">
       <c r="F42" s="27" t="s">
         <v>50</v>
       </c>
       <c r="G42" s="27" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="I42" s="27">
         <v>1</v>
       </c>
     </row>
-    <row r="43" ht="17.6" spans="6:9">
+    <row r="43" spans="6:9" ht="17.55">
       <c r="F43" s="27" t="s">
         <v>50</v>
       </c>
       <c r="G43" s="27" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="I43" s="27">
         <v>0</v>
       </c>
     </row>
-    <row r="44" ht="17.6" spans="6:9">
+    <row r="44" spans="6:9" ht="17.55">
       <c r="F44" s="27" t="s">
         <v>50</v>
       </c>
       <c r="G44" s="27" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="I44" s="27">
         <v>0</v>
       </c>
     </row>
-    <row r="45" ht="17.6" spans="6:9">
+    <row r="45" spans="6:9" ht="17.55">
       <c r="F45" s="27" t="s">
         <v>50</v>
       </c>
       <c r="G45" s="27" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="I45" s="27">
         <v>0</v>
       </c>
     </row>
-    <row r="46" ht="17.6" spans="6:9">
+    <row r="46" spans="6:9" ht="17.55">
       <c r="F46" s="27" t="s">
         <v>50</v>
       </c>
       <c r="G46" s="27" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="I46" s="27">
         <v>0</v>
       </c>
     </row>
-    <row r="47" ht="17.6" spans="6:9">
+    <row r="47" spans="6:9" ht="17.55">
       <c r="F47" s="27" t="s">
         <v>50</v>
       </c>
       <c r="G47" s="27" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="I47" s="27">
         <v>1</v>
       </c>
     </row>
-    <row r="48" ht="17.6" spans="6:9">
+    <row r="48" spans="6:9" ht="17.55">
       <c r="F48" s="27" t="s">
         <v>50</v>
       </c>
       <c r="G48" s="27" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="I48" s="27">
         <v>1</v>
       </c>
     </row>
-    <row r="49" ht="17.6" spans="6:9">
+    <row r="49" spans="6:9" ht="17.55">
       <c r="F49" s="27" t="s">
         <v>50</v>
       </c>
       <c r="G49" s="27" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="I49" s="27">
         <v>0</v>
       </c>
     </row>
-    <row r="50" ht="17.6" spans="6:9">
+    <row r="50" spans="6:9" ht="17.55">
       <c r="F50" s="27" t="s">
         <v>50</v>
       </c>
       <c r="G50" s="27" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="I50" s="27">
         <v>0</v>
       </c>
     </row>
-    <row r="51" ht="17.6" spans="6:9">
+    <row r="51" spans="6:9" ht="17.55">
       <c r="F51" s="27" t="s">
         <v>50</v>
       </c>
       <c r="G51" s="27" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="I51" s="27">
         <v>0</v>
       </c>
     </row>
-    <row r="52" ht="17.6" spans="6:9">
+    <row r="52" spans="6:9" ht="17.55">
       <c r="F52" s="27" t="s">
         <v>50</v>
       </c>
       <c r="G52" s="27" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="I52" s="27">
         <v>0</v>
       </c>
     </row>
-    <row r="53" ht="17.6" spans="6:9">
+    <row r="53" spans="6:9" ht="17.55">
       <c r="F53" s="27" t="s">
         <v>50</v>
       </c>
       <c r="G53" s="27" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="I53" s="27">
         <v>0</v>
       </c>
     </row>
-    <row r="54" ht="17.6" spans="6:9">
+    <row r="54" spans="6:9" ht="17.55">
       <c r="F54" s="27" t="s">
         <v>50</v>
       </c>
       <c r="G54" s="27" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="I54" s="27">
         <v>0</v>
       </c>
     </row>
-    <row r="55" ht="17.6" spans="6:9">
+    <row r="55" spans="6:9" ht="17.55">
       <c r="F55" s="27" t="s">
         <v>50</v>
       </c>
       <c r="G55" s="27" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="I55" s="27">
         <v>0</v>
       </c>
     </row>
-    <row r="56" ht="17.6" spans="6:9">
+    <row r="56" spans="6:9" ht="17.55">
       <c r="F56" s="27" t="s">
         <v>50</v>
       </c>
       <c r="G56" s="27" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="I56" s="27">
         <v>1</v>
       </c>
     </row>
-    <row r="57" ht="17.6" spans="6:9">
+    <row r="57" spans="6:9" ht="17.55">
       <c r="F57" s="27" t="s">
         <v>50</v>
       </c>
       <c r="G57" s="27" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="I57" s="27">
         <v>1</v>
       </c>
     </row>
-    <row r="58" ht="17.6" spans="6:9">
+    <row r="58" spans="6:9" ht="17.55">
       <c r="F58" s="27" t="s">
         <v>50</v>
       </c>
       <c r="G58" s="27" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="I58" s="27">
         <v>0</v>
       </c>
     </row>
-    <row r="59" ht="17.6" spans="6:9">
+    <row r="59" spans="6:9" ht="17.55">
       <c r="F59" s="27" t="s">
         <v>50</v>
       </c>
       <c r="G59" s="27" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="I59" s="27">
         <v>0</v>
       </c>
     </row>
-    <row r="60" ht="17.6" spans="6:9">
+    <row r="60" spans="6:9" ht="17.55">
       <c r="F60" s="27" t="s">
         <v>50</v>
       </c>
       <c r="G60" s="27" t="s">
+        <v>238</v>
+      </c>
+      <c r="I60" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="6:9" s="28" customFormat="1" ht="17.55">
+      <c r="F61" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="G61" s="28" t="s">
+        <v>239</v>
+      </c>
+      <c r="I61" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="6:9" s="28" customFormat="1" ht="17.55">
+      <c r="F62" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="G62" s="28" t="s">
+        <v>240</v>
+      </c>
+      <c r="I62" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="6:9" s="28" customFormat="1" ht="17.55">
+      <c r="F63" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="G63" s="28" t="s">
+        <v>241</v>
+      </c>
+      <c r="I63" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="6:9" s="28" customFormat="1" ht="17.55">
+      <c r="F64" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="G64" s="28" t="s">
         <v>242</v>
       </c>
-      <c r="I60" s="27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" s="28" customFormat="1" ht="17.6" spans="6:9">
-      <c r="F61" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="G61" s="28" t="s">
-        <v>243</v>
-      </c>
-      <c r="I61" s="28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" s="28" customFormat="1" ht="17.6" spans="6:9">
-      <c r="F62" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="G62" s="28" t="s">
-        <v>244</v>
-      </c>
-      <c r="I62" s="28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" s="28" customFormat="1" ht="17.6" spans="6:9">
-      <c r="F63" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="G63" s="28" t="s">
-        <v>245</v>
-      </c>
-      <c r="I63" s="28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" s="28" customFormat="1" ht="17.6" spans="6:9">
-      <c r="F64" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="G64" s="28" t="s">
-        <v>246</v>
-      </c>
       <c r="I64" s="28">
         <v>1</v>
       </c>
     </row>
-    <row r="65" s="28" customFormat="1" ht="17.6" spans="6:9">
+    <row r="65" spans="6:9" s="28" customFormat="1" ht="17.55">
       <c r="F65" s="28" t="s">
         <v>62</v>
       </c>
       <c r="G65" s="28" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="I65" s="28">
         <v>0</v>
       </c>
     </row>
-    <row r="66" s="28" customFormat="1" ht="17.6" spans="6:9">
+    <row r="66" spans="6:9" s="28" customFormat="1" ht="17.55">
       <c r="F66" s="28" t="s">
         <v>62</v>
       </c>
       <c r="G66" s="28" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="I66" s="28">
         <v>1</v>
       </c>
     </row>
-    <row r="67" s="28" customFormat="1" ht="17.6" spans="6:9">
+    <row r="67" spans="6:9" s="28" customFormat="1" ht="17.55">
       <c r="F67" s="28" t="s">
         <v>62</v>
       </c>
       <c r="G67" s="28" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="I67" s="28">
         <v>0</v>
       </c>
     </row>
-    <row r="68" s="28" customFormat="1" ht="17.6" spans="6:9">
+    <row r="68" spans="6:9" s="28" customFormat="1" ht="17.55">
       <c r="F68" s="28" t="s">
         <v>62</v>
       </c>
       <c r="G68" s="28" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="I68" s="28">
         <v>1</v>
       </c>
     </row>
-    <row r="69" s="28" customFormat="1" ht="17.6" spans="6:9">
+    <row r="69" spans="6:9" s="28" customFormat="1" ht="17.55">
       <c r="F69" s="28" t="s">
         <v>62</v>
       </c>
       <c r="G69" s="28" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="I69" s="28">
         <v>1</v>
       </c>
     </row>
-    <row r="70" s="28" customFormat="1" ht="17.6" spans="6:9">
+    <row r="70" spans="6:9" s="28" customFormat="1" ht="17.55">
       <c r="F70" s="28" t="s">
         <v>62</v>
       </c>
       <c r="G70" s="28" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="I70" s="28">
         <v>1</v>
       </c>
     </row>
-    <row r="71" s="29" customFormat="1" ht="17.6" spans="6:9">
+    <row r="71" spans="6:9" s="29" customFormat="1" ht="17.55">
       <c r="F71" s="28" t="s">
         <v>62</v>
       </c>
       <c r="G71" s="29" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="I71" s="28">
         <v>0</v>
       </c>
     </row>
-    <row r="72" s="29" customFormat="1" ht="17.6" spans="6:9">
+    <row r="72" spans="6:9" s="29" customFormat="1" ht="17.55">
       <c r="F72" s="28" t="s">
         <v>62</v>
       </c>
       <c r="G72" s="29" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="I72" s="28">
         <v>1</v>
       </c>
     </row>
-    <row r="73" s="29" customFormat="1" ht="17.6" spans="6:9">
+    <row r="73" spans="6:9" s="29" customFormat="1" ht="17.55">
       <c r="F73" s="28" t="s">
         <v>62</v>
       </c>
       <c r="G73" s="29" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="I73" s="28">
         <v>0</v>
       </c>
     </row>
-    <row r="74" s="29" customFormat="1" ht="17.6" spans="6:9">
+    <row r="74" spans="6:9" s="29" customFormat="1" ht="17.55">
       <c r="F74" s="28" t="s">
         <v>62</v>
       </c>
       <c r="G74" s="29" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="I74" s="28">
         <v>0</v>
       </c>
     </row>
-    <row r="75" s="29" customFormat="1" ht="17.6" spans="6:9">
+    <row r="75" spans="6:9" s="29" customFormat="1" ht="17.55">
       <c r="F75" s="28" t="s">
         <v>62</v>
       </c>
       <c r="G75" s="29" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="I75" s="28">
         <v>0</v>
       </c>
     </row>
-    <row r="76" s="29" customFormat="1" ht="17.6" spans="6:9">
+    <row r="76" spans="6:9" s="29" customFormat="1" ht="17.55">
       <c r="F76" s="28" t="s">
         <v>62</v>
       </c>
       <c r="G76" s="29" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="I76" s="28">
         <v>1</v>
       </c>
     </row>
-    <row r="77" s="29" customFormat="1" ht="17.6" spans="6:9">
+    <row r="77" spans="6:9" s="29" customFormat="1" ht="17.55">
       <c r="F77" s="28" t="s">
         <v>62</v>
       </c>
       <c r="G77" s="29" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="I77" s="28">
         <v>0</v>
       </c>
     </row>
-    <row r="78" s="29" customFormat="1" ht="17.6" spans="6:9">
+    <row r="78" spans="6:9" s="29" customFormat="1" ht="17.55">
       <c r="F78" s="28" t="s">
         <v>62</v>
       </c>
       <c r="G78" s="29" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="I78" s="28">
         <v>1</v>
       </c>
     </row>
-    <row r="79" s="29" customFormat="1" ht="17.6" spans="6:9">
+    <row r="79" spans="6:9" s="29" customFormat="1" ht="17.55">
       <c r="F79" s="28" t="s">
         <v>62</v>
       </c>
       <c r="G79" s="29" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="I79" s="28">
         <v>1</v>
       </c>
     </row>
-    <row r="80" s="29" customFormat="1" ht="17.6" spans="6:9">
+    <row r="80" spans="6:9" s="29" customFormat="1" ht="17.55">
       <c r="F80" s="28" t="s">
         <v>62</v>
       </c>
       <c r="G80" s="29" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="I80" s="28">
         <v>1</v>
       </c>
     </row>
-    <row r="81" s="29" customFormat="1" ht="17.6" spans="6:9">
+    <row r="81" spans="6:9" s="29" customFormat="1" ht="17.55">
       <c r="F81" s="28" t="s">
         <v>62</v>
       </c>
       <c r="G81" s="29" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="I81" s="28">
         <v>0</v>
       </c>
     </row>
-    <row r="82" s="29" customFormat="1" ht="17.6" spans="6:9">
+    <row r="82" spans="6:9" s="29" customFormat="1" ht="17.55">
       <c r="F82" s="28" t="s">
         <v>62</v>
       </c>
       <c r="G82" s="29" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="I82" s="28">
         <v>1</v>
       </c>
     </row>
-    <row r="83" s="30" customFormat="1" ht="17.6" spans="6:9">
+    <row r="83" spans="6:9" s="30" customFormat="1" ht="17.55">
       <c r="F83" s="30" t="s">
         <v>45</v>
       </c>
       <c r="G83" s="30" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="I83" s="30">
         <v>1</v>
       </c>
     </row>
-    <row r="84" s="30" customFormat="1" ht="17.6" spans="6:9">
+    <row r="84" spans="6:9" s="30" customFormat="1" ht="17.55">
       <c r="F84" s="30" t="s">
         <v>45</v>
       </c>
       <c r="G84" s="30" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="I84" s="30">
         <v>0</v>
       </c>
     </row>
-    <row r="85" s="30" customFormat="1" ht="17.6" spans="6:9">
+    <row r="85" spans="6:9" s="30" customFormat="1" ht="17.55">
       <c r="F85" s="30" t="s">
         <v>45</v>
       </c>
       <c r="G85" s="30" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="I85" s="30">
         <v>0</v>
       </c>
     </row>
-    <row r="86" s="30" customFormat="1" ht="17.6" spans="6:9">
+    <row r="86" spans="6:9" s="30" customFormat="1" ht="17.55">
       <c r="F86" s="30" t="s">
         <v>45</v>
       </c>
       <c r="G86" s="30" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="I86" s="30">
         <v>0</v>
       </c>
     </row>
-    <row r="87" s="30" customFormat="1" ht="17.6" spans="6:9">
+    <row r="87" spans="6:9" s="30" customFormat="1" ht="17.55">
       <c r="F87" s="30" t="s">
         <v>45</v>
       </c>
       <c r="G87" s="30" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="I87" s="30">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="58" type="noConversion"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,常规"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,常规"&amp;12 Page &amp;P</oddFooter>
@@ -7369,15 +6793,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:G45"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.7"/>
   <cols>
     <col min="1" max="1" width="6.125" customWidth="1"/>
     <col min="2" max="2" width="5" customWidth="1"/>
@@ -7388,139 +6811,140 @@
     <col min="7" max="7" width="64.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" ht="15.2" spans="4:7">
+    <row r="7" spans="4:7" ht="13">
       <c r="D7" s="18" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="E7" s="18" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="G7" s="18" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="8" s="21" customFormat="1" ht="19.2" spans="4:7">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="8" spans="4:7" s="21" customFormat="1" ht="18.2">
       <c r="D8" s="22"/>
       <c r="E8" s="22"/>
       <c r="F8" s="22" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="G8" s="23" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="9" s="21" customFormat="1" ht="19.2" spans="4:7">
+    <row r="9" spans="4:7" s="21" customFormat="1" ht="18.2">
       <c r="D9" s="22"/>
       <c r="E9" s="22"/>
       <c r="F9" s="22" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="G9" s="23" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="10" s="21" customFormat="1" ht="19.2" spans="4:7">
+    <row r="10" spans="4:7" s="21" customFormat="1" ht="18.2">
       <c r="D10" s="22"/>
       <c r="E10" s="22"/>
       <c r="F10" s="22" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="G10" s="24" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="11" s="21" customFormat="1" ht="19.2" spans="4:7">
+    <row r="11" spans="4:7" s="21" customFormat="1" ht="18.2">
       <c r="D11" s="22"/>
       <c r="E11" s="22"/>
       <c r="F11" s="22" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="G11" s="24" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="12" s="21" customFormat="1" ht="19.2" spans="4:7">
+    <row r="12" spans="4:7" s="21" customFormat="1" ht="18.2">
       <c r="D12" s="22"/>
       <c r="E12" s="22"/>
       <c r="F12" s="22" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="G12" s="24" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="13" s="21" customFormat="1" ht="19.2" spans="4:7">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="4:7" s="21" customFormat="1" ht="18.2">
       <c r="D13" s="22"/>
       <c r="E13" s="22"/>
       <c r="F13" s="22" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="G13" s="24" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="14" ht="19.2" spans="6:7">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="4:7" ht="18.2">
       <c r="F14" s="25" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="G14" s="26" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="15" s="21" customFormat="1" ht="19.2" spans="4:7">
+    <row r="15" spans="4:7" s="21" customFormat="1" ht="18.2">
       <c r="D15" s="22"/>
       <c r="E15" s="22"/>
       <c r="F15" s="25" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="G15" s="26" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="16" s="21" customFormat="1" ht="19.2" spans="4:7">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="4:7" s="21" customFormat="1" ht="18.2">
       <c r="D16" s="22"/>
       <c r="E16" s="22"/>
       <c r="F16" s="25" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="G16" s="26" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="17" s="22" customFormat="1" ht="19.2"/>
-    <row r="18" s="22" customFormat="1" ht="19.2"/>
-    <row r="19" s="22" customFormat="1" ht="19.2"/>
-    <row r="20" s="22" customFormat="1" ht="19.2"/>
-    <row r="21" s="22" customFormat="1" ht="19.2"/>
-    <row r="22" s="22" customFormat="1" ht="19.2"/>
-    <row r="23" s="22" customFormat="1" ht="19.2"/>
-    <row r="24" s="22" customFormat="1" ht="19.2"/>
-    <row r="25" s="22" customFormat="1" ht="19.2"/>
-    <row r="26" s="22" customFormat="1" ht="19.2"/>
-    <row r="27" s="22" customFormat="1" ht="19.2"/>
-    <row r="28" s="22" customFormat="1" ht="19.2"/>
-    <row r="29" s="22" customFormat="1" ht="19.2"/>
-    <row r="30" s="22" customFormat="1" ht="19.2"/>
-    <row r="31" s="22" customFormat="1" ht="19.2"/>
-    <row r="32" s="22" customFormat="1" ht="19.2"/>
-    <row r="33" s="22" customFormat="1" ht="19.2"/>
-    <row r="34" s="22" customFormat="1" ht="19.2"/>
-    <row r="35" s="22" customFormat="1" ht="19.2"/>
-    <row r="36" s="22" customFormat="1" ht="19.2"/>
-    <row r="37" s="22" customFormat="1" ht="19.2"/>
-    <row r="38" s="22" customFormat="1" ht="19.2"/>
-    <row r="39" s="22" customFormat="1" ht="19.2"/>
-    <row r="40" s="22" customFormat="1" ht="19.2"/>
-    <row r="41" s="22" customFormat="1" ht="19.2"/>
-    <row r="42" s="22" customFormat="1" ht="19.2"/>
-    <row r="43" s="22" customFormat="1" ht="19.2"/>
-    <row r="44" s="22" customFormat="1" ht="19.2"/>
-    <row r="45" s="22" customFormat="1" ht="19.2"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" s="22" customFormat="1" ht="18.2"/>
+    <row r="18" s="22" customFormat="1" ht="18.2"/>
+    <row r="19" s="22" customFormat="1" ht="18.2"/>
+    <row r="20" s="22" customFormat="1" ht="18.2"/>
+    <row r="21" s="22" customFormat="1" ht="18.2"/>
+    <row r="22" s="22" customFormat="1" ht="18.2"/>
+    <row r="23" s="22" customFormat="1" ht="18.2"/>
+    <row r="24" s="22" customFormat="1" ht="18.2"/>
+    <row r="25" s="22" customFormat="1" ht="18.2"/>
+    <row r="26" s="22" customFormat="1" ht="18.2"/>
+    <row r="27" s="22" customFormat="1" ht="18.2"/>
+    <row r="28" s="22" customFormat="1" ht="18.2"/>
+    <row r="29" s="22" customFormat="1" ht="18.2"/>
+    <row r="30" s="22" customFormat="1" ht="18.2"/>
+    <row r="31" s="22" customFormat="1" ht="18.2"/>
+    <row r="32" s="22" customFormat="1" ht="18.2"/>
+    <row r="33" s="22" customFormat="1" ht="18.2"/>
+    <row r="34" s="22" customFormat="1" ht="18.2"/>
+    <row r="35" s="22" customFormat="1" ht="18.2"/>
+    <row r="36" s="22" customFormat="1" ht="18.2"/>
+    <row r="37" s="22" customFormat="1" ht="18.2"/>
+    <row r="38" s="22" customFormat="1" ht="18.2"/>
+    <row r="39" s="22" customFormat="1" ht="18.2"/>
+    <row r="40" s="22" customFormat="1" ht="18.2"/>
+    <row r="41" s="22" customFormat="1" ht="18.2"/>
+    <row r="42" s="22" customFormat="1" ht="18.2"/>
+    <row r="43" s="22" customFormat="1" ht="18.2"/>
+    <row r="44" s="22" customFormat="1" ht="18.2"/>
+    <row r="45" s="22" customFormat="1" ht="18.2"/>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <phoneticPr fontId="58" type="noConversion"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,标准"&amp;12&amp;A</oddHeader>
@@ -7530,15 +6954,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="D6:I85"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D7:I85"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A31" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="L47" sqref="L47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.7"/>
   <cols>
     <col min="1" max="3" width="8.875" customWidth="1"/>
     <col min="4" max="4" width="27.375" customWidth="1"/>
@@ -7549,33 +6972,32 @@
     <col min="9" max="1025" width="8.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" ht="14.75"/>
-    <row r="7" ht="19" customHeight="1" spans="4:9">
+    <row r="7" spans="4:9" ht="19" customHeight="1">
       <c r="D7" s="5" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="I7" s="18" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" s="3" customFormat="1" spans="6:9">
+    <row r="8" spans="4:9" s="3" customFormat="1">
       <c r="F8" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="H8" s="7" t="s">
         <v>26</v>
@@ -7584,12 +7006,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" s="3" customFormat="1" spans="6:9">
+    <row r="9" spans="4:9" s="3" customFormat="1">
       <c r="F9" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H9" s="7" t="s">
         <v>26</v>
@@ -7598,12 +7020,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" s="3" customFormat="1" spans="6:9">
+    <row r="10" spans="4:9" s="3" customFormat="1">
       <c r="F10" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="H10" s="7" t="s">
         <v>26</v>
@@ -7612,12 +7034,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" s="3" customFormat="1" spans="6:9">
+    <row r="11" spans="4:9" s="3" customFormat="1">
       <c r="F11" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="H11" s="7" t="s">
         <v>26</v>
@@ -7626,12 +7048,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" s="3" customFormat="1" spans="6:9">
+    <row r="12" spans="4:9" s="3" customFormat="1">
       <c r="F12" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H12" s="7" t="s">
         <v>26</v>
@@ -7640,12 +7062,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" s="3" customFormat="1" spans="6:9">
+    <row r="13" spans="4:9" s="3" customFormat="1">
       <c r="F13" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="H13" s="7" t="s">
         <v>26</v>
@@ -7654,12 +7076,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" s="3" customFormat="1" spans="6:9">
+    <row r="14" spans="4:9" s="3" customFormat="1">
       <c r="F14" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="H14" s="7" t="s">
         <v>26</v>
@@ -7668,12 +7090,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" s="3" customFormat="1" spans="6:9">
+    <row r="15" spans="4:9" s="3" customFormat="1">
       <c r="F15" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H15" s="7" t="s">
         <v>26</v>
@@ -7682,238 +7104,238 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" s="3" customFormat="1" spans="6:9">
+    <row r="16" spans="4:9" s="3" customFormat="1">
       <c r="F16" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="I16" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="17" s="3" customFormat="1" spans="6:9">
+    <row r="17" spans="4:9" s="3" customFormat="1">
       <c r="F17" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="G17" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="I17" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="4:9" s="3" customFormat="1">
+      <c r="F18" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="H17" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="I17" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" s="3" customFormat="1" spans="6:9">
-      <c r="F18" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="G18" s="7" t="s">
+      <c r="H18" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="I18" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="4:9" s="3" customFormat="1">
+      <c r="F19" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="H18" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="I18" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" s="3" customFormat="1" spans="6:9">
-      <c r="F19" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>105</v>
-      </c>
       <c r="H19" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="I19" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="20" s="3" customFormat="1" spans="6:9">
+    <row r="20" spans="4:9" s="3" customFormat="1">
       <c r="F20" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="I20" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="21" s="3" customFormat="1" spans="6:9">
+    <row r="21" spans="4:9" s="3" customFormat="1">
       <c r="F21" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="I21" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="22" s="3" customFormat="1" spans="6:9">
+    <row r="22" spans="4:9" s="3" customFormat="1">
       <c r="F22" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="I22" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="23" s="3" customFormat="1" spans="6:9">
+    <row r="23" spans="4:9" s="3" customFormat="1">
       <c r="F23" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="I23" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="24" s="3" customFormat="1" spans="6:9">
+    <row r="24" spans="4:9" s="3" customFormat="1">
       <c r="F24" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="I24" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="25" s="3" customFormat="1" spans="6:9">
+    <row r="25" spans="4:9" s="3" customFormat="1">
       <c r="F25" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="G25" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="I25" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="4:9" s="3" customFormat="1">
+      <c r="F26" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="H25" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="I25" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" s="3" customFormat="1" spans="6:9">
-      <c r="F26" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="G26" s="7" t="s">
+      <c r="H26" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="I26" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="4:9" s="3" customFormat="1">
+      <c r="F27" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G27" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="H26" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="I26" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" s="3" customFormat="1" spans="6:9">
-      <c r="F27" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>105</v>
-      </c>
       <c r="H27" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="I27" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="28" s="3" customFormat="1" spans="6:9">
+    <row r="28" spans="4:9" s="3" customFormat="1">
       <c r="F28" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="I28" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="29" s="3" customFormat="1" spans="6:9">
+    <row r="29" spans="4:9" s="3" customFormat="1">
       <c r="F29" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="I29" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="30" s="3" customFormat="1" spans="6:9">
+    <row r="30" spans="4:9" s="3" customFormat="1">
       <c r="F30" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="I30" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="31" s="3" customFormat="1" spans="6:9">
+    <row r="31" spans="4:9" s="3" customFormat="1">
       <c r="F31" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="I31" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="32" s="3" customFormat="1" ht="12.85" customHeight="1" spans="4:9">
+    <row r="32" spans="4:9" s="3" customFormat="1" ht="12.85" customHeight="1">
       <c r="D32" s="6"/>
       <c r="E32" s="8"/>
       <c r="F32" s="9" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="H32" s="7" t="s">
         <v>42</v>
@@ -7922,14 +7344,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" s="3" customFormat="1" ht="12.85" customHeight="1" spans="4:9">
+    <row r="33" spans="4:9" s="3" customFormat="1" ht="12.85" customHeight="1">
       <c r="D33" s="6"/>
       <c r="E33" s="8"/>
       <c r="F33" s="9" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="H33" s="7" t="s">
         <v>42</v>
@@ -7938,14 +7360,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" s="3" customFormat="1" ht="12.85" customHeight="1" spans="4:9">
+    <row r="34" spans="4:9" s="3" customFormat="1" ht="12.85" customHeight="1">
       <c r="D34" s="6"/>
       <c r="E34" s="8"/>
       <c r="F34" s="9" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="H34" s="7" t="s">
         <v>42</v>
@@ -7954,14 +7376,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" s="3" customFormat="1" ht="12.85" customHeight="1" spans="4:9">
+    <row r="35" spans="4:9" s="3" customFormat="1" ht="12.85" customHeight="1">
       <c r="D35" s="6"/>
       <c r="E35" s="8"/>
       <c r="F35" s="9" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="H35" s="7" t="s">
         <v>42</v>
@@ -7970,24 +7392,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" s="3" customFormat="1" spans="6:9">
+    <row r="36" spans="4:9" s="3" customFormat="1">
       <c r="F36" s="10" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="H36" s="10" t="s">
         <v>26</v>
       </c>
       <c r="I36" s="10"/>
     </row>
-    <row r="37" s="4" customFormat="1" spans="6:9">
+    <row r="37" spans="4:9" s="4" customFormat="1">
       <c r="F37" s="11" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="G37" s="11" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="H37" s="11" t="s">
         <v>26</v>
@@ -7996,12 +7418,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" s="4" customFormat="1" spans="6:9">
+    <row r="38" spans="4:9" s="4" customFormat="1">
       <c r="F38" s="11" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="G38" s="11" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="H38" s="11" t="s">
         <v>26</v>
@@ -8010,173 +7432,173 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="6:9">
+    <row r="39" spans="4:9">
       <c r="F39" s="10" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="G39" s="10" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="H39" s="10" t="s">
         <v>26</v>
       </c>
       <c r="I39" s="13"/>
     </row>
-    <row r="40" spans="6:9">
+    <row r="40" spans="4:9">
       <c r="F40" s="10" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H40" s="10" t="s">
         <v>26</v>
       </c>
       <c r="I40" s="13"/>
     </row>
-    <row r="41" s="3" customFormat="1" spans="6:8">
+    <row r="41" spans="4:9" s="3" customFormat="1">
       <c r="F41" s="3" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="G41" s="12" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="42" s="3" customFormat="1" spans="6:8">
+    <row r="42" spans="4:9" s="3" customFormat="1">
       <c r="F42" s="3" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="G42" s="12" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="43" spans="6:9">
+    <row r="43" spans="4:9">
       <c r="F43" s="10" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="G43" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="H43" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="I43" s="10"/>
+    </row>
+    <row r="44" spans="4:9" s="4" customFormat="1">
+      <c r="F44" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="G44" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="H43" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="I43" s="10"/>
-    </row>
-    <row r="44" s="4" customFormat="1" spans="6:9">
-      <c r="F44" s="11" t="s">
-        <v>276</v>
-      </c>
-      <c r="G44" s="11" t="s">
-        <v>152</v>
-      </c>
       <c r="H44" s="11" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="I44" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="45" s="4" customFormat="1" spans="6:9">
+    <row r="45" spans="4:9" s="4" customFormat="1">
       <c r="F45" s="11" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="G45" s="11" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="H45" s="11" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="I45" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="6:9">
+    <row r="46" spans="4:9">
       <c r="F46" s="10" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="G46" s="10" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="H46" s="10" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="I46" s="13"/>
     </row>
-    <row r="47" spans="6:9">
+    <row r="47" spans="4:9">
       <c r="F47" s="10" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="G47" s="10" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H47" s="10" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="I47" s="13"/>
     </row>
-    <row r="48" s="3" customFormat="1" spans="6:8">
+    <row r="48" spans="4:9" s="3" customFormat="1">
       <c r="F48" s="10" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="G48" s="12" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="H48" s="10" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="49" s="3" customFormat="1" spans="6:8">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="49" spans="6:9" s="3" customFormat="1">
       <c r="F49" s="10" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="G49" s="12" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="H49" s="10" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="50" spans="6:9">
       <c r="F50" s="10" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="G50" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="H50" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="I50" s="10"/>
+    </row>
+    <row r="51" spans="6:9" s="4" customFormat="1">
+      <c r="F51" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="G51" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="H50" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="I50" s="10"/>
-    </row>
-    <row r="51" s="4" customFormat="1" spans="6:9">
-      <c r="F51" s="11" t="s">
-        <v>278</v>
-      </c>
-      <c r="G51" s="4" t="s">
-        <v>152</v>
-      </c>
       <c r="H51" s="11" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="I51" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="52" s="4" customFormat="1" spans="6:9">
+    <row r="52" spans="6:9" s="4" customFormat="1">
       <c r="F52" s="11" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="H52" s="11" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="I52" s="4">
         <v>1</v>
@@ -8184,243 +7606,242 @@
     </row>
     <row r="53" spans="6:9">
       <c r="F53" s="10" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="G53" s="13" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="H53" s="10" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="I53" s="13"/>
     </row>
     <row r="54" spans="6:9">
       <c r="F54" s="10" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="G54" s="13" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H54" s="10" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="I54" s="13"/>
     </row>
-    <row r="55" s="3" customFormat="1" spans="6:8">
+    <row r="55" spans="6:9" s="3" customFormat="1">
       <c r="F55" s="10" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="G55" s="12" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="H55" s="10" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="56" s="3" customFormat="1" spans="6:8">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="56" spans="6:9" s="3" customFormat="1">
       <c r="F56" s="10" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="G56" s="12" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="H56" s="10" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="57" ht="15.2" spans="6:9">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="57" spans="6:9" ht="13">
       <c r="F57" s="14" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="G57" s="15" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="H57" s="15" t="s">
         <v>42</v>
       </c>
       <c r="I57" s="19"/>
     </row>
-    <row r="58" spans="6:9">
+    <row r="58" spans="6:9" ht="12.35">
       <c r="F58" s="14" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="G58" s="16" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="H58" s="15" t="s">
         <v>42</v>
       </c>
       <c r="I58" s="16"/>
     </row>
-    <row r="59" spans="6:9">
+    <row r="59" spans="6:9" ht="12.35">
       <c r="F59" s="14" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="G59" s="16" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="H59" s="15" t="s">
         <v>42</v>
       </c>
       <c r="I59" s="16"/>
     </row>
-    <row r="60" ht="15.2" spans="6:9">
+    <row r="60" spans="6:9" ht="13">
       <c r="F60" s="14" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="G60" s="15" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="H60" s="15" t="s">
         <v>42</v>
       </c>
       <c r="I60" s="19"/>
     </row>
-    <row r="61" spans="6:9">
+    <row r="61" spans="6:9" ht="12.35">
       <c r="F61" s="14" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="G61" s="16" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="H61" s="15" t="s">
         <v>42</v>
       </c>
       <c r="I61" s="16"/>
     </row>
-    <row r="62" spans="6:9">
+    <row r="62" spans="6:9" ht="12.35">
       <c r="F62" s="14" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="G62" s="16" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="H62" s="15" t="s">
         <v>42</v>
       </c>
       <c r="I62" s="16"/>
     </row>
-    <row r="63" spans="6:8">
+    <row r="63" spans="6:9" ht="12.35">
       <c r="F63" s="17"/>
       <c r="G63" s="17"/>
       <c r="H63" s="17"/>
     </row>
-    <row r="64" spans="6:8">
+    <row r="64" spans="6:9" ht="12.35">
       <c r="F64" s="17"/>
       <c r="G64" s="17"/>
       <c r="H64" s="17"/>
     </row>
-    <row r="65" spans="6:8">
+    <row r="65" spans="6:8" ht="12.35">
       <c r="F65" s="17"/>
       <c r="G65" s="17"/>
       <c r="H65" s="17"/>
     </row>
-    <row r="66" spans="6:8">
+    <row r="66" spans="6:8" ht="12.35">
       <c r="F66" s="17"/>
       <c r="G66" s="17"/>
       <c r="H66" s="17"/>
     </row>
-    <row r="67" spans="6:8">
+    <row r="67" spans="6:8" ht="12.35">
       <c r="F67" s="17"/>
       <c r="G67" s="17"/>
       <c r="H67" s="17"/>
     </row>
-    <row r="68" spans="6:8">
+    <row r="68" spans="6:8" ht="12.35">
       <c r="F68" s="17"/>
       <c r="G68" s="17"/>
       <c r="H68" s="17"/>
     </row>
-    <row r="69" spans="6:8">
+    <row r="69" spans="6:8" ht="12.35">
       <c r="F69" s="17"/>
       <c r="G69" s="17"/>
       <c r="H69" s="17"/>
     </row>
-    <row r="70" spans="6:8">
+    <row r="70" spans="6:8" ht="12.35">
       <c r="F70" s="17"/>
       <c r="G70" s="17"/>
       <c r="H70" s="17"/>
     </row>
-    <row r="71" spans="6:8">
+    <row r="71" spans="6:8" ht="12.35">
       <c r="F71" s="17"/>
       <c r="G71" s="17"/>
       <c r="H71" s="17"/>
     </row>
-    <row r="72" spans="6:8">
+    <row r="72" spans="6:8" ht="12.35">
       <c r="F72" s="17"/>
       <c r="G72" s="17"/>
       <c r="H72" s="17"/>
     </row>
-    <row r="73" spans="6:8">
+    <row r="73" spans="6:8" ht="12.35">
       <c r="F73" s="17"/>
       <c r="G73" s="17"/>
       <c r="H73" s="17"/>
     </row>
-    <row r="74" spans="6:8">
+    <row r="74" spans="6:8" ht="12.35">
       <c r="F74" s="20"/>
       <c r="G74" s="17"/>
       <c r="H74" s="17"/>
     </row>
-    <row r="75" spans="7:8">
+    <row r="75" spans="6:8" ht="12.35">
       <c r="G75" s="17"/>
       <c r="H75" s="17"/>
     </row>
-    <row r="76" spans="7:8">
+    <row r="76" spans="6:8" ht="12.35">
       <c r="G76" s="17"/>
       <c r="H76" s="17"/>
     </row>
-    <row r="77" spans="7:8">
+    <row r="77" spans="6:8" ht="12.35">
       <c r="G77" s="17"/>
       <c r="H77" s="17"/>
     </row>
-    <row r="78" spans="7:8">
+    <row r="78" spans="6:8" ht="12.35">
       <c r="G78" s="17"/>
       <c r="H78" s="17"/>
     </row>
-    <row r="79" spans="7:8">
+    <row r="79" spans="6:8" ht="12.35">
       <c r="G79" s="17"/>
       <c r="H79" s="17"/>
     </row>
-    <row r="80" spans="7:8">
+    <row r="80" spans="6:8" ht="12.35">
       <c r="G80" s="17"/>
       <c r="H80" s="17"/>
     </row>
-    <row r="81" spans="7:8">
+    <row r="81" spans="7:8" ht="12.35">
       <c r="G81" s="17"/>
       <c r="H81" s="17"/>
     </row>
-    <row r="82" spans="7:8">
+    <row r="82" spans="7:8" ht="12.35">
       <c r="G82" s="17"/>
       <c r="H82" s="17"/>
     </row>
-    <row r="83" spans="7:8">
+    <row r="83" spans="7:8" ht="12.35">
       <c r="G83" s="17"/>
       <c r="H83" s="17"/>
     </row>
-    <row r="84" spans="7:8">
+    <row r="84" spans="7:8" ht="12.35">
       <c r="G84" s="17"/>
       <c r="H84" s="17"/>
     </row>
-    <row r="85" spans="7:8">
+    <row r="85" spans="7:8" ht="12.35">
       <c r="G85" s="17"/>
       <c r="H85" s="17"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.510416666666667" footer="0.510416666666667"/>
+  <phoneticPr fontId="58" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51041666666666696" footer="0.51041666666666696"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:K7"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="F8" sqref="F8:K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="11.7"/>
   <cols>
     <col min="6" max="6" width="18.125" customWidth="1"/>
     <col min="7" max="7" width="15.875" customWidth="1"/>
@@ -8432,7 +7853,7 @@
   <sheetData>
     <row r="7" spans="4:11">
       <c r="D7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="E7" t="s">
         <v>1</v>
@@ -8447,31 +7868,30 @@
         <v>5</v>
       </c>
       <c r="I7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="J7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="K7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="58" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F8" sqref="F8:I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="11.7"/>
   <cols>
     <col min="4" max="4" width="21.375" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
@@ -8482,40 +7902,39 @@
   <sheetData>
     <row r="7" spans="4:9">
       <c r="D7" t="s">
+        <v>279</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>280</v>
+      </c>
+      <c r="G7" t="s">
+        <v>281</v>
+      </c>
+      <c r="H7" t="s">
+        <v>282</v>
+      </c>
+      <c r="I7" t="s">
         <v>283</v>
       </c>
-      <c r="E7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F7" t="s">
-        <v>284</v>
-      </c>
-      <c r="G7" t="s">
-        <v>285</v>
-      </c>
-      <c r="H7" t="s">
-        <v>286</v>
-      </c>
-      <c r="I7" t="s">
-        <v>287</v>
-      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="58" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:L9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="11.7"/>
   <cols>
     <col min="4" max="4" width="22.125" customWidth="1"/>
     <col min="6" max="6" width="18.875" customWidth="1"/>
@@ -8529,104 +7948,102 @@
   <sheetData>
     <row r="7" spans="4:12">
       <c r="D7" t="s">
+        <v>284</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>280</v>
+      </c>
+      <c r="G7" t="s">
+        <v>285</v>
+      </c>
+      <c r="H7" t="s">
+        <v>286</v>
+      </c>
+      <c r="I7" t="s">
+        <v>287</v>
+      </c>
+      <c r="J7" t="s">
         <v>288</v>
       </c>
-      <c r="E7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F7" t="s">
-        <v>284</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="K7" t="s">
         <v>289</v>
       </c>
-      <c r="H7" t="s">
+      <c r="L7" t="s">
         <v>290</v>
       </c>
-      <c r="I7" t="s">
+    </row>
+    <row r="8" spans="4:12">
+      <c r="F8" t="s">
         <v>291</v>
       </c>
-      <c r="J7" t="s">
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8" t="s">
         <v>292</v>
       </c>
-      <c r="K7" t="s">
+      <c r="I8" t="s">
         <v>293</v>
       </c>
-      <c r="L7" t="s">
+      <c r="J8" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="8" spans="6:11">
-      <c r="F8" t="s">
+      <c r="K8" t="s">
         <v>295</v>
       </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8" t="s">
+    </row>
+    <row r="9" spans="4:12">
+      <c r="F9" t="s">
         <v>296</v>
       </c>
-      <c r="I8" t="s">
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9" t="s">
         <v>297</v>
       </c>
-      <c r="J8" t="s">
+      <c r="I9" t="s">
         <v>298</v>
       </c>
-      <c r="K8" t="s">
+      <c r="J9" t="s">
+        <v>294</v>
+      </c>
+      <c r="K9" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="9" spans="6:12">
-      <c r="F9" t="s">
-        <v>300</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9" t="s">
-        <v>301</v>
-      </c>
-      <c r="I9" t="s">
-        <v>302</v>
-      </c>
-      <c r="J9" t="s">
-        <v>298</v>
-      </c>
-      <c r="K9" t="s">
-        <v>303</v>
-      </c>
       <c r="L9">
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="58" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:I24"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="11.7"/>
   <cols>
-    <col min="4" max="4" width="21.5" customWidth="1"/>
-    <col min="5" max="5" width="21.4485294117647" customWidth="1"/>
+    <col min="4" max="5" width="21.5" customWidth="1"/>
     <col min="6" max="7" width="23.625" customWidth="1"/>
     <col min="8" max="8" width="25.5" customWidth="1"/>
     <col min="9" max="10" width="18.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:9">
+    <row r="7" spans="4:9" ht="15.6">
       <c r="D7" s="2" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>1</v>
@@ -8638,226 +8055,226 @@
         <v>6</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="8" spans="4:9">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="8" spans="4:9" ht="15.6">
       <c r="D8" s="2"/>
       <c r="E8" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="9" spans="4:9" ht="15.6">
+      <c r="E9" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="10" spans="4:9" ht="15.6">
+      <c r="E10" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H10" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="I10" s="1" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="9" spans="5:9">
-      <c r="E9" s="1" t="s">
+    <row r="11" spans="4:9" ht="15.6">
+      <c r="E11" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H11" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="I11" s="1" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="10" spans="5:9">
-      <c r="E10" s="1" t="s">
+    <row r="12" spans="4:9" ht="15.6">
+      <c r="E12" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H12" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="I12" s="1" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="11" spans="5:9">
-      <c r="E11" s="1" t="s">
+    <row r="13" spans="4:9" ht="15.6">
+      <c r="E13" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F13" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G13" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="H13" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="I13" s="1" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="12" spans="5:9">
-      <c r="E12" s="1" t="s">
+    <row r="14" spans="4:9" ht="15.6">
+      <c r="E14" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F14" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G14" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="H14" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="I14" s="1" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="13" spans="5:9">
-      <c r="E13" s="1" t="s">
+    <row r="15" spans="4:9" ht="15.6">
+      <c r="E15" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F15" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G15" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="H15" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="I15" s="1" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="14" spans="5:9">
-      <c r="E14" s="1" t="s">
+    <row r="16" spans="4:9" ht="15.6">
+      <c r="E16" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="G16" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="H16" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="I16" s="1" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="15" spans="5:9">
-      <c r="E15" s="1" t="s">
+    <row r="17" spans="5:9" ht="15.6">
+      <c r="E17" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F17" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="G17" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="H17" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="I17" s="1" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="16" spans="5:9">
-      <c r="E16" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="17" spans="5:9">
-      <c r="E17" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="18" spans="5:9">
+    <row r="18" spans="5:9" ht="15.6">
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="5:9">
+    <row r="19" spans="5:9" ht="15.6">
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="5:9">
+    <row r="20" spans="5:9" ht="15.6">
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="5:9">
+    <row r="21" spans="5:9" ht="15.6">
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="5:9">
+    <row r="22" spans="5:9" ht="15.6">
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="5:9">
+    <row r="23" spans="5:9" ht="15.6">
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="5:9">
+    <row r="24" spans="5:9" ht="15.6">
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
@@ -8865,7 +8282,7 @@
       <c r="I24" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="58" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/src/main/resources/script/meta/micro-service-init-data.xlsx
+++ b/src/main/resources/script/meta/micro-service-init-data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13206" tabRatio="845" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13206" tabRatio="845" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1168" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1168" uniqueCount="395">
   <si>
     <t>IAM_PERMISSION</t>
   </si>
@@ -250,12 +250,6 @@
     <t>代码库管理路由</t>
   </si>
   <si>
-    <t>choerodon.route.organization.doc-lib-audit</t>
-  </si>
-  <si>
-    <t>choerodon.route.organization.code-lib-audit</t>
-  </si>
-  <si>
     <t>choerodon.route.project.product-lib</t>
   </si>
   <si>
@@ -568,9 +562,6 @@
     <t>choerodon.code.top.organization</t>
   </si>
   <si>
-    <t>choerodon.code.organization.doc-lib-audit</t>
-  </si>
-  <si>
     <t>文档库审计</t>
   </si>
   <si>
@@ -578,9 +569,6 @@
   </si>
   <si>
     <t>work_log</t>
-  </si>
-  <si>
-    <t>choerodon.code.organization.code-lib-audit</t>
   </si>
   <si>
     <t>代码库审计</t>
@@ -1263,11 +1251,27 @@
     <phoneticPr fontId="58" type="noConversion"/>
   </si>
   <si>
+    <t>choerodon.code.organization.code-lib-management</t>
+    <phoneticPr fontId="58" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.code.organization.doc-lib-management</t>
+  </si>
+  <si>
     <t>choerodon.code.organization.doc-lib-management</t>
     <phoneticPr fontId="58" type="noConversion"/>
   </si>
   <si>
+    <t>choerodon.route.organization.doc-lib-management</t>
+  </si>
+  <si>
     <t>choerodon.code.organization.code-lib-management</t>
+  </si>
+  <si>
+    <t>choerodon.route.organization.code-lib-management</t>
+  </si>
+  <si>
+    <t>choerodon.code.organization.doc-lib-management</t>
     <phoneticPr fontId="58" type="noConversion"/>
   </si>
 </sst>
@@ -2668,10 +2672,10 @@
     </row>
     <row r="25" spans="4:17" s="3" customFormat="1" ht="12.35">
       <c r="F25" s="17" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="G25" s="17" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="H25" s="44" t="s">
         <v>14</v>
@@ -2680,7 +2684,7 @@
         <v>42</v>
       </c>
       <c r="J25" s="72" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="K25" s="17" t="s">
         <v>17</v>
@@ -2701,10 +2705,10 @@
     <row r="26" spans="4:17" ht="12.35">
       <c r="D26" s="20"/>
       <c r="F26" s="17" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="G26" s="17" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="H26" s="44" t="s">
         <v>14</v>
@@ -2713,7 +2717,7 @@
         <v>42</v>
       </c>
       <c r="J26" s="72" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="K26" s="17" t="s">
         <v>17</v>
@@ -2732,10 +2736,10 @@
     </row>
     <row r="27" spans="4:17" ht="12.35">
       <c r="F27" s="17" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G27" s="17" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H27" s="44" t="s">
         <v>14</v>
@@ -2744,7 +2748,7 @@
         <v>26</v>
       </c>
       <c r="J27" s="72" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K27" s="17" t="s">
         <v>17</v>
@@ -2761,10 +2765,10 @@
     </row>
     <row r="28" spans="4:17" ht="12.35">
       <c r="F28" s="17" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G28" s="17" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H28" s="44" t="s">
         <v>14</v>
@@ -2773,7 +2777,7 @@
         <v>42</v>
       </c>
       <c r="J28" s="72" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K28" s="17" t="s">
         <v>17</v>
@@ -2790,10 +2794,10 @@
     </row>
     <row r="29" spans="4:17" ht="12.35">
       <c r="F29" s="17" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G29" s="17" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H29" s="44" t="s">
         <v>14</v>
@@ -2802,7 +2806,7 @@
         <v>15</v>
       </c>
       <c r="J29" s="72" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K29" s="17" t="s">
         <v>17</v>
@@ -2819,10 +2823,10 @@
     </row>
     <row r="30" spans="4:17" s="3" customFormat="1">
       <c r="F30" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G30" s="12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H30" s="44" t="s">
         <v>14</v>
@@ -2831,7 +2835,7 @@
         <v>26</v>
       </c>
       <c r="J30" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K30" s="3" t="s">
         <v>17</v>
@@ -2848,10 +2852,10 @@
     </row>
     <row r="31" spans="4:17" s="3" customFormat="1">
       <c r="F31" s="12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G31" s="12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H31" s="44" t="s">
         <v>14</v>
@@ -2860,7 +2864,7 @@
         <v>26</v>
       </c>
       <c r="J31" s="12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K31" s="3" t="s">
         <v>17</v>
@@ -3240,7 +3244,7 @@
   <sheetData>
     <row r="7" spans="4:10" ht="15.6">
       <c r="D7" s="1" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>1</v>
@@ -3249,712 +3253,712 @@
         <v>2</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="8" spans="4:10" ht="15.6">
       <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
     </row>
     <row r="9" spans="4:10" ht="15.6">
       <c r="D9" s="1"/>
       <c r="E9" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
     <row r="10" spans="4:10" ht="15.6">
       <c r="D10" s="1"/>
       <c r="E10" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="11" spans="4:10" ht="15.6">
       <c r="D11" s="1"/>
       <c r="E11" s="1" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="12" spans="4:10" ht="15.6">
       <c r="D12" s="1"/>
       <c r="E12" s="1" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="13" spans="4:10" ht="15.6">
       <c r="D13" s="1"/>
       <c r="E13" s="1" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
     </row>
     <row r="14" spans="4:10" ht="15.6">
       <c r="D14" s="1"/>
       <c r="E14" s="1" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
     </row>
     <row r="15" spans="4:10" ht="15.6">
       <c r="D15" s="1"/>
       <c r="E15" s="1" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
     <row r="16" spans="4:10" ht="15.6">
       <c r="D16" s="1"/>
       <c r="E16" s="1" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="17" spans="4:10" ht="15.6">
       <c r="D17" s="1"/>
       <c r="E17" s="1" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
     </row>
     <row r="18" spans="4:10" ht="15.6">
       <c r="D18" s="1"/>
       <c r="E18" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="19" spans="4:10" ht="15.6">
       <c r="D19" s="1"/>
       <c r="E19" s="1" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
     </row>
     <row r="20" spans="4:10" ht="15.6">
       <c r="D20" s="1"/>
       <c r="E20" s="1" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
     </row>
     <row r="21" spans="4:10" ht="15.6">
       <c r="D21" s="1"/>
       <c r="E21" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="22" spans="4:10" ht="15.6">
       <c r="D22" s="1"/>
       <c r="E22" s="1" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
     </row>
     <row r="23" spans="4:10" ht="15.6">
       <c r="D23" s="1"/>
       <c r="E23" s="1" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="24" spans="4:10" ht="15.6">
       <c r="E24" s="1" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
     </row>
     <row r="25" spans="4:10" ht="15.6">
       <c r="E25" s="1" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
     </row>
     <row r="26" spans="4:10" ht="15.6">
       <c r="E26" s="1" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row r="27" spans="4:10" ht="15.6">
       <c r="E27" s="1" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="28" spans="4:10" ht="15.6">
       <c r="E28" s="1" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
     </row>
     <row r="29" spans="4:10" ht="15.6">
       <c r="E29" s="1" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
     </row>
     <row r="30" spans="4:10" ht="15.6">
       <c r="E30" s="1" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="31" spans="4:10" ht="15.6">
       <c r="E31" s="1" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="32" spans="4:10" ht="15.6">
       <c r="E32" s="1" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="33" spans="5:10" ht="15.6">
       <c r="E33" s="1" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="34" spans="5:10" ht="15.6">
       <c r="E34" s="1" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="35" spans="5:10" ht="15.6">
       <c r="E35" s="1" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="36" spans="5:10" ht="15.6">
       <c r="E36" s="1" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
     </row>
     <row r="37" spans="5:10" ht="15.6">
       <c r="E37" s="1" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
     </row>
     <row r="38" spans="5:10" ht="15.6">
       <c r="E38" s="1" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
     </row>
     <row r="39" spans="5:10" ht="15.6">
       <c r="E39" s="1" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="40" spans="5:10" ht="15.6">
       <c r="E40" s="1" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
     </row>
     <row r="41" spans="5:10" ht="15.6">
       <c r="E41" s="1" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
   </sheetData>
@@ -3968,8 +3972,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:Q86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F26" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="I49" sqref="I49"/>
+    <sheetView topLeftCell="E26" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.7"/>
@@ -3996,7 +4000,7 @@
   <sheetData>
     <row r="7" spans="4:17" ht="12.85" customHeight="1">
       <c r="D7" s="18" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E7" s="18" t="s">
         <v>1</v>
@@ -4005,34 +4009,34 @@
         <v>2</v>
       </c>
       <c r="G7" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="H7" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="I7" s="18" t="s">
         <v>78</v>
-      </c>
-      <c r="H7" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="I7" s="18" t="s">
-        <v>80</v>
       </c>
       <c r="J7" s="18" t="s">
         <v>4</v>
       </c>
       <c r="K7" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="L7" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="M7" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="L7" s="18" t="s">
+      <c r="N7" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="M7" s="18" t="s">
+      <c r="O7" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="N7" s="17" t="s">
+      <c r="P7" s="18" t="s">
         <v>84</v>
-      </c>
-      <c r="O7" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="P7" s="18" t="s">
-        <v>86</v>
       </c>
       <c r="Q7" s="18" t="s">
         <v>11</v>
@@ -4040,13 +4044,13 @@
     </row>
     <row r="8" spans="4:17" s="3" customFormat="1" ht="13.95" customHeight="1">
       <c r="F8" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H8" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="I8" s="7" t="s">
         <v>12</v>
@@ -4055,16 +4059,16 @@
         <v>14</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>15</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="N8" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="O8" s="7">
         <v>20</v>
@@ -4076,13 +4080,13 @@
     </row>
     <row r="9" spans="4:17" s="3" customFormat="1" ht="13.95" customHeight="1">
       <c r="F9" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="H9" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="I9" s="7" t="s">
         <v>18</v>
@@ -4091,16 +4095,16 @@
         <v>14</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="L9" s="7" t="s">
         <v>15</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="N9" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="O9" s="7">
         <v>20</v>
@@ -4112,13 +4116,13 @@
     </row>
     <row r="10" spans="4:17" s="3" customFormat="1">
       <c r="F10" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="H10" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="I10" s="7" t="s">
         <v>21</v>
@@ -4127,16 +4131,16 @@
         <v>14</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>15</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="N10" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="O10" s="7">
         <v>30</v>
@@ -4148,13 +4152,13 @@
     </row>
     <row r="11" spans="4:17" s="31" customFormat="1">
       <c r="F11" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="H11" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="I11" s="7" t="s">
         <v>24</v>
@@ -4163,16 +4167,16 @@
         <v>14</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>26</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="N11" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="O11" s="7">
         <v>60</v>
@@ -4184,13 +4188,13 @@
     </row>
     <row r="12" spans="4:17" s="32" customFormat="1">
       <c r="F12" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="H12" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="I12" s="7" t="s">
         <v>28</v>
@@ -4199,16 +4203,16 @@
         <v>14</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>26</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="N12" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="O12" s="7">
         <v>60</v>
@@ -4220,13 +4224,13 @@
     </row>
     <row r="13" spans="4:17" s="32" customFormat="1">
       <c r="F13" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G13" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="H13" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="G13" s="40" t="s">
-        <v>110</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="I13" s="7" t="s">
         <v>31</v>
@@ -4235,16 +4239,16 @@
         <v>14</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>26</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="N13" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="O13" s="7">
         <v>50</v>
@@ -4256,13 +4260,13 @@
     </row>
     <row r="14" spans="4:17" s="32" customFormat="1">
       <c r="F14" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H14" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="I14" s="7" t="s">
         <v>12</v>
@@ -4271,16 +4275,16 @@
         <v>14</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>15</v>
       </c>
       <c r="M14" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="N14" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="O14" s="7">
         <v>20</v>
@@ -4292,13 +4296,13 @@
     </row>
     <row r="15" spans="4:17" s="32" customFormat="1">
       <c r="F15" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="H15" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="I15" s="7" t="s">
         <v>18</v>
@@ -4307,16 +4311,16 @@
         <v>14</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="L15" s="7" t="s">
         <v>15</v>
       </c>
       <c r="M15" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="N15" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="O15" s="7">
         <v>20</v>
@@ -4328,13 +4332,13 @@
     </row>
     <row r="16" spans="4:17" s="3" customFormat="1">
       <c r="F16" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="H16" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="I16" s="7" t="s">
         <v>21</v>
@@ -4343,16 +4347,16 @@
         <v>14</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>15</v>
       </c>
       <c r="M16" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="N16" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="O16" s="7">
         <v>20</v>
@@ -4364,29 +4368,29 @@
     </row>
     <row r="17" spans="6:17" s="33" customFormat="1">
       <c r="F17" s="41" t="s">
+        <v>112</v>
+      </c>
+      <c r="G17" s="41" t="s">
+        <v>113</v>
+      </c>
+      <c r="H17" s="41" t="s">
         <v>114</v>
-      </c>
-      <c r="G17" s="41" t="s">
-        <v>115</v>
-      </c>
-      <c r="H17" s="41" t="s">
-        <v>116</v>
       </c>
       <c r="I17" s="41"/>
       <c r="J17" s="41" t="s">
         <v>14</v>
       </c>
       <c r="K17" s="41" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="L17" s="41" t="s">
         <v>26</v>
       </c>
       <c r="M17" s="41" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N17" s="41" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="O17" s="41">
         <v>60</v>
@@ -4398,13 +4402,13 @@
     </row>
     <row r="18" spans="6:17" s="34" customFormat="1">
       <c r="F18" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="H18" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="I18" s="7" t="s">
         <v>24</v>
@@ -4413,16 +4417,16 @@
         <v>14</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L18" s="7" t="s">
         <v>26</v>
       </c>
       <c r="M18" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="N18" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="O18" s="7">
         <v>10</v>
@@ -4434,13 +4438,13 @@
     </row>
     <row r="19" spans="6:17" s="35" customFormat="1">
       <c r="F19" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="H19" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="H19" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="I19" s="7" t="s">
         <v>28</v>
@@ -4449,16 +4453,16 @@
         <v>14</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>26</v>
       </c>
       <c r="M19" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="N19" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="O19" s="7">
         <v>20</v>
@@ -4470,13 +4474,13 @@
     </row>
     <row r="20" spans="6:17" s="36" customFormat="1">
       <c r="F20" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H20" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="H20" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="I20" s="7" t="s">
         <v>34</v>
@@ -4485,16 +4489,16 @@
         <v>14</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>26</v>
       </c>
       <c r="M20" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="N20" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="O20" s="7">
         <v>30</v>
@@ -4506,13 +4510,13 @@
     </row>
     <row r="21" spans="6:17" s="37" customFormat="1">
       <c r="F21" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="H21" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="H21" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="I21" s="7" t="s">
         <v>37</v>
@@ -4521,16 +4525,16 @@
         <v>14</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L21" s="7" t="s">
         <v>26</v>
       </c>
       <c r="M21" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="N21" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="O21" s="7">
         <v>40</v>
@@ -4542,13 +4546,13 @@
     </row>
     <row r="22" spans="6:17" s="3" customFormat="1">
       <c r="F22" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G22" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="H22" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="G22" s="40" t="s">
-        <v>110</v>
-      </c>
-      <c r="H22" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="I22" s="7" t="s">
         <v>31</v>
@@ -4557,16 +4561,16 @@
         <v>14</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>26</v>
       </c>
       <c r="M22" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="N22" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="O22" s="7">
         <v>50</v>
@@ -4578,29 +4582,29 @@
     </row>
     <row r="23" spans="6:17">
       <c r="F23" s="41" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G23" s="42" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H23" s="41" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="I23" s="41"/>
       <c r="J23" s="41" t="s">
         <v>14</v>
       </c>
       <c r="K23" s="41" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="L23" s="41" t="s">
         <v>42</v>
       </c>
       <c r="M23" s="41" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N23" s="41" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="O23" s="41">
         <v>80</v>
@@ -4612,31 +4616,31 @@
     </row>
     <row r="24" spans="6:17" ht="13">
       <c r="F24" s="43" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G24" s="40" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H24" s="43" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="I24" s="58" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K24" s="43" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="L24" s="43" t="s">
         <v>42</v>
       </c>
       <c r="M24" s="43" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="N24" s="43" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="O24" s="7">
         <v>10</v>
@@ -4648,29 +4652,29 @@
     </row>
     <row r="25" spans="6:17">
       <c r="F25" s="41" t="s">
+        <v>129</v>
+      </c>
+      <c r="G25" s="42" t="s">
+        <v>130</v>
+      </c>
+      <c r="H25" s="41" t="s">
         <v>131</v>
-      </c>
-      <c r="G25" s="42" t="s">
-        <v>132</v>
-      </c>
-      <c r="H25" s="41" t="s">
-        <v>133</v>
       </c>
       <c r="I25" s="41"/>
       <c r="J25" s="41" t="s">
         <v>14</v>
       </c>
       <c r="K25" s="41" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="L25" s="41" t="s">
         <v>42</v>
       </c>
       <c r="M25" s="41" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N25" s="41" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="O25" s="41">
         <v>90</v>
@@ -4682,31 +4686,31 @@
     </row>
     <row r="26" spans="6:17" s="3" customFormat="1" ht="13">
       <c r="F26" s="43" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G26" s="40" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H26" s="43" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I26" s="58" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="J26" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K26" s="43" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L26" s="43" t="s">
         <v>42</v>
       </c>
       <c r="M26" s="43" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="N26" s="43" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="O26" s="7">
         <v>10</v>
@@ -4718,13 +4722,13 @@
     </row>
     <row r="27" spans="6:17" s="3" customFormat="1">
       <c r="F27" s="44" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G27" s="44" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H27" s="44" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I27" s="44" t="s">
         <v>45</v>
@@ -4733,16 +4737,16 @@
         <v>14</v>
       </c>
       <c r="K27" s="44" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L27" s="44" t="s">
         <v>15</v>
       </c>
       <c r="M27" s="44" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="N27" s="44" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="O27" s="44">
         <v>10</v>
@@ -4752,13 +4756,13 @@
     </row>
     <row r="28" spans="6:17" s="11" customFormat="1">
       <c r="F28" s="11" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G28" s="11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I28" s="11" t="s">
         <v>46</v>
@@ -4767,13 +4771,13 @@
         <v>14</v>
       </c>
       <c r="K28" s="11" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="L28" s="11" t="s">
         <v>15</v>
       </c>
       <c r="M28" s="11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="O28" s="11">
         <v>10</v>
@@ -4784,13 +4788,13 @@
     </row>
     <row r="29" spans="6:17" s="11" customFormat="1">
       <c r="F29" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I29" s="11" t="s">
         <v>48</v>
@@ -4799,13 +4803,13 @@
         <v>14</v>
       </c>
       <c r="K29" s="11" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="L29" s="11" t="s">
         <v>15</v>
       </c>
       <c r="M29" s="11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="O29" s="11">
         <v>20</v>
@@ -4816,29 +4820,29 @@
     </row>
     <row r="30" spans="6:17" s="3" customFormat="1">
       <c r="F30" s="45" t="s">
+        <v>138</v>
+      </c>
+      <c r="G30" s="45" t="s">
+        <v>139</v>
+      </c>
+      <c r="H30" s="45" t="s">
         <v>140</v>
-      </c>
-      <c r="G30" s="45" t="s">
-        <v>141</v>
-      </c>
-      <c r="H30" s="45" t="s">
-        <v>142</v>
       </c>
       <c r="I30" s="45"/>
       <c r="J30" s="45" t="s">
         <v>14</v>
       </c>
       <c r="K30" s="45" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L30" s="45" t="s">
         <v>26</v>
       </c>
       <c r="M30" s="45" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N30" s="45" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="O30" s="45">
         <v>80</v>
@@ -4848,13 +4852,13 @@
     </row>
     <row r="31" spans="6:17" s="3" customFormat="1">
       <c r="F31" s="46" t="s">
+        <v>142</v>
+      </c>
+      <c r="G31" s="47" t="s">
+        <v>143</v>
+      </c>
+      <c r="H31" s="46" t="s">
         <v>144</v>
-      </c>
-      <c r="G31" s="47" t="s">
-        <v>145</v>
-      </c>
-      <c r="H31" s="46" t="s">
-        <v>146</v>
       </c>
       <c r="I31" s="46" t="s">
         <v>50</v>
@@ -4863,16 +4867,16 @@
         <v>14</v>
       </c>
       <c r="K31" s="46" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="L31" s="46" t="s">
         <v>26</v>
       </c>
       <c r="M31" s="46" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="N31" s="46" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="O31" s="46">
         <v>10</v>
@@ -4882,13 +4886,13 @@
     </row>
     <row r="32" spans="6:17" s="11" customFormat="1">
       <c r="F32" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="G32" s="48" t="s">
+        <v>147</v>
+      </c>
+      <c r="H32" s="11" t="s">
         <v>148</v>
-      </c>
-      <c r="G32" s="48" t="s">
-        <v>149</v>
-      </c>
-      <c r="H32" s="11" t="s">
-        <v>150</v>
       </c>
       <c r="I32" s="11" t="s">
         <v>53</v>
@@ -4897,13 +4901,13 @@
         <v>14</v>
       </c>
       <c r="K32" s="11" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="L32" s="11" t="s">
         <v>26</v>
       </c>
       <c r="M32" s="11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="O32" s="11">
         <v>10</v>
@@ -4914,13 +4918,13 @@
     </row>
     <row r="33" spans="6:17" s="4" customFormat="1">
       <c r="F33" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="G33" s="48" t="s">
+        <v>150</v>
+      </c>
+      <c r="H33" s="11" t="s">
         <v>151</v>
-      </c>
-      <c r="G33" s="48" t="s">
-        <v>152</v>
-      </c>
-      <c r="H33" s="11" t="s">
-        <v>153</v>
       </c>
       <c r="I33" s="11" t="s">
         <v>56</v>
@@ -4929,13 +4933,13 @@
         <v>14</v>
       </c>
       <c r="K33" s="11" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="L33" s="11" t="s">
         <v>26</v>
       </c>
       <c r="M33" s="11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="N33" s="11"/>
       <c r="O33" s="11">
@@ -4948,31 +4952,31 @@
     </row>
     <row r="34" spans="6:17">
       <c r="F34" s="46" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G34" s="47" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H34" s="46" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I34" s="46" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="J34" s="46" t="s">
         <v>14</v>
       </c>
       <c r="K34" s="46" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="L34" s="46" t="s">
         <v>26</v>
       </c>
       <c r="M34" s="46" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="N34" s="46" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="O34" s="46">
         <v>20</v>
@@ -4982,31 +4986,31 @@
     </row>
     <row r="35" spans="6:17">
       <c r="F35" s="46" t="s">
+        <v>155</v>
+      </c>
+      <c r="G35" s="47" t="s">
+        <v>156</v>
+      </c>
+      <c r="H35" s="46" t="s">
         <v>157</v>
       </c>
-      <c r="G35" s="47" t="s">
-        <v>158</v>
-      </c>
-      <c r="H35" s="46" t="s">
-        <v>159</v>
-      </c>
       <c r="I35" s="46" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J35" s="46" t="s">
         <v>14</v>
       </c>
       <c r="K35" s="46" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="L35" s="46" t="s">
         <v>26</v>
       </c>
       <c r="M35" s="46" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="N35" s="46" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="O35" s="46">
         <v>30</v>
@@ -5016,28 +5020,28 @@
     </row>
     <row r="36" spans="6:17" s="38" customFormat="1" ht="14.15" customHeight="1">
       <c r="F36" s="38" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G36" s="38" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H36" s="38" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="J36" s="38" t="s">
         <v>14</v>
       </c>
       <c r="K36" s="38" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="L36" s="38" t="s">
         <v>26</v>
       </c>
       <c r="M36" s="38" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N36" s="38" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="O36" s="38">
         <v>80</v>
@@ -5048,31 +5052,31 @@
     </row>
     <row r="37" spans="6:17" s="11" customFormat="1">
       <c r="F37" s="11" t="s">
-        <v>163</v>
+        <v>389</v>
       </c>
       <c r="G37" s="48" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="H37" s="11" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="I37" s="11" t="s">
-        <v>62</v>
+        <v>391</v>
       </c>
       <c r="J37" s="11" t="s">
         <v>14</v>
       </c>
       <c r="K37" s="11" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="L37" s="11" t="s">
         <v>26</v>
       </c>
       <c r="M37" s="11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="N37" s="11" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="O37" s="11">
         <v>10</v>
@@ -5083,31 +5087,31 @@
     </row>
     <row r="38" spans="6:17" s="11" customFormat="1">
       <c r="F38" s="11" t="s">
-        <v>167</v>
+        <v>392</v>
       </c>
       <c r="G38" s="48" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="H38" s="11" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="I38" s="11" t="s">
-        <v>63</v>
+        <v>393</v>
       </c>
       <c r="J38" s="11" t="s">
         <v>14</v>
       </c>
       <c r="K38" s="11" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="L38" s="11" t="s">
         <v>26</v>
       </c>
       <c r="M38" s="11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="N38" s="11" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="O38" s="11">
         <v>20</v>
@@ -5118,29 +5122,29 @@
     </row>
     <row r="39" spans="6:17">
       <c r="F39" s="49" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G39" s="49" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H39" s="49" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I39" s="49"/>
       <c r="J39" s="49" t="s">
         <v>14</v>
       </c>
       <c r="K39" s="49" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="L39" s="49" t="s">
         <v>42</v>
       </c>
       <c r="M39" s="49" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N39" s="49" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="O39" s="49">
         <v>80</v>
@@ -5150,31 +5154,31 @@
     </row>
     <row r="40" spans="6:17">
       <c r="F40" s="50" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="G40" s="51" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H40" s="12" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="I40" s="50" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="J40" s="50" t="s">
         <v>14</v>
       </c>
       <c r="K40" s="50" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="L40" s="50" t="s">
         <v>42</v>
       </c>
       <c r="M40" s="50" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="N40" s="46" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="O40" s="50">
         <v>10</v>
@@ -5184,31 +5188,31 @@
     </row>
     <row r="41" spans="6:17">
       <c r="F41" s="50" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="G41" s="51" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H41" s="12" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I41" s="50" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="J41" s="50" t="s">
         <v>14</v>
       </c>
       <c r="K41" s="50" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="L41" s="50" t="s">
         <v>42</v>
       </c>
       <c r="M41" s="50" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="N41" s="46" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="O41" s="50">
         <v>20</v>
@@ -5218,31 +5222,31 @@
     </row>
     <row r="42" spans="6:17">
       <c r="F42" s="50" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G42" s="51" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H42" s="50" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I42" s="50" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J42" s="50" t="s">
         <v>14</v>
       </c>
       <c r="K42" s="50" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="L42" s="50" t="s">
         <v>42</v>
       </c>
       <c r="M42" s="50" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="N42" s="50" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="O42" s="50">
         <v>30</v>
@@ -5252,26 +5256,26 @@
     </row>
     <row r="43" spans="6:17" s="13" customFormat="1" ht="16.899999999999999">
       <c r="F43" s="52" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="G43" s="53" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H43" s="52" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I43" s="52"/>
       <c r="J43" s="52" t="s">
         <v>14</v>
       </c>
       <c r="K43" s="52" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="L43" s="52" t="s">
         <v>15</v>
       </c>
       <c r="M43" s="52" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N43" s="52"/>
       <c r="O43" s="52">
@@ -5280,31 +5284,31 @@
     </row>
     <row r="44" spans="6:17" s="13" customFormat="1" ht="16.899999999999999">
       <c r="F44" s="52" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G44" s="53" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H44" s="52" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I44" s="52" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J44" s="52" t="s">
         <v>14</v>
       </c>
       <c r="K44" s="52" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="L44" s="52" t="s">
         <v>15</v>
       </c>
       <c r="M44" s="52" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="N44" s="52" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="O44" s="52">
         <v>10</v>
@@ -5312,31 +5316,31 @@
     </row>
     <row r="45" spans="6:17" s="3" customFormat="1" ht="16.25">
       <c r="F45" s="12" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="G45" s="12" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="H45" s="12" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="I45" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="J45" s="52" t="s">
         <v>14</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="L45" s="3" t="s">
         <v>26</v>
       </c>
       <c r="M45" s="12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="N45" s="12" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="O45" s="3">
         <v>80</v>
@@ -5344,31 +5348,31 @@
     </row>
     <row r="46" spans="6:17" s="3" customFormat="1" ht="16.25">
       <c r="F46" s="12" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="G46" s="12" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="H46" s="12" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="I46" s="12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J46" s="52" t="s">
         <v>14</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="L46" s="3" t="s">
         <v>26</v>
       </c>
       <c r="M46" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="N46" s="12" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="O46" s="3">
         <v>90</v>
@@ -5867,8 +5871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:I87"/>
   <sheetViews>
-    <sheetView topLeftCell="A51" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G76" sqref="G76"/>
+    <sheetView topLeftCell="A68" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F61" sqref="F61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.7"/>
@@ -5883,22 +5887,22 @@
   <sheetData>
     <row r="7" spans="4:9" ht="12.85" customHeight="1">
       <c r="D7" s="18" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E7" s="18" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="G7" s="18" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="H7" s="18" t="s">
         <v>11</v>
       </c>
       <c r="I7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="8" spans="4:9" s="27" customFormat="1" ht="17.55">
@@ -5906,7 +5910,7 @@
         <v>59</v>
       </c>
       <c r="G8" s="27" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="I8" s="27">
         <v>1</v>
@@ -5917,7 +5921,7 @@
         <v>59</v>
       </c>
       <c r="G9" s="27" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="I9" s="27">
         <v>1</v>
@@ -5928,7 +5932,7 @@
         <v>59</v>
       </c>
       <c r="G10" s="27" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="I10" s="27">
         <v>1</v>
@@ -5939,7 +5943,7 @@
         <v>59</v>
       </c>
       <c r="G11" s="27" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="I11" s="27">
         <v>0</v>
@@ -5950,7 +5954,7 @@
         <v>59</v>
       </c>
       <c r="G12" s="27" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="I12" s="27">
         <v>0</v>
@@ -5961,7 +5965,7 @@
         <v>59</v>
       </c>
       <c r="G13" s="27" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="I13" s="27">
         <v>0</v>
@@ -5972,7 +5976,7 @@
         <v>59</v>
       </c>
       <c r="G14" s="27" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="I14" s="27">
         <v>0</v>
@@ -5983,7 +5987,7 @@
         <v>59</v>
       </c>
       <c r="G15" s="27" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="I15" s="27">
         <v>0</v>
@@ -5994,7 +5998,7 @@
         <v>59</v>
       </c>
       <c r="G16" s="27" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="I16" s="27">
         <v>0</v>
@@ -6005,7 +6009,7 @@
         <v>59</v>
       </c>
       <c r="G17" s="27" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="I17" s="27">
         <v>1</v>
@@ -6016,7 +6020,7 @@
         <v>59</v>
       </c>
       <c r="G18" s="27" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="I18" s="27">
         <v>0</v>
@@ -6027,7 +6031,7 @@
         <v>59</v>
       </c>
       <c r="G19" s="27" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="I19" s="27">
         <v>0</v>
@@ -6038,7 +6042,7 @@
         <v>59</v>
       </c>
       <c r="G20" s="27" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="I20" s="27">
         <v>0</v>
@@ -6049,7 +6053,7 @@
         <v>59</v>
       </c>
       <c r="G21" s="27" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="I21" s="27">
         <v>0</v>
@@ -6060,7 +6064,7 @@
         <v>59</v>
       </c>
       <c r="G22" s="27" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="I22" s="27">
         <v>0</v>
@@ -6071,7 +6075,7 @@
         <v>59</v>
       </c>
       <c r="G23" s="27" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="I23" s="27">
         <v>0</v>
@@ -6082,7 +6086,7 @@
         <v>59</v>
       </c>
       <c r="G24" s="27" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="I24" s="27">
         <v>1</v>
@@ -6093,7 +6097,7 @@
         <v>59</v>
       </c>
       <c r="G25" s="27" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="I25" s="27">
         <v>1</v>
@@ -6104,7 +6108,7 @@
         <v>59</v>
       </c>
       <c r="G26" s="27" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="I26" s="27">
         <v>0</v>
@@ -6115,7 +6119,7 @@
         <v>59</v>
       </c>
       <c r="G27" s="27" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="I27" s="27">
         <v>0</v>
@@ -6126,7 +6130,7 @@
         <v>59</v>
       </c>
       <c r="G28" s="27" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="I28" s="27">
         <v>0</v>
@@ -6137,7 +6141,7 @@
         <v>59</v>
       </c>
       <c r="G29" s="27" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="I29" s="27">
         <v>0</v>
@@ -6148,7 +6152,7 @@
         <v>59</v>
       </c>
       <c r="G30" s="27" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="I30" s="27">
         <v>0</v>
@@ -6159,7 +6163,7 @@
         <v>59</v>
       </c>
       <c r="G31" s="27" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="I31" s="27">
         <v>0</v>
@@ -6170,7 +6174,7 @@
         <v>59</v>
       </c>
       <c r="G32" s="27" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="I32" s="27">
         <v>0</v>
@@ -6181,7 +6185,7 @@
         <v>59</v>
       </c>
       <c r="G33" s="27" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="I33" s="27">
         <v>1</v>
@@ -6192,7 +6196,7 @@
         <v>50</v>
       </c>
       <c r="G34" s="27" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="I34" s="27">
         <v>0</v>
@@ -6203,7 +6207,7 @@
         <v>50</v>
       </c>
       <c r="G35" s="27" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="I35" s="27">
         <v>0</v>
@@ -6214,7 +6218,7 @@
         <v>50</v>
       </c>
       <c r="G36" s="27" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="I36" s="27">
         <v>0</v>
@@ -6225,7 +6229,7 @@
         <v>50</v>
       </c>
       <c r="G37" s="27" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="I37" s="27">
         <v>0</v>
@@ -6236,7 +6240,7 @@
         <v>50</v>
       </c>
       <c r="G38" s="27" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="I38" s="27">
         <v>1</v>
@@ -6247,7 +6251,7 @@
         <v>50</v>
       </c>
       <c r="G39" s="27" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="I39" s="27">
         <v>1</v>
@@ -6258,7 +6262,7 @@
         <v>50</v>
       </c>
       <c r="G40" s="27" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="I40" s="27">
         <v>0</v>
@@ -6269,7 +6273,7 @@
         <v>50</v>
       </c>
       <c r="G41" s="27" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="I41" s="27">
         <v>0</v>
@@ -6280,7 +6284,7 @@
         <v>50</v>
       </c>
       <c r="G42" s="27" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="I42" s="27">
         <v>1</v>
@@ -6291,7 +6295,7 @@
         <v>50</v>
       </c>
       <c r="G43" s="27" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="I43" s="27">
         <v>0</v>
@@ -6302,7 +6306,7 @@
         <v>50</v>
       </c>
       <c r="G44" s="27" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="I44" s="27">
         <v>0</v>
@@ -6313,7 +6317,7 @@
         <v>50</v>
       </c>
       <c r="G45" s="27" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="I45" s="27">
         <v>0</v>
@@ -6324,7 +6328,7 @@
         <v>50</v>
       </c>
       <c r="G46" s="27" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="I46" s="27">
         <v>0</v>
@@ -6335,7 +6339,7 @@
         <v>50</v>
       </c>
       <c r="G47" s="27" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="I47" s="27">
         <v>1</v>
@@ -6346,7 +6350,7 @@
         <v>50</v>
       </c>
       <c r="G48" s="27" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="I48" s="27">
         <v>1</v>
@@ -6357,7 +6361,7 @@
         <v>50</v>
       </c>
       <c r="G49" s="27" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="I49" s="27">
         <v>0</v>
@@ -6368,7 +6372,7 @@
         <v>50</v>
       </c>
       <c r="G50" s="27" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="I50" s="27">
         <v>0</v>
@@ -6379,7 +6383,7 @@
         <v>50</v>
       </c>
       <c r="G51" s="27" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="I51" s="27">
         <v>0</v>
@@ -6390,7 +6394,7 @@
         <v>50</v>
       </c>
       <c r="G52" s="27" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="I52" s="27">
         <v>0</v>
@@ -6401,7 +6405,7 @@
         <v>50</v>
       </c>
       <c r="G53" s="27" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="I53" s="27">
         <v>0</v>
@@ -6412,7 +6416,7 @@
         <v>50</v>
       </c>
       <c r="G54" s="27" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="I54" s="27">
         <v>0</v>
@@ -6423,7 +6427,7 @@
         <v>50</v>
       </c>
       <c r="G55" s="27" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="I55" s="27">
         <v>0</v>
@@ -6434,7 +6438,7 @@
         <v>50</v>
       </c>
       <c r="G56" s="27" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="I56" s="27">
         <v>1</v>
@@ -6445,7 +6449,7 @@
         <v>50</v>
       </c>
       <c r="G57" s="27" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="I57" s="27">
         <v>1</v>
@@ -6456,7 +6460,7 @@
         <v>50</v>
       </c>
       <c r="G58" s="27" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="I58" s="27">
         <v>0</v>
@@ -6467,7 +6471,7 @@
         <v>50</v>
       </c>
       <c r="G59" s="27" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="I59" s="27">
         <v>0</v>
@@ -6478,7 +6482,7 @@
         <v>50</v>
       </c>
       <c r="G60" s="27" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="I60" s="27">
         <v>1</v>
@@ -6486,10 +6490,10 @@
     </row>
     <row r="61" spans="6:9" s="28" customFormat="1" ht="17.55">
       <c r="F61" s="28" t="s">
-        <v>63</v>
+        <v>393</v>
       </c>
       <c r="G61" s="28" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="I61" s="28">
         <v>1</v>
@@ -6497,10 +6501,10 @@
     </row>
     <row r="62" spans="6:9" s="28" customFormat="1" ht="17.55">
       <c r="F62" s="28" t="s">
-        <v>63</v>
+        <v>393</v>
       </c>
       <c r="G62" s="28" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="I62" s="28">
         <v>1</v>
@@ -6508,10 +6512,10 @@
     </row>
     <row r="63" spans="6:9" s="28" customFormat="1" ht="17.55">
       <c r="F63" s="28" t="s">
-        <v>63</v>
+        <v>393</v>
       </c>
       <c r="G63" s="28" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="I63" s="28">
         <v>0</v>
@@ -6519,10 +6523,10 @@
     </row>
     <row r="64" spans="6:9" s="28" customFormat="1" ht="17.55">
       <c r="F64" s="28" t="s">
-        <v>63</v>
+        <v>393</v>
       </c>
       <c r="G64" s="28" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="I64" s="28">
         <v>1</v>
@@ -6530,10 +6534,10 @@
     </row>
     <row r="65" spans="6:9" s="28" customFormat="1" ht="17.55">
       <c r="F65" s="28" t="s">
-        <v>62</v>
+        <v>391</v>
       </c>
       <c r="G65" s="28" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="I65" s="28">
         <v>0</v>
@@ -6541,10 +6545,10 @@
     </row>
     <row r="66" spans="6:9" s="28" customFormat="1" ht="17.55">
       <c r="F66" s="28" t="s">
-        <v>62</v>
+        <v>391</v>
       </c>
       <c r="G66" s="28" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="I66" s="28">
         <v>1</v>
@@ -6552,10 +6556,10 @@
     </row>
     <row r="67" spans="6:9" s="28" customFormat="1" ht="17.55">
       <c r="F67" s="28" t="s">
-        <v>62</v>
+        <v>391</v>
       </c>
       <c r="G67" s="28" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="I67" s="28">
         <v>0</v>
@@ -6563,10 +6567,10 @@
     </row>
     <row r="68" spans="6:9" s="28" customFormat="1" ht="17.55">
       <c r="F68" s="28" t="s">
-        <v>62</v>
+        <v>391</v>
       </c>
       <c r="G68" s="28" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="I68" s="28">
         <v>1</v>
@@ -6574,10 +6578,10 @@
     </row>
     <row r="69" spans="6:9" s="28" customFormat="1" ht="17.55">
       <c r="F69" s="28" t="s">
-        <v>62</v>
+        <v>391</v>
       </c>
       <c r="G69" s="28" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="I69" s="28">
         <v>1</v>
@@ -6585,10 +6589,10 @@
     </row>
     <row r="70" spans="6:9" s="28" customFormat="1" ht="17.55">
       <c r="F70" s="28" t="s">
-        <v>62</v>
+        <v>391</v>
       </c>
       <c r="G70" s="28" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="I70" s="28">
         <v>1</v>
@@ -6596,10 +6600,10 @@
     </row>
     <row r="71" spans="6:9" s="29" customFormat="1" ht="17.55">
       <c r="F71" s="28" t="s">
-        <v>62</v>
+        <v>391</v>
       </c>
       <c r="G71" s="29" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="I71" s="28">
         <v>0</v>
@@ -6607,10 +6611,10 @@
     </row>
     <row r="72" spans="6:9" s="29" customFormat="1" ht="17.55">
       <c r="F72" s="28" t="s">
-        <v>62</v>
+        <v>391</v>
       </c>
       <c r="G72" s="29" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="I72" s="28">
         <v>1</v>
@@ -6618,10 +6622,10 @@
     </row>
     <row r="73" spans="6:9" s="29" customFormat="1" ht="17.55">
       <c r="F73" s="28" t="s">
-        <v>62</v>
+        <v>391</v>
       </c>
       <c r="G73" s="29" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="I73" s="28">
         <v>0</v>
@@ -6629,10 +6633,10 @@
     </row>
     <row r="74" spans="6:9" s="29" customFormat="1" ht="17.55">
       <c r="F74" s="28" t="s">
-        <v>62</v>
+        <v>391</v>
       </c>
       <c r="G74" s="29" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="I74" s="28">
         <v>0</v>
@@ -6640,10 +6644,10 @@
     </row>
     <row r="75" spans="6:9" s="29" customFormat="1" ht="17.55">
       <c r="F75" s="28" t="s">
-        <v>62</v>
+        <v>391</v>
       </c>
       <c r="G75" s="29" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="I75" s="28">
         <v>0</v>
@@ -6651,10 +6655,10 @@
     </row>
     <row r="76" spans="6:9" s="29" customFormat="1" ht="17.55">
       <c r="F76" s="28" t="s">
-        <v>62</v>
+        <v>391</v>
       </c>
       <c r="G76" s="29" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="I76" s="28">
         <v>1</v>
@@ -6662,10 +6666,10 @@
     </row>
     <row r="77" spans="6:9" s="29" customFormat="1" ht="17.55">
       <c r="F77" s="28" t="s">
-        <v>62</v>
+        <v>391</v>
       </c>
       <c r="G77" s="29" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="I77" s="28">
         <v>0</v>
@@ -6673,10 +6677,10 @@
     </row>
     <row r="78" spans="6:9" s="29" customFormat="1" ht="17.55">
       <c r="F78" s="28" t="s">
-        <v>62</v>
+        <v>391</v>
       </c>
       <c r="G78" s="29" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="I78" s="28">
         <v>1</v>
@@ -6684,10 +6688,10 @@
     </row>
     <row r="79" spans="6:9" s="29" customFormat="1" ht="17.55">
       <c r="F79" s="28" t="s">
-        <v>62</v>
+        <v>391</v>
       </c>
       <c r="G79" s="29" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="I79" s="28">
         <v>1</v>
@@ -6695,10 +6699,10 @@
     </row>
     <row r="80" spans="6:9" s="29" customFormat="1" ht="17.55">
       <c r="F80" s="28" t="s">
-        <v>62</v>
+        <v>391</v>
       </c>
       <c r="G80" s="29" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="I80" s="28">
         <v>1</v>
@@ -6706,10 +6710,10 @@
     </row>
     <row r="81" spans="6:9" s="29" customFormat="1" ht="17.55">
       <c r="F81" s="28" t="s">
-        <v>62</v>
+        <v>391</v>
       </c>
       <c r="G81" s="29" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="I81" s="28">
         <v>0</v>
@@ -6717,10 +6721,10 @@
     </row>
     <row r="82" spans="6:9" s="29" customFormat="1" ht="17.55">
       <c r="F82" s="28" t="s">
-        <v>62</v>
+        <v>391</v>
       </c>
       <c r="G82" s="29" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="I82" s="28">
         <v>1</v>
@@ -6731,7 +6735,7 @@
         <v>45</v>
       </c>
       <c r="G83" s="30" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="I83" s="30">
         <v>1</v>
@@ -6742,7 +6746,7 @@
         <v>45</v>
       </c>
       <c r="G84" s="30" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="I84" s="30">
         <v>0</v>
@@ -6753,7 +6757,7 @@
         <v>45</v>
       </c>
       <c r="G85" s="30" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="I85" s="30">
         <v>0</v>
@@ -6764,7 +6768,7 @@
         <v>45</v>
       </c>
       <c r="G86" s="30" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="I86" s="30">
         <v>0</v>
@@ -6775,7 +6779,7 @@
         <v>45</v>
       </c>
       <c r="G87" s="30" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="I87" s="30">
         <v>0</v>
@@ -6813,23 +6817,23 @@
   <sheetData>
     <row r="7" spans="4:7" ht="13">
       <c r="D7" s="18" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="E7" s="18" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="G7" s="18" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="8" spans="4:7" s="21" customFormat="1" ht="18.2">
       <c r="D8" s="22"/>
       <c r="E8" s="22"/>
       <c r="F8" s="22" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="G8" s="23" t="s">
         <v>50</v>
@@ -6839,7 +6843,7 @@
       <c r="D9" s="22"/>
       <c r="E9" s="22"/>
       <c r="F9" s="22" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="G9" s="23" t="s">
         <v>50</v>
@@ -6849,7 +6853,7 @@
       <c r="D10" s="22"/>
       <c r="E10" s="22"/>
       <c r="F10" s="22" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="G10" s="24" t="s">
         <v>59</v>
@@ -6859,7 +6863,7 @@
       <c r="D11" s="22"/>
       <c r="E11" s="22"/>
       <c r="F11" s="22" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="G11" s="24" t="s">
         <v>59</v>
@@ -6869,48 +6873,48 @@
       <c r="D12" s="22"/>
       <c r="E12" s="22"/>
       <c r="F12" s="22" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="G12" s="24" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="4:7" s="21" customFormat="1" ht="18.2">
       <c r="D13" s="22"/>
       <c r="E13" s="22"/>
       <c r="F13" s="22" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="G13" s="24" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="4:7" ht="18.2">
       <c r="F14" s="25" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="G14" s="26" t="s">
-        <v>62</v>
+        <v>391</v>
       </c>
     </row>
     <row r="15" spans="4:7" s="21" customFormat="1" ht="18.2">
       <c r="D15" s="22"/>
       <c r="E15" s="22"/>
       <c r="F15" s="25" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="G15" s="26" t="s">
-        <v>63</v>
+        <v>393</v>
       </c>
     </row>
     <row r="16" spans="4:7" s="21" customFormat="1" ht="18.2">
       <c r="D16" s="22"/>
       <c r="E16" s="22"/>
       <c r="F16" s="25" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="G16" s="26" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" s="22" customFormat="1" ht="18.2"/>
@@ -6957,8 +6961,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:I85"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L47" sqref="L47"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.7"/>
@@ -6974,19 +6978,19 @@
   <sheetData>
     <row r="7" spans="4:9" ht="19" customHeight="1">
       <c r="D7" s="5" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="I7" s="18" t="s">
         <v>11</v>
@@ -6994,10 +6998,10 @@
     </row>
     <row r="8" spans="4:9" s="3" customFormat="1">
       <c r="F8" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H8" s="7" t="s">
         <v>26</v>
@@ -7008,10 +7012,10 @@
     </row>
     <row r="9" spans="4:9" s="3" customFormat="1">
       <c r="F9" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H9" s="7" t="s">
         <v>26</v>
@@ -7022,10 +7026,10 @@
     </row>
     <row r="10" spans="4:9" s="3" customFormat="1">
       <c r="F10" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H10" s="7" t="s">
         <v>26</v>
@@ -7036,10 +7040,10 @@
     </row>
     <row r="11" spans="4:9" s="3" customFormat="1">
       <c r="F11" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H11" s="7" t="s">
         <v>26</v>
@@ -7050,10 +7054,10 @@
     </row>
     <row r="12" spans="4:9" s="3" customFormat="1">
       <c r="F12" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H12" s="7" t="s">
         <v>26</v>
@@ -7064,10 +7068,10 @@
     </row>
     <row r="13" spans="4:9" s="3" customFormat="1">
       <c r="F13" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H13" s="7" t="s">
         <v>26</v>
@@ -7078,10 +7082,10 @@
     </row>
     <row r="14" spans="4:9" s="3" customFormat="1">
       <c r="F14" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H14" s="7" t="s">
         <v>26</v>
@@ -7092,10 +7096,10 @@
     </row>
     <row r="15" spans="4:9" s="3" customFormat="1">
       <c r="F15" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H15" s="7" t="s">
         <v>26</v>
@@ -7106,13 +7110,13 @@
     </row>
     <row r="16" spans="4:9" s="3" customFormat="1">
       <c r="F16" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="I16" s="7">
         <v>1</v>
@@ -7120,13 +7124,13 @@
     </row>
     <row r="17" spans="4:9" s="3" customFormat="1">
       <c r="F17" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="I17" s="7">
         <v>1</v>
@@ -7134,13 +7138,13 @@
     </row>
     <row r="18" spans="4:9" s="3" customFormat="1">
       <c r="F18" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="I18" s="7">
         <v>1</v>
@@ -7148,13 +7152,13 @@
     </row>
     <row r="19" spans="4:9" s="3" customFormat="1">
       <c r="F19" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="I19" s="7">
         <v>1</v>
@@ -7162,13 +7166,13 @@
     </row>
     <row r="20" spans="4:9" s="3" customFormat="1">
       <c r="F20" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="I20" s="7">
         <v>1</v>
@@ -7176,13 +7180,13 @@
     </row>
     <row r="21" spans="4:9" s="3" customFormat="1">
       <c r="F21" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="I21" s="7">
         <v>1</v>
@@ -7190,13 +7194,13 @@
     </row>
     <row r="22" spans="4:9" s="3" customFormat="1">
       <c r="F22" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="I22" s="7">
         <v>1</v>
@@ -7204,13 +7208,13 @@
     </row>
     <row r="23" spans="4:9" s="3" customFormat="1">
       <c r="F23" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="I23" s="7">
         <v>1</v>
@@ -7218,13 +7222,13 @@
     </row>
     <row r="24" spans="4:9" s="3" customFormat="1">
       <c r="F24" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="I24" s="7">
         <v>1</v>
@@ -7232,13 +7236,13 @@
     </row>
     <row r="25" spans="4:9" s="3" customFormat="1">
       <c r="F25" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="I25" s="7">
         <v>1</v>
@@ -7246,13 +7250,13 @@
     </row>
     <row r="26" spans="4:9" s="3" customFormat="1">
       <c r="F26" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="I26" s="7">
         <v>1</v>
@@ -7260,13 +7264,13 @@
     </row>
     <row r="27" spans="4:9" s="3" customFormat="1">
       <c r="F27" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="I27" s="7">
         <v>1</v>
@@ -7274,13 +7278,13 @@
     </row>
     <row r="28" spans="4:9" s="3" customFormat="1">
       <c r="F28" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="I28" s="7">
         <v>1</v>
@@ -7288,13 +7292,13 @@
     </row>
     <row r="29" spans="4:9" s="3" customFormat="1">
       <c r="F29" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="I29" s="7">
         <v>1</v>
@@ -7302,13 +7306,13 @@
     </row>
     <row r="30" spans="4:9" s="3" customFormat="1">
       <c r="F30" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="I30" s="7">
         <v>1</v>
@@ -7316,13 +7320,13 @@
     </row>
     <row r="31" spans="4:9" s="3" customFormat="1">
       <c r="F31" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="I31" s="7">
         <v>1</v>
@@ -7332,10 +7336,10 @@
       <c r="D32" s="6"/>
       <c r="E32" s="8"/>
       <c r="F32" s="9" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H32" s="7" t="s">
         <v>42</v>
@@ -7348,10 +7352,10 @@
       <c r="D33" s="6"/>
       <c r="E33" s="8"/>
       <c r="F33" s="9" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H33" s="7" t="s">
         <v>42</v>
@@ -7364,10 +7368,10 @@
       <c r="D34" s="6"/>
       <c r="E34" s="8"/>
       <c r="F34" s="9" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H34" s="7" t="s">
         <v>42</v>
@@ -7380,10 +7384,10 @@
       <c r="D35" s="6"/>
       <c r="E35" s="8"/>
       <c r="F35" s="9" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H35" s="7" t="s">
         <v>42</v>
@@ -7394,10 +7398,10 @@
     </row>
     <row r="36" spans="4:9" s="3" customFormat="1">
       <c r="F36" s="10" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H36" s="10" t="s">
         <v>26</v>
@@ -7406,10 +7410,10 @@
     </row>
     <row r="37" spans="4:9" s="4" customFormat="1">
       <c r="F37" s="11" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="G37" s="11" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H37" s="11" t="s">
         <v>26</v>
@@ -7420,10 +7424,10 @@
     </row>
     <row r="38" spans="4:9" s="4" customFormat="1">
       <c r="F38" s="11" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="G38" s="11" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H38" s="11" t="s">
         <v>26</v>
@@ -7434,10 +7438,10 @@
     </row>
     <row r="39" spans="4:9">
       <c r="F39" s="10" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="G39" s="10" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H39" s="10" t="s">
         <v>26</v>
@@ -7446,10 +7450,10 @@
     </row>
     <row r="40" spans="4:9">
       <c r="F40" s="10" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="H40" s="10" t="s">
         <v>26</v>
@@ -7458,10 +7462,10 @@
     </row>
     <row r="41" spans="4:9" s="3" customFormat="1">
       <c r="F41" s="3" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="G41" s="12" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>26</v>
@@ -7469,10 +7473,10 @@
     </row>
     <row r="42" spans="4:9" s="3" customFormat="1">
       <c r="F42" s="3" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="G42" s="12" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>26</v>
@@ -7480,25 +7484,25 @@
     </row>
     <row r="43" spans="4:9">
       <c r="F43" s="10" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="G43" s="10" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H43" s="10" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="I43" s="10"/>
     </row>
     <row r="44" spans="4:9" s="4" customFormat="1">
       <c r="F44" s="11" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="G44" s="11" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H44" s="11" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="I44" s="4">
         <v>1</v>
@@ -7506,13 +7510,13 @@
     </row>
     <row r="45" spans="4:9" s="4" customFormat="1">
       <c r="F45" s="11" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="G45" s="11" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H45" s="11" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="I45" s="4">
         <v>1</v>
@@ -7520,71 +7524,71 @@
     </row>
     <row r="46" spans="4:9">
       <c r="F46" s="10" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="G46" s="10" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H46" s="10" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="I46" s="13"/>
     </row>
     <row r="47" spans="4:9">
       <c r="F47" s="10" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="G47" s="10" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="H47" s="10" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="I47" s="13"/>
     </row>
     <row r="48" spans="4:9" s="3" customFormat="1">
       <c r="F48" s="10" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="G48" s="12" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="H48" s="10" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="49" spans="6:9" s="3" customFormat="1">
       <c r="F49" s="10" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="G49" s="12" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="H49" s="10" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="50" spans="6:9">
       <c r="F50" s="10" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="G50" s="10" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H50" s="10" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="I50" s="10"/>
     </row>
     <row r="51" spans="6:9" s="4" customFormat="1">
       <c r="F51" s="11" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H51" s="11" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="I51" s="4">
         <v>1</v>
@@ -7592,13 +7596,13 @@
     </row>
     <row r="52" spans="6:9" s="4" customFormat="1">
       <c r="F52" s="11" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H52" s="11" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="I52" s="4">
         <v>1</v>
@@ -7606,56 +7610,56 @@
     </row>
     <row r="53" spans="6:9">
       <c r="F53" s="10" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="G53" s="13" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H53" s="10" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="I53" s="13"/>
     </row>
     <row r="54" spans="6:9">
       <c r="F54" s="10" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="G54" s="13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="H54" s="10" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="I54" s="13"/>
     </row>
     <row r="55" spans="6:9" s="3" customFormat="1">
       <c r="F55" s="10" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="G55" s="12" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="H55" s="10" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="56" spans="6:9" s="3" customFormat="1">
       <c r="F56" s="10" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="G56" s="12" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="H56" s="10" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="57" spans="6:9" ht="13">
       <c r="F57" s="14" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="G57" s="15" t="s">
-        <v>163</v>
+        <v>394</v>
       </c>
       <c r="H57" s="15" t="s">
         <v>42</v>
@@ -7664,10 +7668,10 @@
     </row>
     <row r="58" spans="6:9" ht="12.35">
       <c r="F58" s="14" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="G58" s="16" t="s">
-        <v>167</v>
+        <v>392</v>
       </c>
       <c r="H58" s="15" t="s">
         <v>42</v>
@@ -7676,10 +7680,10 @@
     </row>
     <row r="59" spans="6:9" ht="12.35">
       <c r="F59" s="14" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="G59" s="16" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="H59" s="15" t="s">
         <v>42</v>
@@ -7688,10 +7692,10 @@
     </row>
     <row r="60" spans="6:9" ht="13">
       <c r="F60" s="14" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="G60" s="15" t="s">
-        <v>163</v>
+        <v>389</v>
       </c>
       <c r="H60" s="15" t="s">
         <v>42</v>
@@ -7700,10 +7704,10 @@
     </row>
     <row r="61" spans="6:9" ht="12.35">
       <c r="F61" s="14" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="G61" s="16" t="s">
-        <v>167</v>
+        <v>392</v>
       </c>
       <c r="H61" s="15" t="s">
         <v>42</v>
@@ -7712,10 +7716,10 @@
     </row>
     <row r="62" spans="6:9" ht="12.35">
       <c r="F62" s="14" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="G62" s="16" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="H62" s="15" t="s">
         <v>42</v>
@@ -7853,7 +7857,7 @@
   <sheetData>
     <row r="7" spans="4:11">
       <c r="D7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="E7" t="s">
         <v>1</v>
@@ -7868,13 +7872,13 @@
         <v>5</v>
       </c>
       <c r="I7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="J7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="K7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
   </sheetData>
@@ -7902,22 +7906,22 @@
   <sheetData>
     <row r="7" spans="4:9">
       <c r="D7" t="s">
+        <v>275</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>276</v>
+      </c>
+      <c r="G7" t="s">
+        <v>277</v>
+      </c>
+      <c r="H7" t="s">
+        <v>278</v>
+      </c>
+      <c r="I7" t="s">
         <v>279</v>
-      </c>
-      <c r="E7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F7" t="s">
-        <v>280</v>
-      </c>
-      <c r="G7" t="s">
-        <v>281</v>
-      </c>
-      <c r="H7" t="s">
-        <v>282</v>
-      </c>
-      <c r="I7" t="s">
-        <v>283</v>
       </c>
     </row>
   </sheetData>
@@ -7948,71 +7952,71 @@
   <sheetData>
     <row r="7" spans="4:12">
       <c r="D7" t="s">
+        <v>280</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>276</v>
+      </c>
+      <c r="G7" t="s">
+        <v>281</v>
+      </c>
+      <c r="H7" t="s">
+        <v>282</v>
+      </c>
+      <c r="I7" t="s">
+        <v>283</v>
+      </c>
+      <c r="J7" t="s">
         <v>284</v>
       </c>
-      <c r="E7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F7" t="s">
-        <v>280</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="K7" t="s">
         <v>285</v>
       </c>
-      <c r="H7" t="s">
+      <c r="L7" t="s">
         <v>286</v>
-      </c>
-      <c r="I7" t="s">
-        <v>287</v>
-      </c>
-      <c r="J7" t="s">
-        <v>288</v>
-      </c>
-      <c r="K7" t="s">
-        <v>289</v>
-      </c>
-      <c r="L7" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="8" spans="4:12">
       <c r="F8" t="s">
+        <v>287</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8" t="s">
+        <v>288</v>
+      </c>
+      <c r="I8" t="s">
+        <v>289</v>
+      </c>
+      <c r="J8" t="s">
+        <v>290</v>
+      </c>
+      <c r="K8" t="s">
         <v>291</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8" t="s">
-        <v>292</v>
-      </c>
-      <c r="I8" t="s">
-        <v>293</v>
-      </c>
-      <c r="J8" t="s">
-        <v>294</v>
-      </c>
-      <c r="K8" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="9" spans="4:12">
       <c r="F9" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="I9" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="J9" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="K9" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -8043,7 +8047,7 @@
   <sheetData>
     <row r="7" spans="4:9" ht="15.6">
       <c r="D7" s="2" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>1</v>
@@ -8055,181 +8059,181 @@
         <v>6</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="8" spans="4:9" ht="15.6">
       <c r="D8" s="2"/>
       <c r="E8" s="1" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="9" spans="4:9" ht="15.6">
       <c r="E9" s="1" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="10" spans="4:9" ht="15.6">
       <c r="E10" s="1" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="11" spans="4:9" ht="15.6">
       <c r="E11" s="1" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="12" spans="4:9" ht="15.6">
       <c r="E12" s="1" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="13" spans="4:9" ht="15.6">
       <c r="E13" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="14" spans="4:9" ht="15.6">
       <c r="E14" s="1" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="15" spans="4:9" ht="15.6">
       <c r="E15" s="1" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="16" spans="4:9" ht="15.6">
       <c r="E16" s="1" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="17" spans="5:9" ht="15.6">
       <c r="E17" s="1" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="18" spans="5:9" ht="15.6">
